--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -424,13 +424,16 @@
     <t>Cronograma de calidad</t>
   </si>
   <si>
-    <t>Cronograma_calidad</t>
-  </si>
-  <si>
     <t>Plan_calidad</t>
   </si>
   <si>
     <t>Check List Organizacional</t>
+  </si>
+  <si>
+    <t>PTL_Checklist_organizacional_aammdd</t>
+  </si>
+  <si>
+    <t>PTL_Cronograma_calidad</t>
   </si>
 </sst>
 </file>
@@ -4565,7 +4568,7 @@
         <v>128</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4574,15 +4577,17 @@
         <v>129</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="135">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>PTL_Cronograma_calidad</t>
+  </si>
+  <si>
+    <t>Cronograma_calidad</t>
   </si>
 </sst>
 </file>
@@ -888,34 +891,31 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -939,28 +939,31 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ119"/>
+  <dimension ref="A1:AMJ120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1391,17 +1394,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:1024" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="17"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -3452,10 +3455,10 @@
     </row>
     <row r="4" spans="1:1024" s="24" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="25"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -4480,10 +4483,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4498,10 +4501,10 @@
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="37"/>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
@@ -4523,10 +4526,10 @@
     </row>
     <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -4539,10 +4542,10 @@
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -4591,10 +4594,10 @@
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
@@ -4607,10 +4610,10 @@
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="45"/>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
@@ -4636,22 +4639,22 @@
       <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="56"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="53"/>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="57"/>
     </row>
     <row r="27" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="36" t="s">
@@ -4670,10 +4673,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="57"/>
     </row>
     <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="30" t="s">
@@ -4716,10 +4719,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="41"/>
+      <c r="C35" s="57"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="30" t="s">
@@ -4746,10 +4749,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="41"/>
+      <c r="C39" s="57"/>
     </row>
     <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
@@ -4779,10 +4782,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="57"/>
     </row>
     <row r="44" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
@@ -4795,168 +4798,173 @@
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="46"/>
+      <c r="C45" s="61"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="32" t="s">
-        <v>114</v>
+      <c r="B46" s="28" t="s">
+        <v>129</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C49" s="32" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-    </row>
-    <row r="50" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="45" t="s">
+    <row r="50" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+    </row>
+    <row r="51" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="45"/>
-    </row>
-    <row r="51" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="42" t="s">
+      <c r="C51" s="60"/>
+    </row>
+    <row r="52" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="42"/>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
+      <c r="C52" s="38"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="43" t="s">
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="44"/>
-    </row>
-    <row r="54" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="33" t="s">
+      <c r="C54" s="59"/>
+    </row>
+    <row r="55" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C55" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="38" t="s">
+    <row r="56" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+    </row>
+    <row r="57" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="39"/>
-    </row>
-    <row r="57" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="49" t="s">
+      <c r="C57" s="55"/>
+    </row>
+    <row r="58" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="50"/>
-    </row>
-    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="42" t="s">
+      <c r="C58" s="49"/>
+    </row>
+    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+    </row>
+    <row r="61" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="42"/>
-    </row>
-    <row r="61" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="53" t="s">
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="53"/>
-    </row>
-    <row r="62" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-    </row>
-    <row r="64" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="48" t="s">
+      <c r="C62" s="52"/>
+    </row>
+    <row r="63" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+    </row>
+    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+    </row>
+    <row r="65" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="48"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="47"/>
       <c r="C65" s="47"/>
     </row>
-    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-    </row>
-    <row r="68" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B68" s="21" t="s">
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+    </row>
+    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+    </row>
+    <row r="69" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B69" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="34" t="s">
+    <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="35"/>
-    </row>
-    <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B70" s="34"/>
       <c r="C70" s="35"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B71" s="34"/>
+      <c r="C71" s="35"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
@@ -4971,11 +4979,6 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
@@ -5329,6 +5332,8 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -5356,8 +5361,31 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="B62:C63"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
@@ -5368,22 +5396,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C58"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -322,18 +322,6 @@
     <t>Cierre</t>
   </si>
   <si>
-    <t>Carta de aceptación</t>
-  </si>
-  <si>
-    <t>Correo_carta_aceptación</t>
-  </si>
-  <si>
-    <t>Carta de confirmación</t>
-  </si>
-  <si>
-    <t>Correo_carta_confirmación</t>
-  </si>
-  <si>
     <t>Garantía</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
     <t>Cronograma_calidad</t>
   </si>
   <si>
-    <t>Se genera un respaldo del CRM en forma mensual cuyo responsable de ejecución sera:    .</t>
-  </si>
-  <si>
     <t>Proyectos</t>
   </si>
   <si>
@@ -491,6 +476,18 @@
   </si>
   <si>
     <t>PTL_Minuta</t>
+  </si>
+  <si>
+    <t>carta_aceptación</t>
+  </si>
+  <si>
+    <t>Carta de aceptación/confirmación</t>
+  </si>
+  <si>
+    <t>PTL_carta_aceptación</t>
+  </si>
+  <si>
+    <t>Se genera un respaldo del CRM en forma semanal cuyo responsable de ejecución sera:    .</t>
   </si>
 </sst>
 </file>
@@ -938,6 +935,12 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -947,13 +950,16 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +968,7 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,12 +1023,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1401,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ126"/>
+  <dimension ref="A1:AMJ127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:C56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1456,17 +1453,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3517,10 +3514,10 @@
     </row>
     <row r="4" spans="1:1024" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="35"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -4545,10 +4542,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4560,33 +4557,33 @@
       </c>
     </row>
     <row r="7" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="44"/>
+      <c r="B7" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="42"/>
+      <c r="C10" s="45"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -4594,7 +4591,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4603,17 +4600,17 @@
         <v>74</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="36"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
@@ -4621,7 +4618,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4635,469 +4632,472 @@
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="38"/>
+      <c r="B16" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="45"/>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="27" t="s">
-        <v>81</v>
+      <c r="B17" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>79</v>
-      </c>
+      <c r="B18" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="26" t="s">
-        <v>124</v>
+      <c r="B19" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="26" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="26" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="42"/>
+      <c r="B22" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>138</v>
+      <c r="B23" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>139</v>
-      </c>
+      <c r="B24" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="45"/>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="30" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="30" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="42"/>
+      <c r="B28" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>111</v>
+      <c r="B29" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-      <c r="B30" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="40"/>
+      <c r="B30" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="27" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="C31" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="46" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="37"/>
-    </row>
-    <row r="33" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="52" t="s">
+      <c r="C32" s="46"/>
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="52"/>
-    </row>
-    <row r="34" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="58" t="s">
+      <c r="C35" s="54"/>
+    </row>
+    <row r="36" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="59"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="C36" s="61"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="59"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>92</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="61"/>
     </row>
     <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C45" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="58" t="s">
+    <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="59"/>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>99</v>
-      </c>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="28" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="59"/>
-    </row>
-    <row r="49" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3"/>
-      <c r="B49" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="61"/>
+    </row>
+    <row r="50" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="60"/>
+      <c r="B50" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>132</v>
-      </c>
+      <c r="B51" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="30" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
-      <c r="B53" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="62"/>
+      <c r="B53" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
-      <c r="B54" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>149</v>
-      </c>
+      <c r="B54" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="64"/>
     </row>
     <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="30" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-    </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="57"/>
-    </row>
-    <row r="59" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="59" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="59"/>
+    </row>
+    <row r="60" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="35"/>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="13" t="s">
+      <c r="C60" s="37"/>
+    </row>
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="55" t="s">
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="56"/>
-    </row>
-    <row r="62" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="31" t="s">
+      <c r="C62" s="58"/>
+    </row>
+    <row r="63" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="53" t="s">
+      <c r="C63" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+    </row>
+    <row r="65" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="54"/>
-    </row>
-    <row r="65" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="47" t="s">
+      <c r="C65" s="56"/>
+    </row>
+    <row r="66" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="48"/>
-    </row>
-    <row r="66" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="49"/>
       <c r="C66" s="50"/>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="35" t="s">
+    <row r="67" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+    </row>
+    <row r="69" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="35"/>
-    </row>
-    <row r="69" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="51" t="s">
+      <c r="C69" s="37"/>
+    </row>
+    <row r="70" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="51"/>
-    </row>
-    <row r="70" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-    </row>
-    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="46" t="s">
+      <c r="C70" s="53"/>
+    </row>
+    <row r="71" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+    </row>
+    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C72" s="46"/>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="45" t="s">
+      <c r="C73" s="48"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="47"/>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+    </row>
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="B77" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="B79" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="45"/>
-    </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-    </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-    </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B76" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
-      <c r="B77" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B78" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
@@ -5112,11 +5112,6 @@
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
@@ -5470,6 +5465,8 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -5497,40 +5494,48 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B64:C64"/>
+  <mergeCells count="29">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="B70:C71"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C77" r:id="rId1"/>
-    <hyperlink ref="C78" r:id="rId2"/>
+    <hyperlink ref="C78" r:id="rId1"/>
+    <hyperlink ref="C79" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -244,15 +244,9 @@
     <t>Herramientas de Trabajo</t>
   </si>
   <si>
-    <t>GitHub</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Para la correcta identificacion de un archivo se toma la siguiente base , carpeta origen/Carpeta/subcarpeta/ archivo. Ejemplo : Origen/Organización/Plantillas/PTL_Requerimientos</t>
-  </si>
-  <si>
     <t>PTL Plan de proyecto</t>
   </si>
   <si>
@@ -286,12 +280,6 @@
     <t>Cotización</t>
   </si>
   <si>
-    <t>Correo de cotización</t>
-  </si>
-  <si>
-    <t>Correo_cotización</t>
-  </si>
-  <si>
     <t>Comprobante de pago</t>
   </si>
   <si>
@@ -322,30 +310,12 @@
     <t>Cierre</t>
   </si>
   <si>
-    <t>Garantía</t>
-  </si>
-  <si>
-    <t>Correo de validación de solicitud</t>
-  </si>
-  <si>
-    <t>Correo_validación_&lt;nombre de solicitud&gt;</t>
-  </si>
-  <si>
     <t>Ciclo de Vida</t>
   </si>
   <si>
     <t>Ciclo_de_vida</t>
   </si>
   <si>
-    <t>PTL_Plan_proyecto_nombreproyecto</t>
-  </si>
-  <si>
-    <t>PTL_Estimación_nombreproyecto</t>
-  </si>
-  <si>
-    <t>PTL_Requerimientos_nombreproyecto</t>
-  </si>
-  <si>
     <t>Ciclo_Vida</t>
   </si>
   <si>
@@ -370,21 +340,6 @@
     <t>No_conformidades</t>
   </si>
   <si>
-    <t>Prospectación</t>
-  </si>
-  <si>
-    <t>Correo de asignación</t>
-  </si>
-  <si>
-    <t>Correo de portafolio</t>
-  </si>
-  <si>
-    <t>Correo_portafolio</t>
-  </si>
-  <si>
-    <t>Correo_asignación</t>
-  </si>
-  <si>
     <t>Encuesta de satisfacción</t>
   </si>
   <si>
@@ -478,9 +433,6 @@
     <t>PTL_Minuta</t>
   </si>
   <si>
-    <t>carta_aceptación</t>
-  </si>
-  <si>
     <t>Carta de aceptación/confirmación</t>
   </si>
   <si>
@@ -488,6 +440,27 @@
   </si>
   <si>
     <t>Se genera un respaldo del CRM en forma semanal cuyo responsable de ejecución sera:    .</t>
+  </si>
+  <si>
+    <t>GitHub (bajo el gestor source tree)</t>
+  </si>
+  <si>
+    <t>Procesos del ciclo de vida</t>
+  </si>
+  <si>
+    <t>Procesos_SOS</t>
+  </si>
+  <si>
+    <t>Para la correcta identificacion de un archivo se toma la siguiente base , carpeta origen/Carpeta/subcarpeta/ archivo. Ejemplo : Origen/Organización/Planeación/PTL_Plan_proyecto</t>
+  </si>
+  <si>
+    <t>PTL_Plan_proyecto</t>
+  </si>
+  <si>
+    <t>PTL_Estimación</t>
+  </si>
+  <si>
+    <t>PTL_Requerimientos</t>
   </si>
 </sst>
 </file>
@@ -612,7 +585,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,12 +673,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor rgb="FFCFE7F5"/>
       </patternFill>
     </fill>
@@ -719,12 +686,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFCFE7F5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -855,7 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -908,32 +869,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -956,12 +914,6 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -971,7 +923,7 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +941,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1010,19 +962,19 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1398,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ127"/>
+  <dimension ref="A1:AMJ121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1453,17 +1405,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="40"/>
+      <c r="B2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="39"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3514,10 +3466,10 @@
     </row>
     <row r="4" spans="1:1024" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -4542,10 +4494,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4556,42 +4508,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="43"/>
-    </row>
-    <row r="8" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>115</v>
+    <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="42"/>
+    </row>
+    <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="45"/>
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4600,518 +4557,522 @@
         <v>74</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="36"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="26" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>77</v>
-      </c>
+      <c r="B15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="45"/>
+      <c r="B16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="26" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="27" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="27" t="s">
-        <v>81</v>
+      <c r="B19" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="26" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>122</v>
-      </c>
+      <c r="B21" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>125</v>
+      <c r="B22" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>124</v>
+      <c r="B23" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="45"/>
+      <c r="C24" s="30" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="30" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>147</v>
-      </c>
+      <c r="B27" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>138</v>
+      <c r="B28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>145</v>
-      </c>
+      <c r="B29" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-      <c r="B30" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="45"/>
+      <c r="B30" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="27" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-      <c r="B32" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="46"/>
-    </row>
-    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="39"/>
-    </row>
-    <row r="35" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="38"/>
+    </row>
+    <row r="33" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="51"/>
+    </row>
+    <row r="34" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="58"/>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="54"/>
-    </row>
-    <row r="36" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="61"/>
+      <c r="C35" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28" t="s">
-        <v>6</v>
-      </c>
       <c r="C38" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="29" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="61"/>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="28" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C42" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="58"/>
+    </row>
+    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
       <c r="B44" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="60" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="61"/>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="C45" s="59"/>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B47" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="61"/>
-    </row>
-    <row r="50" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="61"/>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>98</v>
+      <c r="B50" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" s="62"/>
-    </row>
-    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3"/>
-      <c r="B52" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="27" t="s">
+      <c r="B51" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3"/>
-      <c r="B53" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3"/>
-      <c r="B54" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="64"/>
-    </row>
-    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3"/>
-      <c r="B55" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3"/>
-      <c r="B56" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="B57" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-    </row>
-    <row r="59" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" s="59"/>
-    </row>
-    <row r="60" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="37" t="s">
+    <row r="52" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="56"/>
+    </row>
+    <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="37"/>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
+      <c r="C54" s="36"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="57" t="s">
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="58"/>
-    </row>
-    <row r="63" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="31" t="s">
+      <c r="C56" s="55"/>
+    </row>
+    <row r="57" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C63" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="55" t="s">
+      <c r="C57" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="56"/>
-    </row>
-    <row r="66" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="49" t="s">
+      <c r="C59" s="53"/>
+    </row>
+    <row r="60" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="50"/>
-    </row>
-    <row r="67" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="51"/>
-      <c r="C67" s="52"/>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-    </row>
-    <row r="69" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="37" t="s">
+      <c r="C60" s="47"/>
+    </row>
+    <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="37"/>
-    </row>
-    <row r="70" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="53" t="s">
+      <c r="C63" s="36"/>
+    </row>
+    <row r="64" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="53"/>
-    </row>
-    <row r="71" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="16"/>
-      <c r="C72" s="17"/>
-    </row>
-    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="48" t="s">
+      <c r="C64" s="50"/>
+    </row>
+    <row r="65" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+    </row>
+    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="48"/>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C74" s="47"/>
-    </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-    </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-    </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B77" s="19" t="s">
+      <c r="C67" s="45"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="44"/>
+    </row>
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B71" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
-      <c r="B78" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B79" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+    <row r="72" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
+      <c r="B72" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B73" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
@@ -5420,8 +5381,6 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -5429,8 +5388,6 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -5438,8 +5395,6 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -5447,95 +5402,45 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
+  <mergeCells count="27">
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C78" r:id="rId1"/>
-    <hyperlink ref="C79" r:id="rId2"/>
+    <hyperlink ref="C72" r:id="rId1"/>
+    <hyperlink ref="C73" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\SOS\Organización\Configuración\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="875"/>
   </bookViews>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -304,9 +309,6 @@
     <t>Minuta de Compromiso</t>
   </si>
   <si>
-    <t>Minuta_compromiso</t>
-  </si>
-  <si>
     <t>Cierre</t>
   </si>
   <si>
@@ -421,9 +423,6 @@
     <t>Reporte_monitoreo_aammdd</t>
   </si>
   <si>
-    <t>Concentrado_metricas_aammdd</t>
-  </si>
-  <si>
     <t>Plan_Métricas_aaaa</t>
   </si>
   <si>
@@ -439,9 +438,6 @@
     <t>PTL_carta_aceptación</t>
   </si>
   <si>
-    <t>Se genera un respaldo del CRM en forma semanal cuyo responsable de ejecución sera:    .</t>
-  </si>
-  <si>
     <t>GitHub (bajo el gestor source tree)</t>
   </si>
   <si>
@@ -461,6 +457,18 @@
   </si>
   <si>
     <t>PTL_Requerimientos</t>
+  </si>
+  <si>
+    <t>Minutas de Proyectos</t>
+  </si>
+  <si>
+    <t>Minuta_compromiso_aammdd</t>
+  </si>
+  <si>
+    <t>Concentrado_métricas_aammdd</t>
+  </si>
+  <si>
+    <t>Se genera un respaldo del CRM en forma semanal cuyo responsable de ejecución es:</t>
   </si>
 </sst>
 </file>
@@ -893,57 +901,6 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -951,6 +908,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -977,9 +937,57 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1064,7 +1072,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1106,7 +1114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1141,7 +1149,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1350,13 +1358,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ121"/>
+  <dimension ref="A1:AMJ122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="585" ySplit="2940" topLeftCell="B34" activePane="bottomRight"/>
+      <selection activeCell="A26" sqref="A26"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1"/>
     <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
@@ -1405,17 +1417,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="39"/>
+      <c r="B2" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="57"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3466,10 +3478,10 @@
     </row>
     <row r="4" spans="1:1024" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -4494,10 +4506,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="56"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4510,10 +4522,10 @@
     </row>
     <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="60"/>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
@@ -4521,7 +4533,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4530,17 +4542,17 @@
         <v>72</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -4548,7 +4560,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4562,26 +4574,26 @@
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="42"/>
+      <c r="B13" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="60"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="40"/>
+      <c r="B15" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -4589,7 +4601,7 @@
         <v>79</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
@@ -4604,88 +4616,88 @@
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="42"/>
+      <c r="B21" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -4693,322 +4705,324 @@
         <v>35</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="43"/>
+      <c r="B29" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="38"/>
-    </row>
-    <row r="33" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="51" t="s">
+      <c r="B32" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="56"/>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="51"/>
-    </row>
-    <row r="34" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="57" t="s">
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="58"/>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>6</v>
-      </c>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C39" s="29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="58"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>88</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="42"/>
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C42" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="58"/>
-    </row>
-    <row r="44" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-      <c r="B44" s="28" t="s">
+      <c r="C44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="59"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
-      <c r="B46" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>112</v>
-      </c>
+      <c r="B46" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="61"/>
+      <c r="B48" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>129</v>
-      </c>
+      <c r="B49" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-    </row>
-    <row r="53" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="56"/>
-    </row>
-    <row r="54" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="36" t="s">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+    </row>
+    <row r="54" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="40"/>
+    </row>
+    <row r="55" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="36"/>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="C55" s="37"/>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="54" t="s">
+    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="55"/>
-    </row>
-    <row r="57" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="31" t="s">
+      <c r="C57" s="39"/>
+    </row>
+    <row r="58" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C57" s="31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="52" t="s">
+      <c r="C58" s="31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="53"/>
-    </row>
-    <row r="60" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="46" t="s">
+      <c r="C60" s="36"/>
+    </row>
+    <row r="61" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="47"/>
-    </row>
-    <row r="61" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="48"/>
       <c r="C61" s="49"/>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="36" t="s">
+    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+    </row>
+    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="36"/>
-    </row>
-    <row r="64" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="50" t="s">
+      <c r="C64" s="37"/>
+    </row>
+    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="50"/>
-    </row>
-    <row r="65" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
-    </row>
-    <row r="67" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="45" t="s">
+      <c r="C65" s="52"/>
+    </row>
+    <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+    </row>
+    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="45"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="44"/>
-    </row>
-    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B71" s="19" t="s">
+      <c r="C68" s="47"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="46"/>
+    </row>
+    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B72" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
-      <c r="B72" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="33" t="s">
+    <row r="73" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="B74" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B73" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
@@ -5023,11 +5037,6 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
@@ -5381,6 +5390,8 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -5408,23 +5419,16 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="B64:C65"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
@@ -5437,10 +5441,25 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B49:C49"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1"/>
-    <hyperlink ref="C73" r:id="rId2"/>
+    <hyperlink ref="C73" r:id="rId1"/>
+    <hyperlink ref="C74" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
@@ -5455,7 +5474,7 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.28515625"/>
     <col min="3" max="3" width="32"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\SOS\Organización\Configuración\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="875"/>
   </bookViews>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -330,9 +325,6 @@
     <t>Plan_Configuración</t>
   </si>
   <si>
-    <t>Requerimientos + Estimación + Plan_de_proyecto</t>
-  </si>
-  <si>
     <t>Checklist de calidad</t>
   </si>
   <si>
@@ -469,6 +461,21 @@
   </si>
   <si>
     <t>Se genera un respaldo del CRM en forma semanal cuyo responsable de ejecución es:</t>
+  </si>
+  <si>
+    <t>PTL de cambios</t>
+  </si>
+  <si>
+    <t>PTL_Solicitud_Cambios</t>
+  </si>
+  <si>
+    <t>Solicitud de cambio</t>
+  </si>
+  <si>
+    <t>Solicitud de cambios_aammdd</t>
+  </si>
+  <si>
+    <t>Requerimientos (Al finalizar etapa de Ventas) + Estimación(Al finalizar etapa de ventas) + Plan_de_proyecto(Al finalizar etapa de planeación)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +600,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +701,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFCFE7F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -824,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -871,9 +884,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -904,13 +914,61 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,57 +995,15 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1072,7 +1088,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1114,7 +1130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1149,7 +1165,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1358,17 +1374,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ122"/>
+  <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="585" ySplit="2940" topLeftCell="B34" activePane="bottomRight"/>
-      <selection activeCell="A26" sqref="A26"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1"/>
     <col min="2" max="2" width="53.5703125" style="1" customWidth="1"/>
@@ -1417,17 +1429,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="57"/>
+      <c r="B2" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="39"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -2452,8 +2464,8 @@
     </row>
     <row r="3" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="15"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -3478,10 +3490,10 @@
     </row>
     <row r="4" spans="1:1024" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -4506,10 +4518,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4522,548 +4534,547 @@
     </row>
     <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>139</v>
+      <c r="C8" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>138</v>
+      <c r="C9" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="35"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>137</v>
+      <c r="C11" s="26" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="42"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
-      <c r="B18" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>106</v>
+      <c r="B18" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>109</v>
+      <c r="B19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="59" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="60"/>
+      <c r="B21" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="42"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
-      <c r="B23" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>118</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
-      <c r="B25" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>122</v>
+      <c r="B25" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
-      <c r="B26" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>128</v>
+      <c r="B26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="56"/>
-    </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="34" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="38"/>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="33"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="34" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="41" t="s">
+      <c r="C37" s="33"/>
+    </row>
+    <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28" t="s">
+      <c r="C38" s="57"/>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28" t="s">
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="28" t="s">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="28" t="s">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="41" t="s">
+    <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="42"/>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="28" t="s">
+      <c r="C43" s="57"/>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="28" t="s">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="41" t="s">
+    <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="42"/>
-    </row>
-    <row r="45" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-      <c r="B45" s="28" t="s">
+      <c r="C46" s="57"/>
+    </row>
+    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>101</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3"/>
-      <c r="B46" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="43"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>100</v>
-      </c>
+      <c r="B48" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="58"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="45"/>
+      <c r="B49" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
-      <c r="B50" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>142</v>
+      <c r="B50" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>127</v>
-      </c>
+      <c r="B51" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="60"/>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-    </row>
-    <row r="54" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="40"/>
-    </row>
-    <row r="55" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="37" t="s">
+    </row>
+    <row r="55" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="61"/>
+    </row>
+    <row r="56" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="55"/>
+    </row>
+    <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="37"/>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="13" t="s">
+      <c r="C58" s="36"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="38" t="s">
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="39"/>
-    </row>
-    <row r="58" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="31" t="s">
+      <c r="C60" s="54"/>
+    </row>
+    <row r="61" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="35" t="s">
+      <c r="C61" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="63" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="36"/>
-    </row>
-    <row r="61" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="48" t="s">
+      <c r="C63" s="52"/>
+    </row>
+    <row r="64" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="49"/>
-    </row>
-    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="50"/>
-      <c r="C62" s="51"/>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="37" t="s">
+      <c r="C64" s="47"/>
+    </row>
+    <row r="65" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="48"/>
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="37"/>
-    </row>
-    <row r="65" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="52" t="s">
+      <c r="C67" s="36"/>
+    </row>
+    <row r="68" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="52"/>
-    </row>
-    <row r="66" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="52"/>
-      <c r="C66" s="52"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="16"/>
-      <c r="C67" s="17"/>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-      <c r="B68" s="47" t="s">
+      <c r="C68" s="50"/>
+    </row>
+    <row r="69" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+    </row>
+    <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="47"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="46"/>
-    </row>
-    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-    </row>
-    <row r="72" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B72" s="19" t="s">
+      <c r="C71" s="45"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="44"/>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+    </row>
+    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+    </row>
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="B75" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C75" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="33" t="s">
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
+      <c r="B76" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="B77" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="B74" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
@@ -5399,6 +5410,8 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -5406,6 +5419,8 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -5413,6 +5428,8 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -5426,14 +5443,51 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B33:C33"/>
+  <mergeCells count="30">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B21:C21"/>
@@ -5441,25 +5495,11 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C73" r:id="rId1"/>
-    <hyperlink ref="C74" r:id="rId2"/>
+    <hyperlink ref="C76" r:id="rId1"/>
+    <hyperlink ref="C77" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>
@@ -5474,7 +5514,7 @@
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47.28515625"/>
     <col min="3" max="3" width="32"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -373,9 +373,6 @@
     <t>https://github.com/Ricardo5/SOSQTP</t>
   </si>
   <si>
-    <t>https://www.bitrix24.net</t>
-  </si>
-  <si>
     <t>Métricas y monitoreo</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>Concentrado_métricas_aammdd</t>
   </si>
   <si>
-    <t>Se genera un respaldo del CRM en forma semanal cuyo responsable de ejecución es:</t>
-  </si>
-  <si>
     <t>PTL de cambios</t>
   </si>
   <si>
@@ -476,6 +470,12 @@
   </si>
   <si>
     <t>Requerimientos (Al finalizar etapa de Ventas) + Estimación(Al finalizar etapa de ventas) + Plan_de_proyecto(Al finalizar etapa de planeación)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se imite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago), sin embargo se especificara el metodo a realizar en caso de que el sistema sufra un daño. En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a la pagina del sistema, click en </t>
+  </si>
+  <si>
+    <t>https://contpaqi911.bitrix24.com/</t>
   </si>
 </sst>
 </file>
@@ -837,7 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -911,64 +911,19 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,8 +953,56 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:C72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1429,17 +1432,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="39"/>
+      <c r="B2" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="57"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3490,10 +3493,10 @@
     </row>
     <row r="4" spans="1:1024" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -4518,10 +4521,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="56"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4534,10 +4537,10 @@
     </row>
     <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="60"/>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
@@ -4545,7 +4548,7 @@
         <v>73</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4554,17 +4557,17 @@
         <v>72</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="54"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -4572,7 +4575,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
@@ -4586,26 +4589,26 @@
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="42"/>
+      <c r="C13" s="60"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>130</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -4654,62 +4657,62 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="42"/>
+      <c r="B21" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="42"/>
+      <c r="C27" s="60"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -4722,10 +4725,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -4739,59 +4742,59 @@
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="42"/>
+      <c r="C32" s="60"/>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="56"/>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="33"/>
+      <c r="B35" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="34"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="33"/>
+      <c r="C37" s="34"/>
     </row>
     <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="57"/>
+      <c r="C38" s="42"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
@@ -4826,10 +4829,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="57"/>
+      <c r="C43" s="42"/>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
@@ -4848,10 +4851,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="57"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
@@ -4864,10 +4867,10 @@
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="58"/>
+      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -4889,63 +4892,63 @@
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="60"/>
+      <c r="B51" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="45"/>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="26" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="61"/>
+      <c r="C55" s="46"/>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>146</v>
+      <c r="B56" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="55"/>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="37"/>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
@@ -4956,17 +4959,17 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="54"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -4974,40 +4977,40 @@
       <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="52"/>
+      <c r="C63" s="36"/>
     </row>
     <row r="64" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="47"/>
+      <c r="C64" s="49"/>
     </row>
     <row r="65" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="48"/>
-      <c r="C65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="36"/>
+      <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="50"/>
+      <c r="C68" s="52"/>
     </row>
     <row r="69" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="16"/>
@@ -5015,16 +5018,16 @@
     </row>
     <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="45"/>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="44"/>
+      <c r="C71" s="47"/>
+    </row>
+    <row r="72" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="63"/>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
@@ -5045,7 +5048,7 @@
     <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>112</v>
@@ -5056,7 +5059,7 @@
         <v>111</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5466,22 +5469,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="B68:C69"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
@@ -5496,6 +5483,22 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -472,10 +472,10 @@
     <t>Requerimientos (Al finalizar etapa de Ventas) + Estimación(Al finalizar etapa de ventas) + Plan_de_proyecto(Al finalizar etapa de planeación)</t>
   </si>
   <si>
-    <t xml:space="preserve">Se imite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago), sin embargo se especificara el metodo a realizar en caso de que el sistema sufra un daño. En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a la pagina del sistema, click en </t>
-  </si>
-  <si>
     <t>https://contpaqi911.bitrix24.com/</t>
+  </si>
+  <si>
+    <t>Se imite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago), sin embargo se especificara el metodo a realizar en caso de que el sistema sufra un daño. En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
   </si>
 </sst>
 </file>
@@ -917,13 +917,64 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,57 +1003,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1432,17 +1432,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="56"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="43"/>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
@@ -4564,10 +4564,10 @@
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="43"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="44"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="60"/>
+      <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
@@ -4765,10 +4765,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="39"/>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="34" t="s">
@@ -4791,10 +4791,10 @@
       <c r="C37" s="34"/>
     </row>
     <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="42"/>
+      <c r="C38" s="59"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
@@ -4829,10 +4829,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="42"/>
+      <c r="C43" s="59"/>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
@@ -4851,10 +4851,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="42"/>
+      <c r="C46" s="59"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="43"/>
+      <c r="C48" s="60"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="45"/>
+      <c r="C51" s="62"/>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
@@ -4925,10 +4925,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="46"/>
+      <c r="C55" s="63"/>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="33" t="s">
@@ -4939,10 +4939,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="40"/>
+      <c r="C57" s="57"/>
     </row>
     <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="37" t="s">
@@ -4959,10 +4959,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="38" t="s">
+      <c r="B60" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="39"/>
+      <c r="C60" s="56"/>
     </row>
     <row r="61" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="30" t="s">
@@ -4977,10 +4977,10 @@
       <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="36"/>
+      <c r="C63" s="54"/>
     </row>
     <row r="64" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="48" t="s">
@@ -5023,11 +5023,11 @@
       </c>
       <c r="C71" s="47"/>
     </row>
-    <row r="72" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="63"/>
+    <row r="72" spans="1:3" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="46"/>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
@@ -5059,7 +5059,7 @@
         <v>111</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -5469,6 +5469,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="B68:C69"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
@@ -5483,22 +5499,6 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -475,7 +475,7 @@
     <t>https://contpaqi911.bitrix24.com/</t>
   </si>
   <si>
-    <t>Se imite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago), sin embargo se especificara el metodo a realizar en caso de que el sistema sufra un daño. En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
+    <t>Se omite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago). En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
   </si>
 </sst>
 </file>
@@ -917,64 +917,13 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +951,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1379,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B72" sqref="B72:C72"/>
     </sheetView>
   </sheetViews>
@@ -1432,17 +1432,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -4521,10 +4521,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="58"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4537,10 +4537,10 @@
     </row>
     <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="62"/>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
@@ -4564,10 +4564,10 @@
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="36"/>
+      <c r="C10" s="56"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="62"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
@@ -4605,10 +4605,10 @@
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="60"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
@@ -4657,10 +4657,10 @@
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="62"/>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="62"/>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -4725,10 +4725,10 @@
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="44"/>
+      <c r="C29" s="63"/>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
@@ -4750,10 +4750,10 @@
     </row>
     <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="62"/>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
@@ -4765,10 +4765,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="39"/>
+      <c r="C34" s="58"/>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="34" t="s">
@@ -4791,10 +4791,10 @@
       <c r="C37" s="34"/>
     </row>
     <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="59"/>
+      <c r="C38" s="42"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="27" t="s">
@@ -4829,10 +4829,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="59"/>
+      <c r="C43" s="42"/>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="27" t="s">
@@ -4851,10 +4851,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="59"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
@@ -4867,10 +4867,10 @@
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="60"/>
+      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="62"/>
+      <c r="C51" s="45"/>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
@@ -4925,10 +4925,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="63"/>
+      <c r="C55" s="46"/>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="33" t="s">
@@ -4939,10 +4939,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="57"/>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="37" t="s">
@@ -4959,10 +4959,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="39"/>
     </row>
     <row r="61" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="30" t="s">
@@ -4977,20 +4977,20 @@
       <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="54"/>
+      <c r="C63" s="36"/>
     </row>
     <row r="64" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="49"/>
+      <c r="C64" s="51"/>
     </row>
     <row r="65" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="50"/>
-      <c r="C65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="53"/>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
@@ -5003,14 +5003,14 @@
       <c r="C67" s="37"/>
     </row>
     <row r="68" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="52"/>
+      <c r="C68" s="54"/>
     </row>
     <row r="69" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="16"/>
@@ -5018,16 +5018,16 @@
     </row>
     <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="5"/>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="47"/>
+      <c r="C71" s="49"/>
     </row>
     <row r="72" spans="1:3" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="46"/>
+      <c r="C72" s="48"/>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="18"/>
@@ -5469,22 +5469,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="B68:C69"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
@@ -5499,6 +5483,22 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B55:C55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="150">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -477,12 +477,18 @@
   <si>
     <t>Se omite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago). En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
   </si>
+  <si>
+    <t>Cronograma organizacional</t>
+  </si>
+  <si>
+    <t>Cronograma Organizacional</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -598,6 +604,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -837,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,13 +928,64 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,56 +1015,11 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1377,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ125"/>
+  <dimension ref="A1:AMJ126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72:C72"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1432,17 +1449,17 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="57"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:1024" s="22" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="59"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="15"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -4521,10 +4538,10 @@
     </row>
     <row r="5" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -4535,539 +4552,544 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="62"/>
+      <c r="B7" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>137</v>
-      </c>
+      <c r="B8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C10" s="26" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="56"/>
-    </row>
-    <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="62"/>
+      <c r="B13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>130</v>
-      </c>
+      <c r="B14" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
-      <c r="B15" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="60"/>
+      <c r="B15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
-      <c r="B16" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="B16" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="25" t="s">
-        <v>76</v>
+      <c r="B17" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="25" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
-      <c r="B21" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="62"/>
+      <c r="B21" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>115</v>
-      </c>
+      <c r="B22" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="29" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="29" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="62"/>
+      <c r="B27" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
-      <c r="B28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>96</v>
-      </c>
+      <c r="B28" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
-      <c r="B29" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="63"/>
+      <c r="B29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
-      <c r="B30" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>92</v>
-      </c>
+      <c r="B30" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="44"/>
     </row>
     <row r="31" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="26" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
-      <c r="B32" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="62"/>
+      <c r="B32" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="43"/>
+    </row>
+    <row r="34" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C34" s="26" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="58" t="s">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="58"/>
-    </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="34" t="s">
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="34"/>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="27" t="s">
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C37" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="34" t="s">
+    <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="34"/>
-    </row>
-    <row r="38" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="41" t="s">
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="42"/>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="27" t="s">
+      <c r="C39" s="59"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C40" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="27" t="s">
+    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C43" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="41" t="s">
+    <row r="44" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="42"/>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>86</v>
-      </c>
+      <c r="C44" s="59"/>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C46" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="41" t="s">
+    <row r="47" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="42"/>
-    </row>
-    <row r="47" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A47" s="3"/>
-      <c r="B47" s="27" t="s">
+      <c r="C47" s="59"/>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C48" s="29" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3"/>
-      <c r="B48" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>110</v>
-      </c>
+      <c r="B49" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="60"/>
     </row>
     <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
-      <c r="B51" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="45"/>
+      <c r="B51" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
-      <c r="B52" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>140</v>
-      </c>
+      <c r="B52" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="62"/>
     </row>
     <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C55" s="26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="46" t="s">
+    <row r="56" spans="1:3" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="46"/>
-    </row>
-    <row r="56" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="33" t="s">
+      <c r="C56" s="63"/>
+    </row>
+    <row r="57" spans="1:3" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C57" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="40" t="s">
+    <row r="58" spans="1:3" s="4" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="40"/>
-    </row>
-    <row r="58" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="37" t="s">
+      <c r="C58" s="57"/>
+    </row>
+    <row r="59" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="37"/>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="C59" s="37"/>
+    </row>
+    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="38" t="s">
+    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="39"/>
-    </row>
-    <row r="61" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="30" t="s">
+      <c r="C61" s="56"/>
+    </row>
+    <row r="62" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C62" s="30" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="35" t="s">
+    <row r="63" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="36"/>
-    </row>
-    <row r="64" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="50" t="s">
+      <c r="C64" s="54"/>
+    </row>
+    <row r="65" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C64" s="51"/>
-    </row>
-    <row r="65" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="37" t="s">
+      <c r="C65" s="49"/>
+    </row>
+    <row r="66" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+    </row>
+    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="37"/>
-    </row>
-    <row r="68" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="54" t="s">
+      <c r="C68" s="37"/>
+    </row>
+    <row r="69" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="54"/>
-    </row>
-    <row r="69" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-    </row>
-    <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-      <c r="B71" s="49" t="s">
+      <c r="C69" s="52"/>
+    </row>
+    <row r="70" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+    </row>
+    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+    </row>
+    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="49"/>
-    </row>
-    <row r="72" spans="1:3" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="47" t="s">
+      <c r="C72" s="47"/>
+    </row>
+    <row r="73" spans="1:3" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="48"/>
-    </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-    </row>
-    <row r="74" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-    </row>
-    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B75" s="19" t="s">
+      <c r="C73" s="46"/>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+    </row>
+    <row r="75" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="B76" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
-      <c r="B76" s="31" t="s">
+    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="C77" s="32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="21" x14ac:dyDescent="0.2">
-      <c r="B77" s="31" t="s">
+    <row r="78" spans="1:3" ht="21" x14ac:dyDescent="0.2">
+      <c r="B78" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C78" s="32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
@@ -5082,11 +5104,6 @@
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
@@ -5440,6 +5457,8 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -5467,42 +5486,49 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C76" r:id="rId1"/>
-    <hyperlink ref="C77" r:id="rId2"/>
+    <hyperlink ref="C77" r:id="rId1"/>
+    <hyperlink ref="C78" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId3"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="160">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -492,6 +492,27 @@
   <si>
     <t>Carta de aceptación</t>
   </si>
+  <si>
+    <t>Sistema SOS, se respaldara la base de datos al finalizar cada mes, este respaldo se genera con una peridiocidad amplia debido a que su información por lo generar suele ser estatica la mayor parte del tiempo los archivos de respaldo se deberán almacenar en raíz de carpeta repositorio/backup con el nombre aaaamm.sql.</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Sos Software</t>
+  </si>
+  <si>
+    <t>http://192.168.100.253 (local)</t>
+  </si>
+  <si>
+    <t>Almacena los prospectos, Deals del cliente, tareas, herramientas de seguimiento.</t>
+  </si>
+  <si>
+    <t>Almacena todas las salidas del ciclo de vida que no se encuentran dentro de bitrix tales como estimación, plan de proyecto, carta de aceptación, cotización, documentos organizacionales, calidad y métricas.</t>
+  </si>
+  <si>
+    <t>Almacena los productos y servicios que vende SOS, usuarios del sistema, roles de la empresa y guías de requerimientos.</t>
+  </si>
 </sst>
 </file>
 
@@ -596,7 +617,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,6 +714,36 @@
         <bgColor rgb="FFEEECE1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFEEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFEEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -766,50 +817,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,9 +869,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,20 +879,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -897,6 +897,62 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1267,65 +1323,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK125"/>
+  <dimension ref="A1:AMK126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="15"/>
-    <col min="2" max="2" width="53.5703125" style="15"/>
-    <col min="3" max="3" width="81.5703125" style="15"/>
-    <col min="4" max="4" width="23.7109375" style="15"/>
-    <col min="5" max="250" width="12.140625" style="15"/>
-    <col min="251" max="251" width="2.85546875" style="15"/>
-    <col min="252" max="252" width="48.7109375" style="15"/>
-    <col min="253" max="253" width="61" style="15"/>
-    <col min="254" max="254" width="32.140625" style="15"/>
-    <col min="255" max="255" width="11.5703125" style="15"/>
-    <col min="256" max="256" width="1.140625" style="15"/>
-    <col min="257" max="257" width="28.7109375" style="15"/>
-    <col min="258" max="258" width="23.7109375" style="15"/>
-    <col min="259" max="259" width="2.42578125" style="15"/>
-    <col min="260" max="260" width="23.7109375" style="15"/>
-    <col min="261" max="506" width="12.140625" style="15"/>
-    <col min="507" max="507" width="2.85546875" style="15"/>
-    <col min="508" max="508" width="48.7109375" style="15"/>
-    <col min="509" max="509" width="61" style="15"/>
-    <col min="510" max="510" width="32.140625" style="15"/>
-    <col min="511" max="511" width="11.5703125" style="15"/>
-    <col min="512" max="512" width="1.140625" style="15"/>
-    <col min="513" max="513" width="28.7109375" style="15"/>
-    <col min="514" max="514" width="23.7109375" style="15"/>
-    <col min="515" max="515" width="2.42578125" style="15"/>
-    <col min="516" max="516" width="23.7109375" style="15"/>
-    <col min="517" max="762" width="12.140625" style="15"/>
-    <col min="763" max="763" width="2.85546875" style="15"/>
-    <col min="764" max="764" width="48.7109375" style="15"/>
-    <col min="765" max="765" width="61" style="15"/>
-    <col min="766" max="766" width="32.140625" style="15"/>
-    <col min="767" max="767" width="11.5703125" style="15"/>
-    <col min="768" max="768" width="1.140625" style="15"/>
-    <col min="769" max="769" width="28.7109375" style="15"/>
-    <col min="770" max="770" width="23.7109375" style="15"/>
-    <col min="771" max="771" width="2.42578125" style="15"/>
-    <col min="772" max="772" width="23.7109375" style="15"/>
-    <col min="773" max="1018" width="12.140625" style="15"/>
-    <col min="1019" max="1019" width="2.85546875" style="15"/>
-    <col min="1020" max="1020" width="48.7109375" style="15"/>
-    <col min="1021" max="1021" width="61" style="15"/>
-    <col min="1022" max="1022" width="32.140625" style="15"/>
-    <col min="1023" max="1025" width="11.5703125" style="15"/>
+    <col min="1" max="1" width="2.85546875" style="1"/>
+    <col min="2" max="2" width="53.5703125" style="1"/>
+    <col min="3" max="3" width="81.5703125" style="1"/>
+    <col min="4" max="4" width="54.42578125" style="1" customWidth="1"/>
+    <col min="5" max="250" width="12.140625" style="1"/>
+    <col min="251" max="251" width="2.85546875" style="1"/>
+    <col min="252" max="252" width="48.7109375" style="1"/>
+    <col min="253" max="253" width="61" style="1"/>
+    <col min="254" max="254" width="32.140625" style="1"/>
+    <col min="255" max="255" width="11.5703125" style="1"/>
+    <col min="256" max="256" width="1.140625" style="1"/>
+    <col min="257" max="257" width="28.7109375" style="1"/>
+    <col min="258" max="258" width="23.7109375" style="1"/>
+    <col min="259" max="259" width="2.42578125" style="1"/>
+    <col min="260" max="260" width="23.7109375" style="1"/>
+    <col min="261" max="506" width="12.140625" style="1"/>
+    <col min="507" max="507" width="2.85546875" style="1"/>
+    <col min="508" max="508" width="48.7109375" style="1"/>
+    <col min="509" max="509" width="61" style="1"/>
+    <col min="510" max="510" width="32.140625" style="1"/>
+    <col min="511" max="511" width="11.5703125" style="1"/>
+    <col min="512" max="512" width="1.140625" style="1"/>
+    <col min="513" max="513" width="28.7109375" style="1"/>
+    <col min="514" max="514" width="23.7109375" style="1"/>
+    <col min="515" max="515" width="2.42578125" style="1"/>
+    <col min="516" max="516" width="23.7109375" style="1"/>
+    <col min="517" max="762" width="12.140625" style="1"/>
+    <col min="763" max="763" width="2.85546875" style="1"/>
+    <col min="764" max="764" width="48.7109375" style="1"/>
+    <col min="765" max="765" width="61" style="1"/>
+    <col min="766" max="766" width="32.140625" style="1"/>
+    <col min="767" max="767" width="11.5703125" style="1"/>
+    <col min="768" max="768" width="1.140625" style="1"/>
+    <col min="769" max="769" width="28.7109375" style="1"/>
+    <col min="770" max="770" width="23.7109375" style="1"/>
+    <col min="771" max="771" width="2.42578125" style="1"/>
+    <col min="772" max="772" width="23.7109375" style="1"/>
+    <col min="773" max="1018" width="12.140625" style="1"/>
+    <col min="1019" max="1019" width="2.85546875" style="1"/>
+    <col min="1020" max="1020" width="48.7109375" style="1"/>
+    <col min="1021" max="1021" width="61" style="1"/>
+    <col min="1022" max="1022" width="32.140625" style="1"/>
+    <col min="1023" max="1025" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="47"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
@@ -2348,31 +2404,31 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:1024" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:1024" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
+    <row r="3" spans="1:1024" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:1024" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:1024" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="45"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -3396,11 +3452,11 @@
       <c r="AMJ5"/>
     </row>
     <row r="6" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6"/>
@@ -4426,11 +4482,11 @@
       <c r="AMJ6"/>
     </row>
     <row r="7" spans="1:1024" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D7"/>
@@ -5456,11 +5512,11 @@
       <c r="AMJ7"/>
     </row>
     <row r="8" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="44"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
@@ -6484,11 +6540,11 @@
       <c r="AMJ8"/>
     </row>
     <row r="9" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D9"/>
@@ -7514,13 +7570,13 @@
       <c r="AMJ9"/>
     </row>
     <row r="10" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="46"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
@@ -8544,11 +8600,11 @@
       <c r="AMJ10"/>
     </row>
     <row r="11" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D11"/>
@@ -9574,11 +9630,11 @@
       <c r="AMJ11"/>
     </row>
     <row r="12" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="44"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
@@ -10602,11 +10658,11 @@
       <c r="AMJ12"/>
     </row>
     <row r="13" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D13"/>
@@ -11632,11 +11688,11 @@
       <c r="AMJ13"/>
     </row>
     <row r="14" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D14"/>
@@ -12662,11 +12718,11 @@
       <c r="AMJ14"/>
     </row>
     <row r="15" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D15"/>
@@ -13692,11 +13748,11 @@
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D16"/>
@@ -14722,11 +14778,11 @@
       <c r="AMJ16"/>
     </row>
     <row r="17" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D17"/>
@@ -15752,11 +15808,11 @@
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="44"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -16780,11 +16836,11 @@
       <c r="AMJ18"/>
     </row>
     <row r="19" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D19"/>
@@ -17810,11 +17866,11 @@
       <c r="AMJ19"/>
     </row>
     <row r="20" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D20"/>
@@ -18840,11 +18896,11 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D21"/>
@@ -19870,11 +19926,11 @@
       <c r="AMJ21"/>
     </row>
     <row r="22" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D22"/>
@@ -20900,11 +20956,11 @@
       <c r="AMJ22"/>
     </row>
     <row r="23" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D23"/>
@@ -21930,11 +21986,11 @@
       <c r="AMJ23"/>
     </row>
     <row r="24" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="44"/>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -22958,11 +23014,11 @@
       <c r="AMJ24"/>
     </row>
     <row r="25" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D25"/>
@@ -23988,11 +24044,11 @@
       <c r="AMJ25"/>
     </row>
     <row r="26" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="43"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -25016,11 +25072,11 @@
       <c r="AMJ26"/>
     </row>
     <row r="27" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D27"/>
@@ -26046,11 +26102,11 @@
       <c r="AMJ27"/>
     </row>
     <row r="28" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D28"/>
@@ -27076,11 +27132,11 @@
       <c r="AMJ28"/>
     </row>
     <row r="29" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="44"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -28104,11 +28160,11 @@
       <c r="AMJ29"/>
     </row>
     <row r="30" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D30"/>
@@ -29133,18 +29189,18 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" s="27" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11" t="s">
+    <row r="31" spans="1:1024" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="45"/>
     </row>
     <row r="32" spans="1:1024" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="27"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="46"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -30169,10 +30225,10 @@
     </row>
     <row r="33" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33"/>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D33"/>
@@ -31199,10 +31255,10 @@
     </row>
     <row r="34" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34"/>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="51"/>
+      <c r="C34" s="34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
@@ -32227,10 +32283,10 @@
     </row>
     <row r="35" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35"/>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="51"/>
+      <c r="C35" s="34"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
@@ -33254,11 +33310,11 @@
       <c r="AMJ35"/>
     </row>
     <row r="36" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="7"/>
+      <c r="B36" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="35"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
@@ -34282,11 +34338,11 @@
       <c r="AMJ36"/>
     </row>
     <row r="37" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21"/>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D37"/>
@@ -35312,11 +35368,11 @@
       <c r="AMJ37"/>
     </row>
     <row r="38" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D38"/>
@@ -36342,11 +36398,11 @@
       <c r="AMJ38"/>
     </row>
     <row r="39" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D39"/>
@@ -37373,10 +37429,10 @@
     </row>
     <row r="40" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40"/>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="34"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
@@ -38401,10 +38457,10 @@
     </row>
     <row r="41" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="46"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
@@ -39429,10 +39485,10 @@
     </row>
     <row r="42" spans="1:1024" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42"/>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="35"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
@@ -40457,10 +40513,10 @@
     </row>
     <row r="43" spans="1:1024" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43"/>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="14" t="s">
         <v>54</v>
       </c>
       <c r="D43"/>
@@ -41487,10 +41543,10 @@
     </row>
     <row r="44" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44"/>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D44"/>
@@ -42517,10 +42573,10 @@
     </row>
     <row r="45" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D45"/>
@@ -43547,10 +43603,10 @@
     </row>
     <row r="46" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46"/>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="35"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
@@ -44575,10 +44631,10 @@
     </row>
     <row r="47" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47"/>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D47"/>
@@ -45605,10 +45661,10 @@
     </row>
     <row r="48" spans="1:1024" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48"/>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="35"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -46632,11 +46688,11 @@
       <c r="AMJ48"/>
     </row>
     <row r="49" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
-      <c r="B49" s="25" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D49"/>
@@ -47662,11 +47718,11 @@
       <c r="AMJ49"/>
     </row>
     <row r="50" spans="1:1024" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="21"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="12" t="s">
         <v>152</v>
       </c>
       <c r="D50"/>
@@ -48692,11 +48748,11 @@
       <c r="AMJ50"/>
     </row>
     <row r="51" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="21"/>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="7"/>
+      <c r="B51" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="7"/>
+      <c r="C51" s="35"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
@@ -49720,11 +49776,11 @@
       <c r="AMJ51"/>
     </row>
     <row r="52" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="21"/>
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D52"/>
@@ -50750,11 +50806,11 @@
       <c r="AMJ52"/>
     </row>
     <row r="53" spans="1:1024" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="21"/>
-      <c r="B53" s="26" t="s">
+      <c r="A53" s="7"/>
+      <c r="B53" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D53"/>
@@ -51779,18 +51835,18 @@
       <c r="AMI53"/>
       <c r="AMJ53"/>
     </row>
-    <row r="54" spans="1:1024" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="7" t="s">
+    <row r="54" spans="1:1024" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="35"/>
     </row>
     <row r="55" spans="1:1024" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D55"/>
@@ -51800,11 +51856,11 @@
       <c r="H55"/>
     </row>
     <row r="56" spans="1:1024" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="27"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="40"/>
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
@@ -51813,10 +51869,10 @@
     </row>
     <row r="57" spans="1:1024" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57"/>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="31"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
@@ -51825,10 +51881,10 @@
     </row>
     <row r="58" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D58"/>
@@ -51839,10 +51895,10 @@
     </row>
     <row r="59" spans="1:1024" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="41"/>
       <c r="D59"/>
       <c r="E59"/>
       <c r="F59"/>
@@ -51851,10 +51907,10 @@
     </row>
     <row r="60" spans="1:1024" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="16" t="s">
         <v>79</v>
       </c>
       <c r="D60"/>
@@ -51865,8 +51921,8 @@
     </row>
     <row r="61" spans="1:1024" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61"/>
       <c r="E61"/>
       <c r="F61"/>
@@ -51875,10 +51931,10 @@
     </row>
     <row r="62" spans="1:1024" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62"/>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="42"/>
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
@@ -51887,10 +51943,10 @@
     </row>
     <row r="63" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="36"/>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
@@ -51899,8 +51955,8 @@
     </row>
     <row r="64" spans="1:1024" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="36"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
@@ -51909,8 +51965,8 @@
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65"/>
@@ -51919,10 +51975,10 @@
     </row>
     <row r="66" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66"/>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="12"/>
+      <c r="C66" s="31"/>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
@@ -51931,10 +51987,10 @@
     </row>
     <row r="67" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="37"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
@@ -51943,8 +51999,8 @@
     </row>
     <row r="68" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
@@ -51953,8 +52009,8 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69"/>
@@ -51962,11 +52018,11 @@
       <c r="H69"/>
     </row>
     <row r="70" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="34"/>
-      <c r="B70" s="1" t="s">
+      <c r="A70" s="20"/>
+      <c r="B70" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="38"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
@@ -51975,71 +52031,69 @@
     </row>
     <row r="71" spans="1:8" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71" s="48" t="s">
+      <c r="B71" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="48"/>
+      <c r="C71" s="39"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
     </row>
-    <row r="72" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
+      <c r="B72" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="39"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
     </row>
-    <row r="73" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
-      <c r="B73" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="12"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
     </row>
-    <row r="74" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74"/>
-      <c r="B74" s="49" t="s">
-        <v>86</v>
+      <c r="B74" s="31" t="s">
+        <v>85</v>
       </c>
-      <c r="C74" s="49"/>
+      <c r="C74" s="31"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75"/>
-      <c r="B75" s="36" t="s">
-        <v>87</v>
+      <c r="B75" s="32" t="s">
+        <v>86</v>
       </c>
-      <c r="C75" s="36" t="s">
-        <v>88</v>
-      </c>
+      <c r="C75" s="32"/>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
-      <c r="B76" s="37" t="s">
-        <v>89</v>
+      <c r="B76" s="21" t="s">
+        <v>87</v>
       </c>
-      <c r="C76" s="37" t="s">
-        <v>90</v>
+      <c r="C76" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
@@ -52047,13 +52101,13 @@
       <c r="G76"/>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77" s="37" t="s">
-        <v>91</v>
+      <c r="B77" s="22" t="s">
+        <v>89</v>
       </c>
-      <c r="C77" s="37" t="s">
-        <v>92</v>
+      <c r="C77" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
@@ -52061,24 +52115,24 @@
       <c r="G77"/>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A79"/>
-      <c r="B79" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>94</v>
-      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79"/>
@@ -52086,55 +52140,72 @@
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A80" s="39"/>
-      <c r="B80" s="40" t="s">
-        <v>95</v>
+      <c r="A80"/>
+      <c r="B80" s="23" t="s">
+        <v>93</v>
       </c>
-      <c r="C80" s="41" t="s">
-        <v>96</v>
+      <c r="C80" s="23" t="s">
+        <v>94</v>
       </c>
-      <c r="D80"/>
+      <c r="D80" s="54" t="s">
+        <v>154</v>
+      </c>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A81"/>
-      <c r="B81" s="40" t="s">
-        <v>97</v>
+    <row r="81" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="24"/>
+      <c r="B81" s="50" t="s">
+        <v>95</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>98</v>
+      <c r="C81" s="51" t="s">
+        <v>96</v>
       </c>
-      <c r="D81"/>
+      <c r="D81" s="52" t="s">
+        <v>158</v>
+      </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82"/>
+    <row r="82" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="B82" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>157</v>
+      </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83"/>
+    <row r="83" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A83" s="20"/>
+      <c r="B83" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>159</v>
+      </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84"/>
@@ -52142,8 +52213,8 @@
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85"/>
@@ -52151,369 +52222,397 @@
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="24"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="24"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
     </row>
-    <row r="90" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="39"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="39"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="39"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="39"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="39"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="39"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
-      <c r="H113" s="39"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="39"/>
-      <c r="F114" s="39"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="39"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="39"/>
-      <c r="H119" s="39"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="39"/>
-      <c r="G121" s="39"/>
-      <c r="H121" s="39"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="39"/>
-      <c r="F122" s="39"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="39"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
-      <c r="H123" s="39"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="39"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="39"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="24"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B73:C73"/>
+  <mergeCells count="35">
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B35:C35"/>
@@ -52528,31 +52627,13 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C80" r:id="rId1"/>
-    <hyperlink ref="C81" r:id="rId2"/>
+    <hyperlink ref="C81" r:id="rId1"/>
+    <hyperlink ref="C82" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -52586,154 +52667,154 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="29" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="29" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="29" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="29" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="30" t="s">
         <v>139</v>
       </c>
       <c r="J11">
@@ -52741,13 +52822,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="30" t="s">
         <v>142</v>
       </c>
       <c r="J12">
@@ -52755,33 +52836,33 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="30" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="30" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="27" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="28" t="s">
         <v>148</v>
       </c>
     </row>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -299,7 +299,7 @@
     <t>Mecanismos de respaldo de Datos</t>
   </si>
   <si>
-    <t>Se omite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualqueira de sus planes (gratuito y de pago). En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
+    <t>Se omite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualquiera de sus planes (gratuito y de pago). En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
   </si>
   <si>
     <t>Sistema SOS, se respaldara la base de datos al finalizar cada mes, este respaldo se genera con una peridiocidad amplia debido a que su información por lo generar suele ser estatica la mayor parte del tiempo los archivos de respaldo se deberán almacenar en raíz de carpeta repositorio/backup con el nombre aaaamm.sql (Responsable de ejecución Jovanny Zepeda).</t>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="1:126"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D73" activeCellId="0" sqref="D73"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -53714,7 +53714,7 @@
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="63" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
       <c r="B60" s="28" t="s">
         <v>82</v>
@@ -53850,7 +53850,7 @@
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
       <c r="B72" s="22" t="s">
         <v>89</v>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -243,7 +243,7 @@
     <t>Checklist de calidad</t>
   </si>
   <si>
-    <t>Checklist_Calidad&lt;nombre fase&gt;_aammdd</t>
+    <t>Checklist_Calidad_aammdd</t>
   </si>
   <si>
     <t>Reporte no conformidades</t>
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="1:126"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -177,13 +177,13 @@
     <t>Proyectos</t>
   </si>
   <si>
+    <t>Año</t>
+  </si>
+  <si>
     <t>Minutas de Proyectos</t>
   </si>
   <si>
     <t>Minuta de Compromiso</t>
-  </si>
-  <si>
-    <t>Año</t>
   </si>
   <si>
     <t>MES</t>
@@ -882,12 +882,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1090,8 +1090,8 @@
   </sheetPr>
   <dimension ref="1:126"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -32032,12 +32032,12 @@
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19" t="s">
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
@@ -33062,12 +33062,10 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="C34" s="19"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
@@ -34092,10 +34090,12 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="23" t="s">
+        <v>9</v>
+      </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -35120,10 +35120,10 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
@@ -42325,7 +42325,7 @@
       <c r="B43" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="23" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="0"/>
@@ -43355,7 +43355,7 @@
       <c r="B44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D44" s="0"/>
@@ -44385,7 +44385,7 @@
       <c r="B45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="23" t="s">
         <v>65</v>
       </c>
       <c r="D45" s="0"/>
@@ -46443,7 +46443,7 @@
       <c r="B47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="23" t="s">
         <v>67</v>
       </c>
       <c r="D47" s="0"/>
@@ -53840,10 +53840,10 @@
     </row>
     <row r="71" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
@@ -53852,10 +53852,10 @@
     </row>
     <row r="72" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
@@ -54414,7 +54414,7 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B41:C41"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Carta de aceptación</t>
+  </si>
+  <si>
+    <t>Carta aceptación</t>
   </si>
   <si>
     <t>Checklist de calidad</t>
@@ -1090,8 +1093,8 @@
   </sheetPr>
   <dimension ref="1:126"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -49526,13 +49529,13 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
       <c r="B50" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
@@ -51587,10 +51590,10 @@
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
       <c r="B52" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -52617,10 +52620,10 @@
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
       <c r="B53" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
@@ -53653,10 +53656,10 @@
     <row r="55" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21"/>
       <c r="B55" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
@@ -53667,7 +53670,7 @@
     <row r="56" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="21"/>
       <c r="B56" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="0"/>
@@ -53679,7 +53682,7 @@
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
       <c r="B57" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="0"/>
@@ -53691,10 +53694,10 @@
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
       <c r="B58" s="26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
@@ -53705,7 +53708,7 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
       <c r="B59" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="27"/>
       <c r="D59" s="0"/>
@@ -53717,10 +53720,10 @@
     <row r="60" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
       <c r="B60" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
@@ -53741,7 +53744,7 @@
     <row r="62" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
       <c r="B62" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="30"/>
       <c r="D62" s="0"/>
@@ -53753,7 +53756,7 @@
     <row r="63" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
       <c r="B63" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="31"/>
       <c r="D63" s="0"/>
@@ -53797,7 +53800,7 @@
     <row r="67" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
       <c r="B67" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="0"/>
@@ -53829,7 +53832,7 @@
     <row r="70" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="35"/>
       <c r="B70" s="36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="36"/>
       <c r="D70" s="0"/>
@@ -53841,7 +53844,7 @@
     <row r="71" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
       <c r="B71" s="23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="23"/>
       <c r="D71" s="0"/>
@@ -53853,7 +53856,7 @@
     <row r="72" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
       <c r="B72" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="0"/>
@@ -53875,7 +53878,7 @@
     <row r="74" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
       <c r="B74" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="0"/>
@@ -53887,7 +53890,7 @@
     <row r="75" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
       <c r="B75" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="0"/>
@@ -53899,10 +53902,10 @@
     <row r="76" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
       <c r="B76" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
@@ -53913,10 +53916,10 @@
     <row r="77" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
       <c r="B77" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
@@ -53927,10 +53930,10 @@
     <row r="78" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
       <c r="B78" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
@@ -53951,13 +53954,13 @@
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
       <c r="B80" s="41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D80" s="42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
@@ -53967,13 +53970,13 @@
     <row r="81" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="43"/>
       <c r="B81" s="44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D81" s="46" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
@@ -53983,13 +53986,13 @@
     <row r="82" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
       <c r="B82" s="44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D82" s="46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
@@ -53999,13 +54002,13 @@
     <row r="83" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D83" s="46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
@@ -54479,36 +54482,36 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H5" s="48" t="s">
         <v>39</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -54516,100 +54519,100 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H6" s="48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H7" s="50" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I8" s="52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54617,21 +54620,21 @@
         <v>62</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I10" s="52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I11" s="53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
@@ -54639,13 +54642,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I12" s="53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
@@ -54653,33 +54656,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I14" s="53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -255,7 +255,7 @@
     <t>Reporte no conformidades</t>
   </si>
   <si>
-    <t>No_conformidades</t>
+    <t>No_conformidades_&lt;proyecto&gt;</t>
   </si>
   <si>
     <t>Solicitud de cambio</t>
@@ -264,7 +264,7 @@
     <t>Solicitud de cambios_aammdd</t>
   </si>
   <si>
-    <t>La linea base representa un espejo de la configuración del árbol principal, para acceder a ella es necesario cambiar de rama con git checkout base y seguir los documentos acorde a la configuración demostrada en el item de configuración anterior (carpeta de proyecto).</t>
+    <t>La linea base deberá estar como una carpeta adicional llamada lineabase que deberá estar dentro del proyecto y contener los documentos descritos a continuación</t>
   </si>
   <si>
     <t>Linea Base</t>
@@ -279,13 +279,13 @@
     <t>base</t>
   </si>
   <si>
-    <t>Requerimientos (Al finalizar etapa de Ventas) + Estimación(Al finalizar etapa de ventas) + Plan_de_proyecto(Al finalizar etapa de planeación) + Carta de aceptación(Al finalizar etapa de Cierre)</t>
+    <t>Requerimientos + Estimación + Plan_de_proyecto + Carta de aceptación</t>
   </si>
   <si>
-    <t>Mecanismos para la generacion de la linea base</t>
+    <t>Mecanismos para la generación de la linea base</t>
   </si>
   <si>
-    <t>Seleccion de los archivos dentro git, para agregarlos es necesario ejecutar el comando git add + nombre del archivo linea base , posteriormente se ingresan en una rama secundario del repositorio con el comando git push origin base.</t>
+    <t>Seleccionar los documentos linea base, copiarlos en la carpeta lineabase y subir al repositorio los archivos </t>
   </si>
   <si>
     <r>
@@ -1096,8 +1096,8 @@
   </sheetPr>
   <dimension ref="1:127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -186,6 +186,18 @@
     <t>Minuta de Compromiso</t>
   </si>
   <si>
+    <t>Referencia calidad productos y procesos como prospectación</t>
+  </si>
+  <si>
+    <t>Checklist_Calidad_aammdd</t>
+  </si>
+  <si>
+    <t>No conformidades</t>
+  </si>
+  <si>
+    <t>No_conformidades</t>
+  </si>
+  <si>
     <t>Concentrado de métricas</t>
   </si>
   <si>
@@ -249,13 +261,7 @@
     <t>Checklist de calidad</t>
   </si>
   <si>
-    <t>Checklist_Calidad_aammdd</t>
-  </si>
-  <si>
     <t>Reporte no conformidades</t>
-  </si>
-  <si>
-    <t>No_conformidades</t>
   </si>
   <si>
     <t>Solicitud de cambio</t>
@@ -734,7 +740,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -761,6 +767,20 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -799,7 +819,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,11 +916,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1094,10 +1122,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:127"/>
+  <dimension ref="1:130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -35124,12 +35152,14 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
+    <row r="36" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0"/>
       <c r="B36" s="24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
@@ -36153,11 +36183,11 @@
       <c r="AMJ36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="18" t="s">
-        <v>54</v>
+      <c r="A37" s="0"/>
+      <c r="B37" s="17" t="s">
+        <v>18</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="23" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="0"/>
@@ -37183,12 +37213,12 @@
       <c r="AMJ37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="18" t="s">
-        <v>27</v>
+      <c r="A38" s="0"/>
+      <c r="B38" s="17" t="s">
+        <v>56</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>56</v>
+      <c r="C38" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
@@ -38214,12 +38244,10 @@
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="10"/>
-      <c r="B39" s="18" t="s">
-        <v>57</v>
+      <c r="B39" s="26" t="s">
+        <v>26</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>58</v>
-      </c>
+      <c r="C39" s="26"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
@@ -39245,10 +39273,10 @@
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="10"/>
       <c r="B40" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
@@ -40273,11 +40301,13 @@
       <c r="AMJ40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="22" t="s">
-        <v>61</v>
+      <c r="A41" s="10"/>
+      <c r="B41" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -41300,12 +41330,14 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="19" t="s">
+    <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10"/>
+      <c r="B42" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="19"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
@@ -42328,12 +42360,14 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="24" t="s">
-        <v>10</v>
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10"/>
+      <c r="B43" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="C43" s="24"/>
+      <c r="C43" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
@@ -43356,14 +43390,12 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="B44" s="17" t="s">
-        <v>63</v>
+      <c r="B44" s="22" t="s">
+        <v>65</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="C44" s="22"/>
       <c r="D44" s="0"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
@@ -44386,14 +44418,12 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
-      <c r="B45" s="17" t="s">
-        <v>64</v>
+      <c r="B45" s="19" t="s">
+        <v>66</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>64</v>
-      </c>
+      <c r="C45" s="19"/>
       <c r="D45" s="0"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
@@ -45416,14 +45446,12 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="17" t="s">
-        <v>65</v>
+      <c r="B46" s="26" t="s">
+        <v>10</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>66</v>
-      </c>
+      <c r="C46" s="26"/>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
@@ -46446,12 +46474,14 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="B47" s="24" t="s">
-        <v>14</v>
+      <c r="B47" s="17" t="s">
+        <v>67</v>
       </c>
-      <c r="C47" s="24"/>
+      <c r="C47" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
@@ -47477,7 +47507,7 @@
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
       <c r="B48" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>68</v>
@@ -48504,12 +48534,14 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
@@ -49532,14 +49564,12 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="17" t="s">
-        <v>70</v>
+    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0"/>
+      <c r="B50" s="26" t="s">
+        <v>14</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>71</v>
-      </c>
+      <c r="C50" s="26"/>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
@@ -50562,13 +50592,13 @@
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0"/>
       <c r="B51" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>72</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
@@ -51592,12 +51622,12 @@
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="24" t="s">
-        <v>17</v>
+    <row r="52" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="26" t="s">
+        <v>73</v>
       </c>
-      <c r="C52" s="24"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
       <c r="F52" s="0"/>
@@ -52620,9 +52650,9 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C53" s="18" t="s">
@@ -53650,9 +53680,9 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10"/>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C54" s="18" t="s">
@@ -54680,57 +54710,3107 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" s="21" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="24" t="s">
-        <v>47</v>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10"/>
+      <c r="B55" s="26" t="s">
+        <v>17</v>
       </c>
-      <c r="C55" s="24"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="0"/>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0"/>
+      <c r="X55" s="0"/>
+      <c r="Y55" s="0"/>
+      <c r="Z55" s="0"/>
+      <c r="AA55" s="0"/>
+      <c r="AB55" s="0"/>
+      <c r="AC55" s="0"/>
+      <c r="AD55" s="0"/>
+      <c r="AE55" s="0"/>
+      <c r="AF55" s="0"/>
+      <c r="AG55" s="0"/>
+      <c r="AH55" s="0"/>
+      <c r="AI55" s="0"/>
+      <c r="AJ55" s="0"/>
+      <c r="AK55" s="0"/>
+      <c r="AL55" s="0"/>
+      <c r="AM55" s="0"/>
+      <c r="AN55" s="0"/>
+      <c r="AO55" s="0"/>
+      <c r="AP55" s="0"/>
+      <c r="AQ55" s="0"/>
+      <c r="AR55" s="0"/>
+      <c r="AS55" s="0"/>
+      <c r="AT55" s="0"/>
+      <c r="AU55" s="0"/>
+      <c r="AV55" s="0"/>
+      <c r="AW55" s="0"/>
+      <c r="AX55" s="0"/>
+      <c r="AY55" s="0"/>
+      <c r="AZ55" s="0"/>
+      <c r="BA55" s="0"/>
+      <c r="BB55" s="0"/>
+      <c r="BC55" s="0"/>
+      <c r="BD55" s="0"/>
+      <c r="BE55" s="0"/>
+      <c r="BF55" s="0"/>
+      <c r="BG55" s="0"/>
+      <c r="BH55" s="0"/>
+      <c r="BI55" s="0"/>
+      <c r="BJ55" s="0"/>
+      <c r="BK55" s="0"/>
+      <c r="BL55" s="0"/>
+      <c r="BM55" s="0"/>
+      <c r="BN55" s="0"/>
+      <c r="BO55" s="0"/>
+      <c r="BP55" s="0"/>
+      <c r="BQ55" s="0"/>
+      <c r="BR55" s="0"/>
+      <c r="BS55" s="0"/>
+      <c r="BT55" s="0"/>
+      <c r="BU55" s="0"/>
+      <c r="BV55" s="0"/>
+      <c r="BW55" s="0"/>
+      <c r="BX55" s="0"/>
+      <c r="BY55" s="0"/>
+      <c r="BZ55" s="0"/>
+      <c r="CA55" s="0"/>
+      <c r="CB55" s="0"/>
+      <c r="CC55" s="0"/>
+      <c r="CD55" s="0"/>
+      <c r="CE55" s="0"/>
+      <c r="CF55" s="0"/>
+      <c r="CG55" s="0"/>
+      <c r="CH55" s="0"/>
+      <c r="CI55" s="0"/>
+      <c r="CJ55" s="0"/>
+      <c r="CK55" s="0"/>
+      <c r="CL55" s="0"/>
+      <c r="CM55" s="0"/>
+      <c r="CN55" s="0"/>
+      <c r="CO55" s="0"/>
+      <c r="CP55" s="0"/>
+      <c r="CQ55" s="0"/>
+      <c r="CR55" s="0"/>
+      <c r="CS55" s="0"/>
+      <c r="CT55" s="0"/>
+      <c r="CU55" s="0"/>
+      <c r="CV55" s="0"/>
+      <c r="CW55" s="0"/>
+      <c r="CX55" s="0"/>
+      <c r="CY55" s="0"/>
+      <c r="CZ55" s="0"/>
+      <c r="DA55" s="0"/>
+      <c r="DB55" s="0"/>
+      <c r="DC55" s="0"/>
+      <c r="DD55" s="0"/>
+      <c r="DE55" s="0"/>
+      <c r="DF55" s="0"/>
+      <c r="DG55" s="0"/>
+      <c r="DH55" s="0"/>
+      <c r="DI55" s="0"/>
+      <c r="DJ55" s="0"/>
+      <c r="DK55" s="0"/>
+      <c r="DL55" s="0"/>
+      <c r="DM55" s="0"/>
+      <c r="DN55" s="0"/>
+      <c r="DO55" s="0"/>
+      <c r="DP55" s="0"/>
+      <c r="DQ55" s="0"/>
+      <c r="DR55" s="0"/>
+      <c r="DS55" s="0"/>
+      <c r="DT55" s="0"/>
+      <c r="DU55" s="0"/>
+      <c r="DV55" s="0"/>
+      <c r="DW55" s="0"/>
+      <c r="DX55" s="0"/>
+      <c r="DY55" s="0"/>
+      <c r="DZ55" s="0"/>
+      <c r="EA55" s="0"/>
+      <c r="EB55" s="0"/>
+      <c r="EC55" s="0"/>
+      <c r="ED55" s="0"/>
+      <c r="EE55" s="0"/>
+      <c r="EF55" s="0"/>
+      <c r="EG55" s="0"/>
+      <c r="EH55" s="0"/>
+      <c r="EI55" s="0"/>
+      <c r="EJ55" s="0"/>
+      <c r="EK55" s="0"/>
+      <c r="EL55" s="0"/>
+      <c r="EM55" s="0"/>
+      <c r="EN55" s="0"/>
+      <c r="EO55" s="0"/>
+      <c r="EP55" s="0"/>
+      <c r="EQ55" s="0"/>
+      <c r="ER55" s="0"/>
+      <c r="ES55" s="0"/>
+      <c r="ET55" s="0"/>
+      <c r="EU55" s="0"/>
+      <c r="EV55" s="0"/>
+      <c r="EW55" s="0"/>
+      <c r="EX55" s="0"/>
+      <c r="EY55" s="0"/>
+      <c r="EZ55" s="0"/>
+      <c r="FA55" s="0"/>
+      <c r="FB55" s="0"/>
+      <c r="FC55" s="0"/>
+      <c r="FD55" s="0"/>
+      <c r="FE55" s="0"/>
+      <c r="FF55" s="0"/>
+      <c r="FG55" s="0"/>
+      <c r="FH55" s="0"/>
+      <c r="FI55" s="0"/>
+      <c r="FJ55" s="0"/>
+      <c r="FK55" s="0"/>
+      <c r="FL55" s="0"/>
+      <c r="FM55" s="0"/>
+      <c r="FN55" s="0"/>
+      <c r="FO55" s="0"/>
+      <c r="FP55" s="0"/>
+      <c r="FQ55" s="0"/>
+      <c r="FR55" s="0"/>
+      <c r="FS55" s="0"/>
+      <c r="FT55" s="0"/>
+      <c r="FU55" s="0"/>
+      <c r="FV55" s="0"/>
+      <c r="FW55" s="0"/>
+      <c r="FX55" s="0"/>
+      <c r="FY55" s="0"/>
+      <c r="FZ55" s="0"/>
+      <c r="GA55" s="0"/>
+      <c r="GB55" s="0"/>
+      <c r="GC55" s="0"/>
+      <c r="GD55" s="0"/>
+      <c r="GE55" s="0"/>
+      <c r="GF55" s="0"/>
+      <c r="GG55" s="0"/>
+      <c r="GH55" s="0"/>
+      <c r="GI55" s="0"/>
+      <c r="GJ55" s="0"/>
+      <c r="GK55" s="0"/>
+      <c r="GL55" s="0"/>
+      <c r="GM55" s="0"/>
+      <c r="GN55" s="0"/>
+      <c r="GO55" s="0"/>
+      <c r="GP55" s="0"/>
+      <c r="GQ55" s="0"/>
+      <c r="GR55" s="0"/>
+      <c r="GS55" s="0"/>
+      <c r="GT55" s="0"/>
+      <c r="GU55" s="0"/>
+      <c r="GV55" s="0"/>
+      <c r="GW55" s="0"/>
+      <c r="GX55" s="0"/>
+      <c r="GY55" s="0"/>
+      <c r="GZ55" s="0"/>
+      <c r="HA55" s="0"/>
+      <c r="HB55" s="0"/>
+      <c r="HC55" s="0"/>
+      <c r="HD55" s="0"/>
+      <c r="HE55" s="0"/>
+      <c r="HF55" s="0"/>
+      <c r="HG55" s="0"/>
+      <c r="HH55" s="0"/>
+      <c r="HI55" s="0"/>
+      <c r="HJ55" s="0"/>
+      <c r="HK55" s="0"/>
+      <c r="HL55" s="0"/>
+      <c r="HM55" s="0"/>
+      <c r="HN55" s="0"/>
+      <c r="HO55" s="0"/>
+      <c r="HP55" s="0"/>
+      <c r="HQ55" s="0"/>
+      <c r="HR55" s="0"/>
+      <c r="HS55" s="0"/>
+      <c r="HT55" s="0"/>
+      <c r="HU55" s="0"/>
+      <c r="HV55" s="0"/>
+      <c r="HW55" s="0"/>
+      <c r="HX55" s="0"/>
+      <c r="HY55" s="0"/>
+      <c r="HZ55" s="0"/>
+      <c r="IA55" s="0"/>
+      <c r="IB55" s="0"/>
+      <c r="IC55" s="0"/>
+      <c r="ID55" s="0"/>
+      <c r="IE55" s="0"/>
+      <c r="IF55" s="0"/>
+      <c r="IG55" s="0"/>
+      <c r="IH55" s="0"/>
+      <c r="II55" s="0"/>
+      <c r="IJ55" s="0"/>
+      <c r="IK55" s="0"/>
+      <c r="IL55" s="0"/>
+      <c r="IM55" s="0"/>
+      <c r="IN55" s="0"/>
+      <c r="IO55" s="0"/>
+      <c r="IP55" s="0"/>
+      <c r="IQ55" s="0"/>
+      <c r="IR55" s="0"/>
+      <c r="IS55" s="0"/>
+      <c r="IT55" s="0"/>
+      <c r="IU55" s="0"/>
+      <c r="IV55" s="0"/>
+      <c r="IW55" s="0"/>
+      <c r="IX55" s="0"/>
+      <c r="IY55" s="0"/>
+      <c r="IZ55" s="0"/>
+      <c r="JA55" s="0"/>
+      <c r="JB55" s="0"/>
+      <c r="JC55" s="0"/>
+      <c r="JD55" s="0"/>
+      <c r="JE55" s="0"/>
+      <c r="JF55" s="0"/>
+      <c r="JG55" s="0"/>
+      <c r="JH55" s="0"/>
+      <c r="JI55" s="0"/>
+      <c r="JJ55" s="0"/>
+      <c r="JK55" s="0"/>
+      <c r="JL55" s="0"/>
+      <c r="JM55" s="0"/>
+      <c r="JN55" s="0"/>
+      <c r="JO55" s="0"/>
+      <c r="JP55" s="0"/>
+      <c r="JQ55" s="0"/>
+      <c r="JR55" s="0"/>
+      <c r="JS55" s="0"/>
+      <c r="JT55" s="0"/>
+      <c r="JU55" s="0"/>
+      <c r="JV55" s="0"/>
+      <c r="JW55" s="0"/>
+      <c r="JX55" s="0"/>
+      <c r="JY55" s="0"/>
+      <c r="JZ55" s="0"/>
+      <c r="KA55" s="0"/>
+      <c r="KB55" s="0"/>
+      <c r="KC55" s="0"/>
+      <c r="KD55" s="0"/>
+      <c r="KE55" s="0"/>
+      <c r="KF55" s="0"/>
+      <c r="KG55" s="0"/>
+      <c r="KH55" s="0"/>
+      <c r="KI55" s="0"/>
+      <c r="KJ55" s="0"/>
+      <c r="KK55" s="0"/>
+      <c r="KL55" s="0"/>
+      <c r="KM55" s="0"/>
+      <c r="KN55" s="0"/>
+      <c r="KO55" s="0"/>
+      <c r="KP55" s="0"/>
+      <c r="KQ55" s="0"/>
+      <c r="KR55" s="0"/>
+      <c r="KS55" s="0"/>
+      <c r="KT55" s="0"/>
+      <c r="KU55" s="0"/>
+      <c r="KV55" s="0"/>
+      <c r="KW55" s="0"/>
+      <c r="KX55" s="0"/>
+      <c r="KY55" s="0"/>
+      <c r="KZ55" s="0"/>
+      <c r="LA55" s="0"/>
+      <c r="LB55" s="0"/>
+      <c r="LC55" s="0"/>
+      <c r="LD55" s="0"/>
+      <c r="LE55" s="0"/>
+      <c r="LF55" s="0"/>
+      <c r="LG55" s="0"/>
+      <c r="LH55" s="0"/>
+      <c r="LI55" s="0"/>
+      <c r="LJ55" s="0"/>
+      <c r="LK55" s="0"/>
+      <c r="LL55" s="0"/>
+      <c r="LM55" s="0"/>
+      <c r="LN55" s="0"/>
+      <c r="LO55" s="0"/>
+      <c r="LP55" s="0"/>
+      <c r="LQ55" s="0"/>
+      <c r="LR55" s="0"/>
+      <c r="LS55" s="0"/>
+      <c r="LT55" s="0"/>
+      <c r="LU55" s="0"/>
+      <c r="LV55" s="0"/>
+      <c r="LW55" s="0"/>
+      <c r="LX55" s="0"/>
+      <c r="LY55" s="0"/>
+      <c r="LZ55" s="0"/>
+      <c r="MA55" s="0"/>
+      <c r="MB55" s="0"/>
+      <c r="MC55" s="0"/>
+      <c r="MD55" s="0"/>
+      <c r="ME55" s="0"/>
+      <c r="MF55" s="0"/>
+      <c r="MG55" s="0"/>
+      <c r="MH55" s="0"/>
+      <c r="MI55" s="0"/>
+      <c r="MJ55" s="0"/>
+      <c r="MK55" s="0"/>
+      <c r="ML55" s="0"/>
+      <c r="MM55" s="0"/>
+      <c r="MN55" s="0"/>
+      <c r="MO55" s="0"/>
+      <c r="MP55" s="0"/>
+      <c r="MQ55" s="0"/>
+      <c r="MR55" s="0"/>
+      <c r="MS55" s="0"/>
+      <c r="MT55" s="0"/>
+      <c r="MU55" s="0"/>
+      <c r="MV55" s="0"/>
+      <c r="MW55" s="0"/>
+      <c r="MX55" s="0"/>
+      <c r="MY55" s="0"/>
+      <c r="MZ55" s="0"/>
+      <c r="NA55" s="0"/>
+      <c r="NB55" s="0"/>
+      <c r="NC55" s="0"/>
+      <c r="ND55" s="0"/>
+      <c r="NE55" s="0"/>
+      <c r="NF55" s="0"/>
+      <c r="NG55" s="0"/>
+      <c r="NH55" s="0"/>
+      <c r="NI55" s="0"/>
+      <c r="NJ55" s="0"/>
+      <c r="NK55" s="0"/>
+      <c r="NL55" s="0"/>
+      <c r="NM55" s="0"/>
+      <c r="NN55" s="0"/>
+      <c r="NO55" s="0"/>
+      <c r="NP55" s="0"/>
+      <c r="NQ55" s="0"/>
+      <c r="NR55" s="0"/>
+      <c r="NS55" s="0"/>
+      <c r="NT55" s="0"/>
+      <c r="NU55" s="0"/>
+      <c r="NV55" s="0"/>
+      <c r="NW55" s="0"/>
+      <c r="NX55" s="0"/>
+      <c r="NY55" s="0"/>
+      <c r="NZ55" s="0"/>
+      <c r="OA55" s="0"/>
+      <c r="OB55" s="0"/>
+      <c r="OC55" s="0"/>
+      <c r="OD55" s="0"/>
+      <c r="OE55" s="0"/>
+      <c r="OF55" s="0"/>
+      <c r="OG55" s="0"/>
+      <c r="OH55" s="0"/>
+      <c r="OI55" s="0"/>
+      <c r="OJ55" s="0"/>
+      <c r="OK55" s="0"/>
+      <c r="OL55" s="0"/>
+      <c r="OM55" s="0"/>
+      <c r="ON55" s="0"/>
+      <c r="OO55" s="0"/>
+      <c r="OP55" s="0"/>
+      <c r="OQ55" s="0"/>
+      <c r="OR55" s="0"/>
+      <c r="OS55" s="0"/>
+      <c r="OT55" s="0"/>
+      <c r="OU55" s="0"/>
+      <c r="OV55" s="0"/>
+      <c r="OW55" s="0"/>
+      <c r="OX55" s="0"/>
+      <c r="OY55" s="0"/>
+      <c r="OZ55" s="0"/>
+      <c r="PA55" s="0"/>
+      <c r="PB55" s="0"/>
+      <c r="PC55" s="0"/>
+      <c r="PD55" s="0"/>
+      <c r="PE55" s="0"/>
+      <c r="PF55" s="0"/>
+      <c r="PG55" s="0"/>
+      <c r="PH55" s="0"/>
+      <c r="PI55" s="0"/>
+      <c r="PJ55" s="0"/>
+      <c r="PK55" s="0"/>
+      <c r="PL55" s="0"/>
+      <c r="PM55" s="0"/>
+      <c r="PN55" s="0"/>
+      <c r="PO55" s="0"/>
+      <c r="PP55" s="0"/>
+      <c r="PQ55" s="0"/>
+      <c r="PR55" s="0"/>
+      <c r="PS55" s="0"/>
+      <c r="PT55" s="0"/>
+      <c r="PU55" s="0"/>
+      <c r="PV55" s="0"/>
+      <c r="PW55" s="0"/>
+      <c r="PX55" s="0"/>
+      <c r="PY55" s="0"/>
+      <c r="PZ55" s="0"/>
+      <c r="QA55" s="0"/>
+      <c r="QB55" s="0"/>
+      <c r="QC55" s="0"/>
+      <c r="QD55" s="0"/>
+      <c r="QE55" s="0"/>
+      <c r="QF55" s="0"/>
+      <c r="QG55" s="0"/>
+      <c r="QH55" s="0"/>
+      <c r="QI55" s="0"/>
+      <c r="QJ55" s="0"/>
+      <c r="QK55" s="0"/>
+      <c r="QL55" s="0"/>
+      <c r="QM55" s="0"/>
+      <c r="QN55" s="0"/>
+      <c r="QO55" s="0"/>
+      <c r="QP55" s="0"/>
+      <c r="QQ55" s="0"/>
+      <c r="QR55" s="0"/>
+      <c r="QS55" s="0"/>
+      <c r="QT55" s="0"/>
+      <c r="QU55" s="0"/>
+      <c r="QV55" s="0"/>
+      <c r="QW55" s="0"/>
+      <c r="QX55" s="0"/>
+      <c r="QY55" s="0"/>
+      <c r="QZ55" s="0"/>
+      <c r="RA55" s="0"/>
+      <c r="RB55" s="0"/>
+      <c r="RC55" s="0"/>
+      <c r="RD55" s="0"/>
+      <c r="RE55" s="0"/>
+      <c r="RF55" s="0"/>
+      <c r="RG55" s="0"/>
+      <c r="RH55" s="0"/>
+      <c r="RI55" s="0"/>
+      <c r="RJ55" s="0"/>
+      <c r="RK55" s="0"/>
+      <c r="RL55" s="0"/>
+      <c r="RM55" s="0"/>
+      <c r="RN55" s="0"/>
+      <c r="RO55" s="0"/>
+      <c r="RP55" s="0"/>
+      <c r="RQ55" s="0"/>
+      <c r="RR55" s="0"/>
+      <c r="RS55" s="0"/>
+      <c r="RT55" s="0"/>
+      <c r="RU55" s="0"/>
+      <c r="RV55" s="0"/>
+      <c r="RW55" s="0"/>
+      <c r="RX55" s="0"/>
+      <c r="RY55" s="0"/>
+      <c r="RZ55" s="0"/>
+      <c r="SA55" s="0"/>
+      <c r="SB55" s="0"/>
+      <c r="SC55" s="0"/>
+      <c r="SD55" s="0"/>
+      <c r="SE55" s="0"/>
+      <c r="SF55" s="0"/>
+      <c r="SG55" s="0"/>
+      <c r="SH55" s="0"/>
+      <c r="SI55" s="0"/>
+      <c r="SJ55" s="0"/>
+      <c r="SK55" s="0"/>
+      <c r="SL55" s="0"/>
+      <c r="SM55" s="0"/>
+      <c r="SN55" s="0"/>
+      <c r="SO55" s="0"/>
+      <c r="SP55" s="0"/>
+      <c r="SQ55" s="0"/>
+      <c r="SR55" s="0"/>
+      <c r="SS55" s="0"/>
+      <c r="ST55" s="0"/>
+      <c r="SU55" s="0"/>
+      <c r="SV55" s="0"/>
+      <c r="SW55" s="0"/>
+      <c r="SX55" s="0"/>
+      <c r="SY55" s="0"/>
+      <c r="SZ55" s="0"/>
+      <c r="TA55" s="0"/>
+      <c r="TB55" s="0"/>
+      <c r="TC55" s="0"/>
+      <c r="TD55" s="0"/>
+      <c r="TE55" s="0"/>
+      <c r="TF55" s="0"/>
+      <c r="TG55" s="0"/>
+      <c r="TH55" s="0"/>
+      <c r="TI55" s="0"/>
+      <c r="TJ55" s="0"/>
+      <c r="TK55" s="0"/>
+      <c r="TL55" s="0"/>
+      <c r="TM55" s="0"/>
+      <c r="TN55" s="0"/>
+      <c r="TO55" s="0"/>
+      <c r="TP55" s="0"/>
+      <c r="TQ55" s="0"/>
+      <c r="TR55" s="0"/>
+      <c r="TS55" s="0"/>
+      <c r="TT55" s="0"/>
+      <c r="TU55" s="0"/>
+      <c r="TV55" s="0"/>
+      <c r="TW55" s="0"/>
+      <c r="TX55" s="0"/>
+      <c r="TY55" s="0"/>
+      <c r="TZ55" s="0"/>
+      <c r="UA55" s="0"/>
+      <c r="UB55" s="0"/>
+      <c r="UC55" s="0"/>
+      <c r="UD55" s="0"/>
+      <c r="UE55" s="0"/>
+      <c r="UF55" s="0"/>
+      <c r="UG55" s="0"/>
+      <c r="UH55" s="0"/>
+      <c r="UI55" s="0"/>
+      <c r="UJ55" s="0"/>
+      <c r="UK55" s="0"/>
+      <c r="UL55" s="0"/>
+      <c r="UM55" s="0"/>
+      <c r="UN55" s="0"/>
+      <c r="UO55" s="0"/>
+      <c r="UP55" s="0"/>
+      <c r="UQ55" s="0"/>
+      <c r="UR55" s="0"/>
+      <c r="US55" s="0"/>
+      <c r="UT55" s="0"/>
+      <c r="UU55" s="0"/>
+      <c r="UV55" s="0"/>
+      <c r="UW55" s="0"/>
+      <c r="UX55" s="0"/>
+      <c r="UY55" s="0"/>
+      <c r="UZ55" s="0"/>
+      <c r="VA55" s="0"/>
+      <c r="VB55" s="0"/>
+      <c r="VC55" s="0"/>
+      <c r="VD55" s="0"/>
+      <c r="VE55" s="0"/>
+      <c r="VF55" s="0"/>
+      <c r="VG55" s="0"/>
+      <c r="VH55" s="0"/>
+      <c r="VI55" s="0"/>
+      <c r="VJ55" s="0"/>
+      <c r="VK55" s="0"/>
+      <c r="VL55" s="0"/>
+      <c r="VM55" s="0"/>
+      <c r="VN55" s="0"/>
+      <c r="VO55" s="0"/>
+      <c r="VP55" s="0"/>
+      <c r="VQ55" s="0"/>
+      <c r="VR55" s="0"/>
+      <c r="VS55" s="0"/>
+      <c r="VT55" s="0"/>
+      <c r="VU55" s="0"/>
+      <c r="VV55" s="0"/>
+      <c r="VW55" s="0"/>
+      <c r="VX55" s="0"/>
+      <c r="VY55" s="0"/>
+      <c r="VZ55" s="0"/>
+      <c r="WA55" s="0"/>
+      <c r="WB55" s="0"/>
+      <c r="WC55" s="0"/>
+      <c r="WD55" s="0"/>
+      <c r="WE55" s="0"/>
+      <c r="WF55" s="0"/>
+      <c r="WG55" s="0"/>
+      <c r="WH55" s="0"/>
+      <c r="WI55" s="0"/>
+      <c r="WJ55" s="0"/>
+      <c r="WK55" s="0"/>
+      <c r="WL55" s="0"/>
+      <c r="WM55" s="0"/>
+      <c r="WN55" s="0"/>
+      <c r="WO55" s="0"/>
+      <c r="WP55" s="0"/>
+      <c r="WQ55" s="0"/>
+      <c r="WR55" s="0"/>
+      <c r="WS55" s="0"/>
+      <c r="WT55" s="0"/>
+      <c r="WU55" s="0"/>
+      <c r="WV55" s="0"/>
+      <c r="WW55" s="0"/>
+      <c r="WX55" s="0"/>
+      <c r="WY55" s="0"/>
+      <c r="WZ55" s="0"/>
+      <c r="XA55" s="0"/>
+      <c r="XB55" s="0"/>
+      <c r="XC55" s="0"/>
+      <c r="XD55" s="0"/>
+      <c r="XE55" s="0"/>
+      <c r="XF55" s="0"/>
+      <c r="XG55" s="0"/>
+      <c r="XH55" s="0"/>
+      <c r="XI55" s="0"/>
+      <c r="XJ55" s="0"/>
+      <c r="XK55" s="0"/>
+      <c r="XL55" s="0"/>
+      <c r="XM55" s="0"/>
+      <c r="XN55" s="0"/>
+      <c r="XO55" s="0"/>
+      <c r="XP55" s="0"/>
+      <c r="XQ55" s="0"/>
+      <c r="XR55" s="0"/>
+      <c r="XS55" s="0"/>
+      <c r="XT55" s="0"/>
+      <c r="XU55" s="0"/>
+      <c r="XV55" s="0"/>
+      <c r="XW55" s="0"/>
+      <c r="XX55" s="0"/>
+      <c r="XY55" s="0"/>
+      <c r="XZ55" s="0"/>
+      <c r="YA55" s="0"/>
+      <c r="YB55" s="0"/>
+      <c r="YC55" s="0"/>
+      <c r="YD55" s="0"/>
+      <c r="YE55" s="0"/>
+      <c r="YF55" s="0"/>
+      <c r="YG55" s="0"/>
+      <c r="YH55" s="0"/>
+      <c r="YI55" s="0"/>
+      <c r="YJ55" s="0"/>
+      <c r="YK55" s="0"/>
+      <c r="YL55" s="0"/>
+      <c r="YM55" s="0"/>
+      <c r="YN55" s="0"/>
+      <c r="YO55" s="0"/>
+      <c r="YP55" s="0"/>
+      <c r="YQ55" s="0"/>
+      <c r="YR55" s="0"/>
+      <c r="YS55" s="0"/>
+      <c r="YT55" s="0"/>
+      <c r="YU55" s="0"/>
+      <c r="YV55" s="0"/>
+      <c r="YW55" s="0"/>
+      <c r="YX55" s="0"/>
+      <c r="YY55" s="0"/>
+      <c r="YZ55" s="0"/>
+      <c r="ZA55" s="0"/>
+      <c r="ZB55" s="0"/>
+      <c r="ZC55" s="0"/>
+      <c r="ZD55" s="0"/>
+      <c r="ZE55" s="0"/>
+      <c r="ZF55" s="0"/>
+      <c r="ZG55" s="0"/>
+      <c r="ZH55" s="0"/>
+      <c r="ZI55" s="0"/>
+      <c r="ZJ55" s="0"/>
+      <c r="ZK55" s="0"/>
+      <c r="ZL55" s="0"/>
+      <c r="ZM55" s="0"/>
+      <c r="ZN55" s="0"/>
+      <c r="ZO55" s="0"/>
+      <c r="ZP55" s="0"/>
+      <c r="ZQ55" s="0"/>
+      <c r="ZR55" s="0"/>
+      <c r="ZS55" s="0"/>
+      <c r="ZT55" s="0"/>
+      <c r="ZU55" s="0"/>
+      <c r="ZV55" s="0"/>
+      <c r="ZW55" s="0"/>
+      <c r="ZX55" s="0"/>
+      <c r="ZY55" s="0"/>
+      <c r="ZZ55" s="0"/>
+      <c r="AAA55" s="0"/>
+      <c r="AAB55" s="0"/>
+      <c r="AAC55" s="0"/>
+      <c r="AAD55" s="0"/>
+      <c r="AAE55" s="0"/>
+      <c r="AAF55" s="0"/>
+      <c r="AAG55" s="0"/>
+      <c r="AAH55" s="0"/>
+      <c r="AAI55" s="0"/>
+      <c r="AAJ55" s="0"/>
+      <c r="AAK55" s="0"/>
+      <c r="AAL55" s="0"/>
+      <c r="AAM55" s="0"/>
+      <c r="AAN55" s="0"/>
+      <c r="AAO55" s="0"/>
+      <c r="AAP55" s="0"/>
+      <c r="AAQ55" s="0"/>
+      <c r="AAR55" s="0"/>
+      <c r="AAS55" s="0"/>
+      <c r="AAT55" s="0"/>
+      <c r="AAU55" s="0"/>
+      <c r="AAV55" s="0"/>
+      <c r="AAW55" s="0"/>
+      <c r="AAX55" s="0"/>
+      <c r="AAY55" s="0"/>
+      <c r="AAZ55" s="0"/>
+      <c r="ABA55" s="0"/>
+      <c r="ABB55" s="0"/>
+      <c r="ABC55" s="0"/>
+      <c r="ABD55" s="0"/>
+      <c r="ABE55" s="0"/>
+      <c r="ABF55" s="0"/>
+      <c r="ABG55" s="0"/>
+      <c r="ABH55" s="0"/>
+      <c r="ABI55" s="0"/>
+      <c r="ABJ55" s="0"/>
+      <c r="ABK55" s="0"/>
+      <c r="ABL55" s="0"/>
+      <c r="ABM55" s="0"/>
+      <c r="ABN55" s="0"/>
+      <c r="ABO55" s="0"/>
+      <c r="ABP55" s="0"/>
+      <c r="ABQ55" s="0"/>
+      <c r="ABR55" s="0"/>
+      <c r="ABS55" s="0"/>
+      <c r="ABT55" s="0"/>
+      <c r="ABU55" s="0"/>
+      <c r="ABV55" s="0"/>
+      <c r="ABW55" s="0"/>
+      <c r="ABX55" s="0"/>
+      <c r="ABY55" s="0"/>
+      <c r="ABZ55" s="0"/>
+      <c r="ACA55" s="0"/>
+      <c r="ACB55" s="0"/>
+      <c r="ACC55" s="0"/>
+      <c r="ACD55" s="0"/>
+      <c r="ACE55" s="0"/>
+      <c r="ACF55" s="0"/>
+      <c r="ACG55" s="0"/>
+      <c r="ACH55" s="0"/>
+      <c r="ACI55" s="0"/>
+      <c r="ACJ55" s="0"/>
+      <c r="ACK55" s="0"/>
+      <c r="ACL55" s="0"/>
+      <c r="ACM55" s="0"/>
+      <c r="ACN55" s="0"/>
+      <c r="ACO55" s="0"/>
+      <c r="ACP55" s="0"/>
+      <c r="ACQ55" s="0"/>
+      <c r="ACR55" s="0"/>
+      <c r="ACS55" s="0"/>
+      <c r="ACT55" s="0"/>
+      <c r="ACU55" s="0"/>
+      <c r="ACV55" s="0"/>
+      <c r="ACW55" s="0"/>
+      <c r="ACX55" s="0"/>
+      <c r="ACY55" s="0"/>
+      <c r="ACZ55" s="0"/>
+      <c r="ADA55" s="0"/>
+      <c r="ADB55" s="0"/>
+      <c r="ADC55" s="0"/>
+      <c r="ADD55" s="0"/>
+      <c r="ADE55" s="0"/>
+      <c r="ADF55" s="0"/>
+      <c r="ADG55" s="0"/>
+      <c r="ADH55" s="0"/>
+      <c r="ADI55" s="0"/>
+      <c r="ADJ55" s="0"/>
+      <c r="ADK55" s="0"/>
+      <c r="ADL55" s="0"/>
+      <c r="ADM55" s="0"/>
+      <c r="ADN55" s="0"/>
+      <c r="ADO55" s="0"/>
+      <c r="ADP55" s="0"/>
+      <c r="ADQ55" s="0"/>
+      <c r="ADR55" s="0"/>
+      <c r="ADS55" s="0"/>
+      <c r="ADT55" s="0"/>
+      <c r="ADU55" s="0"/>
+      <c r="ADV55" s="0"/>
+      <c r="ADW55" s="0"/>
+      <c r="ADX55" s="0"/>
+      <c r="ADY55" s="0"/>
+      <c r="ADZ55" s="0"/>
+      <c r="AEA55" s="0"/>
+      <c r="AEB55" s="0"/>
+      <c r="AEC55" s="0"/>
+      <c r="AED55" s="0"/>
+      <c r="AEE55" s="0"/>
+      <c r="AEF55" s="0"/>
+      <c r="AEG55" s="0"/>
+      <c r="AEH55" s="0"/>
+      <c r="AEI55" s="0"/>
+      <c r="AEJ55" s="0"/>
+      <c r="AEK55" s="0"/>
+      <c r="AEL55" s="0"/>
+      <c r="AEM55" s="0"/>
+      <c r="AEN55" s="0"/>
+      <c r="AEO55" s="0"/>
+      <c r="AEP55" s="0"/>
+      <c r="AEQ55" s="0"/>
+      <c r="AER55" s="0"/>
+      <c r="AES55" s="0"/>
+      <c r="AET55" s="0"/>
+      <c r="AEU55" s="0"/>
+      <c r="AEV55" s="0"/>
+      <c r="AEW55" s="0"/>
+      <c r="AEX55" s="0"/>
+      <c r="AEY55" s="0"/>
+      <c r="AEZ55" s="0"/>
+      <c r="AFA55" s="0"/>
+      <c r="AFB55" s="0"/>
+      <c r="AFC55" s="0"/>
+      <c r="AFD55" s="0"/>
+      <c r="AFE55" s="0"/>
+      <c r="AFF55" s="0"/>
+      <c r="AFG55" s="0"/>
+      <c r="AFH55" s="0"/>
+      <c r="AFI55" s="0"/>
+      <c r="AFJ55" s="0"/>
+      <c r="AFK55" s="0"/>
+      <c r="AFL55" s="0"/>
+      <c r="AFM55" s="0"/>
+      <c r="AFN55" s="0"/>
+      <c r="AFO55" s="0"/>
+      <c r="AFP55" s="0"/>
+      <c r="AFQ55" s="0"/>
+      <c r="AFR55" s="0"/>
+      <c r="AFS55" s="0"/>
+      <c r="AFT55" s="0"/>
+      <c r="AFU55" s="0"/>
+      <c r="AFV55" s="0"/>
+      <c r="AFW55" s="0"/>
+      <c r="AFX55" s="0"/>
+      <c r="AFY55" s="0"/>
+      <c r="AFZ55" s="0"/>
+      <c r="AGA55" s="0"/>
+      <c r="AGB55" s="0"/>
+      <c r="AGC55" s="0"/>
+      <c r="AGD55" s="0"/>
+      <c r="AGE55" s="0"/>
+      <c r="AGF55" s="0"/>
+      <c r="AGG55" s="0"/>
+      <c r="AGH55" s="0"/>
+      <c r="AGI55" s="0"/>
+      <c r="AGJ55" s="0"/>
+      <c r="AGK55" s="0"/>
+      <c r="AGL55" s="0"/>
+      <c r="AGM55" s="0"/>
+      <c r="AGN55" s="0"/>
+      <c r="AGO55" s="0"/>
+      <c r="AGP55" s="0"/>
+      <c r="AGQ55" s="0"/>
+      <c r="AGR55" s="0"/>
+      <c r="AGS55" s="0"/>
+      <c r="AGT55" s="0"/>
+      <c r="AGU55" s="0"/>
+      <c r="AGV55" s="0"/>
+      <c r="AGW55" s="0"/>
+      <c r="AGX55" s="0"/>
+      <c r="AGY55" s="0"/>
+      <c r="AGZ55" s="0"/>
+      <c r="AHA55" s="0"/>
+      <c r="AHB55" s="0"/>
+      <c r="AHC55" s="0"/>
+      <c r="AHD55" s="0"/>
+      <c r="AHE55" s="0"/>
+      <c r="AHF55" s="0"/>
+      <c r="AHG55" s="0"/>
+      <c r="AHH55" s="0"/>
+      <c r="AHI55" s="0"/>
+      <c r="AHJ55" s="0"/>
+      <c r="AHK55" s="0"/>
+      <c r="AHL55" s="0"/>
+      <c r="AHM55" s="0"/>
+      <c r="AHN55" s="0"/>
+      <c r="AHO55" s="0"/>
+      <c r="AHP55" s="0"/>
+      <c r="AHQ55" s="0"/>
+      <c r="AHR55" s="0"/>
+      <c r="AHS55" s="0"/>
+      <c r="AHT55" s="0"/>
+      <c r="AHU55" s="0"/>
+      <c r="AHV55" s="0"/>
+      <c r="AHW55" s="0"/>
+      <c r="AHX55" s="0"/>
+      <c r="AHY55" s="0"/>
+      <c r="AHZ55" s="0"/>
+      <c r="AIA55" s="0"/>
+      <c r="AIB55" s="0"/>
+      <c r="AIC55" s="0"/>
+      <c r="AID55" s="0"/>
+      <c r="AIE55" s="0"/>
+      <c r="AIF55" s="0"/>
+      <c r="AIG55" s="0"/>
+      <c r="AIH55" s="0"/>
+      <c r="AII55" s="0"/>
+      <c r="AIJ55" s="0"/>
+      <c r="AIK55" s="0"/>
+      <c r="AIL55" s="0"/>
+      <c r="AIM55" s="0"/>
+      <c r="AIN55" s="0"/>
+      <c r="AIO55" s="0"/>
+      <c r="AIP55" s="0"/>
+      <c r="AIQ55" s="0"/>
+      <c r="AIR55" s="0"/>
+      <c r="AIS55" s="0"/>
+      <c r="AIT55" s="0"/>
+      <c r="AIU55" s="0"/>
+      <c r="AIV55" s="0"/>
+      <c r="AIW55" s="0"/>
+      <c r="AIX55" s="0"/>
+      <c r="AIY55" s="0"/>
+      <c r="AIZ55" s="0"/>
+      <c r="AJA55" s="0"/>
+      <c r="AJB55" s="0"/>
+      <c r="AJC55" s="0"/>
+      <c r="AJD55" s="0"/>
+      <c r="AJE55" s="0"/>
+      <c r="AJF55" s="0"/>
+      <c r="AJG55" s="0"/>
+      <c r="AJH55" s="0"/>
+      <c r="AJI55" s="0"/>
+      <c r="AJJ55" s="0"/>
+      <c r="AJK55" s="0"/>
+      <c r="AJL55" s="0"/>
+      <c r="AJM55" s="0"/>
+      <c r="AJN55" s="0"/>
+      <c r="AJO55" s="0"/>
+      <c r="AJP55" s="0"/>
+      <c r="AJQ55" s="0"/>
+      <c r="AJR55" s="0"/>
+      <c r="AJS55" s="0"/>
+      <c r="AJT55" s="0"/>
+      <c r="AJU55" s="0"/>
+      <c r="AJV55" s="0"/>
+      <c r="AJW55" s="0"/>
+      <c r="AJX55" s="0"/>
+      <c r="AJY55" s="0"/>
+      <c r="AJZ55" s="0"/>
+      <c r="AKA55" s="0"/>
+      <c r="AKB55" s="0"/>
+      <c r="AKC55" s="0"/>
+      <c r="AKD55" s="0"/>
+      <c r="AKE55" s="0"/>
+      <c r="AKF55" s="0"/>
+      <c r="AKG55" s="0"/>
+      <c r="AKH55" s="0"/>
+      <c r="AKI55" s="0"/>
+      <c r="AKJ55" s="0"/>
+      <c r="AKK55" s="0"/>
+      <c r="AKL55" s="0"/>
+      <c r="AKM55" s="0"/>
+      <c r="AKN55" s="0"/>
+      <c r="AKO55" s="0"/>
+      <c r="AKP55" s="0"/>
+      <c r="AKQ55" s="0"/>
+      <c r="AKR55" s="0"/>
+      <c r="AKS55" s="0"/>
+      <c r="AKT55" s="0"/>
+      <c r="AKU55" s="0"/>
+      <c r="AKV55" s="0"/>
+      <c r="AKW55" s="0"/>
+      <c r="AKX55" s="0"/>
+      <c r="AKY55" s="0"/>
+      <c r="AKZ55" s="0"/>
+      <c r="ALA55" s="0"/>
+      <c r="ALB55" s="0"/>
+      <c r="ALC55" s="0"/>
+      <c r="ALD55" s="0"/>
+      <c r="ALE55" s="0"/>
+      <c r="ALF55" s="0"/>
+      <c r="ALG55" s="0"/>
+      <c r="ALH55" s="0"/>
+      <c r="ALI55" s="0"/>
+      <c r="ALJ55" s="0"/>
+      <c r="ALK55" s="0"/>
+      <c r="ALL55" s="0"/>
+      <c r="ALM55" s="0"/>
+      <c r="ALN55" s="0"/>
+      <c r="ALO55" s="0"/>
+      <c r="ALP55" s="0"/>
+      <c r="ALQ55" s="0"/>
+      <c r="ALR55" s="0"/>
+      <c r="ALS55" s="0"/>
+      <c r="ALT55" s="0"/>
+      <c r="ALU55" s="0"/>
+      <c r="ALV55" s="0"/>
+      <c r="ALW55" s="0"/>
+      <c r="ALX55" s="0"/>
+      <c r="ALY55" s="0"/>
+      <c r="ALZ55" s="0"/>
+      <c r="AMA55" s="0"/>
+      <c r="AMB55" s="0"/>
+      <c r="AMC55" s="0"/>
+      <c r="AMD55" s="0"/>
+      <c r="AME55" s="0"/>
+      <c r="AMF55" s="0"/>
+      <c r="AMG55" s="0"/>
+      <c r="AMH55" s="0"/>
+      <c r="AMI55" s="0"/>
+      <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21"/>
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10"/>
       <c r="B56" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
       <c r="G56" s="0"/>
       <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
+      <c r="O56" s="0"/>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
+      <c r="R56" s="0"/>
+      <c r="S56" s="0"/>
+      <c r="T56" s="0"/>
+      <c r="U56" s="0"/>
+      <c r="V56" s="0"/>
+      <c r="W56" s="0"/>
+      <c r="X56" s="0"/>
+      <c r="Y56" s="0"/>
+      <c r="Z56" s="0"/>
+      <c r="AA56" s="0"/>
+      <c r="AB56" s="0"/>
+      <c r="AC56" s="0"/>
+      <c r="AD56" s="0"/>
+      <c r="AE56" s="0"/>
+      <c r="AF56" s="0"/>
+      <c r="AG56" s="0"/>
+      <c r="AH56" s="0"/>
+      <c r="AI56" s="0"/>
+      <c r="AJ56" s="0"/>
+      <c r="AK56" s="0"/>
+      <c r="AL56" s="0"/>
+      <c r="AM56" s="0"/>
+      <c r="AN56" s="0"/>
+      <c r="AO56" s="0"/>
+      <c r="AP56" s="0"/>
+      <c r="AQ56" s="0"/>
+      <c r="AR56" s="0"/>
+      <c r="AS56" s="0"/>
+      <c r="AT56" s="0"/>
+      <c r="AU56" s="0"/>
+      <c r="AV56" s="0"/>
+      <c r="AW56" s="0"/>
+      <c r="AX56" s="0"/>
+      <c r="AY56" s="0"/>
+      <c r="AZ56" s="0"/>
+      <c r="BA56" s="0"/>
+      <c r="BB56" s="0"/>
+      <c r="BC56" s="0"/>
+      <c r="BD56" s="0"/>
+      <c r="BE56" s="0"/>
+      <c r="BF56" s="0"/>
+      <c r="BG56" s="0"/>
+      <c r="BH56" s="0"/>
+      <c r="BI56" s="0"/>
+      <c r="BJ56" s="0"/>
+      <c r="BK56" s="0"/>
+      <c r="BL56" s="0"/>
+      <c r="BM56" s="0"/>
+      <c r="BN56" s="0"/>
+      <c r="BO56" s="0"/>
+      <c r="BP56" s="0"/>
+      <c r="BQ56" s="0"/>
+      <c r="BR56" s="0"/>
+      <c r="BS56" s="0"/>
+      <c r="BT56" s="0"/>
+      <c r="BU56" s="0"/>
+      <c r="BV56" s="0"/>
+      <c r="BW56" s="0"/>
+      <c r="BX56" s="0"/>
+      <c r="BY56" s="0"/>
+      <c r="BZ56" s="0"/>
+      <c r="CA56" s="0"/>
+      <c r="CB56" s="0"/>
+      <c r="CC56" s="0"/>
+      <c r="CD56" s="0"/>
+      <c r="CE56" s="0"/>
+      <c r="CF56" s="0"/>
+      <c r="CG56" s="0"/>
+      <c r="CH56" s="0"/>
+      <c r="CI56" s="0"/>
+      <c r="CJ56" s="0"/>
+      <c r="CK56" s="0"/>
+      <c r="CL56" s="0"/>
+      <c r="CM56" s="0"/>
+      <c r="CN56" s="0"/>
+      <c r="CO56" s="0"/>
+      <c r="CP56" s="0"/>
+      <c r="CQ56" s="0"/>
+      <c r="CR56" s="0"/>
+      <c r="CS56" s="0"/>
+      <c r="CT56" s="0"/>
+      <c r="CU56" s="0"/>
+      <c r="CV56" s="0"/>
+      <c r="CW56" s="0"/>
+      <c r="CX56" s="0"/>
+      <c r="CY56" s="0"/>
+      <c r="CZ56" s="0"/>
+      <c r="DA56" s="0"/>
+      <c r="DB56" s="0"/>
+      <c r="DC56" s="0"/>
+      <c r="DD56" s="0"/>
+      <c r="DE56" s="0"/>
+      <c r="DF56" s="0"/>
+      <c r="DG56" s="0"/>
+      <c r="DH56" s="0"/>
+      <c r="DI56" s="0"/>
+      <c r="DJ56" s="0"/>
+      <c r="DK56" s="0"/>
+      <c r="DL56" s="0"/>
+      <c r="DM56" s="0"/>
+      <c r="DN56" s="0"/>
+      <c r="DO56" s="0"/>
+      <c r="DP56" s="0"/>
+      <c r="DQ56" s="0"/>
+      <c r="DR56" s="0"/>
+      <c r="DS56" s="0"/>
+      <c r="DT56" s="0"/>
+      <c r="DU56" s="0"/>
+      <c r="DV56" s="0"/>
+      <c r="DW56" s="0"/>
+      <c r="DX56" s="0"/>
+      <c r="DY56" s="0"/>
+      <c r="DZ56" s="0"/>
+      <c r="EA56" s="0"/>
+      <c r="EB56" s="0"/>
+      <c r="EC56" s="0"/>
+      <c r="ED56" s="0"/>
+      <c r="EE56" s="0"/>
+      <c r="EF56" s="0"/>
+      <c r="EG56" s="0"/>
+      <c r="EH56" s="0"/>
+      <c r="EI56" s="0"/>
+      <c r="EJ56" s="0"/>
+      <c r="EK56" s="0"/>
+      <c r="EL56" s="0"/>
+      <c r="EM56" s="0"/>
+      <c r="EN56" s="0"/>
+      <c r="EO56" s="0"/>
+      <c r="EP56" s="0"/>
+      <c r="EQ56" s="0"/>
+      <c r="ER56" s="0"/>
+      <c r="ES56" s="0"/>
+      <c r="ET56" s="0"/>
+      <c r="EU56" s="0"/>
+      <c r="EV56" s="0"/>
+      <c r="EW56" s="0"/>
+      <c r="EX56" s="0"/>
+      <c r="EY56" s="0"/>
+      <c r="EZ56" s="0"/>
+      <c r="FA56" s="0"/>
+      <c r="FB56" s="0"/>
+      <c r="FC56" s="0"/>
+      <c r="FD56" s="0"/>
+      <c r="FE56" s="0"/>
+      <c r="FF56" s="0"/>
+      <c r="FG56" s="0"/>
+      <c r="FH56" s="0"/>
+      <c r="FI56" s="0"/>
+      <c r="FJ56" s="0"/>
+      <c r="FK56" s="0"/>
+      <c r="FL56" s="0"/>
+      <c r="FM56" s="0"/>
+      <c r="FN56" s="0"/>
+      <c r="FO56" s="0"/>
+      <c r="FP56" s="0"/>
+      <c r="FQ56" s="0"/>
+      <c r="FR56" s="0"/>
+      <c r="FS56" s="0"/>
+      <c r="FT56" s="0"/>
+      <c r="FU56" s="0"/>
+      <c r="FV56" s="0"/>
+      <c r="FW56" s="0"/>
+      <c r="FX56" s="0"/>
+      <c r="FY56" s="0"/>
+      <c r="FZ56" s="0"/>
+      <c r="GA56" s="0"/>
+      <c r="GB56" s="0"/>
+      <c r="GC56" s="0"/>
+      <c r="GD56" s="0"/>
+      <c r="GE56" s="0"/>
+      <c r="GF56" s="0"/>
+      <c r="GG56" s="0"/>
+      <c r="GH56" s="0"/>
+      <c r="GI56" s="0"/>
+      <c r="GJ56" s="0"/>
+      <c r="GK56" s="0"/>
+      <c r="GL56" s="0"/>
+      <c r="GM56" s="0"/>
+      <c r="GN56" s="0"/>
+      <c r="GO56" s="0"/>
+      <c r="GP56" s="0"/>
+      <c r="GQ56" s="0"/>
+      <c r="GR56" s="0"/>
+      <c r="GS56" s="0"/>
+      <c r="GT56" s="0"/>
+      <c r="GU56" s="0"/>
+      <c r="GV56" s="0"/>
+      <c r="GW56" s="0"/>
+      <c r="GX56" s="0"/>
+      <c r="GY56" s="0"/>
+      <c r="GZ56" s="0"/>
+      <c r="HA56" s="0"/>
+      <c r="HB56" s="0"/>
+      <c r="HC56" s="0"/>
+      <c r="HD56" s="0"/>
+      <c r="HE56" s="0"/>
+      <c r="HF56" s="0"/>
+      <c r="HG56" s="0"/>
+      <c r="HH56" s="0"/>
+      <c r="HI56" s="0"/>
+      <c r="HJ56" s="0"/>
+      <c r="HK56" s="0"/>
+      <c r="HL56" s="0"/>
+      <c r="HM56" s="0"/>
+      <c r="HN56" s="0"/>
+      <c r="HO56" s="0"/>
+      <c r="HP56" s="0"/>
+      <c r="HQ56" s="0"/>
+      <c r="HR56" s="0"/>
+      <c r="HS56" s="0"/>
+      <c r="HT56" s="0"/>
+      <c r="HU56" s="0"/>
+      <c r="HV56" s="0"/>
+      <c r="HW56" s="0"/>
+      <c r="HX56" s="0"/>
+      <c r="HY56" s="0"/>
+      <c r="HZ56" s="0"/>
+      <c r="IA56" s="0"/>
+      <c r="IB56" s="0"/>
+      <c r="IC56" s="0"/>
+      <c r="ID56" s="0"/>
+      <c r="IE56" s="0"/>
+      <c r="IF56" s="0"/>
+      <c r="IG56" s="0"/>
+      <c r="IH56" s="0"/>
+      <c r="II56" s="0"/>
+      <c r="IJ56" s="0"/>
+      <c r="IK56" s="0"/>
+      <c r="IL56" s="0"/>
+      <c r="IM56" s="0"/>
+      <c r="IN56" s="0"/>
+      <c r="IO56" s="0"/>
+      <c r="IP56" s="0"/>
+      <c r="IQ56" s="0"/>
+      <c r="IR56" s="0"/>
+      <c r="IS56" s="0"/>
+      <c r="IT56" s="0"/>
+      <c r="IU56" s="0"/>
+      <c r="IV56" s="0"/>
+      <c r="IW56" s="0"/>
+      <c r="IX56" s="0"/>
+      <c r="IY56" s="0"/>
+      <c r="IZ56" s="0"/>
+      <c r="JA56" s="0"/>
+      <c r="JB56" s="0"/>
+      <c r="JC56" s="0"/>
+      <c r="JD56" s="0"/>
+      <c r="JE56" s="0"/>
+      <c r="JF56" s="0"/>
+      <c r="JG56" s="0"/>
+      <c r="JH56" s="0"/>
+      <c r="JI56" s="0"/>
+      <c r="JJ56" s="0"/>
+      <c r="JK56" s="0"/>
+      <c r="JL56" s="0"/>
+      <c r="JM56" s="0"/>
+      <c r="JN56" s="0"/>
+      <c r="JO56" s="0"/>
+      <c r="JP56" s="0"/>
+      <c r="JQ56" s="0"/>
+      <c r="JR56" s="0"/>
+      <c r="JS56" s="0"/>
+      <c r="JT56" s="0"/>
+      <c r="JU56" s="0"/>
+      <c r="JV56" s="0"/>
+      <c r="JW56" s="0"/>
+      <c r="JX56" s="0"/>
+      <c r="JY56" s="0"/>
+      <c r="JZ56" s="0"/>
+      <c r="KA56" s="0"/>
+      <c r="KB56" s="0"/>
+      <c r="KC56" s="0"/>
+      <c r="KD56" s="0"/>
+      <c r="KE56" s="0"/>
+      <c r="KF56" s="0"/>
+      <c r="KG56" s="0"/>
+      <c r="KH56" s="0"/>
+      <c r="KI56" s="0"/>
+      <c r="KJ56" s="0"/>
+      <c r="KK56" s="0"/>
+      <c r="KL56" s="0"/>
+      <c r="KM56" s="0"/>
+      <c r="KN56" s="0"/>
+      <c r="KO56" s="0"/>
+      <c r="KP56" s="0"/>
+      <c r="KQ56" s="0"/>
+      <c r="KR56" s="0"/>
+      <c r="KS56" s="0"/>
+      <c r="KT56" s="0"/>
+      <c r="KU56" s="0"/>
+      <c r="KV56" s="0"/>
+      <c r="KW56" s="0"/>
+      <c r="KX56" s="0"/>
+      <c r="KY56" s="0"/>
+      <c r="KZ56" s="0"/>
+      <c r="LA56" s="0"/>
+      <c r="LB56" s="0"/>
+      <c r="LC56" s="0"/>
+      <c r="LD56" s="0"/>
+      <c r="LE56" s="0"/>
+      <c r="LF56" s="0"/>
+      <c r="LG56" s="0"/>
+      <c r="LH56" s="0"/>
+      <c r="LI56" s="0"/>
+      <c r="LJ56" s="0"/>
+      <c r="LK56" s="0"/>
+      <c r="LL56" s="0"/>
+      <c r="LM56" s="0"/>
+      <c r="LN56" s="0"/>
+      <c r="LO56" s="0"/>
+      <c r="LP56" s="0"/>
+      <c r="LQ56" s="0"/>
+      <c r="LR56" s="0"/>
+      <c r="LS56" s="0"/>
+      <c r="LT56" s="0"/>
+      <c r="LU56" s="0"/>
+      <c r="LV56" s="0"/>
+      <c r="LW56" s="0"/>
+      <c r="LX56" s="0"/>
+      <c r="LY56" s="0"/>
+      <c r="LZ56" s="0"/>
+      <c r="MA56" s="0"/>
+      <c r="MB56" s="0"/>
+      <c r="MC56" s="0"/>
+      <c r="MD56" s="0"/>
+      <c r="ME56" s="0"/>
+      <c r="MF56" s="0"/>
+      <c r="MG56" s="0"/>
+      <c r="MH56" s="0"/>
+      <c r="MI56" s="0"/>
+      <c r="MJ56" s="0"/>
+      <c r="MK56" s="0"/>
+      <c r="ML56" s="0"/>
+      <c r="MM56" s="0"/>
+      <c r="MN56" s="0"/>
+      <c r="MO56" s="0"/>
+      <c r="MP56" s="0"/>
+      <c r="MQ56" s="0"/>
+      <c r="MR56" s="0"/>
+      <c r="MS56" s="0"/>
+      <c r="MT56" s="0"/>
+      <c r="MU56" s="0"/>
+      <c r="MV56" s="0"/>
+      <c r="MW56" s="0"/>
+      <c r="MX56" s="0"/>
+      <c r="MY56" s="0"/>
+      <c r="MZ56" s="0"/>
+      <c r="NA56" s="0"/>
+      <c r="NB56" s="0"/>
+      <c r="NC56" s="0"/>
+      <c r="ND56" s="0"/>
+      <c r="NE56" s="0"/>
+      <c r="NF56" s="0"/>
+      <c r="NG56" s="0"/>
+      <c r="NH56" s="0"/>
+      <c r="NI56" s="0"/>
+      <c r="NJ56" s="0"/>
+      <c r="NK56" s="0"/>
+      <c r="NL56" s="0"/>
+      <c r="NM56" s="0"/>
+      <c r="NN56" s="0"/>
+      <c r="NO56" s="0"/>
+      <c r="NP56" s="0"/>
+      <c r="NQ56" s="0"/>
+      <c r="NR56" s="0"/>
+      <c r="NS56" s="0"/>
+      <c r="NT56" s="0"/>
+      <c r="NU56" s="0"/>
+      <c r="NV56" s="0"/>
+      <c r="NW56" s="0"/>
+      <c r="NX56" s="0"/>
+      <c r="NY56" s="0"/>
+      <c r="NZ56" s="0"/>
+      <c r="OA56" s="0"/>
+      <c r="OB56" s="0"/>
+      <c r="OC56" s="0"/>
+      <c r="OD56" s="0"/>
+      <c r="OE56" s="0"/>
+      <c r="OF56" s="0"/>
+      <c r="OG56" s="0"/>
+      <c r="OH56" s="0"/>
+      <c r="OI56" s="0"/>
+      <c r="OJ56" s="0"/>
+      <c r="OK56" s="0"/>
+      <c r="OL56" s="0"/>
+      <c r="OM56" s="0"/>
+      <c r="ON56" s="0"/>
+      <c r="OO56" s="0"/>
+      <c r="OP56" s="0"/>
+      <c r="OQ56" s="0"/>
+      <c r="OR56" s="0"/>
+      <c r="OS56" s="0"/>
+      <c r="OT56" s="0"/>
+      <c r="OU56" s="0"/>
+      <c r="OV56" s="0"/>
+      <c r="OW56" s="0"/>
+      <c r="OX56" s="0"/>
+      <c r="OY56" s="0"/>
+      <c r="OZ56" s="0"/>
+      <c r="PA56" s="0"/>
+      <c r="PB56" s="0"/>
+      <c r="PC56" s="0"/>
+      <c r="PD56" s="0"/>
+      <c r="PE56" s="0"/>
+      <c r="PF56" s="0"/>
+      <c r="PG56" s="0"/>
+      <c r="PH56" s="0"/>
+      <c r="PI56" s="0"/>
+      <c r="PJ56" s="0"/>
+      <c r="PK56" s="0"/>
+      <c r="PL56" s="0"/>
+      <c r="PM56" s="0"/>
+      <c r="PN56" s="0"/>
+      <c r="PO56" s="0"/>
+      <c r="PP56" s="0"/>
+      <c r="PQ56" s="0"/>
+      <c r="PR56" s="0"/>
+      <c r="PS56" s="0"/>
+      <c r="PT56" s="0"/>
+      <c r="PU56" s="0"/>
+      <c r="PV56" s="0"/>
+      <c r="PW56" s="0"/>
+      <c r="PX56" s="0"/>
+      <c r="PY56" s="0"/>
+      <c r="PZ56" s="0"/>
+      <c r="QA56" s="0"/>
+      <c r="QB56" s="0"/>
+      <c r="QC56" s="0"/>
+      <c r="QD56" s="0"/>
+      <c r="QE56" s="0"/>
+      <c r="QF56" s="0"/>
+      <c r="QG56" s="0"/>
+      <c r="QH56" s="0"/>
+      <c r="QI56" s="0"/>
+      <c r="QJ56" s="0"/>
+      <c r="QK56" s="0"/>
+      <c r="QL56" s="0"/>
+      <c r="QM56" s="0"/>
+      <c r="QN56" s="0"/>
+      <c r="QO56" s="0"/>
+      <c r="QP56" s="0"/>
+      <c r="QQ56" s="0"/>
+      <c r="QR56" s="0"/>
+      <c r="QS56" s="0"/>
+      <c r="QT56" s="0"/>
+      <c r="QU56" s="0"/>
+      <c r="QV56" s="0"/>
+      <c r="QW56" s="0"/>
+      <c r="QX56" s="0"/>
+      <c r="QY56" s="0"/>
+      <c r="QZ56" s="0"/>
+      <c r="RA56" s="0"/>
+      <c r="RB56" s="0"/>
+      <c r="RC56" s="0"/>
+      <c r="RD56" s="0"/>
+      <c r="RE56" s="0"/>
+      <c r="RF56" s="0"/>
+      <c r="RG56" s="0"/>
+      <c r="RH56" s="0"/>
+      <c r="RI56" s="0"/>
+      <c r="RJ56" s="0"/>
+      <c r="RK56" s="0"/>
+      <c r="RL56" s="0"/>
+      <c r="RM56" s="0"/>
+      <c r="RN56" s="0"/>
+      <c r="RO56" s="0"/>
+      <c r="RP56" s="0"/>
+      <c r="RQ56" s="0"/>
+      <c r="RR56" s="0"/>
+      <c r="RS56" s="0"/>
+      <c r="RT56" s="0"/>
+      <c r="RU56" s="0"/>
+      <c r="RV56" s="0"/>
+      <c r="RW56" s="0"/>
+      <c r="RX56" s="0"/>
+      <c r="RY56" s="0"/>
+      <c r="RZ56" s="0"/>
+      <c r="SA56" s="0"/>
+      <c r="SB56" s="0"/>
+      <c r="SC56" s="0"/>
+      <c r="SD56" s="0"/>
+      <c r="SE56" s="0"/>
+      <c r="SF56" s="0"/>
+      <c r="SG56" s="0"/>
+      <c r="SH56" s="0"/>
+      <c r="SI56" s="0"/>
+      <c r="SJ56" s="0"/>
+      <c r="SK56" s="0"/>
+      <c r="SL56" s="0"/>
+      <c r="SM56" s="0"/>
+      <c r="SN56" s="0"/>
+      <c r="SO56" s="0"/>
+      <c r="SP56" s="0"/>
+      <c r="SQ56" s="0"/>
+      <c r="SR56" s="0"/>
+      <c r="SS56" s="0"/>
+      <c r="ST56" s="0"/>
+      <c r="SU56" s="0"/>
+      <c r="SV56" s="0"/>
+      <c r="SW56" s="0"/>
+      <c r="SX56" s="0"/>
+      <c r="SY56" s="0"/>
+      <c r="SZ56" s="0"/>
+      <c r="TA56" s="0"/>
+      <c r="TB56" s="0"/>
+      <c r="TC56" s="0"/>
+      <c r="TD56" s="0"/>
+      <c r="TE56" s="0"/>
+      <c r="TF56" s="0"/>
+      <c r="TG56" s="0"/>
+      <c r="TH56" s="0"/>
+      <c r="TI56" s="0"/>
+      <c r="TJ56" s="0"/>
+      <c r="TK56" s="0"/>
+      <c r="TL56" s="0"/>
+      <c r="TM56" s="0"/>
+      <c r="TN56" s="0"/>
+      <c r="TO56" s="0"/>
+      <c r="TP56" s="0"/>
+      <c r="TQ56" s="0"/>
+      <c r="TR56" s="0"/>
+      <c r="TS56" s="0"/>
+      <c r="TT56" s="0"/>
+      <c r="TU56" s="0"/>
+      <c r="TV56" s="0"/>
+      <c r="TW56" s="0"/>
+      <c r="TX56" s="0"/>
+      <c r="TY56" s="0"/>
+      <c r="TZ56" s="0"/>
+      <c r="UA56" s="0"/>
+      <c r="UB56" s="0"/>
+      <c r="UC56" s="0"/>
+      <c r="UD56" s="0"/>
+      <c r="UE56" s="0"/>
+      <c r="UF56" s="0"/>
+      <c r="UG56" s="0"/>
+      <c r="UH56" s="0"/>
+      <c r="UI56" s="0"/>
+      <c r="UJ56" s="0"/>
+      <c r="UK56" s="0"/>
+      <c r="UL56" s="0"/>
+      <c r="UM56" s="0"/>
+      <c r="UN56" s="0"/>
+      <c r="UO56" s="0"/>
+      <c r="UP56" s="0"/>
+      <c r="UQ56" s="0"/>
+      <c r="UR56" s="0"/>
+      <c r="US56" s="0"/>
+      <c r="UT56" s="0"/>
+      <c r="UU56" s="0"/>
+      <c r="UV56" s="0"/>
+      <c r="UW56" s="0"/>
+      <c r="UX56" s="0"/>
+      <c r="UY56" s="0"/>
+      <c r="UZ56" s="0"/>
+      <c r="VA56" s="0"/>
+      <c r="VB56" s="0"/>
+      <c r="VC56" s="0"/>
+      <c r="VD56" s="0"/>
+      <c r="VE56" s="0"/>
+      <c r="VF56" s="0"/>
+      <c r="VG56" s="0"/>
+      <c r="VH56" s="0"/>
+      <c r="VI56" s="0"/>
+      <c r="VJ56" s="0"/>
+      <c r="VK56" s="0"/>
+      <c r="VL56" s="0"/>
+      <c r="VM56" s="0"/>
+      <c r="VN56" s="0"/>
+      <c r="VO56" s="0"/>
+      <c r="VP56" s="0"/>
+      <c r="VQ56" s="0"/>
+      <c r="VR56" s="0"/>
+      <c r="VS56" s="0"/>
+      <c r="VT56" s="0"/>
+      <c r="VU56" s="0"/>
+      <c r="VV56" s="0"/>
+      <c r="VW56" s="0"/>
+      <c r="VX56" s="0"/>
+      <c r="VY56" s="0"/>
+      <c r="VZ56" s="0"/>
+      <c r="WA56" s="0"/>
+      <c r="WB56" s="0"/>
+      <c r="WC56" s="0"/>
+      <c r="WD56" s="0"/>
+      <c r="WE56" s="0"/>
+      <c r="WF56" s="0"/>
+      <c r="WG56" s="0"/>
+      <c r="WH56" s="0"/>
+      <c r="WI56" s="0"/>
+      <c r="WJ56" s="0"/>
+      <c r="WK56" s="0"/>
+      <c r="WL56" s="0"/>
+      <c r="WM56" s="0"/>
+      <c r="WN56" s="0"/>
+      <c r="WO56" s="0"/>
+      <c r="WP56" s="0"/>
+      <c r="WQ56" s="0"/>
+      <c r="WR56" s="0"/>
+      <c r="WS56" s="0"/>
+      <c r="WT56" s="0"/>
+      <c r="WU56" s="0"/>
+      <c r="WV56" s="0"/>
+      <c r="WW56" s="0"/>
+      <c r="WX56" s="0"/>
+      <c r="WY56" s="0"/>
+      <c r="WZ56" s="0"/>
+      <c r="XA56" s="0"/>
+      <c r="XB56" s="0"/>
+      <c r="XC56" s="0"/>
+      <c r="XD56" s="0"/>
+      <c r="XE56" s="0"/>
+      <c r="XF56" s="0"/>
+      <c r="XG56" s="0"/>
+      <c r="XH56" s="0"/>
+      <c r="XI56" s="0"/>
+      <c r="XJ56" s="0"/>
+      <c r="XK56" s="0"/>
+      <c r="XL56" s="0"/>
+      <c r="XM56" s="0"/>
+      <c r="XN56" s="0"/>
+      <c r="XO56" s="0"/>
+      <c r="XP56" s="0"/>
+      <c r="XQ56" s="0"/>
+      <c r="XR56" s="0"/>
+      <c r="XS56" s="0"/>
+      <c r="XT56" s="0"/>
+      <c r="XU56" s="0"/>
+      <c r="XV56" s="0"/>
+      <c r="XW56" s="0"/>
+      <c r="XX56" s="0"/>
+      <c r="XY56" s="0"/>
+      <c r="XZ56" s="0"/>
+      <c r="YA56" s="0"/>
+      <c r="YB56" s="0"/>
+      <c r="YC56" s="0"/>
+      <c r="YD56" s="0"/>
+      <c r="YE56" s="0"/>
+      <c r="YF56" s="0"/>
+      <c r="YG56" s="0"/>
+      <c r="YH56" s="0"/>
+      <c r="YI56" s="0"/>
+      <c r="YJ56" s="0"/>
+      <c r="YK56" s="0"/>
+      <c r="YL56" s="0"/>
+      <c r="YM56" s="0"/>
+      <c r="YN56" s="0"/>
+      <c r="YO56" s="0"/>
+      <c r="YP56" s="0"/>
+      <c r="YQ56" s="0"/>
+      <c r="YR56" s="0"/>
+      <c r="YS56" s="0"/>
+      <c r="YT56" s="0"/>
+      <c r="YU56" s="0"/>
+      <c r="YV56" s="0"/>
+      <c r="YW56" s="0"/>
+      <c r="YX56" s="0"/>
+      <c r="YY56" s="0"/>
+      <c r="YZ56" s="0"/>
+      <c r="ZA56" s="0"/>
+      <c r="ZB56" s="0"/>
+      <c r="ZC56" s="0"/>
+      <c r="ZD56" s="0"/>
+      <c r="ZE56" s="0"/>
+      <c r="ZF56" s="0"/>
+      <c r="ZG56" s="0"/>
+      <c r="ZH56" s="0"/>
+      <c r="ZI56" s="0"/>
+      <c r="ZJ56" s="0"/>
+      <c r="ZK56" s="0"/>
+      <c r="ZL56" s="0"/>
+      <c r="ZM56" s="0"/>
+      <c r="ZN56" s="0"/>
+      <c r="ZO56" s="0"/>
+      <c r="ZP56" s="0"/>
+      <c r="ZQ56" s="0"/>
+      <c r="ZR56" s="0"/>
+      <c r="ZS56" s="0"/>
+      <c r="ZT56" s="0"/>
+      <c r="ZU56" s="0"/>
+      <c r="ZV56" s="0"/>
+      <c r="ZW56" s="0"/>
+      <c r="ZX56" s="0"/>
+      <c r="ZY56" s="0"/>
+      <c r="ZZ56" s="0"/>
+      <c r="AAA56" s="0"/>
+      <c r="AAB56" s="0"/>
+      <c r="AAC56" s="0"/>
+      <c r="AAD56" s="0"/>
+      <c r="AAE56" s="0"/>
+      <c r="AAF56" s="0"/>
+      <c r="AAG56" s="0"/>
+      <c r="AAH56" s="0"/>
+      <c r="AAI56" s="0"/>
+      <c r="AAJ56" s="0"/>
+      <c r="AAK56" s="0"/>
+      <c r="AAL56" s="0"/>
+      <c r="AAM56" s="0"/>
+      <c r="AAN56" s="0"/>
+      <c r="AAO56" s="0"/>
+      <c r="AAP56" s="0"/>
+      <c r="AAQ56" s="0"/>
+      <c r="AAR56" s="0"/>
+      <c r="AAS56" s="0"/>
+      <c r="AAT56" s="0"/>
+      <c r="AAU56" s="0"/>
+      <c r="AAV56" s="0"/>
+      <c r="AAW56" s="0"/>
+      <c r="AAX56" s="0"/>
+      <c r="AAY56" s="0"/>
+      <c r="AAZ56" s="0"/>
+      <c r="ABA56" s="0"/>
+      <c r="ABB56" s="0"/>
+      <c r="ABC56" s="0"/>
+      <c r="ABD56" s="0"/>
+      <c r="ABE56" s="0"/>
+      <c r="ABF56" s="0"/>
+      <c r="ABG56" s="0"/>
+      <c r="ABH56" s="0"/>
+      <c r="ABI56" s="0"/>
+      <c r="ABJ56" s="0"/>
+      <c r="ABK56" s="0"/>
+      <c r="ABL56" s="0"/>
+      <c r="ABM56" s="0"/>
+      <c r="ABN56" s="0"/>
+      <c r="ABO56" s="0"/>
+      <c r="ABP56" s="0"/>
+      <c r="ABQ56" s="0"/>
+      <c r="ABR56" s="0"/>
+      <c r="ABS56" s="0"/>
+      <c r="ABT56" s="0"/>
+      <c r="ABU56" s="0"/>
+      <c r="ABV56" s="0"/>
+      <c r="ABW56" s="0"/>
+      <c r="ABX56" s="0"/>
+      <c r="ABY56" s="0"/>
+      <c r="ABZ56" s="0"/>
+      <c r="ACA56" s="0"/>
+      <c r="ACB56" s="0"/>
+      <c r="ACC56" s="0"/>
+      <c r="ACD56" s="0"/>
+      <c r="ACE56" s="0"/>
+      <c r="ACF56" s="0"/>
+      <c r="ACG56" s="0"/>
+      <c r="ACH56" s="0"/>
+      <c r="ACI56" s="0"/>
+      <c r="ACJ56" s="0"/>
+      <c r="ACK56" s="0"/>
+      <c r="ACL56" s="0"/>
+      <c r="ACM56" s="0"/>
+      <c r="ACN56" s="0"/>
+      <c r="ACO56" s="0"/>
+      <c r="ACP56" s="0"/>
+      <c r="ACQ56" s="0"/>
+      <c r="ACR56" s="0"/>
+      <c r="ACS56" s="0"/>
+      <c r="ACT56" s="0"/>
+      <c r="ACU56" s="0"/>
+      <c r="ACV56" s="0"/>
+      <c r="ACW56" s="0"/>
+      <c r="ACX56" s="0"/>
+      <c r="ACY56" s="0"/>
+      <c r="ACZ56" s="0"/>
+      <c r="ADA56" s="0"/>
+      <c r="ADB56" s="0"/>
+      <c r="ADC56" s="0"/>
+      <c r="ADD56" s="0"/>
+      <c r="ADE56" s="0"/>
+      <c r="ADF56" s="0"/>
+      <c r="ADG56" s="0"/>
+      <c r="ADH56" s="0"/>
+      <c r="ADI56" s="0"/>
+      <c r="ADJ56" s="0"/>
+      <c r="ADK56" s="0"/>
+      <c r="ADL56" s="0"/>
+      <c r="ADM56" s="0"/>
+      <c r="ADN56" s="0"/>
+      <c r="ADO56" s="0"/>
+      <c r="ADP56" s="0"/>
+      <c r="ADQ56" s="0"/>
+      <c r="ADR56" s="0"/>
+      <c r="ADS56" s="0"/>
+      <c r="ADT56" s="0"/>
+      <c r="ADU56" s="0"/>
+      <c r="ADV56" s="0"/>
+      <c r="ADW56" s="0"/>
+      <c r="ADX56" s="0"/>
+      <c r="ADY56" s="0"/>
+      <c r="ADZ56" s="0"/>
+      <c r="AEA56" s="0"/>
+      <c r="AEB56" s="0"/>
+      <c r="AEC56" s="0"/>
+      <c r="AED56" s="0"/>
+      <c r="AEE56" s="0"/>
+      <c r="AEF56" s="0"/>
+      <c r="AEG56" s="0"/>
+      <c r="AEH56" s="0"/>
+      <c r="AEI56" s="0"/>
+      <c r="AEJ56" s="0"/>
+      <c r="AEK56" s="0"/>
+      <c r="AEL56" s="0"/>
+      <c r="AEM56" s="0"/>
+      <c r="AEN56" s="0"/>
+      <c r="AEO56" s="0"/>
+      <c r="AEP56" s="0"/>
+      <c r="AEQ56" s="0"/>
+      <c r="AER56" s="0"/>
+      <c r="AES56" s="0"/>
+      <c r="AET56" s="0"/>
+      <c r="AEU56" s="0"/>
+      <c r="AEV56" s="0"/>
+      <c r="AEW56" s="0"/>
+      <c r="AEX56" s="0"/>
+      <c r="AEY56" s="0"/>
+      <c r="AEZ56" s="0"/>
+      <c r="AFA56" s="0"/>
+      <c r="AFB56" s="0"/>
+      <c r="AFC56" s="0"/>
+      <c r="AFD56" s="0"/>
+      <c r="AFE56" s="0"/>
+      <c r="AFF56" s="0"/>
+      <c r="AFG56" s="0"/>
+      <c r="AFH56" s="0"/>
+      <c r="AFI56" s="0"/>
+      <c r="AFJ56" s="0"/>
+      <c r="AFK56" s="0"/>
+      <c r="AFL56" s="0"/>
+      <c r="AFM56" s="0"/>
+      <c r="AFN56" s="0"/>
+      <c r="AFO56" s="0"/>
+      <c r="AFP56" s="0"/>
+      <c r="AFQ56" s="0"/>
+      <c r="AFR56" s="0"/>
+      <c r="AFS56" s="0"/>
+      <c r="AFT56" s="0"/>
+      <c r="AFU56" s="0"/>
+      <c r="AFV56" s="0"/>
+      <c r="AFW56" s="0"/>
+      <c r="AFX56" s="0"/>
+      <c r="AFY56" s="0"/>
+      <c r="AFZ56" s="0"/>
+      <c r="AGA56" s="0"/>
+      <c r="AGB56" s="0"/>
+      <c r="AGC56" s="0"/>
+      <c r="AGD56" s="0"/>
+      <c r="AGE56" s="0"/>
+      <c r="AGF56" s="0"/>
+      <c r="AGG56" s="0"/>
+      <c r="AGH56" s="0"/>
+      <c r="AGI56" s="0"/>
+      <c r="AGJ56" s="0"/>
+      <c r="AGK56" s="0"/>
+      <c r="AGL56" s="0"/>
+      <c r="AGM56" s="0"/>
+      <c r="AGN56" s="0"/>
+      <c r="AGO56" s="0"/>
+      <c r="AGP56" s="0"/>
+      <c r="AGQ56" s="0"/>
+      <c r="AGR56" s="0"/>
+      <c r="AGS56" s="0"/>
+      <c r="AGT56" s="0"/>
+      <c r="AGU56" s="0"/>
+      <c r="AGV56" s="0"/>
+      <c r="AGW56" s="0"/>
+      <c r="AGX56" s="0"/>
+      <c r="AGY56" s="0"/>
+      <c r="AGZ56" s="0"/>
+      <c r="AHA56" s="0"/>
+      <c r="AHB56" s="0"/>
+      <c r="AHC56" s="0"/>
+      <c r="AHD56" s="0"/>
+      <c r="AHE56" s="0"/>
+      <c r="AHF56" s="0"/>
+      <c r="AHG56" s="0"/>
+      <c r="AHH56" s="0"/>
+      <c r="AHI56" s="0"/>
+      <c r="AHJ56" s="0"/>
+      <c r="AHK56" s="0"/>
+      <c r="AHL56" s="0"/>
+      <c r="AHM56" s="0"/>
+      <c r="AHN56" s="0"/>
+      <c r="AHO56" s="0"/>
+      <c r="AHP56" s="0"/>
+      <c r="AHQ56" s="0"/>
+      <c r="AHR56" s="0"/>
+      <c r="AHS56" s="0"/>
+      <c r="AHT56" s="0"/>
+      <c r="AHU56" s="0"/>
+      <c r="AHV56" s="0"/>
+      <c r="AHW56" s="0"/>
+      <c r="AHX56" s="0"/>
+      <c r="AHY56" s="0"/>
+      <c r="AHZ56" s="0"/>
+      <c r="AIA56" s="0"/>
+      <c r="AIB56" s="0"/>
+      <c r="AIC56" s="0"/>
+      <c r="AID56" s="0"/>
+      <c r="AIE56" s="0"/>
+      <c r="AIF56" s="0"/>
+      <c r="AIG56" s="0"/>
+      <c r="AIH56" s="0"/>
+      <c r="AII56" s="0"/>
+      <c r="AIJ56" s="0"/>
+      <c r="AIK56" s="0"/>
+      <c r="AIL56" s="0"/>
+      <c r="AIM56" s="0"/>
+      <c r="AIN56" s="0"/>
+      <c r="AIO56" s="0"/>
+      <c r="AIP56" s="0"/>
+      <c r="AIQ56" s="0"/>
+      <c r="AIR56" s="0"/>
+      <c r="AIS56" s="0"/>
+      <c r="AIT56" s="0"/>
+      <c r="AIU56" s="0"/>
+      <c r="AIV56" s="0"/>
+      <c r="AIW56" s="0"/>
+      <c r="AIX56" s="0"/>
+      <c r="AIY56" s="0"/>
+      <c r="AIZ56" s="0"/>
+      <c r="AJA56" s="0"/>
+      <c r="AJB56" s="0"/>
+      <c r="AJC56" s="0"/>
+      <c r="AJD56" s="0"/>
+      <c r="AJE56" s="0"/>
+      <c r="AJF56" s="0"/>
+      <c r="AJG56" s="0"/>
+      <c r="AJH56" s="0"/>
+      <c r="AJI56" s="0"/>
+      <c r="AJJ56" s="0"/>
+      <c r="AJK56" s="0"/>
+      <c r="AJL56" s="0"/>
+      <c r="AJM56" s="0"/>
+      <c r="AJN56" s="0"/>
+      <c r="AJO56" s="0"/>
+      <c r="AJP56" s="0"/>
+      <c r="AJQ56" s="0"/>
+      <c r="AJR56" s="0"/>
+      <c r="AJS56" s="0"/>
+      <c r="AJT56" s="0"/>
+      <c r="AJU56" s="0"/>
+      <c r="AJV56" s="0"/>
+      <c r="AJW56" s="0"/>
+      <c r="AJX56" s="0"/>
+      <c r="AJY56" s="0"/>
+      <c r="AJZ56" s="0"/>
+      <c r="AKA56" s="0"/>
+      <c r="AKB56" s="0"/>
+      <c r="AKC56" s="0"/>
+      <c r="AKD56" s="0"/>
+      <c r="AKE56" s="0"/>
+      <c r="AKF56" s="0"/>
+      <c r="AKG56" s="0"/>
+      <c r="AKH56" s="0"/>
+      <c r="AKI56" s="0"/>
+      <c r="AKJ56" s="0"/>
+      <c r="AKK56" s="0"/>
+      <c r="AKL56" s="0"/>
+      <c r="AKM56" s="0"/>
+      <c r="AKN56" s="0"/>
+      <c r="AKO56" s="0"/>
+      <c r="AKP56" s="0"/>
+      <c r="AKQ56" s="0"/>
+      <c r="AKR56" s="0"/>
+      <c r="AKS56" s="0"/>
+      <c r="AKT56" s="0"/>
+      <c r="AKU56" s="0"/>
+      <c r="AKV56" s="0"/>
+      <c r="AKW56" s="0"/>
+      <c r="AKX56" s="0"/>
+      <c r="AKY56" s="0"/>
+      <c r="AKZ56" s="0"/>
+      <c r="ALA56" s="0"/>
+      <c r="ALB56" s="0"/>
+      <c r="ALC56" s="0"/>
+      <c r="ALD56" s="0"/>
+      <c r="ALE56" s="0"/>
+      <c r="ALF56" s="0"/>
+      <c r="ALG56" s="0"/>
+      <c r="ALH56" s="0"/>
+      <c r="ALI56" s="0"/>
+      <c r="ALJ56" s="0"/>
+      <c r="ALK56" s="0"/>
+      <c r="ALL56" s="0"/>
+      <c r="ALM56" s="0"/>
+      <c r="ALN56" s="0"/>
+      <c r="ALO56" s="0"/>
+      <c r="ALP56" s="0"/>
+      <c r="ALQ56" s="0"/>
+      <c r="ALR56" s="0"/>
+      <c r="ALS56" s="0"/>
+      <c r="ALT56" s="0"/>
+      <c r="ALU56" s="0"/>
+      <c r="ALV56" s="0"/>
+      <c r="ALW56" s="0"/>
+      <c r="ALX56" s="0"/>
+      <c r="ALY56" s="0"/>
+      <c r="ALZ56" s="0"/>
+      <c r="AMA56" s="0"/>
+      <c r="AMB56" s="0"/>
+      <c r="AMC56" s="0"/>
+      <c r="AMD56" s="0"/>
+      <c r="AME56" s="0"/>
+      <c r="AMF56" s="0"/>
+      <c r="AMG56" s="0"/>
+      <c r="AMH56" s="0"/>
+      <c r="AMI56" s="0"/>
+      <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21"/>
-      <c r="B57" s="25" t="s">
-        <v>80</v>
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10"/>
+      <c r="B57" s="18" t="s">
+        <v>79</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
       <c r="G57" s="0"/>
       <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="0"/>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0"/>
+      <c r="X57" s="0"/>
+      <c r="Y57" s="0"/>
+      <c r="Z57" s="0"/>
+      <c r="AA57" s="0"/>
+      <c r="AB57" s="0"/>
+      <c r="AC57" s="0"/>
+      <c r="AD57" s="0"/>
+      <c r="AE57" s="0"/>
+      <c r="AF57" s="0"/>
+      <c r="AG57" s="0"/>
+      <c r="AH57" s="0"/>
+      <c r="AI57" s="0"/>
+      <c r="AJ57" s="0"/>
+      <c r="AK57" s="0"/>
+      <c r="AL57" s="0"/>
+      <c r="AM57" s="0"/>
+      <c r="AN57" s="0"/>
+      <c r="AO57" s="0"/>
+      <c r="AP57" s="0"/>
+      <c r="AQ57" s="0"/>
+      <c r="AR57" s="0"/>
+      <c r="AS57" s="0"/>
+      <c r="AT57" s="0"/>
+      <c r="AU57" s="0"/>
+      <c r="AV57" s="0"/>
+      <c r="AW57" s="0"/>
+      <c r="AX57" s="0"/>
+      <c r="AY57" s="0"/>
+      <c r="AZ57" s="0"/>
+      <c r="BA57" s="0"/>
+      <c r="BB57" s="0"/>
+      <c r="BC57" s="0"/>
+      <c r="BD57" s="0"/>
+      <c r="BE57" s="0"/>
+      <c r="BF57" s="0"/>
+      <c r="BG57" s="0"/>
+      <c r="BH57" s="0"/>
+      <c r="BI57" s="0"/>
+      <c r="BJ57" s="0"/>
+      <c r="BK57" s="0"/>
+      <c r="BL57" s="0"/>
+      <c r="BM57" s="0"/>
+      <c r="BN57" s="0"/>
+      <c r="BO57" s="0"/>
+      <c r="BP57" s="0"/>
+      <c r="BQ57" s="0"/>
+      <c r="BR57" s="0"/>
+      <c r="BS57" s="0"/>
+      <c r="BT57" s="0"/>
+      <c r="BU57" s="0"/>
+      <c r="BV57" s="0"/>
+      <c r="BW57" s="0"/>
+      <c r="BX57" s="0"/>
+      <c r="BY57" s="0"/>
+      <c r="BZ57" s="0"/>
+      <c r="CA57" s="0"/>
+      <c r="CB57" s="0"/>
+      <c r="CC57" s="0"/>
+      <c r="CD57" s="0"/>
+      <c r="CE57" s="0"/>
+      <c r="CF57" s="0"/>
+      <c r="CG57" s="0"/>
+      <c r="CH57" s="0"/>
+      <c r="CI57" s="0"/>
+      <c r="CJ57" s="0"/>
+      <c r="CK57" s="0"/>
+      <c r="CL57" s="0"/>
+      <c r="CM57" s="0"/>
+      <c r="CN57" s="0"/>
+      <c r="CO57" s="0"/>
+      <c r="CP57" s="0"/>
+      <c r="CQ57" s="0"/>
+      <c r="CR57" s="0"/>
+      <c r="CS57" s="0"/>
+      <c r="CT57" s="0"/>
+      <c r="CU57" s="0"/>
+      <c r="CV57" s="0"/>
+      <c r="CW57" s="0"/>
+      <c r="CX57" s="0"/>
+      <c r="CY57" s="0"/>
+      <c r="CZ57" s="0"/>
+      <c r="DA57" s="0"/>
+      <c r="DB57" s="0"/>
+      <c r="DC57" s="0"/>
+      <c r="DD57" s="0"/>
+      <c r="DE57" s="0"/>
+      <c r="DF57" s="0"/>
+      <c r="DG57" s="0"/>
+      <c r="DH57" s="0"/>
+      <c r="DI57" s="0"/>
+      <c r="DJ57" s="0"/>
+      <c r="DK57" s="0"/>
+      <c r="DL57" s="0"/>
+      <c r="DM57" s="0"/>
+      <c r="DN57" s="0"/>
+      <c r="DO57" s="0"/>
+      <c r="DP57" s="0"/>
+      <c r="DQ57" s="0"/>
+      <c r="DR57" s="0"/>
+      <c r="DS57" s="0"/>
+      <c r="DT57" s="0"/>
+      <c r="DU57" s="0"/>
+      <c r="DV57" s="0"/>
+      <c r="DW57" s="0"/>
+      <c r="DX57" s="0"/>
+      <c r="DY57" s="0"/>
+      <c r="DZ57" s="0"/>
+      <c r="EA57" s="0"/>
+      <c r="EB57" s="0"/>
+      <c r="EC57" s="0"/>
+      <c r="ED57" s="0"/>
+      <c r="EE57" s="0"/>
+      <c r="EF57" s="0"/>
+      <c r="EG57" s="0"/>
+      <c r="EH57" s="0"/>
+      <c r="EI57" s="0"/>
+      <c r="EJ57" s="0"/>
+      <c r="EK57" s="0"/>
+      <c r="EL57" s="0"/>
+      <c r="EM57" s="0"/>
+      <c r="EN57" s="0"/>
+      <c r="EO57" s="0"/>
+      <c r="EP57" s="0"/>
+      <c r="EQ57" s="0"/>
+      <c r="ER57" s="0"/>
+      <c r="ES57" s="0"/>
+      <c r="ET57" s="0"/>
+      <c r="EU57" s="0"/>
+      <c r="EV57" s="0"/>
+      <c r="EW57" s="0"/>
+      <c r="EX57" s="0"/>
+      <c r="EY57" s="0"/>
+      <c r="EZ57" s="0"/>
+      <c r="FA57" s="0"/>
+      <c r="FB57" s="0"/>
+      <c r="FC57" s="0"/>
+      <c r="FD57" s="0"/>
+      <c r="FE57" s="0"/>
+      <c r="FF57" s="0"/>
+      <c r="FG57" s="0"/>
+      <c r="FH57" s="0"/>
+      <c r="FI57" s="0"/>
+      <c r="FJ57" s="0"/>
+      <c r="FK57" s="0"/>
+      <c r="FL57" s="0"/>
+      <c r="FM57" s="0"/>
+      <c r="FN57" s="0"/>
+      <c r="FO57" s="0"/>
+      <c r="FP57" s="0"/>
+      <c r="FQ57" s="0"/>
+      <c r="FR57" s="0"/>
+      <c r="FS57" s="0"/>
+      <c r="FT57" s="0"/>
+      <c r="FU57" s="0"/>
+      <c r="FV57" s="0"/>
+      <c r="FW57" s="0"/>
+      <c r="FX57" s="0"/>
+      <c r="FY57" s="0"/>
+      <c r="FZ57" s="0"/>
+      <c r="GA57" s="0"/>
+      <c r="GB57" s="0"/>
+      <c r="GC57" s="0"/>
+      <c r="GD57" s="0"/>
+      <c r="GE57" s="0"/>
+      <c r="GF57" s="0"/>
+      <c r="GG57" s="0"/>
+      <c r="GH57" s="0"/>
+      <c r="GI57" s="0"/>
+      <c r="GJ57" s="0"/>
+      <c r="GK57" s="0"/>
+      <c r="GL57" s="0"/>
+      <c r="GM57" s="0"/>
+      <c r="GN57" s="0"/>
+      <c r="GO57" s="0"/>
+      <c r="GP57" s="0"/>
+      <c r="GQ57" s="0"/>
+      <c r="GR57" s="0"/>
+      <c r="GS57" s="0"/>
+      <c r="GT57" s="0"/>
+      <c r="GU57" s="0"/>
+      <c r="GV57" s="0"/>
+      <c r="GW57" s="0"/>
+      <c r="GX57" s="0"/>
+      <c r="GY57" s="0"/>
+      <c r="GZ57" s="0"/>
+      <c r="HA57" s="0"/>
+      <c r="HB57" s="0"/>
+      <c r="HC57" s="0"/>
+      <c r="HD57" s="0"/>
+      <c r="HE57" s="0"/>
+      <c r="HF57" s="0"/>
+      <c r="HG57" s="0"/>
+      <c r="HH57" s="0"/>
+      <c r="HI57" s="0"/>
+      <c r="HJ57" s="0"/>
+      <c r="HK57" s="0"/>
+      <c r="HL57" s="0"/>
+      <c r="HM57" s="0"/>
+      <c r="HN57" s="0"/>
+      <c r="HO57" s="0"/>
+      <c r="HP57" s="0"/>
+      <c r="HQ57" s="0"/>
+      <c r="HR57" s="0"/>
+      <c r="HS57" s="0"/>
+      <c r="HT57" s="0"/>
+      <c r="HU57" s="0"/>
+      <c r="HV57" s="0"/>
+      <c r="HW57" s="0"/>
+      <c r="HX57" s="0"/>
+      <c r="HY57" s="0"/>
+      <c r="HZ57" s="0"/>
+      <c r="IA57" s="0"/>
+      <c r="IB57" s="0"/>
+      <c r="IC57" s="0"/>
+      <c r="ID57" s="0"/>
+      <c r="IE57" s="0"/>
+      <c r="IF57" s="0"/>
+      <c r="IG57" s="0"/>
+      <c r="IH57" s="0"/>
+      <c r="II57" s="0"/>
+      <c r="IJ57" s="0"/>
+      <c r="IK57" s="0"/>
+      <c r="IL57" s="0"/>
+      <c r="IM57" s="0"/>
+      <c r="IN57" s="0"/>
+      <c r="IO57" s="0"/>
+      <c r="IP57" s="0"/>
+      <c r="IQ57" s="0"/>
+      <c r="IR57" s="0"/>
+      <c r="IS57" s="0"/>
+      <c r="IT57" s="0"/>
+      <c r="IU57" s="0"/>
+      <c r="IV57" s="0"/>
+      <c r="IW57" s="0"/>
+      <c r="IX57" s="0"/>
+      <c r="IY57" s="0"/>
+      <c r="IZ57" s="0"/>
+      <c r="JA57" s="0"/>
+      <c r="JB57" s="0"/>
+      <c r="JC57" s="0"/>
+      <c r="JD57" s="0"/>
+      <c r="JE57" s="0"/>
+      <c r="JF57" s="0"/>
+      <c r="JG57" s="0"/>
+      <c r="JH57" s="0"/>
+      <c r="JI57" s="0"/>
+      <c r="JJ57" s="0"/>
+      <c r="JK57" s="0"/>
+      <c r="JL57" s="0"/>
+      <c r="JM57" s="0"/>
+      <c r="JN57" s="0"/>
+      <c r="JO57" s="0"/>
+      <c r="JP57" s="0"/>
+      <c r="JQ57" s="0"/>
+      <c r="JR57" s="0"/>
+      <c r="JS57" s="0"/>
+      <c r="JT57" s="0"/>
+      <c r="JU57" s="0"/>
+      <c r="JV57" s="0"/>
+      <c r="JW57" s="0"/>
+      <c r="JX57" s="0"/>
+      <c r="JY57" s="0"/>
+      <c r="JZ57" s="0"/>
+      <c r="KA57" s="0"/>
+      <c r="KB57" s="0"/>
+      <c r="KC57" s="0"/>
+      <c r="KD57" s="0"/>
+      <c r="KE57" s="0"/>
+      <c r="KF57" s="0"/>
+      <c r="KG57" s="0"/>
+      <c r="KH57" s="0"/>
+      <c r="KI57" s="0"/>
+      <c r="KJ57" s="0"/>
+      <c r="KK57" s="0"/>
+      <c r="KL57" s="0"/>
+      <c r="KM57" s="0"/>
+      <c r="KN57" s="0"/>
+      <c r="KO57" s="0"/>
+      <c r="KP57" s="0"/>
+      <c r="KQ57" s="0"/>
+      <c r="KR57" s="0"/>
+      <c r="KS57" s="0"/>
+      <c r="KT57" s="0"/>
+      <c r="KU57" s="0"/>
+      <c r="KV57" s="0"/>
+      <c r="KW57" s="0"/>
+      <c r="KX57" s="0"/>
+      <c r="KY57" s="0"/>
+      <c r="KZ57" s="0"/>
+      <c r="LA57" s="0"/>
+      <c r="LB57" s="0"/>
+      <c r="LC57" s="0"/>
+      <c r="LD57" s="0"/>
+      <c r="LE57" s="0"/>
+      <c r="LF57" s="0"/>
+      <c r="LG57" s="0"/>
+      <c r="LH57" s="0"/>
+      <c r="LI57" s="0"/>
+      <c r="LJ57" s="0"/>
+      <c r="LK57" s="0"/>
+      <c r="LL57" s="0"/>
+      <c r="LM57" s="0"/>
+      <c r="LN57" s="0"/>
+      <c r="LO57" s="0"/>
+      <c r="LP57" s="0"/>
+      <c r="LQ57" s="0"/>
+      <c r="LR57" s="0"/>
+      <c r="LS57" s="0"/>
+      <c r="LT57" s="0"/>
+      <c r="LU57" s="0"/>
+      <c r="LV57" s="0"/>
+      <c r="LW57" s="0"/>
+      <c r="LX57" s="0"/>
+      <c r="LY57" s="0"/>
+      <c r="LZ57" s="0"/>
+      <c r="MA57" s="0"/>
+      <c r="MB57" s="0"/>
+      <c r="MC57" s="0"/>
+      <c r="MD57" s="0"/>
+      <c r="ME57" s="0"/>
+      <c r="MF57" s="0"/>
+      <c r="MG57" s="0"/>
+      <c r="MH57" s="0"/>
+      <c r="MI57" s="0"/>
+      <c r="MJ57" s="0"/>
+      <c r="MK57" s="0"/>
+      <c r="ML57" s="0"/>
+      <c r="MM57" s="0"/>
+      <c r="MN57" s="0"/>
+      <c r="MO57" s="0"/>
+      <c r="MP57" s="0"/>
+      <c r="MQ57" s="0"/>
+      <c r="MR57" s="0"/>
+      <c r="MS57" s="0"/>
+      <c r="MT57" s="0"/>
+      <c r="MU57" s="0"/>
+      <c r="MV57" s="0"/>
+      <c r="MW57" s="0"/>
+      <c r="MX57" s="0"/>
+      <c r="MY57" s="0"/>
+      <c r="MZ57" s="0"/>
+      <c r="NA57" s="0"/>
+      <c r="NB57" s="0"/>
+      <c r="NC57" s="0"/>
+      <c r="ND57" s="0"/>
+      <c r="NE57" s="0"/>
+      <c r="NF57" s="0"/>
+      <c r="NG57" s="0"/>
+      <c r="NH57" s="0"/>
+      <c r="NI57" s="0"/>
+      <c r="NJ57" s="0"/>
+      <c r="NK57" s="0"/>
+      <c r="NL57" s="0"/>
+      <c r="NM57" s="0"/>
+      <c r="NN57" s="0"/>
+      <c r="NO57" s="0"/>
+      <c r="NP57" s="0"/>
+      <c r="NQ57" s="0"/>
+      <c r="NR57" s="0"/>
+      <c r="NS57" s="0"/>
+      <c r="NT57" s="0"/>
+      <c r="NU57" s="0"/>
+      <c r="NV57" s="0"/>
+      <c r="NW57" s="0"/>
+      <c r="NX57" s="0"/>
+      <c r="NY57" s="0"/>
+      <c r="NZ57" s="0"/>
+      <c r="OA57" s="0"/>
+      <c r="OB57" s="0"/>
+      <c r="OC57" s="0"/>
+      <c r="OD57" s="0"/>
+      <c r="OE57" s="0"/>
+      <c r="OF57" s="0"/>
+      <c r="OG57" s="0"/>
+      <c r="OH57" s="0"/>
+      <c r="OI57" s="0"/>
+      <c r="OJ57" s="0"/>
+      <c r="OK57" s="0"/>
+      <c r="OL57" s="0"/>
+      <c r="OM57" s="0"/>
+      <c r="ON57" s="0"/>
+      <c r="OO57" s="0"/>
+      <c r="OP57" s="0"/>
+      <c r="OQ57" s="0"/>
+      <c r="OR57" s="0"/>
+      <c r="OS57" s="0"/>
+      <c r="OT57" s="0"/>
+      <c r="OU57" s="0"/>
+      <c r="OV57" s="0"/>
+      <c r="OW57" s="0"/>
+      <c r="OX57" s="0"/>
+      <c r="OY57" s="0"/>
+      <c r="OZ57" s="0"/>
+      <c r="PA57" s="0"/>
+      <c r="PB57" s="0"/>
+      <c r="PC57" s="0"/>
+      <c r="PD57" s="0"/>
+      <c r="PE57" s="0"/>
+      <c r="PF57" s="0"/>
+      <c r="PG57" s="0"/>
+      <c r="PH57" s="0"/>
+      <c r="PI57" s="0"/>
+      <c r="PJ57" s="0"/>
+      <c r="PK57" s="0"/>
+      <c r="PL57" s="0"/>
+      <c r="PM57" s="0"/>
+      <c r="PN57" s="0"/>
+      <c r="PO57" s="0"/>
+      <c r="PP57" s="0"/>
+      <c r="PQ57" s="0"/>
+      <c r="PR57" s="0"/>
+      <c r="PS57" s="0"/>
+      <c r="PT57" s="0"/>
+      <c r="PU57" s="0"/>
+      <c r="PV57" s="0"/>
+      <c r="PW57" s="0"/>
+      <c r="PX57" s="0"/>
+      <c r="PY57" s="0"/>
+      <c r="PZ57" s="0"/>
+      <c r="QA57" s="0"/>
+      <c r="QB57" s="0"/>
+      <c r="QC57" s="0"/>
+      <c r="QD57" s="0"/>
+      <c r="QE57" s="0"/>
+      <c r="QF57" s="0"/>
+      <c r="QG57" s="0"/>
+      <c r="QH57" s="0"/>
+      <c r="QI57" s="0"/>
+      <c r="QJ57" s="0"/>
+      <c r="QK57" s="0"/>
+      <c r="QL57" s="0"/>
+      <c r="QM57" s="0"/>
+      <c r="QN57" s="0"/>
+      <c r="QO57" s="0"/>
+      <c r="QP57" s="0"/>
+      <c r="QQ57" s="0"/>
+      <c r="QR57" s="0"/>
+      <c r="QS57" s="0"/>
+      <c r="QT57" s="0"/>
+      <c r="QU57" s="0"/>
+      <c r="QV57" s="0"/>
+      <c r="QW57" s="0"/>
+      <c r="QX57" s="0"/>
+      <c r="QY57" s="0"/>
+      <c r="QZ57" s="0"/>
+      <c r="RA57" s="0"/>
+      <c r="RB57" s="0"/>
+      <c r="RC57" s="0"/>
+      <c r="RD57" s="0"/>
+      <c r="RE57" s="0"/>
+      <c r="RF57" s="0"/>
+      <c r="RG57" s="0"/>
+      <c r="RH57" s="0"/>
+      <c r="RI57" s="0"/>
+      <c r="RJ57" s="0"/>
+      <c r="RK57" s="0"/>
+      <c r="RL57" s="0"/>
+      <c r="RM57" s="0"/>
+      <c r="RN57" s="0"/>
+      <c r="RO57" s="0"/>
+      <c r="RP57" s="0"/>
+      <c r="RQ57" s="0"/>
+      <c r="RR57" s="0"/>
+      <c r="RS57" s="0"/>
+      <c r="RT57" s="0"/>
+      <c r="RU57" s="0"/>
+      <c r="RV57" s="0"/>
+      <c r="RW57" s="0"/>
+      <c r="RX57" s="0"/>
+      <c r="RY57" s="0"/>
+      <c r="RZ57" s="0"/>
+      <c r="SA57" s="0"/>
+      <c r="SB57" s="0"/>
+      <c r="SC57" s="0"/>
+      <c r="SD57" s="0"/>
+      <c r="SE57" s="0"/>
+      <c r="SF57" s="0"/>
+      <c r="SG57" s="0"/>
+      <c r="SH57" s="0"/>
+      <c r="SI57" s="0"/>
+      <c r="SJ57" s="0"/>
+      <c r="SK57" s="0"/>
+      <c r="SL57" s="0"/>
+      <c r="SM57" s="0"/>
+      <c r="SN57" s="0"/>
+      <c r="SO57" s="0"/>
+      <c r="SP57" s="0"/>
+      <c r="SQ57" s="0"/>
+      <c r="SR57" s="0"/>
+      <c r="SS57" s="0"/>
+      <c r="ST57" s="0"/>
+      <c r="SU57" s="0"/>
+      <c r="SV57" s="0"/>
+      <c r="SW57" s="0"/>
+      <c r="SX57" s="0"/>
+      <c r="SY57" s="0"/>
+      <c r="SZ57" s="0"/>
+      <c r="TA57" s="0"/>
+      <c r="TB57" s="0"/>
+      <c r="TC57" s="0"/>
+      <c r="TD57" s="0"/>
+      <c r="TE57" s="0"/>
+      <c r="TF57" s="0"/>
+      <c r="TG57" s="0"/>
+      <c r="TH57" s="0"/>
+      <c r="TI57" s="0"/>
+      <c r="TJ57" s="0"/>
+      <c r="TK57" s="0"/>
+      <c r="TL57" s="0"/>
+      <c r="TM57" s="0"/>
+      <c r="TN57" s="0"/>
+      <c r="TO57" s="0"/>
+      <c r="TP57" s="0"/>
+      <c r="TQ57" s="0"/>
+      <c r="TR57" s="0"/>
+      <c r="TS57" s="0"/>
+      <c r="TT57" s="0"/>
+      <c r="TU57" s="0"/>
+      <c r="TV57" s="0"/>
+      <c r="TW57" s="0"/>
+      <c r="TX57" s="0"/>
+      <c r="TY57" s="0"/>
+      <c r="TZ57" s="0"/>
+      <c r="UA57" s="0"/>
+      <c r="UB57" s="0"/>
+      <c r="UC57" s="0"/>
+      <c r="UD57" s="0"/>
+      <c r="UE57" s="0"/>
+      <c r="UF57" s="0"/>
+      <c r="UG57" s="0"/>
+      <c r="UH57" s="0"/>
+      <c r="UI57" s="0"/>
+      <c r="UJ57" s="0"/>
+      <c r="UK57" s="0"/>
+      <c r="UL57" s="0"/>
+      <c r="UM57" s="0"/>
+      <c r="UN57" s="0"/>
+      <c r="UO57" s="0"/>
+      <c r="UP57" s="0"/>
+      <c r="UQ57" s="0"/>
+      <c r="UR57" s="0"/>
+      <c r="US57" s="0"/>
+      <c r="UT57" s="0"/>
+      <c r="UU57" s="0"/>
+      <c r="UV57" s="0"/>
+      <c r="UW57" s="0"/>
+      <c r="UX57" s="0"/>
+      <c r="UY57" s="0"/>
+      <c r="UZ57" s="0"/>
+      <c r="VA57" s="0"/>
+      <c r="VB57" s="0"/>
+      <c r="VC57" s="0"/>
+      <c r="VD57" s="0"/>
+      <c r="VE57" s="0"/>
+      <c r="VF57" s="0"/>
+      <c r="VG57" s="0"/>
+      <c r="VH57" s="0"/>
+      <c r="VI57" s="0"/>
+      <c r="VJ57" s="0"/>
+      <c r="VK57" s="0"/>
+      <c r="VL57" s="0"/>
+      <c r="VM57" s="0"/>
+      <c r="VN57" s="0"/>
+      <c r="VO57" s="0"/>
+      <c r="VP57" s="0"/>
+      <c r="VQ57" s="0"/>
+      <c r="VR57" s="0"/>
+      <c r="VS57" s="0"/>
+      <c r="VT57" s="0"/>
+      <c r="VU57" s="0"/>
+      <c r="VV57" s="0"/>
+      <c r="VW57" s="0"/>
+      <c r="VX57" s="0"/>
+      <c r="VY57" s="0"/>
+      <c r="VZ57" s="0"/>
+      <c r="WA57" s="0"/>
+      <c r="WB57" s="0"/>
+      <c r="WC57" s="0"/>
+      <c r="WD57" s="0"/>
+      <c r="WE57" s="0"/>
+      <c r="WF57" s="0"/>
+      <c r="WG57" s="0"/>
+      <c r="WH57" s="0"/>
+      <c r="WI57" s="0"/>
+      <c r="WJ57" s="0"/>
+      <c r="WK57" s="0"/>
+      <c r="WL57" s="0"/>
+      <c r="WM57" s="0"/>
+      <c r="WN57" s="0"/>
+      <c r="WO57" s="0"/>
+      <c r="WP57" s="0"/>
+      <c r="WQ57" s="0"/>
+      <c r="WR57" s="0"/>
+      <c r="WS57" s="0"/>
+      <c r="WT57" s="0"/>
+      <c r="WU57" s="0"/>
+      <c r="WV57" s="0"/>
+      <c r="WW57" s="0"/>
+      <c r="WX57" s="0"/>
+      <c r="WY57" s="0"/>
+      <c r="WZ57" s="0"/>
+      <c r="XA57" s="0"/>
+      <c r="XB57" s="0"/>
+      <c r="XC57" s="0"/>
+      <c r="XD57" s="0"/>
+      <c r="XE57" s="0"/>
+      <c r="XF57" s="0"/>
+      <c r="XG57" s="0"/>
+      <c r="XH57" s="0"/>
+      <c r="XI57" s="0"/>
+      <c r="XJ57" s="0"/>
+      <c r="XK57" s="0"/>
+      <c r="XL57" s="0"/>
+      <c r="XM57" s="0"/>
+      <c r="XN57" s="0"/>
+      <c r="XO57" s="0"/>
+      <c r="XP57" s="0"/>
+      <c r="XQ57" s="0"/>
+      <c r="XR57" s="0"/>
+      <c r="XS57" s="0"/>
+      <c r="XT57" s="0"/>
+      <c r="XU57" s="0"/>
+      <c r="XV57" s="0"/>
+      <c r="XW57" s="0"/>
+      <c r="XX57" s="0"/>
+      <c r="XY57" s="0"/>
+      <c r="XZ57" s="0"/>
+      <c r="YA57" s="0"/>
+      <c r="YB57" s="0"/>
+      <c r="YC57" s="0"/>
+      <c r="YD57" s="0"/>
+      <c r="YE57" s="0"/>
+      <c r="YF57" s="0"/>
+      <c r="YG57" s="0"/>
+      <c r="YH57" s="0"/>
+      <c r="YI57" s="0"/>
+      <c r="YJ57" s="0"/>
+      <c r="YK57" s="0"/>
+      <c r="YL57" s="0"/>
+      <c r="YM57" s="0"/>
+      <c r="YN57" s="0"/>
+      <c r="YO57" s="0"/>
+      <c r="YP57" s="0"/>
+      <c r="YQ57" s="0"/>
+      <c r="YR57" s="0"/>
+      <c r="YS57" s="0"/>
+      <c r="YT57" s="0"/>
+      <c r="YU57" s="0"/>
+      <c r="YV57" s="0"/>
+      <c r="YW57" s="0"/>
+      <c r="YX57" s="0"/>
+      <c r="YY57" s="0"/>
+      <c r="YZ57" s="0"/>
+      <c r="ZA57" s="0"/>
+      <c r="ZB57" s="0"/>
+      <c r="ZC57" s="0"/>
+      <c r="ZD57" s="0"/>
+      <c r="ZE57" s="0"/>
+      <c r="ZF57" s="0"/>
+      <c r="ZG57" s="0"/>
+      <c r="ZH57" s="0"/>
+      <c r="ZI57" s="0"/>
+      <c r="ZJ57" s="0"/>
+      <c r="ZK57" s="0"/>
+      <c r="ZL57" s="0"/>
+      <c r="ZM57" s="0"/>
+      <c r="ZN57" s="0"/>
+      <c r="ZO57" s="0"/>
+      <c r="ZP57" s="0"/>
+      <c r="ZQ57" s="0"/>
+      <c r="ZR57" s="0"/>
+      <c r="ZS57" s="0"/>
+      <c r="ZT57" s="0"/>
+      <c r="ZU57" s="0"/>
+      <c r="ZV57" s="0"/>
+      <c r="ZW57" s="0"/>
+      <c r="ZX57" s="0"/>
+      <c r="ZY57" s="0"/>
+      <c r="ZZ57" s="0"/>
+      <c r="AAA57" s="0"/>
+      <c r="AAB57" s="0"/>
+      <c r="AAC57" s="0"/>
+      <c r="AAD57" s="0"/>
+      <c r="AAE57" s="0"/>
+      <c r="AAF57" s="0"/>
+      <c r="AAG57" s="0"/>
+      <c r="AAH57" s="0"/>
+      <c r="AAI57" s="0"/>
+      <c r="AAJ57" s="0"/>
+      <c r="AAK57" s="0"/>
+      <c r="AAL57" s="0"/>
+      <c r="AAM57" s="0"/>
+      <c r="AAN57" s="0"/>
+      <c r="AAO57" s="0"/>
+      <c r="AAP57" s="0"/>
+      <c r="AAQ57" s="0"/>
+      <c r="AAR57" s="0"/>
+      <c r="AAS57" s="0"/>
+      <c r="AAT57" s="0"/>
+      <c r="AAU57" s="0"/>
+      <c r="AAV57" s="0"/>
+      <c r="AAW57" s="0"/>
+      <c r="AAX57" s="0"/>
+      <c r="AAY57" s="0"/>
+      <c r="AAZ57" s="0"/>
+      <c r="ABA57" s="0"/>
+      <c r="ABB57" s="0"/>
+      <c r="ABC57" s="0"/>
+      <c r="ABD57" s="0"/>
+      <c r="ABE57" s="0"/>
+      <c r="ABF57" s="0"/>
+      <c r="ABG57" s="0"/>
+      <c r="ABH57" s="0"/>
+      <c r="ABI57" s="0"/>
+      <c r="ABJ57" s="0"/>
+      <c r="ABK57" s="0"/>
+      <c r="ABL57" s="0"/>
+      <c r="ABM57" s="0"/>
+      <c r="ABN57" s="0"/>
+      <c r="ABO57" s="0"/>
+      <c r="ABP57" s="0"/>
+      <c r="ABQ57" s="0"/>
+      <c r="ABR57" s="0"/>
+      <c r="ABS57" s="0"/>
+      <c r="ABT57" s="0"/>
+      <c r="ABU57" s="0"/>
+      <c r="ABV57" s="0"/>
+      <c r="ABW57" s="0"/>
+      <c r="ABX57" s="0"/>
+      <c r="ABY57" s="0"/>
+      <c r="ABZ57" s="0"/>
+      <c r="ACA57" s="0"/>
+      <c r="ACB57" s="0"/>
+      <c r="ACC57" s="0"/>
+      <c r="ACD57" s="0"/>
+      <c r="ACE57" s="0"/>
+      <c r="ACF57" s="0"/>
+      <c r="ACG57" s="0"/>
+      <c r="ACH57" s="0"/>
+      <c r="ACI57" s="0"/>
+      <c r="ACJ57" s="0"/>
+      <c r="ACK57" s="0"/>
+      <c r="ACL57" s="0"/>
+      <c r="ACM57" s="0"/>
+      <c r="ACN57" s="0"/>
+      <c r="ACO57" s="0"/>
+      <c r="ACP57" s="0"/>
+      <c r="ACQ57" s="0"/>
+      <c r="ACR57" s="0"/>
+      <c r="ACS57" s="0"/>
+      <c r="ACT57" s="0"/>
+      <c r="ACU57" s="0"/>
+      <c r="ACV57" s="0"/>
+      <c r="ACW57" s="0"/>
+      <c r="ACX57" s="0"/>
+      <c r="ACY57" s="0"/>
+      <c r="ACZ57" s="0"/>
+      <c r="ADA57" s="0"/>
+      <c r="ADB57" s="0"/>
+      <c r="ADC57" s="0"/>
+      <c r="ADD57" s="0"/>
+      <c r="ADE57" s="0"/>
+      <c r="ADF57" s="0"/>
+      <c r="ADG57" s="0"/>
+      <c r="ADH57" s="0"/>
+      <c r="ADI57" s="0"/>
+      <c r="ADJ57" s="0"/>
+      <c r="ADK57" s="0"/>
+      <c r="ADL57" s="0"/>
+      <c r="ADM57" s="0"/>
+      <c r="ADN57" s="0"/>
+      <c r="ADO57" s="0"/>
+      <c r="ADP57" s="0"/>
+      <c r="ADQ57" s="0"/>
+      <c r="ADR57" s="0"/>
+      <c r="ADS57" s="0"/>
+      <c r="ADT57" s="0"/>
+      <c r="ADU57" s="0"/>
+      <c r="ADV57" s="0"/>
+      <c r="ADW57" s="0"/>
+      <c r="ADX57" s="0"/>
+      <c r="ADY57" s="0"/>
+      <c r="ADZ57" s="0"/>
+      <c r="AEA57" s="0"/>
+      <c r="AEB57" s="0"/>
+      <c r="AEC57" s="0"/>
+      <c r="AED57" s="0"/>
+      <c r="AEE57" s="0"/>
+      <c r="AEF57" s="0"/>
+      <c r="AEG57" s="0"/>
+      <c r="AEH57" s="0"/>
+      <c r="AEI57" s="0"/>
+      <c r="AEJ57" s="0"/>
+      <c r="AEK57" s="0"/>
+      <c r="AEL57" s="0"/>
+      <c r="AEM57" s="0"/>
+      <c r="AEN57" s="0"/>
+      <c r="AEO57" s="0"/>
+      <c r="AEP57" s="0"/>
+      <c r="AEQ57" s="0"/>
+      <c r="AER57" s="0"/>
+      <c r="AES57" s="0"/>
+      <c r="AET57" s="0"/>
+      <c r="AEU57" s="0"/>
+      <c r="AEV57" s="0"/>
+      <c r="AEW57" s="0"/>
+      <c r="AEX57" s="0"/>
+      <c r="AEY57" s="0"/>
+      <c r="AEZ57" s="0"/>
+      <c r="AFA57" s="0"/>
+      <c r="AFB57" s="0"/>
+      <c r="AFC57" s="0"/>
+      <c r="AFD57" s="0"/>
+      <c r="AFE57" s="0"/>
+      <c r="AFF57" s="0"/>
+      <c r="AFG57" s="0"/>
+      <c r="AFH57" s="0"/>
+      <c r="AFI57" s="0"/>
+      <c r="AFJ57" s="0"/>
+      <c r="AFK57" s="0"/>
+      <c r="AFL57" s="0"/>
+      <c r="AFM57" s="0"/>
+      <c r="AFN57" s="0"/>
+      <c r="AFO57" s="0"/>
+      <c r="AFP57" s="0"/>
+      <c r="AFQ57" s="0"/>
+      <c r="AFR57" s="0"/>
+      <c r="AFS57" s="0"/>
+      <c r="AFT57" s="0"/>
+      <c r="AFU57" s="0"/>
+      <c r="AFV57" s="0"/>
+      <c r="AFW57" s="0"/>
+      <c r="AFX57" s="0"/>
+      <c r="AFY57" s="0"/>
+      <c r="AFZ57" s="0"/>
+      <c r="AGA57" s="0"/>
+      <c r="AGB57" s="0"/>
+      <c r="AGC57" s="0"/>
+      <c r="AGD57" s="0"/>
+      <c r="AGE57" s="0"/>
+      <c r="AGF57" s="0"/>
+      <c r="AGG57" s="0"/>
+      <c r="AGH57" s="0"/>
+      <c r="AGI57" s="0"/>
+      <c r="AGJ57" s="0"/>
+      <c r="AGK57" s="0"/>
+      <c r="AGL57" s="0"/>
+      <c r="AGM57" s="0"/>
+      <c r="AGN57" s="0"/>
+      <c r="AGO57" s="0"/>
+      <c r="AGP57" s="0"/>
+      <c r="AGQ57" s="0"/>
+      <c r="AGR57" s="0"/>
+      <c r="AGS57" s="0"/>
+      <c r="AGT57" s="0"/>
+      <c r="AGU57" s="0"/>
+      <c r="AGV57" s="0"/>
+      <c r="AGW57" s="0"/>
+      <c r="AGX57" s="0"/>
+      <c r="AGY57" s="0"/>
+      <c r="AGZ57" s="0"/>
+      <c r="AHA57" s="0"/>
+      <c r="AHB57" s="0"/>
+      <c r="AHC57" s="0"/>
+      <c r="AHD57" s="0"/>
+      <c r="AHE57" s="0"/>
+      <c r="AHF57" s="0"/>
+      <c r="AHG57" s="0"/>
+      <c r="AHH57" s="0"/>
+      <c r="AHI57" s="0"/>
+      <c r="AHJ57" s="0"/>
+      <c r="AHK57" s="0"/>
+      <c r="AHL57" s="0"/>
+      <c r="AHM57" s="0"/>
+      <c r="AHN57" s="0"/>
+      <c r="AHO57" s="0"/>
+      <c r="AHP57" s="0"/>
+      <c r="AHQ57" s="0"/>
+      <c r="AHR57" s="0"/>
+      <c r="AHS57" s="0"/>
+      <c r="AHT57" s="0"/>
+      <c r="AHU57" s="0"/>
+      <c r="AHV57" s="0"/>
+      <c r="AHW57" s="0"/>
+      <c r="AHX57" s="0"/>
+      <c r="AHY57" s="0"/>
+      <c r="AHZ57" s="0"/>
+      <c r="AIA57" s="0"/>
+      <c r="AIB57" s="0"/>
+      <c r="AIC57" s="0"/>
+      <c r="AID57" s="0"/>
+      <c r="AIE57" s="0"/>
+      <c r="AIF57" s="0"/>
+      <c r="AIG57" s="0"/>
+      <c r="AIH57" s="0"/>
+      <c r="AII57" s="0"/>
+      <c r="AIJ57" s="0"/>
+      <c r="AIK57" s="0"/>
+      <c r="AIL57" s="0"/>
+      <c r="AIM57" s="0"/>
+      <c r="AIN57" s="0"/>
+      <c r="AIO57" s="0"/>
+      <c r="AIP57" s="0"/>
+      <c r="AIQ57" s="0"/>
+      <c r="AIR57" s="0"/>
+      <c r="AIS57" s="0"/>
+      <c r="AIT57" s="0"/>
+      <c r="AIU57" s="0"/>
+      <c r="AIV57" s="0"/>
+      <c r="AIW57" s="0"/>
+      <c r="AIX57" s="0"/>
+      <c r="AIY57" s="0"/>
+      <c r="AIZ57" s="0"/>
+      <c r="AJA57" s="0"/>
+      <c r="AJB57" s="0"/>
+      <c r="AJC57" s="0"/>
+      <c r="AJD57" s="0"/>
+      <c r="AJE57" s="0"/>
+      <c r="AJF57" s="0"/>
+      <c r="AJG57" s="0"/>
+      <c r="AJH57" s="0"/>
+      <c r="AJI57" s="0"/>
+      <c r="AJJ57" s="0"/>
+      <c r="AJK57" s="0"/>
+      <c r="AJL57" s="0"/>
+      <c r="AJM57" s="0"/>
+      <c r="AJN57" s="0"/>
+      <c r="AJO57" s="0"/>
+      <c r="AJP57" s="0"/>
+      <c r="AJQ57" s="0"/>
+      <c r="AJR57" s="0"/>
+      <c r="AJS57" s="0"/>
+      <c r="AJT57" s="0"/>
+      <c r="AJU57" s="0"/>
+      <c r="AJV57" s="0"/>
+      <c r="AJW57" s="0"/>
+      <c r="AJX57" s="0"/>
+      <c r="AJY57" s="0"/>
+      <c r="AJZ57" s="0"/>
+      <c r="AKA57" s="0"/>
+      <c r="AKB57" s="0"/>
+      <c r="AKC57" s="0"/>
+      <c r="AKD57" s="0"/>
+      <c r="AKE57" s="0"/>
+      <c r="AKF57" s="0"/>
+      <c r="AKG57" s="0"/>
+      <c r="AKH57" s="0"/>
+      <c r="AKI57" s="0"/>
+      <c r="AKJ57" s="0"/>
+      <c r="AKK57" s="0"/>
+      <c r="AKL57" s="0"/>
+      <c r="AKM57" s="0"/>
+      <c r="AKN57" s="0"/>
+      <c r="AKO57" s="0"/>
+      <c r="AKP57" s="0"/>
+      <c r="AKQ57" s="0"/>
+      <c r="AKR57" s="0"/>
+      <c r="AKS57" s="0"/>
+      <c r="AKT57" s="0"/>
+      <c r="AKU57" s="0"/>
+      <c r="AKV57" s="0"/>
+      <c r="AKW57" s="0"/>
+      <c r="AKX57" s="0"/>
+      <c r="AKY57" s="0"/>
+      <c r="AKZ57" s="0"/>
+      <c r="ALA57" s="0"/>
+      <c r="ALB57" s="0"/>
+      <c r="ALC57" s="0"/>
+      <c r="ALD57" s="0"/>
+      <c r="ALE57" s="0"/>
+      <c r="ALF57" s="0"/>
+      <c r="ALG57" s="0"/>
+      <c r="ALH57" s="0"/>
+      <c r="ALI57" s="0"/>
+      <c r="ALJ57" s="0"/>
+      <c r="ALK57" s="0"/>
+      <c r="ALL57" s="0"/>
+      <c r="ALM57" s="0"/>
+      <c r="ALN57" s="0"/>
+      <c r="ALO57" s="0"/>
+      <c r="ALP57" s="0"/>
+      <c r="ALQ57" s="0"/>
+      <c r="ALR57" s="0"/>
+      <c r="ALS57" s="0"/>
+      <c r="ALT57" s="0"/>
+      <c r="ALU57" s="0"/>
+      <c r="ALV57" s="0"/>
+      <c r="ALW57" s="0"/>
+      <c r="ALX57" s="0"/>
+      <c r="ALY57" s="0"/>
+      <c r="ALZ57" s="0"/>
+      <c r="AMA57" s="0"/>
+      <c r="AMB57" s="0"/>
+      <c r="AMC57" s="0"/>
+      <c r="AMD57" s="0"/>
+      <c r="AME57" s="0"/>
+      <c r="AMF57" s="0"/>
+      <c r="AMG57" s="0"/>
+      <c r="AMH57" s="0"/>
+      <c r="AMI57" s="0"/>
+      <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0"/>
-      <c r="B58" s="9" t="s">
+    <row r="58" s="21" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="26"/>
+    </row>
+    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21"/>
+      <c r="B59" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="0"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="H58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0"/>
-      <c r="B59" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
@@ -54738,10 +57818,10 @@
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
+    <row r="60" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21"/>
       <c r="B60" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="27"/>
       <c r="D60" s="0"/>
@@ -54750,48 +57830,52 @@
       <c r="G60" s="0"/>
       <c r="H60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0"/>
-      <c r="B61" s="28" t="s">
-        <v>84</v>
+      <c r="B61" s="9" t="s">
+        <v>83</v>
       </c>
-      <c r="C61" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="C61" s="9"/>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
       <c r="G61" s="0"/>
       <c r="H61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="0"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
+      <c r="B62" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>85</v>
+      </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
       <c r="F62" s="0"/>
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
-      <c r="B63" s="30" t="s">
-        <v>86</v>
+      <c r="B63" s="29" t="s">
+        <v>83</v>
       </c>
-      <c r="C63" s="30"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
       <c r="G63" s="0"/>
       <c r="H63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="31"/>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
@@ -54808,632 +57892,666 @@
       <c r="G65" s="0"/>
       <c r="H65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
+      <c r="B66" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="32"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="0"/>
       <c r="G66" s="0"/>
       <c r="H66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="9" t="s">
-        <v>5</v>
+      <c r="B67" s="33" t="s">
+        <v>89</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="33"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="32"/>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="34"/>
+      <c r="B70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="9"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="35"/>
-      <c r="B71" s="36" t="s">
-        <v>89</v>
+    <row r="71" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0"/>
+      <c r="B71" s="34" t="s">
+        <v>90</v>
       </c>
-      <c r="C71" s="36"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="23"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C73" s="23"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
+    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="37"/>
+      <c r="B74" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="38"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="9"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="38"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="39" t="s">
-        <v>95</v>
-      </c>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="40" t="s">
-        <v>96</v>
+      <c r="B78" s="9" t="s">
+        <v>94</v>
       </c>
-      <c r="C78" s="40" t="s">
-        <v>97</v>
-      </c>
+      <c r="C78" s="9"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
       <c r="B79" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
-      <c r="C79" s="40" t="s">
-        <v>99</v>
-      </c>
+      <c r="C79" s="40"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
+      <c r="B80" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>97</v>
+      </c>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="41" t="s">
-        <v>100</v>
+      <c r="B81" s="42" t="s">
+        <v>98</v>
       </c>
-      <c r="C81" s="41" t="s">
-        <v>101</v>
+      <c r="C81" s="42" t="s">
+        <v>99</v>
       </c>
-      <c r="D81" s="42" t="s">
-        <v>102</v>
-      </c>
+      <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="43"/>
-      <c r="B82" s="44" t="s">
-        <v>103</v>
+    <row r="82" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
+      <c r="B82" s="42" t="s">
+        <v>100</v>
       </c>
-      <c r="C82" s="45" t="s">
-        <v>104</v>
+      <c r="C82" s="42" t="s">
+        <v>101</v>
       </c>
-      <c r="D82" s="46" t="s">
-        <v>105</v>
-      </c>
+      <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="46" t="s">
-        <v>108</v>
-      </c>
+      <c r="B83" s="36"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="35"/>
-      <c r="B84" s="47" t="s">
-        <v>109</v>
+    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0"/>
+      <c r="B84" s="43" t="s">
+        <v>102</v>
       </c>
-      <c r="C84" s="47" t="s">
-        <v>110</v>
+      <c r="C84" s="43" t="s">
+        <v>103</v>
       </c>
-      <c r="D84" s="46" t="s">
-        <v>111</v>
+      <c r="D84" s="44" t="s">
+        <v>104</v>
       </c>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="0"/>
+    <row r="85" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="45"/>
+      <c r="B85" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>107</v>
+      </c>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="0"/>
+    <row r="86" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0"/>
+      <c r="B86" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>110</v>
+      </c>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="0"/>
+    <row r="87" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="37"/>
+      <c r="B87" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>113</v>
+      </c>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+      <c r="G89" s="0"/>
+      <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="0"/>
+      <c r="E90" s="0"/>
+      <c r="F90" s="0"/>
+      <c r="G90" s="0"/>
+      <c r="H90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="45"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
+      <c r="B94" s="45"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="45"/>
+      <c r="H94" s="45"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="45"/>
+      <c r="H95" s="45"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="45"/>
+      <c r="H96" s="45"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="45"/>
+      <c r="H97" s="45"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -55451,30 +58569,30 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="B74:C74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C82" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C83" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C85" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C86" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -55515,207 +58633,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
-        <v>113</v>
+      <c r="A5" s="50" t="s">
+        <v>115</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="D5" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>117</v>
+      <c r="G5" s="50" t="s">
+        <v>119</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="48" t="s">
-        <v>118</v>
+      <c r="I5" s="50" t="s">
+        <v>120</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="C6" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="D6" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="E6" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="F6" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="G6" s="50" t="s">
         <v>127</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="E7" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="F7" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="52" t="s">
-        <v>134</v>
+      <c r="I7" s="54" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="49" t="s">
+      <c r="B8" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="D8" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="E8" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>141</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="49" t="s">
+      <c r="B9" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="C9" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="D9" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="52" t="s">
+      <c r="E9" s="53" t="s">
         <v>147</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="50" t="s">
-        <v>63</v>
+      <c r="B10" s="52" t="s">
+        <v>67</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>148</v>
+      <c r="C10" s="52" t="s">
+        <v>150</v>
       </c>
-      <c r="I10" s="52" t="s">
-        <v>149</v>
+      <c r="I10" s="54" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="50" t="s">
-        <v>150</v>
+      <c r="B11" s="52" t="s">
+        <v>152</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>151</v>
+      <c r="C11" s="52" t="s">
+        <v>153</v>
       </c>
-      <c r="I11" s="53" t="s">
-        <v>152</v>
+      <c r="I11" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="50" t="s">
-        <v>153</v>
+      <c r="B12" s="52" t="s">
+        <v>155</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>154</v>
+      <c r="C12" s="52" t="s">
+        <v>156</v>
       </c>
-      <c r="I12" s="53" t="s">
-        <v>155</v>
+      <c r="I12" s="55" t="s">
+        <v>157</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="50" t="s">
-        <v>156</v>
+      <c r="B13" s="52" t="s">
+        <v>158</v>
       </c>
-      <c r="I13" s="53" t="s">
-        <v>157</v>
+      <c r="I13" s="55" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="50" t="s">
-        <v>158</v>
+      <c r="B14" s="52" t="s">
+        <v>160</v>
       </c>
-      <c r="I14" s="53" t="s">
-        <v>159</v>
+      <c r="I14" s="55" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="50" t="s">
-        <v>160</v>
+      <c r="B18" s="52" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="49" t="s">
-        <v>113</v>
+      <c r="B19" s="51" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="51" t="s">
-        <v>161</v>
+      <c r="B20" s="53" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -371,7 +371,7 @@
     <t>Sos Software</t>
   </si>
   <si>
-    <t>http://192.168.100.253 (local)</t>
+    <t>http://54.200.193.96:8080/</t>
   </si>
   <si>
     <t>Almacena los productos y servicios que vende SOS, usuarios del sistema, roles de la empresa y guías de requerimientos.</t>
@@ -1124,8 +1124,8 @@
   </sheetPr>
   <dimension ref="1:130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -58150,7 +58150,7 @@
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="37"/>
       <c r="B87" s="49" t="s">
         <v>111</v>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -177,6 +177,9 @@
     <t>Proyectos</t>
   </si>
   <si>
+    <t>Fecha de creación de documento</t>
+  </si>
+  <si>
     <t>Año</t>
   </si>
   <si>
@@ -186,16 +189,37 @@
     <t>Minuta de Compromiso</t>
   </si>
   <si>
+    <t>Semanalmente</t>
+  </si>
+  <si>
     <t>Referencia calidad productos y procesos como prospectación</t>
   </si>
   <si>
     <t>Checklist_Calidad_aammdd</t>
   </si>
   <si>
+    <t>Se genera por cada proyecto</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_aammdd</t>
+  </si>
+  <si>
+    <t>Semestral (plan de calidad y proceso de calidad), Anual(Plan de métricas  y configuración)</t>
+  </si>
+  <si>
     <t>No conformidades</t>
   </si>
   <si>
+    <t>No_conformidades_organizacional</t>
+  </si>
+  <si>
+    <t>Después de generar checklist de calidad Organizacional</t>
+  </si>
+  <si>
     <t>No_conformidades</t>
+  </si>
+  <si>
+    <t>Después de generar checklist de calidad</t>
   </si>
   <si>
     <t>Concentrado de métricas</t>
@@ -204,13 +228,22 @@
     <t>Concentrado_métricas_aaaa</t>
   </si>
   <si>
+    <t>una vez por año, se actualiza de manera quincenal</t>
+  </si>
+  <si>
     <t>Acciones_correctivas_aaaa</t>
+  </si>
+  <si>
+    <t>una vez por año, actualizandose quincenalmente</t>
   </si>
   <si>
     <t>Reporte de monitoreo</t>
   </si>
   <si>
     <t>Reporte_monitoreo_aammdd</t>
+  </si>
+  <si>
+    <t>Quincenalmente</t>
   </si>
   <si>
     <t>Minuta de monitoreo</t>
@@ -228,6 +261,9 @@
     <t>Estimación</t>
   </si>
   <si>
+    <t>Durante la etapa de ventas</t>
+  </si>
+  <si>
     <t>Cotización</t>
   </si>
   <si>
@@ -243,6 +279,9 @@
     <t>Plan_de_proyecto</t>
   </si>
   <si>
+    <t>Durante la etapa de planeación</t>
+  </si>
+  <si>
     <t>Cierre</t>
   </si>
   <si>
@@ -252,22 +291,37 @@
     <t>Encuesta_satisfacción</t>
   </si>
   <si>
+    <t>al finalizar etapa de cierre</t>
+  </si>
+  <si>
     <t>Carta de aceptación</t>
   </si>
   <si>
     <t>Carta aceptación</t>
   </si>
   <si>
+    <t>Durante etapa de cierre</t>
+  </si>
+  <si>
     <t>Checklist de calidad</t>
   </si>
   <si>
+    <t>al finalizar proyecto</t>
+  </si>
+  <si>
     <t>Reporte no conformidades</t>
+  </si>
+  <si>
+    <t>al finalizar checklist de calidad</t>
   </si>
   <si>
     <t>Solicitud de cambio</t>
   </si>
   <si>
     <t>Solicitud de cambios_aammdd</t>
+  </si>
+  <si>
+    <t>después de la etapa de ventas pero antes de cierre</t>
   </si>
   <si>
     <t>La linea base representa un espejo de la configuración del árbol principal, para acceder a ella es necesario cambiar de rama con git checkout base y seguir los documentos acorde a la configuración demostrada en el item de configuración anterior (carpeta de proyecto).</t>
@@ -534,7 +588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -607,6 +661,13 @@
     </font>
     <font>
       <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -815,11 +876,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,6 +969,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -922,6 +987,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -956,11 +1025,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1008,7 +1077,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1020,7 +1089,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1040,7 +1109,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1122,10 +1191,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:130"/>
+  <dimension ref="1:132"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -32065,13 +32134,16 @@
         <v>50</v>
       </c>
       <c r="C32" s="11"/>
+      <c r="D32" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="22" t="s">
-        <v>51</v>
+      <c r="B33" s="23" t="s">
+        <v>52</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
@@ -33097,7 +33169,7 @@
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="0"/>
@@ -34125,12 +34197,14 @@
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="0"/>
+      <c r="D35" s="0" t="s">
+        <v>55</v>
+      </c>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
@@ -35154,11 +35228,11 @@
     </row>
     <row r="36" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>54</v>
+      <c r="C36" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
@@ -36187,10 +36261,12 @@
       <c r="B37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>55</v>
+      <c r="C37" s="24" t="s">
+        <v>57</v>
       </c>
-      <c r="D37" s="0"/>
+      <c r="D37" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
       <c r="G37" s="0"/>
@@ -37212,15 +37288,17 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="17" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>57</v>
+      <c r="C38" s="24" t="s">
+        <v>59</v>
       </c>
-      <c r="D38" s="0"/>
+      <c r="D38" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
       <c r="G38" s="0"/>
@@ -38242,13 +38320,17 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="26" t="s">
-        <v>26</v>
+    <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="17" t="s">
+        <v>61</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="0"/>
+      <c r="C39" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
       <c r="G39" s="0"/>
@@ -39271,14 +39353,16 @@
       <c r="AMJ39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="18" t="s">
-        <v>58</v>
+      <c r="A40" s="0"/>
+      <c r="B40" s="17" t="s">
+        <v>61</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>59</v>
+      <c r="C40" s="24" t="s">
+        <v>64</v>
       </c>
-      <c r="D40" s="0"/>
+      <c r="D40" s="0" t="s">
+        <v>65</v>
+      </c>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
       <c r="G40" s="0"/>
@@ -40302,12 +40386,10 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
-      <c r="B41" s="18" t="s">
-        <v>27</v>
+      <c r="B41" s="28" t="s">
+        <v>26</v>
       </c>
-      <c r="C41" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="C41" s="28"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -41333,12 +41415,14 @@
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
       <c r="B42" s="18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
-      <c r="D42" s="0"/>
+      <c r="D42" s="0" t="s">
+        <v>68</v>
+      </c>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
       <c r="G42" s="0"/>
@@ -42363,12 +42447,14 @@
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
       <c r="B43" s="18" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
-      <c r="D43" s="0"/>
+      <c r="D43" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -43391,12 +43477,16 @@
       <c r="AMJ43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="22" t="s">
-        <v>65</v>
+      <c r="A44" s="10"/>
+      <c r="B44" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="0"/>
+      <c r="C44" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>73</v>
+      </c>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -44418,13 +44508,17 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="19" t="s">
-        <v>66</v>
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10"/>
+      <c r="B45" s="18" t="s">
+        <v>74</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="0"/>
+      <c r="C45" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>73</v>
+      </c>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -45446,12 +45540,12 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="26" t="s">
-        <v>10</v>
+      <c r="B46" s="23" t="s">
+        <v>76</v>
       </c>
-      <c r="C46" s="26"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
@@ -46474,14 +46568,12 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="B47" s="17" t="s">
-        <v>67</v>
+      <c r="B47" s="19" t="s">
+        <v>77</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>67</v>
-      </c>
+      <c r="C47" s="19"/>
       <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
@@ -47504,14 +47596,12 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
-      <c r="B48" s="17" t="s">
-        <v>68</v>
+      <c r="B48" s="28" t="s">
+        <v>10</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>68</v>
-      </c>
+      <c r="C48" s="28"/>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
@@ -48534,15 +48624,17 @@
       <c r="AMI48" s="0"/>
       <c r="AMJ48" s="0"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
       <c r="B49" s="17" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>70</v>
+      <c r="C49" s="24" t="s">
+        <v>78</v>
       </c>
-      <c r="D49" s="0"/>
+      <c r="D49" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
@@ -49564,13 +49656,17 @@
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
-      <c r="B50" s="26" t="s">
-        <v>14</v>
+      <c r="B50" s="17" t="s">
+        <v>80</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="0"/>
+      <c r="C50" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
       <c r="G50" s="0"/>
@@ -50595,12 +50691,14 @@
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
       <c r="B51" s="17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
-      <c r="C51" s="23" t="s">
-        <v>72</v>
+      <c r="C51" s="24" t="s">
+        <v>82</v>
       </c>
-      <c r="D51" s="0"/>
+      <c r="D51" s="0" t="s">
+        <v>79</v>
+      </c>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
       <c r="G51" s="0"/>
@@ -51624,10 +51722,10 @@
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
-      <c r="B52" s="26" t="s">
-        <v>73</v>
+      <c r="B52" s="28" t="s">
+        <v>14</v>
       </c>
-      <c r="C52" s="26"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
       <c r="F52" s="0"/>
@@ -52650,15 +52748,17 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0"/>
       <c r="B53" s="17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>75</v>
+      <c r="C53" s="24" t="s">
+        <v>84</v>
       </c>
-      <c r="D53" s="0"/>
+      <c r="D53" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="E53" s="0"/>
       <c r="F53" s="0"/>
       <c r="G53" s="0"/>
@@ -53680,14 +53780,12 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="17" t="s">
-        <v>76</v>
+    <row r="54" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="28" t="s">
+        <v>86</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>77</v>
-      </c>
+      <c r="C54" s="28"/>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
       <c r="F54" s="0"/>
@@ -54710,13 +54808,17 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10"/>
-      <c r="B55" s="26" t="s">
-        <v>17</v>
+      <c r="B55" s="17" t="s">
+        <v>87</v>
       </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="0"/>
+      <c r="C55" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>89</v>
+      </c>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
       <c r="G55" s="0"/>
@@ -55738,15 +55840,17 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10"/>
-      <c r="B56" s="18" t="s">
-        <v>78</v>
+      <c r="B56" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
-      <c r="D56" s="0"/>
+      <c r="D56" s="0" t="s">
+        <v>92</v>
+      </c>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
       <c r="G56" s="0"/>
@@ -56770,12 +56874,10 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10"/>
-      <c r="B57" s="18" t="s">
-        <v>79</v>
+      <c r="B57" s="28" t="s">
+        <v>17</v>
       </c>
-      <c r="C57" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="C57" s="28"/>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -57798,83 +57900,2123 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" s="21" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="26" t="s">
-        <v>47</v>
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10"/>
+      <c r="B58" s="18" t="s">
+        <v>93</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="0"/>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
+      <c r="R58" s="0"/>
+      <c r="S58" s="0"/>
+      <c r="T58" s="0"/>
+      <c r="U58" s="0"/>
+      <c r="V58" s="0"/>
+      <c r="W58" s="0"/>
+      <c r="X58" s="0"/>
+      <c r="Y58" s="0"/>
+      <c r="Z58" s="0"/>
+      <c r="AA58" s="0"/>
+      <c r="AB58" s="0"/>
+      <c r="AC58" s="0"/>
+      <c r="AD58" s="0"/>
+      <c r="AE58" s="0"/>
+      <c r="AF58" s="0"/>
+      <c r="AG58" s="0"/>
+      <c r="AH58" s="0"/>
+      <c r="AI58" s="0"/>
+      <c r="AJ58" s="0"/>
+      <c r="AK58" s="0"/>
+      <c r="AL58" s="0"/>
+      <c r="AM58" s="0"/>
+      <c r="AN58" s="0"/>
+      <c r="AO58" s="0"/>
+      <c r="AP58" s="0"/>
+      <c r="AQ58" s="0"/>
+      <c r="AR58" s="0"/>
+      <c r="AS58" s="0"/>
+      <c r="AT58" s="0"/>
+      <c r="AU58" s="0"/>
+      <c r="AV58" s="0"/>
+      <c r="AW58" s="0"/>
+      <c r="AX58" s="0"/>
+      <c r="AY58" s="0"/>
+      <c r="AZ58" s="0"/>
+      <c r="BA58" s="0"/>
+      <c r="BB58" s="0"/>
+      <c r="BC58" s="0"/>
+      <c r="BD58" s="0"/>
+      <c r="BE58" s="0"/>
+      <c r="BF58" s="0"/>
+      <c r="BG58" s="0"/>
+      <c r="BH58" s="0"/>
+      <c r="BI58" s="0"/>
+      <c r="BJ58" s="0"/>
+      <c r="BK58" s="0"/>
+      <c r="BL58" s="0"/>
+      <c r="BM58" s="0"/>
+      <c r="BN58" s="0"/>
+      <c r="BO58" s="0"/>
+      <c r="BP58" s="0"/>
+      <c r="BQ58" s="0"/>
+      <c r="BR58" s="0"/>
+      <c r="BS58" s="0"/>
+      <c r="BT58" s="0"/>
+      <c r="BU58" s="0"/>
+      <c r="BV58" s="0"/>
+      <c r="BW58" s="0"/>
+      <c r="BX58" s="0"/>
+      <c r="BY58" s="0"/>
+      <c r="BZ58" s="0"/>
+      <c r="CA58" s="0"/>
+      <c r="CB58" s="0"/>
+      <c r="CC58" s="0"/>
+      <c r="CD58" s="0"/>
+      <c r="CE58" s="0"/>
+      <c r="CF58" s="0"/>
+      <c r="CG58" s="0"/>
+      <c r="CH58" s="0"/>
+      <c r="CI58" s="0"/>
+      <c r="CJ58" s="0"/>
+      <c r="CK58" s="0"/>
+      <c r="CL58" s="0"/>
+      <c r="CM58" s="0"/>
+      <c r="CN58" s="0"/>
+      <c r="CO58" s="0"/>
+      <c r="CP58" s="0"/>
+      <c r="CQ58" s="0"/>
+      <c r="CR58" s="0"/>
+      <c r="CS58" s="0"/>
+      <c r="CT58" s="0"/>
+      <c r="CU58" s="0"/>
+      <c r="CV58" s="0"/>
+      <c r="CW58" s="0"/>
+      <c r="CX58" s="0"/>
+      <c r="CY58" s="0"/>
+      <c r="CZ58" s="0"/>
+      <c r="DA58" s="0"/>
+      <c r="DB58" s="0"/>
+      <c r="DC58" s="0"/>
+      <c r="DD58" s="0"/>
+      <c r="DE58" s="0"/>
+      <c r="DF58" s="0"/>
+      <c r="DG58" s="0"/>
+      <c r="DH58" s="0"/>
+      <c r="DI58" s="0"/>
+      <c r="DJ58" s="0"/>
+      <c r="DK58" s="0"/>
+      <c r="DL58" s="0"/>
+      <c r="DM58" s="0"/>
+      <c r="DN58" s="0"/>
+      <c r="DO58" s="0"/>
+      <c r="DP58" s="0"/>
+      <c r="DQ58" s="0"/>
+      <c r="DR58" s="0"/>
+      <c r="DS58" s="0"/>
+      <c r="DT58" s="0"/>
+      <c r="DU58" s="0"/>
+      <c r="DV58" s="0"/>
+      <c r="DW58" s="0"/>
+      <c r="DX58" s="0"/>
+      <c r="DY58" s="0"/>
+      <c r="DZ58" s="0"/>
+      <c r="EA58" s="0"/>
+      <c r="EB58" s="0"/>
+      <c r="EC58" s="0"/>
+      <c r="ED58" s="0"/>
+      <c r="EE58" s="0"/>
+      <c r="EF58" s="0"/>
+      <c r="EG58" s="0"/>
+      <c r="EH58" s="0"/>
+      <c r="EI58" s="0"/>
+      <c r="EJ58" s="0"/>
+      <c r="EK58" s="0"/>
+      <c r="EL58" s="0"/>
+      <c r="EM58" s="0"/>
+      <c r="EN58" s="0"/>
+      <c r="EO58" s="0"/>
+      <c r="EP58" s="0"/>
+      <c r="EQ58" s="0"/>
+      <c r="ER58" s="0"/>
+      <c r="ES58" s="0"/>
+      <c r="ET58" s="0"/>
+      <c r="EU58" s="0"/>
+      <c r="EV58" s="0"/>
+      <c r="EW58" s="0"/>
+      <c r="EX58" s="0"/>
+      <c r="EY58" s="0"/>
+      <c r="EZ58" s="0"/>
+      <c r="FA58" s="0"/>
+      <c r="FB58" s="0"/>
+      <c r="FC58" s="0"/>
+      <c r="FD58" s="0"/>
+      <c r="FE58" s="0"/>
+      <c r="FF58" s="0"/>
+      <c r="FG58" s="0"/>
+      <c r="FH58" s="0"/>
+      <c r="FI58" s="0"/>
+      <c r="FJ58" s="0"/>
+      <c r="FK58" s="0"/>
+      <c r="FL58" s="0"/>
+      <c r="FM58" s="0"/>
+      <c r="FN58" s="0"/>
+      <c r="FO58" s="0"/>
+      <c r="FP58" s="0"/>
+      <c r="FQ58" s="0"/>
+      <c r="FR58" s="0"/>
+      <c r="FS58" s="0"/>
+      <c r="FT58" s="0"/>
+      <c r="FU58" s="0"/>
+      <c r="FV58" s="0"/>
+      <c r="FW58" s="0"/>
+      <c r="FX58" s="0"/>
+      <c r="FY58" s="0"/>
+      <c r="FZ58" s="0"/>
+      <c r="GA58" s="0"/>
+      <c r="GB58" s="0"/>
+      <c r="GC58" s="0"/>
+      <c r="GD58" s="0"/>
+      <c r="GE58" s="0"/>
+      <c r="GF58" s="0"/>
+      <c r="GG58" s="0"/>
+      <c r="GH58" s="0"/>
+      <c r="GI58" s="0"/>
+      <c r="GJ58" s="0"/>
+      <c r="GK58" s="0"/>
+      <c r="GL58" s="0"/>
+      <c r="GM58" s="0"/>
+      <c r="GN58" s="0"/>
+      <c r="GO58" s="0"/>
+      <c r="GP58" s="0"/>
+      <c r="GQ58" s="0"/>
+      <c r="GR58" s="0"/>
+      <c r="GS58" s="0"/>
+      <c r="GT58" s="0"/>
+      <c r="GU58" s="0"/>
+      <c r="GV58" s="0"/>
+      <c r="GW58" s="0"/>
+      <c r="GX58" s="0"/>
+      <c r="GY58" s="0"/>
+      <c r="GZ58" s="0"/>
+      <c r="HA58" s="0"/>
+      <c r="HB58" s="0"/>
+      <c r="HC58" s="0"/>
+      <c r="HD58" s="0"/>
+      <c r="HE58" s="0"/>
+      <c r="HF58" s="0"/>
+      <c r="HG58" s="0"/>
+      <c r="HH58" s="0"/>
+      <c r="HI58" s="0"/>
+      <c r="HJ58" s="0"/>
+      <c r="HK58" s="0"/>
+      <c r="HL58" s="0"/>
+      <c r="HM58" s="0"/>
+      <c r="HN58" s="0"/>
+      <c r="HO58" s="0"/>
+      <c r="HP58" s="0"/>
+      <c r="HQ58" s="0"/>
+      <c r="HR58" s="0"/>
+      <c r="HS58" s="0"/>
+      <c r="HT58" s="0"/>
+      <c r="HU58" s="0"/>
+      <c r="HV58" s="0"/>
+      <c r="HW58" s="0"/>
+      <c r="HX58" s="0"/>
+      <c r="HY58" s="0"/>
+      <c r="HZ58" s="0"/>
+      <c r="IA58" s="0"/>
+      <c r="IB58" s="0"/>
+      <c r="IC58" s="0"/>
+      <c r="ID58" s="0"/>
+      <c r="IE58" s="0"/>
+      <c r="IF58" s="0"/>
+      <c r="IG58" s="0"/>
+      <c r="IH58" s="0"/>
+      <c r="II58" s="0"/>
+      <c r="IJ58" s="0"/>
+      <c r="IK58" s="0"/>
+      <c r="IL58" s="0"/>
+      <c r="IM58" s="0"/>
+      <c r="IN58" s="0"/>
+      <c r="IO58" s="0"/>
+      <c r="IP58" s="0"/>
+      <c r="IQ58" s="0"/>
+      <c r="IR58" s="0"/>
+      <c r="IS58" s="0"/>
+      <c r="IT58" s="0"/>
+      <c r="IU58" s="0"/>
+      <c r="IV58" s="0"/>
+      <c r="IW58" s="0"/>
+      <c r="IX58" s="0"/>
+      <c r="IY58" s="0"/>
+      <c r="IZ58" s="0"/>
+      <c r="JA58" s="0"/>
+      <c r="JB58" s="0"/>
+      <c r="JC58" s="0"/>
+      <c r="JD58" s="0"/>
+      <c r="JE58" s="0"/>
+      <c r="JF58" s="0"/>
+      <c r="JG58" s="0"/>
+      <c r="JH58" s="0"/>
+      <c r="JI58" s="0"/>
+      <c r="JJ58" s="0"/>
+      <c r="JK58" s="0"/>
+      <c r="JL58" s="0"/>
+      <c r="JM58" s="0"/>
+      <c r="JN58" s="0"/>
+      <c r="JO58" s="0"/>
+      <c r="JP58" s="0"/>
+      <c r="JQ58" s="0"/>
+      <c r="JR58" s="0"/>
+      <c r="JS58" s="0"/>
+      <c r="JT58" s="0"/>
+      <c r="JU58" s="0"/>
+      <c r="JV58" s="0"/>
+      <c r="JW58" s="0"/>
+      <c r="JX58" s="0"/>
+      <c r="JY58" s="0"/>
+      <c r="JZ58" s="0"/>
+      <c r="KA58" s="0"/>
+      <c r="KB58" s="0"/>
+      <c r="KC58" s="0"/>
+      <c r="KD58" s="0"/>
+      <c r="KE58" s="0"/>
+      <c r="KF58" s="0"/>
+      <c r="KG58" s="0"/>
+      <c r="KH58" s="0"/>
+      <c r="KI58" s="0"/>
+      <c r="KJ58" s="0"/>
+      <c r="KK58" s="0"/>
+      <c r="KL58" s="0"/>
+      <c r="KM58" s="0"/>
+      <c r="KN58" s="0"/>
+      <c r="KO58" s="0"/>
+      <c r="KP58" s="0"/>
+      <c r="KQ58" s="0"/>
+      <c r="KR58" s="0"/>
+      <c r="KS58" s="0"/>
+      <c r="KT58" s="0"/>
+      <c r="KU58" s="0"/>
+      <c r="KV58" s="0"/>
+      <c r="KW58" s="0"/>
+      <c r="KX58" s="0"/>
+      <c r="KY58" s="0"/>
+      <c r="KZ58" s="0"/>
+      <c r="LA58" s="0"/>
+      <c r="LB58" s="0"/>
+      <c r="LC58" s="0"/>
+      <c r="LD58" s="0"/>
+      <c r="LE58" s="0"/>
+      <c r="LF58" s="0"/>
+      <c r="LG58" s="0"/>
+      <c r="LH58" s="0"/>
+      <c r="LI58" s="0"/>
+      <c r="LJ58" s="0"/>
+      <c r="LK58" s="0"/>
+      <c r="LL58" s="0"/>
+      <c r="LM58" s="0"/>
+      <c r="LN58" s="0"/>
+      <c r="LO58" s="0"/>
+      <c r="LP58" s="0"/>
+      <c r="LQ58" s="0"/>
+      <c r="LR58" s="0"/>
+      <c r="LS58" s="0"/>
+      <c r="LT58" s="0"/>
+      <c r="LU58" s="0"/>
+      <c r="LV58" s="0"/>
+      <c r="LW58" s="0"/>
+      <c r="LX58" s="0"/>
+      <c r="LY58" s="0"/>
+      <c r="LZ58" s="0"/>
+      <c r="MA58" s="0"/>
+      <c r="MB58" s="0"/>
+      <c r="MC58" s="0"/>
+      <c r="MD58" s="0"/>
+      <c r="ME58" s="0"/>
+      <c r="MF58" s="0"/>
+      <c r="MG58" s="0"/>
+      <c r="MH58" s="0"/>
+      <c r="MI58" s="0"/>
+      <c r="MJ58" s="0"/>
+      <c r="MK58" s="0"/>
+      <c r="ML58" s="0"/>
+      <c r="MM58" s="0"/>
+      <c r="MN58" s="0"/>
+      <c r="MO58" s="0"/>
+      <c r="MP58" s="0"/>
+      <c r="MQ58" s="0"/>
+      <c r="MR58" s="0"/>
+      <c r="MS58" s="0"/>
+      <c r="MT58" s="0"/>
+      <c r="MU58" s="0"/>
+      <c r="MV58" s="0"/>
+      <c r="MW58" s="0"/>
+      <c r="MX58" s="0"/>
+      <c r="MY58" s="0"/>
+      <c r="MZ58" s="0"/>
+      <c r="NA58" s="0"/>
+      <c r="NB58" s="0"/>
+      <c r="NC58" s="0"/>
+      <c r="ND58" s="0"/>
+      <c r="NE58" s="0"/>
+      <c r="NF58" s="0"/>
+      <c r="NG58" s="0"/>
+      <c r="NH58" s="0"/>
+      <c r="NI58" s="0"/>
+      <c r="NJ58" s="0"/>
+      <c r="NK58" s="0"/>
+      <c r="NL58" s="0"/>
+      <c r="NM58" s="0"/>
+      <c r="NN58" s="0"/>
+      <c r="NO58" s="0"/>
+      <c r="NP58" s="0"/>
+      <c r="NQ58" s="0"/>
+      <c r="NR58" s="0"/>
+      <c r="NS58" s="0"/>
+      <c r="NT58" s="0"/>
+      <c r="NU58" s="0"/>
+      <c r="NV58" s="0"/>
+      <c r="NW58" s="0"/>
+      <c r="NX58" s="0"/>
+      <c r="NY58" s="0"/>
+      <c r="NZ58" s="0"/>
+      <c r="OA58" s="0"/>
+      <c r="OB58" s="0"/>
+      <c r="OC58" s="0"/>
+      <c r="OD58" s="0"/>
+      <c r="OE58" s="0"/>
+      <c r="OF58" s="0"/>
+      <c r="OG58" s="0"/>
+      <c r="OH58" s="0"/>
+      <c r="OI58" s="0"/>
+      <c r="OJ58" s="0"/>
+      <c r="OK58" s="0"/>
+      <c r="OL58" s="0"/>
+      <c r="OM58" s="0"/>
+      <c r="ON58" s="0"/>
+      <c r="OO58" s="0"/>
+      <c r="OP58" s="0"/>
+      <c r="OQ58" s="0"/>
+      <c r="OR58" s="0"/>
+      <c r="OS58" s="0"/>
+      <c r="OT58" s="0"/>
+      <c r="OU58" s="0"/>
+      <c r="OV58" s="0"/>
+      <c r="OW58" s="0"/>
+      <c r="OX58" s="0"/>
+      <c r="OY58" s="0"/>
+      <c r="OZ58" s="0"/>
+      <c r="PA58" s="0"/>
+      <c r="PB58" s="0"/>
+      <c r="PC58" s="0"/>
+      <c r="PD58" s="0"/>
+      <c r="PE58" s="0"/>
+      <c r="PF58" s="0"/>
+      <c r="PG58" s="0"/>
+      <c r="PH58" s="0"/>
+      <c r="PI58" s="0"/>
+      <c r="PJ58" s="0"/>
+      <c r="PK58" s="0"/>
+      <c r="PL58" s="0"/>
+      <c r="PM58" s="0"/>
+      <c r="PN58" s="0"/>
+      <c r="PO58" s="0"/>
+      <c r="PP58" s="0"/>
+      <c r="PQ58" s="0"/>
+      <c r="PR58" s="0"/>
+      <c r="PS58" s="0"/>
+      <c r="PT58" s="0"/>
+      <c r="PU58" s="0"/>
+      <c r="PV58" s="0"/>
+      <c r="PW58" s="0"/>
+      <c r="PX58" s="0"/>
+      <c r="PY58" s="0"/>
+      <c r="PZ58" s="0"/>
+      <c r="QA58" s="0"/>
+      <c r="QB58" s="0"/>
+      <c r="QC58" s="0"/>
+      <c r="QD58" s="0"/>
+      <c r="QE58" s="0"/>
+      <c r="QF58" s="0"/>
+      <c r="QG58" s="0"/>
+      <c r="QH58" s="0"/>
+      <c r="QI58" s="0"/>
+      <c r="QJ58" s="0"/>
+      <c r="QK58" s="0"/>
+      <c r="QL58" s="0"/>
+      <c r="QM58" s="0"/>
+      <c r="QN58" s="0"/>
+      <c r="QO58" s="0"/>
+      <c r="QP58" s="0"/>
+      <c r="QQ58" s="0"/>
+      <c r="QR58" s="0"/>
+      <c r="QS58" s="0"/>
+      <c r="QT58" s="0"/>
+      <c r="QU58" s="0"/>
+      <c r="QV58" s="0"/>
+      <c r="QW58" s="0"/>
+      <c r="QX58" s="0"/>
+      <c r="QY58" s="0"/>
+      <c r="QZ58" s="0"/>
+      <c r="RA58" s="0"/>
+      <c r="RB58" s="0"/>
+      <c r="RC58" s="0"/>
+      <c r="RD58" s="0"/>
+      <c r="RE58" s="0"/>
+      <c r="RF58" s="0"/>
+      <c r="RG58" s="0"/>
+      <c r="RH58" s="0"/>
+      <c r="RI58" s="0"/>
+      <c r="RJ58" s="0"/>
+      <c r="RK58" s="0"/>
+      <c r="RL58" s="0"/>
+      <c r="RM58" s="0"/>
+      <c r="RN58" s="0"/>
+      <c r="RO58" s="0"/>
+      <c r="RP58" s="0"/>
+      <c r="RQ58" s="0"/>
+      <c r="RR58" s="0"/>
+      <c r="RS58" s="0"/>
+      <c r="RT58" s="0"/>
+      <c r="RU58" s="0"/>
+      <c r="RV58" s="0"/>
+      <c r="RW58" s="0"/>
+      <c r="RX58" s="0"/>
+      <c r="RY58" s="0"/>
+      <c r="RZ58" s="0"/>
+      <c r="SA58" s="0"/>
+      <c r="SB58" s="0"/>
+      <c r="SC58" s="0"/>
+      <c r="SD58" s="0"/>
+      <c r="SE58" s="0"/>
+      <c r="SF58" s="0"/>
+      <c r="SG58" s="0"/>
+      <c r="SH58" s="0"/>
+      <c r="SI58" s="0"/>
+      <c r="SJ58" s="0"/>
+      <c r="SK58" s="0"/>
+      <c r="SL58" s="0"/>
+      <c r="SM58" s="0"/>
+      <c r="SN58" s="0"/>
+      <c r="SO58" s="0"/>
+      <c r="SP58" s="0"/>
+      <c r="SQ58" s="0"/>
+      <c r="SR58" s="0"/>
+      <c r="SS58" s="0"/>
+      <c r="ST58" s="0"/>
+      <c r="SU58" s="0"/>
+      <c r="SV58" s="0"/>
+      <c r="SW58" s="0"/>
+      <c r="SX58" s="0"/>
+      <c r="SY58" s="0"/>
+      <c r="SZ58" s="0"/>
+      <c r="TA58" s="0"/>
+      <c r="TB58" s="0"/>
+      <c r="TC58" s="0"/>
+      <c r="TD58" s="0"/>
+      <c r="TE58" s="0"/>
+      <c r="TF58" s="0"/>
+      <c r="TG58" s="0"/>
+      <c r="TH58" s="0"/>
+      <c r="TI58" s="0"/>
+      <c r="TJ58" s="0"/>
+      <c r="TK58" s="0"/>
+      <c r="TL58" s="0"/>
+      <c r="TM58" s="0"/>
+      <c r="TN58" s="0"/>
+      <c r="TO58" s="0"/>
+      <c r="TP58" s="0"/>
+      <c r="TQ58" s="0"/>
+      <c r="TR58" s="0"/>
+      <c r="TS58" s="0"/>
+      <c r="TT58" s="0"/>
+      <c r="TU58" s="0"/>
+      <c r="TV58" s="0"/>
+      <c r="TW58" s="0"/>
+      <c r="TX58" s="0"/>
+      <c r="TY58" s="0"/>
+      <c r="TZ58" s="0"/>
+      <c r="UA58" s="0"/>
+      <c r="UB58" s="0"/>
+      <c r="UC58" s="0"/>
+      <c r="UD58" s="0"/>
+      <c r="UE58" s="0"/>
+      <c r="UF58" s="0"/>
+      <c r="UG58" s="0"/>
+      <c r="UH58" s="0"/>
+      <c r="UI58" s="0"/>
+      <c r="UJ58" s="0"/>
+      <c r="UK58" s="0"/>
+      <c r="UL58" s="0"/>
+      <c r="UM58" s="0"/>
+      <c r="UN58" s="0"/>
+      <c r="UO58" s="0"/>
+      <c r="UP58" s="0"/>
+      <c r="UQ58" s="0"/>
+      <c r="UR58" s="0"/>
+      <c r="US58" s="0"/>
+      <c r="UT58" s="0"/>
+      <c r="UU58" s="0"/>
+      <c r="UV58" s="0"/>
+      <c r="UW58" s="0"/>
+      <c r="UX58" s="0"/>
+      <c r="UY58" s="0"/>
+      <c r="UZ58" s="0"/>
+      <c r="VA58" s="0"/>
+      <c r="VB58" s="0"/>
+      <c r="VC58" s="0"/>
+      <c r="VD58" s="0"/>
+      <c r="VE58" s="0"/>
+      <c r="VF58" s="0"/>
+      <c r="VG58" s="0"/>
+      <c r="VH58" s="0"/>
+      <c r="VI58" s="0"/>
+      <c r="VJ58" s="0"/>
+      <c r="VK58" s="0"/>
+      <c r="VL58" s="0"/>
+      <c r="VM58" s="0"/>
+      <c r="VN58" s="0"/>
+      <c r="VO58" s="0"/>
+      <c r="VP58" s="0"/>
+      <c r="VQ58" s="0"/>
+      <c r="VR58" s="0"/>
+      <c r="VS58" s="0"/>
+      <c r="VT58" s="0"/>
+      <c r="VU58" s="0"/>
+      <c r="VV58" s="0"/>
+      <c r="VW58" s="0"/>
+      <c r="VX58" s="0"/>
+      <c r="VY58" s="0"/>
+      <c r="VZ58" s="0"/>
+      <c r="WA58" s="0"/>
+      <c r="WB58" s="0"/>
+      <c r="WC58" s="0"/>
+      <c r="WD58" s="0"/>
+      <c r="WE58" s="0"/>
+      <c r="WF58" s="0"/>
+      <c r="WG58" s="0"/>
+      <c r="WH58" s="0"/>
+      <c r="WI58" s="0"/>
+      <c r="WJ58" s="0"/>
+      <c r="WK58" s="0"/>
+      <c r="WL58" s="0"/>
+      <c r="WM58" s="0"/>
+      <c r="WN58" s="0"/>
+      <c r="WO58" s="0"/>
+      <c r="WP58" s="0"/>
+      <c r="WQ58" s="0"/>
+      <c r="WR58" s="0"/>
+      <c r="WS58" s="0"/>
+      <c r="WT58" s="0"/>
+      <c r="WU58" s="0"/>
+      <c r="WV58" s="0"/>
+      <c r="WW58" s="0"/>
+      <c r="WX58" s="0"/>
+      <c r="WY58" s="0"/>
+      <c r="WZ58" s="0"/>
+      <c r="XA58" s="0"/>
+      <c r="XB58" s="0"/>
+      <c r="XC58" s="0"/>
+      <c r="XD58" s="0"/>
+      <c r="XE58" s="0"/>
+      <c r="XF58" s="0"/>
+      <c r="XG58" s="0"/>
+      <c r="XH58" s="0"/>
+      <c r="XI58" s="0"/>
+      <c r="XJ58" s="0"/>
+      <c r="XK58" s="0"/>
+      <c r="XL58" s="0"/>
+      <c r="XM58" s="0"/>
+      <c r="XN58" s="0"/>
+      <c r="XO58" s="0"/>
+      <c r="XP58" s="0"/>
+      <c r="XQ58" s="0"/>
+      <c r="XR58" s="0"/>
+      <c r="XS58" s="0"/>
+      <c r="XT58" s="0"/>
+      <c r="XU58" s="0"/>
+      <c r="XV58" s="0"/>
+      <c r="XW58" s="0"/>
+      <c r="XX58" s="0"/>
+      <c r="XY58" s="0"/>
+      <c r="XZ58" s="0"/>
+      <c r="YA58" s="0"/>
+      <c r="YB58" s="0"/>
+      <c r="YC58" s="0"/>
+      <c r="YD58" s="0"/>
+      <c r="YE58" s="0"/>
+      <c r="YF58" s="0"/>
+      <c r="YG58" s="0"/>
+      <c r="YH58" s="0"/>
+      <c r="YI58" s="0"/>
+      <c r="YJ58" s="0"/>
+      <c r="YK58" s="0"/>
+      <c r="YL58" s="0"/>
+      <c r="YM58" s="0"/>
+      <c r="YN58" s="0"/>
+      <c r="YO58" s="0"/>
+      <c r="YP58" s="0"/>
+      <c r="YQ58" s="0"/>
+      <c r="YR58" s="0"/>
+      <c r="YS58" s="0"/>
+      <c r="YT58" s="0"/>
+      <c r="YU58" s="0"/>
+      <c r="YV58" s="0"/>
+      <c r="YW58" s="0"/>
+      <c r="YX58" s="0"/>
+      <c r="YY58" s="0"/>
+      <c r="YZ58" s="0"/>
+      <c r="ZA58" s="0"/>
+      <c r="ZB58" s="0"/>
+      <c r="ZC58" s="0"/>
+      <c r="ZD58" s="0"/>
+      <c r="ZE58" s="0"/>
+      <c r="ZF58" s="0"/>
+      <c r="ZG58" s="0"/>
+      <c r="ZH58" s="0"/>
+      <c r="ZI58" s="0"/>
+      <c r="ZJ58" s="0"/>
+      <c r="ZK58" s="0"/>
+      <c r="ZL58" s="0"/>
+      <c r="ZM58" s="0"/>
+      <c r="ZN58" s="0"/>
+      <c r="ZO58" s="0"/>
+      <c r="ZP58" s="0"/>
+      <c r="ZQ58" s="0"/>
+      <c r="ZR58" s="0"/>
+      <c r="ZS58" s="0"/>
+      <c r="ZT58" s="0"/>
+      <c r="ZU58" s="0"/>
+      <c r="ZV58" s="0"/>
+      <c r="ZW58" s="0"/>
+      <c r="ZX58" s="0"/>
+      <c r="ZY58" s="0"/>
+      <c r="ZZ58" s="0"/>
+      <c r="AAA58" s="0"/>
+      <c r="AAB58" s="0"/>
+      <c r="AAC58" s="0"/>
+      <c r="AAD58" s="0"/>
+      <c r="AAE58" s="0"/>
+      <c r="AAF58" s="0"/>
+      <c r="AAG58" s="0"/>
+      <c r="AAH58" s="0"/>
+      <c r="AAI58" s="0"/>
+      <c r="AAJ58" s="0"/>
+      <c r="AAK58" s="0"/>
+      <c r="AAL58" s="0"/>
+      <c r="AAM58" s="0"/>
+      <c r="AAN58" s="0"/>
+      <c r="AAO58" s="0"/>
+      <c r="AAP58" s="0"/>
+      <c r="AAQ58" s="0"/>
+      <c r="AAR58" s="0"/>
+      <c r="AAS58" s="0"/>
+      <c r="AAT58" s="0"/>
+      <c r="AAU58" s="0"/>
+      <c r="AAV58" s="0"/>
+      <c r="AAW58" s="0"/>
+      <c r="AAX58" s="0"/>
+      <c r="AAY58" s="0"/>
+      <c r="AAZ58" s="0"/>
+      <c r="ABA58" s="0"/>
+      <c r="ABB58" s="0"/>
+      <c r="ABC58" s="0"/>
+      <c r="ABD58" s="0"/>
+      <c r="ABE58" s="0"/>
+      <c r="ABF58" s="0"/>
+      <c r="ABG58" s="0"/>
+      <c r="ABH58" s="0"/>
+      <c r="ABI58" s="0"/>
+      <c r="ABJ58" s="0"/>
+      <c r="ABK58" s="0"/>
+      <c r="ABL58" s="0"/>
+      <c r="ABM58" s="0"/>
+      <c r="ABN58" s="0"/>
+      <c r="ABO58" s="0"/>
+      <c r="ABP58" s="0"/>
+      <c r="ABQ58" s="0"/>
+      <c r="ABR58" s="0"/>
+      <c r="ABS58" s="0"/>
+      <c r="ABT58" s="0"/>
+      <c r="ABU58" s="0"/>
+      <c r="ABV58" s="0"/>
+      <c r="ABW58" s="0"/>
+      <c r="ABX58" s="0"/>
+      <c r="ABY58" s="0"/>
+      <c r="ABZ58" s="0"/>
+      <c r="ACA58" s="0"/>
+      <c r="ACB58" s="0"/>
+      <c r="ACC58" s="0"/>
+      <c r="ACD58" s="0"/>
+      <c r="ACE58" s="0"/>
+      <c r="ACF58" s="0"/>
+      <c r="ACG58" s="0"/>
+      <c r="ACH58" s="0"/>
+      <c r="ACI58" s="0"/>
+      <c r="ACJ58" s="0"/>
+      <c r="ACK58" s="0"/>
+      <c r="ACL58" s="0"/>
+      <c r="ACM58" s="0"/>
+      <c r="ACN58" s="0"/>
+      <c r="ACO58" s="0"/>
+      <c r="ACP58" s="0"/>
+      <c r="ACQ58" s="0"/>
+      <c r="ACR58" s="0"/>
+      <c r="ACS58" s="0"/>
+      <c r="ACT58" s="0"/>
+      <c r="ACU58" s="0"/>
+      <c r="ACV58" s="0"/>
+      <c r="ACW58" s="0"/>
+      <c r="ACX58" s="0"/>
+      <c r="ACY58" s="0"/>
+      <c r="ACZ58" s="0"/>
+      <c r="ADA58" s="0"/>
+      <c r="ADB58" s="0"/>
+      <c r="ADC58" s="0"/>
+      <c r="ADD58" s="0"/>
+      <c r="ADE58" s="0"/>
+      <c r="ADF58" s="0"/>
+      <c r="ADG58" s="0"/>
+      <c r="ADH58" s="0"/>
+      <c r="ADI58" s="0"/>
+      <c r="ADJ58" s="0"/>
+      <c r="ADK58" s="0"/>
+      <c r="ADL58" s="0"/>
+      <c r="ADM58" s="0"/>
+      <c r="ADN58" s="0"/>
+      <c r="ADO58" s="0"/>
+      <c r="ADP58" s="0"/>
+      <c r="ADQ58" s="0"/>
+      <c r="ADR58" s="0"/>
+      <c r="ADS58" s="0"/>
+      <c r="ADT58" s="0"/>
+      <c r="ADU58" s="0"/>
+      <c r="ADV58" s="0"/>
+      <c r="ADW58" s="0"/>
+      <c r="ADX58" s="0"/>
+      <c r="ADY58" s="0"/>
+      <c r="ADZ58" s="0"/>
+      <c r="AEA58" s="0"/>
+      <c r="AEB58" s="0"/>
+      <c r="AEC58" s="0"/>
+      <c r="AED58" s="0"/>
+      <c r="AEE58" s="0"/>
+      <c r="AEF58" s="0"/>
+      <c r="AEG58" s="0"/>
+      <c r="AEH58" s="0"/>
+      <c r="AEI58" s="0"/>
+      <c r="AEJ58" s="0"/>
+      <c r="AEK58" s="0"/>
+      <c r="AEL58" s="0"/>
+      <c r="AEM58" s="0"/>
+      <c r="AEN58" s="0"/>
+      <c r="AEO58" s="0"/>
+      <c r="AEP58" s="0"/>
+      <c r="AEQ58" s="0"/>
+      <c r="AER58" s="0"/>
+      <c r="AES58" s="0"/>
+      <c r="AET58" s="0"/>
+      <c r="AEU58" s="0"/>
+      <c r="AEV58" s="0"/>
+      <c r="AEW58" s="0"/>
+      <c r="AEX58" s="0"/>
+      <c r="AEY58" s="0"/>
+      <c r="AEZ58" s="0"/>
+      <c r="AFA58" s="0"/>
+      <c r="AFB58" s="0"/>
+      <c r="AFC58" s="0"/>
+      <c r="AFD58" s="0"/>
+      <c r="AFE58" s="0"/>
+      <c r="AFF58" s="0"/>
+      <c r="AFG58" s="0"/>
+      <c r="AFH58" s="0"/>
+      <c r="AFI58" s="0"/>
+      <c r="AFJ58" s="0"/>
+      <c r="AFK58" s="0"/>
+      <c r="AFL58" s="0"/>
+      <c r="AFM58" s="0"/>
+      <c r="AFN58" s="0"/>
+      <c r="AFO58" s="0"/>
+      <c r="AFP58" s="0"/>
+      <c r="AFQ58" s="0"/>
+      <c r="AFR58" s="0"/>
+      <c r="AFS58" s="0"/>
+      <c r="AFT58" s="0"/>
+      <c r="AFU58" s="0"/>
+      <c r="AFV58" s="0"/>
+      <c r="AFW58" s="0"/>
+      <c r="AFX58" s="0"/>
+      <c r="AFY58" s="0"/>
+      <c r="AFZ58" s="0"/>
+      <c r="AGA58" s="0"/>
+      <c r="AGB58" s="0"/>
+      <c r="AGC58" s="0"/>
+      <c r="AGD58" s="0"/>
+      <c r="AGE58" s="0"/>
+      <c r="AGF58" s="0"/>
+      <c r="AGG58" s="0"/>
+      <c r="AGH58" s="0"/>
+      <c r="AGI58" s="0"/>
+      <c r="AGJ58" s="0"/>
+      <c r="AGK58" s="0"/>
+      <c r="AGL58" s="0"/>
+      <c r="AGM58" s="0"/>
+      <c r="AGN58" s="0"/>
+      <c r="AGO58" s="0"/>
+      <c r="AGP58" s="0"/>
+      <c r="AGQ58" s="0"/>
+      <c r="AGR58" s="0"/>
+      <c r="AGS58" s="0"/>
+      <c r="AGT58" s="0"/>
+      <c r="AGU58" s="0"/>
+      <c r="AGV58" s="0"/>
+      <c r="AGW58" s="0"/>
+      <c r="AGX58" s="0"/>
+      <c r="AGY58" s="0"/>
+      <c r="AGZ58" s="0"/>
+      <c r="AHA58" s="0"/>
+      <c r="AHB58" s="0"/>
+      <c r="AHC58" s="0"/>
+      <c r="AHD58" s="0"/>
+      <c r="AHE58" s="0"/>
+      <c r="AHF58" s="0"/>
+      <c r="AHG58" s="0"/>
+      <c r="AHH58" s="0"/>
+      <c r="AHI58" s="0"/>
+      <c r="AHJ58" s="0"/>
+      <c r="AHK58" s="0"/>
+      <c r="AHL58" s="0"/>
+      <c r="AHM58" s="0"/>
+      <c r="AHN58" s="0"/>
+      <c r="AHO58" s="0"/>
+      <c r="AHP58" s="0"/>
+      <c r="AHQ58" s="0"/>
+      <c r="AHR58" s="0"/>
+      <c r="AHS58" s="0"/>
+      <c r="AHT58" s="0"/>
+      <c r="AHU58" s="0"/>
+      <c r="AHV58" s="0"/>
+      <c r="AHW58" s="0"/>
+      <c r="AHX58" s="0"/>
+      <c r="AHY58" s="0"/>
+      <c r="AHZ58" s="0"/>
+      <c r="AIA58" s="0"/>
+      <c r="AIB58" s="0"/>
+      <c r="AIC58" s="0"/>
+      <c r="AID58" s="0"/>
+      <c r="AIE58" s="0"/>
+      <c r="AIF58" s="0"/>
+      <c r="AIG58" s="0"/>
+      <c r="AIH58" s="0"/>
+      <c r="AII58" s="0"/>
+      <c r="AIJ58" s="0"/>
+      <c r="AIK58" s="0"/>
+      <c r="AIL58" s="0"/>
+      <c r="AIM58" s="0"/>
+      <c r="AIN58" s="0"/>
+      <c r="AIO58" s="0"/>
+      <c r="AIP58" s="0"/>
+      <c r="AIQ58" s="0"/>
+      <c r="AIR58" s="0"/>
+      <c r="AIS58" s="0"/>
+      <c r="AIT58" s="0"/>
+      <c r="AIU58" s="0"/>
+      <c r="AIV58" s="0"/>
+      <c r="AIW58" s="0"/>
+      <c r="AIX58" s="0"/>
+      <c r="AIY58" s="0"/>
+      <c r="AIZ58" s="0"/>
+      <c r="AJA58" s="0"/>
+      <c r="AJB58" s="0"/>
+      <c r="AJC58" s="0"/>
+      <c r="AJD58" s="0"/>
+      <c r="AJE58" s="0"/>
+      <c r="AJF58" s="0"/>
+      <c r="AJG58" s="0"/>
+      <c r="AJH58" s="0"/>
+      <c r="AJI58" s="0"/>
+      <c r="AJJ58" s="0"/>
+      <c r="AJK58" s="0"/>
+      <c r="AJL58" s="0"/>
+      <c r="AJM58" s="0"/>
+      <c r="AJN58" s="0"/>
+      <c r="AJO58" s="0"/>
+      <c r="AJP58" s="0"/>
+      <c r="AJQ58" s="0"/>
+      <c r="AJR58" s="0"/>
+      <c r="AJS58" s="0"/>
+      <c r="AJT58" s="0"/>
+      <c r="AJU58" s="0"/>
+      <c r="AJV58" s="0"/>
+      <c r="AJW58" s="0"/>
+      <c r="AJX58" s="0"/>
+      <c r="AJY58" s="0"/>
+      <c r="AJZ58" s="0"/>
+      <c r="AKA58" s="0"/>
+      <c r="AKB58" s="0"/>
+      <c r="AKC58" s="0"/>
+      <c r="AKD58" s="0"/>
+      <c r="AKE58" s="0"/>
+      <c r="AKF58" s="0"/>
+      <c r="AKG58" s="0"/>
+      <c r="AKH58" s="0"/>
+      <c r="AKI58" s="0"/>
+      <c r="AKJ58" s="0"/>
+      <c r="AKK58" s="0"/>
+      <c r="AKL58" s="0"/>
+      <c r="AKM58" s="0"/>
+      <c r="AKN58" s="0"/>
+      <c r="AKO58" s="0"/>
+      <c r="AKP58" s="0"/>
+      <c r="AKQ58" s="0"/>
+      <c r="AKR58" s="0"/>
+      <c r="AKS58" s="0"/>
+      <c r="AKT58" s="0"/>
+      <c r="AKU58" s="0"/>
+      <c r="AKV58" s="0"/>
+      <c r="AKW58" s="0"/>
+      <c r="AKX58" s="0"/>
+      <c r="AKY58" s="0"/>
+      <c r="AKZ58" s="0"/>
+      <c r="ALA58" s="0"/>
+      <c r="ALB58" s="0"/>
+      <c r="ALC58" s="0"/>
+      <c r="ALD58" s="0"/>
+      <c r="ALE58" s="0"/>
+      <c r="ALF58" s="0"/>
+      <c r="ALG58" s="0"/>
+      <c r="ALH58" s="0"/>
+      <c r="ALI58" s="0"/>
+      <c r="ALJ58" s="0"/>
+      <c r="ALK58" s="0"/>
+      <c r="ALL58" s="0"/>
+      <c r="ALM58" s="0"/>
+      <c r="ALN58" s="0"/>
+      <c r="ALO58" s="0"/>
+      <c r="ALP58" s="0"/>
+      <c r="ALQ58" s="0"/>
+      <c r="ALR58" s="0"/>
+      <c r="ALS58" s="0"/>
+      <c r="ALT58" s="0"/>
+      <c r="ALU58" s="0"/>
+      <c r="ALV58" s="0"/>
+      <c r="ALW58" s="0"/>
+      <c r="ALX58" s="0"/>
+      <c r="ALY58" s="0"/>
+      <c r="ALZ58" s="0"/>
+      <c r="AMA58" s="0"/>
+      <c r="AMB58" s="0"/>
+      <c r="AMC58" s="0"/>
+      <c r="AMD58" s="0"/>
+      <c r="AME58" s="0"/>
+      <c r="AMF58" s="0"/>
+      <c r="AMG58" s="0"/>
+      <c r="AMH58" s="0"/>
+      <c r="AMI58" s="0"/>
+      <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21"/>
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10"/>
       <c r="B59" s="18" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
-      <c r="D59" s="0"/>
+      <c r="D59" s="0" t="s">
+        <v>96</v>
+      </c>
       <c r="E59" s="0"/>
       <c r="F59" s="0"/>
       <c r="G59" s="0"/>
       <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="0"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0"/>
+      <c r="X59" s="0"/>
+      <c r="Y59" s="0"/>
+      <c r="Z59" s="0"/>
+      <c r="AA59" s="0"/>
+      <c r="AB59" s="0"/>
+      <c r="AC59" s="0"/>
+      <c r="AD59" s="0"/>
+      <c r="AE59" s="0"/>
+      <c r="AF59" s="0"/>
+      <c r="AG59" s="0"/>
+      <c r="AH59" s="0"/>
+      <c r="AI59" s="0"/>
+      <c r="AJ59" s="0"/>
+      <c r="AK59" s="0"/>
+      <c r="AL59" s="0"/>
+      <c r="AM59" s="0"/>
+      <c r="AN59" s="0"/>
+      <c r="AO59" s="0"/>
+      <c r="AP59" s="0"/>
+      <c r="AQ59" s="0"/>
+      <c r="AR59" s="0"/>
+      <c r="AS59" s="0"/>
+      <c r="AT59" s="0"/>
+      <c r="AU59" s="0"/>
+      <c r="AV59" s="0"/>
+      <c r="AW59" s="0"/>
+      <c r="AX59" s="0"/>
+      <c r="AY59" s="0"/>
+      <c r="AZ59" s="0"/>
+      <c r="BA59" s="0"/>
+      <c r="BB59" s="0"/>
+      <c r="BC59" s="0"/>
+      <c r="BD59" s="0"/>
+      <c r="BE59" s="0"/>
+      <c r="BF59" s="0"/>
+      <c r="BG59" s="0"/>
+      <c r="BH59" s="0"/>
+      <c r="BI59" s="0"/>
+      <c r="BJ59" s="0"/>
+      <c r="BK59" s="0"/>
+      <c r="BL59" s="0"/>
+      <c r="BM59" s="0"/>
+      <c r="BN59" s="0"/>
+      <c r="BO59" s="0"/>
+      <c r="BP59" s="0"/>
+      <c r="BQ59" s="0"/>
+      <c r="BR59" s="0"/>
+      <c r="BS59" s="0"/>
+      <c r="BT59" s="0"/>
+      <c r="BU59" s="0"/>
+      <c r="BV59" s="0"/>
+      <c r="BW59" s="0"/>
+      <c r="BX59" s="0"/>
+      <c r="BY59" s="0"/>
+      <c r="BZ59" s="0"/>
+      <c r="CA59" s="0"/>
+      <c r="CB59" s="0"/>
+      <c r="CC59" s="0"/>
+      <c r="CD59" s="0"/>
+      <c r="CE59" s="0"/>
+      <c r="CF59" s="0"/>
+      <c r="CG59" s="0"/>
+      <c r="CH59" s="0"/>
+      <c r="CI59" s="0"/>
+      <c r="CJ59" s="0"/>
+      <c r="CK59" s="0"/>
+      <c r="CL59" s="0"/>
+      <c r="CM59" s="0"/>
+      <c r="CN59" s="0"/>
+      <c r="CO59" s="0"/>
+      <c r="CP59" s="0"/>
+      <c r="CQ59" s="0"/>
+      <c r="CR59" s="0"/>
+      <c r="CS59" s="0"/>
+      <c r="CT59" s="0"/>
+      <c r="CU59" s="0"/>
+      <c r="CV59" s="0"/>
+      <c r="CW59" s="0"/>
+      <c r="CX59" s="0"/>
+      <c r="CY59" s="0"/>
+      <c r="CZ59" s="0"/>
+      <c r="DA59" s="0"/>
+      <c r="DB59" s="0"/>
+      <c r="DC59" s="0"/>
+      <c r="DD59" s="0"/>
+      <c r="DE59" s="0"/>
+      <c r="DF59" s="0"/>
+      <c r="DG59" s="0"/>
+      <c r="DH59" s="0"/>
+      <c r="DI59" s="0"/>
+      <c r="DJ59" s="0"/>
+      <c r="DK59" s="0"/>
+      <c r="DL59" s="0"/>
+      <c r="DM59" s="0"/>
+      <c r="DN59" s="0"/>
+      <c r="DO59" s="0"/>
+      <c r="DP59" s="0"/>
+      <c r="DQ59" s="0"/>
+      <c r="DR59" s="0"/>
+      <c r="DS59" s="0"/>
+      <c r="DT59" s="0"/>
+      <c r="DU59" s="0"/>
+      <c r="DV59" s="0"/>
+      <c r="DW59" s="0"/>
+      <c r="DX59" s="0"/>
+      <c r="DY59" s="0"/>
+      <c r="DZ59" s="0"/>
+      <c r="EA59" s="0"/>
+      <c r="EB59" s="0"/>
+      <c r="EC59" s="0"/>
+      <c r="ED59" s="0"/>
+      <c r="EE59" s="0"/>
+      <c r="EF59" s="0"/>
+      <c r="EG59" s="0"/>
+      <c r="EH59" s="0"/>
+      <c r="EI59" s="0"/>
+      <c r="EJ59" s="0"/>
+      <c r="EK59" s="0"/>
+      <c r="EL59" s="0"/>
+      <c r="EM59" s="0"/>
+      <c r="EN59" s="0"/>
+      <c r="EO59" s="0"/>
+      <c r="EP59" s="0"/>
+      <c r="EQ59" s="0"/>
+      <c r="ER59" s="0"/>
+      <c r="ES59" s="0"/>
+      <c r="ET59" s="0"/>
+      <c r="EU59" s="0"/>
+      <c r="EV59" s="0"/>
+      <c r="EW59" s="0"/>
+      <c r="EX59" s="0"/>
+      <c r="EY59" s="0"/>
+      <c r="EZ59" s="0"/>
+      <c r="FA59" s="0"/>
+      <c r="FB59" s="0"/>
+      <c r="FC59" s="0"/>
+      <c r="FD59" s="0"/>
+      <c r="FE59" s="0"/>
+      <c r="FF59" s="0"/>
+      <c r="FG59" s="0"/>
+      <c r="FH59" s="0"/>
+      <c r="FI59" s="0"/>
+      <c r="FJ59" s="0"/>
+      <c r="FK59" s="0"/>
+      <c r="FL59" s="0"/>
+      <c r="FM59" s="0"/>
+      <c r="FN59" s="0"/>
+      <c r="FO59" s="0"/>
+      <c r="FP59" s="0"/>
+      <c r="FQ59" s="0"/>
+      <c r="FR59" s="0"/>
+      <c r="FS59" s="0"/>
+      <c r="FT59" s="0"/>
+      <c r="FU59" s="0"/>
+      <c r="FV59" s="0"/>
+      <c r="FW59" s="0"/>
+      <c r="FX59" s="0"/>
+      <c r="FY59" s="0"/>
+      <c r="FZ59" s="0"/>
+      <c r="GA59" s="0"/>
+      <c r="GB59" s="0"/>
+      <c r="GC59" s="0"/>
+      <c r="GD59" s="0"/>
+      <c r="GE59" s="0"/>
+      <c r="GF59" s="0"/>
+      <c r="GG59" s="0"/>
+      <c r="GH59" s="0"/>
+      <c r="GI59" s="0"/>
+      <c r="GJ59" s="0"/>
+      <c r="GK59" s="0"/>
+      <c r="GL59" s="0"/>
+      <c r="GM59" s="0"/>
+      <c r="GN59" s="0"/>
+      <c r="GO59" s="0"/>
+      <c r="GP59" s="0"/>
+      <c r="GQ59" s="0"/>
+      <c r="GR59" s="0"/>
+      <c r="GS59" s="0"/>
+      <c r="GT59" s="0"/>
+      <c r="GU59" s="0"/>
+      <c r="GV59" s="0"/>
+      <c r="GW59" s="0"/>
+      <c r="GX59" s="0"/>
+      <c r="GY59" s="0"/>
+      <c r="GZ59" s="0"/>
+      <c r="HA59" s="0"/>
+      <c r="HB59" s="0"/>
+      <c r="HC59" s="0"/>
+      <c r="HD59" s="0"/>
+      <c r="HE59" s="0"/>
+      <c r="HF59" s="0"/>
+      <c r="HG59" s="0"/>
+      <c r="HH59" s="0"/>
+      <c r="HI59" s="0"/>
+      <c r="HJ59" s="0"/>
+      <c r="HK59" s="0"/>
+      <c r="HL59" s="0"/>
+      <c r="HM59" s="0"/>
+      <c r="HN59" s="0"/>
+      <c r="HO59" s="0"/>
+      <c r="HP59" s="0"/>
+      <c r="HQ59" s="0"/>
+      <c r="HR59" s="0"/>
+      <c r="HS59" s="0"/>
+      <c r="HT59" s="0"/>
+      <c r="HU59" s="0"/>
+      <c r="HV59" s="0"/>
+      <c r="HW59" s="0"/>
+      <c r="HX59" s="0"/>
+      <c r="HY59" s="0"/>
+      <c r="HZ59" s="0"/>
+      <c r="IA59" s="0"/>
+      <c r="IB59" s="0"/>
+      <c r="IC59" s="0"/>
+      <c r="ID59" s="0"/>
+      <c r="IE59" s="0"/>
+      <c r="IF59" s="0"/>
+      <c r="IG59" s="0"/>
+      <c r="IH59" s="0"/>
+      <c r="II59" s="0"/>
+      <c r="IJ59" s="0"/>
+      <c r="IK59" s="0"/>
+      <c r="IL59" s="0"/>
+      <c r="IM59" s="0"/>
+      <c r="IN59" s="0"/>
+      <c r="IO59" s="0"/>
+      <c r="IP59" s="0"/>
+      <c r="IQ59" s="0"/>
+      <c r="IR59" s="0"/>
+      <c r="IS59" s="0"/>
+      <c r="IT59" s="0"/>
+      <c r="IU59" s="0"/>
+      <c r="IV59" s="0"/>
+      <c r="IW59" s="0"/>
+      <c r="IX59" s="0"/>
+      <c r="IY59" s="0"/>
+      <c r="IZ59" s="0"/>
+      <c r="JA59" s="0"/>
+      <c r="JB59" s="0"/>
+      <c r="JC59" s="0"/>
+      <c r="JD59" s="0"/>
+      <c r="JE59" s="0"/>
+      <c r="JF59" s="0"/>
+      <c r="JG59" s="0"/>
+      <c r="JH59" s="0"/>
+      <c r="JI59" s="0"/>
+      <c r="JJ59" s="0"/>
+      <c r="JK59" s="0"/>
+      <c r="JL59" s="0"/>
+      <c r="JM59" s="0"/>
+      <c r="JN59" s="0"/>
+      <c r="JO59" s="0"/>
+      <c r="JP59" s="0"/>
+      <c r="JQ59" s="0"/>
+      <c r="JR59" s="0"/>
+      <c r="JS59" s="0"/>
+      <c r="JT59" s="0"/>
+      <c r="JU59" s="0"/>
+      <c r="JV59" s="0"/>
+      <c r="JW59" s="0"/>
+      <c r="JX59" s="0"/>
+      <c r="JY59" s="0"/>
+      <c r="JZ59" s="0"/>
+      <c r="KA59" s="0"/>
+      <c r="KB59" s="0"/>
+      <c r="KC59" s="0"/>
+      <c r="KD59" s="0"/>
+      <c r="KE59" s="0"/>
+      <c r="KF59" s="0"/>
+      <c r="KG59" s="0"/>
+      <c r="KH59" s="0"/>
+      <c r="KI59" s="0"/>
+      <c r="KJ59" s="0"/>
+      <c r="KK59" s="0"/>
+      <c r="KL59" s="0"/>
+      <c r="KM59" s="0"/>
+      <c r="KN59" s="0"/>
+      <c r="KO59" s="0"/>
+      <c r="KP59" s="0"/>
+      <c r="KQ59" s="0"/>
+      <c r="KR59" s="0"/>
+      <c r="KS59" s="0"/>
+      <c r="KT59" s="0"/>
+      <c r="KU59" s="0"/>
+      <c r="KV59" s="0"/>
+      <c r="KW59" s="0"/>
+      <c r="KX59" s="0"/>
+      <c r="KY59" s="0"/>
+      <c r="KZ59" s="0"/>
+      <c r="LA59" s="0"/>
+      <c r="LB59" s="0"/>
+      <c r="LC59" s="0"/>
+      <c r="LD59" s="0"/>
+      <c r="LE59" s="0"/>
+      <c r="LF59" s="0"/>
+      <c r="LG59" s="0"/>
+      <c r="LH59" s="0"/>
+      <c r="LI59" s="0"/>
+      <c r="LJ59" s="0"/>
+      <c r="LK59" s="0"/>
+      <c r="LL59" s="0"/>
+      <c r="LM59" s="0"/>
+      <c r="LN59" s="0"/>
+      <c r="LO59" s="0"/>
+      <c r="LP59" s="0"/>
+      <c r="LQ59" s="0"/>
+      <c r="LR59" s="0"/>
+      <c r="LS59" s="0"/>
+      <c r="LT59" s="0"/>
+      <c r="LU59" s="0"/>
+      <c r="LV59" s="0"/>
+      <c r="LW59" s="0"/>
+      <c r="LX59" s="0"/>
+      <c r="LY59" s="0"/>
+      <c r="LZ59" s="0"/>
+      <c r="MA59" s="0"/>
+      <c r="MB59" s="0"/>
+      <c r="MC59" s="0"/>
+      <c r="MD59" s="0"/>
+      <c r="ME59" s="0"/>
+      <c r="MF59" s="0"/>
+      <c r="MG59" s="0"/>
+      <c r="MH59" s="0"/>
+      <c r="MI59" s="0"/>
+      <c r="MJ59" s="0"/>
+      <c r="MK59" s="0"/>
+      <c r="ML59" s="0"/>
+      <c r="MM59" s="0"/>
+      <c r="MN59" s="0"/>
+      <c r="MO59" s="0"/>
+      <c r="MP59" s="0"/>
+      <c r="MQ59" s="0"/>
+      <c r="MR59" s="0"/>
+      <c r="MS59" s="0"/>
+      <c r="MT59" s="0"/>
+      <c r="MU59" s="0"/>
+      <c r="MV59" s="0"/>
+      <c r="MW59" s="0"/>
+      <c r="MX59" s="0"/>
+      <c r="MY59" s="0"/>
+      <c r="MZ59" s="0"/>
+      <c r="NA59" s="0"/>
+      <c r="NB59" s="0"/>
+      <c r="NC59" s="0"/>
+      <c r="ND59" s="0"/>
+      <c r="NE59" s="0"/>
+      <c r="NF59" s="0"/>
+      <c r="NG59" s="0"/>
+      <c r="NH59" s="0"/>
+      <c r="NI59" s="0"/>
+      <c r="NJ59" s="0"/>
+      <c r="NK59" s="0"/>
+      <c r="NL59" s="0"/>
+      <c r="NM59" s="0"/>
+      <c r="NN59" s="0"/>
+      <c r="NO59" s="0"/>
+      <c r="NP59" s="0"/>
+      <c r="NQ59" s="0"/>
+      <c r="NR59" s="0"/>
+      <c r="NS59" s="0"/>
+      <c r="NT59" s="0"/>
+      <c r="NU59" s="0"/>
+      <c r="NV59" s="0"/>
+      <c r="NW59" s="0"/>
+      <c r="NX59" s="0"/>
+      <c r="NY59" s="0"/>
+      <c r="NZ59" s="0"/>
+      <c r="OA59" s="0"/>
+      <c r="OB59" s="0"/>
+      <c r="OC59" s="0"/>
+      <c r="OD59" s="0"/>
+      <c r="OE59" s="0"/>
+      <c r="OF59" s="0"/>
+      <c r="OG59" s="0"/>
+      <c r="OH59" s="0"/>
+      <c r="OI59" s="0"/>
+      <c r="OJ59" s="0"/>
+      <c r="OK59" s="0"/>
+      <c r="OL59" s="0"/>
+      <c r="OM59" s="0"/>
+      <c r="ON59" s="0"/>
+      <c r="OO59" s="0"/>
+      <c r="OP59" s="0"/>
+      <c r="OQ59" s="0"/>
+      <c r="OR59" s="0"/>
+      <c r="OS59" s="0"/>
+      <c r="OT59" s="0"/>
+      <c r="OU59" s="0"/>
+      <c r="OV59" s="0"/>
+      <c r="OW59" s="0"/>
+      <c r="OX59" s="0"/>
+      <c r="OY59" s="0"/>
+      <c r="OZ59" s="0"/>
+      <c r="PA59" s="0"/>
+      <c r="PB59" s="0"/>
+      <c r="PC59" s="0"/>
+      <c r="PD59" s="0"/>
+      <c r="PE59" s="0"/>
+      <c r="PF59" s="0"/>
+      <c r="PG59" s="0"/>
+      <c r="PH59" s="0"/>
+      <c r="PI59" s="0"/>
+      <c r="PJ59" s="0"/>
+      <c r="PK59" s="0"/>
+      <c r="PL59" s="0"/>
+      <c r="PM59" s="0"/>
+      <c r="PN59" s="0"/>
+      <c r="PO59" s="0"/>
+      <c r="PP59" s="0"/>
+      <c r="PQ59" s="0"/>
+      <c r="PR59" s="0"/>
+      <c r="PS59" s="0"/>
+      <c r="PT59" s="0"/>
+      <c r="PU59" s="0"/>
+      <c r="PV59" s="0"/>
+      <c r="PW59" s="0"/>
+      <c r="PX59" s="0"/>
+      <c r="PY59" s="0"/>
+      <c r="PZ59" s="0"/>
+      <c r="QA59" s="0"/>
+      <c r="QB59" s="0"/>
+      <c r="QC59" s="0"/>
+      <c r="QD59" s="0"/>
+      <c r="QE59" s="0"/>
+      <c r="QF59" s="0"/>
+      <c r="QG59" s="0"/>
+      <c r="QH59" s="0"/>
+      <c r="QI59" s="0"/>
+      <c r="QJ59" s="0"/>
+      <c r="QK59" s="0"/>
+      <c r="QL59" s="0"/>
+      <c r="QM59" s="0"/>
+      <c r="QN59" s="0"/>
+      <c r="QO59" s="0"/>
+      <c r="QP59" s="0"/>
+      <c r="QQ59" s="0"/>
+      <c r="QR59" s="0"/>
+      <c r="QS59" s="0"/>
+      <c r="QT59" s="0"/>
+      <c r="QU59" s="0"/>
+      <c r="QV59" s="0"/>
+      <c r="QW59" s="0"/>
+      <c r="QX59" s="0"/>
+      <c r="QY59" s="0"/>
+      <c r="QZ59" s="0"/>
+      <c r="RA59" s="0"/>
+      <c r="RB59" s="0"/>
+      <c r="RC59" s="0"/>
+      <c r="RD59" s="0"/>
+      <c r="RE59" s="0"/>
+      <c r="RF59" s="0"/>
+      <c r="RG59" s="0"/>
+      <c r="RH59" s="0"/>
+      <c r="RI59" s="0"/>
+      <c r="RJ59" s="0"/>
+      <c r="RK59" s="0"/>
+      <c r="RL59" s="0"/>
+      <c r="RM59" s="0"/>
+      <c r="RN59" s="0"/>
+      <c r="RO59" s="0"/>
+      <c r="RP59" s="0"/>
+      <c r="RQ59" s="0"/>
+      <c r="RR59" s="0"/>
+      <c r="RS59" s="0"/>
+      <c r="RT59" s="0"/>
+      <c r="RU59" s="0"/>
+      <c r="RV59" s="0"/>
+      <c r="RW59" s="0"/>
+      <c r="RX59" s="0"/>
+      <c r="RY59" s="0"/>
+      <c r="RZ59" s="0"/>
+      <c r="SA59" s="0"/>
+      <c r="SB59" s="0"/>
+      <c r="SC59" s="0"/>
+      <c r="SD59" s="0"/>
+      <c r="SE59" s="0"/>
+      <c r="SF59" s="0"/>
+      <c r="SG59" s="0"/>
+      <c r="SH59" s="0"/>
+      <c r="SI59" s="0"/>
+      <c r="SJ59" s="0"/>
+      <c r="SK59" s="0"/>
+      <c r="SL59" s="0"/>
+      <c r="SM59" s="0"/>
+      <c r="SN59" s="0"/>
+      <c r="SO59" s="0"/>
+      <c r="SP59" s="0"/>
+      <c r="SQ59" s="0"/>
+      <c r="SR59" s="0"/>
+      <c r="SS59" s="0"/>
+      <c r="ST59" s="0"/>
+      <c r="SU59" s="0"/>
+      <c r="SV59" s="0"/>
+      <c r="SW59" s="0"/>
+      <c r="SX59" s="0"/>
+      <c r="SY59" s="0"/>
+      <c r="SZ59" s="0"/>
+      <c r="TA59" s="0"/>
+      <c r="TB59" s="0"/>
+      <c r="TC59" s="0"/>
+      <c r="TD59" s="0"/>
+      <c r="TE59" s="0"/>
+      <c r="TF59" s="0"/>
+      <c r="TG59" s="0"/>
+      <c r="TH59" s="0"/>
+      <c r="TI59" s="0"/>
+      <c r="TJ59" s="0"/>
+      <c r="TK59" s="0"/>
+      <c r="TL59" s="0"/>
+      <c r="TM59" s="0"/>
+      <c r="TN59" s="0"/>
+      <c r="TO59" s="0"/>
+      <c r="TP59" s="0"/>
+      <c r="TQ59" s="0"/>
+      <c r="TR59" s="0"/>
+      <c r="TS59" s="0"/>
+      <c r="TT59" s="0"/>
+      <c r="TU59" s="0"/>
+      <c r="TV59" s="0"/>
+      <c r="TW59" s="0"/>
+      <c r="TX59" s="0"/>
+      <c r="TY59" s="0"/>
+      <c r="TZ59" s="0"/>
+      <c r="UA59" s="0"/>
+      <c r="UB59" s="0"/>
+      <c r="UC59" s="0"/>
+      <c r="UD59" s="0"/>
+      <c r="UE59" s="0"/>
+      <c r="UF59" s="0"/>
+      <c r="UG59" s="0"/>
+      <c r="UH59" s="0"/>
+      <c r="UI59" s="0"/>
+      <c r="UJ59" s="0"/>
+      <c r="UK59" s="0"/>
+      <c r="UL59" s="0"/>
+      <c r="UM59" s="0"/>
+      <c r="UN59" s="0"/>
+      <c r="UO59" s="0"/>
+      <c r="UP59" s="0"/>
+      <c r="UQ59" s="0"/>
+      <c r="UR59" s="0"/>
+      <c r="US59" s="0"/>
+      <c r="UT59" s="0"/>
+      <c r="UU59" s="0"/>
+      <c r="UV59" s="0"/>
+      <c r="UW59" s="0"/>
+      <c r="UX59" s="0"/>
+      <c r="UY59" s="0"/>
+      <c r="UZ59" s="0"/>
+      <c r="VA59" s="0"/>
+      <c r="VB59" s="0"/>
+      <c r="VC59" s="0"/>
+      <c r="VD59" s="0"/>
+      <c r="VE59" s="0"/>
+      <c r="VF59" s="0"/>
+      <c r="VG59" s="0"/>
+      <c r="VH59" s="0"/>
+      <c r="VI59" s="0"/>
+      <c r="VJ59" s="0"/>
+      <c r="VK59" s="0"/>
+      <c r="VL59" s="0"/>
+      <c r="VM59" s="0"/>
+      <c r="VN59" s="0"/>
+      <c r="VO59" s="0"/>
+      <c r="VP59" s="0"/>
+      <c r="VQ59" s="0"/>
+      <c r="VR59" s="0"/>
+      <c r="VS59" s="0"/>
+      <c r="VT59" s="0"/>
+      <c r="VU59" s="0"/>
+      <c r="VV59" s="0"/>
+      <c r="VW59" s="0"/>
+      <c r="VX59" s="0"/>
+      <c r="VY59" s="0"/>
+      <c r="VZ59" s="0"/>
+      <c r="WA59" s="0"/>
+      <c r="WB59" s="0"/>
+      <c r="WC59" s="0"/>
+      <c r="WD59" s="0"/>
+      <c r="WE59" s="0"/>
+      <c r="WF59" s="0"/>
+      <c r="WG59" s="0"/>
+      <c r="WH59" s="0"/>
+      <c r="WI59" s="0"/>
+      <c r="WJ59" s="0"/>
+      <c r="WK59" s="0"/>
+      <c r="WL59" s="0"/>
+      <c r="WM59" s="0"/>
+      <c r="WN59" s="0"/>
+      <c r="WO59" s="0"/>
+      <c r="WP59" s="0"/>
+      <c r="WQ59" s="0"/>
+      <c r="WR59" s="0"/>
+      <c r="WS59" s="0"/>
+      <c r="WT59" s="0"/>
+      <c r="WU59" s="0"/>
+      <c r="WV59" s="0"/>
+      <c r="WW59" s="0"/>
+      <c r="WX59" s="0"/>
+      <c r="WY59" s="0"/>
+      <c r="WZ59" s="0"/>
+      <c r="XA59" s="0"/>
+      <c r="XB59" s="0"/>
+      <c r="XC59" s="0"/>
+      <c r="XD59" s="0"/>
+      <c r="XE59" s="0"/>
+      <c r="XF59" s="0"/>
+      <c r="XG59" s="0"/>
+      <c r="XH59" s="0"/>
+      <c r="XI59" s="0"/>
+      <c r="XJ59" s="0"/>
+      <c r="XK59" s="0"/>
+      <c r="XL59" s="0"/>
+      <c r="XM59" s="0"/>
+      <c r="XN59" s="0"/>
+      <c r="XO59" s="0"/>
+      <c r="XP59" s="0"/>
+      <c r="XQ59" s="0"/>
+      <c r="XR59" s="0"/>
+      <c r="XS59" s="0"/>
+      <c r="XT59" s="0"/>
+      <c r="XU59" s="0"/>
+      <c r="XV59" s="0"/>
+      <c r="XW59" s="0"/>
+      <c r="XX59" s="0"/>
+      <c r="XY59" s="0"/>
+      <c r="XZ59" s="0"/>
+      <c r="YA59" s="0"/>
+      <c r="YB59" s="0"/>
+      <c r="YC59" s="0"/>
+      <c r="YD59" s="0"/>
+      <c r="YE59" s="0"/>
+      <c r="YF59" s="0"/>
+      <c r="YG59" s="0"/>
+      <c r="YH59" s="0"/>
+      <c r="YI59" s="0"/>
+      <c r="YJ59" s="0"/>
+      <c r="YK59" s="0"/>
+      <c r="YL59" s="0"/>
+      <c r="YM59" s="0"/>
+      <c r="YN59" s="0"/>
+      <c r="YO59" s="0"/>
+      <c r="YP59" s="0"/>
+      <c r="YQ59" s="0"/>
+      <c r="YR59" s="0"/>
+      <c r="YS59" s="0"/>
+      <c r="YT59" s="0"/>
+      <c r="YU59" s="0"/>
+      <c r="YV59" s="0"/>
+      <c r="YW59" s="0"/>
+      <c r="YX59" s="0"/>
+      <c r="YY59" s="0"/>
+      <c r="YZ59" s="0"/>
+      <c r="ZA59" s="0"/>
+      <c r="ZB59" s="0"/>
+      <c r="ZC59" s="0"/>
+      <c r="ZD59" s="0"/>
+      <c r="ZE59" s="0"/>
+      <c r="ZF59" s="0"/>
+      <c r="ZG59" s="0"/>
+      <c r="ZH59" s="0"/>
+      <c r="ZI59" s="0"/>
+      <c r="ZJ59" s="0"/>
+      <c r="ZK59" s="0"/>
+      <c r="ZL59" s="0"/>
+      <c r="ZM59" s="0"/>
+      <c r="ZN59" s="0"/>
+      <c r="ZO59" s="0"/>
+      <c r="ZP59" s="0"/>
+      <c r="ZQ59" s="0"/>
+      <c r="ZR59" s="0"/>
+      <c r="ZS59" s="0"/>
+      <c r="ZT59" s="0"/>
+      <c r="ZU59" s="0"/>
+      <c r="ZV59" s="0"/>
+      <c r="ZW59" s="0"/>
+      <c r="ZX59" s="0"/>
+      <c r="ZY59" s="0"/>
+      <c r="ZZ59" s="0"/>
+      <c r="AAA59" s="0"/>
+      <c r="AAB59" s="0"/>
+      <c r="AAC59" s="0"/>
+      <c r="AAD59" s="0"/>
+      <c r="AAE59" s="0"/>
+      <c r="AAF59" s="0"/>
+      <c r="AAG59" s="0"/>
+      <c r="AAH59" s="0"/>
+      <c r="AAI59" s="0"/>
+      <c r="AAJ59" s="0"/>
+      <c r="AAK59" s="0"/>
+      <c r="AAL59" s="0"/>
+      <c r="AAM59" s="0"/>
+      <c r="AAN59" s="0"/>
+      <c r="AAO59" s="0"/>
+      <c r="AAP59" s="0"/>
+      <c r="AAQ59" s="0"/>
+      <c r="AAR59" s="0"/>
+      <c r="AAS59" s="0"/>
+      <c r="AAT59" s="0"/>
+      <c r="AAU59" s="0"/>
+      <c r="AAV59" s="0"/>
+      <c r="AAW59" s="0"/>
+      <c r="AAX59" s="0"/>
+      <c r="AAY59" s="0"/>
+      <c r="AAZ59" s="0"/>
+      <c r="ABA59" s="0"/>
+      <c r="ABB59" s="0"/>
+      <c r="ABC59" s="0"/>
+      <c r="ABD59" s="0"/>
+      <c r="ABE59" s="0"/>
+      <c r="ABF59" s="0"/>
+      <c r="ABG59" s="0"/>
+      <c r="ABH59" s="0"/>
+      <c r="ABI59" s="0"/>
+      <c r="ABJ59" s="0"/>
+      <c r="ABK59" s="0"/>
+      <c r="ABL59" s="0"/>
+      <c r="ABM59" s="0"/>
+      <c r="ABN59" s="0"/>
+      <c r="ABO59" s="0"/>
+      <c r="ABP59" s="0"/>
+      <c r="ABQ59" s="0"/>
+      <c r="ABR59" s="0"/>
+      <c r="ABS59" s="0"/>
+      <c r="ABT59" s="0"/>
+      <c r="ABU59" s="0"/>
+      <c r="ABV59" s="0"/>
+      <c r="ABW59" s="0"/>
+      <c r="ABX59" s="0"/>
+      <c r="ABY59" s="0"/>
+      <c r="ABZ59" s="0"/>
+      <c r="ACA59" s="0"/>
+      <c r="ACB59" s="0"/>
+      <c r="ACC59" s="0"/>
+      <c r="ACD59" s="0"/>
+      <c r="ACE59" s="0"/>
+      <c r="ACF59" s="0"/>
+      <c r="ACG59" s="0"/>
+      <c r="ACH59" s="0"/>
+      <c r="ACI59" s="0"/>
+      <c r="ACJ59" s="0"/>
+      <c r="ACK59" s="0"/>
+      <c r="ACL59" s="0"/>
+      <c r="ACM59" s="0"/>
+      <c r="ACN59" s="0"/>
+      <c r="ACO59" s="0"/>
+      <c r="ACP59" s="0"/>
+      <c r="ACQ59" s="0"/>
+      <c r="ACR59" s="0"/>
+      <c r="ACS59" s="0"/>
+      <c r="ACT59" s="0"/>
+      <c r="ACU59" s="0"/>
+      <c r="ACV59" s="0"/>
+      <c r="ACW59" s="0"/>
+      <c r="ACX59" s="0"/>
+      <c r="ACY59" s="0"/>
+      <c r="ACZ59" s="0"/>
+      <c r="ADA59" s="0"/>
+      <c r="ADB59" s="0"/>
+      <c r="ADC59" s="0"/>
+      <c r="ADD59" s="0"/>
+      <c r="ADE59" s="0"/>
+      <c r="ADF59" s="0"/>
+      <c r="ADG59" s="0"/>
+      <c r="ADH59" s="0"/>
+      <c r="ADI59" s="0"/>
+      <c r="ADJ59" s="0"/>
+      <c r="ADK59" s="0"/>
+      <c r="ADL59" s="0"/>
+      <c r="ADM59" s="0"/>
+      <c r="ADN59" s="0"/>
+      <c r="ADO59" s="0"/>
+      <c r="ADP59" s="0"/>
+      <c r="ADQ59" s="0"/>
+      <c r="ADR59" s="0"/>
+      <c r="ADS59" s="0"/>
+      <c r="ADT59" s="0"/>
+      <c r="ADU59" s="0"/>
+      <c r="ADV59" s="0"/>
+      <c r="ADW59" s="0"/>
+      <c r="ADX59" s="0"/>
+      <c r="ADY59" s="0"/>
+      <c r="ADZ59" s="0"/>
+      <c r="AEA59" s="0"/>
+      <c r="AEB59" s="0"/>
+      <c r="AEC59" s="0"/>
+      <c r="AED59" s="0"/>
+      <c r="AEE59" s="0"/>
+      <c r="AEF59" s="0"/>
+      <c r="AEG59" s="0"/>
+      <c r="AEH59" s="0"/>
+      <c r="AEI59" s="0"/>
+      <c r="AEJ59" s="0"/>
+      <c r="AEK59" s="0"/>
+      <c r="AEL59" s="0"/>
+      <c r="AEM59" s="0"/>
+      <c r="AEN59" s="0"/>
+      <c r="AEO59" s="0"/>
+      <c r="AEP59" s="0"/>
+      <c r="AEQ59" s="0"/>
+      <c r="AER59" s="0"/>
+      <c r="AES59" s="0"/>
+      <c r="AET59" s="0"/>
+      <c r="AEU59" s="0"/>
+      <c r="AEV59" s="0"/>
+      <c r="AEW59" s="0"/>
+      <c r="AEX59" s="0"/>
+      <c r="AEY59" s="0"/>
+      <c r="AEZ59" s="0"/>
+      <c r="AFA59" s="0"/>
+      <c r="AFB59" s="0"/>
+      <c r="AFC59" s="0"/>
+      <c r="AFD59" s="0"/>
+      <c r="AFE59" s="0"/>
+      <c r="AFF59" s="0"/>
+      <c r="AFG59" s="0"/>
+      <c r="AFH59" s="0"/>
+      <c r="AFI59" s="0"/>
+      <c r="AFJ59" s="0"/>
+      <c r="AFK59" s="0"/>
+      <c r="AFL59" s="0"/>
+      <c r="AFM59" s="0"/>
+      <c r="AFN59" s="0"/>
+      <c r="AFO59" s="0"/>
+      <c r="AFP59" s="0"/>
+      <c r="AFQ59" s="0"/>
+      <c r="AFR59" s="0"/>
+      <c r="AFS59" s="0"/>
+      <c r="AFT59" s="0"/>
+      <c r="AFU59" s="0"/>
+      <c r="AFV59" s="0"/>
+      <c r="AFW59" s="0"/>
+      <c r="AFX59" s="0"/>
+      <c r="AFY59" s="0"/>
+      <c r="AFZ59" s="0"/>
+      <c r="AGA59" s="0"/>
+      <c r="AGB59" s="0"/>
+      <c r="AGC59" s="0"/>
+      <c r="AGD59" s="0"/>
+      <c r="AGE59" s="0"/>
+      <c r="AGF59" s="0"/>
+      <c r="AGG59" s="0"/>
+      <c r="AGH59" s="0"/>
+      <c r="AGI59" s="0"/>
+      <c r="AGJ59" s="0"/>
+      <c r="AGK59" s="0"/>
+      <c r="AGL59" s="0"/>
+      <c r="AGM59" s="0"/>
+      <c r="AGN59" s="0"/>
+      <c r="AGO59" s="0"/>
+      <c r="AGP59" s="0"/>
+      <c r="AGQ59" s="0"/>
+      <c r="AGR59" s="0"/>
+      <c r="AGS59" s="0"/>
+      <c r="AGT59" s="0"/>
+      <c r="AGU59" s="0"/>
+      <c r="AGV59" s="0"/>
+      <c r="AGW59" s="0"/>
+      <c r="AGX59" s="0"/>
+      <c r="AGY59" s="0"/>
+      <c r="AGZ59" s="0"/>
+      <c r="AHA59" s="0"/>
+      <c r="AHB59" s="0"/>
+      <c r="AHC59" s="0"/>
+      <c r="AHD59" s="0"/>
+      <c r="AHE59" s="0"/>
+      <c r="AHF59" s="0"/>
+      <c r="AHG59" s="0"/>
+      <c r="AHH59" s="0"/>
+      <c r="AHI59" s="0"/>
+      <c r="AHJ59" s="0"/>
+      <c r="AHK59" s="0"/>
+      <c r="AHL59" s="0"/>
+      <c r="AHM59" s="0"/>
+      <c r="AHN59" s="0"/>
+      <c r="AHO59" s="0"/>
+      <c r="AHP59" s="0"/>
+      <c r="AHQ59" s="0"/>
+      <c r="AHR59" s="0"/>
+      <c r="AHS59" s="0"/>
+      <c r="AHT59" s="0"/>
+      <c r="AHU59" s="0"/>
+      <c r="AHV59" s="0"/>
+      <c r="AHW59" s="0"/>
+      <c r="AHX59" s="0"/>
+      <c r="AHY59" s="0"/>
+      <c r="AHZ59" s="0"/>
+      <c r="AIA59" s="0"/>
+      <c r="AIB59" s="0"/>
+      <c r="AIC59" s="0"/>
+      <c r="AID59" s="0"/>
+      <c r="AIE59" s="0"/>
+      <c r="AIF59" s="0"/>
+      <c r="AIG59" s="0"/>
+      <c r="AIH59" s="0"/>
+      <c r="AII59" s="0"/>
+      <c r="AIJ59" s="0"/>
+      <c r="AIK59" s="0"/>
+      <c r="AIL59" s="0"/>
+      <c r="AIM59" s="0"/>
+      <c r="AIN59" s="0"/>
+      <c r="AIO59" s="0"/>
+      <c r="AIP59" s="0"/>
+      <c r="AIQ59" s="0"/>
+      <c r="AIR59" s="0"/>
+      <c r="AIS59" s="0"/>
+      <c r="AIT59" s="0"/>
+      <c r="AIU59" s="0"/>
+      <c r="AIV59" s="0"/>
+      <c r="AIW59" s="0"/>
+      <c r="AIX59" s="0"/>
+      <c r="AIY59" s="0"/>
+      <c r="AIZ59" s="0"/>
+      <c r="AJA59" s="0"/>
+      <c r="AJB59" s="0"/>
+      <c r="AJC59" s="0"/>
+      <c r="AJD59" s="0"/>
+      <c r="AJE59" s="0"/>
+      <c r="AJF59" s="0"/>
+      <c r="AJG59" s="0"/>
+      <c r="AJH59" s="0"/>
+      <c r="AJI59" s="0"/>
+      <c r="AJJ59" s="0"/>
+      <c r="AJK59" s="0"/>
+      <c r="AJL59" s="0"/>
+      <c r="AJM59" s="0"/>
+      <c r="AJN59" s="0"/>
+      <c r="AJO59" s="0"/>
+      <c r="AJP59" s="0"/>
+      <c r="AJQ59" s="0"/>
+      <c r="AJR59" s="0"/>
+      <c r="AJS59" s="0"/>
+      <c r="AJT59" s="0"/>
+      <c r="AJU59" s="0"/>
+      <c r="AJV59" s="0"/>
+      <c r="AJW59" s="0"/>
+      <c r="AJX59" s="0"/>
+      <c r="AJY59" s="0"/>
+      <c r="AJZ59" s="0"/>
+      <c r="AKA59" s="0"/>
+      <c r="AKB59" s="0"/>
+      <c r="AKC59" s="0"/>
+      <c r="AKD59" s="0"/>
+      <c r="AKE59" s="0"/>
+      <c r="AKF59" s="0"/>
+      <c r="AKG59" s="0"/>
+      <c r="AKH59" s="0"/>
+      <c r="AKI59" s="0"/>
+      <c r="AKJ59" s="0"/>
+      <c r="AKK59" s="0"/>
+      <c r="AKL59" s="0"/>
+      <c r="AKM59" s="0"/>
+      <c r="AKN59" s="0"/>
+      <c r="AKO59" s="0"/>
+      <c r="AKP59" s="0"/>
+      <c r="AKQ59" s="0"/>
+      <c r="AKR59" s="0"/>
+      <c r="AKS59" s="0"/>
+      <c r="AKT59" s="0"/>
+      <c r="AKU59" s="0"/>
+      <c r="AKV59" s="0"/>
+      <c r="AKW59" s="0"/>
+      <c r="AKX59" s="0"/>
+      <c r="AKY59" s="0"/>
+      <c r="AKZ59" s="0"/>
+      <c r="ALA59" s="0"/>
+      <c r="ALB59" s="0"/>
+      <c r="ALC59" s="0"/>
+      <c r="ALD59" s="0"/>
+      <c r="ALE59" s="0"/>
+      <c r="ALF59" s="0"/>
+      <c r="ALG59" s="0"/>
+      <c r="ALH59" s="0"/>
+      <c r="ALI59" s="0"/>
+      <c r="ALJ59" s="0"/>
+      <c r="ALK59" s="0"/>
+      <c r="ALL59" s="0"/>
+      <c r="ALM59" s="0"/>
+      <c r="ALN59" s="0"/>
+      <c r="ALO59" s="0"/>
+      <c r="ALP59" s="0"/>
+      <c r="ALQ59" s="0"/>
+      <c r="ALR59" s="0"/>
+      <c r="ALS59" s="0"/>
+      <c r="ALT59" s="0"/>
+      <c r="ALU59" s="0"/>
+      <c r="ALV59" s="0"/>
+      <c r="ALW59" s="0"/>
+      <c r="ALX59" s="0"/>
+      <c r="ALY59" s="0"/>
+      <c r="ALZ59" s="0"/>
+      <c r="AMA59" s="0"/>
+      <c r="AMB59" s="0"/>
+      <c r="AMC59" s="0"/>
+      <c r="AMD59" s="0"/>
+      <c r="AME59" s="0"/>
+      <c r="AMF59" s="0"/>
+      <c r="AMG59" s="0"/>
+      <c r="AMH59" s="0"/>
+      <c r="AMI59" s="0"/>
+      <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21"/>
-      <c r="B60" s="27" t="s">
-        <v>82</v>
+    <row r="60" s="21" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="28" t="s">
+        <v>47</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
-      <c r="H60" s="0"/>
+      <c r="C60" s="28"/>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0"/>
-      <c r="B61" s="9" t="s">
-        <v>83</v>
+    <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21"/>
+      <c r="B61" s="18" t="s">
+        <v>97</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="0"/>
+      <c r="C61" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>99</v>
+      </c>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
       <c r="G61" s="0"/>
       <c r="H61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="28" t="s">
-        <v>84</v>
+    <row r="62" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21"/>
+      <c r="B62" s="29" t="s">
+        <v>100</v>
       </c>
-      <c r="C62" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="C62" s="29"/>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
       <c r="F62" s="0"/>
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
-      <c r="B63" s="29" t="s">
-        <v>83</v>
+      <c r="B63" s="9" t="s">
+        <v>101</v>
       </c>
-      <c r="C63" s="29"/>
+      <c r="C63" s="9"/>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
       <c r="G63" s="0"/>
       <c r="H63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
       <c r="B64" s="30" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
@@ -57882,9 +60024,11 @@
       <c r="G64" s="0"/>
       <c r="H64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
-      <c r="B65" s="31"/>
+      <c r="B65" s="31" t="s">
+        <v>101</v>
+      </c>
       <c r="C65" s="31"/>
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
@@ -57892,23 +60036,23 @@
       <c r="G65" s="0"/>
       <c r="H65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
       <c r="B66" s="32" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
-      <c r="C66" s="32"/>
+      <c r="C66" s="32" t="s">
+        <v>105</v>
+      </c>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="0"/>
       <c r="G66" s="0"/>
       <c r="H66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="33" t="s">
-        <v>89</v>
-      </c>
+      <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
@@ -57916,63 +60060,67 @@
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
+      <c r="B68" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="34"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
+      <c r="B69" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" s="35"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="9"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="34"/>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
+      <c r="B72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="9"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="35"/>
+      <c r="B73" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="C73" s="36"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
@@ -57980,111 +60128,103 @@
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="38"/>
+    <row r="74" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="23"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
-      <c r="B76" s="23" t="s">
-        <v>93</v>
+    <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40" t="s">
+        <v>109</v>
       </c>
-      <c r="C76" s="23"/>
+      <c r="C76" s="40"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C77" s="24"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="9" t="s">
-        <v>94</v>
+      <c r="B78" s="24" t="s">
+        <v>111</v>
       </c>
-      <c r="C78" s="9"/>
+      <c r="C78" s="24"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="B79" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="40"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
-      <c r="B80" s="41" t="s">
-        <v>96</v>
+      <c r="B80" s="9" t="s">
+        <v>112</v>
       </c>
-      <c r="C80" s="41" t="s">
-        <v>97</v>
-      </c>
+      <c r="C80" s="9"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
       <c r="B81" s="42" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>99</v>
-      </c>
+      <c r="C81" s="42"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="B82" s="42" t="s">
-        <v>100</v>
+      <c r="B82" s="43" t="s">
+        <v>114</v>
       </c>
-      <c r="C82" s="42" t="s">
-        <v>101</v>
+      <c r="C82" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
@@ -58092,101 +60232,111 @@
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
+      <c r="B83" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>117</v>
+      </c>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="43" t="s">
-        <v>102</v>
+      <c r="B84" s="44" t="s">
+        <v>118</v>
       </c>
-      <c r="C84" s="43" t="s">
-        <v>103</v>
+      <c r="C84" s="44" t="s">
+        <v>119</v>
       </c>
-      <c r="D84" s="44" t="s">
-        <v>104</v>
-      </c>
+      <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="45"/>
-      <c r="B85" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="48" t="s">
-        <v>107</v>
-      </c>
+    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="46" t="s">
-        <v>108</v>
+      <c r="B86" s="45" t="s">
+        <v>120</v>
       </c>
-      <c r="C86" s="47" t="s">
-        <v>109</v>
+      <c r="C86" s="45" t="s">
+        <v>121</v>
       </c>
-      <c r="D86" s="48" t="s">
-        <v>110</v>
+      <c r="D86" s="46" t="s">
+        <v>122</v>
       </c>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="37"/>
-      <c r="B87" s="49" t="s">
-        <v>111</v>
+    <row r="87" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="47"/>
+      <c r="B87" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
-      <c r="D87" s="48" t="s">
-        <v>113</v>
+      <c r="D87" s="50" t="s">
+        <v>125</v>
       </c>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="0"/>
+    <row r="88" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>128</v>
+      </c>
       <c r="E88" s="0"/>
       <c r="F88" s="0"/>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="0"/>
+    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="39"/>
+      <c r="B89" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>131</v>
+      </c>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="0"/>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
@@ -58194,364 +60344,382 @@
       <c r="H90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="0"/>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
+      <c r="H91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="45"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="45"/>
-      <c r="G97" s="45"/>
-      <c r="H97" s="45"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45"/>
-      <c r="G98" s="45"/>
-      <c r="H98" s="45"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47"/>
+      <c r="F98" s="47"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="45"/>
-      <c r="G99" s="45"/>
-      <c r="H99" s="45"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="47"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="47"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45"/>
-      <c r="G100" s="45"/>
-      <c r="H100" s="45"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
-      <c r="H101" s="45"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="47"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="45"/>
-      <c r="G105" s="45"/>
-      <c r="H105" s="45"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+      <c r="F106" s="47"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="47"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="45"/>
-      <c r="G107" s="45"/>
-      <c r="H107" s="45"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="47"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
-      <c r="H108" s="45"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="45"/>
-      <c r="G109" s="45"/>
-      <c r="H109" s="45"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="47"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="45"/>
-      <c r="G110" s="45"/>
-      <c r="H110" s="45"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="47"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="45"/>
-      <c r="G111" s="45"/>
-      <c r="H111" s="45"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="45"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="45"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="45"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="45"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="45"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="45"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="45"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="45"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="45"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="45"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="45"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="45"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="45"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="45"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
-      <c r="H123" s="45"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="45"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="45"/>
-      <c r="H125" s="45"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="45"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="45"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="45"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="47"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="45"/>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="45"/>
-      <c r="G127" s="45"/>
-      <c r="H127" s="45"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="47"/>
+      <c r="D127" s="47"/>
+      <c r="E127" s="47"/>
+      <c r="F127" s="47"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="47"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="45"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="45"/>
-      <c r="G128" s="45"/>
-      <c r="H128" s="45"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="47"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="45"/>
-      <c r="G129" s="45"/>
-      <c r="H129" s="45"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="45"/>
-      <c r="G130" s="45"/>
-      <c r="H130" s="45"/>
+      <c r="B130" s="47"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="47"/>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="47"/>
+      <c r="C131" s="47"/>
+      <c r="D131" s="47"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="47"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -58569,30 +60737,30 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C70"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C74"/>
     <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C85" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C86" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C87" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C88" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -58633,207 +60801,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
-        <v>115</v>
+      <c r="A5" s="52" t="s">
+        <v>133</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>116</v>
+      <c r="C5" s="52" t="s">
+        <v>134</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>117</v>
+      <c r="D5" s="52" t="s">
+        <v>135</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>118</v>
+      <c r="E5" s="52" t="s">
+        <v>136</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>119</v>
+      <c r="G5" s="52" t="s">
+        <v>137</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>120</v>
+      <c r="I5" s="52" t="s">
+        <v>138</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
-        <v>121</v>
+      <c r="A6" s="52" t="s">
+        <v>139</v>
       </c>
-      <c r="B6" s="50" t="s">
-        <v>122</v>
+      <c r="B6" s="52" t="s">
+        <v>140</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>123</v>
+      <c r="C6" s="52" t="s">
+        <v>141</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>124</v>
+      <c r="D6" s="52" t="s">
+        <v>142</v>
       </c>
-      <c r="E6" s="50" t="s">
-        <v>125</v>
+      <c r="E6" s="52" t="s">
+        <v>143</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>126</v>
+      <c r="F6" s="52" t="s">
+        <v>144</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>127</v>
+      <c r="G6" s="52" t="s">
+        <v>145</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>128</v>
+      <c r="H6" s="52" t="s">
+        <v>146</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>129</v>
+      <c r="I6" s="52" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="51" t="s">
-        <v>130</v>
+      <c r="B7" s="53" t="s">
+        <v>148</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>131</v>
+      <c r="C7" s="54" t="s">
+        <v>149</v>
       </c>
-      <c r="D7" s="51" t="s">
-        <v>132</v>
+      <c r="D7" s="53" t="s">
+        <v>150</v>
       </c>
-      <c r="E7" s="53" t="s">
-        <v>133</v>
+      <c r="E7" s="55" t="s">
+        <v>151</v>
       </c>
-      <c r="F7" s="52" t="s">
-        <v>134</v>
+      <c r="F7" s="54" t="s">
+        <v>152</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>135</v>
+      <c r="G7" s="54" t="s">
+        <v>153</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>136</v>
+      <c r="I7" s="56" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="51" t="s">
-        <v>137</v>
+      <c r="B8" s="53" t="s">
+        <v>155</v>
       </c>
-      <c r="C8" s="52" t="s">
-        <v>138</v>
+      <c r="C8" s="54" t="s">
+        <v>156</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>139</v>
+      <c r="D8" s="53" t="s">
+        <v>157</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>140</v>
+      <c r="E8" s="53" t="s">
+        <v>158</v>
       </c>
-      <c r="F8" s="51" t="s">
-        <v>141</v>
+      <c r="F8" s="53" t="s">
+        <v>159</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>142</v>
+      <c r="H8" s="54" t="s">
+        <v>160</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>143</v>
+      <c r="I8" s="56" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="51" t="s">
-        <v>144</v>
+      <c r="B9" s="53" t="s">
+        <v>162</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>145</v>
+      <c r="C9" s="54" t="s">
+        <v>163</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>146</v>
+      <c r="D9" s="53" t="s">
+        <v>164</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>147</v>
+      <c r="E9" s="55" t="s">
+        <v>165</v>
       </c>
-      <c r="F9" s="51" t="s">
-        <v>148</v>
+      <c r="F9" s="53" t="s">
+        <v>166</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>149</v>
+      <c r="I9" s="56" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="52" t="s">
-        <v>67</v>
+      <c r="B10" s="54" t="s">
+        <v>78</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>150</v>
+      <c r="C10" s="54" t="s">
+        <v>168</v>
       </c>
-      <c r="I10" s="54" t="s">
-        <v>151</v>
+      <c r="I10" s="56" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="52" t="s">
-        <v>152</v>
+      <c r="B11" s="54" t="s">
+        <v>170</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>153</v>
+      <c r="C11" s="54" t="s">
+        <v>171</v>
       </c>
-      <c r="I11" s="55" t="s">
-        <v>154</v>
+      <c r="I11" s="57" t="s">
+        <v>172</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="52" t="s">
-        <v>155</v>
+      <c r="B12" s="54" t="s">
+        <v>173</v>
       </c>
-      <c r="C12" s="52" t="s">
-        <v>156</v>
+      <c r="C12" s="54" t="s">
+        <v>174</v>
       </c>
-      <c r="I12" s="55" t="s">
-        <v>157</v>
+      <c r="I12" s="57" t="s">
+        <v>175</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="52" t="s">
-        <v>158</v>
+      <c r="B13" s="54" t="s">
+        <v>176</v>
       </c>
-      <c r="I13" s="55" t="s">
-        <v>159</v>
+      <c r="I13" s="57" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="52" t="s">
-        <v>160</v>
+      <c r="B14" s="54" t="s">
+        <v>178</v>
       </c>
-      <c r="I14" s="55" t="s">
-        <v>161</v>
+      <c r="I14" s="57" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52" t="s">
-        <v>162</v>
+      <c r="B18" s="54" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="51" t="s">
-        <v>115</v>
+      <c r="B19" s="53" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="53" t="s">
-        <v>163</v>
+      <c r="B20" s="55" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="183">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -48,6 +48,9 @@
     <t>Cronograma_organizacional</t>
   </si>
   <si>
+    <t>Capacitación</t>
+  </si>
+  <si>
     <t>Minuta Arranque de proyecto</t>
   </si>
   <si>
@@ -57,13 +60,13 @@
     <t>Ventas</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>PTL Estimación</t>
   </si>
   <si>
     <t>PTL_Estimación</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>Planeación</t>
@@ -174,10 +177,10 @@
     <t>PTL_Solicitud_Cambios</t>
   </si>
   <si>
-    <t>Proyectos</t>
+    <t>Fecha de creación de documento</t>
   </si>
   <si>
-    <t>Fecha de creación de documento</t>
+    <t>Proyectos</t>
   </si>
   <si>
     <t>Año</t>
@@ -186,25 +189,28 @@
     <t>Minutas de Proyectos</t>
   </si>
   <si>
-    <t>Minuta de Compromiso</t>
+    <t>Semanalmente</t>
   </si>
   <si>
-    <t>Semanalmente</t>
+    <t>Minuta de Compromiso</t>
   </si>
   <si>
     <t>Referencia calidad productos y procesos como prospectación</t>
   </si>
   <si>
+    <t>Se genera por cada proyecto</t>
+  </si>
+  <si>
     <t>Checklist_Calidad_aammdd</t>
   </si>
   <si>
-    <t>Se genera por cada proyecto</t>
+    <t>Semestral (plan de calidad y proceso de calidad), Anual(Plan de métricas  y configuración)</t>
   </si>
   <si>
     <t>Checklist_organizacional_aammdd</t>
   </si>
   <si>
-    <t>Semestral (plan de calidad y proceso de calidad), Anual(Plan de métricas  y configuración)</t>
+    <t>Después de generar checklist de calidad Organizacional</t>
   </si>
   <si>
     <t>No conformidades</t>
@@ -213,13 +219,13 @@
     <t>No_conformidades_organizacional</t>
   </si>
   <si>
-    <t>Después de generar checklist de calidad Organizacional</t>
+    <t>Después de generar checklist de calidad</t>
   </si>
   <si>
     <t>No_conformidades</t>
   </si>
   <si>
-    <t>Después de generar checklist de calidad</t>
+    <t>una vez por año, se actualiza de manera quincenal</t>
   </si>
   <si>
     <t>Concentrado de métricas</t>
@@ -228,22 +234,19 @@
     <t>Concentrado_métricas_aaaa</t>
   </si>
   <si>
-    <t>una vez por año, se actualiza de manera quincenal</t>
+    <t>una vez por año, actualizandose quincenalmente</t>
   </si>
   <si>
     <t>Acciones_correctivas_aaaa</t>
   </si>
   <si>
-    <t>una vez por año, actualizandose quincenalmente</t>
+    <t>Quincenalmente</t>
   </si>
   <si>
     <t>Reporte de monitoreo</t>
   </si>
   <si>
     <t>Reporte_monitoreo_aammdd</t>
-  </si>
-  <si>
-    <t>Quincenalmente</t>
   </si>
   <si>
     <t>Minuta de monitoreo</t>
@@ -258,10 +261,10 @@
     <t>&lt;nombreproyecto&gt;</t>
   </si>
   <si>
-    <t>Estimación</t>
+    <t>Durante la etapa de ventas</t>
   </si>
   <si>
-    <t>Durante la etapa de ventas</t>
+    <t>Estimación</t>
   </si>
   <si>
     <t>Cotización</t>
@@ -273,16 +276,19 @@
     <t>img_comprobante</t>
   </si>
   <si>
+    <t>Durante la etapa de planeación</t>
+  </si>
+  <si>
     <t>Plan de Proyecto</t>
   </si>
   <si>
     <t>Plan_de_proyecto</t>
   </si>
   <si>
-    <t>Durante la etapa de planeación</t>
+    <t>Cierre</t>
   </si>
   <si>
-    <t>Cierre</t>
+    <t>al finalizar etapa de cierre</t>
   </si>
   <si>
     <t>Encuesta de satisfacción</t>
@@ -291,7 +297,7 @@
     <t>Encuesta_satisfacción</t>
   </si>
   <si>
-    <t>al finalizar etapa de cierre</t>
+    <t>Durante etapa de cierre</t>
   </si>
   <si>
     <t>Carta de aceptación</t>
@@ -300,28 +306,25 @@
     <t>Carta aceptación</t>
   </si>
   <si>
-    <t>Durante etapa de cierre</t>
+    <t>al finalizar proyecto</t>
   </si>
   <si>
     <t>Checklist de calidad</t>
   </si>
   <si>
-    <t>al finalizar proyecto</t>
+    <t>al finalizar checklist de calidad</t>
   </si>
   <si>
     <t>Reporte no conformidades</t>
   </si>
   <si>
-    <t>al finalizar checklist de calidad</t>
+    <t>después de la etapa de ventas pero antes de cierre</t>
   </si>
   <si>
     <t>Solicitud de cambio</t>
   </si>
   <si>
     <t>Solicitud de cambios_aammdd</t>
-  </si>
-  <si>
-    <t>después de la etapa de ventas pero antes de cierre</t>
   </si>
   <si>
     <t>La linea base representa un espejo de la configuración del árbol principal, para acceder a ella es necesario cambiar de rama con git checkout base y seguir los documentos acorde a la configuración demostrada en el item de configuración anterior (carpeta de proyecto).</t>
@@ -395,13 +398,16 @@
     <t>este rol cuenta con privilegios para leer y agregar elementos en cualquier area exepto en , no pueden exportar o importar elementos de ninguna categoria y finalmente en actualización y eliminación solo lo pueden hacer en elementos personales.</t>
   </si>
   <si>
+    <t>Descripción</t>
+  </si>
+  <si>
     <t>Herramientas de Trabajo</t>
   </si>
   <si>
     <t>Dirección</t>
   </si>
   <si>
-    <t>Descripción</t>
+    <t>Almacena todas las salidas del ciclo de vida que no se encuentran dentro de bitrix tales como estimación, plan de proyecto, carta de aceptación, cotización, documentos organizacionales, calidad y métricas.</t>
   </si>
   <si>
     <t>GitHub (bajo el gestor source tree)</t>
@@ -410,7 +416,7 @@
     <t>https://github.com/Ricardo5/SOSQTP</t>
   </si>
   <si>
-    <t>Almacena todas las salidas del ciclo de vida que no se encuentran dentro de bitrix tales como estimación, plan de proyecto, carta de aceptación, cotización, documentos organizacionales, calidad y métricas.</t>
+    <t>Almacena los prospectos, Deals del cliente, tareas, herramientas de seguimiento.</t>
   </si>
   <si>
     <t>Bitrix</t>
@@ -419,16 +425,13 @@
     <t>https://contpaqi911.bitrix24.com/</t>
   </si>
   <si>
-    <t>Almacena los prospectos, Deals del cliente, tareas, herramientas de seguimiento.</t>
+    <t>Almacena los productos y servicios que vende SOS, usuarios del sistema, roles de la empresa y guías de requerimientos.</t>
   </si>
   <si>
     <t>Sos Software</t>
   </si>
   <si>
     <t>http://54.200.193.96:8080/</t>
-  </si>
-  <si>
-    <t>Almacena los productos y servicios que vende SOS, usuarios del sistema, roles de la empresa y guías de requerimientos.</t>
   </si>
   <si>
     <t>Artefactos</t>
@@ -880,7 +883,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -939,6 +942,14 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1029,16 +1040,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1061,10 +1072,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,16 +1080,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1191,10 +1202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:132"/>
+  <dimension ref="1:133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -7421,13 +7432,11 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -8453,10 +8462,12 @@
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="16"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -9479,14 +9490,12 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>12</v>
-      </c>
+      <c r="C10" s="18"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -10511,12 +10520,14 @@
     </row>
     <row r="11" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="19"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11539,14 +11550,12 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -12571,10 +12580,12 @@
     </row>
     <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -13597,14 +13608,12 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>19</v>
-      </c>
+      <c r="C14" s="18"/>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -14627,13 +14636,13 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -15657,13 +15666,13 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -16687,13 +16696,13 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
@@ -17719,10 +17728,12 @@
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16"/>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
@@ -18745,14 +18756,12 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
       <c r="B19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>28</v>
-      </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -19775,13 +19784,13 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -20807,11 +20816,11 @@
     </row>
     <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -21835,13 +21844,13 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -22865,13 +22874,13 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
@@ -23895,13 +23904,13 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
@@ -24927,10 +24936,12 @@
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="16"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
       <c r="F25" s="0"/>
@@ -25953,14 +25964,12 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>41</v>
-      </c>
+      <c r="C26" s="18"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
@@ -26986,9 +26995,11 @@
     <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="20"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
@@ -28011,14 +28022,12 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="10"/>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -29041,13 +29050,13 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>46</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
@@ -30073,10 +30082,12 @@
     </row>
     <row r="30" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="10"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="16"/>
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
       <c r="F30" s="0"/>
@@ -31099,14 +31110,12 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="10"/>
       <c r="B31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>49</v>
-      </c>
+      <c r="C31" s="18"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
@@ -32129,21 +32138,23 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="21" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="11" t="s">
+    <row r="32" s="23" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
@@ -33168,10 +33179,10 @@
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="19"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
@@ -34196,12 +34207,10 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>9</v>
-      </c>
+      <c r="C35" s="21"/>
       <c r="D35" s="0" t="s">
         <v>55</v>
       </c>
@@ -35228,11 +35237,11 @@
     </row>
     <row r="36" customFormat="false" ht="38.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="25" t="s">
-        <v>17</v>
+      <c r="B36" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
@@ -36258,10 +36267,10 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -37290,13 +37299,13 @@
     </row>
     <row r="38" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
-      <c r="B38" s="17" t="s">
-        <v>24</v>
+      <c r="B38" s="19" t="s">
+        <v>19</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="29" t="s">
         <v>60</v>
       </c>
       <c r="E38" s="0"/>
@@ -38322,14 +38331,14 @@
     </row>
     <row r="39" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="D39" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>63</v>
       </c>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
@@ -39354,10 +39363,10 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
-      <c r="B40" s="17" t="s">
-        <v>61</v>
+      <c r="B40" s="19" t="s">
+        <v>63</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D40" s="0" t="s">
@@ -40386,10 +40395,12 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="10"/>
-      <c r="B41" s="28" t="s">
-        <v>26</v>
+      <c r="B41" s="19" t="s">
+        <v>63</v>
       </c>
-      <c r="C41" s="28"/>
+      <c r="C41" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -41414,14 +41425,12 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="10"/>
-      <c r="B42" s="18" t="s">
-        <v>66</v>
+      <c r="B42" s="30" t="s">
+        <v>27</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
@@ -42446,10 +42455,10 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="10"/>
-      <c r="B43" s="18" t="s">
-        <v>27</v>
+      <c r="B43" s="20" t="s">
+        <v>68</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -43478,14 +43487,14 @@
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="10"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
@@ -44510,14 +44519,14 @@
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="10"/>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="D45" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
@@ -45542,10 +45551,12 @@
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="23"/>
       <c r="D46" s="0"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
@@ -46570,10 +46581,10 @@
     </row>
     <row r="47" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
@@ -47598,10 +47609,10 @@
     </row>
     <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0"/>
-      <c r="B48" s="28" t="s">
-        <v>10</v>
+      <c r="B48" s="21" t="s">
+        <v>78</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
@@ -48626,12 +48637,10 @@
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0"/>
-      <c r="B49" s="17" t="s">
-        <v>78</v>
+      <c r="B49" s="30" t="s">
+        <v>11</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>78</v>
-      </c>
+      <c r="C49" s="30"/>
       <c r="D49" s="0" t="s">
         <v>79</v>
       </c>
@@ -49658,10 +49667,10 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0"/>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="26" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="0" t="s">
@@ -50690,11 +50699,11 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>82</v>
+      <c r="C51" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>79</v>
@@ -51722,10 +51731,12 @@
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="0"/>
-      <c r="B52" s="28" t="s">
-        <v>14</v>
+      <c r="B52" s="19" t="s">
+        <v>82</v>
       </c>
-      <c r="C52" s="28"/>
+      <c r="C52" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
       <c r="F52" s="0"/>
@@ -52750,14 +52761,12 @@
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="0"/>
-      <c r="B53" s="17" t="s">
-        <v>83</v>
+      <c r="B53" s="30" t="s">
+        <v>15</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="30"/>
+      <c r="D53" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="E53" s="0"/>
       <c r="F53" s="0"/>
@@ -53782,10 +53791,12 @@
     </row>
     <row r="54" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="28"/>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
       <c r="F54" s="0"/>
@@ -54808,16 +54819,14 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="10"/>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="30"/>
+      <c r="D55" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>89</v>
       </c>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
@@ -55840,16 +55849,16 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10"/>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="D56" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -56874,10 +56883,12 @@
     </row>
     <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="10"/>
-      <c r="B57" s="28" t="s">
-        <v>17</v>
+      <c r="B57" s="19" t="s">
+        <v>92</v>
       </c>
-      <c r="C57" s="28"/>
+      <c r="C57" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -57902,12 +57913,10 @@
     </row>
     <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="10"/>
-      <c r="B58" s="18" t="s">
-        <v>93</v>
+      <c r="B58" s="30" t="s">
+        <v>18</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="C58" s="30"/>
       <c r="D58" s="0" t="s">
         <v>94</v>
       </c>
@@ -58934,11 +58943,11 @@
     </row>
     <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="10"/>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>64</v>
+      <c r="C59" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>96</v>
@@ -59964,22 +59973,22 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" s="21" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="28" t="s">
-        <v>47</v>
+    <row r="60" s="23" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="20" t="s">
+        <v>97</v>
       </c>
-      <c r="C60" s="28"/>
+      <c r="C60" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21"/>
-      <c r="B61" s="18" t="s">
-        <v>97</v>
+      <c r="A61" s="23"/>
+      <c r="B61" s="30" t="s">
+        <v>48</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="30"/>
+      <c r="D61" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
@@ -59987,11 +59996,13 @@
       <c r="H61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21"/>
-      <c r="B62" s="29" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C62" s="29"/>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
       <c r="F62" s="0"/>
@@ -60000,10 +60011,10 @@
     </row>
     <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="31"/>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
@@ -60012,12 +60023,10 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0"/>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="30" t="s">
-        <v>103</v>
-      </c>
+      <c r="C64" s="9"/>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
@@ -60026,10 +60035,12 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="0"/>
-      <c r="B65" s="31" t="s">
-        <v>101</v>
+      <c r="B65" s="32" t="s">
+        <v>103</v>
       </c>
-      <c r="C65" s="31"/>
+      <c r="C65" s="32" t="s">
+        <v>104</v>
+      </c>
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
       <c r="F65" s="0"/>
@@ -60038,12 +60049,10 @@
     </row>
     <row r="66" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="0"/>
-      <c r="B66" s="32" t="s">
-        <v>104</v>
+      <c r="B66" s="33" t="s">
+        <v>102</v>
       </c>
-      <c r="C66" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="C66" s="33"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="0"/>
@@ -60052,8 +60061,12 @@
     </row>
     <row r="67" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
+      <c r="B67" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
@@ -60062,10 +60075,8 @@
     </row>
     <row r="68" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C68" s="34"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
@@ -60074,10 +60085,10 @@
     </row>
     <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C69" s="35"/>
+      <c r="C69" s="36"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
@@ -60086,8 +60097,10 @@
     </row>
     <row r="70" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
+      <c r="B70" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="37"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
@@ -60096,8 +60109,8 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
@@ -60106,10 +60119,8 @@
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="9"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
@@ -60118,10 +60129,10 @@
     </row>
     <row r="73" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="36" t="s">
-        <v>108</v>
+      <c r="B73" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="C73" s="36"/>
+      <c r="C73" s="9"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
@@ -60130,8 +60141,10 @@
     </row>
     <row r="74" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
+      <c r="B74" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="38"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
@@ -60140,7 +60153,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="37"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="38"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
@@ -60150,10 +60163,8 @@
     </row>
     <row r="76" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="39"/>
-      <c r="B76" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
@@ -60162,10 +60173,10 @@
     </row>
     <row r="77" customFormat="false" ht="167.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C77" s="24"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
@@ -60174,10 +60185,10 @@
     </row>
     <row r="78" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C78" s="24"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
@@ -60186,8 +60197,10 @@
     </row>
     <row r="79" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
+      <c r="B79" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C79" s="26"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
@@ -60196,10 +60209,8 @@
     </row>
     <row r="80" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
-      <c r="B80" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80" s="9"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
@@ -60208,10 +60219,10 @@
     </row>
     <row r="81" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="42" t="s">
+      <c r="B81" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="42"/>
+      <c r="C81" s="9"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
@@ -60220,12 +60231,10 @@
     </row>
     <row r="82" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="43" t="s">
-        <v>115</v>
-      </c>
+      <c r="C82" s="44"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
@@ -60234,11 +60243,11 @@
     </row>
     <row r="83" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="45" t="s">
         <v>116</v>
-      </c>
-      <c r="C83" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
@@ -60248,11 +60257,11 @@
     </row>
     <row r="84" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="46" t="s">
         <v>118</v>
-      </c>
-      <c r="C84" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
@@ -60260,58 +60269,58 @@
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
+      <c r="B85" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>120</v>
+      </c>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C86" s="45" t="s">
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="47" t="s">
         <v>121</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>122</v>
       </c>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="47"/>
-      <c r="B87" s="48" t="s">
+    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="48"/>
+      <c r="B87" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="D87" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="B88" s="48" t="s">
+      <c r="B88" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C88" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>127</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>128</v>
       </c>
       <c r="E88" s="0"/>
       <c r="F88" s="0"/>
@@ -60321,405 +60330,413 @@
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="39"/>
       <c r="B89" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="D89" s="50" t="s">
         <v>130</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>131</v>
       </c>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>132</v>
+      </c>
       <c r="D90" s="0"/>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
       <c r="D91" s="0"/>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="48"/>
+      <c r="C92" s="48"/>
       <c r="D92" s="0"/>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="47"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="47"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="48"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="48"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="47"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="47"/>
-      <c r="H97" s="47"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="48"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
     </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="47"/>
-      <c r="C98" s="47"/>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="47"/>
-      <c r="H98" s="47"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
     </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
     </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="48"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="47"/>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="48"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
     </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="47"/>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
     </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="47"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="47"/>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="48"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
     </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="47"/>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="48"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
     </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="47"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="47"/>
-      <c r="H105" s="47"/>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="48"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="48"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
     </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="47"/>
-      <c r="C106" s="47"/>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="47"/>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="48"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="47"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="48"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="48"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
     </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="47"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="48"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
     </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="47"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="48"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="48"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="47"/>
-      <c r="C110" s="47"/>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="48"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
     </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="47"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47"/>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="48"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="48"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
     </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47"/>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="48"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
     </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47"/>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
     </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="47"/>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
     </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="47"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47"/>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="48"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
     </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="48"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
     </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="47"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="48"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
     </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="47"/>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="48"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
     </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="47"/>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
     </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="47"/>
-      <c r="C120" s="47"/>
-      <c r="D120" s="47"/>
-      <c r="E120" s="47"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="47"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="48"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="47"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="47"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="48"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="47"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="48"/>
+      <c r="C123" s="48"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="47"/>
-      <c r="C124" s="47"/>
-      <c r="D124" s="47"/>
-      <c r="E124" s="47"/>
-      <c r="F124" s="47"/>
-      <c r="G124" s="47"/>
-      <c r="H124" s="47"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="48"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="47"/>
-      <c r="H125" s="47"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="48"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="47"/>
-      <c r="C126" s="47"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="47"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="47"/>
-      <c r="H126" s="47"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="48"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="47"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="47"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="47"/>
-      <c r="H127" s="47"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="48"/>
+      <c r="F127" s="48"/>
+      <c r="G127" s="48"/>
+      <c r="H127" s="48"/>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="47"/>
-      <c r="C128" s="47"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="47"/>
-      <c r="H128" s="47"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="48"/>
+      <c r="F128" s="48"/>
+      <c r="G128" s="48"/>
+      <c r="H128" s="48"/>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="47"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="47"/>
-      <c r="E129" s="47"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="47"/>
-      <c r="H129" s="47"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="48"/>
+      <c r="F129" s="48"/>
+      <c r="G129" s="48"/>
+      <c r="H129" s="48"/>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="47"/>
-      <c r="C130" s="47"/>
-      <c r="D130" s="47"/>
-      <c r="E130" s="47"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="47"/>
-      <c r="H130" s="47"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="48"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+      <c r="H130" s="48"/>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="47"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48"/>
+      <c r="F131" s="48"/>
+      <c r="G131" s="48"/>
+      <c r="H131" s="48"/>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="47"/>
-      <c r="E132" s="47"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="47"/>
-      <c r="H132" s="47"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="48"/>
+      <c r="F132" s="48"/>
+      <c r="G132" s="48"/>
+      <c r="H132" s="48"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="48"/>
+      <c r="C133" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -60727,40 +60744,40 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B61:C61"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C70"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C75"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B79:C79"/>
     <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C87" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C88" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C88" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C89" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -60801,207 +60818,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="B5" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="52" t="s">
+      <c r="E5" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>39</v>
+      <c r="F5" s="54" t="s">
+        <v>48</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="G5" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="H5" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="G6" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="54" t="s">
         <v>147</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>40</v>
+      <c r="G7" s="56" t="s">
+        <v>154</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>154</v>
+      <c r="H7" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="F8" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="H8" s="56" t="s">
         <v>161</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>167</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="54" t="s">
-        <v>78</v>
+      <c r="B10" s="56" t="s">
+        <v>80</v>
       </c>
-      <c r="C10" s="54" t="s">
-        <v>168</v>
+      <c r="C10" s="56" t="s">
+        <v>169</v>
       </c>
-      <c r="I10" s="56" t="s">
-        <v>169</v>
+      <c r="I10" s="58" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>172</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>173</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>175</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>176</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="54" t="s">
-        <v>176</v>
+      <c r="B13" s="56" t="s">
+        <v>177</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>177</v>
+      <c r="I13" s="59" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="54" t="s">
-        <v>178</v>
+      <c r="B14" s="56" t="s">
+        <v>179</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>179</v>
+      <c r="I14" s="59" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="54" t="s">
-        <v>180</v>
+      <c r="B18" s="56" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="53" t="s">
-        <v>133</v>
+      <c r="B19" s="55" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="55" t="s">
-        <v>181</v>
+      <c r="B20" s="57" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -327,7 +327,7 @@
     <t>Solicitud de cambios_aammdd</t>
   </si>
   <si>
-    <t>La linea base representa un espejo de la configuración del árbol principal, para acceder a ella es necesario cambiar de rama con git checkout base y seguir los documentos acorde a la configuración demostrada en el item de configuración anterior (carpeta de proyecto).</t>
+    <t>La linea base se encuentra ubicada dentro de la carpeta lineabase del proyecto</t>
   </si>
   <si>
     <t>Linea Base</t>
@@ -342,13 +342,13 @@
     <t>base</t>
   </si>
   <si>
-    <t>Requerimientos (Al finalizar etapa de Ventas) + Estimación(Al finalizar etapa de ventas) + Plan_de_proyecto(Al finalizar etapa de planeación) + Carta de aceptación(Al finalizar etapa de Cierre)</t>
+    <t>Cotización (Al finalizar etapa de Ventas) + Estimación(Al finalizar etapa de ventas) + Plan_de_proyecto(Al finalizar etapa de planeación) + Carta de aceptación(Al finalizar etapa de Cierre)</t>
   </si>
   <si>
     <t>Mecanismos para la generacion de la linea base</t>
   </si>
   <si>
-    <t>Seleccion de los archivos dentro git, para agregarlos es necesario ejecutar el comando git add + nombre del archivo linea base , posteriormente se ingresan en una rama secundario del repositorio con el comando git push origin base.</t>
+    <t>Seleccion de los archivos dentro git, para agregarlos es necesario ejecutar el comando git add + nombre del archivo linea base , posteriormente se ingresan  al repositorio con el comando git push origin master.</t>
   </si>
   <si>
     <r>
@@ -398,16 +398,13 @@
     <t>este rol cuenta con privilegios para leer y agregar elementos en cualquier area exepto en , no pueden exportar o importar elementos de ninguna categoria y finalmente en actualización y eliminación solo lo pueden hacer en elementos personales.</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
     <t>Herramientas de Trabajo</t>
   </si>
   <si>
     <t>Dirección</t>
   </si>
   <si>
-    <t>Almacena todas las salidas del ciclo de vida que no se encuentran dentro de bitrix tales como estimación, plan de proyecto, carta de aceptación, cotización, documentos organizacionales, calidad y métricas.</t>
+    <t>Descripción</t>
   </si>
   <si>
     <t>GitHub (bajo el gestor source tree)</t>
@@ -416,7 +413,7 @@
     <t>https://github.com/Ricardo5/SOSQTP</t>
   </si>
   <si>
-    <t>Almacena los prospectos, Deals del cliente, tareas, herramientas de seguimiento.</t>
+    <t>Almacena todas las salidas del ciclo de vida que no se encuentran dentro de bitrix tales como estimación, plan de proyecto, carta de aceptación, cotización, documentos organizacionales, calidad y métricas.</t>
   </si>
   <si>
     <t>Bitrix</t>
@@ -425,13 +422,16 @@
     <t>https://contpaqi911.bitrix24.com/</t>
   </si>
   <si>
-    <t>Almacena los productos y servicios que vende SOS, usuarios del sistema, roles de la empresa y guías de requerimientos.</t>
+    <t>Almacena los prospectos, Deals del cliente, tareas, herramientas de seguimiento.</t>
   </si>
   <si>
     <t>Sos Software</t>
   </si>
   <si>
     <t>http://54.200.193.96:8080/</t>
+  </si>
+  <si>
+    <t>Almacena los productos y servicios que vende SOS, usuarios del sistema, roles de la empresa y guías de requerimientos.</t>
   </si>
   <si>
     <t>Artefactos</t>
@@ -883,7 +883,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1072,7 +1072,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1084,8 +1084,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1096,8 +1096,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1204,8 +1208,8 @@
   </sheetPr>
   <dimension ref="1:133"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2283,7 +2287,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="72.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6402,7 +6406,7 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="13" t="s">
         <v>6</v>
@@ -7432,7 +7436,7 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
@@ -14636,7 +14640,7 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
       <c r="B15" s="20" t="s">
         <v>19</v>
@@ -15666,7 +15670,7 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="19" t="s">
         <v>21</v>
@@ -16696,7 +16700,7 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
       <c r="B17" s="19" t="s">
         <v>23</v>
@@ -19784,7 +19788,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="20" t="s">
         <v>28</v>
@@ -20814,7 +20818,7 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
       <c r="B21" s="20" t="s">
         <v>30</v>
@@ -21844,7 +21848,7 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="20" t="s">
         <v>32</v>
@@ -22874,7 +22878,7 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="20" t="s">
         <v>34</v>
@@ -23904,7 +23908,7 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
       <c r="B24" s="20" t="s">
         <v>36</v>
@@ -29050,7 +29054,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -55849,7 +55853,7 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10"/>
       <c r="B56" s="19" t="s">
         <v>89</v>
@@ -60009,7 +60013,7 @@
       <c r="G62" s="0"/>
       <c r="H62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="86.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
       <c r="B63" s="31" t="s">
         <v>101</v>
@@ -60059,7 +60063,7 @@
       <c r="G66" s="0"/>
       <c r="H66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="90.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
       <c r="B67" s="34" t="s">
         <v>105</v>
@@ -60183,7 +60187,7 @@
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="142.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
       <c r="B78" s="26" t="s">
         <v>111</v>
@@ -60195,7 +60199,7 @@
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="100.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
       <c r="B79" s="26" t="s">
         <v>112</v>
@@ -60269,7 +60273,7 @@
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="94.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="99.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
       <c r="B85" s="46" t="s">
         <v>119</v>
@@ -60287,70 +60291,70 @@
       <c r="A86" s="0"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
-      <c r="D86" s="47" t="s">
-        <v>121</v>
-      </c>
+      <c r="D86" s="47"/>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="48"/>
       <c r="B87" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="C87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>123</v>
-      </c>
-      <c r="D87" s="50" t="s">
-        <v>124</v>
       </c>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="50.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
       <c r="B88" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="D88" s="53" t="s">
         <v>126</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>127</v>
       </c>
       <c r="E88" s="0"/>
       <c r="F88" s="0"/>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="39"/>
       <c r="B89" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="D89" s="53" t="s">
         <v>129</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>130</v>
       </c>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="53" t="s">
+    <row r="90" customFormat="false" ht="26.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="53" t="s">
+      <c r="D90" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D90" s="0"/>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
@@ -60822,154 +60826,154 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="55" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="56" t="s">
+      <c r="H7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="59" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="59" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="56" t="s">
         <v>167</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="59" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="59" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="I11" s="59" t="s">
+      <c r="I11" s="60" t="s">
         <v>173</v>
       </c>
       <c r="J11" s="0" t="n">
@@ -60977,13 +60981,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="60" t="s">
         <v>176</v>
       </c>
       <c r="J12" s="0" t="n">
@@ -60991,33 +60995,33 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="59" t="s">
+      <c r="I13" s="60" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="60" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="57" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="58" t="s">
         <v>182</v>
       </c>
     </row>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -5,24 +5,29 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan CM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Procesos" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Complej." vbProcedure="false">#ref!</definedName>
-    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_2" vbProcedure="false">#ref!</definedName>
-    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_4" vbProcedure="false">#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Complej." vbProcedure="false">#ref!</definedName>
+    <definedName function="false" hidden="false" name="Complej." vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_2" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_4" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Complej." vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="173">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -72,10 +77,16 @@
     <t>Plan_calidad</t>
   </si>
   <si>
-    <t>Check List Organizacional</t>
+    <t>Check List Organizacional interno</t>
   </si>
   <si>
-    <t>PTL_Checklist_organizacional_aammdd</t>
+    <t>Checklist_organizacional_interno_aammdd</t>
+  </si>
+  <si>
+    <t>Check List Organizacional Externo</t>
+  </si>
+  <si>
+    <t>Checklist_organizacional_externo_aammdd</t>
   </si>
   <si>
     <t>Métricas y monitoreo</t>
@@ -210,9 +221,6 @@
     <t>Checklist_Calidad_aammdd</t>
   </si>
   <si>
-    <t>Checklist_organizacional_aammdd</t>
-  </si>
-  <si>
     <t>No conformidades</t>
   </si>
   <si>
@@ -316,6 +324,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t>PTL</t>
     </r>
     <r>
@@ -923,6 +937,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -941,10 +959,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1153,57 +1167,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:135"/>
+  <dimension ref="1:137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D93" activeCellId="0" sqref="D93"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.85204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="53.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="81.5714285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="54.4183673469388"/>
-    <col collapsed="false" hidden="false" max="250" min="5" style="1" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="251" min="251" style="1" width="2.85204081632653"/>
-    <col collapsed="false" hidden="false" max="252" min="252" style="1" width="48.7040816326531"/>
-    <col collapsed="false" hidden="false" max="253" min="253" style="1" width="61"/>
-    <col collapsed="false" hidden="false" max="254" min="254" style="1" width="32.1479591836735"/>
-    <col collapsed="false" hidden="false" max="255" min="255" style="1" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="256" min="256" style="1" width="1.14285714285714"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="1" width="28.7091836734694"/>
-    <col collapsed="false" hidden="false" max="258" min="258" style="1" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="259" min="259" style="1" width="2.41836734693878"/>
-    <col collapsed="false" hidden="false" max="260" min="260" style="1" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="506" min="261" style="1" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="507" min="507" style="1" width="2.85204081632653"/>
-    <col collapsed="false" hidden="false" max="508" min="508" style="1" width="48.7040816326531"/>
-    <col collapsed="false" hidden="false" max="509" min="509" style="1" width="61"/>
-    <col collapsed="false" hidden="false" max="510" min="510" style="1" width="32.1479591836735"/>
-    <col collapsed="false" hidden="false" max="511" min="511" style="1" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="512" min="512" style="1" width="1.14285714285714"/>
-    <col collapsed="false" hidden="false" max="513" min="513" style="1" width="28.7091836734694"/>
-    <col collapsed="false" hidden="false" max="514" min="514" style="1" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="515" min="515" style="1" width="2.41836734693878"/>
-    <col collapsed="false" hidden="false" max="516" min="516" style="1" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="762" min="517" style="1" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="763" min="763" style="1" width="2.85204081632653"/>
-    <col collapsed="false" hidden="false" max="764" min="764" style="1" width="48.7040816326531"/>
-    <col collapsed="false" hidden="false" max="765" min="765" style="1" width="61"/>
-    <col collapsed="false" hidden="false" max="766" min="766" style="1" width="32.1479591836735"/>
-    <col collapsed="false" hidden="false" max="767" min="767" style="1" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="768" min="768" style="1" width="1.14285714285714"/>
-    <col collapsed="false" hidden="false" max="769" min="769" style="1" width="28.7091836734694"/>
-    <col collapsed="false" hidden="false" max="770" min="770" style="1" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="771" min="771" style="1" width="2.41836734693878"/>
-    <col collapsed="false" hidden="false" max="772" min="772" style="1" width="23.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1018" min="773" style="1" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1019" min="1019" style="1" width="2.85204081632653"/>
-    <col collapsed="false" hidden="false" max="1020" min="1020" style="1" width="48.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1021" min="1021" style="1" width="61"/>
-    <col collapsed="false" hidden="false" max="1022" min="1022" style="1" width="32.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="1" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.9183673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="80.5918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="53.7244897959184"/>
+    <col collapsed="false" hidden="false" max="250" min="5" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="251" min="251" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="252" min="252" style="1" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="253" min="253" style="1" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="254" min="254" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="255" min="255" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="256" min="256" style="1" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="258" min="258" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="259" min="259" style="1" width="2.29591836734694"/>
+    <col collapsed="false" hidden="false" max="260" min="260" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="506" min="261" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="507" min="507" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="508" min="508" style="1" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="509" min="509" style="1" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="510" min="510" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="511" min="511" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="512" min="512" style="1" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="513" min="513" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="514" min="514" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="515" min="515" style="1" width="2.29591836734694"/>
+    <col collapsed="false" hidden="false" max="516" min="516" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="762" min="517" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="763" min="763" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="764" min="764" style="1" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="765" min="765" style="1" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="766" min="766" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="767" min="767" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="768" min="768" style="1" width="1.08163265306122"/>
+    <col collapsed="false" hidden="false" max="769" min="769" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="770" min="770" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="771" min="771" style="1" width="2.29591836734694"/>
+    <col collapsed="false" hidden="false" max="772" min="772" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1018" min="773" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1019" min="1019" style="1" width="2.69897959183673"/>
+    <col collapsed="false" hidden="false" max="1020" min="1020" style="1" width="48.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1021" min="1021" style="1" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1022" min="1022" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12529,12 +12543,12 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
       <c r="B13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="0"/>
@@ -13559,12 +13573,14 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
       <c r="F14" s="0"/>
@@ -14587,14 +14603,12 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="C15" s="16"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -19737,7 +19751,7 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
       <c r="B20" s="15" t="s">
         <v>29</v>
@@ -20767,12 +20781,14 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -21795,14 +21811,12 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
-      <c r="B22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="C22" s="16"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -22825,12 +22839,14 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
       <c r="F23" s="0"/>
@@ -23853,14 +23869,12 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="C24" s="18"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -24883,7 +24897,7 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
       <c r="B25" s="15" t="s">
         <v>37</v>
@@ -25913,12 +25927,14 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
@@ -26941,2095 +26957,2095 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="18" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="15" t="s">
+    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10"/>
+      <c r="B27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0"/>
+      <c r="AK27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+      <c r="AV27" s="0"/>
+      <c r="AW27" s="0"/>
+      <c r="AX27" s="0"/>
+      <c r="AY27" s="0"/>
+      <c r="AZ27" s="0"/>
+      <c r="BA27" s="0"/>
+      <c r="BB27" s="0"/>
+      <c r="BC27" s="0"/>
+      <c r="BD27" s="0"/>
+      <c r="BE27" s="0"/>
+      <c r="BF27" s="0"/>
+      <c r="BG27" s="0"/>
+      <c r="BH27" s="0"/>
+      <c r="BI27" s="0"/>
+      <c r="BJ27" s="0"/>
+      <c r="BK27" s="0"/>
+      <c r="BL27" s="0"/>
+      <c r="BM27" s="0"/>
+      <c r="BN27" s="0"/>
+      <c r="BO27" s="0"/>
+      <c r="BP27" s="0"/>
+      <c r="BQ27" s="0"/>
+      <c r="BR27" s="0"/>
+      <c r="BS27" s="0"/>
+      <c r="BT27" s="0"/>
+      <c r="BU27" s="0"/>
+      <c r="BV27" s="0"/>
+      <c r="BW27" s="0"/>
+      <c r="BX27" s="0"/>
+      <c r="BY27" s="0"/>
+      <c r="BZ27" s="0"/>
+      <c r="CA27" s="0"/>
+      <c r="CB27" s="0"/>
+      <c r="CC27" s="0"/>
+      <c r="CD27" s="0"/>
+      <c r="CE27" s="0"/>
+      <c r="CF27" s="0"/>
+      <c r="CG27" s="0"/>
+      <c r="CH27" s="0"/>
+      <c r="CI27" s="0"/>
+      <c r="CJ27" s="0"/>
+      <c r="CK27" s="0"/>
+      <c r="CL27" s="0"/>
+      <c r="CM27" s="0"/>
+      <c r="CN27" s="0"/>
+      <c r="CO27" s="0"/>
+      <c r="CP27" s="0"/>
+      <c r="CQ27" s="0"/>
+      <c r="CR27" s="0"/>
+      <c r="CS27" s="0"/>
+      <c r="CT27" s="0"/>
+      <c r="CU27" s="0"/>
+      <c r="CV27" s="0"/>
+      <c r="CW27" s="0"/>
+      <c r="CX27" s="0"/>
+      <c r="CY27" s="0"/>
+      <c r="CZ27" s="0"/>
+      <c r="DA27" s="0"/>
+      <c r="DB27" s="0"/>
+      <c r="DC27" s="0"/>
+      <c r="DD27" s="0"/>
+      <c r="DE27" s="0"/>
+      <c r="DF27" s="0"/>
+      <c r="DG27" s="0"/>
+      <c r="DH27" s="0"/>
+      <c r="DI27" s="0"/>
+      <c r="DJ27" s="0"/>
+      <c r="DK27" s="0"/>
+      <c r="DL27" s="0"/>
+      <c r="DM27" s="0"/>
+      <c r="DN27" s="0"/>
+      <c r="DO27" s="0"/>
+      <c r="DP27" s="0"/>
+      <c r="DQ27" s="0"/>
+      <c r="DR27" s="0"/>
+      <c r="DS27" s="0"/>
+      <c r="DT27" s="0"/>
+      <c r="DU27" s="0"/>
+      <c r="DV27" s="0"/>
+      <c r="DW27" s="0"/>
+      <c r="DX27" s="0"/>
+      <c r="DY27" s="0"/>
+      <c r="DZ27" s="0"/>
+      <c r="EA27" s="0"/>
+      <c r="EB27" s="0"/>
+      <c r="EC27" s="0"/>
+      <c r="ED27" s="0"/>
+      <c r="EE27" s="0"/>
+      <c r="EF27" s="0"/>
+      <c r="EG27" s="0"/>
+      <c r="EH27" s="0"/>
+      <c r="EI27" s="0"/>
+      <c r="EJ27" s="0"/>
+      <c r="EK27" s="0"/>
+      <c r="EL27" s="0"/>
+      <c r="EM27" s="0"/>
+      <c r="EN27" s="0"/>
+      <c r="EO27" s="0"/>
+      <c r="EP27" s="0"/>
+      <c r="EQ27" s="0"/>
+      <c r="ER27" s="0"/>
+      <c r="ES27" s="0"/>
+      <c r="ET27" s="0"/>
+      <c r="EU27" s="0"/>
+      <c r="EV27" s="0"/>
+      <c r="EW27" s="0"/>
+      <c r="EX27" s="0"/>
+      <c r="EY27" s="0"/>
+      <c r="EZ27" s="0"/>
+      <c r="FA27" s="0"/>
+      <c r="FB27" s="0"/>
+      <c r="FC27" s="0"/>
+      <c r="FD27" s="0"/>
+      <c r="FE27" s="0"/>
+      <c r="FF27" s="0"/>
+      <c r="FG27" s="0"/>
+      <c r="FH27" s="0"/>
+      <c r="FI27" s="0"/>
+      <c r="FJ27" s="0"/>
+      <c r="FK27" s="0"/>
+      <c r="FL27" s="0"/>
+      <c r="FM27" s="0"/>
+      <c r="FN27" s="0"/>
+      <c r="FO27" s="0"/>
+      <c r="FP27" s="0"/>
+      <c r="FQ27" s="0"/>
+      <c r="FR27" s="0"/>
+      <c r="FS27" s="0"/>
+      <c r="FT27" s="0"/>
+      <c r="FU27" s="0"/>
+      <c r="FV27" s="0"/>
+      <c r="FW27" s="0"/>
+      <c r="FX27" s="0"/>
+      <c r="FY27" s="0"/>
+      <c r="FZ27" s="0"/>
+      <c r="GA27" s="0"/>
+      <c r="GB27" s="0"/>
+      <c r="GC27" s="0"/>
+      <c r="GD27" s="0"/>
+      <c r="GE27" s="0"/>
+      <c r="GF27" s="0"/>
+      <c r="GG27" s="0"/>
+      <c r="GH27" s="0"/>
+      <c r="GI27" s="0"/>
+      <c r="GJ27" s="0"/>
+      <c r="GK27" s="0"/>
+      <c r="GL27" s="0"/>
+      <c r="GM27" s="0"/>
+      <c r="GN27" s="0"/>
+      <c r="GO27" s="0"/>
+      <c r="GP27" s="0"/>
+      <c r="GQ27" s="0"/>
+      <c r="GR27" s="0"/>
+      <c r="GS27" s="0"/>
+      <c r="GT27" s="0"/>
+      <c r="GU27" s="0"/>
+      <c r="GV27" s="0"/>
+      <c r="GW27" s="0"/>
+      <c r="GX27" s="0"/>
+      <c r="GY27" s="0"/>
+      <c r="GZ27" s="0"/>
+      <c r="HA27" s="0"/>
+      <c r="HB27" s="0"/>
+      <c r="HC27" s="0"/>
+      <c r="HD27" s="0"/>
+      <c r="HE27" s="0"/>
+      <c r="HF27" s="0"/>
+      <c r="HG27" s="0"/>
+      <c r="HH27" s="0"/>
+      <c r="HI27" s="0"/>
+      <c r="HJ27" s="0"/>
+      <c r="HK27" s="0"/>
+      <c r="HL27" s="0"/>
+      <c r="HM27" s="0"/>
+      <c r="HN27" s="0"/>
+      <c r="HO27" s="0"/>
+      <c r="HP27" s="0"/>
+      <c r="HQ27" s="0"/>
+      <c r="HR27" s="0"/>
+      <c r="HS27" s="0"/>
+      <c r="HT27" s="0"/>
+      <c r="HU27" s="0"/>
+      <c r="HV27" s="0"/>
+      <c r="HW27" s="0"/>
+      <c r="HX27" s="0"/>
+      <c r="HY27" s="0"/>
+      <c r="HZ27" s="0"/>
+      <c r="IA27" s="0"/>
+      <c r="IB27" s="0"/>
+      <c r="IC27" s="0"/>
+      <c r="ID27" s="0"/>
+      <c r="IE27" s="0"/>
+      <c r="IF27" s="0"/>
+      <c r="IG27" s="0"/>
+      <c r="IH27" s="0"/>
+      <c r="II27" s="0"/>
+      <c r="IJ27" s="0"/>
+      <c r="IK27" s="0"/>
+      <c r="IL27" s="0"/>
+      <c r="IM27" s="0"/>
+      <c r="IN27" s="0"/>
+      <c r="IO27" s="0"/>
+      <c r="IP27" s="0"/>
+      <c r="IQ27" s="0"/>
+      <c r="IR27" s="0"/>
+      <c r="IS27" s="0"/>
+      <c r="IT27" s="0"/>
+      <c r="IU27" s="0"/>
+      <c r="IV27" s="0"/>
+      <c r="IW27" s="0"/>
+      <c r="IX27" s="0"/>
+      <c r="IY27" s="0"/>
+      <c r="IZ27" s="0"/>
+      <c r="JA27" s="0"/>
+      <c r="JB27" s="0"/>
+      <c r="JC27" s="0"/>
+      <c r="JD27" s="0"/>
+      <c r="JE27" s="0"/>
+      <c r="JF27" s="0"/>
+      <c r="JG27" s="0"/>
+      <c r="JH27" s="0"/>
+      <c r="JI27" s="0"/>
+      <c r="JJ27" s="0"/>
+      <c r="JK27" s="0"/>
+      <c r="JL27" s="0"/>
+      <c r="JM27" s="0"/>
+      <c r="JN27" s="0"/>
+      <c r="JO27" s="0"/>
+      <c r="JP27" s="0"/>
+      <c r="JQ27" s="0"/>
+      <c r="JR27" s="0"/>
+      <c r="JS27" s="0"/>
+      <c r="JT27" s="0"/>
+      <c r="JU27" s="0"/>
+      <c r="JV27" s="0"/>
+      <c r="JW27" s="0"/>
+      <c r="JX27" s="0"/>
+      <c r="JY27" s="0"/>
+      <c r="JZ27" s="0"/>
+      <c r="KA27" s="0"/>
+      <c r="KB27" s="0"/>
+      <c r="KC27" s="0"/>
+      <c r="KD27" s="0"/>
+      <c r="KE27" s="0"/>
+      <c r="KF27" s="0"/>
+      <c r="KG27" s="0"/>
+      <c r="KH27" s="0"/>
+      <c r="KI27" s="0"/>
+      <c r="KJ27" s="0"/>
+      <c r="KK27" s="0"/>
+      <c r="KL27" s="0"/>
+      <c r="KM27" s="0"/>
+      <c r="KN27" s="0"/>
+      <c r="KO27" s="0"/>
+      <c r="KP27" s="0"/>
+      <c r="KQ27" s="0"/>
+      <c r="KR27" s="0"/>
+      <c r="KS27" s="0"/>
+      <c r="KT27" s="0"/>
+      <c r="KU27" s="0"/>
+      <c r="KV27" s="0"/>
+      <c r="KW27" s="0"/>
+      <c r="KX27" s="0"/>
+      <c r="KY27" s="0"/>
+      <c r="KZ27" s="0"/>
+      <c r="LA27" s="0"/>
+      <c r="LB27" s="0"/>
+      <c r="LC27" s="0"/>
+      <c r="LD27" s="0"/>
+      <c r="LE27" s="0"/>
+      <c r="LF27" s="0"/>
+      <c r="LG27" s="0"/>
+      <c r="LH27" s="0"/>
+      <c r="LI27" s="0"/>
+      <c r="LJ27" s="0"/>
+      <c r="LK27" s="0"/>
+      <c r="LL27" s="0"/>
+      <c r="LM27" s="0"/>
+      <c r="LN27" s="0"/>
+      <c r="LO27" s="0"/>
+      <c r="LP27" s="0"/>
+      <c r="LQ27" s="0"/>
+      <c r="LR27" s="0"/>
+      <c r="LS27" s="0"/>
+      <c r="LT27" s="0"/>
+      <c r="LU27" s="0"/>
+      <c r="LV27" s="0"/>
+      <c r="LW27" s="0"/>
+      <c r="LX27" s="0"/>
+      <c r="LY27" s="0"/>
+      <c r="LZ27" s="0"/>
+      <c r="MA27" s="0"/>
+      <c r="MB27" s="0"/>
+      <c r="MC27" s="0"/>
+      <c r="MD27" s="0"/>
+      <c r="ME27" s="0"/>
+      <c r="MF27" s="0"/>
+      <c r="MG27" s="0"/>
+      <c r="MH27" s="0"/>
+      <c r="MI27" s="0"/>
+      <c r="MJ27" s="0"/>
+      <c r="MK27" s="0"/>
+      <c r="ML27" s="0"/>
+      <c r="MM27" s="0"/>
+      <c r="MN27" s="0"/>
+      <c r="MO27" s="0"/>
+      <c r="MP27" s="0"/>
+      <c r="MQ27" s="0"/>
+      <c r="MR27" s="0"/>
+      <c r="MS27" s="0"/>
+      <c r="MT27" s="0"/>
+      <c r="MU27" s="0"/>
+      <c r="MV27" s="0"/>
+      <c r="MW27" s="0"/>
+      <c r="MX27" s="0"/>
+      <c r="MY27" s="0"/>
+      <c r="MZ27" s="0"/>
+      <c r="NA27" s="0"/>
+      <c r="NB27" s="0"/>
+      <c r="NC27" s="0"/>
+      <c r="ND27" s="0"/>
+      <c r="NE27" s="0"/>
+      <c r="NF27" s="0"/>
+      <c r="NG27" s="0"/>
+      <c r="NH27" s="0"/>
+      <c r="NI27" s="0"/>
+      <c r="NJ27" s="0"/>
+      <c r="NK27" s="0"/>
+      <c r="NL27" s="0"/>
+      <c r="NM27" s="0"/>
+      <c r="NN27" s="0"/>
+      <c r="NO27" s="0"/>
+      <c r="NP27" s="0"/>
+      <c r="NQ27" s="0"/>
+      <c r="NR27" s="0"/>
+      <c r="NS27" s="0"/>
+      <c r="NT27" s="0"/>
+      <c r="NU27" s="0"/>
+      <c r="NV27" s="0"/>
+      <c r="NW27" s="0"/>
+      <c r="NX27" s="0"/>
+      <c r="NY27" s="0"/>
+      <c r="NZ27" s="0"/>
+      <c r="OA27" s="0"/>
+      <c r="OB27" s="0"/>
+      <c r="OC27" s="0"/>
+      <c r="OD27" s="0"/>
+      <c r="OE27" s="0"/>
+      <c r="OF27" s="0"/>
+      <c r="OG27" s="0"/>
+      <c r="OH27" s="0"/>
+      <c r="OI27" s="0"/>
+      <c r="OJ27" s="0"/>
+      <c r="OK27" s="0"/>
+      <c r="OL27" s="0"/>
+      <c r="OM27" s="0"/>
+      <c r="ON27" s="0"/>
+      <c r="OO27" s="0"/>
+      <c r="OP27" s="0"/>
+      <c r="OQ27" s="0"/>
+      <c r="OR27" s="0"/>
+      <c r="OS27" s="0"/>
+      <c r="OT27" s="0"/>
+      <c r="OU27" s="0"/>
+      <c r="OV27" s="0"/>
+      <c r="OW27" s="0"/>
+      <c r="OX27" s="0"/>
+      <c r="OY27" s="0"/>
+      <c r="OZ27" s="0"/>
+      <c r="PA27" s="0"/>
+      <c r="PB27" s="0"/>
+      <c r="PC27" s="0"/>
+      <c r="PD27" s="0"/>
+      <c r="PE27" s="0"/>
+      <c r="PF27" s="0"/>
+      <c r="PG27" s="0"/>
+      <c r="PH27" s="0"/>
+      <c r="PI27" s="0"/>
+      <c r="PJ27" s="0"/>
+      <c r="PK27" s="0"/>
+      <c r="PL27" s="0"/>
+      <c r="PM27" s="0"/>
+      <c r="PN27" s="0"/>
+      <c r="PO27" s="0"/>
+      <c r="PP27" s="0"/>
+      <c r="PQ27" s="0"/>
+      <c r="PR27" s="0"/>
+      <c r="PS27" s="0"/>
+      <c r="PT27" s="0"/>
+      <c r="PU27" s="0"/>
+      <c r="PV27" s="0"/>
+      <c r="PW27" s="0"/>
+      <c r="PX27" s="0"/>
+      <c r="PY27" s="0"/>
+      <c r="PZ27" s="0"/>
+      <c r="QA27" s="0"/>
+      <c r="QB27" s="0"/>
+      <c r="QC27" s="0"/>
+      <c r="QD27" s="0"/>
+      <c r="QE27" s="0"/>
+      <c r="QF27" s="0"/>
+      <c r="QG27" s="0"/>
+      <c r="QH27" s="0"/>
+      <c r="QI27" s="0"/>
+      <c r="QJ27" s="0"/>
+      <c r="QK27" s="0"/>
+      <c r="QL27" s="0"/>
+      <c r="QM27" s="0"/>
+      <c r="QN27" s="0"/>
+      <c r="QO27" s="0"/>
+      <c r="QP27" s="0"/>
+      <c r="QQ27" s="0"/>
+      <c r="QR27" s="0"/>
+      <c r="QS27" s="0"/>
+      <c r="QT27" s="0"/>
+      <c r="QU27" s="0"/>
+      <c r="QV27" s="0"/>
+      <c r="QW27" s="0"/>
+      <c r="QX27" s="0"/>
+      <c r="QY27" s="0"/>
+      <c r="QZ27" s="0"/>
+      <c r="RA27" s="0"/>
+      <c r="RB27" s="0"/>
+      <c r="RC27" s="0"/>
+      <c r="RD27" s="0"/>
+      <c r="RE27" s="0"/>
+      <c r="RF27" s="0"/>
+      <c r="RG27" s="0"/>
+      <c r="RH27" s="0"/>
+      <c r="RI27" s="0"/>
+      <c r="RJ27" s="0"/>
+      <c r="RK27" s="0"/>
+      <c r="RL27" s="0"/>
+      <c r="RM27" s="0"/>
+      <c r="RN27" s="0"/>
+      <c r="RO27" s="0"/>
+      <c r="RP27" s="0"/>
+      <c r="RQ27" s="0"/>
+      <c r="RR27" s="0"/>
+      <c r="RS27" s="0"/>
+      <c r="RT27" s="0"/>
+      <c r="RU27" s="0"/>
+      <c r="RV27" s="0"/>
+      <c r="RW27" s="0"/>
+      <c r="RX27" s="0"/>
+      <c r="RY27" s="0"/>
+      <c r="RZ27" s="0"/>
+      <c r="SA27" s="0"/>
+      <c r="SB27" s="0"/>
+      <c r="SC27" s="0"/>
+      <c r="SD27" s="0"/>
+      <c r="SE27" s="0"/>
+      <c r="SF27" s="0"/>
+      <c r="SG27" s="0"/>
+      <c r="SH27" s="0"/>
+      <c r="SI27" s="0"/>
+      <c r="SJ27" s="0"/>
+      <c r="SK27" s="0"/>
+      <c r="SL27" s="0"/>
+      <c r="SM27" s="0"/>
+      <c r="SN27" s="0"/>
+      <c r="SO27" s="0"/>
+      <c r="SP27" s="0"/>
+      <c r="SQ27" s="0"/>
+      <c r="SR27" s="0"/>
+      <c r="SS27" s="0"/>
+      <c r="ST27" s="0"/>
+      <c r="SU27" s="0"/>
+      <c r="SV27" s="0"/>
+      <c r="SW27" s="0"/>
+      <c r="SX27" s="0"/>
+      <c r="SY27" s="0"/>
+      <c r="SZ27" s="0"/>
+      <c r="TA27" s="0"/>
+      <c r="TB27" s="0"/>
+      <c r="TC27" s="0"/>
+      <c r="TD27" s="0"/>
+      <c r="TE27" s="0"/>
+      <c r="TF27" s="0"/>
+      <c r="TG27" s="0"/>
+      <c r="TH27" s="0"/>
+      <c r="TI27" s="0"/>
+      <c r="TJ27" s="0"/>
+      <c r="TK27" s="0"/>
+      <c r="TL27" s="0"/>
+      <c r="TM27" s="0"/>
+      <c r="TN27" s="0"/>
+      <c r="TO27" s="0"/>
+      <c r="TP27" s="0"/>
+      <c r="TQ27" s="0"/>
+      <c r="TR27" s="0"/>
+      <c r="TS27" s="0"/>
+      <c r="TT27" s="0"/>
+      <c r="TU27" s="0"/>
+      <c r="TV27" s="0"/>
+      <c r="TW27" s="0"/>
+      <c r="TX27" s="0"/>
+      <c r="TY27" s="0"/>
+      <c r="TZ27" s="0"/>
+      <c r="UA27" s="0"/>
+      <c r="UB27" s="0"/>
+      <c r="UC27" s="0"/>
+      <c r="UD27" s="0"/>
+      <c r="UE27" s="0"/>
+      <c r="UF27" s="0"/>
+      <c r="UG27" s="0"/>
+      <c r="UH27" s="0"/>
+      <c r="UI27" s="0"/>
+      <c r="UJ27" s="0"/>
+      <c r="UK27" s="0"/>
+      <c r="UL27" s="0"/>
+      <c r="UM27" s="0"/>
+      <c r="UN27" s="0"/>
+      <c r="UO27" s="0"/>
+      <c r="UP27" s="0"/>
+      <c r="UQ27" s="0"/>
+      <c r="UR27" s="0"/>
+      <c r="US27" s="0"/>
+      <c r="UT27" s="0"/>
+      <c r="UU27" s="0"/>
+      <c r="UV27" s="0"/>
+      <c r="UW27" s="0"/>
+      <c r="UX27" s="0"/>
+      <c r="UY27" s="0"/>
+      <c r="UZ27" s="0"/>
+      <c r="VA27" s="0"/>
+      <c r="VB27" s="0"/>
+      <c r="VC27" s="0"/>
+      <c r="VD27" s="0"/>
+      <c r="VE27" s="0"/>
+      <c r="VF27" s="0"/>
+      <c r="VG27" s="0"/>
+      <c r="VH27" s="0"/>
+      <c r="VI27" s="0"/>
+      <c r="VJ27" s="0"/>
+      <c r="VK27" s="0"/>
+      <c r="VL27" s="0"/>
+      <c r="VM27" s="0"/>
+      <c r="VN27" s="0"/>
+      <c r="VO27" s="0"/>
+      <c r="VP27" s="0"/>
+      <c r="VQ27" s="0"/>
+      <c r="VR27" s="0"/>
+      <c r="VS27" s="0"/>
+      <c r="VT27" s="0"/>
+      <c r="VU27" s="0"/>
+      <c r="VV27" s="0"/>
+      <c r="VW27" s="0"/>
+      <c r="VX27" s="0"/>
+      <c r="VY27" s="0"/>
+      <c r="VZ27" s="0"/>
+      <c r="WA27" s="0"/>
+      <c r="WB27" s="0"/>
+      <c r="WC27" s="0"/>
+      <c r="WD27" s="0"/>
+      <c r="WE27" s="0"/>
+      <c r="WF27" s="0"/>
+      <c r="WG27" s="0"/>
+      <c r="WH27" s="0"/>
+      <c r="WI27" s="0"/>
+      <c r="WJ27" s="0"/>
+      <c r="WK27" s="0"/>
+      <c r="WL27" s="0"/>
+      <c r="WM27" s="0"/>
+      <c r="WN27" s="0"/>
+      <c r="WO27" s="0"/>
+      <c r="WP27" s="0"/>
+      <c r="WQ27" s="0"/>
+      <c r="WR27" s="0"/>
+      <c r="WS27" s="0"/>
+      <c r="WT27" s="0"/>
+      <c r="WU27" s="0"/>
+      <c r="WV27" s="0"/>
+      <c r="WW27" s="0"/>
+      <c r="WX27" s="0"/>
+      <c r="WY27" s="0"/>
+      <c r="WZ27" s="0"/>
+      <c r="XA27" s="0"/>
+      <c r="XB27" s="0"/>
+      <c r="XC27" s="0"/>
+      <c r="XD27" s="0"/>
+      <c r="XE27" s="0"/>
+      <c r="XF27" s="0"/>
+      <c r="XG27" s="0"/>
+      <c r="XH27" s="0"/>
+      <c r="XI27" s="0"/>
+      <c r="XJ27" s="0"/>
+      <c r="XK27" s="0"/>
+      <c r="XL27" s="0"/>
+      <c r="XM27" s="0"/>
+      <c r="XN27" s="0"/>
+      <c r="XO27" s="0"/>
+      <c r="XP27" s="0"/>
+      <c r="XQ27" s="0"/>
+      <c r="XR27" s="0"/>
+      <c r="XS27" s="0"/>
+      <c r="XT27" s="0"/>
+      <c r="XU27" s="0"/>
+      <c r="XV27" s="0"/>
+      <c r="XW27" s="0"/>
+      <c r="XX27" s="0"/>
+      <c r="XY27" s="0"/>
+      <c r="XZ27" s="0"/>
+      <c r="YA27" s="0"/>
+      <c r="YB27" s="0"/>
+      <c r="YC27" s="0"/>
+      <c r="YD27" s="0"/>
+      <c r="YE27" s="0"/>
+      <c r="YF27" s="0"/>
+      <c r="YG27" s="0"/>
+      <c r="YH27" s="0"/>
+      <c r="YI27" s="0"/>
+      <c r="YJ27" s="0"/>
+      <c r="YK27" s="0"/>
+      <c r="YL27" s="0"/>
+      <c r="YM27" s="0"/>
+      <c r="YN27" s="0"/>
+      <c r="YO27" s="0"/>
+      <c r="YP27" s="0"/>
+      <c r="YQ27" s="0"/>
+      <c r="YR27" s="0"/>
+      <c r="YS27" s="0"/>
+      <c r="YT27" s="0"/>
+      <c r="YU27" s="0"/>
+      <c r="YV27" s="0"/>
+      <c r="YW27" s="0"/>
+      <c r="YX27" s="0"/>
+      <c r="YY27" s="0"/>
+      <c r="YZ27" s="0"/>
+      <c r="ZA27" s="0"/>
+      <c r="ZB27" s="0"/>
+      <c r="ZC27" s="0"/>
+      <c r="ZD27" s="0"/>
+      <c r="ZE27" s="0"/>
+      <c r="ZF27" s="0"/>
+      <c r="ZG27" s="0"/>
+      <c r="ZH27" s="0"/>
+      <c r="ZI27" s="0"/>
+      <c r="ZJ27" s="0"/>
+      <c r="ZK27" s="0"/>
+      <c r="ZL27" s="0"/>
+      <c r="ZM27" s="0"/>
+      <c r="ZN27" s="0"/>
+      <c r="ZO27" s="0"/>
+      <c r="ZP27" s="0"/>
+      <c r="ZQ27" s="0"/>
+      <c r="ZR27" s="0"/>
+      <c r="ZS27" s="0"/>
+      <c r="ZT27" s="0"/>
+      <c r="ZU27" s="0"/>
+      <c r="ZV27" s="0"/>
+      <c r="ZW27" s="0"/>
+      <c r="ZX27" s="0"/>
+      <c r="ZY27" s="0"/>
+      <c r="ZZ27" s="0"/>
+      <c r="AAA27" s="0"/>
+      <c r="AAB27" s="0"/>
+      <c r="AAC27" s="0"/>
+      <c r="AAD27" s="0"/>
+      <c r="AAE27" s="0"/>
+      <c r="AAF27" s="0"/>
+      <c r="AAG27" s="0"/>
+      <c r="AAH27" s="0"/>
+      <c r="AAI27" s="0"/>
+      <c r="AAJ27" s="0"/>
+      <c r="AAK27" s="0"/>
+      <c r="AAL27" s="0"/>
+      <c r="AAM27" s="0"/>
+      <c r="AAN27" s="0"/>
+      <c r="AAO27" s="0"/>
+      <c r="AAP27" s="0"/>
+      <c r="AAQ27" s="0"/>
+      <c r="AAR27" s="0"/>
+      <c r="AAS27" s="0"/>
+      <c r="AAT27" s="0"/>
+      <c r="AAU27" s="0"/>
+      <c r="AAV27" s="0"/>
+      <c r="AAW27" s="0"/>
+      <c r="AAX27" s="0"/>
+      <c r="AAY27" s="0"/>
+      <c r="AAZ27" s="0"/>
+      <c r="ABA27" s="0"/>
+      <c r="ABB27" s="0"/>
+      <c r="ABC27" s="0"/>
+      <c r="ABD27" s="0"/>
+      <c r="ABE27" s="0"/>
+      <c r="ABF27" s="0"/>
+      <c r="ABG27" s="0"/>
+      <c r="ABH27" s="0"/>
+      <c r="ABI27" s="0"/>
+      <c r="ABJ27" s="0"/>
+      <c r="ABK27" s="0"/>
+      <c r="ABL27" s="0"/>
+      <c r="ABM27" s="0"/>
+      <c r="ABN27" s="0"/>
+      <c r="ABO27" s="0"/>
+      <c r="ABP27" s="0"/>
+      <c r="ABQ27" s="0"/>
+      <c r="ABR27" s="0"/>
+      <c r="ABS27" s="0"/>
+      <c r="ABT27" s="0"/>
+      <c r="ABU27" s="0"/>
+      <c r="ABV27" s="0"/>
+      <c r="ABW27" s="0"/>
+      <c r="ABX27" s="0"/>
+      <c r="ABY27" s="0"/>
+      <c r="ABZ27" s="0"/>
+      <c r="ACA27" s="0"/>
+      <c r="ACB27" s="0"/>
+      <c r="ACC27" s="0"/>
+      <c r="ACD27" s="0"/>
+      <c r="ACE27" s="0"/>
+      <c r="ACF27" s="0"/>
+      <c r="ACG27" s="0"/>
+      <c r="ACH27" s="0"/>
+      <c r="ACI27" s="0"/>
+      <c r="ACJ27" s="0"/>
+      <c r="ACK27" s="0"/>
+      <c r="ACL27" s="0"/>
+      <c r="ACM27" s="0"/>
+      <c r="ACN27" s="0"/>
+      <c r="ACO27" s="0"/>
+      <c r="ACP27" s="0"/>
+      <c r="ACQ27" s="0"/>
+      <c r="ACR27" s="0"/>
+      <c r="ACS27" s="0"/>
+      <c r="ACT27" s="0"/>
+      <c r="ACU27" s="0"/>
+      <c r="ACV27" s="0"/>
+      <c r="ACW27" s="0"/>
+      <c r="ACX27" s="0"/>
+      <c r="ACY27" s="0"/>
+      <c r="ACZ27" s="0"/>
+      <c r="ADA27" s="0"/>
+      <c r="ADB27" s="0"/>
+      <c r="ADC27" s="0"/>
+      <c r="ADD27" s="0"/>
+      <c r="ADE27" s="0"/>
+      <c r="ADF27" s="0"/>
+      <c r="ADG27" s="0"/>
+      <c r="ADH27" s="0"/>
+      <c r="ADI27" s="0"/>
+      <c r="ADJ27" s="0"/>
+      <c r="ADK27" s="0"/>
+      <c r="ADL27" s="0"/>
+      <c r="ADM27" s="0"/>
+      <c r="ADN27" s="0"/>
+      <c r="ADO27" s="0"/>
+      <c r="ADP27" s="0"/>
+      <c r="ADQ27" s="0"/>
+      <c r="ADR27" s="0"/>
+      <c r="ADS27" s="0"/>
+      <c r="ADT27" s="0"/>
+      <c r="ADU27" s="0"/>
+      <c r="ADV27" s="0"/>
+      <c r="ADW27" s="0"/>
+      <c r="ADX27" s="0"/>
+      <c r="ADY27" s="0"/>
+      <c r="ADZ27" s="0"/>
+      <c r="AEA27" s="0"/>
+      <c r="AEB27" s="0"/>
+      <c r="AEC27" s="0"/>
+      <c r="AED27" s="0"/>
+      <c r="AEE27" s="0"/>
+      <c r="AEF27" s="0"/>
+      <c r="AEG27" s="0"/>
+      <c r="AEH27" s="0"/>
+      <c r="AEI27" s="0"/>
+      <c r="AEJ27" s="0"/>
+      <c r="AEK27" s="0"/>
+      <c r="AEL27" s="0"/>
+      <c r="AEM27" s="0"/>
+      <c r="AEN27" s="0"/>
+      <c r="AEO27" s="0"/>
+      <c r="AEP27" s="0"/>
+      <c r="AEQ27" s="0"/>
+      <c r="AER27" s="0"/>
+      <c r="AES27" s="0"/>
+      <c r="AET27" s="0"/>
+      <c r="AEU27" s="0"/>
+      <c r="AEV27" s="0"/>
+      <c r="AEW27" s="0"/>
+      <c r="AEX27" s="0"/>
+      <c r="AEY27" s="0"/>
+      <c r="AEZ27" s="0"/>
+      <c r="AFA27" s="0"/>
+      <c r="AFB27" s="0"/>
+      <c r="AFC27" s="0"/>
+      <c r="AFD27" s="0"/>
+      <c r="AFE27" s="0"/>
+      <c r="AFF27" s="0"/>
+      <c r="AFG27" s="0"/>
+      <c r="AFH27" s="0"/>
+      <c r="AFI27" s="0"/>
+      <c r="AFJ27" s="0"/>
+      <c r="AFK27" s="0"/>
+      <c r="AFL27" s="0"/>
+      <c r="AFM27" s="0"/>
+      <c r="AFN27" s="0"/>
+      <c r="AFO27" s="0"/>
+      <c r="AFP27" s="0"/>
+      <c r="AFQ27" s="0"/>
+      <c r="AFR27" s="0"/>
+      <c r="AFS27" s="0"/>
+      <c r="AFT27" s="0"/>
+      <c r="AFU27" s="0"/>
+      <c r="AFV27" s="0"/>
+      <c r="AFW27" s="0"/>
+      <c r="AFX27" s="0"/>
+      <c r="AFY27" s="0"/>
+      <c r="AFZ27" s="0"/>
+      <c r="AGA27" s="0"/>
+      <c r="AGB27" s="0"/>
+      <c r="AGC27" s="0"/>
+      <c r="AGD27" s="0"/>
+      <c r="AGE27" s="0"/>
+      <c r="AGF27" s="0"/>
+      <c r="AGG27" s="0"/>
+      <c r="AGH27" s="0"/>
+      <c r="AGI27" s="0"/>
+      <c r="AGJ27" s="0"/>
+      <c r="AGK27" s="0"/>
+      <c r="AGL27" s="0"/>
+      <c r="AGM27" s="0"/>
+      <c r="AGN27" s="0"/>
+      <c r="AGO27" s="0"/>
+      <c r="AGP27" s="0"/>
+      <c r="AGQ27" s="0"/>
+      <c r="AGR27" s="0"/>
+      <c r="AGS27" s="0"/>
+      <c r="AGT27" s="0"/>
+      <c r="AGU27" s="0"/>
+      <c r="AGV27" s="0"/>
+      <c r="AGW27" s="0"/>
+      <c r="AGX27" s="0"/>
+      <c r="AGY27" s="0"/>
+      <c r="AGZ27" s="0"/>
+      <c r="AHA27" s="0"/>
+      <c r="AHB27" s="0"/>
+      <c r="AHC27" s="0"/>
+      <c r="AHD27" s="0"/>
+      <c r="AHE27" s="0"/>
+      <c r="AHF27" s="0"/>
+      <c r="AHG27" s="0"/>
+      <c r="AHH27" s="0"/>
+      <c r="AHI27" s="0"/>
+      <c r="AHJ27" s="0"/>
+      <c r="AHK27" s="0"/>
+      <c r="AHL27" s="0"/>
+      <c r="AHM27" s="0"/>
+      <c r="AHN27" s="0"/>
+      <c r="AHO27" s="0"/>
+      <c r="AHP27" s="0"/>
+      <c r="AHQ27" s="0"/>
+      <c r="AHR27" s="0"/>
+      <c r="AHS27" s="0"/>
+      <c r="AHT27" s="0"/>
+      <c r="AHU27" s="0"/>
+      <c r="AHV27" s="0"/>
+      <c r="AHW27" s="0"/>
+      <c r="AHX27" s="0"/>
+      <c r="AHY27" s="0"/>
+      <c r="AHZ27" s="0"/>
+      <c r="AIA27" s="0"/>
+      <c r="AIB27" s="0"/>
+      <c r="AIC27" s="0"/>
+      <c r="AID27" s="0"/>
+      <c r="AIE27" s="0"/>
+      <c r="AIF27" s="0"/>
+      <c r="AIG27" s="0"/>
+      <c r="AIH27" s="0"/>
+      <c r="AII27" s="0"/>
+      <c r="AIJ27" s="0"/>
+      <c r="AIK27" s="0"/>
+      <c r="AIL27" s="0"/>
+      <c r="AIM27" s="0"/>
+      <c r="AIN27" s="0"/>
+      <c r="AIO27" s="0"/>
+      <c r="AIP27" s="0"/>
+      <c r="AIQ27" s="0"/>
+      <c r="AIR27" s="0"/>
+      <c r="AIS27" s="0"/>
+      <c r="AIT27" s="0"/>
+      <c r="AIU27" s="0"/>
+      <c r="AIV27" s="0"/>
+      <c r="AIW27" s="0"/>
+      <c r="AIX27" s="0"/>
+      <c r="AIY27" s="0"/>
+      <c r="AIZ27" s="0"/>
+      <c r="AJA27" s="0"/>
+      <c r="AJB27" s="0"/>
+      <c r="AJC27" s="0"/>
+      <c r="AJD27" s="0"/>
+      <c r="AJE27" s="0"/>
+      <c r="AJF27" s="0"/>
+      <c r="AJG27" s="0"/>
+      <c r="AJH27" s="0"/>
+      <c r="AJI27" s="0"/>
+      <c r="AJJ27" s="0"/>
+      <c r="AJK27" s="0"/>
+      <c r="AJL27" s="0"/>
+      <c r="AJM27" s="0"/>
+      <c r="AJN27" s="0"/>
+      <c r="AJO27" s="0"/>
+      <c r="AJP27" s="0"/>
+      <c r="AJQ27" s="0"/>
+      <c r="AJR27" s="0"/>
+      <c r="AJS27" s="0"/>
+      <c r="AJT27" s="0"/>
+      <c r="AJU27" s="0"/>
+      <c r="AJV27" s="0"/>
+      <c r="AJW27" s="0"/>
+      <c r="AJX27" s="0"/>
+      <c r="AJY27" s="0"/>
+      <c r="AJZ27" s="0"/>
+      <c r="AKA27" s="0"/>
+      <c r="AKB27" s="0"/>
+      <c r="AKC27" s="0"/>
+      <c r="AKD27" s="0"/>
+      <c r="AKE27" s="0"/>
+      <c r="AKF27" s="0"/>
+      <c r="AKG27" s="0"/>
+      <c r="AKH27" s="0"/>
+      <c r="AKI27" s="0"/>
+      <c r="AKJ27" s="0"/>
+      <c r="AKK27" s="0"/>
+      <c r="AKL27" s="0"/>
+      <c r="AKM27" s="0"/>
+      <c r="AKN27" s="0"/>
+      <c r="AKO27" s="0"/>
+      <c r="AKP27" s="0"/>
+      <c r="AKQ27" s="0"/>
+      <c r="AKR27" s="0"/>
+      <c r="AKS27" s="0"/>
+      <c r="AKT27" s="0"/>
+      <c r="AKU27" s="0"/>
+      <c r="AKV27" s="0"/>
+      <c r="AKW27" s="0"/>
+      <c r="AKX27" s="0"/>
+      <c r="AKY27" s="0"/>
+      <c r="AKZ27" s="0"/>
+      <c r="ALA27" s="0"/>
+      <c r="ALB27" s="0"/>
+      <c r="ALC27" s="0"/>
+      <c r="ALD27" s="0"/>
+      <c r="ALE27" s="0"/>
+      <c r="ALF27" s="0"/>
+      <c r="ALG27" s="0"/>
+      <c r="ALH27" s="0"/>
+      <c r="ALI27" s="0"/>
+      <c r="ALJ27" s="0"/>
+      <c r="ALK27" s="0"/>
+      <c r="ALL27" s="0"/>
+      <c r="ALM27" s="0"/>
+      <c r="ALN27" s="0"/>
+      <c r="ALO27" s="0"/>
+      <c r="ALP27" s="0"/>
+      <c r="ALQ27" s="0"/>
+      <c r="ALR27" s="0"/>
+      <c r="ALS27" s="0"/>
+      <c r="ALT27" s="0"/>
+      <c r="ALU27" s="0"/>
+      <c r="ALV27" s="0"/>
+      <c r="ALW27" s="0"/>
+      <c r="ALX27" s="0"/>
+      <c r="ALY27" s="0"/>
+      <c r="ALZ27" s="0"/>
+      <c r="AMA27" s="0"/>
+      <c r="AMB27" s="0"/>
+      <c r="AMC27" s="0"/>
+      <c r="AMD27" s="0"/>
+      <c r="AME27" s="0"/>
+      <c r="AMF27" s="0"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="18" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="16" t="s">
+    <row r="29" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="0"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="0"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0"/>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
-      <c r="AB29" s="0"/>
-      <c r="AC29" s="0"/>
-      <c r="AD29" s="0"/>
-      <c r="AE29" s="0"/>
-      <c r="AF29" s="0"/>
-      <c r="AG29" s="0"/>
-      <c r="AH29" s="0"/>
-      <c r="AI29" s="0"/>
-      <c r="AJ29" s="0"/>
-      <c r="AK29" s="0"/>
-      <c r="AL29" s="0"/>
-      <c r="AM29" s="0"/>
-      <c r="AN29" s="0"/>
-      <c r="AO29" s="0"/>
-      <c r="AP29" s="0"/>
-      <c r="AQ29" s="0"/>
-      <c r="AR29" s="0"/>
-      <c r="AS29" s="0"/>
-      <c r="AT29" s="0"/>
-      <c r="AU29" s="0"/>
-      <c r="AV29" s="0"/>
-      <c r="AW29" s="0"/>
-      <c r="AX29" s="0"/>
-      <c r="AY29" s="0"/>
-      <c r="AZ29" s="0"/>
-      <c r="BA29" s="0"/>
-      <c r="BB29" s="0"/>
-      <c r="BC29" s="0"/>
-      <c r="BD29" s="0"/>
-      <c r="BE29" s="0"/>
-      <c r="BF29" s="0"/>
-      <c r="BG29" s="0"/>
-      <c r="BH29" s="0"/>
-      <c r="BI29" s="0"/>
-      <c r="BJ29" s="0"/>
-      <c r="BK29" s="0"/>
-      <c r="BL29" s="0"/>
-      <c r="BM29" s="0"/>
-      <c r="BN29" s="0"/>
-      <c r="BO29" s="0"/>
-      <c r="BP29" s="0"/>
-      <c r="BQ29" s="0"/>
-      <c r="BR29" s="0"/>
-      <c r="BS29" s="0"/>
-      <c r="BT29" s="0"/>
-      <c r="BU29" s="0"/>
-      <c r="BV29" s="0"/>
-      <c r="BW29" s="0"/>
-      <c r="BX29" s="0"/>
-      <c r="BY29" s="0"/>
-      <c r="BZ29" s="0"/>
-      <c r="CA29" s="0"/>
-      <c r="CB29" s="0"/>
-      <c r="CC29" s="0"/>
-      <c r="CD29" s="0"/>
-      <c r="CE29" s="0"/>
-      <c r="CF29" s="0"/>
-      <c r="CG29" s="0"/>
-      <c r="CH29" s="0"/>
-      <c r="CI29" s="0"/>
-      <c r="CJ29" s="0"/>
-      <c r="CK29" s="0"/>
-      <c r="CL29" s="0"/>
-      <c r="CM29" s="0"/>
-      <c r="CN29" s="0"/>
-      <c r="CO29" s="0"/>
-      <c r="CP29" s="0"/>
-      <c r="CQ29" s="0"/>
-      <c r="CR29" s="0"/>
-      <c r="CS29" s="0"/>
-      <c r="CT29" s="0"/>
-      <c r="CU29" s="0"/>
-      <c r="CV29" s="0"/>
-      <c r="CW29" s="0"/>
-      <c r="CX29" s="0"/>
-      <c r="CY29" s="0"/>
-      <c r="CZ29" s="0"/>
-      <c r="DA29" s="0"/>
-      <c r="DB29" s="0"/>
-      <c r="DC29" s="0"/>
-      <c r="DD29" s="0"/>
-      <c r="DE29" s="0"/>
-      <c r="DF29" s="0"/>
-      <c r="DG29" s="0"/>
-      <c r="DH29" s="0"/>
-      <c r="DI29" s="0"/>
-      <c r="DJ29" s="0"/>
-      <c r="DK29" s="0"/>
-      <c r="DL29" s="0"/>
-      <c r="DM29" s="0"/>
-      <c r="DN29" s="0"/>
-      <c r="DO29" s="0"/>
-      <c r="DP29" s="0"/>
-      <c r="DQ29" s="0"/>
-      <c r="DR29" s="0"/>
-      <c r="DS29" s="0"/>
-      <c r="DT29" s="0"/>
-      <c r="DU29" s="0"/>
-      <c r="DV29" s="0"/>
-      <c r="DW29" s="0"/>
-      <c r="DX29" s="0"/>
-      <c r="DY29" s="0"/>
-      <c r="DZ29" s="0"/>
-      <c r="EA29" s="0"/>
-      <c r="EB29" s="0"/>
-      <c r="EC29" s="0"/>
-      <c r="ED29" s="0"/>
-      <c r="EE29" s="0"/>
-      <c r="EF29" s="0"/>
-      <c r="EG29" s="0"/>
-      <c r="EH29" s="0"/>
-      <c r="EI29" s="0"/>
-      <c r="EJ29" s="0"/>
-      <c r="EK29" s="0"/>
-      <c r="EL29" s="0"/>
-      <c r="EM29" s="0"/>
-      <c r="EN29" s="0"/>
-      <c r="EO29" s="0"/>
-      <c r="EP29" s="0"/>
-      <c r="EQ29" s="0"/>
-      <c r="ER29" s="0"/>
-      <c r="ES29" s="0"/>
-      <c r="ET29" s="0"/>
-      <c r="EU29" s="0"/>
-      <c r="EV29" s="0"/>
-      <c r="EW29" s="0"/>
-      <c r="EX29" s="0"/>
-      <c r="EY29" s="0"/>
-      <c r="EZ29" s="0"/>
-      <c r="FA29" s="0"/>
-      <c r="FB29" s="0"/>
-      <c r="FC29" s="0"/>
-      <c r="FD29" s="0"/>
-      <c r="FE29" s="0"/>
-      <c r="FF29" s="0"/>
-      <c r="FG29" s="0"/>
-      <c r="FH29" s="0"/>
-      <c r="FI29" s="0"/>
-      <c r="FJ29" s="0"/>
-      <c r="FK29" s="0"/>
-      <c r="FL29" s="0"/>
-      <c r="FM29" s="0"/>
-      <c r="FN29" s="0"/>
-      <c r="FO29" s="0"/>
-      <c r="FP29" s="0"/>
-      <c r="FQ29" s="0"/>
-      <c r="FR29" s="0"/>
-      <c r="FS29" s="0"/>
-      <c r="FT29" s="0"/>
-      <c r="FU29" s="0"/>
-      <c r="FV29" s="0"/>
-      <c r="FW29" s="0"/>
-      <c r="FX29" s="0"/>
-      <c r="FY29" s="0"/>
-      <c r="FZ29" s="0"/>
-      <c r="GA29" s="0"/>
-      <c r="GB29" s="0"/>
-      <c r="GC29" s="0"/>
-      <c r="GD29" s="0"/>
-      <c r="GE29" s="0"/>
-      <c r="GF29" s="0"/>
-      <c r="GG29" s="0"/>
-      <c r="GH29" s="0"/>
-      <c r="GI29" s="0"/>
-      <c r="GJ29" s="0"/>
-      <c r="GK29" s="0"/>
-      <c r="GL29" s="0"/>
-      <c r="GM29" s="0"/>
-      <c r="GN29" s="0"/>
-      <c r="GO29" s="0"/>
-      <c r="GP29" s="0"/>
-      <c r="GQ29" s="0"/>
-      <c r="GR29" s="0"/>
-      <c r="GS29" s="0"/>
-      <c r="GT29" s="0"/>
-      <c r="GU29" s="0"/>
-      <c r="GV29" s="0"/>
-      <c r="GW29" s="0"/>
-      <c r="GX29" s="0"/>
-      <c r="GY29" s="0"/>
-      <c r="GZ29" s="0"/>
-      <c r="HA29" s="0"/>
-      <c r="HB29" s="0"/>
-      <c r="HC29" s="0"/>
-      <c r="HD29" s="0"/>
-      <c r="HE29" s="0"/>
-      <c r="HF29" s="0"/>
-      <c r="HG29" s="0"/>
-      <c r="HH29" s="0"/>
-      <c r="HI29" s="0"/>
-      <c r="HJ29" s="0"/>
-      <c r="HK29" s="0"/>
-      <c r="HL29" s="0"/>
-      <c r="HM29" s="0"/>
-      <c r="HN29" s="0"/>
-      <c r="HO29" s="0"/>
-      <c r="HP29" s="0"/>
-      <c r="HQ29" s="0"/>
-      <c r="HR29" s="0"/>
-      <c r="HS29" s="0"/>
-      <c r="HT29" s="0"/>
-      <c r="HU29" s="0"/>
-      <c r="HV29" s="0"/>
-      <c r="HW29" s="0"/>
-      <c r="HX29" s="0"/>
-      <c r="HY29" s="0"/>
-      <c r="HZ29" s="0"/>
-      <c r="IA29" s="0"/>
-      <c r="IB29" s="0"/>
-      <c r="IC29" s="0"/>
-      <c r="ID29" s="0"/>
-      <c r="IE29" s="0"/>
-      <c r="IF29" s="0"/>
-      <c r="IG29" s="0"/>
-      <c r="IH29" s="0"/>
-      <c r="II29" s="0"/>
-      <c r="IJ29" s="0"/>
-      <c r="IK29" s="0"/>
-      <c r="IL29" s="0"/>
-      <c r="IM29" s="0"/>
-      <c r="IN29" s="0"/>
-      <c r="IO29" s="0"/>
-      <c r="IP29" s="0"/>
-      <c r="IQ29" s="0"/>
-      <c r="IR29" s="0"/>
-      <c r="IS29" s="0"/>
-      <c r="IT29" s="0"/>
-      <c r="IU29" s="0"/>
-      <c r="IV29" s="0"/>
-      <c r="IW29" s="0"/>
-      <c r="IX29" s="0"/>
-      <c r="IY29" s="0"/>
-      <c r="IZ29" s="0"/>
-      <c r="JA29" s="0"/>
-      <c r="JB29" s="0"/>
-      <c r="JC29" s="0"/>
-      <c r="JD29" s="0"/>
-      <c r="JE29" s="0"/>
-      <c r="JF29" s="0"/>
-      <c r="JG29" s="0"/>
-      <c r="JH29" s="0"/>
-      <c r="JI29" s="0"/>
-      <c r="JJ29" s="0"/>
-      <c r="JK29" s="0"/>
-      <c r="JL29" s="0"/>
-      <c r="JM29" s="0"/>
-      <c r="JN29" s="0"/>
-      <c r="JO29" s="0"/>
-      <c r="JP29" s="0"/>
-      <c r="JQ29" s="0"/>
-      <c r="JR29" s="0"/>
-      <c r="JS29" s="0"/>
-      <c r="JT29" s="0"/>
-      <c r="JU29" s="0"/>
-      <c r="JV29" s="0"/>
-      <c r="JW29" s="0"/>
-      <c r="JX29" s="0"/>
-      <c r="JY29" s="0"/>
-      <c r="JZ29" s="0"/>
-      <c r="KA29" s="0"/>
-      <c r="KB29" s="0"/>
-      <c r="KC29" s="0"/>
-      <c r="KD29" s="0"/>
-      <c r="KE29" s="0"/>
-      <c r="KF29" s="0"/>
-      <c r="KG29" s="0"/>
-      <c r="KH29" s="0"/>
-      <c r="KI29" s="0"/>
-      <c r="KJ29" s="0"/>
-      <c r="KK29" s="0"/>
-      <c r="KL29" s="0"/>
-      <c r="KM29" s="0"/>
-      <c r="KN29" s="0"/>
-      <c r="KO29" s="0"/>
-      <c r="KP29" s="0"/>
-      <c r="KQ29" s="0"/>
-      <c r="KR29" s="0"/>
-      <c r="KS29" s="0"/>
-      <c r="KT29" s="0"/>
-      <c r="KU29" s="0"/>
-      <c r="KV29" s="0"/>
-      <c r="KW29" s="0"/>
-      <c r="KX29" s="0"/>
-      <c r="KY29" s="0"/>
-      <c r="KZ29" s="0"/>
-      <c r="LA29" s="0"/>
-      <c r="LB29" s="0"/>
-      <c r="LC29" s="0"/>
-      <c r="LD29" s="0"/>
-      <c r="LE29" s="0"/>
-      <c r="LF29" s="0"/>
-      <c r="LG29" s="0"/>
-      <c r="LH29" s="0"/>
-      <c r="LI29" s="0"/>
-      <c r="LJ29" s="0"/>
-      <c r="LK29" s="0"/>
-      <c r="LL29" s="0"/>
-      <c r="LM29" s="0"/>
-      <c r="LN29" s="0"/>
-      <c r="LO29" s="0"/>
-      <c r="LP29" s="0"/>
-      <c r="LQ29" s="0"/>
-      <c r="LR29" s="0"/>
-      <c r="LS29" s="0"/>
-      <c r="LT29" s="0"/>
-      <c r="LU29" s="0"/>
-      <c r="LV29" s="0"/>
-      <c r="LW29" s="0"/>
-      <c r="LX29" s="0"/>
-      <c r="LY29" s="0"/>
-      <c r="LZ29" s="0"/>
-      <c r="MA29" s="0"/>
-      <c r="MB29" s="0"/>
-      <c r="MC29" s="0"/>
-      <c r="MD29" s="0"/>
-      <c r="ME29" s="0"/>
-      <c r="MF29" s="0"/>
-      <c r="MG29" s="0"/>
-      <c r="MH29" s="0"/>
-      <c r="MI29" s="0"/>
-      <c r="MJ29" s="0"/>
-      <c r="MK29" s="0"/>
-      <c r="ML29" s="0"/>
-      <c r="MM29" s="0"/>
-      <c r="MN29" s="0"/>
-      <c r="MO29" s="0"/>
-      <c r="MP29" s="0"/>
-      <c r="MQ29" s="0"/>
-      <c r="MR29" s="0"/>
-      <c r="MS29" s="0"/>
-      <c r="MT29" s="0"/>
-      <c r="MU29" s="0"/>
-      <c r="MV29" s="0"/>
-      <c r="MW29" s="0"/>
-      <c r="MX29" s="0"/>
-      <c r="MY29" s="0"/>
-      <c r="MZ29" s="0"/>
-      <c r="NA29" s="0"/>
-      <c r="NB29" s="0"/>
-      <c r="NC29" s="0"/>
-      <c r="ND29" s="0"/>
-      <c r="NE29" s="0"/>
-      <c r="NF29" s="0"/>
-      <c r="NG29" s="0"/>
-      <c r="NH29" s="0"/>
-      <c r="NI29" s="0"/>
-      <c r="NJ29" s="0"/>
-      <c r="NK29" s="0"/>
-      <c r="NL29" s="0"/>
-      <c r="NM29" s="0"/>
-      <c r="NN29" s="0"/>
-      <c r="NO29" s="0"/>
-      <c r="NP29" s="0"/>
-      <c r="NQ29" s="0"/>
-      <c r="NR29" s="0"/>
-      <c r="NS29" s="0"/>
-      <c r="NT29" s="0"/>
-      <c r="NU29" s="0"/>
-      <c r="NV29" s="0"/>
-      <c r="NW29" s="0"/>
-      <c r="NX29" s="0"/>
-      <c r="NY29" s="0"/>
-      <c r="NZ29" s="0"/>
-      <c r="OA29" s="0"/>
-      <c r="OB29" s="0"/>
-      <c r="OC29" s="0"/>
-      <c r="OD29" s="0"/>
-      <c r="OE29" s="0"/>
-      <c r="OF29" s="0"/>
-      <c r="OG29" s="0"/>
-      <c r="OH29" s="0"/>
-      <c r="OI29" s="0"/>
-      <c r="OJ29" s="0"/>
-      <c r="OK29" s="0"/>
-      <c r="OL29" s="0"/>
-      <c r="OM29" s="0"/>
-      <c r="ON29" s="0"/>
-      <c r="OO29" s="0"/>
-      <c r="OP29" s="0"/>
-      <c r="OQ29" s="0"/>
-      <c r="OR29" s="0"/>
-      <c r="OS29" s="0"/>
-      <c r="OT29" s="0"/>
-      <c r="OU29" s="0"/>
-      <c r="OV29" s="0"/>
-      <c r="OW29" s="0"/>
-      <c r="OX29" s="0"/>
-      <c r="OY29" s="0"/>
-      <c r="OZ29" s="0"/>
-      <c r="PA29" s="0"/>
-      <c r="PB29" s="0"/>
-      <c r="PC29" s="0"/>
-      <c r="PD29" s="0"/>
-      <c r="PE29" s="0"/>
-      <c r="PF29" s="0"/>
-      <c r="PG29" s="0"/>
-      <c r="PH29" s="0"/>
-      <c r="PI29" s="0"/>
-      <c r="PJ29" s="0"/>
-      <c r="PK29" s="0"/>
-      <c r="PL29" s="0"/>
-      <c r="PM29" s="0"/>
-      <c r="PN29" s="0"/>
-      <c r="PO29" s="0"/>
-      <c r="PP29" s="0"/>
-      <c r="PQ29" s="0"/>
-      <c r="PR29" s="0"/>
-      <c r="PS29" s="0"/>
-      <c r="PT29" s="0"/>
-      <c r="PU29" s="0"/>
-      <c r="PV29" s="0"/>
-      <c r="PW29" s="0"/>
-      <c r="PX29" s="0"/>
-      <c r="PY29" s="0"/>
-      <c r="PZ29" s="0"/>
-      <c r="QA29" s="0"/>
-      <c r="QB29" s="0"/>
-      <c r="QC29" s="0"/>
-      <c r="QD29" s="0"/>
-      <c r="QE29" s="0"/>
-      <c r="QF29" s="0"/>
-      <c r="QG29" s="0"/>
-      <c r="QH29" s="0"/>
-      <c r="QI29" s="0"/>
-      <c r="QJ29" s="0"/>
-      <c r="QK29" s="0"/>
-      <c r="QL29" s="0"/>
-      <c r="QM29" s="0"/>
-      <c r="QN29" s="0"/>
-      <c r="QO29" s="0"/>
-      <c r="QP29" s="0"/>
-      <c r="QQ29" s="0"/>
-      <c r="QR29" s="0"/>
-      <c r="QS29" s="0"/>
-      <c r="QT29" s="0"/>
-      <c r="QU29" s="0"/>
-      <c r="QV29" s="0"/>
-      <c r="QW29" s="0"/>
-      <c r="QX29" s="0"/>
-      <c r="QY29" s="0"/>
-      <c r="QZ29" s="0"/>
-      <c r="RA29" s="0"/>
-      <c r="RB29" s="0"/>
-      <c r="RC29" s="0"/>
-      <c r="RD29" s="0"/>
-      <c r="RE29" s="0"/>
-      <c r="RF29" s="0"/>
-      <c r="RG29" s="0"/>
-      <c r="RH29" s="0"/>
-      <c r="RI29" s="0"/>
-      <c r="RJ29" s="0"/>
-      <c r="RK29" s="0"/>
-      <c r="RL29" s="0"/>
-      <c r="RM29" s="0"/>
-      <c r="RN29" s="0"/>
-      <c r="RO29" s="0"/>
-      <c r="RP29" s="0"/>
-      <c r="RQ29" s="0"/>
-      <c r="RR29" s="0"/>
-      <c r="RS29" s="0"/>
-      <c r="RT29" s="0"/>
-      <c r="RU29" s="0"/>
-      <c r="RV29" s="0"/>
-      <c r="RW29" s="0"/>
-      <c r="RX29" s="0"/>
-      <c r="RY29" s="0"/>
-      <c r="RZ29" s="0"/>
-      <c r="SA29" s="0"/>
-      <c r="SB29" s="0"/>
-      <c r="SC29" s="0"/>
-      <c r="SD29" s="0"/>
-      <c r="SE29" s="0"/>
-      <c r="SF29" s="0"/>
-      <c r="SG29" s="0"/>
-      <c r="SH29" s="0"/>
-      <c r="SI29" s="0"/>
-      <c r="SJ29" s="0"/>
-      <c r="SK29" s="0"/>
-      <c r="SL29" s="0"/>
-      <c r="SM29" s="0"/>
-      <c r="SN29" s="0"/>
-      <c r="SO29" s="0"/>
-      <c r="SP29" s="0"/>
-      <c r="SQ29" s="0"/>
-      <c r="SR29" s="0"/>
-      <c r="SS29" s="0"/>
-      <c r="ST29" s="0"/>
-      <c r="SU29" s="0"/>
-      <c r="SV29" s="0"/>
-      <c r="SW29" s="0"/>
-      <c r="SX29" s="0"/>
-      <c r="SY29" s="0"/>
-      <c r="SZ29" s="0"/>
-      <c r="TA29" s="0"/>
-      <c r="TB29" s="0"/>
-      <c r="TC29" s="0"/>
-      <c r="TD29" s="0"/>
-      <c r="TE29" s="0"/>
-      <c r="TF29" s="0"/>
-      <c r="TG29" s="0"/>
-      <c r="TH29" s="0"/>
-      <c r="TI29" s="0"/>
-      <c r="TJ29" s="0"/>
-      <c r="TK29" s="0"/>
-      <c r="TL29" s="0"/>
-      <c r="TM29" s="0"/>
-      <c r="TN29" s="0"/>
-      <c r="TO29" s="0"/>
-      <c r="TP29" s="0"/>
-      <c r="TQ29" s="0"/>
-      <c r="TR29" s="0"/>
-      <c r="TS29" s="0"/>
-      <c r="TT29" s="0"/>
-      <c r="TU29" s="0"/>
-      <c r="TV29" s="0"/>
-      <c r="TW29" s="0"/>
-      <c r="TX29" s="0"/>
-      <c r="TY29" s="0"/>
-      <c r="TZ29" s="0"/>
-      <c r="UA29" s="0"/>
-      <c r="UB29" s="0"/>
-      <c r="UC29" s="0"/>
-      <c r="UD29" s="0"/>
-      <c r="UE29" s="0"/>
-      <c r="UF29" s="0"/>
-      <c r="UG29" s="0"/>
-      <c r="UH29" s="0"/>
-      <c r="UI29" s="0"/>
-      <c r="UJ29" s="0"/>
-      <c r="UK29" s="0"/>
-      <c r="UL29" s="0"/>
-      <c r="UM29" s="0"/>
-      <c r="UN29" s="0"/>
-      <c r="UO29" s="0"/>
-      <c r="UP29" s="0"/>
-      <c r="UQ29" s="0"/>
-      <c r="UR29" s="0"/>
-      <c r="US29" s="0"/>
-      <c r="UT29" s="0"/>
-      <c r="UU29" s="0"/>
-      <c r="UV29" s="0"/>
-      <c r="UW29" s="0"/>
-      <c r="UX29" s="0"/>
-      <c r="UY29" s="0"/>
-      <c r="UZ29" s="0"/>
-      <c r="VA29" s="0"/>
-      <c r="VB29" s="0"/>
-      <c r="VC29" s="0"/>
-      <c r="VD29" s="0"/>
-      <c r="VE29" s="0"/>
-      <c r="VF29" s="0"/>
-      <c r="VG29" s="0"/>
-      <c r="VH29" s="0"/>
-      <c r="VI29" s="0"/>
-      <c r="VJ29" s="0"/>
-      <c r="VK29" s="0"/>
-      <c r="VL29" s="0"/>
-      <c r="VM29" s="0"/>
-      <c r="VN29" s="0"/>
-      <c r="VO29" s="0"/>
-      <c r="VP29" s="0"/>
-      <c r="VQ29" s="0"/>
-      <c r="VR29" s="0"/>
-      <c r="VS29" s="0"/>
-      <c r="VT29" s="0"/>
-      <c r="VU29" s="0"/>
-      <c r="VV29" s="0"/>
-      <c r="VW29" s="0"/>
-      <c r="VX29" s="0"/>
-      <c r="VY29" s="0"/>
-      <c r="VZ29" s="0"/>
-      <c r="WA29" s="0"/>
-      <c r="WB29" s="0"/>
-      <c r="WC29" s="0"/>
-      <c r="WD29" s="0"/>
-      <c r="WE29" s="0"/>
-      <c r="WF29" s="0"/>
-      <c r="WG29" s="0"/>
-      <c r="WH29" s="0"/>
-      <c r="WI29" s="0"/>
-      <c r="WJ29" s="0"/>
-      <c r="WK29" s="0"/>
-      <c r="WL29" s="0"/>
-      <c r="WM29" s="0"/>
-      <c r="WN29" s="0"/>
-      <c r="WO29" s="0"/>
-      <c r="WP29" s="0"/>
-      <c r="WQ29" s="0"/>
-      <c r="WR29" s="0"/>
-      <c r="WS29" s="0"/>
-      <c r="WT29" s="0"/>
-      <c r="WU29" s="0"/>
-      <c r="WV29" s="0"/>
-      <c r="WW29" s="0"/>
-      <c r="WX29" s="0"/>
-      <c r="WY29" s="0"/>
-      <c r="WZ29" s="0"/>
-      <c r="XA29" s="0"/>
-      <c r="XB29" s="0"/>
-      <c r="XC29" s="0"/>
-      <c r="XD29" s="0"/>
-      <c r="XE29" s="0"/>
-      <c r="XF29" s="0"/>
-      <c r="XG29" s="0"/>
-      <c r="XH29" s="0"/>
-      <c r="XI29" s="0"/>
-      <c r="XJ29" s="0"/>
-      <c r="XK29" s="0"/>
-      <c r="XL29" s="0"/>
-      <c r="XM29" s="0"/>
-      <c r="XN29" s="0"/>
-      <c r="XO29" s="0"/>
-      <c r="XP29" s="0"/>
-      <c r="XQ29" s="0"/>
-      <c r="XR29" s="0"/>
-      <c r="XS29" s="0"/>
-      <c r="XT29" s="0"/>
-      <c r="XU29" s="0"/>
-      <c r="XV29" s="0"/>
-      <c r="XW29" s="0"/>
-      <c r="XX29" s="0"/>
-      <c r="XY29" s="0"/>
-      <c r="XZ29" s="0"/>
-      <c r="YA29" s="0"/>
-      <c r="YB29" s="0"/>
-      <c r="YC29" s="0"/>
-      <c r="YD29" s="0"/>
-      <c r="YE29" s="0"/>
-      <c r="YF29" s="0"/>
-      <c r="YG29" s="0"/>
-      <c r="YH29" s="0"/>
-      <c r="YI29" s="0"/>
-      <c r="YJ29" s="0"/>
-      <c r="YK29" s="0"/>
-      <c r="YL29" s="0"/>
-      <c r="YM29" s="0"/>
-      <c r="YN29" s="0"/>
-      <c r="YO29" s="0"/>
-      <c r="YP29" s="0"/>
-      <c r="YQ29" s="0"/>
-      <c r="YR29" s="0"/>
-      <c r="YS29" s="0"/>
-      <c r="YT29" s="0"/>
-      <c r="YU29" s="0"/>
-      <c r="YV29" s="0"/>
-      <c r="YW29" s="0"/>
-      <c r="YX29" s="0"/>
-      <c r="YY29" s="0"/>
-      <c r="YZ29" s="0"/>
-      <c r="ZA29" s="0"/>
-      <c r="ZB29" s="0"/>
-      <c r="ZC29" s="0"/>
-      <c r="ZD29" s="0"/>
-      <c r="ZE29" s="0"/>
-      <c r="ZF29" s="0"/>
-      <c r="ZG29" s="0"/>
-      <c r="ZH29" s="0"/>
-      <c r="ZI29" s="0"/>
-      <c r="ZJ29" s="0"/>
-      <c r="ZK29" s="0"/>
-      <c r="ZL29" s="0"/>
-      <c r="ZM29" s="0"/>
-      <c r="ZN29" s="0"/>
-      <c r="ZO29" s="0"/>
-      <c r="ZP29" s="0"/>
-      <c r="ZQ29" s="0"/>
-      <c r="ZR29" s="0"/>
-      <c r="ZS29" s="0"/>
-      <c r="ZT29" s="0"/>
-      <c r="ZU29" s="0"/>
-      <c r="ZV29" s="0"/>
-      <c r="ZW29" s="0"/>
-      <c r="ZX29" s="0"/>
-      <c r="ZY29" s="0"/>
-      <c r="ZZ29" s="0"/>
-      <c r="AAA29" s="0"/>
-      <c r="AAB29" s="0"/>
-      <c r="AAC29" s="0"/>
-      <c r="AAD29" s="0"/>
-      <c r="AAE29" s="0"/>
-      <c r="AAF29" s="0"/>
-      <c r="AAG29" s="0"/>
-      <c r="AAH29" s="0"/>
-      <c r="AAI29" s="0"/>
-      <c r="AAJ29" s="0"/>
-      <c r="AAK29" s="0"/>
-      <c r="AAL29" s="0"/>
-      <c r="AAM29" s="0"/>
-      <c r="AAN29" s="0"/>
-      <c r="AAO29" s="0"/>
-      <c r="AAP29" s="0"/>
-      <c r="AAQ29" s="0"/>
-      <c r="AAR29" s="0"/>
-      <c r="AAS29" s="0"/>
-      <c r="AAT29" s="0"/>
-      <c r="AAU29" s="0"/>
-      <c r="AAV29" s="0"/>
-      <c r="AAW29" s="0"/>
-      <c r="AAX29" s="0"/>
-      <c r="AAY29" s="0"/>
-      <c r="AAZ29" s="0"/>
-      <c r="ABA29" s="0"/>
-      <c r="ABB29" s="0"/>
-      <c r="ABC29" s="0"/>
-      <c r="ABD29" s="0"/>
-      <c r="ABE29" s="0"/>
-      <c r="ABF29" s="0"/>
-      <c r="ABG29" s="0"/>
-      <c r="ABH29" s="0"/>
-      <c r="ABI29" s="0"/>
-      <c r="ABJ29" s="0"/>
-      <c r="ABK29" s="0"/>
-      <c r="ABL29" s="0"/>
-      <c r="ABM29" s="0"/>
-      <c r="ABN29" s="0"/>
-      <c r="ABO29" s="0"/>
-      <c r="ABP29" s="0"/>
-      <c r="ABQ29" s="0"/>
-      <c r="ABR29" s="0"/>
-      <c r="ABS29" s="0"/>
-      <c r="ABT29" s="0"/>
-      <c r="ABU29" s="0"/>
-      <c r="ABV29" s="0"/>
-      <c r="ABW29" s="0"/>
-      <c r="ABX29" s="0"/>
-      <c r="ABY29" s="0"/>
-      <c r="ABZ29" s="0"/>
-      <c r="ACA29" s="0"/>
-      <c r="ACB29" s="0"/>
-      <c r="ACC29" s="0"/>
-      <c r="ACD29" s="0"/>
-      <c r="ACE29" s="0"/>
-      <c r="ACF29" s="0"/>
-      <c r="ACG29" s="0"/>
-      <c r="ACH29" s="0"/>
-      <c r="ACI29" s="0"/>
-      <c r="ACJ29" s="0"/>
-      <c r="ACK29" s="0"/>
-      <c r="ACL29" s="0"/>
-      <c r="ACM29" s="0"/>
-      <c r="ACN29" s="0"/>
-      <c r="ACO29" s="0"/>
-      <c r="ACP29" s="0"/>
-      <c r="ACQ29" s="0"/>
-      <c r="ACR29" s="0"/>
-      <c r="ACS29" s="0"/>
-      <c r="ACT29" s="0"/>
-      <c r="ACU29" s="0"/>
-      <c r="ACV29" s="0"/>
-      <c r="ACW29" s="0"/>
-      <c r="ACX29" s="0"/>
-      <c r="ACY29" s="0"/>
-      <c r="ACZ29" s="0"/>
-      <c r="ADA29" s="0"/>
-      <c r="ADB29" s="0"/>
-      <c r="ADC29" s="0"/>
-      <c r="ADD29" s="0"/>
-      <c r="ADE29" s="0"/>
-      <c r="ADF29" s="0"/>
-      <c r="ADG29" s="0"/>
-      <c r="ADH29" s="0"/>
-      <c r="ADI29" s="0"/>
-      <c r="ADJ29" s="0"/>
-      <c r="ADK29" s="0"/>
-      <c r="ADL29" s="0"/>
-      <c r="ADM29" s="0"/>
-      <c r="ADN29" s="0"/>
-      <c r="ADO29" s="0"/>
-      <c r="ADP29" s="0"/>
-      <c r="ADQ29" s="0"/>
-      <c r="ADR29" s="0"/>
-      <c r="ADS29" s="0"/>
-      <c r="ADT29" s="0"/>
-      <c r="ADU29" s="0"/>
-      <c r="ADV29" s="0"/>
-      <c r="ADW29" s="0"/>
-      <c r="ADX29" s="0"/>
-      <c r="ADY29" s="0"/>
-      <c r="ADZ29" s="0"/>
-      <c r="AEA29" s="0"/>
-      <c r="AEB29" s="0"/>
-      <c r="AEC29" s="0"/>
-      <c r="AED29" s="0"/>
-      <c r="AEE29" s="0"/>
-      <c r="AEF29" s="0"/>
-      <c r="AEG29" s="0"/>
-      <c r="AEH29" s="0"/>
-      <c r="AEI29" s="0"/>
-      <c r="AEJ29" s="0"/>
-      <c r="AEK29" s="0"/>
-      <c r="AEL29" s="0"/>
-      <c r="AEM29" s="0"/>
-      <c r="AEN29" s="0"/>
-      <c r="AEO29" s="0"/>
-      <c r="AEP29" s="0"/>
-      <c r="AEQ29" s="0"/>
-      <c r="AER29" s="0"/>
-      <c r="AES29" s="0"/>
-      <c r="AET29" s="0"/>
-      <c r="AEU29" s="0"/>
-      <c r="AEV29" s="0"/>
-      <c r="AEW29" s="0"/>
-      <c r="AEX29" s="0"/>
-      <c r="AEY29" s="0"/>
-      <c r="AEZ29" s="0"/>
-      <c r="AFA29" s="0"/>
-      <c r="AFB29" s="0"/>
-      <c r="AFC29" s="0"/>
-      <c r="AFD29" s="0"/>
-      <c r="AFE29" s="0"/>
-      <c r="AFF29" s="0"/>
-      <c r="AFG29" s="0"/>
-      <c r="AFH29" s="0"/>
-      <c r="AFI29" s="0"/>
-      <c r="AFJ29" s="0"/>
-      <c r="AFK29" s="0"/>
-      <c r="AFL29" s="0"/>
-      <c r="AFM29" s="0"/>
-      <c r="AFN29" s="0"/>
-      <c r="AFO29" s="0"/>
-      <c r="AFP29" s="0"/>
-      <c r="AFQ29" s="0"/>
-      <c r="AFR29" s="0"/>
-      <c r="AFS29" s="0"/>
-      <c r="AFT29" s="0"/>
-      <c r="AFU29" s="0"/>
-      <c r="AFV29" s="0"/>
-      <c r="AFW29" s="0"/>
-      <c r="AFX29" s="0"/>
-      <c r="AFY29" s="0"/>
-      <c r="AFZ29" s="0"/>
-      <c r="AGA29" s="0"/>
-      <c r="AGB29" s="0"/>
-      <c r="AGC29" s="0"/>
-      <c r="AGD29" s="0"/>
-      <c r="AGE29" s="0"/>
-      <c r="AGF29" s="0"/>
-      <c r="AGG29" s="0"/>
-      <c r="AGH29" s="0"/>
-      <c r="AGI29" s="0"/>
-      <c r="AGJ29" s="0"/>
-      <c r="AGK29" s="0"/>
-      <c r="AGL29" s="0"/>
-      <c r="AGM29" s="0"/>
-      <c r="AGN29" s="0"/>
-      <c r="AGO29" s="0"/>
-      <c r="AGP29" s="0"/>
-      <c r="AGQ29" s="0"/>
-      <c r="AGR29" s="0"/>
-      <c r="AGS29" s="0"/>
-      <c r="AGT29" s="0"/>
-      <c r="AGU29" s="0"/>
-      <c r="AGV29" s="0"/>
-      <c r="AGW29" s="0"/>
-      <c r="AGX29" s="0"/>
-      <c r="AGY29" s="0"/>
-      <c r="AGZ29" s="0"/>
-      <c r="AHA29" s="0"/>
-      <c r="AHB29" s="0"/>
-      <c r="AHC29" s="0"/>
-      <c r="AHD29" s="0"/>
-      <c r="AHE29" s="0"/>
-      <c r="AHF29" s="0"/>
-      <c r="AHG29" s="0"/>
-      <c r="AHH29" s="0"/>
-      <c r="AHI29" s="0"/>
-      <c r="AHJ29" s="0"/>
-      <c r="AHK29" s="0"/>
-      <c r="AHL29" s="0"/>
-      <c r="AHM29" s="0"/>
-      <c r="AHN29" s="0"/>
-      <c r="AHO29" s="0"/>
-      <c r="AHP29" s="0"/>
-      <c r="AHQ29" s="0"/>
-      <c r="AHR29" s="0"/>
-      <c r="AHS29" s="0"/>
-      <c r="AHT29" s="0"/>
-      <c r="AHU29" s="0"/>
-      <c r="AHV29" s="0"/>
-      <c r="AHW29" s="0"/>
-      <c r="AHX29" s="0"/>
-      <c r="AHY29" s="0"/>
-      <c r="AHZ29" s="0"/>
-      <c r="AIA29" s="0"/>
-      <c r="AIB29" s="0"/>
-      <c r="AIC29" s="0"/>
-      <c r="AID29" s="0"/>
-      <c r="AIE29" s="0"/>
-      <c r="AIF29" s="0"/>
-      <c r="AIG29" s="0"/>
-      <c r="AIH29" s="0"/>
-      <c r="AII29" s="0"/>
-      <c r="AIJ29" s="0"/>
-      <c r="AIK29" s="0"/>
-      <c r="AIL29" s="0"/>
-      <c r="AIM29" s="0"/>
-      <c r="AIN29" s="0"/>
-      <c r="AIO29" s="0"/>
-      <c r="AIP29" s="0"/>
-      <c r="AIQ29" s="0"/>
-      <c r="AIR29" s="0"/>
-      <c r="AIS29" s="0"/>
-      <c r="AIT29" s="0"/>
-      <c r="AIU29" s="0"/>
-      <c r="AIV29" s="0"/>
-      <c r="AIW29" s="0"/>
-      <c r="AIX29" s="0"/>
-      <c r="AIY29" s="0"/>
-      <c r="AIZ29" s="0"/>
-      <c r="AJA29" s="0"/>
-      <c r="AJB29" s="0"/>
-      <c r="AJC29" s="0"/>
-      <c r="AJD29" s="0"/>
-      <c r="AJE29" s="0"/>
-      <c r="AJF29" s="0"/>
-      <c r="AJG29" s="0"/>
-      <c r="AJH29" s="0"/>
-      <c r="AJI29" s="0"/>
-      <c r="AJJ29" s="0"/>
-      <c r="AJK29" s="0"/>
-      <c r="AJL29" s="0"/>
-      <c r="AJM29" s="0"/>
-      <c r="AJN29" s="0"/>
-      <c r="AJO29" s="0"/>
-      <c r="AJP29" s="0"/>
-      <c r="AJQ29" s="0"/>
-      <c r="AJR29" s="0"/>
-      <c r="AJS29" s="0"/>
-      <c r="AJT29" s="0"/>
-      <c r="AJU29" s="0"/>
-      <c r="AJV29" s="0"/>
-      <c r="AJW29" s="0"/>
-      <c r="AJX29" s="0"/>
-      <c r="AJY29" s="0"/>
-      <c r="AJZ29" s="0"/>
-      <c r="AKA29" s="0"/>
-      <c r="AKB29" s="0"/>
-      <c r="AKC29" s="0"/>
-      <c r="AKD29" s="0"/>
-      <c r="AKE29" s="0"/>
-      <c r="AKF29" s="0"/>
-      <c r="AKG29" s="0"/>
-      <c r="AKH29" s="0"/>
-      <c r="AKI29" s="0"/>
-      <c r="AKJ29" s="0"/>
-      <c r="AKK29" s="0"/>
-      <c r="AKL29" s="0"/>
-      <c r="AKM29" s="0"/>
-      <c r="AKN29" s="0"/>
-      <c r="AKO29" s="0"/>
-      <c r="AKP29" s="0"/>
-      <c r="AKQ29" s="0"/>
-      <c r="AKR29" s="0"/>
-      <c r="AKS29" s="0"/>
-      <c r="AKT29" s="0"/>
-      <c r="AKU29" s="0"/>
-      <c r="AKV29" s="0"/>
-      <c r="AKW29" s="0"/>
-      <c r="AKX29" s="0"/>
-      <c r="AKY29" s="0"/>
-      <c r="AKZ29" s="0"/>
-      <c r="ALA29" s="0"/>
-      <c r="ALB29" s="0"/>
-      <c r="ALC29" s="0"/>
-      <c r="ALD29" s="0"/>
-      <c r="ALE29" s="0"/>
-      <c r="ALF29" s="0"/>
-      <c r="ALG29" s="0"/>
-      <c r="ALH29" s="0"/>
-      <c r="ALI29" s="0"/>
-      <c r="ALJ29" s="0"/>
-      <c r="ALK29" s="0"/>
-      <c r="ALL29" s="0"/>
-      <c r="ALM29" s="0"/>
-      <c r="ALN29" s="0"/>
-      <c r="ALO29" s="0"/>
-      <c r="ALP29" s="0"/>
-      <c r="ALQ29" s="0"/>
-      <c r="ALR29" s="0"/>
-      <c r="ALS29" s="0"/>
-      <c r="ALT29" s="0"/>
-      <c r="ALU29" s="0"/>
-      <c r="ALV29" s="0"/>
-      <c r="ALW29" s="0"/>
-      <c r="ALX29" s="0"/>
-      <c r="ALY29" s="0"/>
-      <c r="ALZ29" s="0"/>
-      <c r="AMA29" s="0"/>
-      <c r="AMB29" s="0"/>
-      <c r="AMC29" s="0"/>
-      <c r="AMD29" s="0"/>
-      <c r="AME29" s="0"/>
-      <c r="AMF29" s="0"/>
-      <c r="AMG29" s="0"/>
-      <c r="AMH29" s="0"/>
-      <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
-    </row>
-    <row r="30" s="18" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10"/>
+      <c r="B30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+      <c r="AX30" s="0"/>
+      <c r="AY30" s="0"/>
+      <c r="AZ30" s="0"/>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+      <c r="BM30" s="0"/>
+      <c r="BN30" s="0"/>
+      <c r="BO30" s="0"/>
+      <c r="BP30" s="0"/>
+      <c r="BQ30" s="0"/>
+      <c r="BR30" s="0"/>
+      <c r="BS30" s="0"/>
+      <c r="BT30" s="0"/>
+      <c r="BU30" s="0"/>
+      <c r="BV30" s="0"/>
+      <c r="BW30" s="0"/>
+      <c r="BX30" s="0"/>
+      <c r="BY30" s="0"/>
+      <c r="BZ30" s="0"/>
+      <c r="CA30" s="0"/>
+      <c r="CB30" s="0"/>
+      <c r="CC30" s="0"/>
+      <c r="CD30" s="0"/>
+      <c r="CE30" s="0"/>
+      <c r="CF30" s="0"/>
+      <c r="CG30" s="0"/>
+      <c r="CH30" s="0"/>
+      <c r="CI30" s="0"/>
+      <c r="CJ30" s="0"/>
+      <c r="CK30" s="0"/>
+      <c r="CL30" s="0"/>
+      <c r="CM30" s="0"/>
+      <c r="CN30" s="0"/>
+      <c r="CO30" s="0"/>
+      <c r="CP30" s="0"/>
+      <c r="CQ30" s="0"/>
+      <c r="CR30" s="0"/>
+      <c r="CS30" s="0"/>
+      <c r="CT30" s="0"/>
+      <c r="CU30" s="0"/>
+      <c r="CV30" s="0"/>
+      <c r="CW30" s="0"/>
+      <c r="CX30" s="0"/>
+      <c r="CY30" s="0"/>
+      <c r="CZ30" s="0"/>
+      <c r="DA30" s="0"/>
+      <c r="DB30" s="0"/>
+      <c r="DC30" s="0"/>
+      <c r="DD30" s="0"/>
+      <c r="DE30" s="0"/>
+      <c r="DF30" s="0"/>
+      <c r="DG30" s="0"/>
+      <c r="DH30" s="0"/>
+      <c r="DI30" s="0"/>
+      <c r="DJ30" s="0"/>
+      <c r="DK30" s="0"/>
+      <c r="DL30" s="0"/>
+      <c r="DM30" s="0"/>
+      <c r="DN30" s="0"/>
+      <c r="DO30" s="0"/>
+      <c r="DP30" s="0"/>
+      <c r="DQ30" s="0"/>
+      <c r="DR30" s="0"/>
+      <c r="DS30" s="0"/>
+      <c r="DT30" s="0"/>
+      <c r="DU30" s="0"/>
+      <c r="DV30" s="0"/>
+      <c r="DW30" s="0"/>
+      <c r="DX30" s="0"/>
+      <c r="DY30" s="0"/>
+      <c r="DZ30" s="0"/>
+      <c r="EA30" s="0"/>
+      <c r="EB30" s="0"/>
+      <c r="EC30" s="0"/>
+      <c r="ED30" s="0"/>
+      <c r="EE30" s="0"/>
+      <c r="EF30" s="0"/>
+      <c r="EG30" s="0"/>
+      <c r="EH30" s="0"/>
+      <c r="EI30" s="0"/>
+      <c r="EJ30" s="0"/>
+      <c r="EK30" s="0"/>
+      <c r="EL30" s="0"/>
+      <c r="EM30" s="0"/>
+      <c r="EN30" s="0"/>
+      <c r="EO30" s="0"/>
+      <c r="EP30" s="0"/>
+      <c r="EQ30" s="0"/>
+      <c r="ER30" s="0"/>
+      <c r="ES30" s="0"/>
+      <c r="ET30" s="0"/>
+      <c r="EU30" s="0"/>
+      <c r="EV30" s="0"/>
+      <c r="EW30" s="0"/>
+      <c r="EX30" s="0"/>
+      <c r="EY30" s="0"/>
+      <c r="EZ30" s="0"/>
+      <c r="FA30" s="0"/>
+      <c r="FB30" s="0"/>
+      <c r="FC30" s="0"/>
+      <c r="FD30" s="0"/>
+      <c r="FE30" s="0"/>
+      <c r="FF30" s="0"/>
+      <c r="FG30" s="0"/>
+      <c r="FH30" s="0"/>
+      <c r="FI30" s="0"/>
+      <c r="FJ30" s="0"/>
+      <c r="FK30" s="0"/>
+      <c r="FL30" s="0"/>
+      <c r="FM30" s="0"/>
+      <c r="FN30" s="0"/>
+      <c r="FO30" s="0"/>
+      <c r="FP30" s="0"/>
+      <c r="FQ30" s="0"/>
+      <c r="FR30" s="0"/>
+      <c r="FS30" s="0"/>
+      <c r="FT30" s="0"/>
+      <c r="FU30" s="0"/>
+      <c r="FV30" s="0"/>
+      <c r="FW30" s="0"/>
+      <c r="FX30" s="0"/>
+      <c r="FY30" s="0"/>
+      <c r="FZ30" s="0"/>
+      <c r="GA30" s="0"/>
+      <c r="GB30" s="0"/>
+      <c r="GC30" s="0"/>
+      <c r="GD30" s="0"/>
+      <c r="GE30" s="0"/>
+      <c r="GF30" s="0"/>
+      <c r="GG30" s="0"/>
+      <c r="GH30" s="0"/>
+      <c r="GI30" s="0"/>
+      <c r="GJ30" s="0"/>
+      <c r="GK30" s="0"/>
+      <c r="GL30" s="0"/>
+      <c r="GM30" s="0"/>
+      <c r="GN30" s="0"/>
+      <c r="GO30" s="0"/>
+      <c r="GP30" s="0"/>
+      <c r="GQ30" s="0"/>
+      <c r="GR30" s="0"/>
+      <c r="GS30" s="0"/>
+      <c r="GT30" s="0"/>
+      <c r="GU30" s="0"/>
+      <c r="GV30" s="0"/>
+      <c r="GW30" s="0"/>
+      <c r="GX30" s="0"/>
+      <c r="GY30" s="0"/>
+      <c r="GZ30" s="0"/>
+      <c r="HA30" s="0"/>
+      <c r="HB30" s="0"/>
+      <c r="HC30" s="0"/>
+      <c r="HD30" s="0"/>
+      <c r="HE30" s="0"/>
+      <c r="HF30" s="0"/>
+      <c r="HG30" s="0"/>
+      <c r="HH30" s="0"/>
+      <c r="HI30" s="0"/>
+      <c r="HJ30" s="0"/>
+      <c r="HK30" s="0"/>
+      <c r="HL30" s="0"/>
+      <c r="HM30" s="0"/>
+      <c r="HN30" s="0"/>
+      <c r="HO30" s="0"/>
+      <c r="HP30" s="0"/>
+      <c r="HQ30" s="0"/>
+      <c r="HR30" s="0"/>
+      <c r="HS30" s="0"/>
+      <c r="HT30" s="0"/>
+      <c r="HU30" s="0"/>
+      <c r="HV30" s="0"/>
+      <c r="HW30" s="0"/>
+      <c r="HX30" s="0"/>
+      <c r="HY30" s="0"/>
+      <c r="HZ30" s="0"/>
+      <c r="IA30" s="0"/>
+      <c r="IB30" s="0"/>
+      <c r="IC30" s="0"/>
+      <c r="ID30" s="0"/>
+      <c r="IE30" s="0"/>
+      <c r="IF30" s="0"/>
+      <c r="IG30" s="0"/>
+      <c r="IH30" s="0"/>
+      <c r="II30" s="0"/>
+      <c r="IJ30" s="0"/>
+      <c r="IK30" s="0"/>
+      <c r="IL30" s="0"/>
+      <c r="IM30" s="0"/>
+      <c r="IN30" s="0"/>
+      <c r="IO30" s="0"/>
+      <c r="IP30" s="0"/>
+      <c r="IQ30" s="0"/>
+      <c r="IR30" s="0"/>
+      <c r="IS30" s="0"/>
+      <c r="IT30" s="0"/>
+      <c r="IU30" s="0"/>
+      <c r="IV30" s="0"/>
+      <c r="IW30" s="0"/>
+      <c r="IX30" s="0"/>
+      <c r="IY30" s="0"/>
+      <c r="IZ30" s="0"/>
+      <c r="JA30" s="0"/>
+      <c r="JB30" s="0"/>
+      <c r="JC30" s="0"/>
+      <c r="JD30" s="0"/>
+      <c r="JE30" s="0"/>
+      <c r="JF30" s="0"/>
+      <c r="JG30" s="0"/>
+      <c r="JH30" s="0"/>
+      <c r="JI30" s="0"/>
+      <c r="JJ30" s="0"/>
+      <c r="JK30" s="0"/>
+      <c r="JL30" s="0"/>
+      <c r="JM30" s="0"/>
+      <c r="JN30" s="0"/>
+      <c r="JO30" s="0"/>
+      <c r="JP30" s="0"/>
+      <c r="JQ30" s="0"/>
+      <c r="JR30" s="0"/>
+      <c r="JS30" s="0"/>
+      <c r="JT30" s="0"/>
+      <c r="JU30" s="0"/>
+      <c r="JV30" s="0"/>
+      <c r="JW30" s="0"/>
+      <c r="JX30" s="0"/>
+      <c r="JY30" s="0"/>
+      <c r="JZ30" s="0"/>
+      <c r="KA30" s="0"/>
+      <c r="KB30" s="0"/>
+      <c r="KC30" s="0"/>
+      <c r="KD30" s="0"/>
+      <c r="KE30" s="0"/>
+      <c r="KF30" s="0"/>
+      <c r="KG30" s="0"/>
+      <c r="KH30" s="0"/>
+      <c r="KI30" s="0"/>
+      <c r="KJ30" s="0"/>
+      <c r="KK30" s="0"/>
+      <c r="KL30" s="0"/>
+      <c r="KM30" s="0"/>
+      <c r="KN30" s="0"/>
+      <c r="KO30" s="0"/>
+      <c r="KP30" s="0"/>
+      <c r="KQ30" s="0"/>
+      <c r="KR30" s="0"/>
+      <c r="KS30" s="0"/>
+      <c r="KT30" s="0"/>
+      <c r="KU30" s="0"/>
+      <c r="KV30" s="0"/>
+      <c r="KW30" s="0"/>
+      <c r="KX30" s="0"/>
+      <c r="KY30" s="0"/>
+      <c r="KZ30" s="0"/>
+      <c r="LA30" s="0"/>
+      <c r="LB30" s="0"/>
+      <c r="LC30" s="0"/>
+      <c r="LD30" s="0"/>
+      <c r="LE30" s="0"/>
+      <c r="LF30" s="0"/>
+      <c r="LG30" s="0"/>
+      <c r="LH30" s="0"/>
+      <c r="LI30" s="0"/>
+      <c r="LJ30" s="0"/>
+      <c r="LK30" s="0"/>
+      <c r="LL30" s="0"/>
+      <c r="LM30" s="0"/>
+      <c r="LN30" s="0"/>
+      <c r="LO30" s="0"/>
+      <c r="LP30" s="0"/>
+      <c r="LQ30" s="0"/>
+      <c r="LR30" s="0"/>
+      <c r="LS30" s="0"/>
+      <c r="LT30" s="0"/>
+      <c r="LU30" s="0"/>
+      <c r="LV30" s="0"/>
+      <c r="LW30" s="0"/>
+      <c r="LX30" s="0"/>
+      <c r="LY30" s="0"/>
+      <c r="LZ30" s="0"/>
+      <c r="MA30" s="0"/>
+      <c r="MB30" s="0"/>
+      <c r="MC30" s="0"/>
+      <c r="MD30" s="0"/>
+      <c r="ME30" s="0"/>
+      <c r="MF30" s="0"/>
+      <c r="MG30" s="0"/>
+      <c r="MH30" s="0"/>
+      <c r="MI30" s="0"/>
+      <c r="MJ30" s="0"/>
+      <c r="MK30" s="0"/>
+      <c r="ML30" s="0"/>
+      <c r="MM30" s="0"/>
+      <c r="MN30" s="0"/>
+      <c r="MO30" s="0"/>
+      <c r="MP30" s="0"/>
+      <c r="MQ30" s="0"/>
+      <c r="MR30" s="0"/>
+      <c r="MS30" s="0"/>
+      <c r="MT30" s="0"/>
+      <c r="MU30" s="0"/>
+      <c r="MV30" s="0"/>
+      <c r="MW30" s="0"/>
+      <c r="MX30" s="0"/>
+      <c r="MY30" s="0"/>
+      <c r="MZ30" s="0"/>
+      <c r="NA30" s="0"/>
+      <c r="NB30" s="0"/>
+      <c r="NC30" s="0"/>
+      <c r="ND30" s="0"/>
+      <c r="NE30" s="0"/>
+      <c r="NF30" s="0"/>
+      <c r="NG30" s="0"/>
+      <c r="NH30" s="0"/>
+      <c r="NI30" s="0"/>
+      <c r="NJ30" s="0"/>
+      <c r="NK30" s="0"/>
+      <c r="NL30" s="0"/>
+      <c r="NM30" s="0"/>
+      <c r="NN30" s="0"/>
+      <c r="NO30" s="0"/>
+      <c r="NP30" s="0"/>
+      <c r="NQ30" s="0"/>
+      <c r="NR30" s="0"/>
+      <c r="NS30" s="0"/>
+      <c r="NT30" s="0"/>
+      <c r="NU30" s="0"/>
+      <c r="NV30" s="0"/>
+      <c r="NW30" s="0"/>
+      <c r="NX30" s="0"/>
+      <c r="NY30" s="0"/>
+      <c r="NZ30" s="0"/>
+      <c r="OA30" s="0"/>
+      <c r="OB30" s="0"/>
+      <c r="OC30" s="0"/>
+      <c r="OD30" s="0"/>
+      <c r="OE30" s="0"/>
+      <c r="OF30" s="0"/>
+      <c r="OG30" s="0"/>
+      <c r="OH30" s="0"/>
+      <c r="OI30" s="0"/>
+      <c r="OJ30" s="0"/>
+      <c r="OK30" s="0"/>
+      <c r="OL30" s="0"/>
+      <c r="OM30" s="0"/>
+      <c r="ON30" s="0"/>
+      <c r="OO30" s="0"/>
+      <c r="OP30" s="0"/>
+      <c r="OQ30" s="0"/>
+      <c r="OR30" s="0"/>
+      <c r="OS30" s="0"/>
+      <c r="OT30" s="0"/>
+      <c r="OU30" s="0"/>
+      <c r="OV30" s="0"/>
+      <c r="OW30" s="0"/>
+      <c r="OX30" s="0"/>
+      <c r="OY30" s="0"/>
+      <c r="OZ30" s="0"/>
+      <c r="PA30" s="0"/>
+      <c r="PB30" s="0"/>
+      <c r="PC30" s="0"/>
+      <c r="PD30" s="0"/>
+      <c r="PE30" s="0"/>
+      <c r="PF30" s="0"/>
+      <c r="PG30" s="0"/>
+      <c r="PH30" s="0"/>
+      <c r="PI30" s="0"/>
+      <c r="PJ30" s="0"/>
+      <c r="PK30" s="0"/>
+      <c r="PL30" s="0"/>
+      <c r="PM30" s="0"/>
+      <c r="PN30" s="0"/>
+      <c r="PO30" s="0"/>
+      <c r="PP30" s="0"/>
+      <c r="PQ30" s="0"/>
+      <c r="PR30" s="0"/>
+      <c r="PS30" s="0"/>
+      <c r="PT30" s="0"/>
+      <c r="PU30" s="0"/>
+      <c r="PV30" s="0"/>
+      <c r="PW30" s="0"/>
+      <c r="PX30" s="0"/>
+      <c r="PY30" s="0"/>
+      <c r="PZ30" s="0"/>
+      <c r="QA30" s="0"/>
+      <c r="QB30" s="0"/>
+      <c r="QC30" s="0"/>
+      <c r="QD30" s="0"/>
+      <c r="QE30" s="0"/>
+      <c r="QF30" s="0"/>
+      <c r="QG30" s="0"/>
+      <c r="QH30" s="0"/>
+      <c r="QI30" s="0"/>
+      <c r="QJ30" s="0"/>
+      <c r="QK30" s="0"/>
+      <c r="QL30" s="0"/>
+      <c r="QM30" s="0"/>
+      <c r="QN30" s="0"/>
+      <c r="QO30" s="0"/>
+      <c r="QP30" s="0"/>
+      <c r="QQ30" s="0"/>
+      <c r="QR30" s="0"/>
+      <c r="QS30" s="0"/>
+      <c r="QT30" s="0"/>
+      <c r="QU30" s="0"/>
+      <c r="QV30" s="0"/>
+      <c r="QW30" s="0"/>
+      <c r="QX30" s="0"/>
+      <c r="QY30" s="0"/>
+      <c r="QZ30" s="0"/>
+      <c r="RA30" s="0"/>
+      <c r="RB30" s="0"/>
+      <c r="RC30" s="0"/>
+      <c r="RD30" s="0"/>
+      <c r="RE30" s="0"/>
+      <c r="RF30" s="0"/>
+      <c r="RG30" s="0"/>
+      <c r="RH30" s="0"/>
+      <c r="RI30" s="0"/>
+      <c r="RJ30" s="0"/>
+      <c r="RK30" s="0"/>
+      <c r="RL30" s="0"/>
+      <c r="RM30" s="0"/>
+      <c r="RN30" s="0"/>
+      <c r="RO30" s="0"/>
+      <c r="RP30" s="0"/>
+      <c r="RQ30" s="0"/>
+      <c r="RR30" s="0"/>
+      <c r="RS30" s="0"/>
+      <c r="RT30" s="0"/>
+      <c r="RU30" s="0"/>
+      <c r="RV30" s="0"/>
+      <c r="RW30" s="0"/>
+      <c r="RX30" s="0"/>
+      <c r="RY30" s="0"/>
+      <c r="RZ30" s="0"/>
+      <c r="SA30" s="0"/>
+      <c r="SB30" s="0"/>
+      <c r="SC30" s="0"/>
+      <c r="SD30" s="0"/>
+      <c r="SE30" s="0"/>
+      <c r="SF30" s="0"/>
+      <c r="SG30" s="0"/>
+      <c r="SH30" s="0"/>
+      <c r="SI30" s="0"/>
+      <c r="SJ30" s="0"/>
+      <c r="SK30" s="0"/>
+      <c r="SL30" s="0"/>
+      <c r="SM30" s="0"/>
+      <c r="SN30" s="0"/>
+      <c r="SO30" s="0"/>
+      <c r="SP30" s="0"/>
+      <c r="SQ30" s="0"/>
+      <c r="SR30" s="0"/>
+      <c r="SS30" s="0"/>
+      <c r="ST30" s="0"/>
+      <c r="SU30" s="0"/>
+      <c r="SV30" s="0"/>
+      <c r="SW30" s="0"/>
+      <c r="SX30" s="0"/>
+      <c r="SY30" s="0"/>
+      <c r="SZ30" s="0"/>
+      <c r="TA30" s="0"/>
+      <c r="TB30" s="0"/>
+      <c r="TC30" s="0"/>
+      <c r="TD30" s="0"/>
+      <c r="TE30" s="0"/>
+      <c r="TF30" s="0"/>
+      <c r="TG30" s="0"/>
+      <c r="TH30" s="0"/>
+      <c r="TI30" s="0"/>
+      <c r="TJ30" s="0"/>
+      <c r="TK30" s="0"/>
+      <c r="TL30" s="0"/>
+      <c r="TM30" s="0"/>
+      <c r="TN30" s="0"/>
+      <c r="TO30" s="0"/>
+      <c r="TP30" s="0"/>
+      <c r="TQ30" s="0"/>
+      <c r="TR30" s="0"/>
+      <c r="TS30" s="0"/>
+      <c r="TT30" s="0"/>
+      <c r="TU30" s="0"/>
+      <c r="TV30" s="0"/>
+      <c r="TW30" s="0"/>
+      <c r="TX30" s="0"/>
+      <c r="TY30" s="0"/>
+      <c r="TZ30" s="0"/>
+      <c r="UA30" s="0"/>
+      <c r="UB30" s="0"/>
+      <c r="UC30" s="0"/>
+      <c r="UD30" s="0"/>
+      <c r="UE30" s="0"/>
+      <c r="UF30" s="0"/>
+      <c r="UG30" s="0"/>
+      <c r="UH30" s="0"/>
+      <c r="UI30" s="0"/>
+      <c r="UJ30" s="0"/>
+      <c r="UK30" s="0"/>
+      <c r="UL30" s="0"/>
+      <c r="UM30" s="0"/>
+      <c r="UN30" s="0"/>
+      <c r="UO30" s="0"/>
+      <c r="UP30" s="0"/>
+      <c r="UQ30" s="0"/>
+      <c r="UR30" s="0"/>
+      <c r="US30" s="0"/>
+      <c r="UT30" s="0"/>
+      <c r="UU30" s="0"/>
+      <c r="UV30" s="0"/>
+      <c r="UW30" s="0"/>
+      <c r="UX30" s="0"/>
+      <c r="UY30" s="0"/>
+      <c r="UZ30" s="0"/>
+      <c r="VA30" s="0"/>
+      <c r="VB30" s="0"/>
+      <c r="VC30" s="0"/>
+      <c r="VD30" s="0"/>
+      <c r="VE30" s="0"/>
+      <c r="VF30" s="0"/>
+      <c r="VG30" s="0"/>
+      <c r="VH30" s="0"/>
+      <c r="VI30" s="0"/>
+      <c r="VJ30" s="0"/>
+      <c r="VK30" s="0"/>
+      <c r="VL30" s="0"/>
+      <c r="VM30" s="0"/>
+      <c r="VN30" s="0"/>
+      <c r="VO30" s="0"/>
+      <c r="VP30" s="0"/>
+      <c r="VQ30" s="0"/>
+      <c r="VR30" s="0"/>
+      <c r="VS30" s="0"/>
+      <c r="VT30" s="0"/>
+      <c r="VU30" s="0"/>
+      <c r="VV30" s="0"/>
+      <c r="VW30" s="0"/>
+      <c r="VX30" s="0"/>
+      <c r="VY30" s="0"/>
+      <c r="VZ30" s="0"/>
+      <c r="WA30" s="0"/>
+      <c r="WB30" s="0"/>
+      <c r="WC30" s="0"/>
+      <c r="WD30" s="0"/>
+      <c r="WE30" s="0"/>
+      <c r="WF30" s="0"/>
+      <c r="WG30" s="0"/>
+      <c r="WH30" s="0"/>
+      <c r="WI30" s="0"/>
+      <c r="WJ30" s="0"/>
+      <c r="WK30" s="0"/>
+      <c r="WL30" s="0"/>
+      <c r="WM30" s="0"/>
+      <c r="WN30" s="0"/>
+      <c r="WO30" s="0"/>
+      <c r="WP30" s="0"/>
+      <c r="WQ30" s="0"/>
+      <c r="WR30" s="0"/>
+      <c r="WS30" s="0"/>
+      <c r="WT30" s="0"/>
+      <c r="WU30" s="0"/>
+      <c r="WV30" s="0"/>
+      <c r="WW30" s="0"/>
+      <c r="WX30" s="0"/>
+      <c r="WY30" s="0"/>
+      <c r="WZ30" s="0"/>
+      <c r="XA30" s="0"/>
+      <c r="XB30" s="0"/>
+      <c r="XC30" s="0"/>
+      <c r="XD30" s="0"/>
+      <c r="XE30" s="0"/>
+      <c r="XF30" s="0"/>
+      <c r="XG30" s="0"/>
+      <c r="XH30" s="0"/>
+      <c r="XI30" s="0"/>
+      <c r="XJ30" s="0"/>
+      <c r="XK30" s="0"/>
+      <c r="XL30" s="0"/>
+      <c r="XM30" s="0"/>
+      <c r="XN30" s="0"/>
+      <c r="XO30" s="0"/>
+      <c r="XP30" s="0"/>
+      <c r="XQ30" s="0"/>
+      <c r="XR30" s="0"/>
+      <c r="XS30" s="0"/>
+      <c r="XT30" s="0"/>
+      <c r="XU30" s="0"/>
+      <c r="XV30" s="0"/>
+      <c r="XW30" s="0"/>
+      <c r="XX30" s="0"/>
+      <c r="XY30" s="0"/>
+      <c r="XZ30" s="0"/>
+      <c r="YA30" s="0"/>
+      <c r="YB30" s="0"/>
+      <c r="YC30" s="0"/>
+      <c r="YD30" s="0"/>
+      <c r="YE30" s="0"/>
+      <c r="YF30" s="0"/>
+      <c r="YG30" s="0"/>
+      <c r="YH30" s="0"/>
+      <c r="YI30" s="0"/>
+      <c r="YJ30" s="0"/>
+      <c r="YK30" s="0"/>
+      <c r="YL30" s="0"/>
+      <c r="YM30" s="0"/>
+      <c r="YN30" s="0"/>
+      <c r="YO30" s="0"/>
+      <c r="YP30" s="0"/>
+      <c r="YQ30" s="0"/>
+      <c r="YR30" s="0"/>
+      <c r="YS30" s="0"/>
+      <c r="YT30" s="0"/>
+      <c r="YU30" s="0"/>
+      <c r="YV30" s="0"/>
+      <c r="YW30" s="0"/>
+      <c r="YX30" s="0"/>
+      <c r="YY30" s="0"/>
+      <c r="YZ30" s="0"/>
+      <c r="ZA30" s="0"/>
+      <c r="ZB30" s="0"/>
+      <c r="ZC30" s="0"/>
+      <c r="ZD30" s="0"/>
+      <c r="ZE30" s="0"/>
+      <c r="ZF30" s="0"/>
+      <c r="ZG30" s="0"/>
+      <c r="ZH30" s="0"/>
+      <c r="ZI30" s="0"/>
+      <c r="ZJ30" s="0"/>
+      <c r="ZK30" s="0"/>
+      <c r="ZL30" s="0"/>
+      <c r="ZM30" s="0"/>
+      <c r="ZN30" s="0"/>
+      <c r="ZO30" s="0"/>
+      <c r="ZP30" s="0"/>
+      <c r="ZQ30" s="0"/>
+      <c r="ZR30" s="0"/>
+      <c r="ZS30" s="0"/>
+      <c r="ZT30" s="0"/>
+      <c r="ZU30" s="0"/>
+      <c r="ZV30" s="0"/>
+      <c r="ZW30" s="0"/>
+      <c r="ZX30" s="0"/>
+      <c r="ZY30" s="0"/>
+      <c r="ZZ30" s="0"/>
+      <c r="AAA30" s="0"/>
+      <c r="AAB30" s="0"/>
+      <c r="AAC30" s="0"/>
+      <c r="AAD30" s="0"/>
+      <c r="AAE30" s="0"/>
+      <c r="AAF30" s="0"/>
+      <c r="AAG30" s="0"/>
+      <c r="AAH30" s="0"/>
+      <c r="AAI30" s="0"/>
+      <c r="AAJ30" s="0"/>
+      <c r="AAK30" s="0"/>
+      <c r="AAL30" s="0"/>
+      <c r="AAM30" s="0"/>
+      <c r="AAN30" s="0"/>
+      <c r="AAO30" s="0"/>
+      <c r="AAP30" s="0"/>
+      <c r="AAQ30" s="0"/>
+      <c r="AAR30" s="0"/>
+      <c r="AAS30" s="0"/>
+      <c r="AAT30" s="0"/>
+      <c r="AAU30" s="0"/>
+      <c r="AAV30" s="0"/>
+      <c r="AAW30" s="0"/>
+      <c r="AAX30" s="0"/>
+      <c r="AAY30" s="0"/>
+      <c r="AAZ30" s="0"/>
+      <c r="ABA30" s="0"/>
+      <c r="ABB30" s="0"/>
+      <c r="ABC30" s="0"/>
+      <c r="ABD30" s="0"/>
+      <c r="ABE30" s="0"/>
+      <c r="ABF30" s="0"/>
+      <c r="ABG30" s="0"/>
+      <c r="ABH30" s="0"/>
+      <c r="ABI30" s="0"/>
+      <c r="ABJ30" s="0"/>
+      <c r="ABK30" s="0"/>
+      <c r="ABL30" s="0"/>
+      <c r="ABM30" s="0"/>
+      <c r="ABN30" s="0"/>
+      <c r="ABO30" s="0"/>
+      <c r="ABP30" s="0"/>
+      <c r="ABQ30" s="0"/>
+      <c r="ABR30" s="0"/>
+      <c r="ABS30" s="0"/>
+      <c r="ABT30" s="0"/>
+      <c r="ABU30" s="0"/>
+      <c r="ABV30" s="0"/>
+      <c r="ABW30" s="0"/>
+      <c r="ABX30" s="0"/>
+      <c r="ABY30" s="0"/>
+      <c r="ABZ30" s="0"/>
+      <c r="ACA30" s="0"/>
+      <c r="ACB30" s="0"/>
+      <c r="ACC30" s="0"/>
+      <c r="ACD30" s="0"/>
+      <c r="ACE30" s="0"/>
+      <c r="ACF30" s="0"/>
+      <c r="ACG30" s="0"/>
+      <c r="ACH30" s="0"/>
+      <c r="ACI30" s="0"/>
+      <c r="ACJ30" s="0"/>
+      <c r="ACK30" s="0"/>
+      <c r="ACL30" s="0"/>
+      <c r="ACM30" s="0"/>
+      <c r="ACN30" s="0"/>
+      <c r="ACO30" s="0"/>
+      <c r="ACP30" s="0"/>
+      <c r="ACQ30" s="0"/>
+      <c r="ACR30" s="0"/>
+      <c r="ACS30" s="0"/>
+      <c r="ACT30" s="0"/>
+      <c r="ACU30" s="0"/>
+      <c r="ACV30" s="0"/>
+      <c r="ACW30" s="0"/>
+      <c r="ACX30" s="0"/>
+      <c r="ACY30" s="0"/>
+      <c r="ACZ30" s="0"/>
+      <c r="ADA30" s="0"/>
+      <c r="ADB30" s="0"/>
+      <c r="ADC30" s="0"/>
+      <c r="ADD30" s="0"/>
+      <c r="ADE30" s="0"/>
+      <c r="ADF30" s="0"/>
+      <c r="ADG30" s="0"/>
+      <c r="ADH30" s="0"/>
+      <c r="ADI30" s="0"/>
+      <c r="ADJ30" s="0"/>
+      <c r="ADK30" s="0"/>
+      <c r="ADL30" s="0"/>
+      <c r="ADM30" s="0"/>
+      <c r="ADN30" s="0"/>
+      <c r="ADO30" s="0"/>
+      <c r="ADP30" s="0"/>
+      <c r="ADQ30" s="0"/>
+      <c r="ADR30" s="0"/>
+      <c r="ADS30" s="0"/>
+      <c r="ADT30" s="0"/>
+      <c r="ADU30" s="0"/>
+      <c r="ADV30" s="0"/>
+      <c r="ADW30" s="0"/>
+      <c r="ADX30" s="0"/>
+      <c r="ADY30" s="0"/>
+      <c r="ADZ30" s="0"/>
+      <c r="AEA30" s="0"/>
+      <c r="AEB30" s="0"/>
+      <c r="AEC30" s="0"/>
+      <c r="AED30" s="0"/>
+      <c r="AEE30" s="0"/>
+      <c r="AEF30" s="0"/>
+      <c r="AEG30" s="0"/>
+      <c r="AEH30" s="0"/>
+      <c r="AEI30" s="0"/>
+      <c r="AEJ30" s="0"/>
+      <c r="AEK30" s="0"/>
+      <c r="AEL30" s="0"/>
+      <c r="AEM30" s="0"/>
+      <c r="AEN30" s="0"/>
+      <c r="AEO30" s="0"/>
+      <c r="AEP30" s="0"/>
+      <c r="AEQ30" s="0"/>
+      <c r="AER30" s="0"/>
+      <c r="AES30" s="0"/>
+      <c r="AET30" s="0"/>
+      <c r="AEU30" s="0"/>
+      <c r="AEV30" s="0"/>
+      <c r="AEW30" s="0"/>
+      <c r="AEX30" s="0"/>
+      <c r="AEY30" s="0"/>
+      <c r="AEZ30" s="0"/>
+      <c r="AFA30" s="0"/>
+      <c r="AFB30" s="0"/>
+      <c r="AFC30" s="0"/>
+      <c r="AFD30" s="0"/>
+      <c r="AFE30" s="0"/>
+      <c r="AFF30" s="0"/>
+      <c r="AFG30" s="0"/>
+      <c r="AFH30" s="0"/>
+      <c r="AFI30" s="0"/>
+      <c r="AFJ30" s="0"/>
+      <c r="AFK30" s="0"/>
+      <c r="AFL30" s="0"/>
+      <c r="AFM30" s="0"/>
+      <c r="AFN30" s="0"/>
+      <c r="AFO30" s="0"/>
+      <c r="AFP30" s="0"/>
+      <c r="AFQ30" s="0"/>
+      <c r="AFR30" s="0"/>
+      <c r="AFS30" s="0"/>
+      <c r="AFT30" s="0"/>
+      <c r="AFU30" s="0"/>
+      <c r="AFV30" s="0"/>
+      <c r="AFW30" s="0"/>
+      <c r="AFX30" s="0"/>
+      <c r="AFY30" s="0"/>
+      <c r="AFZ30" s="0"/>
+      <c r="AGA30" s="0"/>
+      <c r="AGB30" s="0"/>
+      <c r="AGC30" s="0"/>
+      <c r="AGD30" s="0"/>
+      <c r="AGE30" s="0"/>
+      <c r="AGF30" s="0"/>
+      <c r="AGG30" s="0"/>
+      <c r="AGH30" s="0"/>
+      <c r="AGI30" s="0"/>
+      <c r="AGJ30" s="0"/>
+      <c r="AGK30" s="0"/>
+      <c r="AGL30" s="0"/>
+      <c r="AGM30" s="0"/>
+      <c r="AGN30" s="0"/>
+      <c r="AGO30" s="0"/>
+      <c r="AGP30" s="0"/>
+      <c r="AGQ30" s="0"/>
+      <c r="AGR30" s="0"/>
+      <c r="AGS30" s="0"/>
+      <c r="AGT30" s="0"/>
+      <c r="AGU30" s="0"/>
+      <c r="AGV30" s="0"/>
+      <c r="AGW30" s="0"/>
+      <c r="AGX30" s="0"/>
+      <c r="AGY30" s="0"/>
+      <c r="AGZ30" s="0"/>
+      <c r="AHA30" s="0"/>
+      <c r="AHB30" s="0"/>
+      <c r="AHC30" s="0"/>
+      <c r="AHD30" s="0"/>
+      <c r="AHE30" s="0"/>
+      <c r="AHF30" s="0"/>
+      <c r="AHG30" s="0"/>
+      <c r="AHH30" s="0"/>
+      <c r="AHI30" s="0"/>
+      <c r="AHJ30" s="0"/>
+      <c r="AHK30" s="0"/>
+      <c r="AHL30" s="0"/>
+      <c r="AHM30" s="0"/>
+      <c r="AHN30" s="0"/>
+      <c r="AHO30" s="0"/>
+      <c r="AHP30" s="0"/>
+      <c r="AHQ30" s="0"/>
+      <c r="AHR30" s="0"/>
+      <c r="AHS30" s="0"/>
+      <c r="AHT30" s="0"/>
+      <c r="AHU30" s="0"/>
+      <c r="AHV30" s="0"/>
+      <c r="AHW30" s="0"/>
+      <c r="AHX30" s="0"/>
+      <c r="AHY30" s="0"/>
+      <c r="AHZ30" s="0"/>
+      <c r="AIA30" s="0"/>
+      <c r="AIB30" s="0"/>
+      <c r="AIC30" s="0"/>
+      <c r="AID30" s="0"/>
+      <c r="AIE30" s="0"/>
+      <c r="AIF30" s="0"/>
+      <c r="AIG30" s="0"/>
+      <c r="AIH30" s="0"/>
+      <c r="AII30" s="0"/>
+      <c r="AIJ30" s="0"/>
+      <c r="AIK30" s="0"/>
+      <c r="AIL30" s="0"/>
+      <c r="AIM30" s="0"/>
+      <c r="AIN30" s="0"/>
+      <c r="AIO30" s="0"/>
+      <c r="AIP30" s="0"/>
+      <c r="AIQ30" s="0"/>
+      <c r="AIR30" s="0"/>
+      <c r="AIS30" s="0"/>
+      <c r="AIT30" s="0"/>
+      <c r="AIU30" s="0"/>
+      <c r="AIV30" s="0"/>
+      <c r="AIW30" s="0"/>
+      <c r="AIX30" s="0"/>
+      <c r="AIY30" s="0"/>
+      <c r="AIZ30" s="0"/>
+      <c r="AJA30" s="0"/>
+      <c r="AJB30" s="0"/>
+      <c r="AJC30" s="0"/>
+      <c r="AJD30" s="0"/>
+      <c r="AJE30" s="0"/>
+      <c r="AJF30" s="0"/>
+      <c r="AJG30" s="0"/>
+      <c r="AJH30" s="0"/>
+      <c r="AJI30" s="0"/>
+      <c r="AJJ30" s="0"/>
+      <c r="AJK30" s="0"/>
+      <c r="AJL30" s="0"/>
+      <c r="AJM30" s="0"/>
+      <c r="AJN30" s="0"/>
+      <c r="AJO30" s="0"/>
+      <c r="AJP30" s="0"/>
+      <c r="AJQ30" s="0"/>
+      <c r="AJR30" s="0"/>
+      <c r="AJS30" s="0"/>
+      <c r="AJT30" s="0"/>
+      <c r="AJU30" s="0"/>
+      <c r="AJV30" s="0"/>
+      <c r="AJW30" s="0"/>
+      <c r="AJX30" s="0"/>
+      <c r="AJY30" s="0"/>
+      <c r="AJZ30" s="0"/>
+      <c r="AKA30" s="0"/>
+      <c r="AKB30" s="0"/>
+      <c r="AKC30" s="0"/>
+      <c r="AKD30" s="0"/>
+      <c r="AKE30" s="0"/>
+      <c r="AKF30" s="0"/>
+      <c r="AKG30" s="0"/>
+      <c r="AKH30" s="0"/>
+      <c r="AKI30" s="0"/>
+      <c r="AKJ30" s="0"/>
+      <c r="AKK30" s="0"/>
+      <c r="AKL30" s="0"/>
+      <c r="AKM30" s="0"/>
+      <c r="AKN30" s="0"/>
+      <c r="AKO30" s="0"/>
+      <c r="AKP30" s="0"/>
+      <c r="AKQ30" s="0"/>
+      <c r="AKR30" s="0"/>
+      <c r="AKS30" s="0"/>
+      <c r="AKT30" s="0"/>
+      <c r="AKU30" s="0"/>
+      <c r="AKV30" s="0"/>
+      <c r="AKW30" s="0"/>
+      <c r="AKX30" s="0"/>
+      <c r="AKY30" s="0"/>
+      <c r="AKZ30" s="0"/>
+      <c r="ALA30" s="0"/>
+      <c r="ALB30" s="0"/>
+      <c r="ALC30" s="0"/>
+      <c r="ALD30" s="0"/>
+      <c r="ALE30" s="0"/>
+      <c r="ALF30" s="0"/>
+      <c r="ALG30" s="0"/>
+      <c r="ALH30" s="0"/>
+      <c r="ALI30" s="0"/>
+      <c r="ALJ30" s="0"/>
+      <c r="ALK30" s="0"/>
+      <c r="ALL30" s="0"/>
+      <c r="ALM30" s="0"/>
+      <c r="ALN30" s="0"/>
+      <c r="ALO30" s="0"/>
+      <c r="ALP30" s="0"/>
+      <c r="ALQ30" s="0"/>
+      <c r="ALR30" s="0"/>
+      <c r="ALS30" s="0"/>
+      <c r="ALT30" s="0"/>
+      <c r="ALU30" s="0"/>
+      <c r="ALV30" s="0"/>
+      <c r="ALW30" s="0"/>
+      <c r="ALX30" s="0"/>
+      <c r="ALY30" s="0"/>
+      <c r="ALZ30" s="0"/>
+      <c r="AMA30" s="0"/>
+      <c r="AMB30" s="0"/>
+      <c r="AMC30" s="0"/>
+      <c r="AMD30" s="0"/>
+      <c r="AME30" s="0"/>
+      <c r="AMF30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="11" t="s">
+    <row r="31" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="0"/>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
-      <c r="M31" s="0"/>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
-      <c r="R31" s="0"/>
-      <c r="S31" s="0"/>
-      <c r="T31" s="0"/>
-      <c r="U31" s="0"/>
-      <c r="V31" s="0"/>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0"/>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
-      <c r="AA31" s="0"/>
-      <c r="AB31" s="0"/>
-      <c r="AC31" s="0"/>
-      <c r="AD31" s="0"/>
-      <c r="AE31" s="0"/>
-      <c r="AF31" s="0"/>
-      <c r="AG31" s="0"/>
-      <c r="AH31" s="0"/>
-      <c r="AI31" s="0"/>
-      <c r="AJ31" s="0"/>
-      <c r="AK31" s="0"/>
-      <c r="AL31" s="0"/>
-      <c r="AM31" s="0"/>
-      <c r="AN31" s="0"/>
-      <c r="AO31" s="0"/>
-      <c r="AP31" s="0"/>
-      <c r="AQ31" s="0"/>
-      <c r="AR31" s="0"/>
-      <c r="AS31" s="0"/>
-      <c r="AT31" s="0"/>
-      <c r="AU31" s="0"/>
-      <c r="AV31" s="0"/>
-      <c r="AW31" s="0"/>
-      <c r="AX31" s="0"/>
-      <c r="AY31" s="0"/>
-      <c r="AZ31" s="0"/>
-      <c r="BA31" s="0"/>
-      <c r="BB31" s="0"/>
-      <c r="BC31" s="0"/>
-      <c r="BD31" s="0"/>
-      <c r="BE31" s="0"/>
-      <c r="BF31" s="0"/>
-      <c r="BG31" s="0"/>
-      <c r="BH31" s="0"/>
-      <c r="BI31" s="0"/>
-      <c r="BJ31" s="0"/>
-      <c r="BK31" s="0"/>
-      <c r="BL31" s="0"/>
-      <c r="BM31" s="0"/>
-      <c r="BN31" s="0"/>
-      <c r="BO31" s="0"/>
-      <c r="BP31" s="0"/>
-      <c r="BQ31" s="0"/>
-      <c r="BR31" s="0"/>
-      <c r="BS31" s="0"/>
-      <c r="BT31" s="0"/>
-      <c r="BU31" s="0"/>
-      <c r="BV31" s="0"/>
-      <c r="BW31" s="0"/>
-      <c r="BX31" s="0"/>
-      <c r="BY31" s="0"/>
-      <c r="BZ31" s="0"/>
-      <c r="CA31" s="0"/>
-      <c r="CB31" s="0"/>
-      <c r="CC31" s="0"/>
-      <c r="CD31" s="0"/>
-      <c r="CE31" s="0"/>
-      <c r="CF31" s="0"/>
-      <c r="CG31" s="0"/>
-      <c r="CH31" s="0"/>
-      <c r="CI31" s="0"/>
-      <c r="CJ31" s="0"/>
-      <c r="CK31" s="0"/>
-      <c r="CL31" s="0"/>
-      <c r="CM31" s="0"/>
-      <c r="CN31" s="0"/>
-      <c r="CO31" s="0"/>
-      <c r="CP31" s="0"/>
-      <c r="CQ31" s="0"/>
-      <c r="CR31" s="0"/>
-      <c r="CS31" s="0"/>
-      <c r="CT31" s="0"/>
-      <c r="CU31" s="0"/>
-      <c r="CV31" s="0"/>
-      <c r="CW31" s="0"/>
-      <c r="CX31" s="0"/>
-      <c r="CY31" s="0"/>
-      <c r="CZ31" s="0"/>
-      <c r="DA31" s="0"/>
-      <c r="DB31" s="0"/>
-      <c r="DC31" s="0"/>
-      <c r="DD31" s="0"/>
-      <c r="DE31" s="0"/>
-      <c r="DF31" s="0"/>
-      <c r="DG31" s="0"/>
-      <c r="DH31" s="0"/>
-      <c r="DI31" s="0"/>
-      <c r="DJ31" s="0"/>
-      <c r="DK31" s="0"/>
-      <c r="DL31" s="0"/>
-      <c r="DM31" s="0"/>
-      <c r="DN31" s="0"/>
-      <c r="DO31" s="0"/>
-      <c r="DP31" s="0"/>
-      <c r="DQ31" s="0"/>
-      <c r="DR31" s="0"/>
-      <c r="DS31" s="0"/>
-      <c r="DT31" s="0"/>
-      <c r="DU31" s="0"/>
-      <c r="DV31" s="0"/>
-      <c r="DW31" s="0"/>
-      <c r="DX31" s="0"/>
-      <c r="DY31" s="0"/>
-      <c r="DZ31" s="0"/>
-      <c r="EA31" s="0"/>
-      <c r="EB31" s="0"/>
-      <c r="EC31" s="0"/>
-      <c r="ED31" s="0"/>
-      <c r="EE31" s="0"/>
-      <c r="EF31" s="0"/>
-      <c r="EG31" s="0"/>
-      <c r="EH31" s="0"/>
-      <c r="EI31" s="0"/>
-      <c r="EJ31" s="0"/>
-      <c r="EK31" s="0"/>
-      <c r="EL31" s="0"/>
-      <c r="EM31" s="0"/>
-      <c r="EN31" s="0"/>
-      <c r="EO31" s="0"/>
-      <c r="EP31" s="0"/>
-      <c r="EQ31" s="0"/>
-      <c r="ER31" s="0"/>
-      <c r="ES31" s="0"/>
-      <c r="ET31" s="0"/>
-      <c r="EU31" s="0"/>
-      <c r="EV31" s="0"/>
-      <c r="EW31" s="0"/>
-      <c r="EX31" s="0"/>
-      <c r="EY31" s="0"/>
-      <c r="EZ31" s="0"/>
-      <c r="FA31" s="0"/>
-      <c r="FB31" s="0"/>
-      <c r="FC31" s="0"/>
-      <c r="FD31" s="0"/>
-      <c r="FE31" s="0"/>
-      <c r="FF31" s="0"/>
-      <c r="FG31" s="0"/>
-      <c r="FH31" s="0"/>
-      <c r="FI31" s="0"/>
-      <c r="FJ31" s="0"/>
-      <c r="FK31" s="0"/>
-      <c r="FL31" s="0"/>
-      <c r="FM31" s="0"/>
-      <c r="FN31" s="0"/>
-      <c r="FO31" s="0"/>
-      <c r="FP31" s="0"/>
-      <c r="FQ31" s="0"/>
-      <c r="FR31" s="0"/>
-      <c r="FS31" s="0"/>
-      <c r="FT31" s="0"/>
-      <c r="FU31" s="0"/>
-      <c r="FV31" s="0"/>
-      <c r="FW31" s="0"/>
-      <c r="FX31" s="0"/>
-      <c r="FY31" s="0"/>
-      <c r="FZ31" s="0"/>
-      <c r="GA31" s="0"/>
-      <c r="GB31" s="0"/>
-      <c r="GC31" s="0"/>
-      <c r="GD31" s="0"/>
-      <c r="GE31" s="0"/>
-      <c r="GF31" s="0"/>
-      <c r="GG31" s="0"/>
-      <c r="GH31" s="0"/>
-      <c r="GI31" s="0"/>
-      <c r="GJ31" s="0"/>
-      <c r="GK31" s="0"/>
-      <c r="GL31" s="0"/>
-      <c r="GM31" s="0"/>
-      <c r="GN31" s="0"/>
-      <c r="GO31" s="0"/>
-      <c r="GP31" s="0"/>
-      <c r="GQ31" s="0"/>
-      <c r="GR31" s="0"/>
-      <c r="GS31" s="0"/>
-      <c r="GT31" s="0"/>
-      <c r="GU31" s="0"/>
-      <c r="GV31" s="0"/>
-      <c r="GW31" s="0"/>
-      <c r="GX31" s="0"/>
-      <c r="GY31" s="0"/>
-      <c r="GZ31" s="0"/>
-      <c r="HA31" s="0"/>
-      <c r="HB31" s="0"/>
-      <c r="HC31" s="0"/>
-      <c r="HD31" s="0"/>
-      <c r="HE31" s="0"/>
-      <c r="HF31" s="0"/>
-      <c r="HG31" s="0"/>
-      <c r="HH31" s="0"/>
-      <c r="HI31" s="0"/>
-      <c r="HJ31" s="0"/>
-      <c r="HK31" s="0"/>
-      <c r="HL31" s="0"/>
-      <c r="HM31" s="0"/>
-      <c r="HN31" s="0"/>
-      <c r="HO31" s="0"/>
-      <c r="HP31" s="0"/>
-      <c r="HQ31" s="0"/>
-      <c r="HR31" s="0"/>
-      <c r="HS31" s="0"/>
-      <c r="HT31" s="0"/>
-      <c r="HU31" s="0"/>
-      <c r="HV31" s="0"/>
-      <c r="HW31" s="0"/>
-      <c r="HX31" s="0"/>
-      <c r="HY31" s="0"/>
-      <c r="HZ31" s="0"/>
-      <c r="IA31" s="0"/>
-      <c r="IB31" s="0"/>
-      <c r="IC31" s="0"/>
-      <c r="ID31" s="0"/>
-      <c r="IE31" s="0"/>
-      <c r="IF31" s="0"/>
-      <c r="IG31" s="0"/>
-      <c r="IH31" s="0"/>
-      <c r="II31" s="0"/>
-      <c r="IJ31" s="0"/>
-      <c r="IK31" s="0"/>
-      <c r="IL31" s="0"/>
-      <c r="IM31" s="0"/>
-      <c r="IN31" s="0"/>
-      <c r="IO31" s="0"/>
-      <c r="IP31" s="0"/>
-      <c r="IQ31" s="0"/>
-      <c r="IR31" s="0"/>
-      <c r="IS31" s="0"/>
-      <c r="IT31" s="0"/>
-      <c r="IU31" s="0"/>
-      <c r="IV31" s="0"/>
-      <c r="IW31" s="0"/>
-      <c r="IX31" s="0"/>
-      <c r="IY31" s="0"/>
-      <c r="IZ31" s="0"/>
-      <c r="JA31" s="0"/>
-      <c r="JB31" s="0"/>
-      <c r="JC31" s="0"/>
-      <c r="JD31" s="0"/>
-      <c r="JE31" s="0"/>
-      <c r="JF31" s="0"/>
-      <c r="JG31" s="0"/>
-      <c r="JH31" s="0"/>
-      <c r="JI31" s="0"/>
-      <c r="JJ31" s="0"/>
-      <c r="JK31" s="0"/>
-      <c r="JL31" s="0"/>
-      <c r="JM31" s="0"/>
-      <c r="JN31" s="0"/>
-      <c r="JO31" s="0"/>
-      <c r="JP31" s="0"/>
-      <c r="JQ31" s="0"/>
-      <c r="JR31" s="0"/>
-      <c r="JS31" s="0"/>
-      <c r="JT31" s="0"/>
-      <c r="JU31" s="0"/>
-      <c r="JV31" s="0"/>
-      <c r="JW31" s="0"/>
-      <c r="JX31" s="0"/>
-      <c r="JY31" s="0"/>
-      <c r="JZ31" s="0"/>
-      <c r="KA31" s="0"/>
-      <c r="KB31" s="0"/>
-      <c r="KC31" s="0"/>
-      <c r="KD31" s="0"/>
-      <c r="KE31" s="0"/>
-      <c r="KF31" s="0"/>
-      <c r="KG31" s="0"/>
-      <c r="KH31" s="0"/>
-      <c r="KI31" s="0"/>
-      <c r="KJ31" s="0"/>
-      <c r="KK31" s="0"/>
-      <c r="KL31" s="0"/>
-      <c r="KM31" s="0"/>
-      <c r="KN31" s="0"/>
-      <c r="KO31" s="0"/>
-      <c r="KP31" s="0"/>
-      <c r="KQ31" s="0"/>
-      <c r="KR31" s="0"/>
-      <c r="KS31" s="0"/>
-      <c r="KT31" s="0"/>
-      <c r="KU31" s="0"/>
-      <c r="KV31" s="0"/>
-      <c r="KW31" s="0"/>
-      <c r="KX31" s="0"/>
-      <c r="KY31" s="0"/>
-      <c r="KZ31" s="0"/>
-      <c r="LA31" s="0"/>
-      <c r="LB31" s="0"/>
-      <c r="LC31" s="0"/>
-      <c r="LD31" s="0"/>
-      <c r="LE31" s="0"/>
-      <c r="LF31" s="0"/>
-      <c r="LG31" s="0"/>
-      <c r="LH31" s="0"/>
-      <c r="LI31" s="0"/>
-      <c r="LJ31" s="0"/>
-      <c r="LK31" s="0"/>
-      <c r="LL31" s="0"/>
-      <c r="LM31" s="0"/>
-      <c r="LN31" s="0"/>
-      <c r="LO31" s="0"/>
-      <c r="LP31" s="0"/>
-      <c r="LQ31" s="0"/>
-      <c r="LR31" s="0"/>
-      <c r="LS31" s="0"/>
-      <c r="LT31" s="0"/>
-      <c r="LU31" s="0"/>
-      <c r="LV31" s="0"/>
-      <c r="LW31" s="0"/>
-      <c r="LX31" s="0"/>
-      <c r="LY31" s="0"/>
-      <c r="LZ31" s="0"/>
-      <c r="MA31" s="0"/>
-      <c r="MB31" s="0"/>
-      <c r="MC31" s="0"/>
-      <c r="MD31" s="0"/>
-      <c r="ME31" s="0"/>
-      <c r="MF31" s="0"/>
-      <c r="MG31" s="0"/>
-      <c r="MH31" s="0"/>
-      <c r="MI31" s="0"/>
-      <c r="MJ31" s="0"/>
-      <c r="MK31" s="0"/>
-      <c r="ML31" s="0"/>
-      <c r="MM31" s="0"/>
-      <c r="MN31" s="0"/>
-      <c r="MO31" s="0"/>
-      <c r="MP31" s="0"/>
-      <c r="MQ31" s="0"/>
-      <c r="MR31" s="0"/>
-      <c r="MS31" s="0"/>
-      <c r="MT31" s="0"/>
-      <c r="MU31" s="0"/>
-      <c r="MV31" s="0"/>
-      <c r="MW31" s="0"/>
-      <c r="MX31" s="0"/>
-      <c r="MY31" s="0"/>
-      <c r="MZ31" s="0"/>
-      <c r="NA31" s="0"/>
-      <c r="NB31" s="0"/>
-      <c r="NC31" s="0"/>
-      <c r="ND31" s="0"/>
-      <c r="NE31" s="0"/>
-      <c r="NF31" s="0"/>
-      <c r="NG31" s="0"/>
-      <c r="NH31" s="0"/>
-      <c r="NI31" s="0"/>
-      <c r="NJ31" s="0"/>
-      <c r="NK31" s="0"/>
-      <c r="NL31" s="0"/>
-      <c r="NM31" s="0"/>
-      <c r="NN31" s="0"/>
-      <c r="NO31" s="0"/>
-      <c r="NP31" s="0"/>
-      <c r="NQ31" s="0"/>
-      <c r="NR31" s="0"/>
-      <c r="NS31" s="0"/>
-      <c r="NT31" s="0"/>
-      <c r="NU31" s="0"/>
-      <c r="NV31" s="0"/>
-      <c r="NW31" s="0"/>
-      <c r="NX31" s="0"/>
-      <c r="NY31" s="0"/>
-      <c r="NZ31" s="0"/>
-      <c r="OA31" s="0"/>
-      <c r="OB31" s="0"/>
-      <c r="OC31" s="0"/>
-      <c r="OD31" s="0"/>
-      <c r="OE31" s="0"/>
-      <c r="OF31" s="0"/>
-      <c r="OG31" s="0"/>
-      <c r="OH31" s="0"/>
-      <c r="OI31" s="0"/>
-      <c r="OJ31" s="0"/>
-      <c r="OK31" s="0"/>
-      <c r="OL31" s="0"/>
-      <c r="OM31" s="0"/>
-      <c r="ON31" s="0"/>
-      <c r="OO31" s="0"/>
-      <c r="OP31" s="0"/>
-      <c r="OQ31" s="0"/>
-      <c r="OR31" s="0"/>
-      <c r="OS31" s="0"/>
-      <c r="OT31" s="0"/>
-      <c r="OU31" s="0"/>
-      <c r="OV31" s="0"/>
-      <c r="OW31" s="0"/>
-      <c r="OX31" s="0"/>
-      <c r="OY31" s="0"/>
-      <c r="OZ31" s="0"/>
-      <c r="PA31" s="0"/>
-      <c r="PB31" s="0"/>
-      <c r="PC31" s="0"/>
-      <c r="PD31" s="0"/>
-      <c r="PE31" s="0"/>
-      <c r="PF31" s="0"/>
-      <c r="PG31" s="0"/>
-      <c r="PH31" s="0"/>
-      <c r="PI31" s="0"/>
-      <c r="PJ31" s="0"/>
-      <c r="PK31" s="0"/>
-      <c r="PL31" s="0"/>
-      <c r="PM31" s="0"/>
-      <c r="PN31" s="0"/>
-      <c r="PO31" s="0"/>
-      <c r="PP31" s="0"/>
-      <c r="PQ31" s="0"/>
-      <c r="PR31" s="0"/>
-      <c r="PS31" s="0"/>
-      <c r="PT31" s="0"/>
-      <c r="PU31" s="0"/>
-      <c r="PV31" s="0"/>
-      <c r="PW31" s="0"/>
-      <c r="PX31" s="0"/>
-      <c r="PY31" s="0"/>
-      <c r="PZ31" s="0"/>
-      <c r="QA31" s="0"/>
-      <c r="QB31" s="0"/>
-      <c r="QC31" s="0"/>
-      <c r="QD31" s="0"/>
-      <c r="QE31" s="0"/>
-      <c r="QF31" s="0"/>
-      <c r="QG31" s="0"/>
-      <c r="QH31" s="0"/>
-      <c r="QI31" s="0"/>
-      <c r="QJ31" s="0"/>
-      <c r="QK31" s="0"/>
-      <c r="QL31" s="0"/>
-      <c r="QM31" s="0"/>
-      <c r="QN31" s="0"/>
-      <c r="QO31" s="0"/>
-      <c r="QP31" s="0"/>
-      <c r="QQ31" s="0"/>
-      <c r="QR31" s="0"/>
-      <c r="QS31" s="0"/>
-      <c r="QT31" s="0"/>
-      <c r="QU31" s="0"/>
-      <c r="QV31" s="0"/>
-      <c r="QW31" s="0"/>
-      <c r="QX31" s="0"/>
-      <c r="QY31" s="0"/>
-      <c r="QZ31" s="0"/>
-      <c r="RA31" s="0"/>
-      <c r="RB31" s="0"/>
-      <c r="RC31" s="0"/>
-      <c r="RD31" s="0"/>
-      <c r="RE31" s="0"/>
-      <c r="RF31" s="0"/>
-      <c r="RG31" s="0"/>
-      <c r="RH31" s="0"/>
-      <c r="RI31" s="0"/>
-      <c r="RJ31" s="0"/>
-      <c r="RK31" s="0"/>
-      <c r="RL31" s="0"/>
-      <c r="RM31" s="0"/>
-      <c r="RN31" s="0"/>
-      <c r="RO31" s="0"/>
-      <c r="RP31" s="0"/>
-      <c r="RQ31" s="0"/>
-      <c r="RR31" s="0"/>
-      <c r="RS31" s="0"/>
-      <c r="RT31" s="0"/>
-      <c r="RU31" s="0"/>
-      <c r="RV31" s="0"/>
-      <c r="RW31" s="0"/>
-      <c r="RX31" s="0"/>
-      <c r="RY31" s="0"/>
-      <c r="RZ31" s="0"/>
-      <c r="SA31" s="0"/>
-      <c r="SB31" s="0"/>
-      <c r="SC31" s="0"/>
-      <c r="SD31" s="0"/>
-      <c r="SE31" s="0"/>
-      <c r="SF31" s="0"/>
-      <c r="SG31" s="0"/>
-      <c r="SH31" s="0"/>
-      <c r="SI31" s="0"/>
-      <c r="SJ31" s="0"/>
-      <c r="SK31" s="0"/>
-      <c r="SL31" s="0"/>
-      <c r="SM31" s="0"/>
-      <c r="SN31" s="0"/>
-      <c r="SO31" s="0"/>
-      <c r="SP31" s="0"/>
-      <c r="SQ31" s="0"/>
-      <c r="SR31" s="0"/>
-      <c r="SS31" s="0"/>
-      <c r="ST31" s="0"/>
-      <c r="SU31" s="0"/>
-      <c r="SV31" s="0"/>
-      <c r="SW31" s="0"/>
-      <c r="SX31" s="0"/>
-      <c r="SY31" s="0"/>
-      <c r="SZ31" s="0"/>
-      <c r="TA31" s="0"/>
-      <c r="TB31" s="0"/>
-      <c r="TC31" s="0"/>
-      <c r="TD31" s="0"/>
-      <c r="TE31" s="0"/>
-      <c r="TF31" s="0"/>
-      <c r="TG31" s="0"/>
-      <c r="TH31" s="0"/>
-      <c r="TI31" s="0"/>
-      <c r="TJ31" s="0"/>
-      <c r="TK31" s="0"/>
-      <c r="TL31" s="0"/>
-      <c r="TM31" s="0"/>
-      <c r="TN31" s="0"/>
-      <c r="TO31" s="0"/>
-      <c r="TP31" s="0"/>
-      <c r="TQ31" s="0"/>
-      <c r="TR31" s="0"/>
-      <c r="TS31" s="0"/>
-      <c r="TT31" s="0"/>
-      <c r="TU31" s="0"/>
-      <c r="TV31" s="0"/>
-      <c r="TW31" s="0"/>
-      <c r="TX31" s="0"/>
-      <c r="TY31" s="0"/>
-      <c r="TZ31" s="0"/>
-      <c r="UA31" s="0"/>
-      <c r="UB31" s="0"/>
-      <c r="UC31" s="0"/>
-      <c r="UD31" s="0"/>
-      <c r="UE31" s="0"/>
-      <c r="UF31" s="0"/>
-      <c r="UG31" s="0"/>
-      <c r="UH31" s="0"/>
-      <c r="UI31" s="0"/>
-      <c r="UJ31" s="0"/>
-      <c r="UK31" s="0"/>
-      <c r="UL31" s="0"/>
-      <c r="UM31" s="0"/>
-      <c r="UN31" s="0"/>
-      <c r="UO31" s="0"/>
-      <c r="UP31" s="0"/>
-      <c r="UQ31" s="0"/>
-      <c r="UR31" s="0"/>
-      <c r="US31" s="0"/>
-      <c r="UT31" s="0"/>
-      <c r="UU31" s="0"/>
-      <c r="UV31" s="0"/>
-      <c r="UW31" s="0"/>
-      <c r="UX31" s="0"/>
-      <c r="UY31" s="0"/>
-      <c r="UZ31" s="0"/>
-      <c r="VA31" s="0"/>
-      <c r="VB31" s="0"/>
-      <c r="VC31" s="0"/>
-      <c r="VD31" s="0"/>
-      <c r="VE31" s="0"/>
-      <c r="VF31" s="0"/>
-      <c r="VG31" s="0"/>
-      <c r="VH31" s="0"/>
-      <c r="VI31" s="0"/>
-      <c r="VJ31" s="0"/>
-      <c r="VK31" s="0"/>
-      <c r="VL31" s="0"/>
-      <c r="VM31" s="0"/>
-      <c r="VN31" s="0"/>
-      <c r="VO31" s="0"/>
-      <c r="VP31" s="0"/>
-      <c r="VQ31" s="0"/>
-      <c r="VR31" s="0"/>
-      <c r="VS31" s="0"/>
-      <c r="VT31" s="0"/>
-      <c r="VU31" s="0"/>
-      <c r="VV31" s="0"/>
-      <c r="VW31" s="0"/>
-      <c r="VX31" s="0"/>
-      <c r="VY31" s="0"/>
-      <c r="VZ31" s="0"/>
-      <c r="WA31" s="0"/>
-      <c r="WB31" s="0"/>
-      <c r="WC31" s="0"/>
-      <c r="WD31" s="0"/>
-      <c r="WE31" s="0"/>
-      <c r="WF31" s="0"/>
-      <c r="WG31" s="0"/>
-      <c r="WH31" s="0"/>
-      <c r="WI31" s="0"/>
-      <c r="WJ31" s="0"/>
-      <c r="WK31" s="0"/>
-      <c r="WL31" s="0"/>
-      <c r="WM31" s="0"/>
-      <c r="WN31" s="0"/>
-      <c r="WO31" s="0"/>
-      <c r="WP31" s="0"/>
-      <c r="WQ31" s="0"/>
-      <c r="WR31" s="0"/>
-      <c r="WS31" s="0"/>
-      <c r="WT31" s="0"/>
-      <c r="WU31" s="0"/>
-      <c r="WV31" s="0"/>
-      <c r="WW31" s="0"/>
-      <c r="WX31" s="0"/>
-      <c r="WY31" s="0"/>
-      <c r="WZ31" s="0"/>
-      <c r="XA31" s="0"/>
-      <c r="XB31" s="0"/>
-      <c r="XC31" s="0"/>
-      <c r="XD31" s="0"/>
-      <c r="XE31" s="0"/>
-      <c r="XF31" s="0"/>
-      <c r="XG31" s="0"/>
-      <c r="XH31" s="0"/>
-      <c r="XI31" s="0"/>
-      <c r="XJ31" s="0"/>
-      <c r="XK31" s="0"/>
-      <c r="XL31" s="0"/>
-      <c r="XM31" s="0"/>
-      <c r="XN31" s="0"/>
-      <c r="XO31" s="0"/>
-      <c r="XP31" s="0"/>
-      <c r="XQ31" s="0"/>
-      <c r="XR31" s="0"/>
-      <c r="XS31" s="0"/>
-      <c r="XT31" s="0"/>
-      <c r="XU31" s="0"/>
-      <c r="XV31" s="0"/>
-      <c r="XW31" s="0"/>
-      <c r="XX31" s="0"/>
-      <c r="XY31" s="0"/>
-      <c r="XZ31" s="0"/>
-      <c r="YA31" s="0"/>
-      <c r="YB31" s="0"/>
-      <c r="YC31" s="0"/>
-      <c r="YD31" s="0"/>
-      <c r="YE31" s="0"/>
-      <c r="YF31" s="0"/>
-      <c r="YG31" s="0"/>
-      <c r="YH31" s="0"/>
-      <c r="YI31" s="0"/>
-      <c r="YJ31" s="0"/>
-      <c r="YK31" s="0"/>
-      <c r="YL31" s="0"/>
-      <c r="YM31" s="0"/>
-      <c r="YN31" s="0"/>
-      <c r="YO31" s="0"/>
-      <c r="YP31" s="0"/>
-      <c r="YQ31" s="0"/>
-      <c r="YR31" s="0"/>
-      <c r="YS31" s="0"/>
-      <c r="YT31" s="0"/>
-      <c r="YU31" s="0"/>
-      <c r="YV31" s="0"/>
-      <c r="YW31" s="0"/>
-      <c r="YX31" s="0"/>
-      <c r="YY31" s="0"/>
-      <c r="YZ31" s="0"/>
-      <c r="ZA31" s="0"/>
-      <c r="ZB31" s="0"/>
-      <c r="ZC31" s="0"/>
-      <c r="ZD31" s="0"/>
-      <c r="ZE31" s="0"/>
-      <c r="ZF31" s="0"/>
-      <c r="ZG31" s="0"/>
-      <c r="ZH31" s="0"/>
-      <c r="ZI31" s="0"/>
-      <c r="ZJ31" s="0"/>
-      <c r="ZK31" s="0"/>
-      <c r="ZL31" s="0"/>
-      <c r="ZM31" s="0"/>
-      <c r="ZN31" s="0"/>
-      <c r="ZO31" s="0"/>
-      <c r="ZP31" s="0"/>
-      <c r="ZQ31" s="0"/>
-      <c r="ZR31" s="0"/>
-      <c r="ZS31" s="0"/>
-      <c r="ZT31" s="0"/>
-      <c r="ZU31" s="0"/>
-      <c r="ZV31" s="0"/>
-      <c r="ZW31" s="0"/>
-      <c r="ZX31" s="0"/>
-      <c r="ZY31" s="0"/>
-      <c r="ZZ31" s="0"/>
-      <c r="AAA31" s="0"/>
-      <c r="AAB31" s="0"/>
-      <c r="AAC31" s="0"/>
-      <c r="AAD31" s="0"/>
-      <c r="AAE31" s="0"/>
-      <c r="AAF31" s="0"/>
-      <c r="AAG31" s="0"/>
-      <c r="AAH31" s="0"/>
-      <c r="AAI31" s="0"/>
-      <c r="AAJ31" s="0"/>
-      <c r="AAK31" s="0"/>
-      <c r="AAL31" s="0"/>
-      <c r="AAM31" s="0"/>
-      <c r="AAN31" s="0"/>
-      <c r="AAO31" s="0"/>
-      <c r="AAP31" s="0"/>
-      <c r="AAQ31" s="0"/>
-      <c r="AAR31" s="0"/>
-      <c r="AAS31" s="0"/>
-      <c r="AAT31" s="0"/>
-      <c r="AAU31" s="0"/>
-      <c r="AAV31" s="0"/>
-      <c r="AAW31" s="0"/>
-      <c r="AAX31" s="0"/>
-      <c r="AAY31" s="0"/>
-      <c r="AAZ31" s="0"/>
-      <c r="ABA31" s="0"/>
-      <c r="ABB31" s="0"/>
-      <c r="ABC31" s="0"/>
-      <c r="ABD31" s="0"/>
-      <c r="ABE31" s="0"/>
-      <c r="ABF31" s="0"/>
-      <c r="ABG31" s="0"/>
-      <c r="ABH31" s="0"/>
-      <c r="ABI31" s="0"/>
-      <c r="ABJ31" s="0"/>
-      <c r="ABK31" s="0"/>
-      <c r="ABL31" s="0"/>
-      <c r="ABM31" s="0"/>
-      <c r="ABN31" s="0"/>
-      <c r="ABO31" s="0"/>
-      <c r="ABP31" s="0"/>
-      <c r="ABQ31" s="0"/>
-      <c r="ABR31" s="0"/>
-      <c r="ABS31" s="0"/>
-      <c r="ABT31" s="0"/>
-      <c r="ABU31" s="0"/>
-      <c r="ABV31" s="0"/>
-      <c r="ABW31" s="0"/>
-      <c r="ABX31" s="0"/>
-      <c r="ABY31" s="0"/>
-      <c r="ABZ31" s="0"/>
-      <c r="ACA31" s="0"/>
-      <c r="ACB31" s="0"/>
-      <c r="ACC31" s="0"/>
-      <c r="ACD31" s="0"/>
-      <c r="ACE31" s="0"/>
-      <c r="ACF31" s="0"/>
-      <c r="ACG31" s="0"/>
-      <c r="ACH31" s="0"/>
-      <c r="ACI31" s="0"/>
-      <c r="ACJ31" s="0"/>
-      <c r="ACK31" s="0"/>
-      <c r="ACL31" s="0"/>
-      <c r="ACM31" s="0"/>
-      <c r="ACN31" s="0"/>
-      <c r="ACO31" s="0"/>
-      <c r="ACP31" s="0"/>
-      <c r="ACQ31" s="0"/>
-      <c r="ACR31" s="0"/>
-      <c r="ACS31" s="0"/>
-      <c r="ACT31" s="0"/>
-      <c r="ACU31" s="0"/>
-      <c r="ACV31" s="0"/>
-      <c r="ACW31" s="0"/>
-      <c r="ACX31" s="0"/>
-      <c r="ACY31" s="0"/>
-      <c r="ACZ31" s="0"/>
-      <c r="ADA31" s="0"/>
-      <c r="ADB31" s="0"/>
-      <c r="ADC31" s="0"/>
-      <c r="ADD31" s="0"/>
-      <c r="ADE31" s="0"/>
-      <c r="ADF31" s="0"/>
-      <c r="ADG31" s="0"/>
-      <c r="ADH31" s="0"/>
-      <c r="ADI31" s="0"/>
-      <c r="ADJ31" s="0"/>
-      <c r="ADK31" s="0"/>
-      <c r="ADL31" s="0"/>
-      <c r="ADM31" s="0"/>
-      <c r="ADN31" s="0"/>
-      <c r="ADO31" s="0"/>
-      <c r="ADP31" s="0"/>
-      <c r="ADQ31" s="0"/>
-      <c r="ADR31" s="0"/>
-      <c r="ADS31" s="0"/>
-      <c r="ADT31" s="0"/>
-      <c r="ADU31" s="0"/>
-      <c r="ADV31" s="0"/>
-      <c r="ADW31" s="0"/>
-      <c r="ADX31" s="0"/>
-      <c r="ADY31" s="0"/>
-      <c r="ADZ31" s="0"/>
-      <c r="AEA31" s="0"/>
-      <c r="AEB31" s="0"/>
-      <c r="AEC31" s="0"/>
-      <c r="AED31" s="0"/>
-      <c r="AEE31" s="0"/>
-      <c r="AEF31" s="0"/>
-      <c r="AEG31" s="0"/>
-      <c r="AEH31" s="0"/>
-      <c r="AEI31" s="0"/>
-      <c r="AEJ31" s="0"/>
-      <c r="AEK31" s="0"/>
-      <c r="AEL31" s="0"/>
-      <c r="AEM31" s="0"/>
-      <c r="AEN31" s="0"/>
-      <c r="AEO31" s="0"/>
-      <c r="AEP31" s="0"/>
-      <c r="AEQ31" s="0"/>
-      <c r="AER31" s="0"/>
-      <c r="AES31" s="0"/>
-      <c r="AET31" s="0"/>
-      <c r="AEU31" s="0"/>
-      <c r="AEV31" s="0"/>
-      <c r="AEW31" s="0"/>
-      <c r="AEX31" s="0"/>
-      <c r="AEY31" s="0"/>
-      <c r="AEZ31" s="0"/>
-      <c r="AFA31" s="0"/>
-      <c r="AFB31" s="0"/>
-      <c r="AFC31" s="0"/>
-      <c r="AFD31" s="0"/>
-      <c r="AFE31" s="0"/>
-      <c r="AFF31" s="0"/>
-      <c r="AFG31" s="0"/>
-      <c r="AFH31" s="0"/>
-      <c r="AFI31" s="0"/>
-      <c r="AFJ31" s="0"/>
-      <c r="AFK31" s="0"/>
-      <c r="AFL31" s="0"/>
-      <c r="AFM31" s="0"/>
-      <c r="AFN31" s="0"/>
-      <c r="AFO31" s="0"/>
-      <c r="AFP31" s="0"/>
-      <c r="AFQ31" s="0"/>
-      <c r="AFR31" s="0"/>
-      <c r="AFS31" s="0"/>
-      <c r="AFT31" s="0"/>
-      <c r="AFU31" s="0"/>
-      <c r="AFV31" s="0"/>
-      <c r="AFW31" s="0"/>
-      <c r="AFX31" s="0"/>
-      <c r="AFY31" s="0"/>
-      <c r="AFZ31" s="0"/>
-      <c r="AGA31" s="0"/>
-      <c r="AGB31" s="0"/>
-      <c r="AGC31" s="0"/>
-      <c r="AGD31" s="0"/>
-      <c r="AGE31" s="0"/>
-      <c r="AGF31" s="0"/>
-      <c r="AGG31" s="0"/>
-      <c r="AGH31" s="0"/>
-      <c r="AGI31" s="0"/>
-      <c r="AGJ31" s="0"/>
-      <c r="AGK31" s="0"/>
-      <c r="AGL31" s="0"/>
-      <c r="AGM31" s="0"/>
-      <c r="AGN31" s="0"/>
-      <c r="AGO31" s="0"/>
-      <c r="AGP31" s="0"/>
-      <c r="AGQ31" s="0"/>
-      <c r="AGR31" s="0"/>
-      <c r="AGS31" s="0"/>
-      <c r="AGT31" s="0"/>
-      <c r="AGU31" s="0"/>
-      <c r="AGV31" s="0"/>
-      <c r="AGW31" s="0"/>
-      <c r="AGX31" s="0"/>
-      <c r="AGY31" s="0"/>
-      <c r="AGZ31" s="0"/>
-      <c r="AHA31" s="0"/>
-      <c r="AHB31" s="0"/>
-      <c r="AHC31" s="0"/>
-      <c r="AHD31" s="0"/>
-      <c r="AHE31" s="0"/>
-      <c r="AHF31" s="0"/>
-      <c r="AHG31" s="0"/>
-      <c r="AHH31" s="0"/>
-      <c r="AHI31" s="0"/>
-      <c r="AHJ31" s="0"/>
-      <c r="AHK31" s="0"/>
-      <c r="AHL31" s="0"/>
-      <c r="AHM31" s="0"/>
-      <c r="AHN31" s="0"/>
-      <c r="AHO31" s="0"/>
-      <c r="AHP31" s="0"/>
-      <c r="AHQ31" s="0"/>
-      <c r="AHR31" s="0"/>
-      <c r="AHS31" s="0"/>
-      <c r="AHT31" s="0"/>
-      <c r="AHU31" s="0"/>
-      <c r="AHV31" s="0"/>
-      <c r="AHW31" s="0"/>
-      <c r="AHX31" s="0"/>
-      <c r="AHY31" s="0"/>
-      <c r="AHZ31" s="0"/>
-      <c r="AIA31" s="0"/>
-      <c r="AIB31" s="0"/>
-      <c r="AIC31" s="0"/>
-      <c r="AID31" s="0"/>
-      <c r="AIE31" s="0"/>
-      <c r="AIF31" s="0"/>
-      <c r="AIG31" s="0"/>
-      <c r="AIH31" s="0"/>
-      <c r="AII31" s="0"/>
-      <c r="AIJ31" s="0"/>
-      <c r="AIK31" s="0"/>
-      <c r="AIL31" s="0"/>
-      <c r="AIM31" s="0"/>
-      <c r="AIN31" s="0"/>
-      <c r="AIO31" s="0"/>
-      <c r="AIP31" s="0"/>
-      <c r="AIQ31" s="0"/>
-      <c r="AIR31" s="0"/>
-      <c r="AIS31" s="0"/>
-      <c r="AIT31" s="0"/>
-      <c r="AIU31" s="0"/>
-      <c r="AIV31" s="0"/>
-      <c r="AIW31" s="0"/>
-      <c r="AIX31" s="0"/>
-      <c r="AIY31" s="0"/>
-      <c r="AIZ31" s="0"/>
-      <c r="AJA31" s="0"/>
-      <c r="AJB31" s="0"/>
-      <c r="AJC31" s="0"/>
-      <c r="AJD31" s="0"/>
-      <c r="AJE31" s="0"/>
-      <c r="AJF31" s="0"/>
-      <c r="AJG31" s="0"/>
-      <c r="AJH31" s="0"/>
-      <c r="AJI31" s="0"/>
-      <c r="AJJ31" s="0"/>
-      <c r="AJK31" s="0"/>
-      <c r="AJL31" s="0"/>
-      <c r="AJM31" s="0"/>
-      <c r="AJN31" s="0"/>
-      <c r="AJO31" s="0"/>
-      <c r="AJP31" s="0"/>
-      <c r="AJQ31" s="0"/>
-      <c r="AJR31" s="0"/>
-      <c r="AJS31" s="0"/>
-      <c r="AJT31" s="0"/>
-      <c r="AJU31" s="0"/>
-      <c r="AJV31" s="0"/>
-      <c r="AJW31" s="0"/>
-      <c r="AJX31" s="0"/>
-      <c r="AJY31" s="0"/>
-      <c r="AJZ31" s="0"/>
-      <c r="AKA31" s="0"/>
-      <c r="AKB31" s="0"/>
-      <c r="AKC31" s="0"/>
-      <c r="AKD31" s="0"/>
-      <c r="AKE31" s="0"/>
-      <c r="AKF31" s="0"/>
-      <c r="AKG31" s="0"/>
-      <c r="AKH31" s="0"/>
-      <c r="AKI31" s="0"/>
-      <c r="AKJ31" s="0"/>
-      <c r="AKK31" s="0"/>
-      <c r="AKL31" s="0"/>
-      <c r="AKM31" s="0"/>
-      <c r="AKN31" s="0"/>
-      <c r="AKO31" s="0"/>
-      <c r="AKP31" s="0"/>
-      <c r="AKQ31" s="0"/>
-      <c r="AKR31" s="0"/>
-      <c r="AKS31" s="0"/>
-      <c r="AKT31" s="0"/>
-      <c r="AKU31" s="0"/>
-      <c r="AKV31" s="0"/>
-      <c r="AKW31" s="0"/>
-      <c r="AKX31" s="0"/>
-      <c r="AKY31" s="0"/>
-      <c r="AKZ31" s="0"/>
-      <c r="ALA31" s="0"/>
-      <c r="ALB31" s="0"/>
-      <c r="ALC31" s="0"/>
-      <c r="ALD31" s="0"/>
-      <c r="ALE31" s="0"/>
-      <c r="ALF31" s="0"/>
-      <c r="ALG31" s="0"/>
-      <c r="ALH31" s="0"/>
-      <c r="ALI31" s="0"/>
-      <c r="ALJ31" s="0"/>
-      <c r="ALK31" s="0"/>
-      <c r="ALL31" s="0"/>
-      <c r="ALM31" s="0"/>
-      <c r="ALN31" s="0"/>
-      <c r="ALO31" s="0"/>
-      <c r="ALP31" s="0"/>
-      <c r="ALQ31" s="0"/>
-      <c r="ALR31" s="0"/>
-      <c r="ALS31" s="0"/>
-      <c r="ALT31" s="0"/>
-      <c r="ALU31" s="0"/>
-      <c r="ALV31" s="0"/>
-      <c r="ALW31" s="0"/>
-      <c r="ALX31" s="0"/>
-      <c r="ALY31" s="0"/>
-      <c r="ALZ31" s="0"/>
-      <c r="AMA31" s="0"/>
-      <c r="AMB31" s="0"/>
-      <c r="AMC31" s="0"/>
-      <c r="AMD31" s="0"/>
-      <c r="AME31" s="0"/>
-      <c r="AMF31" s="0"/>
-      <c r="AMG31" s="0"/>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
+      <c r="C31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
-      <c r="B32" s="16" t="s">
-        <v>48</v>
+      <c r="B32" s="11" t="s">
+        <v>49</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -30054,10 +30070,10 @@
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
-      <c r="B33" s="20" t="s">
-        <v>6</v>
+      <c r="B33" s="16" t="s">
+        <v>50</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
@@ -31083,11 +31099,9 @@
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="21" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="C34" s="21"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
@@ -32112,10 +32126,10 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="0"/>
@@ -33142,10 +33156,12 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="20" t="s">
-        <v>44</v>
+      <c r="B36" s="22" t="s">
+        <v>53</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
@@ -34171,11 +34187,9 @@
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
       <c r="B37" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>54</v>
-      </c>
+      <c r="C37" s="21"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
@@ -35200,10 +35214,12 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="22" t="s">
+        <v>56</v>
+      </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
@@ -36229,11 +36245,9 @@
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="21" t="s">
         <v>57</v>
       </c>
+      <c r="C39" s="21"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
@@ -37258,10 +37272,12 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="20"/>
+      <c r="C40" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
@@ -38287,11 +38303,9 @@
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
       <c r="B41" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="21" t="s">
         <v>60</v>
       </c>
+      <c r="C41" s="21"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -39316,10 +39330,12 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
-      <c r="B42" s="20" t="s">
-        <v>9</v>
+      <c r="B42" s="22" t="s">
+        <v>61</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
@@ -40342,15 +40358,13 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="14" t="s">
-        <v>10</v>
+      <c r="B43" s="21" t="s">
+        <v>9</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="0"/>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
       <c r="G43" s="0"/>
@@ -41372,13 +41386,13 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
       <c r="B44" s="14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>62</v>
+      <c r="C44" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="0"/>
@@ -42402,15 +42416,15 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
       <c r="B45" s="14" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>64</v>
+      <c r="C45" s="17" t="s">
+        <v>17</v>
       </c>
-      <c r="D45" s="0"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -43432,15 +43446,15 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
+    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0"/>
       <c r="B46" s="14" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>65</v>
+      <c r="C46" s="17" t="s">
+        <v>19</v>
       </c>
-      <c r="D46" s="0"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -44463,11 +44477,13 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="20" t="s">
-        <v>18</v>
+      <c r="A47" s="0"/>
+      <c r="B47" s="14" t="s">
+        <v>64</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
@@ -45492,11 +45508,11 @@
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="10"/>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
@@ -46522,12 +46538,10 @@
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10"/>
-      <c r="B49" s="15" t="s">
-        <v>68</v>
+      <c r="B49" s="21" t="s">
+        <v>20</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="C49" s="21"/>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
@@ -47552,11 +47566,11 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
-      <c r="B50" s="15" t="s">
-        <v>19</v>
+      <c r="B50" s="24" t="s">
+        <v>67</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>70</v>
+      <c r="C50" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
@@ -48583,10 +48597,10 @@
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
       <c r="B51" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
@@ -49611,12 +49625,12 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="15" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -50640,12 +50654,14 @@
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0"/>
-      <c r="B53" s="20" t="s">
-        <v>75</v>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10"/>
+      <c r="B53" s="15" t="s">
+        <v>72</v>
       </c>
-      <c r="C53" s="20"/>
+      <c r="C53" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
       <c r="F53" s="0"/>
@@ -51668,12 +51684,14 @@
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="0"/>
-      <c r="B54" s="13" t="s">
-        <v>76</v>
+      <c r="B54" s="15" t="s">
+        <v>74</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
       <c r="F54" s="0"/>
@@ -52696,12 +52714,12 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="B55" s="25" t="s">
-        <v>77</v>
+      <c r="B55" s="21" t="s">
+        <v>76</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
@@ -53724,14 +53742,12 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="B56" s="14" t="s">
-        <v>78</v>
+      <c r="B56" s="13" t="s">
+        <v>77</v>
       </c>
-      <c r="C56" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="C56" s="13"/>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -54754,14 +54770,12 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="B57" s="14" t="s">
-        <v>79</v>
+      <c r="B57" s="25" t="s">
+        <v>78</v>
       </c>
-      <c r="C57" s="22" t="s">
-        <v>80</v>
-      </c>
+      <c r="C57" s="25"/>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -55784,12 +55798,14 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10"/>
-      <c r="B58" s="25" t="s">
-        <v>81</v>
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="14" t="s">
+        <v>79</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="17" t="s">
+        <v>79</v>
+      </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
@@ -56812,13 +56828,13 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="10"/>
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0"/>
       <c r="B59" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
-      <c r="C59" s="15" t="s">
-        <v>83</v>
+      <c r="C59" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
@@ -57842,14 +57858,12 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="10"/>
-      <c r="B60" s="14" t="s">
-        <v>84</v>
+      <c r="B60" s="25" t="s">
+        <v>82</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="C60" s="25"/>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
       <c r="F60" s="0"/>
@@ -58872,12 +58886,14 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10"/>
-      <c r="B61" s="25" t="s">
-        <v>86</v>
+      <c r="B61" s="14" t="s">
+        <v>83</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
@@ -59902,11 +59918,11 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10"/>
-      <c r="B62" s="15" t="s">
-        <v>87</v>
+      <c r="B62" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
@@ -60930,69 +60946,2101 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" s="18" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="15" t="s">
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10"/>
+      <c r="B63" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="0"/>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
+      <c r="R63" s="0"/>
+      <c r="S63" s="0"/>
+      <c r="T63" s="0"/>
+      <c r="U63" s="0"/>
+      <c r="V63" s="0"/>
+      <c r="W63" s="0"/>
+      <c r="X63" s="0"/>
+      <c r="Y63" s="0"/>
+      <c r="Z63" s="0"/>
+      <c r="AA63" s="0"/>
+      <c r="AB63" s="0"/>
+      <c r="AC63" s="0"/>
+      <c r="AD63" s="0"/>
+      <c r="AE63" s="0"/>
+      <c r="AF63" s="0"/>
+      <c r="AG63" s="0"/>
+      <c r="AH63" s="0"/>
+      <c r="AI63" s="0"/>
+      <c r="AJ63" s="0"/>
+      <c r="AK63" s="0"/>
+      <c r="AL63" s="0"/>
+      <c r="AM63" s="0"/>
+      <c r="AN63" s="0"/>
+      <c r="AO63" s="0"/>
+      <c r="AP63" s="0"/>
+      <c r="AQ63" s="0"/>
+      <c r="AR63" s="0"/>
+      <c r="AS63" s="0"/>
+      <c r="AT63" s="0"/>
+      <c r="AU63" s="0"/>
+      <c r="AV63" s="0"/>
+      <c r="AW63" s="0"/>
+      <c r="AX63" s="0"/>
+      <c r="AY63" s="0"/>
+      <c r="AZ63" s="0"/>
+      <c r="BA63" s="0"/>
+      <c r="BB63" s="0"/>
+      <c r="BC63" s="0"/>
+      <c r="BD63" s="0"/>
+      <c r="BE63" s="0"/>
+      <c r="BF63" s="0"/>
+      <c r="BG63" s="0"/>
+      <c r="BH63" s="0"/>
+      <c r="BI63" s="0"/>
+      <c r="BJ63" s="0"/>
+      <c r="BK63" s="0"/>
+      <c r="BL63" s="0"/>
+      <c r="BM63" s="0"/>
+      <c r="BN63" s="0"/>
+      <c r="BO63" s="0"/>
+      <c r="BP63" s="0"/>
+      <c r="BQ63" s="0"/>
+      <c r="BR63" s="0"/>
+      <c r="BS63" s="0"/>
+      <c r="BT63" s="0"/>
+      <c r="BU63" s="0"/>
+      <c r="BV63" s="0"/>
+      <c r="BW63" s="0"/>
+      <c r="BX63" s="0"/>
+      <c r="BY63" s="0"/>
+      <c r="BZ63" s="0"/>
+      <c r="CA63" s="0"/>
+      <c r="CB63" s="0"/>
+      <c r="CC63" s="0"/>
+      <c r="CD63" s="0"/>
+      <c r="CE63" s="0"/>
+      <c r="CF63" s="0"/>
+      <c r="CG63" s="0"/>
+      <c r="CH63" s="0"/>
+      <c r="CI63" s="0"/>
+      <c r="CJ63" s="0"/>
+      <c r="CK63" s="0"/>
+      <c r="CL63" s="0"/>
+      <c r="CM63" s="0"/>
+      <c r="CN63" s="0"/>
+      <c r="CO63" s="0"/>
+      <c r="CP63" s="0"/>
+      <c r="CQ63" s="0"/>
+      <c r="CR63" s="0"/>
+      <c r="CS63" s="0"/>
+      <c r="CT63" s="0"/>
+      <c r="CU63" s="0"/>
+      <c r="CV63" s="0"/>
+      <c r="CW63" s="0"/>
+      <c r="CX63" s="0"/>
+      <c r="CY63" s="0"/>
+      <c r="CZ63" s="0"/>
+      <c r="DA63" s="0"/>
+      <c r="DB63" s="0"/>
+      <c r="DC63" s="0"/>
+      <c r="DD63" s="0"/>
+      <c r="DE63" s="0"/>
+      <c r="DF63" s="0"/>
+      <c r="DG63" s="0"/>
+      <c r="DH63" s="0"/>
+      <c r="DI63" s="0"/>
+      <c r="DJ63" s="0"/>
+      <c r="DK63" s="0"/>
+      <c r="DL63" s="0"/>
+      <c r="DM63" s="0"/>
+      <c r="DN63" s="0"/>
+      <c r="DO63" s="0"/>
+      <c r="DP63" s="0"/>
+      <c r="DQ63" s="0"/>
+      <c r="DR63" s="0"/>
+      <c r="DS63" s="0"/>
+      <c r="DT63" s="0"/>
+      <c r="DU63" s="0"/>
+      <c r="DV63" s="0"/>
+      <c r="DW63" s="0"/>
+      <c r="DX63" s="0"/>
+      <c r="DY63" s="0"/>
+      <c r="DZ63" s="0"/>
+      <c r="EA63" s="0"/>
+      <c r="EB63" s="0"/>
+      <c r="EC63" s="0"/>
+      <c r="ED63" s="0"/>
+      <c r="EE63" s="0"/>
+      <c r="EF63" s="0"/>
+      <c r="EG63" s="0"/>
+      <c r="EH63" s="0"/>
+      <c r="EI63" s="0"/>
+      <c r="EJ63" s="0"/>
+      <c r="EK63" s="0"/>
+      <c r="EL63" s="0"/>
+      <c r="EM63" s="0"/>
+      <c r="EN63" s="0"/>
+      <c r="EO63" s="0"/>
+      <c r="EP63" s="0"/>
+      <c r="EQ63" s="0"/>
+      <c r="ER63" s="0"/>
+      <c r="ES63" s="0"/>
+      <c r="ET63" s="0"/>
+      <c r="EU63" s="0"/>
+      <c r="EV63" s="0"/>
+      <c r="EW63" s="0"/>
+      <c r="EX63" s="0"/>
+      <c r="EY63" s="0"/>
+      <c r="EZ63" s="0"/>
+      <c r="FA63" s="0"/>
+      <c r="FB63" s="0"/>
+      <c r="FC63" s="0"/>
+      <c r="FD63" s="0"/>
+      <c r="FE63" s="0"/>
+      <c r="FF63" s="0"/>
+      <c r="FG63" s="0"/>
+      <c r="FH63" s="0"/>
+      <c r="FI63" s="0"/>
+      <c r="FJ63" s="0"/>
+      <c r="FK63" s="0"/>
+      <c r="FL63" s="0"/>
+      <c r="FM63" s="0"/>
+      <c r="FN63" s="0"/>
+      <c r="FO63" s="0"/>
+      <c r="FP63" s="0"/>
+      <c r="FQ63" s="0"/>
+      <c r="FR63" s="0"/>
+      <c r="FS63" s="0"/>
+      <c r="FT63" s="0"/>
+      <c r="FU63" s="0"/>
+      <c r="FV63" s="0"/>
+      <c r="FW63" s="0"/>
+      <c r="FX63" s="0"/>
+      <c r="FY63" s="0"/>
+      <c r="FZ63" s="0"/>
+      <c r="GA63" s="0"/>
+      <c r="GB63" s="0"/>
+      <c r="GC63" s="0"/>
+      <c r="GD63" s="0"/>
+      <c r="GE63" s="0"/>
+      <c r="GF63" s="0"/>
+      <c r="GG63" s="0"/>
+      <c r="GH63" s="0"/>
+      <c r="GI63" s="0"/>
+      <c r="GJ63" s="0"/>
+      <c r="GK63" s="0"/>
+      <c r="GL63" s="0"/>
+      <c r="GM63" s="0"/>
+      <c r="GN63" s="0"/>
+      <c r="GO63" s="0"/>
+      <c r="GP63" s="0"/>
+      <c r="GQ63" s="0"/>
+      <c r="GR63" s="0"/>
+      <c r="GS63" s="0"/>
+      <c r="GT63" s="0"/>
+      <c r="GU63" s="0"/>
+      <c r="GV63" s="0"/>
+      <c r="GW63" s="0"/>
+      <c r="GX63" s="0"/>
+      <c r="GY63" s="0"/>
+      <c r="GZ63" s="0"/>
+      <c r="HA63" s="0"/>
+      <c r="HB63" s="0"/>
+      <c r="HC63" s="0"/>
+      <c r="HD63" s="0"/>
+      <c r="HE63" s="0"/>
+      <c r="HF63" s="0"/>
+      <c r="HG63" s="0"/>
+      <c r="HH63" s="0"/>
+      <c r="HI63" s="0"/>
+      <c r="HJ63" s="0"/>
+      <c r="HK63" s="0"/>
+      <c r="HL63" s="0"/>
+      <c r="HM63" s="0"/>
+      <c r="HN63" s="0"/>
+      <c r="HO63" s="0"/>
+      <c r="HP63" s="0"/>
+      <c r="HQ63" s="0"/>
+      <c r="HR63" s="0"/>
+      <c r="HS63" s="0"/>
+      <c r="HT63" s="0"/>
+      <c r="HU63" s="0"/>
+      <c r="HV63" s="0"/>
+      <c r="HW63" s="0"/>
+      <c r="HX63" s="0"/>
+      <c r="HY63" s="0"/>
+      <c r="HZ63" s="0"/>
+      <c r="IA63" s="0"/>
+      <c r="IB63" s="0"/>
+      <c r="IC63" s="0"/>
+      <c r="ID63" s="0"/>
+      <c r="IE63" s="0"/>
+      <c r="IF63" s="0"/>
+      <c r="IG63" s="0"/>
+      <c r="IH63" s="0"/>
+      <c r="II63" s="0"/>
+      <c r="IJ63" s="0"/>
+      <c r="IK63" s="0"/>
+      <c r="IL63" s="0"/>
+      <c r="IM63" s="0"/>
+      <c r="IN63" s="0"/>
+      <c r="IO63" s="0"/>
+      <c r="IP63" s="0"/>
+      <c r="IQ63" s="0"/>
+      <c r="IR63" s="0"/>
+      <c r="IS63" s="0"/>
+      <c r="IT63" s="0"/>
+      <c r="IU63" s="0"/>
+      <c r="IV63" s="0"/>
+      <c r="IW63" s="0"/>
+      <c r="IX63" s="0"/>
+      <c r="IY63" s="0"/>
+      <c r="IZ63" s="0"/>
+      <c r="JA63" s="0"/>
+      <c r="JB63" s="0"/>
+      <c r="JC63" s="0"/>
+      <c r="JD63" s="0"/>
+      <c r="JE63" s="0"/>
+      <c r="JF63" s="0"/>
+      <c r="JG63" s="0"/>
+      <c r="JH63" s="0"/>
+      <c r="JI63" s="0"/>
+      <c r="JJ63" s="0"/>
+      <c r="JK63" s="0"/>
+      <c r="JL63" s="0"/>
+      <c r="JM63" s="0"/>
+      <c r="JN63" s="0"/>
+      <c r="JO63" s="0"/>
+      <c r="JP63" s="0"/>
+      <c r="JQ63" s="0"/>
+      <c r="JR63" s="0"/>
+      <c r="JS63" s="0"/>
+      <c r="JT63" s="0"/>
+      <c r="JU63" s="0"/>
+      <c r="JV63" s="0"/>
+      <c r="JW63" s="0"/>
+      <c r="JX63" s="0"/>
+      <c r="JY63" s="0"/>
+      <c r="JZ63" s="0"/>
+      <c r="KA63" s="0"/>
+      <c r="KB63" s="0"/>
+      <c r="KC63" s="0"/>
+      <c r="KD63" s="0"/>
+      <c r="KE63" s="0"/>
+      <c r="KF63" s="0"/>
+      <c r="KG63" s="0"/>
+      <c r="KH63" s="0"/>
+      <c r="KI63" s="0"/>
+      <c r="KJ63" s="0"/>
+      <c r="KK63" s="0"/>
+      <c r="KL63" s="0"/>
+      <c r="KM63" s="0"/>
+      <c r="KN63" s="0"/>
+      <c r="KO63" s="0"/>
+      <c r="KP63" s="0"/>
+      <c r="KQ63" s="0"/>
+      <c r="KR63" s="0"/>
+      <c r="KS63" s="0"/>
+      <c r="KT63" s="0"/>
+      <c r="KU63" s="0"/>
+      <c r="KV63" s="0"/>
+      <c r="KW63" s="0"/>
+      <c r="KX63" s="0"/>
+      <c r="KY63" s="0"/>
+      <c r="KZ63" s="0"/>
+      <c r="LA63" s="0"/>
+      <c r="LB63" s="0"/>
+      <c r="LC63" s="0"/>
+      <c r="LD63" s="0"/>
+      <c r="LE63" s="0"/>
+      <c r="LF63" s="0"/>
+      <c r="LG63" s="0"/>
+      <c r="LH63" s="0"/>
+      <c r="LI63" s="0"/>
+      <c r="LJ63" s="0"/>
+      <c r="LK63" s="0"/>
+      <c r="LL63" s="0"/>
+      <c r="LM63" s="0"/>
+      <c r="LN63" s="0"/>
+      <c r="LO63" s="0"/>
+      <c r="LP63" s="0"/>
+      <c r="LQ63" s="0"/>
+      <c r="LR63" s="0"/>
+      <c r="LS63" s="0"/>
+      <c r="LT63" s="0"/>
+      <c r="LU63" s="0"/>
+      <c r="LV63" s="0"/>
+      <c r="LW63" s="0"/>
+      <c r="LX63" s="0"/>
+      <c r="LY63" s="0"/>
+      <c r="LZ63" s="0"/>
+      <c r="MA63" s="0"/>
+      <c r="MB63" s="0"/>
+      <c r="MC63" s="0"/>
+      <c r="MD63" s="0"/>
+      <c r="ME63" s="0"/>
+      <c r="MF63" s="0"/>
+      <c r="MG63" s="0"/>
+      <c r="MH63" s="0"/>
+      <c r="MI63" s="0"/>
+      <c r="MJ63" s="0"/>
+      <c r="MK63" s="0"/>
+      <c r="ML63" s="0"/>
+      <c r="MM63" s="0"/>
+      <c r="MN63" s="0"/>
+      <c r="MO63" s="0"/>
+      <c r="MP63" s="0"/>
+      <c r="MQ63" s="0"/>
+      <c r="MR63" s="0"/>
+      <c r="MS63" s="0"/>
+      <c r="MT63" s="0"/>
+      <c r="MU63" s="0"/>
+      <c r="MV63" s="0"/>
+      <c r="MW63" s="0"/>
+      <c r="MX63" s="0"/>
+      <c r="MY63" s="0"/>
+      <c r="MZ63" s="0"/>
+      <c r="NA63" s="0"/>
+      <c r="NB63" s="0"/>
+      <c r="NC63" s="0"/>
+      <c r="ND63" s="0"/>
+      <c r="NE63" s="0"/>
+      <c r="NF63" s="0"/>
+      <c r="NG63" s="0"/>
+      <c r="NH63" s="0"/>
+      <c r="NI63" s="0"/>
+      <c r="NJ63" s="0"/>
+      <c r="NK63" s="0"/>
+      <c r="NL63" s="0"/>
+      <c r="NM63" s="0"/>
+      <c r="NN63" s="0"/>
+      <c r="NO63" s="0"/>
+      <c r="NP63" s="0"/>
+      <c r="NQ63" s="0"/>
+      <c r="NR63" s="0"/>
+      <c r="NS63" s="0"/>
+      <c r="NT63" s="0"/>
+      <c r="NU63" s="0"/>
+      <c r="NV63" s="0"/>
+      <c r="NW63" s="0"/>
+      <c r="NX63" s="0"/>
+      <c r="NY63" s="0"/>
+      <c r="NZ63" s="0"/>
+      <c r="OA63" s="0"/>
+      <c r="OB63" s="0"/>
+      <c r="OC63" s="0"/>
+      <c r="OD63" s="0"/>
+      <c r="OE63" s="0"/>
+      <c r="OF63" s="0"/>
+      <c r="OG63" s="0"/>
+      <c r="OH63" s="0"/>
+      <c r="OI63" s="0"/>
+      <c r="OJ63" s="0"/>
+      <c r="OK63" s="0"/>
+      <c r="OL63" s="0"/>
+      <c r="OM63" s="0"/>
+      <c r="ON63" s="0"/>
+      <c r="OO63" s="0"/>
+      <c r="OP63" s="0"/>
+      <c r="OQ63" s="0"/>
+      <c r="OR63" s="0"/>
+      <c r="OS63" s="0"/>
+      <c r="OT63" s="0"/>
+      <c r="OU63" s="0"/>
+      <c r="OV63" s="0"/>
+      <c r="OW63" s="0"/>
+      <c r="OX63" s="0"/>
+      <c r="OY63" s="0"/>
+      <c r="OZ63" s="0"/>
+      <c r="PA63" s="0"/>
+      <c r="PB63" s="0"/>
+      <c r="PC63" s="0"/>
+      <c r="PD63" s="0"/>
+      <c r="PE63" s="0"/>
+      <c r="PF63" s="0"/>
+      <c r="PG63" s="0"/>
+      <c r="PH63" s="0"/>
+      <c r="PI63" s="0"/>
+      <c r="PJ63" s="0"/>
+      <c r="PK63" s="0"/>
+      <c r="PL63" s="0"/>
+      <c r="PM63" s="0"/>
+      <c r="PN63" s="0"/>
+      <c r="PO63" s="0"/>
+      <c r="PP63" s="0"/>
+      <c r="PQ63" s="0"/>
+      <c r="PR63" s="0"/>
+      <c r="PS63" s="0"/>
+      <c r="PT63" s="0"/>
+      <c r="PU63" s="0"/>
+      <c r="PV63" s="0"/>
+      <c r="PW63" s="0"/>
+      <c r="PX63" s="0"/>
+      <c r="PY63" s="0"/>
+      <c r="PZ63" s="0"/>
+      <c r="QA63" s="0"/>
+      <c r="QB63" s="0"/>
+      <c r="QC63" s="0"/>
+      <c r="QD63" s="0"/>
+      <c r="QE63" s="0"/>
+      <c r="QF63" s="0"/>
+      <c r="QG63" s="0"/>
+      <c r="QH63" s="0"/>
+      <c r="QI63" s="0"/>
+      <c r="QJ63" s="0"/>
+      <c r="QK63" s="0"/>
+      <c r="QL63" s="0"/>
+      <c r="QM63" s="0"/>
+      <c r="QN63" s="0"/>
+      <c r="QO63" s="0"/>
+      <c r="QP63" s="0"/>
+      <c r="QQ63" s="0"/>
+      <c r="QR63" s="0"/>
+      <c r="QS63" s="0"/>
+      <c r="QT63" s="0"/>
+      <c r="QU63" s="0"/>
+      <c r="QV63" s="0"/>
+      <c r="QW63" s="0"/>
+      <c r="QX63" s="0"/>
+      <c r="QY63" s="0"/>
+      <c r="QZ63" s="0"/>
+      <c r="RA63" s="0"/>
+      <c r="RB63" s="0"/>
+      <c r="RC63" s="0"/>
+      <c r="RD63" s="0"/>
+      <c r="RE63" s="0"/>
+      <c r="RF63" s="0"/>
+      <c r="RG63" s="0"/>
+      <c r="RH63" s="0"/>
+      <c r="RI63" s="0"/>
+      <c r="RJ63" s="0"/>
+      <c r="RK63" s="0"/>
+      <c r="RL63" s="0"/>
+      <c r="RM63" s="0"/>
+      <c r="RN63" s="0"/>
+      <c r="RO63" s="0"/>
+      <c r="RP63" s="0"/>
+      <c r="RQ63" s="0"/>
+      <c r="RR63" s="0"/>
+      <c r="RS63" s="0"/>
+      <c r="RT63" s="0"/>
+      <c r="RU63" s="0"/>
+      <c r="RV63" s="0"/>
+      <c r="RW63" s="0"/>
+      <c r="RX63" s="0"/>
+      <c r="RY63" s="0"/>
+      <c r="RZ63" s="0"/>
+      <c r="SA63" s="0"/>
+      <c r="SB63" s="0"/>
+      <c r="SC63" s="0"/>
+      <c r="SD63" s="0"/>
+      <c r="SE63" s="0"/>
+      <c r="SF63" s="0"/>
+      <c r="SG63" s="0"/>
+      <c r="SH63" s="0"/>
+      <c r="SI63" s="0"/>
+      <c r="SJ63" s="0"/>
+      <c r="SK63" s="0"/>
+      <c r="SL63" s="0"/>
+      <c r="SM63" s="0"/>
+      <c r="SN63" s="0"/>
+      <c r="SO63" s="0"/>
+      <c r="SP63" s="0"/>
+      <c r="SQ63" s="0"/>
+      <c r="SR63" s="0"/>
+      <c r="SS63" s="0"/>
+      <c r="ST63" s="0"/>
+      <c r="SU63" s="0"/>
+      <c r="SV63" s="0"/>
+      <c r="SW63" s="0"/>
+      <c r="SX63" s="0"/>
+      <c r="SY63" s="0"/>
+      <c r="SZ63" s="0"/>
+      <c r="TA63" s="0"/>
+      <c r="TB63" s="0"/>
+      <c r="TC63" s="0"/>
+      <c r="TD63" s="0"/>
+      <c r="TE63" s="0"/>
+      <c r="TF63" s="0"/>
+      <c r="TG63" s="0"/>
+      <c r="TH63" s="0"/>
+      <c r="TI63" s="0"/>
+      <c r="TJ63" s="0"/>
+      <c r="TK63" s="0"/>
+      <c r="TL63" s="0"/>
+      <c r="TM63" s="0"/>
+      <c r="TN63" s="0"/>
+      <c r="TO63" s="0"/>
+      <c r="TP63" s="0"/>
+      <c r="TQ63" s="0"/>
+      <c r="TR63" s="0"/>
+      <c r="TS63" s="0"/>
+      <c r="TT63" s="0"/>
+      <c r="TU63" s="0"/>
+      <c r="TV63" s="0"/>
+      <c r="TW63" s="0"/>
+      <c r="TX63" s="0"/>
+      <c r="TY63" s="0"/>
+      <c r="TZ63" s="0"/>
+      <c r="UA63" s="0"/>
+      <c r="UB63" s="0"/>
+      <c r="UC63" s="0"/>
+      <c r="UD63" s="0"/>
+      <c r="UE63" s="0"/>
+      <c r="UF63" s="0"/>
+      <c r="UG63" s="0"/>
+      <c r="UH63" s="0"/>
+      <c r="UI63" s="0"/>
+      <c r="UJ63" s="0"/>
+      <c r="UK63" s="0"/>
+      <c r="UL63" s="0"/>
+      <c r="UM63" s="0"/>
+      <c r="UN63" s="0"/>
+      <c r="UO63" s="0"/>
+      <c r="UP63" s="0"/>
+      <c r="UQ63" s="0"/>
+      <c r="UR63" s="0"/>
+      <c r="US63" s="0"/>
+      <c r="UT63" s="0"/>
+      <c r="UU63" s="0"/>
+      <c r="UV63" s="0"/>
+      <c r="UW63" s="0"/>
+      <c r="UX63" s="0"/>
+      <c r="UY63" s="0"/>
+      <c r="UZ63" s="0"/>
+      <c r="VA63" s="0"/>
+      <c r="VB63" s="0"/>
+      <c r="VC63" s="0"/>
+      <c r="VD63" s="0"/>
+      <c r="VE63" s="0"/>
+      <c r="VF63" s="0"/>
+      <c r="VG63" s="0"/>
+      <c r="VH63" s="0"/>
+      <c r="VI63" s="0"/>
+      <c r="VJ63" s="0"/>
+      <c r="VK63" s="0"/>
+      <c r="VL63" s="0"/>
+      <c r="VM63" s="0"/>
+      <c r="VN63" s="0"/>
+      <c r="VO63" s="0"/>
+      <c r="VP63" s="0"/>
+      <c r="VQ63" s="0"/>
+      <c r="VR63" s="0"/>
+      <c r="VS63" s="0"/>
+      <c r="VT63" s="0"/>
+      <c r="VU63" s="0"/>
+      <c r="VV63" s="0"/>
+      <c r="VW63" s="0"/>
+      <c r="VX63" s="0"/>
+      <c r="VY63" s="0"/>
+      <c r="VZ63" s="0"/>
+      <c r="WA63" s="0"/>
+      <c r="WB63" s="0"/>
+      <c r="WC63" s="0"/>
+      <c r="WD63" s="0"/>
+      <c r="WE63" s="0"/>
+      <c r="WF63" s="0"/>
+      <c r="WG63" s="0"/>
+      <c r="WH63" s="0"/>
+      <c r="WI63" s="0"/>
+      <c r="WJ63" s="0"/>
+      <c r="WK63" s="0"/>
+      <c r="WL63" s="0"/>
+      <c r="WM63" s="0"/>
+      <c r="WN63" s="0"/>
+      <c r="WO63" s="0"/>
+      <c r="WP63" s="0"/>
+      <c r="WQ63" s="0"/>
+      <c r="WR63" s="0"/>
+      <c r="WS63" s="0"/>
+      <c r="WT63" s="0"/>
+      <c r="WU63" s="0"/>
+      <c r="WV63" s="0"/>
+      <c r="WW63" s="0"/>
+      <c r="WX63" s="0"/>
+      <c r="WY63" s="0"/>
+      <c r="WZ63" s="0"/>
+      <c r="XA63" s="0"/>
+      <c r="XB63" s="0"/>
+      <c r="XC63" s="0"/>
+      <c r="XD63" s="0"/>
+      <c r="XE63" s="0"/>
+      <c r="XF63" s="0"/>
+      <c r="XG63" s="0"/>
+      <c r="XH63" s="0"/>
+      <c r="XI63" s="0"/>
+      <c r="XJ63" s="0"/>
+      <c r="XK63" s="0"/>
+      <c r="XL63" s="0"/>
+      <c r="XM63" s="0"/>
+      <c r="XN63" s="0"/>
+      <c r="XO63" s="0"/>
+      <c r="XP63" s="0"/>
+      <c r="XQ63" s="0"/>
+      <c r="XR63" s="0"/>
+      <c r="XS63" s="0"/>
+      <c r="XT63" s="0"/>
+      <c r="XU63" s="0"/>
+      <c r="XV63" s="0"/>
+      <c r="XW63" s="0"/>
+      <c r="XX63" s="0"/>
+      <c r="XY63" s="0"/>
+      <c r="XZ63" s="0"/>
+      <c r="YA63" s="0"/>
+      <c r="YB63" s="0"/>
+      <c r="YC63" s="0"/>
+      <c r="YD63" s="0"/>
+      <c r="YE63" s="0"/>
+      <c r="YF63" s="0"/>
+      <c r="YG63" s="0"/>
+      <c r="YH63" s="0"/>
+      <c r="YI63" s="0"/>
+      <c r="YJ63" s="0"/>
+      <c r="YK63" s="0"/>
+      <c r="YL63" s="0"/>
+      <c r="YM63" s="0"/>
+      <c r="YN63" s="0"/>
+      <c r="YO63" s="0"/>
+      <c r="YP63" s="0"/>
+      <c r="YQ63" s="0"/>
+      <c r="YR63" s="0"/>
+      <c r="YS63" s="0"/>
+      <c r="YT63" s="0"/>
+      <c r="YU63" s="0"/>
+      <c r="YV63" s="0"/>
+      <c r="YW63" s="0"/>
+      <c r="YX63" s="0"/>
+      <c r="YY63" s="0"/>
+      <c r="YZ63" s="0"/>
+      <c r="ZA63" s="0"/>
+      <c r="ZB63" s="0"/>
+      <c r="ZC63" s="0"/>
+      <c r="ZD63" s="0"/>
+      <c r="ZE63" s="0"/>
+      <c r="ZF63" s="0"/>
+      <c r="ZG63" s="0"/>
+      <c r="ZH63" s="0"/>
+      <c r="ZI63" s="0"/>
+      <c r="ZJ63" s="0"/>
+      <c r="ZK63" s="0"/>
+      <c r="ZL63" s="0"/>
+      <c r="ZM63" s="0"/>
+      <c r="ZN63" s="0"/>
+      <c r="ZO63" s="0"/>
+      <c r="ZP63" s="0"/>
+      <c r="ZQ63" s="0"/>
+      <c r="ZR63" s="0"/>
+      <c r="ZS63" s="0"/>
+      <c r="ZT63" s="0"/>
+      <c r="ZU63" s="0"/>
+      <c r="ZV63" s="0"/>
+      <c r="ZW63" s="0"/>
+      <c r="ZX63" s="0"/>
+      <c r="ZY63" s="0"/>
+      <c r="ZZ63" s="0"/>
+      <c r="AAA63" s="0"/>
+      <c r="AAB63" s="0"/>
+      <c r="AAC63" s="0"/>
+      <c r="AAD63" s="0"/>
+      <c r="AAE63" s="0"/>
+      <c r="AAF63" s="0"/>
+      <c r="AAG63" s="0"/>
+      <c r="AAH63" s="0"/>
+      <c r="AAI63" s="0"/>
+      <c r="AAJ63" s="0"/>
+      <c r="AAK63" s="0"/>
+      <c r="AAL63" s="0"/>
+      <c r="AAM63" s="0"/>
+      <c r="AAN63" s="0"/>
+      <c r="AAO63" s="0"/>
+      <c r="AAP63" s="0"/>
+      <c r="AAQ63" s="0"/>
+      <c r="AAR63" s="0"/>
+      <c r="AAS63" s="0"/>
+      <c r="AAT63" s="0"/>
+      <c r="AAU63" s="0"/>
+      <c r="AAV63" s="0"/>
+      <c r="AAW63" s="0"/>
+      <c r="AAX63" s="0"/>
+      <c r="AAY63" s="0"/>
+      <c r="AAZ63" s="0"/>
+      <c r="ABA63" s="0"/>
+      <c r="ABB63" s="0"/>
+      <c r="ABC63" s="0"/>
+      <c r="ABD63" s="0"/>
+      <c r="ABE63" s="0"/>
+      <c r="ABF63" s="0"/>
+      <c r="ABG63" s="0"/>
+      <c r="ABH63" s="0"/>
+      <c r="ABI63" s="0"/>
+      <c r="ABJ63" s="0"/>
+      <c r="ABK63" s="0"/>
+      <c r="ABL63" s="0"/>
+      <c r="ABM63" s="0"/>
+      <c r="ABN63" s="0"/>
+      <c r="ABO63" s="0"/>
+      <c r="ABP63" s="0"/>
+      <c r="ABQ63" s="0"/>
+      <c r="ABR63" s="0"/>
+      <c r="ABS63" s="0"/>
+      <c r="ABT63" s="0"/>
+      <c r="ABU63" s="0"/>
+      <c r="ABV63" s="0"/>
+      <c r="ABW63" s="0"/>
+      <c r="ABX63" s="0"/>
+      <c r="ABY63" s="0"/>
+      <c r="ABZ63" s="0"/>
+      <c r="ACA63" s="0"/>
+      <c r="ACB63" s="0"/>
+      <c r="ACC63" s="0"/>
+      <c r="ACD63" s="0"/>
+      <c r="ACE63" s="0"/>
+      <c r="ACF63" s="0"/>
+      <c r="ACG63" s="0"/>
+      <c r="ACH63" s="0"/>
+      <c r="ACI63" s="0"/>
+      <c r="ACJ63" s="0"/>
+      <c r="ACK63" s="0"/>
+      <c r="ACL63" s="0"/>
+      <c r="ACM63" s="0"/>
+      <c r="ACN63" s="0"/>
+      <c r="ACO63" s="0"/>
+      <c r="ACP63" s="0"/>
+      <c r="ACQ63" s="0"/>
+      <c r="ACR63" s="0"/>
+      <c r="ACS63" s="0"/>
+      <c r="ACT63" s="0"/>
+      <c r="ACU63" s="0"/>
+      <c r="ACV63" s="0"/>
+      <c r="ACW63" s="0"/>
+      <c r="ACX63" s="0"/>
+      <c r="ACY63" s="0"/>
+      <c r="ACZ63" s="0"/>
+      <c r="ADA63" s="0"/>
+      <c r="ADB63" s="0"/>
+      <c r="ADC63" s="0"/>
+      <c r="ADD63" s="0"/>
+      <c r="ADE63" s="0"/>
+      <c r="ADF63" s="0"/>
+      <c r="ADG63" s="0"/>
+      <c r="ADH63" s="0"/>
+      <c r="ADI63" s="0"/>
+      <c r="ADJ63" s="0"/>
+      <c r="ADK63" s="0"/>
+      <c r="ADL63" s="0"/>
+      <c r="ADM63" s="0"/>
+      <c r="ADN63" s="0"/>
+      <c r="ADO63" s="0"/>
+      <c r="ADP63" s="0"/>
+      <c r="ADQ63" s="0"/>
+      <c r="ADR63" s="0"/>
+      <c r="ADS63" s="0"/>
+      <c r="ADT63" s="0"/>
+      <c r="ADU63" s="0"/>
+      <c r="ADV63" s="0"/>
+      <c r="ADW63" s="0"/>
+      <c r="ADX63" s="0"/>
+      <c r="ADY63" s="0"/>
+      <c r="ADZ63" s="0"/>
+      <c r="AEA63" s="0"/>
+      <c r="AEB63" s="0"/>
+      <c r="AEC63" s="0"/>
+      <c r="AED63" s="0"/>
+      <c r="AEE63" s="0"/>
+      <c r="AEF63" s="0"/>
+      <c r="AEG63" s="0"/>
+      <c r="AEH63" s="0"/>
+      <c r="AEI63" s="0"/>
+      <c r="AEJ63" s="0"/>
+      <c r="AEK63" s="0"/>
+      <c r="AEL63" s="0"/>
+      <c r="AEM63" s="0"/>
+      <c r="AEN63" s="0"/>
+      <c r="AEO63" s="0"/>
+      <c r="AEP63" s="0"/>
+      <c r="AEQ63" s="0"/>
+      <c r="AER63" s="0"/>
+      <c r="AES63" s="0"/>
+      <c r="AET63" s="0"/>
+      <c r="AEU63" s="0"/>
+      <c r="AEV63" s="0"/>
+      <c r="AEW63" s="0"/>
+      <c r="AEX63" s="0"/>
+      <c r="AEY63" s="0"/>
+      <c r="AEZ63" s="0"/>
+      <c r="AFA63" s="0"/>
+      <c r="AFB63" s="0"/>
+      <c r="AFC63" s="0"/>
+      <c r="AFD63" s="0"/>
+      <c r="AFE63" s="0"/>
+      <c r="AFF63" s="0"/>
+      <c r="AFG63" s="0"/>
+      <c r="AFH63" s="0"/>
+      <c r="AFI63" s="0"/>
+      <c r="AFJ63" s="0"/>
+      <c r="AFK63" s="0"/>
+      <c r="AFL63" s="0"/>
+      <c r="AFM63" s="0"/>
+      <c r="AFN63" s="0"/>
+      <c r="AFO63" s="0"/>
+      <c r="AFP63" s="0"/>
+      <c r="AFQ63" s="0"/>
+      <c r="AFR63" s="0"/>
+      <c r="AFS63" s="0"/>
+      <c r="AFT63" s="0"/>
+      <c r="AFU63" s="0"/>
+      <c r="AFV63" s="0"/>
+      <c r="AFW63" s="0"/>
+      <c r="AFX63" s="0"/>
+      <c r="AFY63" s="0"/>
+      <c r="AFZ63" s="0"/>
+      <c r="AGA63" s="0"/>
+      <c r="AGB63" s="0"/>
+      <c r="AGC63" s="0"/>
+      <c r="AGD63" s="0"/>
+      <c r="AGE63" s="0"/>
+      <c r="AGF63" s="0"/>
+      <c r="AGG63" s="0"/>
+      <c r="AGH63" s="0"/>
+      <c r="AGI63" s="0"/>
+      <c r="AGJ63" s="0"/>
+      <c r="AGK63" s="0"/>
+      <c r="AGL63" s="0"/>
+      <c r="AGM63" s="0"/>
+      <c r="AGN63" s="0"/>
+      <c r="AGO63" s="0"/>
+      <c r="AGP63" s="0"/>
+      <c r="AGQ63" s="0"/>
+      <c r="AGR63" s="0"/>
+      <c r="AGS63" s="0"/>
+      <c r="AGT63" s="0"/>
+      <c r="AGU63" s="0"/>
+      <c r="AGV63" s="0"/>
+      <c r="AGW63" s="0"/>
+      <c r="AGX63" s="0"/>
+      <c r="AGY63" s="0"/>
+      <c r="AGZ63" s="0"/>
+      <c r="AHA63" s="0"/>
+      <c r="AHB63" s="0"/>
+      <c r="AHC63" s="0"/>
+      <c r="AHD63" s="0"/>
+      <c r="AHE63" s="0"/>
+      <c r="AHF63" s="0"/>
+      <c r="AHG63" s="0"/>
+      <c r="AHH63" s="0"/>
+      <c r="AHI63" s="0"/>
+      <c r="AHJ63" s="0"/>
+      <c r="AHK63" s="0"/>
+      <c r="AHL63" s="0"/>
+      <c r="AHM63" s="0"/>
+      <c r="AHN63" s="0"/>
+      <c r="AHO63" s="0"/>
+      <c r="AHP63" s="0"/>
+      <c r="AHQ63" s="0"/>
+      <c r="AHR63" s="0"/>
+      <c r="AHS63" s="0"/>
+      <c r="AHT63" s="0"/>
+      <c r="AHU63" s="0"/>
+      <c r="AHV63" s="0"/>
+      <c r="AHW63" s="0"/>
+      <c r="AHX63" s="0"/>
+      <c r="AHY63" s="0"/>
+      <c r="AHZ63" s="0"/>
+      <c r="AIA63" s="0"/>
+      <c r="AIB63" s="0"/>
+      <c r="AIC63" s="0"/>
+      <c r="AID63" s="0"/>
+      <c r="AIE63" s="0"/>
+      <c r="AIF63" s="0"/>
+      <c r="AIG63" s="0"/>
+      <c r="AIH63" s="0"/>
+      <c r="AII63" s="0"/>
+      <c r="AIJ63" s="0"/>
+      <c r="AIK63" s="0"/>
+      <c r="AIL63" s="0"/>
+      <c r="AIM63" s="0"/>
+      <c r="AIN63" s="0"/>
+      <c r="AIO63" s="0"/>
+      <c r="AIP63" s="0"/>
+      <c r="AIQ63" s="0"/>
+      <c r="AIR63" s="0"/>
+      <c r="AIS63" s="0"/>
+      <c r="AIT63" s="0"/>
+      <c r="AIU63" s="0"/>
+      <c r="AIV63" s="0"/>
+      <c r="AIW63" s="0"/>
+      <c r="AIX63" s="0"/>
+      <c r="AIY63" s="0"/>
+      <c r="AIZ63" s="0"/>
+      <c r="AJA63" s="0"/>
+      <c r="AJB63" s="0"/>
+      <c r="AJC63" s="0"/>
+      <c r="AJD63" s="0"/>
+      <c r="AJE63" s="0"/>
+      <c r="AJF63" s="0"/>
+      <c r="AJG63" s="0"/>
+      <c r="AJH63" s="0"/>
+      <c r="AJI63" s="0"/>
+      <c r="AJJ63" s="0"/>
+      <c r="AJK63" s="0"/>
+      <c r="AJL63" s="0"/>
+      <c r="AJM63" s="0"/>
+      <c r="AJN63" s="0"/>
+      <c r="AJO63" s="0"/>
+      <c r="AJP63" s="0"/>
+      <c r="AJQ63" s="0"/>
+      <c r="AJR63" s="0"/>
+      <c r="AJS63" s="0"/>
+      <c r="AJT63" s="0"/>
+      <c r="AJU63" s="0"/>
+      <c r="AJV63" s="0"/>
+      <c r="AJW63" s="0"/>
+      <c r="AJX63" s="0"/>
+      <c r="AJY63" s="0"/>
+      <c r="AJZ63" s="0"/>
+      <c r="AKA63" s="0"/>
+      <c r="AKB63" s="0"/>
+      <c r="AKC63" s="0"/>
+      <c r="AKD63" s="0"/>
+      <c r="AKE63" s="0"/>
+      <c r="AKF63" s="0"/>
+      <c r="AKG63" s="0"/>
+      <c r="AKH63" s="0"/>
+      <c r="AKI63" s="0"/>
+      <c r="AKJ63" s="0"/>
+      <c r="AKK63" s="0"/>
+      <c r="AKL63" s="0"/>
+      <c r="AKM63" s="0"/>
+      <c r="AKN63" s="0"/>
+      <c r="AKO63" s="0"/>
+      <c r="AKP63" s="0"/>
+      <c r="AKQ63" s="0"/>
+      <c r="AKR63" s="0"/>
+      <c r="AKS63" s="0"/>
+      <c r="AKT63" s="0"/>
+      <c r="AKU63" s="0"/>
+      <c r="AKV63" s="0"/>
+      <c r="AKW63" s="0"/>
+      <c r="AKX63" s="0"/>
+      <c r="AKY63" s="0"/>
+      <c r="AKZ63" s="0"/>
+      <c r="ALA63" s="0"/>
+      <c r="ALB63" s="0"/>
+      <c r="ALC63" s="0"/>
+      <c r="ALD63" s="0"/>
+      <c r="ALE63" s="0"/>
+      <c r="ALF63" s="0"/>
+      <c r="ALG63" s="0"/>
+      <c r="ALH63" s="0"/>
+      <c r="ALI63" s="0"/>
+      <c r="ALJ63" s="0"/>
+      <c r="ALK63" s="0"/>
+      <c r="ALL63" s="0"/>
+      <c r="ALM63" s="0"/>
+      <c r="ALN63" s="0"/>
+      <c r="ALO63" s="0"/>
+      <c r="ALP63" s="0"/>
+      <c r="ALQ63" s="0"/>
+      <c r="ALR63" s="0"/>
+      <c r="ALS63" s="0"/>
+      <c r="ALT63" s="0"/>
+      <c r="ALU63" s="0"/>
+      <c r="ALV63" s="0"/>
+      <c r="ALW63" s="0"/>
+      <c r="ALX63" s="0"/>
+      <c r="ALY63" s="0"/>
+      <c r="ALZ63" s="0"/>
+      <c r="AMA63" s="0"/>
+      <c r="AMB63" s="0"/>
+      <c r="AMC63" s="0"/>
+      <c r="AMD63" s="0"/>
+      <c r="AME63" s="0"/>
+      <c r="AMF63" s="0"/>
+      <c r="AMG63" s="0"/>
+      <c r="AMH63" s="0"/>
+      <c r="AMI63" s="0"/>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10"/>
+      <c r="B64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
       <c r="G64" s="0"/>
       <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
+      <c r="O64" s="0"/>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
+      <c r="R64" s="0"/>
+      <c r="S64" s="0"/>
+      <c r="T64" s="0"/>
+      <c r="U64" s="0"/>
+      <c r="V64" s="0"/>
+      <c r="W64" s="0"/>
+      <c r="X64" s="0"/>
+      <c r="Y64" s="0"/>
+      <c r="Z64" s="0"/>
+      <c r="AA64" s="0"/>
+      <c r="AB64" s="0"/>
+      <c r="AC64" s="0"/>
+      <c r="AD64" s="0"/>
+      <c r="AE64" s="0"/>
+      <c r="AF64" s="0"/>
+      <c r="AG64" s="0"/>
+      <c r="AH64" s="0"/>
+      <c r="AI64" s="0"/>
+      <c r="AJ64" s="0"/>
+      <c r="AK64" s="0"/>
+      <c r="AL64" s="0"/>
+      <c r="AM64" s="0"/>
+      <c r="AN64" s="0"/>
+      <c r="AO64" s="0"/>
+      <c r="AP64" s="0"/>
+      <c r="AQ64" s="0"/>
+      <c r="AR64" s="0"/>
+      <c r="AS64" s="0"/>
+      <c r="AT64" s="0"/>
+      <c r="AU64" s="0"/>
+      <c r="AV64" s="0"/>
+      <c r="AW64" s="0"/>
+      <c r="AX64" s="0"/>
+      <c r="AY64" s="0"/>
+      <c r="AZ64" s="0"/>
+      <c r="BA64" s="0"/>
+      <c r="BB64" s="0"/>
+      <c r="BC64" s="0"/>
+      <c r="BD64" s="0"/>
+      <c r="BE64" s="0"/>
+      <c r="BF64" s="0"/>
+      <c r="BG64" s="0"/>
+      <c r="BH64" s="0"/>
+      <c r="BI64" s="0"/>
+      <c r="BJ64" s="0"/>
+      <c r="BK64" s="0"/>
+      <c r="BL64" s="0"/>
+      <c r="BM64" s="0"/>
+      <c r="BN64" s="0"/>
+      <c r="BO64" s="0"/>
+      <c r="BP64" s="0"/>
+      <c r="BQ64" s="0"/>
+      <c r="BR64" s="0"/>
+      <c r="BS64" s="0"/>
+      <c r="BT64" s="0"/>
+      <c r="BU64" s="0"/>
+      <c r="BV64" s="0"/>
+      <c r="BW64" s="0"/>
+      <c r="BX64" s="0"/>
+      <c r="BY64" s="0"/>
+      <c r="BZ64" s="0"/>
+      <c r="CA64" s="0"/>
+      <c r="CB64" s="0"/>
+      <c r="CC64" s="0"/>
+      <c r="CD64" s="0"/>
+      <c r="CE64" s="0"/>
+      <c r="CF64" s="0"/>
+      <c r="CG64" s="0"/>
+      <c r="CH64" s="0"/>
+      <c r="CI64" s="0"/>
+      <c r="CJ64" s="0"/>
+      <c r="CK64" s="0"/>
+      <c r="CL64" s="0"/>
+      <c r="CM64" s="0"/>
+      <c r="CN64" s="0"/>
+      <c r="CO64" s="0"/>
+      <c r="CP64" s="0"/>
+      <c r="CQ64" s="0"/>
+      <c r="CR64" s="0"/>
+      <c r="CS64" s="0"/>
+      <c r="CT64" s="0"/>
+      <c r="CU64" s="0"/>
+      <c r="CV64" s="0"/>
+      <c r="CW64" s="0"/>
+      <c r="CX64" s="0"/>
+      <c r="CY64" s="0"/>
+      <c r="CZ64" s="0"/>
+      <c r="DA64" s="0"/>
+      <c r="DB64" s="0"/>
+      <c r="DC64" s="0"/>
+      <c r="DD64" s="0"/>
+      <c r="DE64" s="0"/>
+      <c r="DF64" s="0"/>
+      <c r="DG64" s="0"/>
+      <c r="DH64" s="0"/>
+      <c r="DI64" s="0"/>
+      <c r="DJ64" s="0"/>
+      <c r="DK64" s="0"/>
+      <c r="DL64" s="0"/>
+      <c r="DM64" s="0"/>
+      <c r="DN64" s="0"/>
+      <c r="DO64" s="0"/>
+      <c r="DP64" s="0"/>
+      <c r="DQ64" s="0"/>
+      <c r="DR64" s="0"/>
+      <c r="DS64" s="0"/>
+      <c r="DT64" s="0"/>
+      <c r="DU64" s="0"/>
+      <c r="DV64" s="0"/>
+      <c r="DW64" s="0"/>
+      <c r="DX64" s="0"/>
+      <c r="DY64" s="0"/>
+      <c r="DZ64" s="0"/>
+      <c r="EA64" s="0"/>
+      <c r="EB64" s="0"/>
+      <c r="EC64" s="0"/>
+      <c r="ED64" s="0"/>
+      <c r="EE64" s="0"/>
+      <c r="EF64" s="0"/>
+      <c r="EG64" s="0"/>
+      <c r="EH64" s="0"/>
+      <c r="EI64" s="0"/>
+      <c r="EJ64" s="0"/>
+      <c r="EK64" s="0"/>
+      <c r="EL64" s="0"/>
+      <c r="EM64" s="0"/>
+      <c r="EN64" s="0"/>
+      <c r="EO64" s="0"/>
+      <c r="EP64" s="0"/>
+      <c r="EQ64" s="0"/>
+      <c r="ER64" s="0"/>
+      <c r="ES64" s="0"/>
+      <c r="ET64" s="0"/>
+      <c r="EU64" s="0"/>
+      <c r="EV64" s="0"/>
+      <c r="EW64" s="0"/>
+      <c r="EX64" s="0"/>
+      <c r="EY64" s="0"/>
+      <c r="EZ64" s="0"/>
+      <c r="FA64" s="0"/>
+      <c r="FB64" s="0"/>
+      <c r="FC64" s="0"/>
+      <c r="FD64" s="0"/>
+      <c r="FE64" s="0"/>
+      <c r="FF64" s="0"/>
+      <c r="FG64" s="0"/>
+      <c r="FH64" s="0"/>
+      <c r="FI64" s="0"/>
+      <c r="FJ64" s="0"/>
+      <c r="FK64" s="0"/>
+      <c r="FL64" s="0"/>
+      <c r="FM64" s="0"/>
+      <c r="FN64" s="0"/>
+      <c r="FO64" s="0"/>
+      <c r="FP64" s="0"/>
+      <c r="FQ64" s="0"/>
+      <c r="FR64" s="0"/>
+      <c r="FS64" s="0"/>
+      <c r="FT64" s="0"/>
+      <c r="FU64" s="0"/>
+      <c r="FV64" s="0"/>
+      <c r="FW64" s="0"/>
+      <c r="FX64" s="0"/>
+      <c r="FY64" s="0"/>
+      <c r="FZ64" s="0"/>
+      <c r="GA64" s="0"/>
+      <c r="GB64" s="0"/>
+      <c r="GC64" s="0"/>
+      <c r="GD64" s="0"/>
+      <c r="GE64" s="0"/>
+      <c r="GF64" s="0"/>
+      <c r="GG64" s="0"/>
+      <c r="GH64" s="0"/>
+      <c r="GI64" s="0"/>
+      <c r="GJ64" s="0"/>
+      <c r="GK64" s="0"/>
+      <c r="GL64" s="0"/>
+      <c r="GM64" s="0"/>
+      <c r="GN64" s="0"/>
+      <c r="GO64" s="0"/>
+      <c r="GP64" s="0"/>
+      <c r="GQ64" s="0"/>
+      <c r="GR64" s="0"/>
+      <c r="GS64" s="0"/>
+      <c r="GT64" s="0"/>
+      <c r="GU64" s="0"/>
+      <c r="GV64" s="0"/>
+      <c r="GW64" s="0"/>
+      <c r="GX64" s="0"/>
+      <c r="GY64" s="0"/>
+      <c r="GZ64" s="0"/>
+      <c r="HA64" s="0"/>
+      <c r="HB64" s="0"/>
+      <c r="HC64" s="0"/>
+      <c r="HD64" s="0"/>
+      <c r="HE64" s="0"/>
+      <c r="HF64" s="0"/>
+      <c r="HG64" s="0"/>
+      <c r="HH64" s="0"/>
+      <c r="HI64" s="0"/>
+      <c r="HJ64" s="0"/>
+      <c r="HK64" s="0"/>
+      <c r="HL64" s="0"/>
+      <c r="HM64" s="0"/>
+      <c r="HN64" s="0"/>
+      <c r="HO64" s="0"/>
+      <c r="HP64" s="0"/>
+      <c r="HQ64" s="0"/>
+      <c r="HR64" s="0"/>
+      <c r="HS64" s="0"/>
+      <c r="HT64" s="0"/>
+      <c r="HU64" s="0"/>
+      <c r="HV64" s="0"/>
+      <c r="HW64" s="0"/>
+      <c r="HX64" s="0"/>
+      <c r="HY64" s="0"/>
+      <c r="HZ64" s="0"/>
+      <c r="IA64" s="0"/>
+      <c r="IB64" s="0"/>
+      <c r="IC64" s="0"/>
+      <c r="ID64" s="0"/>
+      <c r="IE64" s="0"/>
+      <c r="IF64" s="0"/>
+      <c r="IG64" s="0"/>
+      <c r="IH64" s="0"/>
+      <c r="II64" s="0"/>
+      <c r="IJ64" s="0"/>
+      <c r="IK64" s="0"/>
+      <c r="IL64" s="0"/>
+      <c r="IM64" s="0"/>
+      <c r="IN64" s="0"/>
+      <c r="IO64" s="0"/>
+      <c r="IP64" s="0"/>
+      <c r="IQ64" s="0"/>
+      <c r="IR64" s="0"/>
+      <c r="IS64" s="0"/>
+      <c r="IT64" s="0"/>
+      <c r="IU64" s="0"/>
+      <c r="IV64" s="0"/>
+      <c r="IW64" s="0"/>
+      <c r="IX64" s="0"/>
+      <c r="IY64" s="0"/>
+      <c r="IZ64" s="0"/>
+      <c r="JA64" s="0"/>
+      <c r="JB64" s="0"/>
+      <c r="JC64" s="0"/>
+      <c r="JD64" s="0"/>
+      <c r="JE64" s="0"/>
+      <c r="JF64" s="0"/>
+      <c r="JG64" s="0"/>
+      <c r="JH64" s="0"/>
+      <c r="JI64" s="0"/>
+      <c r="JJ64" s="0"/>
+      <c r="JK64" s="0"/>
+      <c r="JL64" s="0"/>
+      <c r="JM64" s="0"/>
+      <c r="JN64" s="0"/>
+      <c r="JO64" s="0"/>
+      <c r="JP64" s="0"/>
+      <c r="JQ64" s="0"/>
+      <c r="JR64" s="0"/>
+      <c r="JS64" s="0"/>
+      <c r="JT64" s="0"/>
+      <c r="JU64" s="0"/>
+      <c r="JV64" s="0"/>
+      <c r="JW64" s="0"/>
+      <c r="JX64" s="0"/>
+      <c r="JY64" s="0"/>
+      <c r="JZ64" s="0"/>
+      <c r="KA64" s="0"/>
+      <c r="KB64" s="0"/>
+      <c r="KC64" s="0"/>
+      <c r="KD64" s="0"/>
+      <c r="KE64" s="0"/>
+      <c r="KF64" s="0"/>
+      <c r="KG64" s="0"/>
+      <c r="KH64" s="0"/>
+      <c r="KI64" s="0"/>
+      <c r="KJ64" s="0"/>
+      <c r="KK64" s="0"/>
+      <c r="KL64" s="0"/>
+      <c r="KM64" s="0"/>
+      <c r="KN64" s="0"/>
+      <c r="KO64" s="0"/>
+      <c r="KP64" s="0"/>
+      <c r="KQ64" s="0"/>
+      <c r="KR64" s="0"/>
+      <c r="KS64" s="0"/>
+      <c r="KT64" s="0"/>
+      <c r="KU64" s="0"/>
+      <c r="KV64" s="0"/>
+      <c r="KW64" s="0"/>
+      <c r="KX64" s="0"/>
+      <c r="KY64" s="0"/>
+      <c r="KZ64" s="0"/>
+      <c r="LA64" s="0"/>
+      <c r="LB64" s="0"/>
+      <c r="LC64" s="0"/>
+      <c r="LD64" s="0"/>
+      <c r="LE64" s="0"/>
+      <c r="LF64" s="0"/>
+      <c r="LG64" s="0"/>
+      <c r="LH64" s="0"/>
+      <c r="LI64" s="0"/>
+      <c r="LJ64" s="0"/>
+      <c r="LK64" s="0"/>
+      <c r="LL64" s="0"/>
+      <c r="LM64" s="0"/>
+      <c r="LN64" s="0"/>
+      <c r="LO64" s="0"/>
+      <c r="LP64" s="0"/>
+      <c r="LQ64" s="0"/>
+      <c r="LR64" s="0"/>
+      <c r="LS64" s="0"/>
+      <c r="LT64" s="0"/>
+      <c r="LU64" s="0"/>
+      <c r="LV64" s="0"/>
+      <c r="LW64" s="0"/>
+      <c r="LX64" s="0"/>
+      <c r="LY64" s="0"/>
+      <c r="LZ64" s="0"/>
+      <c r="MA64" s="0"/>
+      <c r="MB64" s="0"/>
+      <c r="MC64" s="0"/>
+      <c r="MD64" s="0"/>
+      <c r="ME64" s="0"/>
+      <c r="MF64" s="0"/>
+      <c r="MG64" s="0"/>
+      <c r="MH64" s="0"/>
+      <c r="MI64" s="0"/>
+      <c r="MJ64" s="0"/>
+      <c r="MK64" s="0"/>
+      <c r="ML64" s="0"/>
+      <c r="MM64" s="0"/>
+      <c r="MN64" s="0"/>
+      <c r="MO64" s="0"/>
+      <c r="MP64" s="0"/>
+      <c r="MQ64" s="0"/>
+      <c r="MR64" s="0"/>
+      <c r="MS64" s="0"/>
+      <c r="MT64" s="0"/>
+      <c r="MU64" s="0"/>
+      <c r="MV64" s="0"/>
+      <c r="MW64" s="0"/>
+      <c r="MX64" s="0"/>
+      <c r="MY64" s="0"/>
+      <c r="MZ64" s="0"/>
+      <c r="NA64" s="0"/>
+      <c r="NB64" s="0"/>
+      <c r="NC64" s="0"/>
+      <c r="ND64" s="0"/>
+      <c r="NE64" s="0"/>
+      <c r="NF64" s="0"/>
+      <c r="NG64" s="0"/>
+      <c r="NH64" s="0"/>
+      <c r="NI64" s="0"/>
+      <c r="NJ64" s="0"/>
+      <c r="NK64" s="0"/>
+      <c r="NL64" s="0"/>
+      <c r="NM64" s="0"/>
+      <c r="NN64" s="0"/>
+      <c r="NO64" s="0"/>
+      <c r="NP64" s="0"/>
+      <c r="NQ64" s="0"/>
+      <c r="NR64" s="0"/>
+      <c r="NS64" s="0"/>
+      <c r="NT64" s="0"/>
+      <c r="NU64" s="0"/>
+      <c r="NV64" s="0"/>
+      <c r="NW64" s="0"/>
+      <c r="NX64" s="0"/>
+      <c r="NY64" s="0"/>
+      <c r="NZ64" s="0"/>
+      <c r="OA64" s="0"/>
+      <c r="OB64" s="0"/>
+      <c r="OC64" s="0"/>
+      <c r="OD64" s="0"/>
+      <c r="OE64" s="0"/>
+      <c r="OF64" s="0"/>
+      <c r="OG64" s="0"/>
+      <c r="OH64" s="0"/>
+      <c r="OI64" s="0"/>
+      <c r="OJ64" s="0"/>
+      <c r="OK64" s="0"/>
+      <c r="OL64" s="0"/>
+      <c r="OM64" s="0"/>
+      <c r="ON64" s="0"/>
+      <c r="OO64" s="0"/>
+      <c r="OP64" s="0"/>
+      <c r="OQ64" s="0"/>
+      <c r="OR64" s="0"/>
+      <c r="OS64" s="0"/>
+      <c r="OT64" s="0"/>
+      <c r="OU64" s="0"/>
+      <c r="OV64" s="0"/>
+      <c r="OW64" s="0"/>
+      <c r="OX64" s="0"/>
+      <c r="OY64" s="0"/>
+      <c r="OZ64" s="0"/>
+      <c r="PA64" s="0"/>
+      <c r="PB64" s="0"/>
+      <c r="PC64" s="0"/>
+      <c r="PD64" s="0"/>
+      <c r="PE64" s="0"/>
+      <c r="PF64" s="0"/>
+      <c r="PG64" s="0"/>
+      <c r="PH64" s="0"/>
+      <c r="PI64" s="0"/>
+      <c r="PJ64" s="0"/>
+      <c r="PK64" s="0"/>
+      <c r="PL64" s="0"/>
+      <c r="PM64" s="0"/>
+      <c r="PN64" s="0"/>
+      <c r="PO64" s="0"/>
+      <c r="PP64" s="0"/>
+      <c r="PQ64" s="0"/>
+      <c r="PR64" s="0"/>
+      <c r="PS64" s="0"/>
+      <c r="PT64" s="0"/>
+      <c r="PU64" s="0"/>
+      <c r="PV64" s="0"/>
+      <c r="PW64" s="0"/>
+      <c r="PX64" s="0"/>
+      <c r="PY64" s="0"/>
+      <c r="PZ64" s="0"/>
+      <c r="QA64" s="0"/>
+      <c r="QB64" s="0"/>
+      <c r="QC64" s="0"/>
+      <c r="QD64" s="0"/>
+      <c r="QE64" s="0"/>
+      <c r="QF64" s="0"/>
+      <c r="QG64" s="0"/>
+      <c r="QH64" s="0"/>
+      <c r="QI64" s="0"/>
+      <c r="QJ64" s="0"/>
+      <c r="QK64" s="0"/>
+      <c r="QL64" s="0"/>
+      <c r="QM64" s="0"/>
+      <c r="QN64" s="0"/>
+      <c r="QO64" s="0"/>
+      <c r="QP64" s="0"/>
+      <c r="QQ64" s="0"/>
+      <c r="QR64" s="0"/>
+      <c r="QS64" s="0"/>
+      <c r="QT64" s="0"/>
+      <c r="QU64" s="0"/>
+      <c r="QV64" s="0"/>
+      <c r="QW64" s="0"/>
+      <c r="QX64" s="0"/>
+      <c r="QY64" s="0"/>
+      <c r="QZ64" s="0"/>
+      <c r="RA64" s="0"/>
+      <c r="RB64" s="0"/>
+      <c r="RC64" s="0"/>
+      <c r="RD64" s="0"/>
+      <c r="RE64" s="0"/>
+      <c r="RF64" s="0"/>
+      <c r="RG64" s="0"/>
+      <c r="RH64" s="0"/>
+      <c r="RI64" s="0"/>
+      <c r="RJ64" s="0"/>
+      <c r="RK64" s="0"/>
+      <c r="RL64" s="0"/>
+      <c r="RM64" s="0"/>
+      <c r="RN64" s="0"/>
+      <c r="RO64" s="0"/>
+      <c r="RP64" s="0"/>
+      <c r="RQ64" s="0"/>
+      <c r="RR64" s="0"/>
+      <c r="RS64" s="0"/>
+      <c r="RT64" s="0"/>
+      <c r="RU64" s="0"/>
+      <c r="RV64" s="0"/>
+      <c r="RW64" s="0"/>
+      <c r="RX64" s="0"/>
+      <c r="RY64" s="0"/>
+      <c r="RZ64" s="0"/>
+      <c r="SA64" s="0"/>
+      <c r="SB64" s="0"/>
+      <c r="SC64" s="0"/>
+      <c r="SD64" s="0"/>
+      <c r="SE64" s="0"/>
+      <c r="SF64" s="0"/>
+      <c r="SG64" s="0"/>
+      <c r="SH64" s="0"/>
+      <c r="SI64" s="0"/>
+      <c r="SJ64" s="0"/>
+      <c r="SK64" s="0"/>
+      <c r="SL64" s="0"/>
+      <c r="SM64" s="0"/>
+      <c r="SN64" s="0"/>
+      <c r="SO64" s="0"/>
+      <c r="SP64" s="0"/>
+      <c r="SQ64" s="0"/>
+      <c r="SR64" s="0"/>
+      <c r="SS64" s="0"/>
+      <c r="ST64" s="0"/>
+      <c r="SU64" s="0"/>
+      <c r="SV64" s="0"/>
+      <c r="SW64" s="0"/>
+      <c r="SX64" s="0"/>
+      <c r="SY64" s="0"/>
+      <c r="SZ64" s="0"/>
+      <c r="TA64" s="0"/>
+      <c r="TB64" s="0"/>
+      <c r="TC64" s="0"/>
+      <c r="TD64" s="0"/>
+      <c r="TE64" s="0"/>
+      <c r="TF64" s="0"/>
+      <c r="TG64" s="0"/>
+      <c r="TH64" s="0"/>
+      <c r="TI64" s="0"/>
+      <c r="TJ64" s="0"/>
+      <c r="TK64" s="0"/>
+      <c r="TL64" s="0"/>
+      <c r="TM64" s="0"/>
+      <c r="TN64" s="0"/>
+      <c r="TO64" s="0"/>
+      <c r="TP64" s="0"/>
+      <c r="TQ64" s="0"/>
+      <c r="TR64" s="0"/>
+      <c r="TS64" s="0"/>
+      <c r="TT64" s="0"/>
+      <c r="TU64" s="0"/>
+      <c r="TV64" s="0"/>
+      <c r="TW64" s="0"/>
+      <c r="TX64" s="0"/>
+      <c r="TY64" s="0"/>
+      <c r="TZ64" s="0"/>
+      <c r="UA64" s="0"/>
+      <c r="UB64" s="0"/>
+      <c r="UC64" s="0"/>
+      <c r="UD64" s="0"/>
+      <c r="UE64" s="0"/>
+      <c r="UF64" s="0"/>
+      <c r="UG64" s="0"/>
+      <c r="UH64" s="0"/>
+      <c r="UI64" s="0"/>
+      <c r="UJ64" s="0"/>
+      <c r="UK64" s="0"/>
+      <c r="UL64" s="0"/>
+      <c r="UM64" s="0"/>
+      <c r="UN64" s="0"/>
+      <c r="UO64" s="0"/>
+      <c r="UP64" s="0"/>
+      <c r="UQ64" s="0"/>
+      <c r="UR64" s="0"/>
+      <c r="US64" s="0"/>
+      <c r="UT64" s="0"/>
+      <c r="UU64" s="0"/>
+      <c r="UV64" s="0"/>
+      <c r="UW64" s="0"/>
+      <c r="UX64" s="0"/>
+      <c r="UY64" s="0"/>
+      <c r="UZ64" s="0"/>
+      <c r="VA64" s="0"/>
+      <c r="VB64" s="0"/>
+      <c r="VC64" s="0"/>
+      <c r="VD64" s="0"/>
+      <c r="VE64" s="0"/>
+      <c r="VF64" s="0"/>
+      <c r="VG64" s="0"/>
+      <c r="VH64" s="0"/>
+      <c r="VI64" s="0"/>
+      <c r="VJ64" s="0"/>
+      <c r="VK64" s="0"/>
+      <c r="VL64" s="0"/>
+      <c r="VM64" s="0"/>
+      <c r="VN64" s="0"/>
+      <c r="VO64" s="0"/>
+      <c r="VP64" s="0"/>
+      <c r="VQ64" s="0"/>
+      <c r="VR64" s="0"/>
+      <c r="VS64" s="0"/>
+      <c r="VT64" s="0"/>
+      <c r="VU64" s="0"/>
+      <c r="VV64" s="0"/>
+      <c r="VW64" s="0"/>
+      <c r="VX64" s="0"/>
+      <c r="VY64" s="0"/>
+      <c r="VZ64" s="0"/>
+      <c r="WA64" s="0"/>
+      <c r="WB64" s="0"/>
+      <c r="WC64" s="0"/>
+      <c r="WD64" s="0"/>
+      <c r="WE64" s="0"/>
+      <c r="WF64" s="0"/>
+      <c r="WG64" s="0"/>
+      <c r="WH64" s="0"/>
+      <c r="WI64" s="0"/>
+      <c r="WJ64" s="0"/>
+      <c r="WK64" s="0"/>
+      <c r="WL64" s="0"/>
+      <c r="WM64" s="0"/>
+      <c r="WN64" s="0"/>
+      <c r="WO64" s="0"/>
+      <c r="WP64" s="0"/>
+      <c r="WQ64" s="0"/>
+      <c r="WR64" s="0"/>
+      <c r="WS64" s="0"/>
+      <c r="WT64" s="0"/>
+      <c r="WU64" s="0"/>
+      <c r="WV64" s="0"/>
+      <c r="WW64" s="0"/>
+      <c r="WX64" s="0"/>
+      <c r="WY64" s="0"/>
+      <c r="WZ64" s="0"/>
+      <c r="XA64" s="0"/>
+      <c r="XB64" s="0"/>
+      <c r="XC64" s="0"/>
+      <c r="XD64" s="0"/>
+      <c r="XE64" s="0"/>
+      <c r="XF64" s="0"/>
+      <c r="XG64" s="0"/>
+      <c r="XH64" s="0"/>
+      <c r="XI64" s="0"/>
+      <c r="XJ64" s="0"/>
+      <c r="XK64" s="0"/>
+      <c r="XL64" s="0"/>
+      <c r="XM64" s="0"/>
+      <c r="XN64" s="0"/>
+      <c r="XO64" s="0"/>
+      <c r="XP64" s="0"/>
+      <c r="XQ64" s="0"/>
+      <c r="XR64" s="0"/>
+      <c r="XS64" s="0"/>
+      <c r="XT64" s="0"/>
+      <c r="XU64" s="0"/>
+      <c r="XV64" s="0"/>
+      <c r="XW64" s="0"/>
+      <c r="XX64" s="0"/>
+      <c r="XY64" s="0"/>
+      <c r="XZ64" s="0"/>
+      <c r="YA64" s="0"/>
+      <c r="YB64" s="0"/>
+      <c r="YC64" s="0"/>
+      <c r="YD64" s="0"/>
+      <c r="YE64" s="0"/>
+      <c r="YF64" s="0"/>
+      <c r="YG64" s="0"/>
+      <c r="YH64" s="0"/>
+      <c r="YI64" s="0"/>
+      <c r="YJ64" s="0"/>
+      <c r="YK64" s="0"/>
+      <c r="YL64" s="0"/>
+      <c r="YM64" s="0"/>
+      <c r="YN64" s="0"/>
+      <c r="YO64" s="0"/>
+      <c r="YP64" s="0"/>
+      <c r="YQ64" s="0"/>
+      <c r="YR64" s="0"/>
+      <c r="YS64" s="0"/>
+      <c r="YT64" s="0"/>
+      <c r="YU64" s="0"/>
+      <c r="YV64" s="0"/>
+      <c r="YW64" s="0"/>
+      <c r="YX64" s="0"/>
+      <c r="YY64" s="0"/>
+      <c r="YZ64" s="0"/>
+      <c r="ZA64" s="0"/>
+      <c r="ZB64" s="0"/>
+      <c r="ZC64" s="0"/>
+      <c r="ZD64" s="0"/>
+      <c r="ZE64" s="0"/>
+      <c r="ZF64" s="0"/>
+      <c r="ZG64" s="0"/>
+      <c r="ZH64" s="0"/>
+      <c r="ZI64" s="0"/>
+      <c r="ZJ64" s="0"/>
+      <c r="ZK64" s="0"/>
+      <c r="ZL64" s="0"/>
+      <c r="ZM64" s="0"/>
+      <c r="ZN64" s="0"/>
+      <c r="ZO64" s="0"/>
+      <c r="ZP64" s="0"/>
+      <c r="ZQ64" s="0"/>
+      <c r="ZR64" s="0"/>
+      <c r="ZS64" s="0"/>
+      <c r="ZT64" s="0"/>
+      <c r="ZU64" s="0"/>
+      <c r="ZV64" s="0"/>
+      <c r="ZW64" s="0"/>
+      <c r="ZX64" s="0"/>
+      <c r="ZY64" s="0"/>
+      <c r="ZZ64" s="0"/>
+      <c r="AAA64" s="0"/>
+      <c r="AAB64" s="0"/>
+      <c r="AAC64" s="0"/>
+      <c r="AAD64" s="0"/>
+      <c r="AAE64" s="0"/>
+      <c r="AAF64" s="0"/>
+      <c r="AAG64" s="0"/>
+      <c r="AAH64" s="0"/>
+      <c r="AAI64" s="0"/>
+      <c r="AAJ64" s="0"/>
+      <c r="AAK64" s="0"/>
+      <c r="AAL64" s="0"/>
+      <c r="AAM64" s="0"/>
+      <c r="AAN64" s="0"/>
+      <c r="AAO64" s="0"/>
+      <c r="AAP64" s="0"/>
+      <c r="AAQ64" s="0"/>
+      <c r="AAR64" s="0"/>
+      <c r="AAS64" s="0"/>
+      <c r="AAT64" s="0"/>
+      <c r="AAU64" s="0"/>
+      <c r="AAV64" s="0"/>
+      <c r="AAW64" s="0"/>
+      <c r="AAX64" s="0"/>
+      <c r="AAY64" s="0"/>
+      <c r="AAZ64" s="0"/>
+      <c r="ABA64" s="0"/>
+      <c r="ABB64" s="0"/>
+      <c r="ABC64" s="0"/>
+      <c r="ABD64" s="0"/>
+      <c r="ABE64" s="0"/>
+      <c r="ABF64" s="0"/>
+      <c r="ABG64" s="0"/>
+      <c r="ABH64" s="0"/>
+      <c r="ABI64" s="0"/>
+      <c r="ABJ64" s="0"/>
+      <c r="ABK64" s="0"/>
+      <c r="ABL64" s="0"/>
+      <c r="ABM64" s="0"/>
+      <c r="ABN64" s="0"/>
+      <c r="ABO64" s="0"/>
+      <c r="ABP64" s="0"/>
+      <c r="ABQ64" s="0"/>
+      <c r="ABR64" s="0"/>
+      <c r="ABS64" s="0"/>
+      <c r="ABT64" s="0"/>
+      <c r="ABU64" s="0"/>
+      <c r="ABV64" s="0"/>
+      <c r="ABW64" s="0"/>
+      <c r="ABX64" s="0"/>
+      <c r="ABY64" s="0"/>
+      <c r="ABZ64" s="0"/>
+      <c r="ACA64" s="0"/>
+      <c r="ACB64" s="0"/>
+      <c r="ACC64" s="0"/>
+      <c r="ACD64" s="0"/>
+      <c r="ACE64" s="0"/>
+      <c r="ACF64" s="0"/>
+      <c r="ACG64" s="0"/>
+      <c r="ACH64" s="0"/>
+      <c r="ACI64" s="0"/>
+      <c r="ACJ64" s="0"/>
+      <c r="ACK64" s="0"/>
+      <c r="ACL64" s="0"/>
+      <c r="ACM64" s="0"/>
+      <c r="ACN64" s="0"/>
+      <c r="ACO64" s="0"/>
+      <c r="ACP64" s="0"/>
+      <c r="ACQ64" s="0"/>
+      <c r="ACR64" s="0"/>
+      <c r="ACS64" s="0"/>
+      <c r="ACT64" s="0"/>
+      <c r="ACU64" s="0"/>
+      <c r="ACV64" s="0"/>
+      <c r="ACW64" s="0"/>
+      <c r="ACX64" s="0"/>
+      <c r="ACY64" s="0"/>
+      <c r="ACZ64" s="0"/>
+      <c r="ADA64" s="0"/>
+      <c r="ADB64" s="0"/>
+      <c r="ADC64" s="0"/>
+      <c r="ADD64" s="0"/>
+      <c r="ADE64" s="0"/>
+      <c r="ADF64" s="0"/>
+      <c r="ADG64" s="0"/>
+      <c r="ADH64" s="0"/>
+      <c r="ADI64" s="0"/>
+      <c r="ADJ64" s="0"/>
+      <c r="ADK64" s="0"/>
+      <c r="ADL64" s="0"/>
+      <c r="ADM64" s="0"/>
+      <c r="ADN64" s="0"/>
+      <c r="ADO64" s="0"/>
+      <c r="ADP64" s="0"/>
+      <c r="ADQ64" s="0"/>
+      <c r="ADR64" s="0"/>
+      <c r="ADS64" s="0"/>
+      <c r="ADT64" s="0"/>
+      <c r="ADU64" s="0"/>
+      <c r="ADV64" s="0"/>
+      <c r="ADW64" s="0"/>
+      <c r="ADX64" s="0"/>
+      <c r="ADY64" s="0"/>
+      <c r="ADZ64" s="0"/>
+      <c r="AEA64" s="0"/>
+      <c r="AEB64" s="0"/>
+      <c r="AEC64" s="0"/>
+      <c r="AED64" s="0"/>
+      <c r="AEE64" s="0"/>
+      <c r="AEF64" s="0"/>
+      <c r="AEG64" s="0"/>
+      <c r="AEH64" s="0"/>
+      <c r="AEI64" s="0"/>
+      <c r="AEJ64" s="0"/>
+      <c r="AEK64" s="0"/>
+      <c r="AEL64" s="0"/>
+      <c r="AEM64" s="0"/>
+      <c r="AEN64" s="0"/>
+      <c r="AEO64" s="0"/>
+      <c r="AEP64" s="0"/>
+      <c r="AEQ64" s="0"/>
+      <c r="AER64" s="0"/>
+      <c r="AES64" s="0"/>
+      <c r="AET64" s="0"/>
+      <c r="AEU64" s="0"/>
+      <c r="AEV64" s="0"/>
+      <c r="AEW64" s="0"/>
+      <c r="AEX64" s="0"/>
+      <c r="AEY64" s="0"/>
+      <c r="AEZ64" s="0"/>
+      <c r="AFA64" s="0"/>
+      <c r="AFB64" s="0"/>
+      <c r="AFC64" s="0"/>
+      <c r="AFD64" s="0"/>
+      <c r="AFE64" s="0"/>
+      <c r="AFF64" s="0"/>
+      <c r="AFG64" s="0"/>
+      <c r="AFH64" s="0"/>
+      <c r="AFI64" s="0"/>
+      <c r="AFJ64" s="0"/>
+      <c r="AFK64" s="0"/>
+      <c r="AFL64" s="0"/>
+      <c r="AFM64" s="0"/>
+      <c r="AFN64" s="0"/>
+      <c r="AFO64" s="0"/>
+      <c r="AFP64" s="0"/>
+      <c r="AFQ64" s="0"/>
+      <c r="AFR64" s="0"/>
+      <c r="AFS64" s="0"/>
+      <c r="AFT64" s="0"/>
+      <c r="AFU64" s="0"/>
+      <c r="AFV64" s="0"/>
+      <c r="AFW64" s="0"/>
+      <c r="AFX64" s="0"/>
+      <c r="AFY64" s="0"/>
+      <c r="AFZ64" s="0"/>
+      <c r="AGA64" s="0"/>
+      <c r="AGB64" s="0"/>
+      <c r="AGC64" s="0"/>
+      <c r="AGD64" s="0"/>
+      <c r="AGE64" s="0"/>
+      <c r="AGF64" s="0"/>
+      <c r="AGG64" s="0"/>
+      <c r="AGH64" s="0"/>
+      <c r="AGI64" s="0"/>
+      <c r="AGJ64" s="0"/>
+      <c r="AGK64" s="0"/>
+      <c r="AGL64" s="0"/>
+      <c r="AGM64" s="0"/>
+      <c r="AGN64" s="0"/>
+      <c r="AGO64" s="0"/>
+      <c r="AGP64" s="0"/>
+      <c r="AGQ64" s="0"/>
+      <c r="AGR64" s="0"/>
+      <c r="AGS64" s="0"/>
+      <c r="AGT64" s="0"/>
+      <c r="AGU64" s="0"/>
+      <c r="AGV64" s="0"/>
+      <c r="AGW64" s="0"/>
+      <c r="AGX64" s="0"/>
+      <c r="AGY64" s="0"/>
+      <c r="AGZ64" s="0"/>
+      <c r="AHA64" s="0"/>
+      <c r="AHB64" s="0"/>
+      <c r="AHC64" s="0"/>
+      <c r="AHD64" s="0"/>
+      <c r="AHE64" s="0"/>
+      <c r="AHF64" s="0"/>
+      <c r="AHG64" s="0"/>
+      <c r="AHH64" s="0"/>
+      <c r="AHI64" s="0"/>
+      <c r="AHJ64" s="0"/>
+      <c r="AHK64" s="0"/>
+      <c r="AHL64" s="0"/>
+      <c r="AHM64" s="0"/>
+      <c r="AHN64" s="0"/>
+      <c r="AHO64" s="0"/>
+      <c r="AHP64" s="0"/>
+      <c r="AHQ64" s="0"/>
+      <c r="AHR64" s="0"/>
+      <c r="AHS64" s="0"/>
+      <c r="AHT64" s="0"/>
+      <c r="AHU64" s="0"/>
+      <c r="AHV64" s="0"/>
+      <c r="AHW64" s="0"/>
+      <c r="AHX64" s="0"/>
+      <c r="AHY64" s="0"/>
+      <c r="AHZ64" s="0"/>
+      <c r="AIA64" s="0"/>
+      <c r="AIB64" s="0"/>
+      <c r="AIC64" s="0"/>
+      <c r="AID64" s="0"/>
+      <c r="AIE64" s="0"/>
+      <c r="AIF64" s="0"/>
+      <c r="AIG64" s="0"/>
+      <c r="AIH64" s="0"/>
+      <c r="AII64" s="0"/>
+      <c r="AIJ64" s="0"/>
+      <c r="AIK64" s="0"/>
+      <c r="AIL64" s="0"/>
+      <c r="AIM64" s="0"/>
+      <c r="AIN64" s="0"/>
+      <c r="AIO64" s="0"/>
+      <c r="AIP64" s="0"/>
+      <c r="AIQ64" s="0"/>
+      <c r="AIR64" s="0"/>
+      <c r="AIS64" s="0"/>
+      <c r="AIT64" s="0"/>
+      <c r="AIU64" s="0"/>
+      <c r="AIV64" s="0"/>
+      <c r="AIW64" s="0"/>
+      <c r="AIX64" s="0"/>
+      <c r="AIY64" s="0"/>
+      <c r="AIZ64" s="0"/>
+      <c r="AJA64" s="0"/>
+      <c r="AJB64" s="0"/>
+      <c r="AJC64" s="0"/>
+      <c r="AJD64" s="0"/>
+      <c r="AJE64" s="0"/>
+      <c r="AJF64" s="0"/>
+      <c r="AJG64" s="0"/>
+      <c r="AJH64" s="0"/>
+      <c r="AJI64" s="0"/>
+      <c r="AJJ64" s="0"/>
+      <c r="AJK64" s="0"/>
+      <c r="AJL64" s="0"/>
+      <c r="AJM64" s="0"/>
+      <c r="AJN64" s="0"/>
+      <c r="AJO64" s="0"/>
+      <c r="AJP64" s="0"/>
+      <c r="AJQ64" s="0"/>
+      <c r="AJR64" s="0"/>
+      <c r="AJS64" s="0"/>
+      <c r="AJT64" s="0"/>
+      <c r="AJU64" s="0"/>
+      <c r="AJV64" s="0"/>
+      <c r="AJW64" s="0"/>
+      <c r="AJX64" s="0"/>
+      <c r="AJY64" s="0"/>
+      <c r="AJZ64" s="0"/>
+      <c r="AKA64" s="0"/>
+      <c r="AKB64" s="0"/>
+      <c r="AKC64" s="0"/>
+      <c r="AKD64" s="0"/>
+      <c r="AKE64" s="0"/>
+      <c r="AKF64" s="0"/>
+      <c r="AKG64" s="0"/>
+      <c r="AKH64" s="0"/>
+      <c r="AKI64" s="0"/>
+      <c r="AKJ64" s="0"/>
+      <c r="AKK64" s="0"/>
+      <c r="AKL64" s="0"/>
+      <c r="AKM64" s="0"/>
+      <c r="AKN64" s="0"/>
+      <c r="AKO64" s="0"/>
+      <c r="AKP64" s="0"/>
+      <c r="AKQ64" s="0"/>
+      <c r="AKR64" s="0"/>
+      <c r="AKS64" s="0"/>
+      <c r="AKT64" s="0"/>
+      <c r="AKU64" s="0"/>
+      <c r="AKV64" s="0"/>
+      <c r="AKW64" s="0"/>
+      <c r="AKX64" s="0"/>
+      <c r="AKY64" s="0"/>
+      <c r="AKZ64" s="0"/>
+      <c r="ALA64" s="0"/>
+      <c r="ALB64" s="0"/>
+      <c r="ALC64" s="0"/>
+      <c r="ALD64" s="0"/>
+      <c r="ALE64" s="0"/>
+      <c r="ALF64" s="0"/>
+      <c r="ALG64" s="0"/>
+      <c r="ALH64" s="0"/>
+      <c r="ALI64" s="0"/>
+      <c r="ALJ64" s="0"/>
+      <c r="ALK64" s="0"/>
+      <c r="ALL64" s="0"/>
+      <c r="ALM64" s="0"/>
+      <c r="ALN64" s="0"/>
+      <c r="ALO64" s="0"/>
+      <c r="ALP64" s="0"/>
+      <c r="ALQ64" s="0"/>
+      <c r="ALR64" s="0"/>
+      <c r="ALS64" s="0"/>
+      <c r="ALT64" s="0"/>
+      <c r="ALU64" s="0"/>
+      <c r="ALV64" s="0"/>
+      <c r="ALW64" s="0"/>
+      <c r="ALX64" s="0"/>
+      <c r="ALY64" s="0"/>
+      <c r="ALZ64" s="0"/>
+      <c r="AMA64" s="0"/>
+      <c r="AMB64" s="0"/>
+      <c r="AMC64" s="0"/>
+      <c r="AMD64" s="0"/>
+      <c r="AME64" s="0"/>
+      <c r="AMF64" s="0"/>
+      <c r="AMG64" s="0"/>
+      <c r="AMH64" s="0"/>
+      <c r="AMI64" s="0"/>
+      <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0"/>
-      <c r="B65" s="9" t="s">
-        <v>58</v>
+    <row r="65" s="19" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="15" t="s">
+        <v>90</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
-      <c r="H65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
-      <c r="B66" s="27" t="s">
+      <c r="C65" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="27" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="66" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="0"/>
       <c r="E66" s="0"/>
       <c r="F66" s="0"/>
       <c r="G66" s="0"/>
       <c r="H66" s="0"/>
     </row>
-    <row r="67" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="28" t="s">
-        <v>58</v>
+      <c r="B67" s="9" t="s">
+        <v>60</v>
       </c>
-      <c r="C67" s="28"/>
+      <c r="C67" s="9"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>94</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
@@ -61000,209 +63048,207 @@
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
+      <c r="B69" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="28"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="31"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="32"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
+      <c r="B72" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="31"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
+      <c r="B73" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="32"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="B74" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="33"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
+      <c r="B76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="9"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="36"/>
+    <row r="77" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="33"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="3"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="22"/>
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="34"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
-      <c r="B80" s="22" t="s">
-        <v>100</v>
+      <c r="B80" s="3" t="s">
+        <v>99</v>
       </c>
-      <c r="C80" s="22"/>
+      <c r="C80" s="3"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
+      <c r="B81" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C81" s="17"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C82" s="9"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" s="38"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="39" t="s">
-        <v>103</v>
+      <c r="B84" s="9" t="s">
+        <v>102</v>
       </c>
-      <c r="C84" s="39" t="s">
-        <v>104</v>
-      </c>
+      <c r="C84" s="9"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="40" t="s">
-        <v>105</v>
+      <c r="B85" s="38" t="s">
+        <v>103</v>
       </c>
-      <c r="C85" s="40" t="s">
-        <v>106</v>
-      </c>
+      <c r="C85" s="38"/>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="40" t="s">
-        <v>107</v>
+      <c r="B86" s="39" t="s">
+        <v>104</v>
       </c>
-      <c r="C86" s="40" t="s">
-        <v>108</v>
+      <c r="C86" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
@@ -61210,102 +63256,112 @@
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="41"/>
+      <c r="B87" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="0"/>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="42"/>
-      <c r="B88" s="43" t="s">
+    <row r="88" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0"/>
+      <c r="B88" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C88" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>111</v>
-      </c>
+      <c r="D88" s="0"/>
       <c r="E88" s="0"/>
       <c r="F88" s="0"/>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
-      <c r="B89" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>114</v>
-      </c>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
-      <c r="B90" s="45" t="s">
-        <v>115</v>
+      <c r="A90" s="42"/>
+      <c r="B90" s="43" t="s">
+        <v>110</v>
       </c>
-      <c r="C90" s="46" t="s">
-        <v>116</v>
+      <c r="C90" s="43" t="s">
+        <v>111</v>
       </c>
-      <c r="D90" s="47" t="s">
-        <v>117</v>
+      <c r="D90" s="44" t="s">
+        <v>112</v>
       </c>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="34"/>
+    <row r="91" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
       <c r="B91" s="45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="47"/>
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
+      <c r="B92" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>118</v>
+      </c>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="0"/>
+    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="34"/>
+      <c r="B93" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>121</v>
+      </c>
       <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="0"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="48"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="47"/>
       <c r="E94" s="0"/>
       <c r="F94" s="0"/>
       <c r="G94" s="0"/>
@@ -61314,20 +63370,20 @@
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="42"/>
       <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="42"/>
@@ -61674,6 +63730,24 @@
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="42"/>
       <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="42"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="42"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="42"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="42"/>
+      <c r="C137" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -61683,40 +63757,40 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C76"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C78"/>
     <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C89" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C91" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C91" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C93" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -61741,52 +63815,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.8571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.7142857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.3622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.1734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.2040816326531"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
@@ -61794,122 +63868,122 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I8" s="53" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I9" s="53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I10" s="53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
@@ -61917,13 +63991,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I12" s="54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
@@ -61931,33 +64005,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I14" s="54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -5,29 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan CM" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Procesos" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Complej." vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_2" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_4" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Complej." vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" name="Complej." vbProcedure="false">#ref!</definedName>
+    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_2" vbProcedure="false">#ref!</definedName>
+    <definedName function="false" hidden="false" name="Excel_BuiltIn_Print_Area_4" vbProcedure="false">#ref!</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="Complej." vbProcedure="false">#ref!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="175">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -45,6 +40,15 @@
   </si>
   <si>
     <t>Nomenclatura</t>
+  </si>
+  <si>
+    <t>Cierre</t>
+  </si>
+  <si>
+    <t>Carta de aceptación</t>
+  </si>
+  <si>
+    <t>PTL_carta_aceptacion</t>
   </si>
   <si>
     <t>Planeación</t>
@@ -188,12 +192,6 @@
     <t>Plan_proyecto_aaaa</t>
   </si>
   <si>
-    <t>Minuta aprobación</t>
-  </si>
-  <si>
-    <t>Minuta_aprobacion_aaa</t>
-  </si>
-  <si>
     <t>Solicitud de cambio</t>
   </si>
   <si>
@@ -275,16 +273,10 @@
     <t>img_comprobante</t>
   </si>
   <si>
-    <t>Cierre</t>
-  </si>
-  <si>
     <t>Encuesta de satisfacción</t>
   </si>
   <si>
     <t>Encuesta_satisfacción</t>
-  </si>
-  <si>
-    <t>Carta de aceptación</t>
   </si>
   <si>
     <t>Carta aceptación</t>
@@ -314,7 +306,7 @@
     <t>Línea Base</t>
   </si>
   <si>
-    <t>Plan de proyecto, Plan de Métricas, Plan de Calidad + Catalogo de servicio (este ultimo no estara en repositorio ya que es el sistema de apoyo)</t>
+    <t>Plan de proyecto, Plan de Métricas, Plan de Calidad + Catalogo de servicio</t>
   </si>
   <si>
     <t>Mecanismos para la generacion de la linea base</t>
@@ -323,24 +315,7 @@
     <t>Seleccionar los archivos pertenecientes y agregarlos dentro de la carpeta Línea Base, agregar dichos archivos a repositorio, dicho responsabe será el asignado en el ciclo de vida</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>PTL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>: Sigla para identificar que el documento es una plantilla de ejemplo.</t>
-    </r>
+    <t>PTL: Sigla para identificar que el documento es una plantilla de ejemplo.</t>
   </si>
   <si>
     <t>Mecanismos de respaldo de Datos</t>
@@ -410,6 +385,15 @@
   </si>
   <si>
     <t>Almacena los prospectos, Deals del cliente, tareas, herramientas de seguimiento.</t>
+  </si>
+  <si>
+    <t>Control de Ventas</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1fi_snMheddplXnTf2ZvcttX32WOrPdTfyoQxSU10F5g/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Muestra las compras solicitadas por el area de ventas</t>
   </si>
   <si>
     <t>Artefactos</t>
@@ -637,6 +621,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -655,13 +645,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -720,6 +703,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
@@ -740,12 +729,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
         <bgColor rgb="FFEEECE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -868,7 +851,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -921,43 +904,47 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -965,7 +952,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,7 +972,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -997,11 +984,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,7 +1004,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1029,7 +1016,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,7 +1028,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1063,6 +1050,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1167,13 +1158,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:137"/>
+  <dimension ref="1:138"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="2.69897959183673"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="52.9183673469388"/>
@@ -2248,7 +2239,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -6367,12 +6358,12 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -7395,12 +7386,12 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="0"/>
@@ -8427,10 +8418,10 @@
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10"/>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
@@ -9453,12 +9444,12 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10"/>
       <c r="B10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="0"/>
@@ -10483,14 +10474,12 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11515,11 +11504,11 @@
     </row>
     <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -12543,13 +12532,13 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -13573,13 +13562,13 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -14603,12 +14592,14 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="16"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -15631,12 +15622,12 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10"/>
       <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="0"/>
@@ -16661,14 +16652,12 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="10"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>24</v>
-      </c>
+      <c r="C17" s="17"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -17693,11 +17682,11 @@
     </row>
     <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -18723,11 +18712,11 @@
     </row>
     <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
@@ -19753,11 +19742,11 @@
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10"/>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -20781,13 +20770,13 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10"/>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -21811,12 +21800,14 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="16"/>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
@@ -22841,10 +22832,10 @@
     </row>
     <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="0"/>
@@ -23871,10 +23862,10 @@
     </row>
     <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -24897,12 +24888,12 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="0"/>
@@ -25927,14 +25918,12 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="C26" s="19"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
@@ -26957,12 +26946,14 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="16"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
@@ -27985,1067 +27976,2088 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="s">
+    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10"/>
+      <c r="B28" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+      <c r="AX28" s="0"/>
+      <c r="AY28" s="0"/>
+      <c r="AZ28" s="0"/>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+      <c r="BM28" s="0"/>
+      <c r="BN28" s="0"/>
+      <c r="BO28" s="0"/>
+      <c r="BP28" s="0"/>
+      <c r="BQ28" s="0"/>
+      <c r="BR28" s="0"/>
+      <c r="BS28" s="0"/>
+      <c r="BT28" s="0"/>
+      <c r="BU28" s="0"/>
+      <c r="BV28" s="0"/>
+      <c r="BW28" s="0"/>
+      <c r="BX28" s="0"/>
+      <c r="BY28" s="0"/>
+      <c r="BZ28" s="0"/>
+      <c r="CA28" s="0"/>
+      <c r="CB28" s="0"/>
+      <c r="CC28" s="0"/>
+      <c r="CD28" s="0"/>
+      <c r="CE28" s="0"/>
+      <c r="CF28" s="0"/>
+      <c r="CG28" s="0"/>
+      <c r="CH28" s="0"/>
+      <c r="CI28" s="0"/>
+      <c r="CJ28" s="0"/>
+      <c r="CK28" s="0"/>
+      <c r="CL28" s="0"/>
+      <c r="CM28" s="0"/>
+      <c r="CN28" s="0"/>
+      <c r="CO28" s="0"/>
+      <c r="CP28" s="0"/>
+      <c r="CQ28" s="0"/>
+      <c r="CR28" s="0"/>
+      <c r="CS28" s="0"/>
+      <c r="CT28" s="0"/>
+      <c r="CU28" s="0"/>
+      <c r="CV28" s="0"/>
+      <c r="CW28" s="0"/>
+      <c r="CX28" s="0"/>
+      <c r="CY28" s="0"/>
+      <c r="CZ28" s="0"/>
+      <c r="DA28" s="0"/>
+      <c r="DB28" s="0"/>
+      <c r="DC28" s="0"/>
+      <c r="DD28" s="0"/>
+      <c r="DE28" s="0"/>
+      <c r="DF28" s="0"/>
+      <c r="DG28" s="0"/>
+      <c r="DH28" s="0"/>
+      <c r="DI28" s="0"/>
+      <c r="DJ28" s="0"/>
+      <c r="DK28" s="0"/>
+      <c r="DL28" s="0"/>
+      <c r="DM28" s="0"/>
+      <c r="DN28" s="0"/>
+      <c r="DO28" s="0"/>
+      <c r="DP28" s="0"/>
+      <c r="DQ28" s="0"/>
+      <c r="DR28" s="0"/>
+      <c r="DS28" s="0"/>
+      <c r="DT28" s="0"/>
+      <c r="DU28" s="0"/>
+      <c r="DV28" s="0"/>
+      <c r="DW28" s="0"/>
+      <c r="DX28" s="0"/>
+      <c r="DY28" s="0"/>
+      <c r="DZ28" s="0"/>
+      <c r="EA28" s="0"/>
+      <c r="EB28" s="0"/>
+      <c r="EC28" s="0"/>
+      <c r="ED28" s="0"/>
+      <c r="EE28" s="0"/>
+      <c r="EF28" s="0"/>
+      <c r="EG28" s="0"/>
+      <c r="EH28" s="0"/>
+      <c r="EI28" s="0"/>
+      <c r="EJ28" s="0"/>
+      <c r="EK28" s="0"/>
+      <c r="EL28" s="0"/>
+      <c r="EM28" s="0"/>
+      <c r="EN28" s="0"/>
+      <c r="EO28" s="0"/>
+      <c r="EP28" s="0"/>
+      <c r="EQ28" s="0"/>
+      <c r="ER28" s="0"/>
+      <c r="ES28" s="0"/>
+      <c r="ET28" s="0"/>
+      <c r="EU28" s="0"/>
+      <c r="EV28" s="0"/>
+      <c r="EW28" s="0"/>
+      <c r="EX28" s="0"/>
+      <c r="EY28" s="0"/>
+      <c r="EZ28" s="0"/>
+      <c r="FA28" s="0"/>
+      <c r="FB28" s="0"/>
+      <c r="FC28" s="0"/>
+      <c r="FD28" s="0"/>
+      <c r="FE28" s="0"/>
+      <c r="FF28" s="0"/>
+      <c r="FG28" s="0"/>
+      <c r="FH28" s="0"/>
+      <c r="FI28" s="0"/>
+      <c r="FJ28" s="0"/>
+      <c r="FK28" s="0"/>
+      <c r="FL28" s="0"/>
+      <c r="FM28" s="0"/>
+      <c r="FN28" s="0"/>
+      <c r="FO28" s="0"/>
+      <c r="FP28" s="0"/>
+      <c r="FQ28" s="0"/>
+      <c r="FR28" s="0"/>
+      <c r="FS28" s="0"/>
+      <c r="FT28" s="0"/>
+      <c r="FU28" s="0"/>
+      <c r="FV28" s="0"/>
+      <c r="FW28" s="0"/>
+      <c r="FX28" s="0"/>
+      <c r="FY28" s="0"/>
+      <c r="FZ28" s="0"/>
+      <c r="GA28" s="0"/>
+      <c r="GB28" s="0"/>
+      <c r="GC28" s="0"/>
+      <c r="GD28" s="0"/>
+      <c r="GE28" s="0"/>
+      <c r="GF28" s="0"/>
+      <c r="GG28" s="0"/>
+      <c r="GH28" s="0"/>
+      <c r="GI28" s="0"/>
+      <c r="GJ28" s="0"/>
+      <c r="GK28" s="0"/>
+      <c r="GL28" s="0"/>
+      <c r="GM28" s="0"/>
+      <c r="GN28" s="0"/>
+      <c r="GO28" s="0"/>
+      <c r="GP28" s="0"/>
+      <c r="GQ28" s="0"/>
+      <c r="GR28" s="0"/>
+      <c r="GS28" s="0"/>
+      <c r="GT28" s="0"/>
+      <c r="GU28" s="0"/>
+      <c r="GV28" s="0"/>
+      <c r="GW28" s="0"/>
+      <c r="GX28" s="0"/>
+      <c r="GY28" s="0"/>
+      <c r="GZ28" s="0"/>
+      <c r="HA28" s="0"/>
+      <c r="HB28" s="0"/>
+      <c r="HC28" s="0"/>
+      <c r="HD28" s="0"/>
+      <c r="HE28" s="0"/>
+      <c r="HF28" s="0"/>
+      <c r="HG28" s="0"/>
+      <c r="HH28" s="0"/>
+      <c r="HI28" s="0"/>
+      <c r="HJ28" s="0"/>
+      <c r="HK28" s="0"/>
+      <c r="HL28" s="0"/>
+      <c r="HM28" s="0"/>
+      <c r="HN28" s="0"/>
+      <c r="HO28" s="0"/>
+      <c r="HP28" s="0"/>
+      <c r="HQ28" s="0"/>
+      <c r="HR28" s="0"/>
+      <c r="HS28" s="0"/>
+      <c r="HT28" s="0"/>
+      <c r="HU28" s="0"/>
+      <c r="HV28" s="0"/>
+      <c r="HW28" s="0"/>
+      <c r="HX28" s="0"/>
+      <c r="HY28" s="0"/>
+      <c r="HZ28" s="0"/>
+      <c r="IA28" s="0"/>
+      <c r="IB28" s="0"/>
+      <c r="IC28" s="0"/>
+      <c r="ID28" s="0"/>
+      <c r="IE28" s="0"/>
+      <c r="IF28" s="0"/>
+      <c r="IG28" s="0"/>
+      <c r="IH28" s="0"/>
+      <c r="II28" s="0"/>
+      <c r="IJ28" s="0"/>
+      <c r="IK28" s="0"/>
+      <c r="IL28" s="0"/>
+      <c r="IM28" s="0"/>
+      <c r="IN28" s="0"/>
+      <c r="IO28" s="0"/>
+      <c r="IP28" s="0"/>
+      <c r="IQ28" s="0"/>
+      <c r="IR28" s="0"/>
+      <c r="IS28" s="0"/>
+      <c r="IT28" s="0"/>
+      <c r="IU28" s="0"/>
+      <c r="IV28" s="0"/>
+      <c r="IW28" s="0"/>
+      <c r="IX28" s="0"/>
+      <c r="IY28" s="0"/>
+      <c r="IZ28" s="0"/>
+      <c r="JA28" s="0"/>
+      <c r="JB28" s="0"/>
+      <c r="JC28" s="0"/>
+      <c r="JD28" s="0"/>
+      <c r="JE28" s="0"/>
+      <c r="JF28" s="0"/>
+      <c r="JG28" s="0"/>
+      <c r="JH28" s="0"/>
+      <c r="JI28" s="0"/>
+      <c r="JJ28" s="0"/>
+      <c r="JK28" s="0"/>
+      <c r="JL28" s="0"/>
+      <c r="JM28" s="0"/>
+      <c r="JN28" s="0"/>
+      <c r="JO28" s="0"/>
+      <c r="JP28" s="0"/>
+      <c r="JQ28" s="0"/>
+      <c r="JR28" s="0"/>
+      <c r="JS28" s="0"/>
+      <c r="JT28" s="0"/>
+      <c r="JU28" s="0"/>
+      <c r="JV28" s="0"/>
+      <c r="JW28" s="0"/>
+      <c r="JX28" s="0"/>
+      <c r="JY28" s="0"/>
+      <c r="JZ28" s="0"/>
+      <c r="KA28" s="0"/>
+      <c r="KB28" s="0"/>
+      <c r="KC28" s="0"/>
+      <c r="KD28" s="0"/>
+      <c r="KE28" s="0"/>
+      <c r="KF28" s="0"/>
+      <c r="KG28" s="0"/>
+      <c r="KH28" s="0"/>
+      <c r="KI28" s="0"/>
+      <c r="KJ28" s="0"/>
+      <c r="KK28" s="0"/>
+      <c r="KL28" s="0"/>
+      <c r="KM28" s="0"/>
+      <c r="KN28" s="0"/>
+      <c r="KO28" s="0"/>
+      <c r="KP28" s="0"/>
+      <c r="KQ28" s="0"/>
+      <c r="KR28" s="0"/>
+      <c r="KS28" s="0"/>
+      <c r="KT28" s="0"/>
+      <c r="KU28" s="0"/>
+      <c r="KV28" s="0"/>
+      <c r="KW28" s="0"/>
+      <c r="KX28" s="0"/>
+      <c r="KY28" s="0"/>
+      <c r="KZ28" s="0"/>
+      <c r="LA28" s="0"/>
+      <c r="LB28" s="0"/>
+      <c r="LC28" s="0"/>
+      <c r="LD28" s="0"/>
+      <c r="LE28" s="0"/>
+      <c r="LF28" s="0"/>
+      <c r="LG28" s="0"/>
+      <c r="LH28" s="0"/>
+      <c r="LI28" s="0"/>
+      <c r="LJ28" s="0"/>
+      <c r="LK28" s="0"/>
+      <c r="LL28" s="0"/>
+      <c r="LM28" s="0"/>
+      <c r="LN28" s="0"/>
+      <c r="LO28" s="0"/>
+      <c r="LP28" s="0"/>
+      <c r="LQ28" s="0"/>
+      <c r="LR28" s="0"/>
+      <c r="LS28" s="0"/>
+      <c r="LT28" s="0"/>
+      <c r="LU28" s="0"/>
+      <c r="LV28" s="0"/>
+      <c r="LW28" s="0"/>
+      <c r="LX28" s="0"/>
+      <c r="LY28" s="0"/>
+      <c r="LZ28" s="0"/>
+      <c r="MA28" s="0"/>
+      <c r="MB28" s="0"/>
+      <c r="MC28" s="0"/>
+      <c r="MD28" s="0"/>
+      <c r="ME28" s="0"/>
+      <c r="MF28" s="0"/>
+      <c r="MG28" s="0"/>
+      <c r="MH28" s="0"/>
+      <c r="MI28" s="0"/>
+      <c r="MJ28" s="0"/>
+      <c r="MK28" s="0"/>
+      <c r="ML28" s="0"/>
+      <c r="MM28" s="0"/>
+      <c r="MN28" s="0"/>
+      <c r="MO28" s="0"/>
+      <c r="MP28" s="0"/>
+      <c r="MQ28" s="0"/>
+      <c r="MR28" s="0"/>
+      <c r="MS28" s="0"/>
+      <c r="MT28" s="0"/>
+      <c r="MU28" s="0"/>
+      <c r="MV28" s="0"/>
+      <c r="MW28" s="0"/>
+      <c r="MX28" s="0"/>
+      <c r="MY28" s="0"/>
+      <c r="MZ28" s="0"/>
+      <c r="NA28" s="0"/>
+      <c r="NB28" s="0"/>
+      <c r="NC28" s="0"/>
+      <c r="ND28" s="0"/>
+      <c r="NE28" s="0"/>
+      <c r="NF28" s="0"/>
+      <c r="NG28" s="0"/>
+      <c r="NH28" s="0"/>
+      <c r="NI28" s="0"/>
+      <c r="NJ28" s="0"/>
+      <c r="NK28" s="0"/>
+      <c r="NL28" s="0"/>
+      <c r="NM28" s="0"/>
+      <c r="NN28" s="0"/>
+      <c r="NO28" s="0"/>
+      <c r="NP28" s="0"/>
+      <c r="NQ28" s="0"/>
+      <c r="NR28" s="0"/>
+      <c r="NS28" s="0"/>
+      <c r="NT28" s="0"/>
+      <c r="NU28" s="0"/>
+      <c r="NV28" s="0"/>
+      <c r="NW28" s="0"/>
+      <c r="NX28" s="0"/>
+      <c r="NY28" s="0"/>
+      <c r="NZ28" s="0"/>
+      <c r="OA28" s="0"/>
+      <c r="OB28" s="0"/>
+      <c r="OC28" s="0"/>
+      <c r="OD28" s="0"/>
+      <c r="OE28" s="0"/>
+      <c r="OF28" s="0"/>
+      <c r="OG28" s="0"/>
+      <c r="OH28" s="0"/>
+      <c r="OI28" s="0"/>
+      <c r="OJ28" s="0"/>
+      <c r="OK28" s="0"/>
+      <c r="OL28" s="0"/>
+      <c r="OM28" s="0"/>
+      <c r="ON28" s="0"/>
+      <c r="OO28" s="0"/>
+      <c r="OP28" s="0"/>
+      <c r="OQ28" s="0"/>
+      <c r="OR28" s="0"/>
+      <c r="OS28" s="0"/>
+      <c r="OT28" s="0"/>
+      <c r="OU28" s="0"/>
+      <c r="OV28" s="0"/>
+      <c r="OW28" s="0"/>
+      <c r="OX28" s="0"/>
+      <c r="OY28" s="0"/>
+      <c r="OZ28" s="0"/>
+      <c r="PA28" s="0"/>
+      <c r="PB28" s="0"/>
+      <c r="PC28" s="0"/>
+      <c r="PD28" s="0"/>
+      <c r="PE28" s="0"/>
+      <c r="PF28" s="0"/>
+      <c r="PG28" s="0"/>
+      <c r="PH28" s="0"/>
+      <c r="PI28" s="0"/>
+      <c r="PJ28" s="0"/>
+      <c r="PK28" s="0"/>
+      <c r="PL28" s="0"/>
+      <c r="PM28" s="0"/>
+      <c r="PN28" s="0"/>
+      <c r="PO28" s="0"/>
+      <c r="PP28" s="0"/>
+      <c r="PQ28" s="0"/>
+      <c r="PR28" s="0"/>
+      <c r="PS28" s="0"/>
+      <c r="PT28" s="0"/>
+      <c r="PU28" s="0"/>
+      <c r="PV28" s="0"/>
+      <c r="PW28" s="0"/>
+      <c r="PX28" s="0"/>
+      <c r="PY28" s="0"/>
+      <c r="PZ28" s="0"/>
+      <c r="QA28" s="0"/>
+      <c r="QB28" s="0"/>
+      <c r="QC28" s="0"/>
+      <c r="QD28" s="0"/>
+      <c r="QE28" s="0"/>
+      <c r="QF28" s="0"/>
+      <c r="QG28" s="0"/>
+      <c r="QH28" s="0"/>
+      <c r="QI28" s="0"/>
+      <c r="QJ28" s="0"/>
+      <c r="QK28" s="0"/>
+      <c r="QL28" s="0"/>
+      <c r="QM28" s="0"/>
+      <c r="QN28" s="0"/>
+      <c r="QO28" s="0"/>
+      <c r="QP28" s="0"/>
+      <c r="QQ28" s="0"/>
+      <c r="QR28" s="0"/>
+      <c r="QS28" s="0"/>
+      <c r="QT28" s="0"/>
+      <c r="QU28" s="0"/>
+      <c r="QV28" s="0"/>
+      <c r="QW28" s="0"/>
+      <c r="QX28" s="0"/>
+      <c r="QY28" s="0"/>
+      <c r="QZ28" s="0"/>
+      <c r="RA28" s="0"/>
+      <c r="RB28" s="0"/>
+      <c r="RC28" s="0"/>
+      <c r="RD28" s="0"/>
+      <c r="RE28" s="0"/>
+      <c r="RF28" s="0"/>
+      <c r="RG28" s="0"/>
+      <c r="RH28" s="0"/>
+      <c r="RI28" s="0"/>
+      <c r="RJ28" s="0"/>
+      <c r="RK28" s="0"/>
+      <c r="RL28" s="0"/>
+      <c r="RM28" s="0"/>
+      <c r="RN28" s="0"/>
+      <c r="RO28" s="0"/>
+      <c r="RP28" s="0"/>
+      <c r="RQ28" s="0"/>
+      <c r="RR28" s="0"/>
+      <c r="RS28" s="0"/>
+      <c r="RT28" s="0"/>
+      <c r="RU28" s="0"/>
+      <c r="RV28" s="0"/>
+      <c r="RW28" s="0"/>
+      <c r="RX28" s="0"/>
+      <c r="RY28" s="0"/>
+      <c r="RZ28" s="0"/>
+      <c r="SA28" s="0"/>
+      <c r="SB28" s="0"/>
+      <c r="SC28" s="0"/>
+      <c r="SD28" s="0"/>
+      <c r="SE28" s="0"/>
+      <c r="SF28" s="0"/>
+      <c r="SG28" s="0"/>
+      <c r="SH28" s="0"/>
+      <c r="SI28" s="0"/>
+      <c r="SJ28" s="0"/>
+      <c r="SK28" s="0"/>
+      <c r="SL28" s="0"/>
+      <c r="SM28" s="0"/>
+      <c r="SN28" s="0"/>
+      <c r="SO28" s="0"/>
+      <c r="SP28" s="0"/>
+      <c r="SQ28" s="0"/>
+      <c r="SR28" s="0"/>
+      <c r="SS28" s="0"/>
+      <c r="ST28" s="0"/>
+      <c r="SU28" s="0"/>
+      <c r="SV28" s="0"/>
+      <c r="SW28" s="0"/>
+      <c r="SX28" s="0"/>
+      <c r="SY28" s="0"/>
+      <c r="SZ28" s="0"/>
+      <c r="TA28" s="0"/>
+      <c r="TB28" s="0"/>
+      <c r="TC28" s="0"/>
+      <c r="TD28" s="0"/>
+      <c r="TE28" s="0"/>
+      <c r="TF28" s="0"/>
+      <c r="TG28" s="0"/>
+      <c r="TH28" s="0"/>
+      <c r="TI28" s="0"/>
+      <c r="TJ28" s="0"/>
+      <c r="TK28" s="0"/>
+      <c r="TL28" s="0"/>
+      <c r="TM28" s="0"/>
+      <c r="TN28" s="0"/>
+      <c r="TO28" s="0"/>
+      <c r="TP28" s="0"/>
+      <c r="TQ28" s="0"/>
+      <c r="TR28" s="0"/>
+      <c r="TS28" s="0"/>
+      <c r="TT28" s="0"/>
+      <c r="TU28" s="0"/>
+      <c r="TV28" s="0"/>
+      <c r="TW28" s="0"/>
+      <c r="TX28" s="0"/>
+      <c r="TY28" s="0"/>
+      <c r="TZ28" s="0"/>
+      <c r="UA28" s="0"/>
+      <c r="UB28" s="0"/>
+      <c r="UC28" s="0"/>
+      <c r="UD28" s="0"/>
+      <c r="UE28" s="0"/>
+      <c r="UF28" s="0"/>
+      <c r="UG28" s="0"/>
+      <c r="UH28" s="0"/>
+      <c r="UI28" s="0"/>
+      <c r="UJ28" s="0"/>
+      <c r="UK28" s="0"/>
+      <c r="UL28" s="0"/>
+      <c r="UM28" s="0"/>
+      <c r="UN28" s="0"/>
+      <c r="UO28" s="0"/>
+      <c r="UP28" s="0"/>
+      <c r="UQ28" s="0"/>
+      <c r="UR28" s="0"/>
+      <c r="US28" s="0"/>
+      <c r="UT28" s="0"/>
+      <c r="UU28" s="0"/>
+      <c r="UV28" s="0"/>
+      <c r="UW28" s="0"/>
+      <c r="UX28" s="0"/>
+      <c r="UY28" s="0"/>
+      <c r="UZ28" s="0"/>
+      <c r="VA28" s="0"/>
+      <c r="VB28" s="0"/>
+      <c r="VC28" s="0"/>
+      <c r="VD28" s="0"/>
+      <c r="VE28" s="0"/>
+      <c r="VF28" s="0"/>
+      <c r="VG28" s="0"/>
+      <c r="VH28" s="0"/>
+      <c r="VI28" s="0"/>
+      <c r="VJ28" s="0"/>
+      <c r="VK28" s="0"/>
+      <c r="VL28" s="0"/>
+      <c r="VM28" s="0"/>
+      <c r="VN28" s="0"/>
+      <c r="VO28" s="0"/>
+      <c r="VP28" s="0"/>
+      <c r="VQ28" s="0"/>
+      <c r="VR28" s="0"/>
+      <c r="VS28" s="0"/>
+      <c r="VT28" s="0"/>
+      <c r="VU28" s="0"/>
+      <c r="VV28" s="0"/>
+      <c r="VW28" s="0"/>
+      <c r="VX28" s="0"/>
+      <c r="VY28" s="0"/>
+      <c r="VZ28" s="0"/>
+      <c r="WA28" s="0"/>
+      <c r="WB28" s="0"/>
+      <c r="WC28" s="0"/>
+      <c r="WD28" s="0"/>
+      <c r="WE28" s="0"/>
+      <c r="WF28" s="0"/>
+      <c r="WG28" s="0"/>
+      <c r="WH28" s="0"/>
+      <c r="WI28" s="0"/>
+      <c r="WJ28" s="0"/>
+      <c r="WK28" s="0"/>
+      <c r="WL28" s="0"/>
+      <c r="WM28" s="0"/>
+      <c r="WN28" s="0"/>
+      <c r="WO28" s="0"/>
+      <c r="WP28" s="0"/>
+      <c r="WQ28" s="0"/>
+      <c r="WR28" s="0"/>
+      <c r="WS28" s="0"/>
+      <c r="WT28" s="0"/>
+      <c r="WU28" s="0"/>
+      <c r="WV28" s="0"/>
+      <c r="WW28" s="0"/>
+      <c r="WX28" s="0"/>
+      <c r="WY28" s="0"/>
+      <c r="WZ28" s="0"/>
+      <c r="XA28" s="0"/>
+      <c r="XB28" s="0"/>
+      <c r="XC28" s="0"/>
+      <c r="XD28" s="0"/>
+      <c r="XE28" s="0"/>
+      <c r="XF28" s="0"/>
+      <c r="XG28" s="0"/>
+      <c r="XH28" s="0"/>
+      <c r="XI28" s="0"/>
+      <c r="XJ28" s="0"/>
+      <c r="XK28" s="0"/>
+      <c r="XL28" s="0"/>
+      <c r="XM28" s="0"/>
+      <c r="XN28" s="0"/>
+      <c r="XO28" s="0"/>
+      <c r="XP28" s="0"/>
+      <c r="XQ28" s="0"/>
+      <c r="XR28" s="0"/>
+      <c r="XS28" s="0"/>
+      <c r="XT28" s="0"/>
+      <c r="XU28" s="0"/>
+      <c r="XV28" s="0"/>
+      <c r="XW28" s="0"/>
+      <c r="XX28" s="0"/>
+      <c r="XY28" s="0"/>
+      <c r="XZ28" s="0"/>
+      <c r="YA28" s="0"/>
+      <c r="YB28" s="0"/>
+      <c r="YC28" s="0"/>
+      <c r="YD28" s="0"/>
+      <c r="YE28" s="0"/>
+      <c r="YF28" s="0"/>
+      <c r="YG28" s="0"/>
+      <c r="YH28" s="0"/>
+      <c r="YI28" s="0"/>
+      <c r="YJ28" s="0"/>
+      <c r="YK28" s="0"/>
+      <c r="YL28" s="0"/>
+      <c r="YM28" s="0"/>
+      <c r="YN28" s="0"/>
+      <c r="YO28" s="0"/>
+      <c r="YP28" s="0"/>
+      <c r="YQ28" s="0"/>
+      <c r="YR28" s="0"/>
+      <c r="YS28" s="0"/>
+      <c r="YT28" s="0"/>
+      <c r="YU28" s="0"/>
+      <c r="YV28" s="0"/>
+      <c r="YW28" s="0"/>
+      <c r="YX28" s="0"/>
+      <c r="YY28" s="0"/>
+      <c r="YZ28" s="0"/>
+      <c r="ZA28" s="0"/>
+      <c r="ZB28" s="0"/>
+      <c r="ZC28" s="0"/>
+      <c r="ZD28" s="0"/>
+      <c r="ZE28" s="0"/>
+      <c r="ZF28" s="0"/>
+      <c r="ZG28" s="0"/>
+      <c r="ZH28" s="0"/>
+      <c r="ZI28" s="0"/>
+      <c r="ZJ28" s="0"/>
+      <c r="ZK28" s="0"/>
+      <c r="ZL28" s="0"/>
+      <c r="ZM28" s="0"/>
+      <c r="ZN28" s="0"/>
+      <c r="ZO28" s="0"/>
+      <c r="ZP28" s="0"/>
+      <c r="ZQ28" s="0"/>
+      <c r="ZR28" s="0"/>
+      <c r="ZS28" s="0"/>
+      <c r="ZT28" s="0"/>
+      <c r="ZU28" s="0"/>
+      <c r="ZV28" s="0"/>
+      <c r="ZW28" s="0"/>
+      <c r="ZX28" s="0"/>
+      <c r="ZY28" s="0"/>
+      <c r="ZZ28" s="0"/>
+      <c r="AAA28" s="0"/>
+      <c r="AAB28" s="0"/>
+      <c r="AAC28" s="0"/>
+      <c r="AAD28" s="0"/>
+      <c r="AAE28" s="0"/>
+      <c r="AAF28" s="0"/>
+      <c r="AAG28" s="0"/>
+      <c r="AAH28" s="0"/>
+      <c r="AAI28" s="0"/>
+      <c r="AAJ28" s="0"/>
+      <c r="AAK28" s="0"/>
+      <c r="AAL28" s="0"/>
+      <c r="AAM28" s="0"/>
+      <c r="AAN28" s="0"/>
+      <c r="AAO28" s="0"/>
+      <c r="AAP28" s="0"/>
+      <c r="AAQ28" s="0"/>
+      <c r="AAR28" s="0"/>
+      <c r="AAS28" s="0"/>
+      <c r="AAT28" s="0"/>
+      <c r="AAU28" s="0"/>
+      <c r="AAV28" s="0"/>
+      <c r="AAW28" s="0"/>
+      <c r="AAX28" s="0"/>
+      <c r="AAY28" s="0"/>
+      <c r="AAZ28" s="0"/>
+      <c r="ABA28" s="0"/>
+      <c r="ABB28" s="0"/>
+      <c r="ABC28" s="0"/>
+      <c r="ABD28" s="0"/>
+      <c r="ABE28" s="0"/>
+      <c r="ABF28" s="0"/>
+      <c r="ABG28" s="0"/>
+      <c r="ABH28" s="0"/>
+      <c r="ABI28" s="0"/>
+      <c r="ABJ28" s="0"/>
+      <c r="ABK28" s="0"/>
+      <c r="ABL28" s="0"/>
+      <c r="ABM28" s="0"/>
+      <c r="ABN28" s="0"/>
+      <c r="ABO28" s="0"/>
+      <c r="ABP28" s="0"/>
+      <c r="ABQ28" s="0"/>
+      <c r="ABR28" s="0"/>
+      <c r="ABS28" s="0"/>
+      <c r="ABT28" s="0"/>
+      <c r="ABU28" s="0"/>
+      <c r="ABV28" s="0"/>
+      <c r="ABW28" s="0"/>
+      <c r="ABX28" s="0"/>
+      <c r="ABY28" s="0"/>
+      <c r="ABZ28" s="0"/>
+      <c r="ACA28" s="0"/>
+      <c r="ACB28" s="0"/>
+      <c r="ACC28" s="0"/>
+      <c r="ACD28" s="0"/>
+      <c r="ACE28" s="0"/>
+      <c r="ACF28" s="0"/>
+      <c r="ACG28" s="0"/>
+      <c r="ACH28" s="0"/>
+      <c r="ACI28" s="0"/>
+      <c r="ACJ28" s="0"/>
+      <c r="ACK28" s="0"/>
+      <c r="ACL28" s="0"/>
+      <c r="ACM28" s="0"/>
+      <c r="ACN28" s="0"/>
+      <c r="ACO28" s="0"/>
+      <c r="ACP28" s="0"/>
+      <c r="ACQ28" s="0"/>
+      <c r="ACR28" s="0"/>
+      <c r="ACS28" s="0"/>
+      <c r="ACT28" s="0"/>
+      <c r="ACU28" s="0"/>
+      <c r="ACV28" s="0"/>
+      <c r="ACW28" s="0"/>
+      <c r="ACX28" s="0"/>
+      <c r="ACY28" s="0"/>
+      <c r="ACZ28" s="0"/>
+      <c r="ADA28" s="0"/>
+      <c r="ADB28" s="0"/>
+      <c r="ADC28" s="0"/>
+      <c r="ADD28" s="0"/>
+      <c r="ADE28" s="0"/>
+      <c r="ADF28" s="0"/>
+      <c r="ADG28" s="0"/>
+      <c r="ADH28" s="0"/>
+      <c r="ADI28" s="0"/>
+      <c r="ADJ28" s="0"/>
+      <c r="ADK28" s="0"/>
+      <c r="ADL28" s="0"/>
+      <c r="ADM28" s="0"/>
+      <c r="ADN28" s="0"/>
+      <c r="ADO28" s="0"/>
+      <c r="ADP28" s="0"/>
+      <c r="ADQ28" s="0"/>
+      <c r="ADR28" s="0"/>
+      <c r="ADS28" s="0"/>
+      <c r="ADT28" s="0"/>
+      <c r="ADU28" s="0"/>
+      <c r="ADV28" s="0"/>
+      <c r="ADW28" s="0"/>
+      <c r="ADX28" s="0"/>
+      <c r="ADY28" s="0"/>
+      <c r="ADZ28" s="0"/>
+      <c r="AEA28" s="0"/>
+      <c r="AEB28" s="0"/>
+      <c r="AEC28" s="0"/>
+      <c r="AED28" s="0"/>
+      <c r="AEE28" s="0"/>
+      <c r="AEF28" s="0"/>
+      <c r="AEG28" s="0"/>
+      <c r="AEH28" s="0"/>
+      <c r="AEI28" s="0"/>
+      <c r="AEJ28" s="0"/>
+      <c r="AEK28" s="0"/>
+      <c r="AEL28" s="0"/>
+      <c r="AEM28" s="0"/>
+      <c r="AEN28" s="0"/>
+      <c r="AEO28" s="0"/>
+      <c r="AEP28" s="0"/>
+      <c r="AEQ28" s="0"/>
+      <c r="AER28" s="0"/>
+      <c r="AES28" s="0"/>
+      <c r="AET28" s="0"/>
+      <c r="AEU28" s="0"/>
+      <c r="AEV28" s="0"/>
+      <c r="AEW28" s="0"/>
+      <c r="AEX28" s="0"/>
+      <c r="AEY28" s="0"/>
+      <c r="AEZ28" s="0"/>
+      <c r="AFA28" s="0"/>
+      <c r="AFB28" s="0"/>
+      <c r="AFC28" s="0"/>
+      <c r="AFD28" s="0"/>
+      <c r="AFE28" s="0"/>
+      <c r="AFF28" s="0"/>
+      <c r="AFG28" s="0"/>
+      <c r="AFH28" s="0"/>
+      <c r="AFI28" s="0"/>
+      <c r="AFJ28" s="0"/>
+      <c r="AFK28" s="0"/>
+      <c r="AFL28" s="0"/>
+      <c r="AFM28" s="0"/>
+      <c r="AFN28" s="0"/>
+      <c r="AFO28" s="0"/>
+      <c r="AFP28" s="0"/>
+      <c r="AFQ28" s="0"/>
+      <c r="AFR28" s="0"/>
+      <c r="AFS28" s="0"/>
+      <c r="AFT28" s="0"/>
+      <c r="AFU28" s="0"/>
+      <c r="AFV28" s="0"/>
+      <c r="AFW28" s="0"/>
+      <c r="AFX28" s="0"/>
+      <c r="AFY28" s="0"/>
+      <c r="AFZ28" s="0"/>
+      <c r="AGA28" s="0"/>
+      <c r="AGB28" s="0"/>
+      <c r="AGC28" s="0"/>
+      <c r="AGD28" s="0"/>
+      <c r="AGE28" s="0"/>
+      <c r="AGF28" s="0"/>
+      <c r="AGG28" s="0"/>
+      <c r="AGH28" s="0"/>
+      <c r="AGI28" s="0"/>
+      <c r="AGJ28" s="0"/>
+      <c r="AGK28" s="0"/>
+      <c r="AGL28" s="0"/>
+      <c r="AGM28" s="0"/>
+      <c r="AGN28" s="0"/>
+      <c r="AGO28" s="0"/>
+      <c r="AGP28" s="0"/>
+      <c r="AGQ28" s="0"/>
+      <c r="AGR28" s="0"/>
+      <c r="AGS28" s="0"/>
+      <c r="AGT28" s="0"/>
+      <c r="AGU28" s="0"/>
+      <c r="AGV28" s="0"/>
+      <c r="AGW28" s="0"/>
+      <c r="AGX28" s="0"/>
+      <c r="AGY28" s="0"/>
+      <c r="AGZ28" s="0"/>
+      <c r="AHA28" s="0"/>
+      <c r="AHB28" s="0"/>
+      <c r="AHC28" s="0"/>
+      <c r="AHD28" s="0"/>
+      <c r="AHE28" s="0"/>
+      <c r="AHF28" s="0"/>
+      <c r="AHG28" s="0"/>
+      <c r="AHH28" s="0"/>
+      <c r="AHI28" s="0"/>
+      <c r="AHJ28" s="0"/>
+      <c r="AHK28" s="0"/>
+      <c r="AHL28" s="0"/>
+      <c r="AHM28" s="0"/>
+      <c r="AHN28" s="0"/>
+      <c r="AHO28" s="0"/>
+      <c r="AHP28" s="0"/>
+      <c r="AHQ28" s="0"/>
+      <c r="AHR28" s="0"/>
+      <c r="AHS28" s="0"/>
+      <c r="AHT28" s="0"/>
+      <c r="AHU28" s="0"/>
+      <c r="AHV28" s="0"/>
+      <c r="AHW28" s="0"/>
+      <c r="AHX28" s="0"/>
+      <c r="AHY28" s="0"/>
+      <c r="AHZ28" s="0"/>
+      <c r="AIA28" s="0"/>
+      <c r="AIB28" s="0"/>
+      <c r="AIC28" s="0"/>
+      <c r="AID28" s="0"/>
+      <c r="AIE28" s="0"/>
+      <c r="AIF28" s="0"/>
+      <c r="AIG28" s="0"/>
+      <c r="AIH28" s="0"/>
+      <c r="AII28" s="0"/>
+      <c r="AIJ28" s="0"/>
+      <c r="AIK28" s="0"/>
+      <c r="AIL28" s="0"/>
+      <c r="AIM28" s="0"/>
+      <c r="AIN28" s="0"/>
+      <c r="AIO28" s="0"/>
+      <c r="AIP28" s="0"/>
+      <c r="AIQ28" s="0"/>
+      <c r="AIR28" s="0"/>
+      <c r="AIS28" s="0"/>
+      <c r="AIT28" s="0"/>
+      <c r="AIU28" s="0"/>
+      <c r="AIV28" s="0"/>
+      <c r="AIW28" s="0"/>
+      <c r="AIX28" s="0"/>
+      <c r="AIY28" s="0"/>
+      <c r="AIZ28" s="0"/>
+      <c r="AJA28" s="0"/>
+      <c r="AJB28" s="0"/>
+      <c r="AJC28" s="0"/>
+      <c r="AJD28" s="0"/>
+      <c r="AJE28" s="0"/>
+      <c r="AJF28" s="0"/>
+      <c r="AJG28" s="0"/>
+      <c r="AJH28" s="0"/>
+      <c r="AJI28" s="0"/>
+      <c r="AJJ28" s="0"/>
+      <c r="AJK28" s="0"/>
+      <c r="AJL28" s="0"/>
+      <c r="AJM28" s="0"/>
+      <c r="AJN28" s="0"/>
+      <c r="AJO28" s="0"/>
+      <c r="AJP28" s="0"/>
+      <c r="AJQ28" s="0"/>
+      <c r="AJR28" s="0"/>
+      <c r="AJS28" s="0"/>
+      <c r="AJT28" s="0"/>
+      <c r="AJU28" s="0"/>
+      <c r="AJV28" s="0"/>
+      <c r="AJW28" s="0"/>
+      <c r="AJX28" s="0"/>
+      <c r="AJY28" s="0"/>
+      <c r="AJZ28" s="0"/>
+      <c r="AKA28" s="0"/>
+      <c r="AKB28" s="0"/>
+      <c r="AKC28" s="0"/>
+      <c r="AKD28" s="0"/>
+      <c r="AKE28" s="0"/>
+      <c r="AKF28" s="0"/>
+      <c r="AKG28" s="0"/>
+      <c r="AKH28" s="0"/>
+      <c r="AKI28" s="0"/>
+      <c r="AKJ28" s="0"/>
+      <c r="AKK28" s="0"/>
+      <c r="AKL28" s="0"/>
+      <c r="AKM28" s="0"/>
+      <c r="AKN28" s="0"/>
+      <c r="AKO28" s="0"/>
+      <c r="AKP28" s="0"/>
+      <c r="AKQ28" s="0"/>
+      <c r="AKR28" s="0"/>
+      <c r="AKS28" s="0"/>
+      <c r="AKT28" s="0"/>
+      <c r="AKU28" s="0"/>
+      <c r="AKV28" s="0"/>
+      <c r="AKW28" s="0"/>
+      <c r="AKX28" s="0"/>
+      <c r="AKY28" s="0"/>
+      <c r="AKZ28" s="0"/>
+      <c r="ALA28" s="0"/>
+      <c r="ALB28" s="0"/>
+      <c r="ALC28" s="0"/>
+      <c r="ALD28" s="0"/>
+      <c r="ALE28" s="0"/>
+      <c r="ALF28" s="0"/>
+      <c r="ALG28" s="0"/>
+      <c r="ALH28" s="0"/>
+      <c r="ALI28" s="0"/>
+      <c r="ALJ28" s="0"/>
+      <c r="ALK28" s="0"/>
+      <c r="ALL28" s="0"/>
+      <c r="ALM28" s="0"/>
+      <c r="ALN28" s="0"/>
+      <c r="ALO28" s="0"/>
+      <c r="ALP28" s="0"/>
+      <c r="ALQ28" s="0"/>
+      <c r="ALR28" s="0"/>
+      <c r="ALS28" s="0"/>
+      <c r="ALT28" s="0"/>
+      <c r="ALU28" s="0"/>
+      <c r="ALV28" s="0"/>
+      <c r="ALW28" s="0"/>
+      <c r="ALX28" s="0"/>
+      <c r="ALY28" s="0"/>
+      <c r="ALZ28" s="0"/>
+      <c r="AMA28" s="0"/>
+      <c r="AMB28" s="0"/>
+      <c r="AMC28" s="0"/>
+      <c r="AMD28" s="0"/>
+      <c r="AME28" s="0"/>
+      <c r="AMF28" s="0"/>
+      <c r="AMG28" s="0"/>
+      <c r="AMH28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="15" t="s">
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10"/>
+      <c r="B29" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
+      <c r="AE29" s="0"/>
+      <c r="AF29" s="0"/>
+      <c r="AG29" s="0"/>
+      <c r="AH29" s="0"/>
+      <c r="AI29" s="0"/>
+      <c r="AJ29" s="0"/>
+      <c r="AK29" s="0"/>
+      <c r="AL29" s="0"/>
+      <c r="AM29" s="0"/>
+      <c r="AN29" s="0"/>
+      <c r="AO29" s="0"/>
+      <c r="AP29" s="0"/>
+      <c r="AQ29" s="0"/>
+      <c r="AR29" s="0"/>
+      <c r="AS29" s="0"/>
+      <c r="AT29" s="0"/>
+      <c r="AU29" s="0"/>
+      <c r="AV29" s="0"/>
+      <c r="AW29" s="0"/>
+      <c r="AX29" s="0"/>
+      <c r="AY29" s="0"/>
+      <c r="AZ29" s="0"/>
+      <c r="BA29" s="0"/>
+      <c r="BB29" s="0"/>
+      <c r="BC29" s="0"/>
+      <c r="BD29" s="0"/>
+      <c r="BE29" s="0"/>
+      <c r="BF29" s="0"/>
+      <c r="BG29" s="0"/>
+      <c r="BH29" s="0"/>
+      <c r="BI29" s="0"/>
+      <c r="BJ29" s="0"/>
+      <c r="BK29" s="0"/>
+      <c r="BL29" s="0"/>
+      <c r="BM29" s="0"/>
+      <c r="BN29" s="0"/>
+      <c r="BO29" s="0"/>
+      <c r="BP29" s="0"/>
+      <c r="BQ29" s="0"/>
+      <c r="BR29" s="0"/>
+      <c r="BS29" s="0"/>
+      <c r="BT29" s="0"/>
+      <c r="BU29" s="0"/>
+      <c r="BV29" s="0"/>
+      <c r="BW29" s="0"/>
+      <c r="BX29" s="0"/>
+      <c r="BY29" s="0"/>
+      <c r="BZ29" s="0"/>
+      <c r="CA29" s="0"/>
+      <c r="CB29" s="0"/>
+      <c r="CC29" s="0"/>
+      <c r="CD29" s="0"/>
+      <c r="CE29" s="0"/>
+      <c r="CF29" s="0"/>
+      <c r="CG29" s="0"/>
+      <c r="CH29" s="0"/>
+      <c r="CI29" s="0"/>
+      <c r="CJ29" s="0"/>
+      <c r="CK29" s="0"/>
+      <c r="CL29" s="0"/>
+      <c r="CM29" s="0"/>
+      <c r="CN29" s="0"/>
+      <c r="CO29" s="0"/>
+      <c r="CP29" s="0"/>
+      <c r="CQ29" s="0"/>
+      <c r="CR29" s="0"/>
+      <c r="CS29" s="0"/>
+      <c r="CT29" s="0"/>
+      <c r="CU29" s="0"/>
+      <c r="CV29" s="0"/>
+      <c r="CW29" s="0"/>
+      <c r="CX29" s="0"/>
+      <c r="CY29" s="0"/>
+      <c r="CZ29" s="0"/>
+      <c r="DA29" s="0"/>
+      <c r="DB29" s="0"/>
+      <c r="DC29" s="0"/>
+      <c r="DD29" s="0"/>
+      <c r="DE29" s="0"/>
+      <c r="DF29" s="0"/>
+      <c r="DG29" s="0"/>
+      <c r="DH29" s="0"/>
+      <c r="DI29" s="0"/>
+      <c r="DJ29" s="0"/>
+      <c r="DK29" s="0"/>
+      <c r="DL29" s="0"/>
+      <c r="DM29" s="0"/>
+      <c r="DN29" s="0"/>
+      <c r="DO29" s="0"/>
+      <c r="DP29" s="0"/>
+      <c r="DQ29" s="0"/>
+      <c r="DR29" s="0"/>
+      <c r="DS29" s="0"/>
+      <c r="DT29" s="0"/>
+      <c r="DU29" s="0"/>
+      <c r="DV29" s="0"/>
+      <c r="DW29" s="0"/>
+      <c r="DX29" s="0"/>
+      <c r="DY29" s="0"/>
+      <c r="DZ29" s="0"/>
+      <c r="EA29" s="0"/>
+      <c r="EB29" s="0"/>
+      <c r="EC29" s="0"/>
+      <c r="ED29" s="0"/>
+      <c r="EE29" s="0"/>
+      <c r="EF29" s="0"/>
+      <c r="EG29" s="0"/>
+      <c r="EH29" s="0"/>
+      <c r="EI29" s="0"/>
+      <c r="EJ29" s="0"/>
+      <c r="EK29" s="0"/>
+      <c r="EL29" s="0"/>
+      <c r="EM29" s="0"/>
+      <c r="EN29" s="0"/>
+      <c r="EO29" s="0"/>
+      <c r="EP29" s="0"/>
+      <c r="EQ29" s="0"/>
+      <c r="ER29" s="0"/>
+      <c r="ES29" s="0"/>
+      <c r="ET29" s="0"/>
+      <c r="EU29" s="0"/>
+      <c r="EV29" s="0"/>
+      <c r="EW29" s="0"/>
+      <c r="EX29" s="0"/>
+      <c r="EY29" s="0"/>
+      <c r="EZ29" s="0"/>
+      <c r="FA29" s="0"/>
+      <c r="FB29" s="0"/>
+      <c r="FC29" s="0"/>
+      <c r="FD29" s="0"/>
+      <c r="FE29" s="0"/>
+      <c r="FF29" s="0"/>
+      <c r="FG29" s="0"/>
+      <c r="FH29" s="0"/>
+      <c r="FI29" s="0"/>
+      <c r="FJ29" s="0"/>
+      <c r="FK29" s="0"/>
+      <c r="FL29" s="0"/>
+      <c r="FM29" s="0"/>
+      <c r="FN29" s="0"/>
+      <c r="FO29" s="0"/>
+      <c r="FP29" s="0"/>
+      <c r="FQ29" s="0"/>
+      <c r="FR29" s="0"/>
+      <c r="FS29" s="0"/>
+      <c r="FT29" s="0"/>
+      <c r="FU29" s="0"/>
+      <c r="FV29" s="0"/>
+      <c r="FW29" s="0"/>
+      <c r="FX29" s="0"/>
+      <c r="FY29" s="0"/>
+      <c r="FZ29" s="0"/>
+      <c r="GA29" s="0"/>
+      <c r="GB29" s="0"/>
+      <c r="GC29" s="0"/>
+      <c r="GD29" s="0"/>
+      <c r="GE29" s="0"/>
+      <c r="GF29" s="0"/>
+      <c r="GG29" s="0"/>
+      <c r="GH29" s="0"/>
+      <c r="GI29" s="0"/>
+      <c r="GJ29" s="0"/>
+      <c r="GK29" s="0"/>
+      <c r="GL29" s="0"/>
+      <c r="GM29" s="0"/>
+      <c r="GN29" s="0"/>
+      <c r="GO29" s="0"/>
+      <c r="GP29" s="0"/>
+      <c r="GQ29" s="0"/>
+      <c r="GR29" s="0"/>
+      <c r="GS29" s="0"/>
+      <c r="GT29" s="0"/>
+      <c r="GU29" s="0"/>
+      <c r="GV29" s="0"/>
+      <c r="GW29" s="0"/>
+      <c r="GX29" s="0"/>
+      <c r="GY29" s="0"/>
+      <c r="GZ29" s="0"/>
+      <c r="HA29" s="0"/>
+      <c r="HB29" s="0"/>
+      <c r="HC29" s="0"/>
+      <c r="HD29" s="0"/>
+      <c r="HE29" s="0"/>
+      <c r="HF29" s="0"/>
+      <c r="HG29" s="0"/>
+      <c r="HH29" s="0"/>
+      <c r="HI29" s="0"/>
+      <c r="HJ29" s="0"/>
+      <c r="HK29" s="0"/>
+      <c r="HL29" s="0"/>
+      <c r="HM29" s="0"/>
+      <c r="HN29" s="0"/>
+      <c r="HO29" s="0"/>
+      <c r="HP29" s="0"/>
+      <c r="HQ29" s="0"/>
+      <c r="HR29" s="0"/>
+      <c r="HS29" s="0"/>
+      <c r="HT29" s="0"/>
+      <c r="HU29" s="0"/>
+      <c r="HV29" s="0"/>
+      <c r="HW29" s="0"/>
+      <c r="HX29" s="0"/>
+      <c r="HY29" s="0"/>
+      <c r="HZ29" s="0"/>
+      <c r="IA29" s="0"/>
+      <c r="IB29" s="0"/>
+      <c r="IC29" s="0"/>
+      <c r="ID29" s="0"/>
+      <c r="IE29" s="0"/>
+      <c r="IF29" s="0"/>
+      <c r="IG29" s="0"/>
+      <c r="IH29" s="0"/>
+      <c r="II29" s="0"/>
+      <c r="IJ29" s="0"/>
+      <c r="IK29" s="0"/>
+      <c r="IL29" s="0"/>
+      <c r="IM29" s="0"/>
+      <c r="IN29" s="0"/>
+      <c r="IO29" s="0"/>
+      <c r="IP29" s="0"/>
+      <c r="IQ29" s="0"/>
+      <c r="IR29" s="0"/>
+      <c r="IS29" s="0"/>
+      <c r="IT29" s="0"/>
+      <c r="IU29" s="0"/>
+      <c r="IV29" s="0"/>
+      <c r="IW29" s="0"/>
+      <c r="IX29" s="0"/>
+      <c r="IY29" s="0"/>
+      <c r="IZ29" s="0"/>
+      <c r="JA29" s="0"/>
+      <c r="JB29" s="0"/>
+      <c r="JC29" s="0"/>
+      <c r="JD29" s="0"/>
+      <c r="JE29" s="0"/>
+      <c r="JF29" s="0"/>
+      <c r="JG29" s="0"/>
+      <c r="JH29" s="0"/>
+      <c r="JI29" s="0"/>
+      <c r="JJ29" s="0"/>
+      <c r="JK29" s="0"/>
+      <c r="JL29" s="0"/>
+      <c r="JM29" s="0"/>
+      <c r="JN29" s="0"/>
+      <c r="JO29" s="0"/>
+      <c r="JP29" s="0"/>
+      <c r="JQ29" s="0"/>
+      <c r="JR29" s="0"/>
+      <c r="JS29" s="0"/>
+      <c r="JT29" s="0"/>
+      <c r="JU29" s="0"/>
+      <c r="JV29" s="0"/>
+      <c r="JW29" s="0"/>
+      <c r="JX29" s="0"/>
+      <c r="JY29" s="0"/>
+      <c r="JZ29" s="0"/>
+      <c r="KA29" s="0"/>
+      <c r="KB29" s="0"/>
+      <c r="KC29" s="0"/>
+      <c r="KD29" s="0"/>
+      <c r="KE29" s="0"/>
+      <c r="KF29" s="0"/>
+      <c r="KG29" s="0"/>
+      <c r="KH29" s="0"/>
+      <c r="KI29" s="0"/>
+      <c r="KJ29" s="0"/>
+      <c r="KK29" s="0"/>
+      <c r="KL29" s="0"/>
+      <c r="KM29" s="0"/>
+      <c r="KN29" s="0"/>
+      <c r="KO29" s="0"/>
+      <c r="KP29" s="0"/>
+      <c r="KQ29" s="0"/>
+      <c r="KR29" s="0"/>
+      <c r="KS29" s="0"/>
+      <c r="KT29" s="0"/>
+      <c r="KU29" s="0"/>
+      <c r="KV29" s="0"/>
+      <c r="KW29" s="0"/>
+      <c r="KX29" s="0"/>
+      <c r="KY29" s="0"/>
+      <c r="KZ29" s="0"/>
+      <c r="LA29" s="0"/>
+      <c r="LB29" s="0"/>
+      <c r="LC29" s="0"/>
+      <c r="LD29" s="0"/>
+      <c r="LE29" s="0"/>
+      <c r="LF29" s="0"/>
+      <c r="LG29" s="0"/>
+      <c r="LH29" s="0"/>
+      <c r="LI29" s="0"/>
+      <c r="LJ29" s="0"/>
+      <c r="LK29" s="0"/>
+      <c r="LL29" s="0"/>
+      <c r="LM29" s="0"/>
+      <c r="LN29" s="0"/>
+      <c r="LO29" s="0"/>
+      <c r="LP29" s="0"/>
+      <c r="LQ29" s="0"/>
+      <c r="LR29" s="0"/>
+      <c r="LS29" s="0"/>
+      <c r="LT29" s="0"/>
+      <c r="LU29" s="0"/>
+      <c r="LV29" s="0"/>
+      <c r="LW29" s="0"/>
+      <c r="LX29" s="0"/>
+      <c r="LY29" s="0"/>
+      <c r="LZ29" s="0"/>
+      <c r="MA29" s="0"/>
+      <c r="MB29" s="0"/>
+      <c r="MC29" s="0"/>
+      <c r="MD29" s="0"/>
+      <c r="ME29" s="0"/>
+      <c r="MF29" s="0"/>
+      <c r="MG29" s="0"/>
+      <c r="MH29" s="0"/>
+      <c r="MI29" s="0"/>
+      <c r="MJ29" s="0"/>
+      <c r="MK29" s="0"/>
+      <c r="ML29" s="0"/>
+      <c r="MM29" s="0"/>
+      <c r="MN29" s="0"/>
+      <c r="MO29" s="0"/>
+      <c r="MP29" s="0"/>
+      <c r="MQ29" s="0"/>
+      <c r="MR29" s="0"/>
+      <c r="MS29" s="0"/>
+      <c r="MT29" s="0"/>
+      <c r="MU29" s="0"/>
+      <c r="MV29" s="0"/>
+      <c r="MW29" s="0"/>
+      <c r="MX29" s="0"/>
+      <c r="MY29" s="0"/>
+      <c r="MZ29" s="0"/>
+      <c r="NA29" s="0"/>
+      <c r="NB29" s="0"/>
+      <c r="NC29" s="0"/>
+      <c r="ND29" s="0"/>
+      <c r="NE29" s="0"/>
+      <c r="NF29" s="0"/>
+      <c r="NG29" s="0"/>
+      <c r="NH29" s="0"/>
+      <c r="NI29" s="0"/>
+      <c r="NJ29" s="0"/>
+      <c r="NK29" s="0"/>
+      <c r="NL29" s="0"/>
+      <c r="NM29" s="0"/>
+      <c r="NN29" s="0"/>
+      <c r="NO29" s="0"/>
+      <c r="NP29" s="0"/>
+      <c r="NQ29" s="0"/>
+      <c r="NR29" s="0"/>
+      <c r="NS29" s="0"/>
+      <c r="NT29" s="0"/>
+      <c r="NU29" s="0"/>
+      <c r="NV29" s="0"/>
+      <c r="NW29" s="0"/>
+      <c r="NX29" s="0"/>
+      <c r="NY29" s="0"/>
+      <c r="NZ29" s="0"/>
+      <c r="OA29" s="0"/>
+      <c r="OB29" s="0"/>
+      <c r="OC29" s="0"/>
+      <c r="OD29" s="0"/>
+      <c r="OE29" s="0"/>
+      <c r="OF29" s="0"/>
+      <c r="OG29" s="0"/>
+      <c r="OH29" s="0"/>
+      <c r="OI29" s="0"/>
+      <c r="OJ29" s="0"/>
+      <c r="OK29" s="0"/>
+      <c r="OL29" s="0"/>
+      <c r="OM29" s="0"/>
+      <c r="ON29" s="0"/>
+      <c r="OO29" s="0"/>
+      <c r="OP29" s="0"/>
+      <c r="OQ29" s="0"/>
+      <c r="OR29" s="0"/>
+      <c r="OS29" s="0"/>
+      <c r="OT29" s="0"/>
+      <c r="OU29" s="0"/>
+      <c r="OV29" s="0"/>
+      <c r="OW29" s="0"/>
+      <c r="OX29" s="0"/>
+      <c r="OY29" s="0"/>
+      <c r="OZ29" s="0"/>
+      <c r="PA29" s="0"/>
+      <c r="PB29" s="0"/>
+      <c r="PC29" s="0"/>
+      <c r="PD29" s="0"/>
+      <c r="PE29" s="0"/>
+      <c r="PF29" s="0"/>
+      <c r="PG29" s="0"/>
+      <c r="PH29" s="0"/>
+      <c r="PI29" s="0"/>
+      <c r="PJ29" s="0"/>
+      <c r="PK29" s="0"/>
+      <c r="PL29" s="0"/>
+      <c r="PM29" s="0"/>
+      <c r="PN29" s="0"/>
+      <c r="PO29" s="0"/>
+      <c r="PP29" s="0"/>
+      <c r="PQ29" s="0"/>
+      <c r="PR29" s="0"/>
+      <c r="PS29" s="0"/>
+      <c r="PT29" s="0"/>
+      <c r="PU29" s="0"/>
+      <c r="PV29" s="0"/>
+      <c r="PW29" s="0"/>
+      <c r="PX29" s="0"/>
+      <c r="PY29" s="0"/>
+      <c r="PZ29" s="0"/>
+      <c r="QA29" s="0"/>
+      <c r="QB29" s="0"/>
+      <c r="QC29" s="0"/>
+      <c r="QD29" s="0"/>
+      <c r="QE29" s="0"/>
+      <c r="QF29" s="0"/>
+      <c r="QG29" s="0"/>
+      <c r="QH29" s="0"/>
+      <c r="QI29" s="0"/>
+      <c r="QJ29" s="0"/>
+      <c r="QK29" s="0"/>
+      <c r="QL29" s="0"/>
+      <c r="QM29" s="0"/>
+      <c r="QN29" s="0"/>
+      <c r="QO29" s="0"/>
+      <c r="QP29" s="0"/>
+      <c r="QQ29" s="0"/>
+      <c r="QR29" s="0"/>
+      <c r="QS29" s="0"/>
+      <c r="QT29" s="0"/>
+      <c r="QU29" s="0"/>
+      <c r="QV29" s="0"/>
+      <c r="QW29" s="0"/>
+      <c r="QX29" s="0"/>
+      <c r="QY29" s="0"/>
+      <c r="QZ29" s="0"/>
+      <c r="RA29" s="0"/>
+      <c r="RB29" s="0"/>
+      <c r="RC29" s="0"/>
+      <c r="RD29" s="0"/>
+      <c r="RE29" s="0"/>
+      <c r="RF29" s="0"/>
+      <c r="RG29" s="0"/>
+      <c r="RH29" s="0"/>
+      <c r="RI29" s="0"/>
+      <c r="RJ29" s="0"/>
+      <c r="RK29" s="0"/>
+      <c r="RL29" s="0"/>
+      <c r="RM29" s="0"/>
+      <c r="RN29" s="0"/>
+      <c r="RO29" s="0"/>
+      <c r="RP29" s="0"/>
+      <c r="RQ29" s="0"/>
+      <c r="RR29" s="0"/>
+      <c r="RS29" s="0"/>
+      <c r="RT29" s="0"/>
+      <c r="RU29" s="0"/>
+      <c r="RV29" s="0"/>
+      <c r="RW29" s="0"/>
+      <c r="RX29" s="0"/>
+      <c r="RY29" s="0"/>
+      <c r="RZ29" s="0"/>
+      <c r="SA29" s="0"/>
+      <c r="SB29" s="0"/>
+      <c r="SC29" s="0"/>
+      <c r="SD29" s="0"/>
+      <c r="SE29" s="0"/>
+      <c r="SF29" s="0"/>
+      <c r="SG29" s="0"/>
+      <c r="SH29" s="0"/>
+      <c r="SI29" s="0"/>
+      <c r="SJ29" s="0"/>
+      <c r="SK29" s="0"/>
+      <c r="SL29" s="0"/>
+      <c r="SM29" s="0"/>
+      <c r="SN29" s="0"/>
+      <c r="SO29" s="0"/>
+      <c r="SP29" s="0"/>
+      <c r="SQ29" s="0"/>
+      <c r="SR29" s="0"/>
+      <c r="SS29" s="0"/>
+      <c r="ST29" s="0"/>
+      <c r="SU29" s="0"/>
+      <c r="SV29" s="0"/>
+      <c r="SW29" s="0"/>
+      <c r="SX29" s="0"/>
+      <c r="SY29" s="0"/>
+      <c r="SZ29" s="0"/>
+      <c r="TA29" s="0"/>
+      <c r="TB29" s="0"/>
+      <c r="TC29" s="0"/>
+      <c r="TD29" s="0"/>
+      <c r="TE29" s="0"/>
+      <c r="TF29" s="0"/>
+      <c r="TG29" s="0"/>
+      <c r="TH29" s="0"/>
+      <c r="TI29" s="0"/>
+      <c r="TJ29" s="0"/>
+      <c r="TK29" s="0"/>
+      <c r="TL29" s="0"/>
+      <c r="TM29" s="0"/>
+      <c r="TN29" s="0"/>
+      <c r="TO29" s="0"/>
+      <c r="TP29" s="0"/>
+      <c r="TQ29" s="0"/>
+      <c r="TR29" s="0"/>
+      <c r="TS29" s="0"/>
+      <c r="TT29" s="0"/>
+      <c r="TU29" s="0"/>
+      <c r="TV29" s="0"/>
+      <c r="TW29" s="0"/>
+      <c r="TX29" s="0"/>
+      <c r="TY29" s="0"/>
+      <c r="TZ29" s="0"/>
+      <c r="UA29" s="0"/>
+      <c r="UB29" s="0"/>
+      <c r="UC29" s="0"/>
+      <c r="UD29" s="0"/>
+      <c r="UE29" s="0"/>
+      <c r="UF29" s="0"/>
+      <c r="UG29" s="0"/>
+      <c r="UH29" s="0"/>
+      <c r="UI29" s="0"/>
+      <c r="UJ29" s="0"/>
+      <c r="UK29" s="0"/>
+      <c r="UL29" s="0"/>
+      <c r="UM29" s="0"/>
+      <c r="UN29" s="0"/>
+      <c r="UO29" s="0"/>
+      <c r="UP29" s="0"/>
+      <c r="UQ29" s="0"/>
+      <c r="UR29" s="0"/>
+      <c r="US29" s="0"/>
+      <c r="UT29" s="0"/>
+      <c r="UU29" s="0"/>
+      <c r="UV29" s="0"/>
+      <c r="UW29" s="0"/>
+      <c r="UX29" s="0"/>
+      <c r="UY29" s="0"/>
+      <c r="UZ29" s="0"/>
+      <c r="VA29" s="0"/>
+      <c r="VB29" s="0"/>
+      <c r="VC29" s="0"/>
+      <c r="VD29" s="0"/>
+      <c r="VE29" s="0"/>
+      <c r="VF29" s="0"/>
+      <c r="VG29" s="0"/>
+      <c r="VH29" s="0"/>
+      <c r="VI29" s="0"/>
+      <c r="VJ29" s="0"/>
+      <c r="VK29" s="0"/>
+      <c r="VL29" s="0"/>
+      <c r="VM29" s="0"/>
+      <c r="VN29" s="0"/>
+      <c r="VO29" s="0"/>
+      <c r="VP29" s="0"/>
+      <c r="VQ29" s="0"/>
+      <c r="VR29" s="0"/>
+      <c r="VS29" s="0"/>
+      <c r="VT29" s="0"/>
+      <c r="VU29" s="0"/>
+      <c r="VV29" s="0"/>
+      <c r="VW29" s="0"/>
+      <c r="VX29" s="0"/>
+      <c r="VY29" s="0"/>
+      <c r="VZ29" s="0"/>
+      <c r="WA29" s="0"/>
+      <c r="WB29" s="0"/>
+      <c r="WC29" s="0"/>
+      <c r="WD29" s="0"/>
+      <c r="WE29" s="0"/>
+      <c r="WF29" s="0"/>
+      <c r="WG29" s="0"/>
+      <c r="WH29" s="0"/>
+      <c r="WI29" s="0"/>
+      <c r="WJ29" s="0"/>
+      <c r="WK29" s="0"/>
+      <c r="WL29" s="0"/>
+      <c r="WM29" s="0"/>
+      <c r="WN29" s="0"/>
+      <c r="WO29" s="0"/>
+      <c r="WP29" s="0"/>
+      <c r="WQ29" s="0"/>
+      <c r="WR29" s="0"/>
+      <c r="WS29" s="0"/>
+      <c r="WT29" s="0"/>
+      <c r="WU29" s="0"/>
+      <c r="WV29" s="0"/>
+      <c r="WW29" s="0"/>
+      <c r="WX29" s="0"/>
+      <c r="WY29" s="0"/>
+      <c r="WZ29" s="0"/>
+      <c r="XA29" s="0"/>
+      <c r="XB29" s="0"/>
+      <c r="XC29" s="0"/>
+      <c r="XD29" s="0"/>
+      <c r="XE29" s="0"/>
+      <c r="XF29" s="0"/>
+      <c r="XG29" s="0"/>
+      <c r="XH29" s="0"/>
+      <c r="XI29" s="0"/>
+      <c r="XJ29" s="0"/>
+      <c r="XK29" s="0"/>
+      <c r="XL29" s="0"/>
+      <c r="XM29" s="0"/>
+      <c r="XN29" s="0"/>
+      <c r="XO29" s="0"/>
+      <c r="XP29" s="0"/>
+      <c r="XQ29" s="0"/>
+      <c r="XR29" s="0"/>
+      <c r="XS29" s="0"/>
+      <c r="XT29" s="0"/>
+      <c r="XU29" s="0"/>
+      <c r="XV29" s="0"/>
+      <c r="XW29" s="0"/>
+      <c r="XX29" s="0"/>
+      <c r="XY29" s="0"/>
+      <c r="XZ29" s="0"/>
+      <c r="YA29" s="0"/>
+      <c r="YB29" s="0"/>
+      <c r="YC29" s="0"/>
+      <c r="YD29" s="0"/>
+      <c r="YE29" s="0"/>
+      <c r="YF29" s="0"/>
+      <c r="YG29" s="0"/>
+      <c r="YH29" s="0"/>
+      <c r="YI29" s="0"/>
+      <c r="YJ29" s="0"/>
+      <c r="YK29" s="0"/>
+      <c r="YL29" s="0"/>
+      <c r="YM29" s="0"/>
+      <c r="YN29" s="0"/>
+      <c r="YO29" s="0"/>
+      <c r="YP29" s="0"/>
+      <c r="YQ29" s="0"/>
+      <c r="YR29" s="0"/>
+      <c r="YS29" s="0"/>
+      <c r="YT29" s="0"/>
+      <c r="YU29" s="0"/>
+      <c r="YV29" s="0"/>
+      <c r="YW29" s="0"/>
+      <c r="YX29" s="0"/>
+      <c r="YY29" s="0"/>
+      <c r="YZ29" s="0"/>
+      <c r="ZA29" s="0"/>
+      <c r="ZB29" s="0"/>
+      <c r="ZC29" s="0"/>
+      <c r="ZD29" s="0"/>
+      <c r="ZE29" s="0"/>
+      <c r="ZF29" s="0"/>
+      <c r="ZG29" s="0"/>
+      <c r="ZH29" s="0"/>
+      <c r="ZI29" s="0"/>
+      <c r="ZJ29" s="0"/>
+      <c r="ZK29" s="0"/>
+      <c r="ZL29" s="0"/>
+      <c r="ZM29" s="0"/>
+      <c r="ZN29" s="0"/>
+      <c r="ZO29" s="0"/>
+      <c r="ZP29" s="0"/>
+      <c r="ZQ29" s="0"/>
+      <c r="ZR29" s="0"/>
+      <c r="ZS29" s="0"/>
+      <c r="ZT29" s="0"/>
+      <c r="ZU29" s="0"/>
+      <c r="ZV29" s="0"/>
+      <c r="ZW29" s="0"/>
+      <c r="ZX29" s="0"/>
+      <c r="ZY29" s="0"/>
+      <c r="ZZ29" s="0"/>
+      <c r="AAA29" s="0"/>
+      <c r="AAB29" s="0"/>
+      <c r="AAC29" s="0"/>
+      <c r="AAD29" s="0"/>
+      <c r="AAE29" s="0"/>
+      <c r="AAF29" s="0"/>
+      <c r="AAG29" s="0"/>
+      <c r="AAH29" s="0"/>
+      <c r="AAI29" s="0"/>
+      <c r="AAJ29" s="0"/>
+      <c r="AAK29" s="0"/>
+      <c r="AAL29" s="0"/>
+      <c r="AAM29" s="0"/>
+      <c r="AAN29" s="0"/>
+      <c r="AAO29" s="0"/>
+      <c r="AAP29" s="0"/>
+      <c r="AAQ29" s="0"/>
+      <c r="AAR29" s="0"/>
+      <c r="AAS29" s="0"/>
+      <c r="AAT29" s="0"/>
+      <c r="AAU29" s="0"/>
+      <c r="AAV29" s="0"/>
+      <c r="AAW29" s="0"/>
+      <c r="AAX29" s="0"/>
+      <c r="AAY29" s="0"/>
+      <c r="AAZ29" s="0"/>
+      <c r="ABA29" s="0"/>
+      <c r="ABB29" s="0"/>
+      <c r="ABC29" s="0"/>
+      <c r="ABD29" s="0"/>
+      <c r="ABE29" s="0"/>
+      <c r="ABF29" s="0"/>
+      <c r="ABG29" s="0"/>
+      <c r="ABH29" s="0"/>
+      <c r="ABI29" s="0"/>
+      <c r="ABJ29" s="0"/>
+      <c r="ABK29" s="0"/>
+      <c r="ABL29" s="0"/>
+      <c r="ABM29" s="0"/>
+      <c r="ABN29" s="0"/>
+      <c r="ABO29" s="0"/>
+      <c r="ABP29" s="0"/>
+      <c r="ABQ29" s="0"/>
+      <c r="ABR29" s="0"/>
+      <c r="ABS29" s="0"/>
+      <c r="ABT29" s="0"/>
+      <c r="ABU29" s="0"/>
+      <c r="ABV29" s="0"/>
+      <c r="ABW29" s="0"/>
+      <c r="ABX29" s="0"/>
+      <c r="ABY29" s="0"/>
+      <c r="ABZ29" s="0"/>
+      <c r="ACA29" s="0"/>
+      <c r="ACB29" s="0"/>
+      <c r="ACC29" s="0"/>
+      <c r="ACD29" s="0"/>
+      <c r="ACE29" s="0"/>
+      <c r="ACF29" s="0"/>
+      <c r="ACG29" s="0"/>
+      <c r="ACH29" s="0"/>
+      <c r="ACI29" s="0"/>
+      <c r="ACJ29" s="0"/>
+      <c r="ACK29" s="0"/>
+      <c r="ACL29" s="0"/>
+      <c r="ACM29" s="0"/>
+      <c r="ACN29" s="0"/>
+      <c r="ACO29" s="0"/>
+      <c r="ACP29" s="0"/>
+      <c r="ACQ29" s="0"/>
+      <c r="ACR29" s="0"/>
+      <c r="ACS29" s="0"/>
+      <c r="ACT29" s="0"/>
+      <c r="ACU29" s="0"/>
+      <c r="ACV29" s="0"/>
+      <c r="ACW29" s="0"/>
+      <c r="ACX29" s="0"/>
+      <c r="ACY29" s="0"/>
+      <c r="ACZ29" s="0"/>
+      <c r="ADA29" s="0"/>
+      <c r="ADB29" s="0"/>
+      <c r="ADC29" s="0"/>
+      <c r="ADD29" s="0"/>
+      <c r="ADE29" s="0"/>
+      <c r="ADF29" s="0"/>
+      <c r="ADG29" s="0"/>
+      <c r="ADH29" s="0"/>
+      <c r="ADI29" s="0"/>
+      <c r="ADJ29" s="0"/>
+      <c r="ADK29" s="0"/>
+      <c r="ADL29" s="0"/>
+      <c r="ADM29" s="0"/>
+      <c r="ADN29" s="0"/>
+      <c r="ADO29" s="0"/>
+      <c r="ADP29" s="0"/>
+      <c r="ADQ29" s="0"/>
+      <c r="ADR29" s="0"/>
+      <c r="ADS29" s="0"/>
+      <c r="ADT29" s="0"/>
+      <c r="ADU29" s="0"/>
+      <c r="ADV29" s="0"/>
+      <c r="ADW29" s="0"/>
+      <c r="ADX29" s="0"/>
+      <c r="ADY29" s="0"/>
+      <c r="ADZ29" s="0"/>
+      <c r="AEA29" s="0"/>
+      <c r="AEB29" s="0"/>
+      <c r="AEC29" s="0"/>
+      <c r="AED29" s="0"/>
+      <c r="AEE29" s="0"/>
+      <c r="AEF29" s="0"/>
+      <c r="AEG29" s="0"/>
+      <c r="AEH29" s="0"/>
+      <c r="AEI29" s="0"/>
+      <c r="AEJ29" s="0"/>
+      <c r="AEK29" s="0"/>
+      <c r="AEL29" s="0"/>
+      <c r="AEM29" s="0"/>
+      <c r="AEN29" s="0"/>
+      <c r="AEO29" s="0"/>
+      <c r="AEP29" s="0"/>
+      <c r="AEQ29" s="0"/>
+      <c r="AER29" s="0"/>
+      <c r="AES29" s="0"/>
+      <c r="AET29" s="0"/>
+      <c r="AEU29" s="0"/>
+      <c r="AEV29" s="0"/>
+      <c r="AEW29" s="0"/>
+      <c r="AEX29" s="0"/>
+      <c r="AEY29" s="0"/>
+      <c r="AEZ29" s="0"/>
+      <c r="AFA29" s="0"/>
+      <c r="AFB29" s="0"/>
+      <c r="AFC29" s="0"/>
+      <c r="AFD29" s="0"/>
+      <c r="AFE29" s="0"/>
+      <c r="AFF29" s="0"/>
+      <c r="AFG29" s="0"/>
+      <c r="AFH29" s="0"/>
+      <c r="AFI29" s="0"/>
+      <c r="AFJ29" s="0"/>
+      <c r="AFK29" s="0"/>
+      <c r="AFL29" s="0"/>
+      <c r="AFM29" s="0"/>
+      <c r="AFN29" s="0"/>
+      <c r="AFO29" s="0"/>
+      <c r="AFP29" s="0"/>
+      <c r="AFQ29" s="0"/>
+      <c r="AFR29" s="0"/>
+      <c r="AFS29" s="0"/>
+      <c r="AFT29" s="0"/>
+      <c r="AFU29" s="0"/>
+      <c r="AFV29" s="0"/>
+      <c r="AFW29" s="0"/>
+      <c r="AFX29" s="0"/>
+      <c r="AFY29" s="0"/>
+      <c r="AFZ29" s="0"/>
+      <c r="AGA29" s="0"/>
+      <c r="AGB29" s="0"/>
+      <c r="AGC29" s="0"/>
+      <c r="AGD29" s="0"/>
+      <c r="AGE29" s="0"/>
+      <c r="AGF29" s="0"/>
+      <c r="AGG29" s="0"/>
+      <c r="AGH29" s="0"/>
+      <c r="AGI29" s="0"/>
+      <c r="AGJ29" s="0"/>
+      <c r="AGK29" s="0"/>
+      <c r="AGL29" s="0"/>
+      <c r="AGM29" s="0"/>
+      <c r="AGN29" s="0"/>
+      <c r="AGO29" s="0"/>
+      <c r="AGP29" s="0"/>
+      <c r="AGQ29" s="0"/>
+      <c r="AGR29" s="0"/>
+      <c r="AGS29" s="0"/>
+      <c r="AGT29" s="0"/>
+      <c r="AGU29" s="0"/>
+      <c r="AGV29" s="0"/>
+      <c r="AGW29" s="0"/>
+      <c r="AGX29" s="0"/>
+      <c r="AGY29" s="0"/>
+      <c r="AGZ29" s="0"/>
+      <c r="AHA29" s="0"/>
+      <c r="AHB29" s="0"/>
+      <c r="AHC29" s="0"/>
+      <c r="AHD29" s="0"/>
+      <c r="AHE29" s="0"/>
+      <c r="AHF29" s="0"/>
+      <c r="AHG29" s="0"/>
+      <c r="AHH29" s="0"/>
+      <c r="AHI29" s="0"/>
+      <c r="AHJ29" s="0"/>
+      <c r="AHK29" s="0"/>
+      <c r="AHL29" s="0"/>
+      <c r="AHM29" s="0"/>
+      <c r="AHN29" s="0"/>
+      <c r="AHO29" s="0"/>
+      <c r="AHP29" s="0"/>
+      <c r="AHQ29" s="0"/>
+      <c r="AHR29" s="0"/>
+      <c r="AHS29" s="0"/>
+      <c r="AHT29" s="0"/>
+      <c r="AHU29" s="0"/>
+      <c r="AHV29" s="0"/>
+      <c r="AHW29" s="0"/>
+      <c r="AHX29" s="0"/>
+      <c r="AHY29" s="0"/>
+      <c r="AHZ29" s="0"/>
+      <c r="AIA29" s="0"/>
+      <c r="AIB29" s="0"/>
+      <c r="AIC29" s="0"/>
+      <c r="AID29" s="0"/>
+      <c r="AIE29" s="0"/>
+      <c r="AIF29" s="0"/>
+      <c r="AIG29" s="0"/>
+      <c r="AIH29" s="0"/>
+      <c r="AII29" s="0"/>
+      <c r="AIJ29" s="0"/>
+      <c r="AIK29" s="0"/>
+      <c r="AIL29" s="0"/>
+      <c r="AIM29" s="0"/>
+      <c r="AIN29" s="0"/>
+      <c r="AIO29" s="0"/>
+      <c r="AIP29" s="0"/>
+      <c r="AIQ29" s="0"/>
+      <c r="AIR29" s="0"/>
+      <c r="AIS29" s="0"/>
+      <c r="AIT29" s="0"/>
+      <c r="AIU29" s="0"/>
+      <c r="AIV29" s="0"/>
+      <c r="AIW29" s="0"/>
+      <c r="AIX29" s="0"/>
+      <c r="AIY29" s="0"/>
+      <c r="AIZ29" s="0"/>
+      <c r="AJA29" s="0"/>
+      <c r="AJB29" s="0"/>
+      <c r="AJC29" s="0"/>
+      <c r="AJD29" s="0"/>
+      <c r="AJE29" s="0"/>
+      <c r="AJF29" s="0"/>
+      <c r="AJG29" s="0"/>
+      <c r="AJH29" s="0"/>
+      <c r="AJI29" s="0"/>
+      <c r="AJJ29" s="0"/>
+      <c r="AJK29" s="0"/>
+      <c r="AJL29" s="0"/>
+      <c r="AJM29" s="0"/>
+      <c r="AJN29" s="0"/>
+      <c r="AJO29" s="0"/>
+      <c r="AJP29" s="0"/>
+      <c r="AJQ29" s="0"/>
+      <c r="AJR29" s="0"/>
+      <c r="AJS29" s="0"/>
+      <c r="AJT29" s="0"/>
+      <c r="AJU29" s="0"/>
+      <c r="AJV29" s="0"/>
+      <c r="AJW29" s="0"/>
+      <c r="AJX29" s="0"/>
+      <c r="AJY29" s="0"/>
+      <c r="AJZ29" s="0"/>
+      <c r="AKA29" s="0"/>
+      <c r="AKB29" s="0"/>
+      <c r="AKC29" s="0"/>
+      <c r="AKD29" s="0"/>
+      <c r="AKE29" s="0"/>
+      <c r="AKF29" s="0"/>
+      <c r="AKG29" s="0"/>
+      <c r="AKH29" s="0"/>
+      <c r="AKI29" s="0"/>
+      <c r="AKJ29" s="0"/>
+      <c r="AKK29" s="0"/>
+      <c r="AKL29" s="0"/>
+      <c r="AKM29" s="0"/>
+      <c r="AKN29" s="0"/>
+      <c r="AKO29" s="0"/>
+      <c r="AKP29" s="0"/>
+      <c r="AKQ29" s="0"/>
+      <c r="AKR29" s="0"/>
+      <c r="AKS29" s="0"/>
+      <c r="AKT29" s="0"/>
+      <c r="AKU29" s="0"/>
+      <c r="AKV29" s="0"/>
+      <c r="AKW29" s="0"/>
+      <c r="AKX29" s="0"/>
+      <c r="AKY29" s="0"/>
+      <c r="AKZ29" s="0"/>
+      <c r="ALA29" s="0"/>
+      <c r="ALB29" s="0"/>
+      <c r="ALC29" s="0"/>
+      <c r="ALD29" s="0"/>
+      <c r="ALE29" s="0"/>
+      <c r="ALF29" s="0"/>
+      <c r="ALG29" s="0"/>
+      <c r="ALH29" s="0"/>
+      <c r="ALI29" s="0"/>
+      <c r="ALJ29" s="0"/>
+      <c r="ALK29" s="0"/>
+      <c r="ALL29" s="0"/>
+      <c r="ALM29" s="0"/>
+      <c r="ALN29" s="0"/>
+      <c r="ALO29" s="0"/>
+      <c r="ALP29" s="0"/>
+      <c r="ALQ29" s="0"/>
+      <c r="ALR29" s="0"/>
+      <c r="ALS29" s="0"/>
+      <c r="ALT29" s="0"/>
+      <c r="ALU29" s="0"/>
+      <c r="ALV29" s="0"/>
+      <c r="ALW29" s="0"/>
+      <c r="ALX29" s="0"/>
+      <c r="ALY29" s="0"/>
+      <c r="ALZ29" s="0"/>
+      <c r="AMA29" s="0"/>
+      <c r="AMB29" s="0"/>
+      <c r="AMC29" s="0"/>
+      <c r="AMD29" s="0"/>
+      <c r="AME29" s="0"/>
+      <c r="AMF29" s="0"/>
+      <c r="AMG29" s="0"/>
+      <c r="AMH29" s="0"/>
+      <c r="AMI29" s="0"/>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
-      <c r="AB30" s="0"/>
-      <c r="AC30" s="0"/>
-      <c r="AD30" s="0"/>
-      <c r="AE30" s="0"/>
-      <c r="AF30" s="0"/>
-      <c r="AG30" s="0"/>
-      <c r="AH30" s="0"/>
-      <c r="AI30" s="0"/>
-      <c r="AJ30" s="0"/>
-      <c r="AK30" s="0"/>
-      <c r="AL30" s="0"/>
-      <c r="AM30" s="0"/>
-      <c r="AN30" s="0"/>
-      <c r="AO30" s="0"/>
-      <c r="AP30" s="0"/>
-      <c r="AQ30" s="0"/>
-      <c r="AR30" s="0"/>
-      <c r="AS30" s="0"/>
-      <c r="AT30" s="0"/>
-      <c r="AU30" s="0"/>
-      <c r="AV30" s="0"/>
-      <c r="AW30" s="0"/>
-      <c r="AX30" s="0"/>
-      <c r="AY30" s="0"/>
-      <c r="AZ30" s="0"/>
-      <c r="BA30" s="0"/>
-      <c r="BB30" s="0"/>
-      <c r="BC30" s="0"/>
-      <c r="BD30" s="0"/>
-      <c r="BE30" s="0"/>
-      <c r="BF30" s="0"/>
-      <c r="BG30" s="0"/>
-      <c r="BH30" s="0"/>
-      <c r="BI30" s="0"/>
-      <c r="BJ30" s="0"/>
-      <c r="BK30" s="0"/>
-      <c r="BL30" s="0"/>
-      <c r="BM30" s="0"/>
-      <c r="BN30" s="0"/>
-      <c r="BO30" s="0"/>
-      <c r="BP30" s="0"/>
-      <c r="BQ30" s="0"/>
-      <c r="BR30" s="0"/>
-      <c r="BS30" s="0"/>
-      <c r="BT30" s="0"/>
-      <c r="BU30" s="0"/>
-      <c r="BV30" s="0"/>
-      <c r="BW30" s="0"/>
-      <c r="BX30" s="0"/>
-      <c r="BY30" s="0"/>
-      <c r="BZ30" s="0"/>
-      <c r="CA30" s="0"/>
-      <c r="CB30" s="0"/>
-      <c r="CC30" s="0"/>
-      <c r="CD30" s="0"/>
-      <c r="CE30" s="0"/>
-      <c r="CF30" s="0"/>
-      <c r="CG30" s="0"/>
-      <c r="CH30" s="0"/>
-      <c r="CI30" s="0"/>
-      <c r="CJ30" s="0"/>
-      <c r="CK30" s="0"/>
-      <c r="CL30" s="0"/>
-      <c r="CM30" s="0"/>
-      <c r="CN30" s="0"/>
-      <c r="CO30" s="0"/>
-      <c r="CP30" s="0"/>
-      <c r="CQ30" s="0"/>
-      <c r="CR30" s="0"/>
-      <c r="CS30" s="0"/>
-      <c r="CT30" s="0"/>
-      <c r="CU30" s="0"/>
-      <c r="CV30" s="0"/>
-      <c r="CW30" s="0"/>
-      <c r="CX30" s="0"/>
-      <c r="CY30" s="0"/>
-      <c r="CZ30" s="0"/>
-      <c r="DA30" s="0"/>
-      <c r="DB30" s="0"/>
-      <c r="DC30" s="0"/>
-      <c r="DD30" s="0"/>
-      <c r="DE30" s="0"/>
-      <c r="DF30" s="0"/>
-      <c r="DG30" s="0"/>
-      <c r="DH30" s="0"/>
-      <c r="DI30" s="0"/>
-      <c r="DJ30" s="0"/>
-      <c r="DK30" s="0"/>
-      <c r="DL30" s="0"/>
-      <c r="DM30" s="0"/>
-      <c r="DN30" s="0"/>
-      <c r="DO30" s="0"/>
-      <c r="DP30" s="0"/>
-      <c r="DQ30" s="0"/>
-      <c r="DR30" s="0"/>
-      <c r="DS30" s="0"/>
-      <c r="DT30" s="0"/>
-      <c r="DU30" s="0"/>
-      <c r="DV30" s="0"/>
-      <c r="DW30" s="0"/>
-      <c r="DX30" s="0"/>
-      <c r="DY30" s="0"/>
-      <c r="DZ30" s="0"/>
-      <c r="EA30" s="0"/>
-      <c r="EB30" s="0"/>
-      <c r="EC30" s="0"/>
-      <c r="ED30" s="0"/>
-      <c r="EE30" s="0"/>
-      <c r="EF30" s="0"/>
-      <c r="EG30" s="0"/>
-      <c r="EH30" s="0"/>
-      <c r="EI30" s="0"/>
-      <c r="EJ30" s="0"/>
-      <c r="EK30" s="0"/>
-      <c r="EL30" s="0"/>
-      <c r="EM30" s="0"/>
-      <c r="EN30" s="0"/>
-      <c r="EO30" s="0"/>
-      <c r="EP30" s="0"/>
-      <c r="EQ30" s="0"/>
-      <c r="ER30" s="0"/>
-      <c r="ES30" s="0"/>
-      <c r="ET30" s="0"/>
-      <c r="EU30" s="0"/>
-      <c r="EV30" s="0"/>
-      <c r="EW30" s="0"/>
-      <c r="EX30" s="0"/>
-      <c r="EY30" s="0"/>
-      <c r="EZ30" s="0"/>
-      <c r="FA30" s="0"/>
-      <c r="FB30" s="0"/>
-      <c r="FC30" s="0"/>
-      <c r="FD30" s="0"/>
-      <c r="FE30" s="0"/>
-      <c r="FF30" s="0"/>
-      <c r="FG30" s="0"/>
-      <c r="FH30" s="0"/>
-      <c r="FI30" s="0"/>
-      <c r="FJ30" s="0"/>
-      <c r="FK30" s="0"/>
-      <c r="FL30" s="0"/>
-      <c r="FM30" s="0"/>
-      <c r="FN30" s="0"/>
-      <c r="FO30" s="0"/>
-      <c r="FP30" s="0"/>
-      <c r="FQ30" s="0"/>
-      <c r="FR30" s="0"/>
-      <c r="FS30" s="0"/>
-      <c r="FT30" s="0"/>
-      <c r="FU30" s="0"/>
-      <c r="FV30" s="0"/>
-      <c r="FW30" s="0"/>
-      <c r="FX30" s="0"/>
-      <c r="FY30" s="0"/>
-      <c r="FZ30" s="0"/>
-      <c r="GA30" s="0"/>
-      <c r="GB30" s="0"/>
-      <c r="GC30" s="0"/>
-      <c r="GD30" s="0"/>
-      <c r="GE30" s="0"/>
-      <c r="GF30" s="0"/>
-      <c r="GG30" s="0"/>
-      <c r="GH30" s="0"/>
-      <c r="GI30" s="0"/>
-      <c r="GJ30" s="0"/>
-      <c r="GK30" s="0"/>
-      <c r="GL30" s="0"/>
-      <c r="GM30" s="0"/>
-      <c r="GN30" s="0"/>
-      <c r="GO30" s="0"/>
-      <c r="GP30" s="0"/>
-      <c r="GQ30" s="0"/>
-      <c r="GR30" s="0"/>
-      <c r="GS30" s="0"/>
-      <c r="GT30" s="0"/>
-      <c r="GU30" s="0"/>
-      <c r="GV30" s="0"/>
-      <c r="GW30" s="0"/>
-      <c r="GX30" s="0"/>
-      <c r="GY30" s="0"/>
-      <c r="GZ30" s="0"/>
-      <c r="HA30" s="0"/>
-      <c r="HB30" s="0"/>
-      <c r="HC30" s="0"/>
-      <c r="HD30" s="0"/>
-      <c r="HE30" s="0"/>
-      <c r="HF30" s="0"/>
-      <c r="HG30" s="0"/>
-      <c r="HH30" s="0"/>
-      <c r="HI30" s="0"/>
-      <c r="HJ30" s="0"/>
-      <c r="HK30" s="0"/>
-      <c r="HL30" s="0"/>
-      <c r="HM30" s="0"/>
-      <c r="HN30" s="0"/>
-      <c r="HO30" s="0"/>
-      <c r="HP30" s="0"/>
-      <c r="HQ30" s="0"/>
-      <c r="HR30" s="0"/>
-      <c r="HS30" s="0"/>
-      <c r="HT30" s="0"/>
-      <c r="HU30" s="0"/>
-      <c r="HV30" s="0"/>
-      <c r="HW30" s="0"/>
-      <c r="HX30" s="0"/>
-      <c r="HY30" s="0"/>
-      <c r="HZ30" s="0"/>
-      <c r="IA30" s="0"/>
-      <c r="IB30" s="0"/>
-      <c r="IC30" s="0"/>
-      <c r="ID30" s="0"/>
-      <c r="IE30" s="0"/>
-      <c r="IF30" s="0"/>
-      <c r="IG30" s="0"/>
-      <c r="IH30" s="0"/>
-      <c r="II30" s="0"/>
-      <c r="IJ30" s="0"/>
-      <c r="IK30" s="0"/>
-      <c r="IL30" s="0"/>
-      <c r="IM30" s="0"/>
-      <c r="IN30" s="0"/>
-      <c r="IO30" s="0"/>
-      <c r="IP30" s="0"/>
-      <c r="IQ30" s="0"/>
-      <c r="IR30" s="0"/>
-      <c r="IS30" s="0"/>
-      <c r="IT30" s="0"/>
-      <c r="IU30" s="0"/>
-      <c r="IV30" s="0"/>
-      <c r="IW30" s="0"/>
-      <c r="IX30" s="0"/>
-      <c r="IY30" s="0"/>
-      <c r="IZ30" s="0"/>
-      <c r="JA30" s="0"/>
-      <c r="JB30" s="0"/>
-      <c r="JC30" s="0"/>
-      <c r="JD30" s="0"/>
-      <c r="JE30" s="0"/>
-      <c r="JF30" s="0"/>
-      <c r="JG30" s="0"/>
-      <c r="JH30" s="0"/>
-      <c r="JI30" s="0"/>
-      <c r="JJ30" s="0"/>
-      <c r="JK30" s="0"/>
-      <c r="JL30" s="0"/>
-      <c r="JM30" s="0"/>
-      <c r="JN30" s="0"/>
-      <c r="JO30" s="0"/>
-      <c r="JP30" s="0"/>
-      <c r="JQ30" s="0"/>
-      <c r="JR30" s="0"/>
-      <c r="JS30" s="0"/>
-      <c r="JT30" s="0"/>
-      <c r="JU30" s="0"/>
-      <c r="JV30" s="0"/>
-      <c r="JW30" s="0"/>
-      <c r="JX30" s="0"/>
-      <c r="JY30" s="0"/>
-      <c r="JZ30" s="0"/>
-      <c r="KA30" s="0"/>
-      <c r="KB30" s="0"/>
-      <c r="KC30" s="0"/>
-      <c r="KD30" s="0"/>
-      <c r="KE30" s="0"/>
-      <c r="KF30" s="0"/>
-      <c r="KG30" s="0"/>
-      <c r="KH30" s="0"/>
-      <c r="KI30" s="0"/>
-      <c r="KJ30" s="0"/>
-      <c r="KK30" s="0"/>
-      <c r="KL30" s="0"/>
-      <c r="KM30" s="0"/>
-      <c r="KN30" s="0"/>
-      <c r="KO30" s="0"/>
-      <c r="KP30" s="0"/>
-      <c r="KQ30" s="0"/>
-      <c r="KR30" s="0"/>
-      <c r="KS30" s="0"/>
-      <c r="KT30" s="0"/>
-      <c r="KU30" s="0"/>
-      <c r="KV30" s="0"/>
-      <c r="KW30" s="0"/>
-      <c r="KX30" s="0"/>
-      <c r="KY30" s="0"/>
-      <c r="KZ30" s="0"/>
-      <c r="LA30" s="0"/>
-      <c r="LB30" s="0"/>
-      <c r="LC30" s="0"/>
-      <c r="LD30" s="0"/>
-      <c r="LE30" s="0"/>
-      <c r="LF30" s="0"/>
-      <c r="LG30" s="0"/>
-      <c r="LH30" s="0"/>
-      <c r="LI30" s="0"/>
-      <c r="LJ30" s="0"/>
-      <c r="LK30" s="0"/>
-      <c r="LL30" s="0"/>
-      <c r="LM30" s="0"/>
-      <c r="LN30" s="0"/>
-      <c r="LO30" s="0"/>
-      <c r="LP30" s="0"/>
-      <c r="LQ30" s="0"/>
-      <c r="LR30" s="0"/>
-      <c r="LS30" s="0"/>
-      <c r="LT30" s="0"/>
-      <c r="LU30" s="0"/>
-      <c r="LV30" s="0"/>
-      <c r="LW30" s="0"/>
-      <c r="LX30" s="0"/>
-      <c r="LY30" s="0"/>
-      <c r="LZ30" s="0"/>
-      <c r="MA30" s="0"/>
-      <c r="MB30" s="0"/>
-      <c r="MC30" s="0"/>
-      <c r="MD30" s="0"/>
-      <c r="ME30" s="0"/>
-      <c r="MF30" s="0"/>
-      <c r="MG30" s="0"/>
-      <c r="MH30" s="0"/>
-      <c r="MI30" s="0"/>
-      <c r="MJ30" s="0"/>
-      <c r="MK30" s="0"/>
-      <c r="ML30" s="0"/>
-      <c r="MM30" s="0"/>
-      <c r="MN30" s="0"/>
-      <c r="MO30" s="0"/>
-      <c r="MP30" s="0"/>
-      <c r="MQ30" s="0"/>
-      <c r="MR30" s="0"/>
-      <c r="MS30" s="0"/>
-      <c r="MT30" s="0"/>
-      <c r="MU30" s="0"/>
-      <c r="MV30" s="0"/>
-      <c r="MW30" s="0"/>
-      <c r="MX30" s="0"/>
-      <c r="MY30" s="0"/>
-      <c r="MZ30" s="0"/>
-      <c r="NA30" s="0"/>
-      <c r="NB30" s="0"/>
-      <c r="NC30" s="0"/>
-      <c r="ND30" s="0"/>
-      <c r="NE30" s="0"/>
-      <c r="NF30" s="0"/>
-      <c r="NG30" s="0"/>
-      <c r="NH30" s="0"/>
-      <c r="NI30" s="0"/>
-      <c r="NJ30" s="0"/>
-      <c r="NK30" s="0"/>
-      <c r="NL30" s="0"/>
-      <c r="NM30" s="0"/>
-      <c r="NN30" s="0"/>
-      <c r="NO30" s="0"/>
-      <c r="NP30" s="0"/>
-      <c r="NQ30" s="0"/>
-      <c r="NR30" s="0"/>
-      <c r="NS30" s="0"/>
-      <c r="NT30" s="0"/>
-      <c r="NU30" s="0"/>
-      <c r="NV30" s="0"/>
-      <c r="NW30" s="0"/>
-      <c r="NX30" s="0"/>
-      <c r="NY30" s="0"/>
-      <c r="NZ30" s="0"/>
-      <c r="OA30" s="0"/>
-      <c r="OB30" s="0"/>
-      <c r="OC30" s="0"/>
-      <c r="OD30" s="0"/>
-      <c r="OE30" s="0"/>
-      <c r="OF30" s="0"/>
-      <c r="OG30" s="0"/>
-      <c r="OH30" s="0"/>
-      <c r="OI30" s="0"/>
-      <c r="OJ30" s="0"/>
-      <c r="OK30" s="0"/>
-      <c r="OL30" s="0"/>
-      <c r="OM30" s="0"/>
-      <c r="ON30" s="0"/>
-      <c r="OO30" s="0"/>
-      <c r="OP30" s="0"/>
-      <c r="OQ30" s="0"/>
-      <c r="OR30" s="0"/>
-      <c r="OS30" s="0"/>
-      <c r="OT30" s="0"/>
-      <c r="OU30" s="0"/>
-      <c r="OV30" s="0"/>
-      <c r="OW30" s="0"/>
-      <c r="OX30" s="0"/>
-      <c r="OY30" s="0"/>
-      <c r="OZ30" s="0"/>
-      <c r="PA30" s="0"/>
-      <c r="PB30" s="0"/>
-      <c r="PC30" s="0"/>
-      <c r="PD30" s="0"/>
-      <c r="PE30" s="0"/>
-      <c r="PF30" s="0"/>
-      <c r="PG30" s="0"/>
-      <c r="PH30" s="0"/>
-      <c r="PI30" s="0"/>
-      <c r="PJ30" s="0"/>
-      <c r="PK30" s="0"/>
-      <c r="PL30" s="0"/>
-      <c r="PM30" s="0"/>
-      <c r="PN30" s="0"/>
-      <c r="PO30" s="0"/>
-      <c r="PP30" s="0"/>
-      <c r="PQ30" s="0"/>
-      <c r="PR30" s="0"/>
-      <c r="PS30" s="0"/>
-      <c r="PT30" s="0"/>
-      <c r="PU30" s="0"/>
-      <c r="PV30" s="0"/>
-      <c r="PW30" s="0"/>
-      <c r="PX30" s="0"/>
-      <c r="PY30" s="0"/>
-      <c r="PZ30" s="0"/>
-      <c r="QA30" s="0"/>
-      <c r="QB30" s="0"/>
-      <c r="QC30" s="0"/>
-      <c r="QD30" s="0"/>
-      <c r="QE30" s="0"/>
-      <c r="QF30" s="0"/>
-      <c r="QG30" s="0"/>
-      <c r="QH30" s="0"/>
-      <c r="QI30" s="0"/>
-      <c r="QJ30" s="0"/>
-      <c r="QK30" s="0"/>
-      <c r="QL30" s="0"/>
-      <c r="QM30" s="0"/>
-      <c r="QN30" s="0"/>
-      <c r="QO30" s="0"/>
-      <c r="QP30" s="0"/>
-      <c r="QQ30" s="0"/>
-      <c r="QR30" s="0"/>
-      <c r="QS30" s="0"/>
-      <c r="QT30" s="0"/>
-      <c r="QU30" s="0"/>
-      <c r="QV30" s="0"/>
-      <c r="QW30" s="0"/>
-      <c r="QX30" s="0"/>
-      <c r="QY30" s="0"/>
-      <c r="QZ30" s="0"/>
-      <c r="RA30" s="0"/>
-      <c r="RB30" s="0"/>
-      <c r="RC30" s="0"/>
-      <c r="RD30" s="0"/>
-      <c r="RE30" s="0"/>
-      <c r="RF30" s="0"/>
-      <c r="RG30" s="0"/>
-      <c r="RH30" s="0"/>
-      <c r="RI30" s="0"/>
-      <c r="RJ30" s="0"/>
-      <c r="RK30" s="0"/>
-      <c r="RL30" s="0"/>
-      <c r="RM30" s="0"/>
-      <c r="RN30" s="0"/>
-      <c r="RO30" s="0"/>
-      <c r="RP30" s="0"/>
-      <c r="RQ30" s="0"/>
-      <c r="RR30" s="0"/>
-      <c r="RS30" s="0"/>
-      <c r="RT30" s="0"/>
-      <c r="RU30" s="0"/>
-      <c r="RV30" s="0"/>
-      <c r="RW30" s="0"/>
-      <c r="RX30" s="0"/>
-      <c r="RY30" s="0"/>
-      <c r="RZ30" s="0"/>
-      <c r="SA30" s="0"/>
-      <c r="SB30" s="0"/>
-      <c r="SC30" s="0"/>
-      <c r="SD30" s="0"/>
-      <c r="SE30" s="0"/>
-      <c r="SF30" s="0"/>
-      <c r="SG30" s="0"/>
-      <c r="SH30" s="0"/>
-      <c r="SI30" s="0"/>
-      <c r="SJ30" s="0"/>
-      <c r="SK30" s="0"/>
-      <c r="SL30" s="0"/>
-      <c r="SM30" s="0"/>
-      <c r="SN30" s="0"/>
-      <c r="SO30" s="0"/>
-      <c r="SP30" s="0"/>
-      <c r="SQ30" s="0"/>
-      <c r="SR30" s="0"/>
-      <c r="SS30" s="0"/>
-      <c r="ST30" s="0"/>
-      <c r="SU30" s="0"/>
-      <c r="SV30" s="0"/>
-      <c r="SW30" s="0"/>
-      <c r="SX30" s="0"/>
-      <c r="SY30" s="0"/>
-      <c r="SZ30" s="0"/>
-      <c r="TA30" s="0"/>
-      <c r="TB30" s="0"/>
-      <c r="TC30" s="0"/>
-      <c r="TD30" s="0"/>
-      <c r="TE30" s="0"/>
-      <c r="TF30" s="0"/>
-      <c r="TG30" s="0"/>
-      <c r="TH30" s="0"/>
-      <c r="TI30" s="0"/>
-      <c r="TJ30" s="0"/>
-      <c r="TK30" s="0"/>
-      <c r="TL30" s="0"/>
-      <c r="TM30" s="0"/>
-      <c r="TN30" s="0"/>
-      <c r="TO30" s="0"/>
-      <c r="TP30" s="0"/>
-      <c r="TQ30" s="0"/>
-      <c r="TR30" s="0"/>
-      <c r="TS30" s="0"/>
-      <c r="TT30" s="0"/>
-      <c r="TU30" s="0"/>
-      <c r="TV30" s="0"/>
-      <c r="TW30" s="0"/>
-      <c r="TX30" s="0"/>
-      <c r="TY30" s="0"/>
-      <c r="TZ30" s="0"/>
-      <c r="UA30" s="0"/>
-      <c r="UB30" s="0"/>
-      <c r="UC30" s="0"/>
-      <c r="UD30" s="0"/>
-      <c r="UE30" s="0"/>
-      <c r="UF30" s="0"/>
-      <c r="UG30" s="0"/>
-      <c r="UH30" s="0"/>
-      <c r="UI30" s="0"/>
-      <c r="UJ30" s="0"/>
-      <c r="UK30" s="0"/>
-      <c r="UL30" s="0"/>
-      <c r="UM30" s="0"/>
-      <c r="UN30" s="0"/>
-      <c r="UO30" s="0"/>
-      <c r="UP30" s="0"/>
-      <c r="UQ30" s="0"/>
-      <c r="UR30" s="0"/>
-      <c r="US30" s="0"/>
-      <c r="UT30" s="0"/>
-      <c r="UU30" s="0"/>
-      <c r="UV30" s="0"/>
-      <c r="UW30" s="0"/>
-      <c r="UX30" s="0"/>
-      <c r="UY30" s="0"/>
-      <c r="UZ30" s="0"/>
-      <c r="VA30" s="0"/>
-      <c r="VB30" s="0"/>
-      <c r="VC30" s="0"/>
-      <c r="VD30" s="0"/>
-      <c r="VE30" s="0"/>
-      <c r="VF30" s="0"/>
-      <c r="VG30" s="0"/>
-      <c r="VH30" s="0"/>
-      <c r="VI30" s="0"/>
-      <c r="VJ30" s="0"/>
-      <c r="VK30" s="0"/>
-      <c r="VL30" s="0"/>
-      <c r="VM30" s="0"/>
-      <c r="VN30" s="0"/>
-      <c r="VO30" s="0"/>
-      <c r="VP30" s="0"/>
-      <c r="VQ30" s="0"/>
-      <c r="VR30" s="0"/>
-      <c r="VS30" s="0"/>
-      <c r="VT30" s="0"/>
-      <c r="VU30" s="0"/>
-      <c r="VV30" s="0"/>
-      <c r="VW30" s="0"/>
-      <c r="VX30" s="0"/>
-      <c r="VY30" s="0"/>
-      <c r="VZ30" s="0"/>
-      <c r="WA30" s="0"/>
-      <c r="WB30" s="0"/>
-      <c r="WC30" s="0"/>
-      <c r="WD30" s="0"/>
-      <c r="WE30" s="0"/>
-      <c r="WF30" s="0"/>
-      <c r="WG30" s="0"/>
-      <c r="WH30" s="0"/>
-      <c r="WI30" s="0"/>
-      <c r="WJ30" s="0"/>
-      <c r="WK30" s="0"/>
-      <c r="WL30" s="0"/>
-      <c r="WM30" s="0"/>
-      <c r="WN30" s="0"/>
-      <c r="WO30" s="0"/>
-      <c r="WP30" s="0"/>
-      <c r="WQ30" s="0"/>
-      <c r="WR30" s="0"/>
-      <c r="WS30" s="0"/>
-      <c r="WT30" s="0"/>
-      <c r="WU30" s="0"/>
-      <c r="WV30" s="0"/>
-      <c r="WW30" s="0"/>
-      <c r="WX30" s="0"/>
-      <c r="WY30" s="0"/>
-      <c r="WZ30" s="0"/>
-      <c r="XA30" s="0"/>
-      <c r="XB30" s="0"/>
-      <c r="XC30" s="0"/>
-      <c r="XD30" s="0"/>
-      <c r="XE30" s="0"/>
-      <c r="XF30" s="0"/>
-      <c r="XG30" s="0"/>
-      <c r="XH30" s="0"/>
-      <c r="XI30" s="0"/>
-      <c r="XJ30" s="0"/>
-      <c r="XK30" s="0"/>
-      <c r="XL30" s="0"/>
-      <c r="XM30" s="0"/>
-      <c r="XN30" s="0"/>
-      <c r="XO30" s="0"/>
-      <c r="XP30" s="0"/>
-      <c r="XQ30" s="0"/>
-      <c r="XR30" s="0"/>
-      <c r="XS30" s="0"/>
-      <c r="XT30" s="0"/>
-      <c r="XU30" s="0"/>
-      <c r="XV30" s="0"/>
-      <c r="XW30" s="0"/>
-      <c r="XX30" s="0"/>
-      <c r="XY30" s="0"/>
-      <c r="XZ30" s="0"/>
-      <c r="YA30" s="0"/>
-      <c r="YB30" s="0"/>
-      <c r="YC30" s="0"/>
-      <c r="YD30" s="0"/>
-      <c r="YE30" s="0"/>
-      <c r="YF30" s="0"/>
-      <c r="YG30" s="0"/>
-      <c r="YH30" s="0"/>
-      <c r="YI30" s="0"/>
-      <c r="YJ30" s="0"/>
-      <c r="YK30" s="0"/>
-      <c r="YL30" s="0"/>
-      <c r="YM30" s="0"/>
-      <c r="YN30" s="0"/>
-      <c r="YO30" s="0"/>
-      <c r="YP30" s="0"/>
-      <c r="YQ30" s="0"/>
-      <c r="YR30" s="0"/>
-      <c r="YS30" s="0"/>
-      <c r="YT30" s="0"/>
-      <c r="YU30" s="0"/>
-      <c r="YV30" s="0"/>
-      <c r="YW30" s="0"/>
-      <c r="YX30" s="0"/>
-      <c r="YY30" s="0"/>
-      <c r="YZ30" s="0"/>
-      <c r="ZA30" s="0"/>
-      <c r="ZB30" s="0"/>
-      <c r="ZC30" s="0"/>
-      <c r="ZD30" s="0"/>
-      <c r="ZE30" s="0"/>
-      <c r="ZF30" s="0"/>
-      <c r="ZG30" s="0"/>
-      <c r="ZH30" s="0"/>
-      <c r="ZI30" s="0"/>
-      <c r="ZJ30" s="0"/>
-      <c r="ZK30" s="0"/>
-      <c r="ZL30" s="0"/>
-      <c r="ZM30" s="0"/>
-      <c r="ZN30" s="0"/>
-      <c r="ZO30" s="0"/>
-      <c r="ZP30" s="0"/>
-      <c r="ZQ30" s="0"/>
-      <c r="ZR30" s="0"/>
-      <c r="ZS30" s="0"/>
-      <c r="ZT30" s="0"/>
-      <c r="ZU30" s="0"/>
-      <c r="ZV30" s="0"/>
-      <c r="ZW30" s="0"/>
-      <c r="ZX30" s="0"/>
-      <c r="ZY30" s="0"/>
-      <c r="ZZ30" s="0"/>
-      <c r="AAA30" s="0"/>
-      <c r="AAB30" s="0"/>
-      <c r="AAC30" s="0"/>
-      <c r="AAD30" s="0"/>
-      <c r="AAE30" s="0"/>
-      <c r="AAF30" s="0"/>
-      <c r="AAG30" s="0"/>
-      <c r="AAH30" s="0"/>
-      <c r="AAI30" s="0"/>
-      <c r="AAJ30" s="0"/>
-      <c r="AAK30" s="0"/>
-      <c r="AAL30" s="0"/>
-      <c r="AAM30" s="0"/>
-      <c r="AAN30" s="0"/>
-      <c r="AAO30" s="0"/>
-      <c r="AAP30" s="0"/>
-      <c r="AAQ30" s="0"/>
-      <c r="AAR30" s="0"/>
-      <c r="AAS30" s="0"/>
-      <c r="AAT30" s="0"/>
-      <c r="AAU30" s="0"/>
-      <c r="AAV30" s="0"/>
-      <c r="AAW30" s="0"/>
-      <c r="AAX30" s="0"/>
-      <c r="AAY30" s="0"/>
-      <c r="AAZ30" s="0"/>
-      <c r="ABA30" s="0"/>
-      <c r="ABB30" s="0"/>
-      <c r="ABC30" s="0"/>
-      <c r="ABD30" s="0"/>
-      <c r="ABE30" s="0"/>
-      <c r="ABF30" s="0"/>
-      <c r="ABG30" s="0"/>
-      <c r="ABH30" s="0"/>
-      <c r="ABI30" s="0"/>
-      <c r="ABJ30" s="0"/>
-      <c r="ABK30" s="0"/>
-      <c r="ABL30" s="0"/>
-      <c r="ABM30" s="0"/>
-      <c r="ABN30" s="0"/>
-      <c r="ABO30" s="0"/>
-      <c r="ABP30" s="0"/>
-      <c r="ABQ30" s="0"/>
-      <c r="ABR30" s="0"/>
-      <c r="ABS30" s="0"/>
-      <c r="ABT30" s="0"/>
-      <c r="ABU30" s="0"/>
-      <c r="ABV30" s="0"/>
-      <c r="ABW30" s="0"/>
-      <c r="ABX30" s="0"/>
-      <c r="ABY30" s="0"/>
-      <c r="ABZ30" s="0"/>
-      <c r="ACA30" s="0"/>
-      <c r="ACB30" s="0"/>
-      <c r="ACC30" s="0"/>
-      <c r="ACD30" s="0"/>
-      <c r="ACE30" s="0"/>
-      <c r="ACF30" s="0"/>
-      <c r="ACG30" s="0"/>
-      <c r="ACH30" s="0"/>
-      <c r="ACI30" s="0"/>
-      <c r="ACJ30" s="0"/>
-      <c r="ACK30" s="0"/>
-      <c r="ACL30" s="0"/>
-      <c r="ACM30" s="0"/>
-      <c r="ACN30" s="0"/>
-      <c r="ACO30" s="0"/>
-      <c r="ACP30" s="0"/>
-      <c r="ACQ30" s="0"/>
-      <c r="ACR30" s="0"/>
-      <c r="ACS30" s="0"/>
-      <c r="ACT30" s="0"/>
-      <c r="ACU30" s="0"/>
-      <c r="ACV30" s="0"/>
-      <c r="ACW30" s="0"/>
-      <c r="ACX30" s="0"/>
-      <c r="ACY30" s="0"/>
-      <c r="ACZ30" s="0"/>
-      <c r="ADA30" s="0"/>
-      <c r="ADB30" s="0"/>
-      <c r="ADC30" s="0"/>
-      <c r="ADD30" s="0"/>
-      <c r="ADE30" s="0"/>
-      <c r="ADF30" s="0"/>
-      <c r="ADG30" s="0"/>
-      <c r="ADH30" s="0"/>
-      <c r="ADI30" s="0"/>
-      <c r="ADJ30" s="0"/>
-      <c r="ADK30" s="0"/>
-      <c r="ADL30" s="0"/>
-      <c r="ADM30" s="0"/>
-      <c r="ADN30" s="0"/>
-      <c r="ADO30" s="0"/>
-      <c r="ADP30" s="0"/>
-      <c r="ADQ30" s="0"/>
-      <c r="ADR30" s="0"/>
-      <c r="ADS30" s="0"/>
-      <c r="ADT30" s="0"/>
-      <c r="ADU30" s="0"/>
-      <c r="ADV30" s="0"/>
-      <c r="ADW30" s="0"/>
-      <c r="ADX30" s="0"/>
-      <c r="ADY30" s="0"/>
-      <c r="ADZ30" s="0"/>
-      <c r="AEA30" s="0"/>
-      <c r="AEB30" s="0"/>
-      <c r="AEC30" s="0"/>
-      <c r="AED30" s="0"/>
-      <c r="AEE30" s="0"/>
-      <c r="AEF30" s="0"/>
-      <c r="AEG30" s="0"/>
-      <c r="AEH30" s="0"/>
-      <c r="AEI30" s="0"/>
-      <c r="AEJ30" s="0"/>
-      <c r="AEK30" s="0"/>
-      <c r="AEL30" s="0"/>
-      <c r="AEM30" s="0"/>
-      <c r="AEN30" s="0"/>
-      <c r="AEO30" s="0"/>
-      <c r="AEP30" s="0"/>
-      <c r="AEQ30" s="0"/>
-      <c r="AER30" s="0"/>
-      <c r="AES30" s="0"/>
-      <c r="AET30" s="0"/>
-      <c r="AEU30" s="0"/>
-      <c r="AEV30" s="0"/>
-      <c r="AEW30" s="0"/>
-      <c r="AEX30" s="0"/>
-      <c r="AEY30" s="0"/>
-      <c r="AEZ30" s="0"/>
-      <c r="AFA30" s="0"/>
-      <c r="AFB30" s="0"/>
-      <c r="AFC30" s="0"/>
-      <c r="AFD30" s="0"/>
-      <c r="AFE30" s="0"/>
-      <c r="AFF30" s="0"/>
-      <c r="AFG30" s="0"/>
-      <c r="AFH30" s="0"/>
-      <c r="AFI30" s="0"/>
-      <c r="AFJ30" s="0"/>
-      <c r="AFK30" s="0"/>
-      <c r="AFL30" s="0"/>
-      <c r="AFM30" s="0"/>
-      <c r="AFN30" s="0"/>
-      <c r="AFO30" s="0"/>
-      <c r="AFP30" s="0"/>
-      <c r="AFQ30" s="0"/>
-      <c r="AFR30" s="0"/>
-      <c r="AFS30" s="0"/>
-      <c r="AFT30" s="0"/>
-      <c r="AFU30" s="0"/>
-      <c r="AFV30" s="0"/>
-      <c r="AFW30" s="0"/>
-      <c r="AFX30" s="0"/>
-      <c r="AFY30" s="0"/>
-      <c r="AFZ30" s="0"/>
-      <c r="AGA30" s="0"/>
-      <c r="AGB30" s="0"/>
-      <c r="AGC30" s="0"/>
-      <c r="AGD30" s="0"/>
-      <c r="AGE30" s="0"/>
-      <c r="AGF30" s="0"/>
-      <c r="AGG30" s="0"/>
-      <c r="AGH30" s="0"/>
-      <c r="AGI30" s="0"/>
-      <c r="AGJ30" s="0"/>
-      <c r="AGK30" s="0"/>
-      <c r="AGL30" s="0"/>
-      <c r="AGM30" s="0"/>
-      <c r="AGN30" s="0"/>
-      <c r="AGO30" s="0"/>
-      <c r="AGP30" s="0"/>
-      <c r="AGQ30" s="0"/>
-      <c r="AGR30" s="0"/>
-      <c r="AGS30" s="0"/>
-      <c r="AGT30" s="0"/>
-      <c r="AGU30" s="0"/>
-      <c r="AGV30" s="0"/>
-      <c r="AGW30" s="0"/>
-      <c r="AGX30" s="0"/>
-      <c r="AGY30" s="0"/>
-      <c r="AGZ30" s="0"/>
-      <c r="AHA30" s="0"/>
-      <c r="AHB30" s="0"/>
-      <c r="AHC30" s="0"/>
-      <c r="AHD30" s="0"/>
-      <c r="AHE30" s="0"/>
-      <c r="AHF30" s="0"/>
-      <c r="AHG30" s="0"/>
-      <c r="AHH30" s="0"/>
-      <c r="AHI30" s="0"/>
-      <c r="AHJ30" s="0"/>
-      <c r="AHK30" s="0"/>
-      <c r="AHL30" s="0"/>
-      <c r="AHM30" s="0"/>
-      <c r="AHN30" s="0"/>
-      <c r="AHO30" s="0"/>
-      <c r="AHP30" s="0"/>
-      <c r="AHQ30" s="0"/>
-      <c r="AHR30" s="0"/>
-      <c r="AHS30" s="0"/>
-      <c r="AHT30" s="0"/>
-      <c r="AHU30" s="0"/>
-      <c r="AHV30" s="0"/>
-      <c r="AHW30" s="0"/>
-      <c r="AHX30" s="0"/>
-      <c r="AHY30" s="0"/>
-      <c r="AHZ30" s="0"/>
-      <c r="AIA30" s="0"/>
-      <c r="AIB30" s="0"/>
-      <c r="AIC30" s="0"/>
-      <c r="AID30" s="0"/>
-      <c r="AIE30" s="0"/>
-      <c r="AIF30" s="0"/>
-      <c r="AIG30" s="0"/>
-      <c r="AIH30" s="0"/>
-      <c r="AII30" s="0"/>
-      <c r="AIJ30" s="0"/>
-      <c r="AIK30" s="0"/>
-      <c r="AIL30" s="0"/>
-      <c r="AIM30" s="0"/>
-      <c r="AIN30" s="0"/>
-      <c r="AIO30" s="0"/>
-      <c r="AIP30" s="0"/>
-      <c r="AIQ30" s="0"/>
-      <c r="AIR30" s="0"/>
-      <c r="AIS30" s="0"/>
-      <c r="AIT30" s="0"/>
-      <c r="AIU30" s="0"/>
-      <c r="AIV30" s="0"/>
-      <c r="AIW30" s="0"/>
-      <c r="AIX30" s="0"/>
-      <c r="AIY30" s="0"/>
-      <c r="AIZ30" s="0"/>
-      <c r="AJA30" s="0"/>
-      <c r="AJB30" s="0"/>
-      <c r="AJC30" s="0"/>
-      <c r="AJD30" s="0"/>
-      <c r="AJE30" s="0"/>
-      <c r="AJF30" s="0"/>
-      <c r="AJG30" s="0"/>
-      <c r="AJH30" s="0"/>
-      <c r="AJI30" s="0"/>
-      <c r="AJJ30" s="0"/>
-      <c r="AJK30" s="0"/>
-      <c r="AJL30" s="0"/>
-      <c r="AJM30" s="0"/>
-      <c r="AJN30" s="0"/>
-      <c r="AJO30" s="0"/>
-      <c r="AJP30" s="0"/>
-      <c r="AJQ30" s="0"/>
-      <c r="AJR30" s="0"/>
-      <c r="AJS30" s="0"/>
-      <c r="AJT30" s="0"/>
-      <c r="AJU30" s="0"/>
-      <c r="AJV30" s="0"/>
-      <c r="AJW30" s="0"/>
-      <c r="AJX30" s="0"/>
-      <c r="AJY30" s="0"/>
-      <c r="AJZ30" s="0"/>
-      <c r="AKA30" s="0"/>
-      <c r="AKB30" s="0"/>
-      <c r="AKC30" s="0"/>
-      <c r="AKD30" s="0"/>
-      <c r="AKE30" s="0"/>
-      <c r="AKF30" s="0"/>
-      <c r="AKG30" s="0"/>
-      <c r="AKH30" s="0"/>
-      <c r="AKI30" s="0"/>
-      <c r="AKJ30" s="0"/>
-      <c r="AKK30" s="0"/>
-      <c r="AKL30" s="0"/>
-      <c r="AKM30" s="0"/>
-      <c r="AKN30" s="0"/>
-      <c r="AKO30" s="0"/>
-      <c r="AKP30" s="0"/>
-      <c r="AKQ30" s="0"/>
-      <c r="AKR30" s="0"/>
-      <c r="AKS30" s="0"/>
-      <c r="AKT30" s="0"/>
-      <c r="AKU30" s="0"/>
-      <c r="AKV30" s="0"/>
-      <c r="AKW30" s="0"/>
-      <c r="AKX30" s="0"/>
-      <c r="AKY30" s="0"/>
-      <c r="AKZ30" s="0"/>
-      <c r="ALA30" s="0"/>
-      <c r="ALB30" s="0"/>
-      <c r="ALC30" s="0"/>
-      <c r="ALD30" s="0"/>
-      <c r="ALE30" s="0"/>
-      <c r="ALF30" s="0"/>
-      <c r="ALG30" s="0"/>
-      <c r="ALH30" s="0"/>
-      <c r="ALI30" s="0"/>
-      <c r="ALJ30" s="0"/>
-      <c r="ALK30" s="0"/>
-      <c r="ALL30" s="0"/>
-      <c r="ALM30" s="0"/>
-      <c r="ALN30" s="0"/>
-      <c r="ALO30" s="0"/>
-      <c r="ALP30" s="0"/>
-      <c r="ALQ30" s="0"/>
-      <c r="ALR30" s="0"/>
-      <c r="ALS30" s="0"/>
-      <c r="ALT30" s="0"/>
-      <c r="ALU30" s="0"/>
-      <c r="ALV30" s="0"/>
-      <c r="ALW30" s="0"/>
-      <c r="ALX30" s="0"/>
-      <c r="ALY30" s="0"/>
-      <c r="ALZ30" s="0"/>
-      <c r="AMA30" s="0"/>
-      <c r="AMB30" s="0"/>
-      <c r="AMC30" s="0"/>
-      <c r="AMD30" s="0"/>
-      <c r="AME30" s="0"/>
-      <c r="AMF30" s="0"/>
-      <c r="AMG30" s="0"/>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
+      <c r="D30" s="21"/>
     </row>
-    <row r="31" s="19" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15" t="s">
+    <row r="31" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="20"/>
+      <c r="D31" s="21"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="11" t="s">
+    <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10"/>
+      <c r="B32" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
@@ -30068,1040 +31080,21 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
+    <row r="33" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="0"/>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="0"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="0"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
-      <c r="AB33" s="0"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
-      <c r="AM33" s="0"/>
-      <c r="AN33" s="0"/>
-      <c r="AO33" s="0"/>
-      <c r="AP33" s="0"/>
-      <c r="AQ33" s="0"/>
-      <c r="AR33" s="0"/>
-      <c r="AS33" s="0"/>
-      <c r="AT33" s="0"/>
-      <c r="AU33" s="0"/>
-      <c r="AV33" s="0"/>
-      <c r="AW33" s="0"/>
-      <c r="AX33" s="0"/>
-      <c r="AY33" s="0"/>
-      <c r="AZ33" s="0"/>
-      <c r="BA33" s="0"/>
-      <c r="BB33" s="0"/>
-      <c r="BC33" s="0"/>
-      <c r="BD33" s="0"/>
-      <c r="BE33" s="0"/>
-      <c r="BF33" s="0"/>
-      <c r="BG33" s="0"/>
-      <c r="BH33" s="0"/>
-      <c r="BI33" s="0"/>
-      <c r="BJ33" s="0"/>
-      <c r="BK33" s="0"/>
-      <c r="BL33" s="0"/>
-      <c r="BM33" s="0"/>
-      <c r="BN33" s="0"/>
-      <c r="BO33" s="0"/>
-      <c r="BP33" s="0"/>
-      <c r="BQ33" s="0"/>
-      <c r="BR33" s="0"/>
-      <c r="BS33" s="0"/>
-      <c r="BT33" s="0"/>
-      <c r="BU33" s="0"/>
-      <c r="BV33" s="0"/>
-      <c r="BW33" s="0"/>
-      <c r="BX33" s="0"/>
-      <c r="BY33" s="0"/>
-      <c r="BZ33" s="0"/>
-      <c r="CA33" s="0"/>
-      <c r="CB33" s="0"/>
-      <c r="CC33" s="0"/>
-      <c r="CD33" s="0"/>
-      <c r="CE33" s="0"/>
-      <c r="CF33" s="0"/>
-      <c r="CG33" s="0"/>
-      <c r="CH33" s="0"/>
-      <c r="CI33" s="0"/>
-      <c r="CJ33" s="0"/>
-      <c r="CK33" s="0"/>
-      <c r="CL33" s="0"/>
-      <c r="CM33" s="0"/>
-      <c r="CN33" s="0"/>
-      <c r="CO33" s="0"/>
-      <c r="CP33" s="0"/>
-      <c r="CQ33" s="0"/>
-      <c r="CR33" s="0"/>
-      <c r="CS33" s="0"/>
-      <c r="CT33" s="0"/>
-      <c r="CU33" s="0"/>
-      <c r="CV33" s="0"/>
-      <c r="CW33" s="0"/>
-      <c r="CX33" s="0"/>
-      <c r="CY33" s="0"/>
-      <c r="CZ33" s="0"/>
-      <c r="DA33" s="0"/>
-      <c r="DB33" s="0"/>
-      <c r="DC33" s="0"/>
-      <c r="DD33" s="0"/>
-      <c r="DE33" s="0"/>
-      <c r="DF33" s="0"/>
-      <c r="DG33" s="0"/>
-      <c r="DH33" s="0"/>
-      <c r="DI33" s="0"/>
-      <c r="DJ33" s="0"/>
-      <c r="DK33" s="0"/>
-      <c r="DL33" s="0"/>
-      <c r="DM33" s="0"/>
-      <c r="DN33" s="0"/>
-      <c r="DO33" s="0"/>
-      <c r="DP33" s="0"/>
-      <c r="DQ33" s="0"/>
-      <c r="DR33" s="0"/>
-      <c r="DS33" s="0"/>
-      <c r="DT33" s="0"/>
-      <c r="DU33" s="0"/>
-      <c r="DV33" s="0"/>
-      <c r="DW33" s="0"/>
-      <c r="DX33" s="0"/>
-      <c r="DY33" s="0"/>
-      <c r="DZ33" s="0"/>
-      <c r="EA33" s="0"/>
-      <c r="EB33" s="0"/>
-      <c r="EC33" s="0"/>
-      <c r="ED33" s="0"/>
-      <c r="EE33" s="0"/>
-      <c r="EF33" s="0"/>
-      <c r="EG33" s="0"/>
-      <c r="EH33" s="0"/>
-      <c r="EI33" s="0"/>
-      <c r="EJ33" s="0"/>
-      <c r="EK33" s="0"/>
-      <c r="EL33" s="0"/>
-      <c r="EM33" s="0"/>
-      <c r="EN33" s="0"/>
-      <c r="EO33" s="0"/>
-      <c r="EP33" s="0"/>
-      <c r="EQ33" s="0"/>
-      <c r="ER33" s="0"/>
-      <c r="ES33" s="0"/>
-      <c r="ET33" s="0"/>
-      <c r="EU33" s="0"/>
-      <c r="EV33" s="0"/>
-      <c r="EW33" s="0"/>
-      <c r="EX33" s="0"/>
-      <c r="EY33" s="0"/>
-      <c r="EZ33" s="0"/>
-      <c r="FA33" s="0"/>
-      <c r="FB33" s="0"/>
-      <c r="FC33" s="0"/>
-      <c r="FD33" s="0"/>
-      <c r="FE33" s="0"/>
-      <c r="FF33" s="0"/>
-      <c r="FG33" s="0"/>
-      <c r="FH33" s="0"/>
-      <c r="FI33" s="0"/>
-      <c r="FJ33" s="0"/>
-      <c r="FK33" s="0"/>
-      <c r="FL33" s="0"/>
-      <c r="FM33" s="0"/>
-      <c r="FN33" s="0"/>
-      <c r="FO33" s="0"/>
-      <c r="FP33" s="0"/>
-      <c r="FQ33" s="0"/>
-      <c r="FR33" s="0"/>
-      <c r="FS33" s="0"/>
-      <c r="FT33" s="0"/>
-      <c r="FU33" s="0"/>
-      <c r="FV33" s="0"/>
-      <c r="FW33" s="0"/>
-      <c r="FX33" s="0"/>
-      <c r="FY33" s="0"/>
-      <c r="FZ33" s="0"/>
-      <c r="GA33" s="0"/>
-      <c r="GB33" s="0"/>
-      <c r="GC33" s="0"/>
-      <c r="GD33" s="0"/>
-      <c r="GE33" s="0"/>
-      <c r="GF33" s="0"/>
-      <c r="GG33" s="0"/>
-      <c r="GH33" s="0"/>
-      <c r="GI33" s="0"/>
-      <c r="GJ33" s="0"/>
-      <c r="GK33" s="0"/>
-      <c r="GL33" s="0"/>
-      <c r="GM33" s="0"/>
-      <c r="GN33" s="0"/>
-      <c r="GO33" s="0"/>
-      <c r="GP33" s="0"/>
-      <c r="GQ33" s="0"/>
-      <c r="GR33" s="0"/>
-      <c r="GS33" s="0"/>
-      <c r="GT33" s="0"/>
-      <c r="GU33" s="0"/>
-      <c r="GV33" s="0"/>
-      <c r="GW33" s="0"/>
-      <c r="GX33" s="0"/>
-      <c r="GY33" s="0"/>
-      <c r="GZ33" s="0"/>
-      <c r="HA33" s="0"/>
-      <c r="HB33" s="0"/>
-      <c r="HC33" s="0"/>
-      <c r="HD33" s="0"/>
-      <c r="HE33" s="0"/>
-      <c r="HF33" s="0"/>
-      <c r="HG33" s="0"/>
-      <c r="HH33" s="0"/>
-      <c r="HI33" s="0"/>
-      <c r="HJ33" s="0"/>
-      <c r="HK33" s="0"/>
-      <c r="HL33" s="0"/>
-      <c r="HM33" s="0"/>
-      <c r="HN33" s="0"/>
-      <c r="HO33" s="0"/>
-      <c r="HP33" s="0"/>
-      <c r="HQ33" s="0"/>
-      <c r="HR33" s="0"/>
-      <c r="HS33" s="0"/>
-      <c r="HT33" s="0"/>
-      <c r="HU33" s="0"/>
-      <c r="HV33" s="0"/>
-      <c r="HW33" s="0"/>
-      <c r="HX33" s="0"/>
-      <c r="HY33" s="0"/>
-      <c r="HZ33" s="0"/>
-      <c r="IA33" s="0"/>
-      <c r="IB33" s="0"/>
-      <c r="IC33" s="0"/>
-      <c r="ID33" s="0"/>
-      <c r="IE33" s="0"/>
-      <c r="IF33" s="0"/>
-      <c r="IG33" s="0"/>
-      <c r="IH33" s="0"/>
-      <c r="II33" s="0"/>
-      <c r="IJ33" s="0"/>
-      <c r="IK33" s="0"/>
-      <c r="IL33" s="0"/>
-      <c r="IM33" s="0"/>
-      <c r="IN33" s="0"/>
-      <c r="IO33" s="0"/>
-      <c r="IP33" s="0"/>
-      <c r="IQ33" s="0"/>
-      <c r="IR33" s="0"/>
-      <c r="IS33" s="0"/>
-      <c r="IT33" s="0"/>
-      <c r="IU33" s="0"/>
-      <c r="IV33" s="0"/>
-      <c r="IW33" s="0"/>
-      <c r="IX33" s="0"/>
-      <c r="IY33" s="0"/>
-      <c r="IZ33" s="0"/>
-      <c r="JA33" s="0"/>
-      <c r="JB33" s="0"/>
-      <c r="JC33" s="0"/>
-      <c r="JD33" s="0"/>
-      <c r="JE33" s="0"/>
-      <c r="JF33" s="0"/>
-      <c r="JG33" s="0"/>
-      <c r="JH33" s="0"/>
-      <c r="JI33" s="0"/>
-      <c r="JJ33" s="0"/>
-      <c r="JK33" s="0"/>
-      <c r="JL33" s="0"/>
-      <c r="JM33" s="0"/>
-      <c r="JN33" s="0"/>
-      <c r="JO33" s="0"/>
-      <c r="JP33" s="0"/>
-      <c r="JQ33" s="0"/>
-      <c r="JR33" s="0"/>
-      <c r="JS33" s="0"/>
-      <c r="JT33" s="0"/>
-      <c r="JU33" s="0"/>
-      <c r="JV33" s="0"/>
-      <c r="JW33" s="0"/>
-      <c r="JX33" s="0"/>
-      <c r="JY33" s="0"/>
-      <c r="JZ33" s="0"/>
-      <c r="KA33" s="0"/>
-      <c r="KB33" s="0"/>
-      <c r="KC33" s="0"/>
-      <c r="KD33" s="0"/>
-      <c r="KE33" s="0"/>
-      <c r="KF33" s="0"/>
-      <c r="KG33" s="0"/>
-      <c r="KH33" s="0"/>
-      <c r="KI33" s="0"/>
-      <c r="KJ33" s="0"/>
-      <c r="KK33" s="0"/>
-      <c r="KL33" s="0"/>
-      <c r="KM33" s="0"/>
-      <c r="KN33" s="0"/>
-      <c r="KO33" s="0"/>
-      <c r="KP33" s="0"/>
-      <c r="KQ33" s="0"/>
-      <c r="KR33" s="0"/>
-      <c r="KS33" s="0"/>
-      <c r="KT33" s="0"/>
-      <c r="KU33" s="0"/>
-      <c r="KV33" s="0"/>
-      <c r="KW33" s="0"/>
-      <c r="KX33" s="0"/>
-      <c r="KY33" s="0"/>
-      <c r="KZ33" s="0"/>
-      <c r="LA33" s="0"/>
-      <c r="LB33" s="0"/>
-      <c r="LC33" s="0"/>
-      <c r="LD33" s="0"/>
-      <c r="LE33" s="0"/>
-      <c r="LF33" s="0"/>
-      <c r="LG33" s="0"/>
-      <c r="LH33" s="0"/>
-      <c r="LI33" s="0"/>
-      <c r="LJ33" s="0"/>
-      <c r="LK33" s="0"/>
-      <c r="LL33" s="0"/>
-      <c r="LM33" s="0"/>
-      <c r="LN33" s="0"/>
-      <c r="LO33" s="0"/>
-      <c r="LP33" s="0"/>
-      <c r="LQ33" s="0"/>
-      <c r="LR33" s="0"/>
-      <c r="LS33" s="0"/>
-      <c r="LT33" s="0"/>
-      <c r="LU33" s="0"/>
-      <c r="LV33" s="0"/>
-      <c r="LW33" s="0"/>
-      <c r="LX33" s="0"/>
-      <c r="LY33" s="0"/>
-      <c r="LZ33" s="0"/>
-      <c r="MA33" s="0"/>
-      <c r="MB33" s="0"/>
-      <c r="MC33" s="0"/>
-      <c r="MD33" s="0"/>
-      <c r="ME33" s="0"/>
-      <c r="MF33" s="0"/>
-      <c r="MG33" s="0"/>
-      <c r="MH33" s="0"/>
-      <c r="MI33" s="0"/>
-      <c r="MJ33" s="0"/>
-      <c r="MK33" s="0"/>
-      <c r="ML33" s="0"/>
-      <c r="MM33" s="0"/>
-      <c r="MN33" s="0"/>
-      <c r="MO33" s="0"/>
-      <c r="MP33" s="0"/>
-      <c r="MQ33" s="0"/>
-      <c r="MR33" s="0"/>
-      <c r="MS33" s="0"/>
-      <c r="MT33" s="0"/>
-      <c r="MU33" s="0"/>
-      <c r="MV33" s="0"/>
-      <c r="MW33" s="0"/>
-      <c r="MX33" s="0"/>
-      <c r="MY33" s="0"/>
-      <c r="MZ33" s="0"/>
-      <c r="NA33" s="0"/>
-      <c r="NB33" s="0"/>
-      <c r="NC33" s="0"/>
-      <c r="ND33" s="0"/>
-      <c r="NE33" s="0"/>
-      <c r="NF33" s="0"/>
-      <c r="NG33" s="0"/>
-      <c r="NH33" s="0"/>
-      <c r="NI33" s="0"/>
-      <c r="NJ33" s="0"/>
-      <c r="NK33" s="0"/>
-      <c r="NL33" s="0"/>
-      <c r="NM33" s="0"/>
-      <c r="NN33" s="0"/>
-      <c r="NO33" s="0"/>
-      <c r="NP33" s="0"/>
-      <c r="NQ33" s="0"/>
-      <c r="NR33" s="0"/>
-      <c r="NS33" s="0"/>
-      <c r="NT33" s="0"/>
-      <c r="NU33" s="0"/>
-      <c r="NV33" s="0"/>
-      <c r="NW33" s="0"/>
-      <c r="NX33" s="0"/>
-      <c r="NY33" s="0"/>
-      <c r="NZ33" s="0"/>
-      <c r="OA33" s="0"/>
-      <c r="OB33" s="0"/>
-      <c r="OC33" s="0"/>
-      <c r="OD33" s="0"/>
-      <c r="OE33" s="0"/>
-      <c r="OF33" s="0"/>
-      <c r="OG33" s="0"/>
-      <c r="OH33" s="0"/>
-      <c r="OI33" s="0"/>
-      <c r="OJ33" s="0"/>
-      <c r="OK33" s="0"/>
-      <c r="OL33" s="0"/>
-      <c r="OM33" s="0"/>
-      <c r="ON33" s="0"/>
-      <c r="OO33" s="0"/>
-      <c r="OP33" s="0"/>
-      <c r="OQ33" s="0"/>
-      <c r="OR33" s="0"/>
-      <c r="OS33" s="0"/>
-      <c r="OT33" s="0"/>
-      <c r="OU33" s="0"/>
-      <c r="OV33" s="0"/>
-      <c r="OW33" s="0"/>
-      <c r="OX33" s="0"/>
-      <c r="OY33" s="0"/>
-      <c r="OZ33" s="0"/>
-      <c r="PA33" s="0"/>
-      <c r="PB33" s="0"/>
-      <c r="PC33" s="0"/>
-      <c r="PD33" s="0"/>
-      <c r="PE33" s="0"/>
-      <c r="PF33" s="0"/>
-      <c r="PG33" s="0"/>
-      <c r="PH33" s="0"/>
-      <c r="PI33" s="0"/>
-      <c r="PJ33" s="0"/>
-      <c r="PK33" s="0"/>
-      <c r="PL33" s="0"/>
-      <c r="PM33" s="0"/>
-      <c r="PN33" s="0"/>
-      <c r="PO33" s="0"/>
-      <c r="PP33" s="0"/>
-      <c r="PQ33" s="0"/>
-      <c r="PR33" s="0"/>
-      <c r="PS33" s="0"/>
-      <c r="PT33" s="0"/>
-      <c r="PU33" s="0"/>
-      <c r="PV33" s="0"/>
-      <c r="PW33" s="0"/>
-      <c r="PX33" s="0"/>
-      <c r="PY33" s="0"/>
-      <c r="PZ33" s="0"/>
-      <c r="QA33" s="0"/>
-      <c r="QB33" s="0"/>
-      <c r="QC33" s="0"/>
-      <c r="QD33" s="0"/>
-      <c r="QE33" s="0"/>
-      <c r="QF33" s="0"/>
-      <c r="QG33" s="0"/>
-      <c r="QH33" s="0"/>
-      <c r="QI33" s="0"/>
-      <c r="QJ33" s="0"/>
-      <c r="QK33" s="0"/>
-      <c r="QL33" s="0"/>
-      <c r="QM33" s="0"/>
-      <c r="QN33" s="0"/>
-      <c r="QO33" s="0"/>
-      <c r="QP33" s="0"/>
-      <c r="QQ33" s="0"/>
-      <c r="QR33" s="0"/>
-      <c r="QS33" s="0"/>
-      <c r="QT33" s="0"/>
-      <c r="QU33" s="0"/>
-      <c r="QV33" s="0"/>
-      <c r="QW33" s="0"/>
-      <c r="QX33" s="0"/>
-      <c r="QY33" s="0"/>
-      <c r="QZ33" s="0"/>
-      <c r="RA33" s="0"/>
-      <c r="RB33" s="0"/>
-      <c r="RC33" s="0"/>
-      <c r="RD33" s="0"/>
-      <c r="RE33" s="0"/>
-      <c r="RF33" s="0"/>
-      <c r="RG33" s="0"/>
-      <c r="RH33" s="0"/>
-      <c r="RI33" s="0"/>
-      <c r="RJ33" s="0"/>
-      <c r="RK33" s="0"/>
-      <c r="RL33" s="0"/>
-      <c r="RM33" s="0"/>
-      <c r="RN33" s="0"/>
-      <c r="RO33" s="0"/>
-      <c r="RP33" s="0"/>
-      <c r="RQ33" s="0"/>
-      <c r="RR33" s="0"/>
-      <c r="RS33" s="0"/>
-      <c r="RT33" s="0"/>
-      <c r="RU33" s="0"/>
-      <c r="RV33" s="0"/>
-      <c r="RW33" s="0"/>
-      <c r="RX33" s="0"/>
-      <c r="RY33" s="0"/>
-      <c r="RZ33" s="0"/>
-      <c r="SA33" s="0"/>
-      <c r="SB33" s="0"/>
-      <c r="SC33" s="0"/>
-      <c r="SD33" s="0"/>
-      <c r="SE33" s="0"/>
-      <c r="SF33" s="0"/>
-      <c r="SG33" s="0"/>
-      <c r="SH33" s="0"/>
-      <c r="SI33" s="0"/>
-      <c r="SJ33" s="0"/>
-      <c r="SK33" s="0"/>
-      <c r="SL33" s="0"/>
-      <c r="SM33" s="0"/>
-      <c r="SN33" s="0"/>
-      <c r="SO33" s="0"/>
-      <c r="SP33" s="0"/>
-      <c r="SQ33" s="0"/>
-      <c r="SR33" s="0"/>
-      <c r="SS33" s="0"/>
-      <c r="ST33" s="0"/>
-      <c r="SU33" s="0"/>
-      <c r="SV33" s="0"/>
-      <c r="SW33" s="0"/>
-      <c r="SX33" s="0"/>
-      <c r="SY33" s="0"/>
-      <c r="SZ33" s="0"/>
-      <c r="TA33" s="0"/>
-      <c r="TB33" s="0"/>
-      <c r="TC33" s="0"/>
-      <c r="TD33" s="0"/>
-      <c r="TE33" s="0"/>
-      <c r="TF33" s="0"/>
-      <c r="TG33" s="0"/>
-      <c r="TH33" s="0"/>
-      <c r="TI33" s="0"/>
-      <c r="TJ33" s="0"/>
-      <c r="TK33" s="0"/>
-      <c r="TL33" s="0"/>
-      <c r="TM33" s="0"/>
-      <c r="TN33" s="0"/>
-      <c r="TO33" s="0"/>
-      <c r="TP33" s="0"/>
-      <c r="TQ33" s="0"/>
-      <c r="TR33" s="0"/>
-      <c r="TS33" s="0"/>
-      <c r="TT33" s="0"/>
-      <c r="TU33" s="0"/>
-      <c r="TV33" s="0"/>
-      <c r="TW33" s="0"/>
-      <c r="TX33" s="0"/>
-      <c r="TY33" s="0"/>
-      <c r="TZ33" s="0"/>
-      <c r="UA33" s="0"/>
-      <c r="UB33" s="0"/>
-      <c r="UC33" s="0"/>
-      <c r="UD33" s="0"/>
-      <c r="UE33" s="0"/>
-      <c r="UF33" s="0"/>
-      <c r="UG33" s="0"/>
-      <c r="UH33" s="0"/>
-      <c r="UI33" s="0"/>
-      <c r="UJ33" s="0"/>
-      <c r="UK33" s="0"/>
-      <c r="UL33" s="0"/>
-      <c r="UM33" s="0"/>
-      <c r="UN33" s="0"/>
-      <c r="UO33" s="0"/>
-      <c r="UP33" s="0"/>
-      <c r="UQ33" s="0"/>
-      <c r="UR33" s="0"/>
-      <c r="US33" s="0"/>
-      <c r="UT33" s="0"/>
-      <c r="UU33" s="0"/>
-      <c r="UV33" s="0"/>
-      <c r="UW33" s="0"/>
-      <c r="UX33" s="0"/>
-      <c r="UY33" s="0"/>
-      <c r="UZ33" s="0"/>
-      <c r="VA33" s="0"/>
-      <c r="VB33" s="0"/>
-      <c r="VC33" s="0"/>
-      <c r="VD33" s="0"/>
-      <c r="VE33" s="0"/>
-      <c r="VF33" s="0"/>
-      <c r="VG33" s="0"/>
-      <c r="VH33" s="0"/>
-      <c r="VI33" s="0"/>
-      <c r="VJ33" s="0"/>
-      <c r="VK33" s="0"/>
-      <c r="VL33" s="0"/>
-      <c r="VM33" s="0"/>
-      <c r="VN33" s="0"/>
-      <c r="VO33" s="0"/>
-      <c r="VP33" s="0"/>
-      <c r="VQ33" s="0"/>
-      <c r="VR33" s="0"/>
-      <c r="VS33" s="0"/>
-      <c r="VT33" s="0"/>
-      <c r="VU33" s="0"/>
-      <c r="VV33" s="0"/>
-      <c r="VW33" s="0"/>
-      <c r="VX33" s="0"/>
-      <c r="VY33" s="0"/>
-      <c r="VZ33" s="0"/>
-      <c r="WA33" s="0"/>
-      <c r="WB33" s="0"/>
-      <c r="WC33" s="0"/>
-      <c r="WD33" s="0"/>
-      <c r="WE33" s="0"/>
-      <c r="WF33" s="0"/>
-      <c r="WG33" s="0"/>
-      <c r="WH33" s="0"/>
-      <c r="WI33" s="0"/>
-      <c r="WJ33" s="0"/>
-      <c r="WK33" s="0"/>
-      <c r="WL33" s="0"/>
-      <c r="WM33" s="0"/>
-      <c r="WN33" s="0"/>
-      <c r="WO33" s="0"/>
-      <c r="WP33" s="0"/>
-      <c r="WQ33" s="0"/>
-      <c r="WR33" s="0"/>
-      <c r="WS33" s="0"/>
-      <c r="WT33" s="0"/>
-      <c r="WU33" s="0"/>
-      <c r="WV33" s="0"/>
-      <c r="WW33" s="0"/>
-      <c r="WX33" s="0"/>
-      <c r="WY33" s="0"/>
-      <c r="WZ33" s="0"/>
-      <c r="XA33" s="0"/>
-      <c r="XB33" s="0"/>
-      <c r="XC33" s="0"/>
-      <c r="XD33" s="0"/>
-      <c r="XE33" s="0"/>
-      <c r="XF33" s="0"/>
-      <c r="XG33" s="0"/>
-      <c r="XH33" s="0"/>
-      <c r="XI33" s="0"/>
-      <c r="XJ33" s="0"/>
-      <c r="XK33" s="0"/>
-      <c r="XL33" s="0"/>
-      <c r="XM33" s="0"/>
-      <c r="XN33" s="0"/>
-      <c r="XO33" s="0"/>
-      <c r="XP33" s="0"/>
-      <c r="XQ33" s="0"/>
-      <c r="XR33" s="0"/>
-      <c r="XS33" s="0"/>
-      <c r="XT33" s="0"/>
-      <c r="XU33" s="0"/>
-      <c r="XV33" s="0"/>
-      <c r="XW33" s="0"/>
-      <c r="XX33" s="0"/>
-      <c r="XY33" s="0"/>
-      <c r="XZ33" s="0"/>
-      <c r="YA33" s="0"/>
-      <c r="YB33" s="0"/>
-      <c r="YC33" s="0"/>
-      <c r="YD33" s="0"/>
-      <c r="YE33" s="0"/>
-      <c r="YF33" s="0"/>
-      <c r="YG33" s="0"/>
-      <c r="YH33" s="0"/>
-      <c r="YI33" s="0"/>
-      <c r="YJ33" s="0"/>
-      <c r="YK33" s="0"/>
-      <c r="YL33" s="0"/>
-      <c r="YM33" s="0"/>
-      <c r="YN33" s="0"/>
-      <c r="YO33" s="0"/>
-      <c r="YP33" s="0"/>
-      <c r="YQ33" s="0"/>
-      <c r="YR33" s="0"/>
-      <c r="YS33" s="0"/>
-      <c r="YT33" s="0"/>
-      <c r="YU33" s="0"/>
-      <c r="YV33" s="0"/>
-      <c r="YW33" s="0"/>
-      <c r="YX33" s="0"/>
-      <c r="YY33" s="0"/>
-      <c r="YZ33" s="0"/>
-      <c r="ZA33" s="0"/>
-      <c r="ZB33" s="0"/>
-      <c r="ZC33" s="0"/>
-      <c r="ZD33" s="0"/>
-      <c r="ZE33" s="0"/>
-      <c r="ZF33" s="0"/>
-      <c r="ZG33" s="0"/>
-      <c r="ZH33" s="0"/>
-      <c r="ZI33" s="0"/>
-      <c r="ZJ33" s="0"/>
-      <c r="ZK33" s="0"/>
-      <c r="ZL33" s="0"/>
-      <c r="ZM33" s="0"/>
-      <c r="ZN33" s="0"/>
-      <c r="ZO33" s="0"/>
-      <c r="ZP33" s="0"/>
-      <c r="ZQ33" s="0"/>
-      <c r="ZR33" s="0"/>
-      <c r="ZS33" s="0"/>
-      <c r="ZT33" s="0"/>
-      <c r="ZU33" s="0"/>
-      <c r="ZV33" s="0"/>
-      <c r="ZW33" s="0"/>
-      <c r="ZX33" s="0"/>
-      <c r="ZY33" s="0"/>
-      <c r="ZZ33" s="0"/>
-      <c r="AAA33" s="0"/>
-      <c r="AAB33" s="0"/>
-      <c r="AAC33" s="0"/>
-      <c r="AAD33" s="0"/>
-      <c r="AAE33" s="0"/>
-      <c r="AAF33" s="0"/>
-      <c r="AAG33" s="0"/>
-      <c r="AAH33" s="0"/>
-      <c r="AAI33" s="0"/>
-      <c r="AAJ33" s="0"/>
-      <c r="AAK33" s="0"/>
-      <c r="AAL33" s="0"/>
-      <c r="AAM33" s="0"/>
-      <c r="AAN33" s="0"/>
-      <c r="AAO33" s="0"/>
-      <c r="AAP33" s="0"/>
-      <c r="AAQ33" s="0"/>
-      <c r="AAR33" s="0"/>
-      <c r="AAS33" s="0"/>
-      <c r="AAT33" s="0"/>
-      <c r="AAU33" s="0"/>
-      <c r="AAV33" s="0"/>
-      <c r="AAW33" s="0"/>
-      <c r="AAX33" s="0"/>
-      <c r="AAY33" s="0"/>
-      <c r="AAZ33" s="0"/>
-      <c r="ABA33" s="0"/>
-      <c r="ABB33" s="0"/>
-      <c r="ABC33" s="0"/>
-      <c r="ABD33" s="0"/>
-      <c r="ABE33" s="0"/>
-      <c r="ABF33" s="0"/>
-      <c r="ABG33" s="0"/>
-      <c r="ABH33" s="0"/>
-      <c r="ABI33" s="0"/>
-      <c r="ABJ33" s="0"/>
-      <c r="ABK33" s="0"/>
-      <c r="ABL33" s="0"/>
-      <c r="ABM33" s="0"/>
-      <c r="ABN33" s="0"/>
-      <c r="ABO33" s="0"/>
-      <c r="ABP33" s="0"/>
-      <c r="ABQ33" s="0"/>
-      <c r="ABR33" s="0"/>
-      <c r="ABS33" s="0"/>
-      <c r="ABT33" s="0"/>
-      <c r="ABU33" s="0"/>
-      <c r="ABV33" s="0"/>
-      <c r="ABW33" s="0"/>
-      <c r="ABX33" s="0"/>
-      <c r="ABY33" s="0"/>
-      <c r="ABZ33" s="0"/>
-      <c r="ACA33" s="0"/>
-      <c r="ACB33" s="0"/>
-      <c r="ACC33" s="0"/>
-      <c r="ACD33" s="0"/>
-      <c r="ACE33" s="0"/>
-      <c r="ACF33" s="0"/>
-      <c r="ACG33" s="0"/>
-      <c r="ACH33" s="0"/>
-      <c r="ACI33" s="0"/>
-      <c r="ACJ33" s="0"/>
-      <c r="ACK33" s="0"/>
-      <c r="ACL33" s="0"/>
-      <c r="ACM33" s="0"/>
-      <c r="ACN33" s="0"/>
-      <c r="ACO33" s="0"/>
-      <c r="ACP33" s="0"/>
-      <c r="ACQ33" s="0"/>
-      <c r="ACR33" s="0"/>
-      <c r="ACS33" s="0"/>
-      <c r="ACT33" s="0"/>
-      <c r="ACU33" s="0"/>
-      <c r="ACV33" s="0"/>
-      <c r="ACW33" s="0"/>
-      <c r="ACX33" s="0"/>
-      <c r="ACY33" s="0"/>
-      <c r="ACZ33" s="0"/>
-      <c r="ADA33" s="0"/>
-      <c r="ADB33" s="0"/>
-      <c r="ADC33" s="0"/>
-      <c r="ADD33" s="0"/>
-      <c r="ADE33" s="0"/>
-      <c r="ADF33" s="0"/>
-      <c r="ADG33" s="0"/>
-      <c r="ADH33" s="0"/>
-      <c r="ADI33" s="0"/>
-      <c r="ADJ33" s="0"/>
-      <c r="ADK33" s="0"/>
-      <c r="ADL33" s="0"/>
-      <c r="ADM33" s="0"/>
-      <c r="ADN33" s="0"/>
-      <c r="ADO33" s="0"/>
-      <c r="ADP33" s="0"/>
-      <c r="ADQ33" s="0"/>
-      <c r="ADR33" s="0"/>
-      <c r="ADS33" s="0"/>
-      <c r="ADT33" s="0"/>
-      <c r="ADU33" s="0"/>
-      <c r="ADV33" s="0"/>
-      <c r="ADW33" s="0"/>
-      <c r="ADX33" s="0"/>
-      <c r="ADY33" s="0"/>
-      <c r="ADZ33" s="0"/>
-      <c r="AEA33" s="0"/>
-      <c r="AEB33" s="0"/>
-      <c r="AEC33" s="0"/>
-      <c r="AED33" s="0"/>
-      <c r="AEE33" s="0"/>
-      <c r="AEF33" s="0"/>
-      <c r="AEG33" s="0"/>
-      <c r="AEH33" s="0"/>
-      <c r="AEI33" s="0"/>
-      <c r="AEJ33" s="0"/>
-      <c r="AEK33" s="0"/>
-      <c r="AEL33" s="0"/>
-      <c r="AEM33" s="0"/>
-      <c r="AEN33" s="0"/>
-      <c r="AEO33" s="0"/>
-      <c r="AEP33" s="0"/>
-      <c r="AEQ33" s="0"/>
-      <c r="AER33" s="0"/>
-      <c r="AES33" s="0"/>
-      <c r="AET33" s="0"/>
-      <c r="AEU33" s="0"/>
-      <c r="AEV33" s="0"/>
-      <c r="AEW33" s="0"/>
-      <c r="AEX33" s="0"/>
-      <c r="AEY33" s="0"/>
-      <c r="AEZ33" s="0"/>
-      <c r="AFA33" s="0"/>
-      <c r="AFB33" s="0"/>
-      <c r="AFC33" s="0"/>
-      <c r="AFD33" s="0"/>
-      <c r="AFE33" s="0"/>
-      <c r="AFF33" s="0"/>
-      <c r="AFG33" s="0"/>
-      <c r="AFH33" s="0"/>
-      <c r="AFI33" s="0"/>
-      <c r="AFJ33" s="0"/>
-      <c r="AFK33" s="0"/>
-      <c r="AFL33" s="0"/>
-      <c r="AFM33" s="0"/>
-      <c r="AFN33" s="0"/>
-      <c r="AFO33" s="0"/>
-      <c r="AFP33" s="0"/>
-      <c r="AFQ33" s="0"/>
-      <c r="AFR33" s="0"/>
-      <c r="AFS33" s="0"/>
-      <c r="AFT33" s="0"/>
-      <c r="AFU33" s="0"/>
-      <c r="AFV33" s="0"/>
-      <c r="AFW33" s="0"/>
-      <c r="AFX33" s="0"/>
-      <c r="AFY33" s="0"/>
-      <c r="AFZ33" s="0"/>
-      <c r="AGA33" s="0"/>
-      <c r="AGB33" s="0"/>
-      <c r="AGC33" s="0"/>
-      <c r="AGD33" s="0"/>
-      <c r="AGE33" s="0"/>
-      <c r="AGF33" s="0"/>
-      <c r="AGG33" s="0"/>
-      <c r="AGH33" s="0"/>
-      <c r="AGI33" s="0"/>
-      <c r="AGJ33" s="0"/>
-      <c r="AGK33" s="0"/>
-      <c r="AGL33" s="0"/>
-      <c r="AGM33" s="0"/>
-      <c r="AGN33" s="0"/>
-      <c r="AGO33" s="0"/>
-      <c r="AGP33" s="0"/>
-      <c r="AGQ33" s="0"/>
-      <c r="AGR33" s="0"/>
-      <c r="AGS33" s="0"/>
-      <c r="AGT33" s="0"/>
-      <c r="AGU33" s="0"/>
-      <c r="AGV33" s="0"/>
-      <c r="AGW33" s="0"/>
-      <c r="AGX33" s="0"/>
-      <c r="AGY33" s="0"/>
-      <c r="AGZ33" s="0"/>
-      <c r="AHA33" s="0"/>
-      <c r="AHB33" s="0"/>
-      <c r="AHC33" s="0"/>
-      <c r="AHD33" s="0"/>
-      <c r="AHE33" s="0"/>
-      <c r="AHF33" s="0"/>
-      <c r="AHG33" s="0"/>
-      <c r="AHH33" s="0"/>
-      <c r="AHI33" s="0"/>
-      <c r="AHJ33" s="0"/>
-      <c r="AHK33" s="0"/>
-      <c r="AHL33" s="0"/>
-      <c r="AHM33" s="0"/>
-      <c r="AHN33" s="0"/>
-      <c r="AHO33" s="0"/>
-      <c r="AHP33" s="0"/>
-      <c r="AHQ33" s="0"/>
-      <c r="AHR33" s="0"/>
-      <c r="AHS33" s="0"/>
-      <c r="AHT33" s="0"/>
-      <c r="AHU33" s="0"/>
-      <c r="AHV33" s="0"/>
-      <c r="AHW33" s="0"/>
-      <c r="AHX33" s="0"/>
-      <c r="AHY33" s="0"/>
-      <c r="AHZ33" s="0"/>
-      <c r="AIA33" s="0"/>
-      <c r="AIB33" s="0"/>
-      <c r="AIC33" s="0"/>
-      <c r="AID33" s="0"/>
-      <c r="AIE33" s="0"/>
-      <c r="AIF33" s="0"/>
-      <c r="AIG33" s="0"/>
-      <c r="AIH33" s="0"/>
-      <c r="AII33" s="0"/>
-      <c r="AIJ33" s="0"/>
-      <c r="AIK33" s="0"/>
-      <c r="AIL33" s="0"/>
-      <c r="AIM33" s="0"/>
-      <c r="AIN33" s="0"/>
-      <c r="AIO33" s="0"/>
-      <c r="AIP33" s="0"/>
-      <c r="AIQ33" s="0"/>
-      <c r="AIR33" s="0"/>
-      <c r="AIS33" s="0"/>
-      <c r="AIT33" s="0"/>
-      <c r="AIU33" s="0"/>
-      <c r="AIV33" s="0"/>
-      <c r="AIW33" s="0"/>
-      <c r="AIX33" s="0"/>
-      <c r="AIY33" s="0"/>
-      <c r="AIZ33" s="0"/>
-      <c r="AJA33" s="0"/>
-      <c r="AJB33" s="0"/>
-      <c r="AJC33" s="0"/>
-      <c r="AJD33" s="0"/>
-      <c r="AJE33" s="0"/>
-      <c r="AJF33" s="0"/>
-      <c r="AJG33" s="0"/>
-      <c r="AJH33" s="0"/>
-      <c r="AJI33" s="0"/>
-      <c r="AJJ33" s="0"/>
-      <c r="AJK33" s="0"/>
-      <c r="AJL33" s="0"/>
-      <c r="AJM33" s="0"/>
-      <c r="AJN33" s="0"/>
-      <c r="AJO33" s="0"/>
-      <c r="AJP33" s="0"/>
-      <c r="AJQ33" s="0"/>
-      <c r="AJR33" s="0"/>
-      <c r="AJS33" s="0"/>
-      <c r="AJT33" s="0"/>
-      <c r="AJU33" s="0"/>
-      <c r="AJV33" s="0"/>
-      <c r="AJW33" s="0"/>
-      <c r="AJX33" s="0"/>
-      <c r="AJY33" s="0"/>
-      <c r="AJZ33" s="0"/>
-      <c r="AKA33" s="0"/>
-      <c r="AKB33" s="0"/>
-      <c r="AKC33" s="0"/>
-      <c r="AKD33" s="0"/>
-      <c r="AKE33" s="0"/>
-      <c r="AKF33" s="0"/>
-      <c r="AKG33" s="0"/>
-      <c r="AKH33" s="0"/>
-      <c r="AKI33" s="0"/>
-      <c r="AKJ33" s="0"/>
-      <c r="AKK33" s="0"/>
-      <c r="AKL33" s="0"/>
-      <c r="AKM33" s="0"/>
-      <c r="AKN33" s="0"/>
-      <c r="AKO33" s="0"/>
-      <c r="AKP33" s="0"/>
-      <c r="AKQ33" s="0"/>
-      <c r="AKR33" s="0"/>
-      <c r="AKS33" s="0"/>
-      <c r="AKT33" s="0"/>
-      <c r="AKU33" s="0"/>
-      <c r="AKV33" s="0"/>
-      <c r="AKW33" s="0"/>
-      <c r="AKX33" s="0"/>
-      <c r="AKY33" s="0"/>
-      <c r="AKZ33" s="0"/>
-      <c r="ALA33" s="0"/>
-      <c r="ALB33" s="0"/>
-      <c r="ALC33" s="0"/>
-      <c r="ALD33" s="0"/>
-      <c r="ALE33" s="0"/>
-      <c r="ALF33" s="0"/>
-      <c r="ALG33" s="0"/>
-      <c r="ALH33" s="0"/>
-      <c r="ALI33" s="0"/>
-      <c r="ALJ33" s="0"/>
-      <c r="ALK33" s="0"/>
-      <c r="ALL33" s="0"/>
-      <c r="ALM33" s="0"/>
-      <c r="ALN33" s="0"/>
-      <c r="ALO33" s="0"/>
-      <c r="ALP33" s="0"/>
-      <c r="ALQ33" s="0"/>
-      <c r="ALR33" s="0"/>
-      <c r="ALS33" s="0"/>
-      <c r="ALT33" s="0"/>
-      <c r="ALU33" s="0"/>
-      <c r="ALV33" s="0"/>
-      <c r="ALW33" s="0"/>
-      <c r="ALX33" s="0"/>
-      <c r="ALY33" s="0"/>
-      <c r="ALZ33" s="0"/>
-      <c r="AMA33" s="0"/>
-      <c r="AMB33" s="0"/>
-      <c r="AMC33" s="0"/>
-      <c r="AMD33" s="0"/>
-      <c r="AME33" s="0"/>
-      <c r="AMF33" s="0"/>
-      <c r="AMG33" s="0"/>
-      <c r="AMH33" s="0"/>
-      <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
+      <c r="C33" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="B34" s="21" t="s">
-        <v>6</v>
+      <c r="B34" s="11" t="s">
+        <v>52</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="11"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
@@ -32126,12 +32119,10 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="22" t="s">
-        <v>51</v>
+      <c r="B35" s="17" t="s">
+        <v>53</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>52</v>
-      </c>
+      <c r="C35" s="17"/>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -33157,11 +33148,9 @@
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
       <c r="B36" s="22" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="C36" s="22"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
@@ -34186,10 +34175,12 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="B37" s="21" t="s">
-        <v>46</v>
+      <c r="B37" s="23" t="s">
+        <v>54</v>
       </c>
-      <c r="C37" s="21"/>
+      <c r="C37" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
@@ -35215,11 +35206,9 @@
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>56</v>
-      </c>
+      <c r="C38" s="22"/>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
@@ -36244,10 +36233,12 @@
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="21"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
@@ -37275,9 +37266,7 @@
       <c r="B40" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="C40" s="22"/>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
@@ -38302,10 +38291,12 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="21"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -39333,9 +39324,7 @@
       <c r="B42" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>62</v>
-      </c>
+      <c r="C42" s="22"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
@@ -40360,10 +40349,12 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="21" t="s">
-        <v>9</v>
+      <c r="B43" s="23" t="s">
+        <v>62</v>
       </c>
-      <c r="C43" s="21"/>
+      <c r="C43" s="23" t="s">
+        <v>63</v>
+      </c>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
@@ -41386,15 +41377,13 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="B44" s="14" t="s">
-        <v>10</v>
+      <c r="B44" s="22" t="s">
+        <v>12</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="0"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -42418,13 +42407,13 @@
     </row>
     <row r="45" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
-      <c r="B45" s="14" t="s">
-        <v>16</v>
+      <c r="B45" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>17</v>
+      <c r="C45" s="18" t="s">
+        <v>64</v>
       </c>
-      <c r="D45" s="23"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -43446,15 +43435,15 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="23"/>
+      <c r="C46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="24"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -44476,15 +44465,15 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="B47" s="14" t="s">
-        <v>64</v>
+      <c r="B47" s="15" t="s">
+        <v>21</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>65</v>
+      <c r="C47" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="D47" s="0"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -45507,11 +45496,11 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="14" t="s">
-        <v>64</v>
+      <c r="A48" s="0"/>
+      <c r="B48" s="15" t="s">
+        <v>65</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D48" s="0"/>
@@ -46538,10 +46527,12 @@
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10"/>
-      <c r="B49" s="21" t="s">
-        <v>20</v>
+      <c r="B49" s="15" t="s">
+        <v>65</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
@@ -47566,12 +47557,10 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
-      <c r="B50" s="24" t="s">
-        <v>67</v>
+      <c r="B50" s="22" t="s">
+        <v>23</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>68</v>
-      </c>
+      <c r="C50" s="22"/>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
@@ -48596,11 +48585,11 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
@@ -49626,10 +49615,10 @@
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
-      <c r="B52" s="15" t="s">
-        <v>21</v>
+      <c r="B52" s="16" t="s">
+        <v>70</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="16" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="0"/>
@@ -50656,11 +50645,11 @@
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
@@ -51685,12 +51674,12 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="10"/>
+      <c r="B54" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
@@ -52714,12 +52703,14 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="21"/>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
@@ -53744,10 +53735,10 @@
     </row>
     <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="13"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -54770,12 +54761,12 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -55798,14 +55789,12 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>79</v>
-      </c>
+      <c r="C58" s="26"/>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
@@ -56828,13 +56817,13 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="17" t="s">
-        <v>81</v>
+      <c r="C59" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
@@ -57858,12 +57847,14 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10"/>
-      <c r="B60" s="25" t="s">
+    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="25"/>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
       <c r="F60" s="0"/>
@@ -58886,14 +58877,12 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10"/>
-      <c r="B61" s="14" t="s">
-        <v>83</v>
+      <c r="B61" s="26" t="s">
+        <v>6</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>84</v>
-      </c>
+      <c r="C61" s="26"/>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
@@ -59916,13 +59905,13 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10"/>
-      <c r="B62" s="14" t="s">
-        <v>85</v>
+      <c r="B62" s="15" t="s">
+        <v>83</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>86</v>
+      <c r="C62" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
@@ -60948,10 +60937,12 @@
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
-      <c r="B63" s="25" t="s">
-        <v>87</v>
+      <c r="B63" s="15" t="s">
+        <v>7</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
@@ -61976,12 +61967,10 @@
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10"/>
-      <c r="B64" s="15" t="s">
-        <v>88</v>
+      <c r="B64" s="26" t="s">
+        <v>86</v>
       </c>
-      <c r="C64" s="15" t="s">
-        <v>89</v>
-      </c>
+      <c r="C64" s="26"/>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
@@ -63004,91 +62993,1109 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="19" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15" t="s">
+    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10"/>
+      <c r="B65" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="0"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
+      <c r="R65" s="0"/>
+      <c r="S65" s="0"/>
+      <c r="T65" s="0"/>
+      <c r="U65" s="0"/>
+      <c r="V65" s="0"/>
+      <c r="W65" s="0"/>
+      <c r="X65" s="0"/>
+      <c r="Y65" s="0"/>
+      <c r="Z65" s="0"/>
+      <c r="AA65" s="0"/>
+      <c r="AB65" s="0"/>
+      <c r="AC65" s="0"/>
+      <c r="AD65" s="0"/>
+      <c r="AE65" s="0"/>
+      <c r="AF65" s="0"/>
+      <c r="AG65" s="0"/>
+      <c r="AH65" s="0"/>
+      <c r="AI65" s="0"/>
+      <c r="AJ65" s="0"/>
+      <c r="AK65" s="0"/>
+      <c r="AL65" s="0"/>
+      <c r="AM65" s="0"/>
+      <c r="AN65" s="0"/>
+      <c r="AO65" s="0"/>
+      <c r="AP65" s="0"/>
+      <c r="AQ65" s="0"/>
+      <c r="AR65" s="0"/>
+      <c r="AS65" s="0"/>
+      <c r="AT65" s="0"/>
+      <c r="AU65" s="0"/>
+      <c r="AV65" s="0"/>
+      <c r="AW65" s="0"/>
+      <c r="AX65" s="0"/>
+      <c r="AY65" s="0"/>
+      <c r="AZ65" s="0"/>
+      <c r="BA65" s="0"/>
+      <c r="BB65" s="0"/>
+      <c r="BC65" s="0"/>
+      <c r="BD65" s="0"/>
+      <c r="BE65" s="0"/>
+      <c r="BF65" s="0"/>
+      <c r="BG65" s="0"/>
+      <c r="BH65" s="0"/>
+      <c r="BI65" s="0"/>
+      <c r="BJ65" s="0"/>
+      <c r="BK65" s="0"/>
+      <c r="BL65" s="0"/>
+      <c r="BM65" s="0"/>
+      <c r="BN65" s="0"/>
+      <c r="BO65" s="0"/>
+      <c r="BP65" s="0"/>
+      <c r="BQ65" s="0"/>
+      <c r="BR65" s="0"/>
+      <c r="BS65" s="0"/>
+      <c r="BT65" s="0"/>
+      <c r="BU65" s="0"/>
+      <c r="BV65" s="0"/>
+      <c r="BW65" s="0"/>
+      <c r="BX65" s="0"/>
+      <c r="BY65" s="0"/>
+      <c r="BZ65" s="0"/>
+      <c r="CA65" s="0"/>
+      <c r="CB65" s="0"/>
+      <c r="CC65" s="0"/>
+      <c r="CD65" s="0"/>
+      <c r="CE65" s="0"/>
+      <c r="CF65" s="0"/>
+      <c r="CG65" s="0"/>
+      <c r="CH65" s="0"/>
+      <c r="CI65" s="0"/>
+      <c r="CJ65" s="0"/>
+      <c r="CK65" s="0"/>
+      <c r="CL65" s="0"/>
+      <c r="CM65" s="0"/>
+      <c r="CN65" s="0"/>
+      <c r="CO65" s="0"/>
+      <c r="CP65" s="0"/>
+      <c r="CQ65" s="0"/>
+      <c r="CR65" s="0"/>
+      <c r="CS65" s="0"/>
+      <c r="CT65" s="0"/>
+      <c r="CU65" s="0"/>
+      <c r="CV65" s="0"/>
+      <c r="CW65" s="0"/>
+      <c r="CX65" s="0"/>
+      <c r="CY65" s="0"/>
+      <c r="CZ65" s="0"/>
+      <c r="DA65" s="0"/>
+      <c r="DB65" s="0"/>
+      <c r="DC65" s="0"/>
+      <c r="DD65" s="0"/>
+      <c r="DE65" s="0"/>
+      <c r="DF65" s="0"/>
+      <c r="DG65" s="0"/>
+      <c r="DH65" s="0"/>
+      <c r="DI65" s="0"/>
+      <c r="DJ65" s="0"/>
+      <c r="DK65" s="0"/>
+      <c r="DL65" s="0"/>
+      <c r="DM65" s="0"/>
+      <c r="DN65" s="0"/>
+      <c r="DO65" s="0"/>
+      <c r="DP65" s="0"/>
+      <c r="DQ65" s="0"/>
+      <c r="DR65" s="0"/>
+      <c r="DS65" s="0"/>
+      <c r="DT65" s="0"/>
+      <c r="DU65" s="0"/>
+      <c r="DV65" s="0"/>
+      <c r="DW65" s="0"/>
+      <c r="DX65" s="0"/>
+      <c r="DY65" s="0"/>
+      <c r="DZ65" s="0"/>
+      <c r="EA65" s="0"/>
+      <c r="EB65" s="0"/>
+      <c r="EC65" s="0"/>
+      <c r="ED65" s="0"/>
+      <c r="EE65" s="0"/>
+      <c r="EF65" s="0"/>
+      <c r="EG65" s="0"/>
+      <c r="EH65" s="0"/>
+      <c r="EI65" s="0"/>
+      <c r="EJ65" s="0"/>
+      <c r="EK65" s="0"/>
+      <c r="EL65" s="0"/>
+      <c r="EM65" s="0"/>
+      <c r="EN65" s="0"/>
+      <c r="EO65" s="0"/>
+      <c r="EP65" s="0"/>
+      <c r="EQ65" s="0"/>
+      <c r="ER65" s="0"/>
+      <c r="ES65" s="0"/>
+      <c r="ET65" s="0"/>
+      <c r="EU65" s="0"/>
+      <c r="EV65" s="0"/>
+      <c r="EW65" s="0"/>
+      <c r="EX65" s="0"/>
+      <c r="EY65" s="0"/>
+      <c r="EZ65" s="0"/>
+      <c r="FA65" s="0"/>
+      <c r="FB65" s="0"/>
+      <c r="FC65" s="0"/>
+      <c r="FD65" s="0"/>
+      <c r="FE65" s="0"/>
+      <c r="FF65" s="0"/>
+      <c r="FG65" s="0"/>
+      <c r="FH65" s="0"/>
+      <c r="FI65" s="0"/>
+      <c r="FJ65" s="0"/>
+      <c r="FK65" s="0"/>
+      <c r="FL65" s="0"/>
+      <c r="FM65" s="0"/>
+      <c r="FN65" s="0"/>
+      <c r="FO65" s="0"/>
+      <c r="FP65" s="0"/>
+      <c r="FQ65" s="0"/>
+      <c r="FR65" s="0"/>
+      <c r="FS65" s="0"/>
+      <c r="FT65" s="0"/>
+      <c r="FU65" s="0"/>
+      <c r="FV65" s="0"/>
+      <c r="FW65" s="0"/>
+      <c r="FX65" s="0"/>
+      <c r="FY65" s="0"/>
+      <c r="FZ65" s="0"/>
+      <c r="GA65" s="0"/>
+      <c r="GB65" s="0"/>
+      <c r="GC65" s="0"/>
+      <c r="GD65" s="0"/>
+      <c r="GE65" s="0"/>
+      <c r="GF65" s="0"/>
+      <c r="GG65" s="0"/>
+      <c r="GH65" s="0"/>
+      <c r="GI65" s="0"/>
+      <c r="GJ65" s="0"/>
+      <c r="GK65" s="0"/>
+      <c r="GL65" s="0"/>
+      <c r="GM65" s="0"/>
+      <c r="GN65" s="0"/>
+      <c r="GO65" s="0"/>
+      <c r="GP65" s="0"/>
+      <c r="GQ65" s="0"/>
+      <c r="GR65" s="0"/>
+      <c r="GS65" s="0"/>
+      <c r="GT65" s="0"/>
+      <c r="GU65" s="0"/>
+      <c r="GV65" s="0"/>
+      <c r="GW65" s="0"/>
+      <c r="GX65" s="0"/>
+      <c r="GY65" s="0"/>
+      <c r="GZ65" s="0"/>
+      <c r="HA65" s="0"/>
+      <c r="HB65" s="0"/>
+      <c r="HC65" s="0"/>
+      <c r="HD65" s="0"/>
+      <c r="HE65" s="0"/>
+      <c r="HF65" s="0"/>
+      <c r="HG65" s="0"/>
+      <c r="HH65" s="0"/>
+      <c r="HI65" s="0"/>
+      <c r="HJ65" s="0"/>
+      <c r="HK65" s="0"/>
+      <c r="HL65" s="0"/>
+      <c r="HM65" s="0"/>
+      <c r="HN65" s="0"/>
+      <c r="HO65" s="0"/>
+      <c r="HP65" s="0"/>
+      <c r="HQ65" s="0"/>
+      <c r="HR65" s="0"/>
+      <c r="HS65" s="0"/>
+      <c r="HT65" s="0"/>
+      <c r="HU65" s="0"/>
+      <c r="HV65" s="0"/>
+      <c r="HW65" s="0"/>
+      <c r="HX65" s="0"/>
+      <c r="HY65" s="0"/>
+      <c r="HZ65" s="0"/>
+      <c r="IA65" s="0"/>
+      <c r="IB65" s="0"/>
+      <c r="IC65" s="0"/>
+      <c r="ID65" s="0"/>
+      <c r="IE65" s="0"/>
+      <c r="IF65" s="0"/>
+      <c r="IG65" s="0"/>
+      <c r="IH65" s="0"/>
+      <c r="II65" s="0"/>
+      <c r="IJ65" s="0"/>
+      <c r="IK65" s="0"/>
+      <c r="IL65" s="0"/>
+      <c r="IM65" s="0"/>
+      <c r="IN65" s="0"/>
+      <c r="IO65" s="0"/>
+      <c r="IP65" s="0"/>
+      <c r="IQ65" s="0"/>
+      <c r="IR65" s="0"/>
+      <c r="IS65" s="0"/>
+      <c r="IT65" s="0"/>
+      <c r="IU65" s="0"/>
+      <c r="IV65" s="0"/>
+      <c r="IW65" s="0"/>
+      <c r="IX65" s="0"/>
+      <c r="IY65" s="0"/>
+      <c r="IZ65" s="0"/>
+      <c r="JA65" s="0"/>
+      <c r="JB65" s="0"/>
+      <c r="JC65" s="0"/>
+      <c r="JD65" s="0"/>
+      <c r="JE65" s="0"/>
+      <c r="JF65" s="0"/>
+      <c r="JG65" s="0"/>
+      <c r="JH65" s="0"/>
+      <c r="JI65" s="0"/>
+      <c r="JJ65" s="0"/>
+      <c r="JK65" s="0"/>
+      <c r="JL65" s="0"/>
+      <c r="JM65" s="0"/>
+      <c r="JN65" s="0"/>
+      <c r="JO65" s="0"/>
+      <c r="JP65" s="0"/>
+      <c r="JQ65" s="0"/>
+      <c r="JR65" s="0"/>
+      <c r="JS65" s="0"/>
+      <c r="JT65" s="0"/>
+      <c r="JU65" s="0"/>
+      <c r="JV65" s="0"/>
+      <c r="JW65" s="0"/>
+      <c r="JX65" s="0"/>
+      <c r="JY65" s="0"/>
+      <c r="JZ65" s="0"/>
+      <c r="KA65" s="0"/>
+      <c r="KB65" s="0"/>
+      <c r="KC65" s="0"/>
+      <c r="KD65" s="0"/>
+      <c r="KE65" s="0"/>
+      <c r="KF65" s="0"/>
+      <c r="KG65" s="0"/>
+      <c r="KH65" s="0"/>
+      <c r="KI65" s="0"/>
+      <c r="KJ65" s="0"/>
+      <c r="KK65" s="0"/>
+      <c r="KL65" s="0"/>
+      <c r="KM65" s="0"/>
+      <c r="KN65" s="0"/>
+      <c r="KO65" s="0"/>
+      <c r="KP65" s="0"/>
+      <c r="KQ65" s="0"/>
+      <c r="KR65" s="0"/>
+      <c r="KS65" s="0"/>
+      <c r="KT65" s="0"/>
+      <c r="KU65" s="0"/>
+      <c r="KV65" s="0"/>
+      <c r="KW65" s="0"/>
+      <c r="KX65" s="0"/>
+      <c r="KY65" s="0"/>
+      <c r="KZ65" s="0"/>
+      <c r="LA65" s="0"/>
+      <c r="LB65" s="0"/>
+      <c r="LC65" s="0"/>
+      <c r="LD65" s="0"/>
+      <c r="LE65" s="0"/>
+      <c r="LF65" s="0"/>
+      <c r="LG65" s="0"/>
+      <c r="LH65" s="0"/>
+      <c r="LI65" s="0"/>
+      <c r="LJ65" s="0"/>
+      <c r="LK65" s="0"/>
+      <c r="LL65" s="0"/>
+      <c r="LM65" s="0"/>
+      <c r="LN65" s="0"/>
+      <c r="LO65" s="0"/>
+      <c r="LP65" s="0"/>
+      <c r="LQ65" s="0"/>
+      <c r="LR65" s="0"/>
+      <c r="LS65" s="0"/>
+      <c r="LT65" s="0"/>
+      <c r="LU65" s="0"/>
+      <c r="LV65" s="0"/>
+      <c r="LW65" s="0"/>
+      <c r="LX65" s="0"/>
+      <c r="LY65" s="0"/>
+      <c r="LZ65" s="0"/>
+      <c r="MA65" s="0"/>
+      <c r="MB65" s="0"/>
+      <c r="MC65" s="0"/>
+      <c r="MD65" s="0"/>
+      <c r="ME65" s="0"/>
+      <c r="MF65" s="0"/>
+      <c r="MG65" s="0"/>
+      <c r="MH65" s="0"/>
+      <c r="MI65" s="0"/>
+      <c r="MJ65" s="0"/>
+      <c r="MK65" s="0"/>
+      <c r="ML65" s="0"/>
+      <c r="MM65" s="0"/>
+      <c r="MN65" s="0"/>
+      <c r="MO65" s="0"/>
+      <c r="MP65" s="0"/>
+      <c r="MQ65" s="0"/>
+      <c r="MR65" s="0"/>
+      <c r="MS65" s="0"/>
+      <c r="MT65" s="0"/>
+      <c r="MU65" s="0"/>
+      <c r="MV65" s="0"/>
+      <c r="MW65" s="0"/>
+      <c r="MX65" s="0"/>
+      <c r="MY65" s="0"/>
+      <c r="MZ65" s="0"/>
+      <c r="NA65" s="0"/>
+      <c r="NB65" s="0"/>
+      <c r="NC65" s="0"/>
+      <c r="ND65" s="0"/>
+      <c r="NE65" s="0"/>
+      <c r="NF65" s="0"/>
+      <c r="NG65" s="0"/>
+      <c r="NH65" s="0"/>
+      <c r="NI65" s="0"/>
+      <c r="NJ65" s="0"/>
+      <c r="NK65" s="0"/>
+      <c r="NL65" s="0"/>
+      <c r="NM65" s="0"/>
+      <c r="NN65" s="0"/>
+      <c r="NO65" s="0"/>
+      <c r="NP65" s="0"/>
+      <c r="NQ65" s="0"/>
+      <c r="NR65" s="0"/>
+      <c r="NS65" s="0"/>
+      <c r="NT65" s="0"/>
+      <c r="NU65" s="0"/>
+      <c r="NV65" s="0"/>
+      <c r="NW65" s="0"/>
+      <c r="NX65" s="0"/>
+      <c r="NY65" s="0"/>
+      <c r="NZ65" s="0"/>
+      <c r="OA65" s="0"/>
+      <c r="OB65" s="0"/>
+      <c r="OC65" s="0"/>
+      <c r="OD65" s="0"/>
+      <c r="OE65" s="0"/>
+      <c r="OF65" s="0"/>
+      <c r="OG65" s="0"/>
+      <c r="OH65" s="0"/>
+      <c r="OI65" s="0"/>
+      <c r="OJ65" s="0"/>
+      <c r="OK65" s="0"/>
+      <c r="OL65" s="0"/>
+      <c r="OM65" s="0"/>
+      <c r="ON65" s="0"/>
+      <c r="OO65" s="0"/>
+      <c r="OP65" s="0"/>
+      <c r="OQ65" s="0"/>
+      <c r="OR65" s="0"/>
+      <c r="OS65" s="0"/>
+      <c r="OT65" s="0"/>
+      <c r="OU65" s="0"/>
+      <c r="OV65" s="0"/>
+      <c r="OW65" s="0"/>
+      <c r="OX65" s="0"/>
+      <c r="OY65" s="0"/>
+      <c r="OZ65" s="0"/>
+      <c r="PA65" s="0"/>
+      <c r="PB65" s="0"/>
+      <c r="PC65" s="0"/>
+      <c r="PD65" s="0"/>
+      <c r="PE65" s="0"/>
+      <c r="PF65" s="0"/>
+      <c r="PG65" s="0"/>
+      <c r="PH65" s="0"/>
+      <c r="PI65" s="0"/>
+      <c r="PJ65" s="0"/>
+      <c r="PK65" s="0"/>
+      <c r="PL65" s="0"/>
+      <c r="PM65" s="0"/>
+      <c r="PN65" s="0"/>
+      <c r="PO65" s="0"/>
+      <c r="PP65" s="0"/>
+      <c r="PQ65" s="0"/>
+      <c r="PR65" s="0"/>
+      <c r="PS65" s="0"/>
+      <c r="PT65" s="0"/>
+      <c r="PU65" s="0"/>
+      <c r="PV65" s="0"/>
+      <c r="PW65" s="0"/>
+      <c r="PX65" s="0"/>
+      <c r="PY65" s="0"/>
+      <c r="PZ65" s="0"/>
+      <c r="QA65" s="0"/>
+      <c r="QB65" s="0"/>
+      <c r="QC65" s="0"/>
+      <c r="QD65" s="0"/>
+      <c r="QE65" s="0"/>
+      <c r="QF65" s="0"/>
+      <c r="QG65" s="0"/>
+      <c r="QH65" s="0"/>
+      <c r="QI65" s="0"/>
+      <c r="QJ65" s="0"/>
+      <c r="QK65" s="0"/>
+      <c r="QL65" s="0"/>
+      <c r="QM65" s="0"/>
+      <c r="QN65" s="0"/>
+      <c r="QO65" s="0"/>
+      <c r="QP65" s="0"/>
+      <c r="QQ65" s="0"/>
+      <c r="QR65" s="0"/>
+      <c r="QS65" s="0"/>
+      <c r="QT65" s="0"/>
+      <c r="QU65" s="0"/>
+      <c r="QV65" s="0"/>
+      <c r="QW65" s="0"/>
+      <c r="QX65" s="0"/>
+      <c r="QY65" s="0"/>
+      <c r="QZ65" s="0"/>
+      <c r="RA65" s="0"/>
+      <c r="RB65" s="0"/>
+      <c r="RC65" s="0"/>
+      <c r="RD65" s="0"/>
+      <c r="RE65" s="0"/>
+      <c r="RF65" s="0"/>
+      <c r="RG65" s="0"/>
+      <c r="RH65" s="0"/>
+      <c r="RI65" s="0"/>
+      <c r="RJ65" s="0"/>
+      <c r="RK65" s="0"/>
+      <c r="RL65" s="0"/>
+      <c r="RM65" s="0"/>
+      <c r="RN65" s="0"/>
+      <c r="RO65" s="0"/>
+      <c r="RP65" s="0"/>
+      <c r="RQ65" s="0"/>
+      <c r="RR65" s="0"/>
+      <c r="RS65" s="0"/>
+      <c r="RT65" s="0"/>
+      <c r="RU65" s="0"/>
+      <c r="RV65" s="0"/>
+      <c r="RW65" s="0"/>
+      <c r="RX65" s="0"/>
+      <c r="RY65" s="0"/>
+      <c r="RZ65" s="0"/>
+      <c r="SA65" s="0"/>
+      <c r="SB65" s="0"/>
+      <c r="SC65" s="0"/>
+      <c r="SD65" s="0"/>
+      <c r="SE65" s="0"/>
+      <c r="SF65" s="0"/>
+      <c r="SG65" s="0"/>
+      <c r="SH65" s="0"/>
+      <c r="SI65" s="0"/>
+      <c r="SJ65" s="0"/>
+      <c r="SK65" s="0"/>
+      <c r="SL65" s="0"/>
+      <c r="SM65" s="0"/>
+      <c r="SN65" s="0"/>
+      <c r="SO65" s="0"/>
+      <c r="SP65" s="0"/>
+      <c r="SQ65" s="0"/>
+      <c r="SR65" s="0"/>
+      <c r="SS65" s="0"/>
+      <c r="ST65" s="0"/>
+      <c r="SU65" s="0"/>
+      <c r="SV65" s="0"/>
+      <c r="SW65" s="0"/>
+      <c r="SX65" s="0"/>
+      <c r="SY65" s="0"/>
+      <c r="SZ65" s="0"/>
+      <c r="TA65" s="0"/>
+      <c r="TB65" s="0"/>
+      <c r="TC65" s="0"/>
+      <c r="TD65" s="0"/>
+      <c r="TE65" s="0"/>
+      <c r="TF65" s="0"/>
+      <c r="TG65" s="0"/>
+      <c r="TH65" s="0"/>
+      <c r="TI65" s="0"/>
+      <c r="TJ65" s="0"/>
+      <c r="TK65" s="0"/>
+      <c r="TL65" s="0"/>
+      <c r="TM65" s="0"/>
+      <c r="TN65" s="0"/>
+      <c r="TO65" s="0"/>
+      <c r="TP65" s="0"/>
+      <c r="TQ65" s="0"/>
+      <c r="TR65" s="0"/>
+      <c r="TS65" s="0"/>
+      <c r="TT65" s="0"/>
+      <c r="TU65" s="0"/>
+      <c r="TV65" s="0"/>
+      <c r="TW65" s="0"/>
+      <c r="TX65" s="0"/>
+      <c r="TY65" s="0"/>
+      <c r="TZ65" s="0"/>
+      <c r="UA65" s="0"/>
+      <c r="UB65" s="0"/>
+      <c r="UC65" s="0"/>
+      <c r="UD65" s="0"/>
+      <c r="UE65" s="0"/>
+      <c r="UF65" s="0"/>
+      <c r="UG65" s="0"/>
+      <c r="UH65" s="0"/>
+      <c r="UI65" s="0"/>
+      <c r="UJ65" s="0"/>
+      <c r="UK65" s="0"/>
+      <c r="UL65" s="0"/>
+      <c r="UM65" s="0"/>
+      <c r="UN65" s="0"/>
+      <c r="UO65" s="0"/>
+      <c r="UP65" s="0"/>
+      <c r="UQ65" s="0"/>
+      <c r="UR65" s="0"/>
+      <c r="US65" s="0"/>
+      <c r="UT65" s="0"/>
+      <c r="UU65" s="0"/>
+      <c r="UV65" s="0"/>
+      <c r="UW65" s="0"/>
+      <c r="UX65" s="0"/>
+      <c r="UY65" s="0"/>
+      <c r="UZ65" s="0"/>
+      <c r="VA65" s="0"/>
+      <c r="VB65" s="0"/>
+      <c r="VC65" s="0"/>
+      <c r="VD65" s="0"/>
+      <c r="VE65" s="0"/>
+      <c r="VF65" s="0"/>
+      <c r="VG65" s="0"/>
+      <c r="VH65" s="0"/>
+      <c r="VI65" s="0"/>
+      <c r="VJ65" s="0"/>
+      <c r="VK65" s="0"/>
+      <c r="VL65" s="0"/>
+      <c r="VM65" s="0"/>
+      <c r="VN65" s="0"/>
+      <c r="VO65" s="0"/>
+      <c r="VP65" s="0"/>
+      <c r="VQ65" s="0"/>
+      <c r="VR65" s="0"/>
+      <c r="VS65" s="0"/>
+      <c r="VT65" s="0"/>
+      <c r="VU65" s="0"/>
+      <c r="VV65" s="0"/>
+      <c r="VW65" s="0"/>
+      <c r="VX65" s="0"/>
+      <c r="VY65" s="0"/>
+      <c r="VZ65" s="0"/>
+      <c r="WA65" s="0"/>
+      <c r="WB65" s="0"/>
+      <c r="WC65" s="0"/>
+      <c r="WD65" s="0"/>
+      <c r="WE65" s="0"/>
+      <c r="WF65" s="0"/>
+      <c r="WG65" s="0"/>
+      <c r="WH65" s="0"/>
+      <c r="WI65" s="0"/>
+      <c r="WJ65" s="0"/>
+      <c r="WK65" s="0"/>
+      <c r="WL65" s="0"/>
+      <c r="WM65" s="0"/>
+      <c r="WN65" s="0"/>
+      <c r="WO65" s="0"/>
+      <c r="WP65" s="0"/>
+      <c r="WQ65" s="0"/>
+      <c r="WR65" s="0"/>
+      <c r="WS65" s="0"/>
+      <c r="WT65" s="0"/>
+      <c r="WU65" s="0"/>
+      <c r="WV65" s="0"/>
+      <c r="WW65" s="0"/>
+      <c r="WX65" s="0"/>
+      <c r="WY65" s="0"/>
+      <c r="WZ65" s="0"/>
+      <c r="XA65" s="0"/>
+      <c r="XB65" s="0"/>
+      <c r="XC65" s="0"/>
+      <c r="XD65" s="0"/>
+      <c r="XE65" s="0"/>
+      <c r="XF65" s="0"/>
+      <c r="XG65" s="0"/>
+      <c r="XH65" s="0"/>
+      <c r="XI65" s="0"/>
+      <c r="XJ65" s="0"/>
+      <c r="XK65" s="0"/>
+      <c r="XL65" s="0"/>
+      <c r="XM65" s="0"/>
+      <c r="XN65" s="0"/>
+      <c r="XO65" s="0"/>
+      <c r="XP65" s="0"/>
+      <c r="XQ65" s="0"/>
+      <c r="XR65" s="0"/>
+      <c r="XS65" s="0"/>
+      <c r="XT65" s="0"/>
+      <c r="XU65" s="0"/>
+      <c r="XV65" s="0"/>
+      <c r="XW65" s="0"/>
+      <c r="XX65" s="0"/>
+      <c r="XY65" s="0"/>
+      <c r="XZ65" s="0"/>
+      <c r="YA65" s="0"/>
+      <c r="YB65" s="0"/>
+      <c r="YC65" s="0"/>
+      <c r="YD65" s="0"/>
+      <c r="YE65" s="0"/>
+      <c r="YF65" s="0"/>
+      <c r="YG65" s="0"/>
+      <c r="YH65" s="0"/>
+      <c r="YI65" s="0"/>
+      <c r="YJ65" s="0"/>
+      <c r="YK65" s="0"/>
+      <c r="YL65" s="0"/>
+      <c r="YM65" s="0"/>
+      <c r="YN65" s="0"/>
+      <c r="YO65" s="0"/>
+      <c r="YP65" s="0"/>
+      <c r="YQ65" s="0"/>
+      <c r="YR65" s="0"/>
+      <c r="YS65" s="0"/>
+      <c r="YT65" s="0"/>
+      <c r="YU65" s="0"/>
+      <c r="YV65" s="0"/>
+      <c r="YW65" s="0"/>
+      <c r="YX65" s="0"/>
+      <c r="YY65" s="0"/>
+      <c r="YZ65" s="0"/>
+      <c r="ZA65" s="0"/>
+      <c r="ZB65" s="0"/>
+      <c r="ZC65" s="0"/>
+      <c r="ZD65" s="0"/>
+      <c r="ZE65" s="0"/>
+      <c r="ZF65" s="0"/>
+      <c r="ZG65" s="0"/>
+      <c r="ZH65" s="0"/>
+      <c r="ZI65" s="0"/>
+      <c r="ZJ65" s="0"/>
+      <c r="ZK65" s="0"/>
+      <c r="ZL65" s="0"/>
+      <c r="ZM65" s="0"/>
+      <c r="ZN65" s="0"/>
+      <c r="ZO65" s="0"/>
+      <c r="ZP65" s="0"/>
+      <c r="ZQ65" s="0"/>
+      <c r="ZR65" s="0"/>
+      <c r="ZS65" s="0"/>
+      <c r="ZT65" s="0"/>
+      <c r="ZU65" s="0"/>
+      <c r="ZV65" s="0"/>
+      <c r="ZW65" s="0"/>
+      <c r="ZX65" s="0"/>
+      <c r="ZY65" s="0"/>
+      <c r="ZZ65" s="0"/>
+      <c r="AAA65" s="0"/>
+      <c r="AAB65" s="0"/>
+      <c r="AAC65" s="0"/>
+      <c r="AAD65" s="0"/>
+      <c r="AAE65" s="0"/>
+      <c r="AAF65" s="0"/>
+      <c r="AAG65" s="0"/>
+      <c r="AAH65" s="0"/>
+      <c r="AAI65" s="0"/>
+      <c r="AAJ65" s="0"/>
+      <c r="AAK65" s="0"/>
+      <c r="AAL65" s="0"/>
+      <c r="AAM65" s="0"/>
+      <c r="AAN65" s="0"/>
+      <c r="AAO65" s="0"/>
+      <c r="AAP65" s="0"/>
+      <c r="AAQ65" s="0"/>
+      <c r="AAR65" s="0"/>
+      <c r="AAS65" s="0"/>
+      <c r="AAT65" s="0"/>
+      <c r="AAU65" s="0"/>
+      <c r="AAV65" s="0"/>
+      <c r="AAW65" s="0"/>
+      <c r="AAX65" s="0"/>
+      <c r="AAY65" s="0"/>
+      <c r="AAZ65" s="0"/>
+      <c r="ABA65" s="0"/>
+      <c r="ABB65" s="0"/>
+      <c r="ABC65" s="0"/>
+      <c r="ABD65" s="0"/>
+      <c r="ABE65" s="0"/>
+      <c r="ABF65" s="0"/>
+      <c r="ABG65" s="0"/>
+      <c r="ABH65" s="0"/>
+      <c r="ABI65" s="0"/>
+      <c r="ABJ65" s="0"/>
+      <c r="ABK65" s="0"/>
+      <c r="ABL65" s="0"/>
+      <c r="ABM65" s="0"/>
+      <c r="ABN65" s="0"/>
+      <c r="ABO65" s="0"/>
+      <c r="ABP65" s="0"/>
+      <c r="ABQ65" s="0"/>
+      <c r="ABR65" s="0"/>
+      <c r="ABS65" s="0"/>
+      <c r="ABT65" s="0"/>
+      <c r="ABU65" s="0"/>
+      <c r="ABV65" s="0"/>
+      <c r="ABW65" s="0"/>
+      <c r="ABX65" s="0"/>
+      <c r="ABY65" s="0"/>
+      <c r="ABZ65" s="0"/>
+      <c r="ACA65" s="0"/>
+      <c r="ACB65" s="0"/>
+      <c r="ACC65" s="0"/>
+      <c r="ACD65" s="0"/>
+      <c r="ACE65" s="0"/>
+      <c r="ACF65" s="0"/>
+      <c r="ACG65" s="0"/>
+      <c r="ACH65" s="0"/>
+      <c r="ACI65" s="0"/>
+      <c r="ACJ65" s="0"/>
+      <c r="ACK65" s="0"/>
+      <c r="ACL65" s="0"/>
+      <c r="ACM65" s="0"/>
+      <c r="ACN65" s="0"/>
+      <c r="ACO65" s="0"/>
+      <c r="ACP65" s="0"/>
+      <c r="ACQ65" s="0"/>
+      <c r="ACR65" s="0"/>
+      <c r="ACS65" s="0"/>
+      <c r="ACT65" s="0"/>
+      <c r="ACU65" s="0"/>
+      <c r="ACV65" s="0"/>
+      <c r="ACW65" s="0"/>
+      <c r="ACX65" s="0"/>
+      <c r="ACY65" s="0"/>
+      <c r="ACZ65" s="0"/>
+      <c r="ADA65" s="0"/>
+      <c r="ADB65" s="0"/>
+      <c r="ADC65" s="0"/>
+      <c r="ADD65" s="0"/>
+      <c r="ADE65" s="0"/>
+      <c r="ADF65" s="0"/>
+      <c r="ADG65" s="0"/>
+      <c r="ADH65" s="0"/>
+      <c r="ADI65" s="0"/>
+      <c r="ADJ65" s="0"/>
+      <c r="ADK65" s="0"/>
+      <c r="ADL65" s="0"/>
+      <c r="ADM65" s="0"/>
+      <c r="ADN65" s="0"/>
+      <c r="ADO65" s="0"/>
+      <c r="ADP65" s="0"/>
+      <c r="ADQ65" s="0"/>
+      <c r="ADR65" s="0"/>
+      <c r="ADS65" s="0"/>
+      <c r="ADT65" s="0"/>
+      <c r="ADU65" s="0"/>
+      <c r="ADV65" s="0"/>
+      <c r="ADW65" s="0"/>
+      <c r="ADX65" s="0"/>
+      <c r="ADY65" s="0"/>
+      <c r="ADZ65" s="0"/>
+      <c r="AEA65" s="0"/>
+      <c r="AEB65" s="0"/>
+      <c r="AEC65" s="0"/>
+      <c r="AED65" s="0"/>
+      <c r="AEE65" s="0"/>
+      <c r="AEF65" s="0"/>
+      <c r="AEG65" s="0"/>
+      <c r="AEH65" s="0"/>
+      <c r="AEI65" s="0"/>
+      <c r="AEJ65" s="0"/>
+      <c r="AEK65" s="0"/>
+      <c r="AEL65" s="0"/>
+      <c r="AEM65" s="0"/>
+      <c r="AEN65" s="0"/>
+      <c r="AEO65" s="0"/>
+      <c r="AEP65" s="0"/>
+      <c r="AEQ65" s="0"/>
+      <c r="AER65" s="0"/>
+      <c r="AES65" s="0"/>
+      <c r="AET65" s="0"/>
+      <c r="AEU65" s="0"/>
+      <c r="AEV65" s="0"/>
+      <c r="AEW65" s="0"/>
+      <c r="AEX65" s="0"/>
+      <c r="AEY65" s="0"/>
+      <c r="AEZ65" s="0"/>
+      <c r="AFA65" s="0"/>
+      <c r="AFB65" s="0"/>
+      <c r="AFC65" s="0"/>
+      <c r="AFD65" s="0"/>
+      <c r="AFE65" s="0"/>
+      <c r="AFF65" s="0"/>
+      <c r="AFG65" s="0"/>
+      <c r="AFH65" s="0"/>
+      <c r="AFI65" s="0"/>
+      <c r="AFJ65" s="0"/>
+      <c r="AFK65" s="0"/>
+      <c r="AFL65" s="0"/>
+      <c r="AFM65" s="0"/>
+      <c r="AFN65" s="0"/>
+      <c r="AFO65" s="0"/>
+      <c r="AFP65" s="0"/>
+      <c r="AFQ65" s="0"/>
+      <c r="AFR65" s="0"/>
+      <c r="AFS65" s="0"/>
+      <c r="AFT65" s="0"/>
+      <c r="AFU65" s="0"/>
+      <c r="AFV65" s="0"/>
+      <c r="AFW65" s="0"/>
+      <c r="AFX65" s="0"/>
+      <c r="AFY65" s="0"/>
+      <c r="AFZ65" s="0"/>
+      <c r="AGA65" s="0"/>
+      <c r="AGB65" s="0"/>
+      <c r="AGC65" s="0"/>
+      <c r="AGD65" s="0"/>
+      <c r="AGE65" s="0"/>
+      <c r="AGF65" s="0"/>
+      <c r="AGG65" s="0"/>
+      <c r="AGH65" s="0"/>
+      <c r="AGI65" s="0"/>
+      <c r="AGJ65" s="0"/>
+      <c r="AGK65" s="0"/>
+      <c r="AGL65" s="0"/>
+      <c r="AGM65" s="0"/>
+      <c r="AGN65" s="0"/>
+      <c r="AGO65" s="0"/>
+      <c r="AGP65" s="0"/>
+      <c r="AGQ65" s="0"/>
+      <c r="AGR65" s="0"/>
+      <c r="AGS65" s="0"/>
+      <c r="AGT65" s="0"/>
+      <c r="AGU65" s="0"/>
+      <c r="AGV65" s="0"/>
+      <c r="AGW65" s="0"/>
+      <c r="AGX65" s="0"/>
+      <c r="AGY65" s="0"/>
+      <c r="AGZ65" s="0"/>
+      <c r="AHA65" s="0"/>
+      <c r="AHB65" s="0"/>
+      <c r="AHC65" s="0"/>
+      <c r="AHD65" s="0"/>
+      <c r="AHE65" s="0"/>
+      <c r="AHF65" s="0"/>
+      <c r="AHG65" s="0"/>
+      <c r="AHH65" s="0"/>
+      <c r="AHI65" s="0"/>
+      <c r="AHJ65" s="0"/>
+      <c r="AHK65" s="0"/>
+      <c r="AHL65" s="0"/>
+      <c r="AHM65" s="0"/>
+      <c r="AHN65" s="0"/>
+      <c r="AHO65" s="0"/>
+      <c r="AHP65" s="0"/>
+      <c r="AHQ65" s="0"/>
+      <c r="AHR65" s="0"/>
+      <c r="AHS65" s="0"/>
+      <c r="AHT65" s="0"/>
+      <c r="AHU65" s="0"/>
+      <c r="AHV65" s="0"/>
+      <c r="AHW65" s="0"/>
+      <c r="AHX65" s="0"/>
+      <c r="AHY65" s="0"/>
+      <c r="AHZ65" s="0"/>
+      <c r="AIA65" s="0"/>
+      <c r="AIB65" s="0"/>
+      <c r="AIC65" s="0"/>
+      <c r="AID65" s="0"/>
+      <c r="AIE65" s="0"/>
+      <c r="AIF65" s="0"/>
+      <c r="AIG65" s="0"/>
+      <c r="AIH65" s="0"/>
+      <c r="AII65" s="0"/>
+      <c r="AIJ65" s="0"/>
+      <c r="AIK65" s="0"/>
+      <c r="AIL65" s="0"/>
+      <c r="AIM65" s="0"/>
+      <c r="AIN65" s="0"/>
+      <c r="AIO65" s="0"/>
+      <c r="AIP65" s="0"/>
+      <c r="AIQ65" s="0"/>
+      <c r="AIR65" s="0"/>
+      <c r="AIS65" s="0"/>
+      <c r="AIT65" s="0"/>
+      <c r="AIU65" s="0"/>
+      <c r="AIV65" s="0"/>
+      <c r="AIW65" s="0"/>
+      <c r="AIX65" s="0"/>
+      <c r="AIY65" s="0"/>
+      <c r="AIZ65" s="0"/>
+      <c r="AJA65" s="0"/>
+      <c r="AJB65" s="0"/>
+      <c r="AJC65" s="0"/>
+      <c r="AJD65" s="0"/>
+      <c r="AJE65" s="0"/>
+      <c r="AJF65" s="0"/>
+      <c r="AJG65" s="0"/>
+      <c r="AJH65" s="0"/>
+      <c r="AJI65" s="0"/>
+      <c r="AJJ65" s="0"/>
+      <c r="AJK65" s="0"/>
+      <c r="AJL65" s="0"/>
+      <c r="AJM65" s="0"/>
+      <c r="AJN65" s="0"/>
+      <c r="AJO65" s="0"/>
+      <c r="AJP65" s="0"/>
+      <c r="AJQ65" s="0"/>
+      <c r="AJR65" s="0"/>
+      <c r="AJS65" s="0"/>
+      <c r="AJT65" s="0"/>
+      <c r="AJU65" s="0"/>
+      <c r="AJV65" s="0"/>
+      <c r="AJW65" s="0"/>
+      <c r="AJX65" s="0"/>
+      <c r="AJY65" s="0"/>
+      <c r="AJZ65" s="0"/>
+      <c r="AKA65" s="0"/>
+      <c r="AKB65" s="0"/>
+      <c r="AKC65" s="0"/>
+      <c r="AKD65" s="0"/>
+      <c r="AKE65" s="0"/>
+      <c r="AKF65" s="0"/>
+      <c r="AKG65" s="0"/>
+      <c r="AKH65" s="0"/>
+      <c r="AKI65" s="0"/>
+      <c r="AKJ65" s="0"/>
+      <c r="AKK65" s="0"/>
+      <c r="AKL65" s="0"/>
+      <c r="AKM65" s="0"/>
+      <c r="AKN65" s="0"/>
+      <c r="AKO65" s="0"/>
+      <c r="AKP65" s="0"/>
+      <c r="AKQ65" s="0"/>
+      <c r="AKR65" s="0"/>
+      <c r="AKS65" s="0"/>
+      <c r="AKT65" s="0"/>
+      <c r="AKU65" s="0"/>
+      <c r="AKV65" s="0"/>
+      <c r="AKW65" s="0"/>
+      <c r="AKX65" s="0"/>
+      <c r="AKY65" s="0"/>
+      <c r="AKZ65" s="0"/>
+      <c r="ALA65" s="0"/>
+      <c r="ALB65" s="0"/>
+      <c r="ALC65" s="0"/>
+      <c r="ALD65" s="0"/>
+      <c r="ALE65" s="0"/>
+      <c r="ALF65" s="0"/>
+      <c r="ALG65" s="0"/>
+      <c r="ALH65" s="0"/>
+      <c r="ALI65" s="0"/>
+      <c r="ALJ65" s="0"/>
+      <c r="ALK65" s="0"/>
+      <c r="ALL65" s="0"/>
+      <c r="ALM65" s="0"/>
+      <c r="ALN65" s="0"/>
+      <c r="ALO65" s="0"/>
+      <c r="ALP65" s="0"/>
+      <c r="ALQ65" s="0"/>
+      <c r="ALR65" s="0"/>
+      <c r="ALS65" s="0"/>
+      <c r="ALT65" s="0"/>
+      <c r="ALU65" s="0"/>
+      <c r="ALV65" s="0"/>
+      <c r="ALW65" s="0"/>
+      <c r="ALX65" s="0"/>
+      <c r="ALY65" s="0"/>
+      <c r="ALZ65" s="0"/>
+      <c r="AMA65" s="0"/>
+      <c r="AMB65" s="0"/>
+      <c r="AMC65" s="0"/>
+      <c r="AMD65" s="0"/>
+      <c r="AME65" s="0"/>
+      <c r="AMF65" s="0"/>
+      <c r="AMG65" s="0"/>
+      <c r="AMH65" s="0"/>
+      <c r="AMI65" s="0"/>
+      <c r="AMJ65" s="0"/>
+    </row>
+    <row r="66" s="20" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="9"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="27" t="s">
-        <v>92</v>
+      <c r="B68" s="9" t="s">
+        <v>61</v>
       </c>
-      <c r="C68" s="27" t="s">
-        <v>93</v>
-      </c>
+      <c r="C68" s="9"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
       <c r="B69" s="28" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
-      <c r="C69" s="28"/>
+      <c r="C69" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
       <c r="B70" s="29" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
-      <c r="C70" s="29" t="s">
-        <v>95</v>
-      </c>
+      <c r="C70" s="29"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="31" t="s">
-        <v>96</v>
-      </c>
+      <c r="B72" s="31"/>
       <c r="C72" s="31"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
@@ -63096,10 +64103,10 @@
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
       <c r="B73" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="32"/>
       <c r="D73" s="0"/>
@@ -63108,122 +64115,122 @@
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
+      <c r="B74" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="33"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
       <c r="F74" s="0"/>
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="B76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="9"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="33" t="s">
-        <v>98</v>
+      <c r="B77" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="C77" s="33"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
+      <c r="B78" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="34"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="36"/>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="3"/>
+    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="17" t="s">
-        <v>100</v>
+      <c r="B81" s="3" t="s">
+        <v>98</v>
       </c>
-      <c r="C81" s="17"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="B82" s="17" t="s">
-        <v>101</v>
+      <c r="B82" s="18" t="s">
+        <v>99</v>
       </c>
-      <c r="C82" s="17"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
+      <c r="B83" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="18"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C84" s="9"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
@@ -63232,37 +64239,35 @@
     </row>
     <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="38" t="s">
-        <v>103</v>
+      <c r="B85" s="9" t="s">
+        <v>101</v>
       </c>
-      <c r="C85" s="38"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
       <c r="B86" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
-      <c r="C86" s="39" t="s">
-        <v>105</v>
-      </c>
+      <c r="C86" s="39"/>
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
       <c r="B87" s="40" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D87" s="0"/>
       <c r="E87" s="0"/>
@@ -63270,13 +64275,13 @@
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="B88" s="40" t="s">
-        <v>108</v>
+      <c r="B88" s="41" t="s">
+        <v>105</v>
       </c>
-      <c r="C88" s="40" t="s">
-        <v>109</v>
+      <c r="C88" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="0"/>
@@ -63284,101 +64289,112 @@
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="41"/>
+      <c r="B89" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="0"/>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="42"/>
-      <c r="B90" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" s="44" t="s">
-        <v>112</v>
-      </c>
+      <c r="A90" s="0"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="42"/>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0"/>
-      <c r="B91" s="45" t="s">
-        <v>113</v>
+    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="43"/>
+      <c r="B91" s="44" t="s">
+        <v>109</v>
       </c>
-      <c r="C91" s="46" t="s">
-        <v>114</v>
+      <c r="C91" s="44" t="s">
+        <v>110</v>
       </c>
-      <c r="D91" s="47" t="s">
-        <v>115</v>
+      <c r="D91" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0"/>
-      <c r="B92" s="45" t="s">
-        <v>116</v>
+      <c r="B92" s="46" t="s">
+        <v>112</v>
       </c>
-      <c r="C92" s="46" t="s">
-        <v>117</v>
+      <c r="C92" s="47" t="s">
+        <v>113</v>
       </c>
-      <c r="D92" s="47" t="s">
-        <v>118</v>
+      <c r="D92" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="34"/>
-      <c r="B93" s="45" t="s">
-        <v>119</v>
+    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="46" t="s">
+        <v>115</v>
       </c>
-      <c r="C93" s="46" t="s">
-        <v>120</v>
+      <c r="C93" s="47" t="s">
+        <v>116</v>
       </c>
-      <c r="D93" s="47" t="s">
-        <v>121</v>
+      <c r="D93" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="47"/>
+    <row r="94" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="35"/>
+      <c r="B94" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="48" t="s">
+        <v>120</v>
+      </c>
       <c r="E94" s="0"/>
       <c r="F94" s="0"/>
       <c r="G94" s="0"/>
       <c r="H94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="42"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="0"/>
+    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="48" t="s">
+        <v>123</v>
+      </c>
       <c r="E95" s="0"/>
       <c r="F95" s="0"/>
       <c r="G95" s="0"/>
       <c r="H95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
       <c r="D96" s="0"/>
       <c r="E96" s="0"/>
       <c r="F96" s="0"/>
@@ -63386,411 +64402,421 @@
       <c r="H96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="42"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
+      <c r="B101" s="43"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="43"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="43"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="42"/>
-      <c r="C103" s="42"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
+      <c r="B106" s="43"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="43"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="42"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="42"/>
-      <c r="C108" s="42"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="42"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="42"/>
-      <c r="C111" s="42"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42"/>
-      <c r="F111" s="42"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
+      <c r="B111" s="43"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="43"/>
+      <c r="F111" s="43"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="42"/>
-      <c r="C112" s="42"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42"/>
-      <c r="F112" s="42"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
+      <c r="B112" s="43"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="42"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="42"/>
-      <c r="C114" s="42"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="42"/>
-      <c r="F114" s="42"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="42"/>
-      <c r="C116" s="42"/>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
+      <c r="B116" s="43"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="43"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
-      <c r="D117" s="42"/>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
+      <c r="B117" s="43"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="43"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="42"/>
-      <c r="C118" s="42"/>
-      <c r="D118" s="42"/>
-      <c r="E118" s="42"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
+      <c r="B118" s="43"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="43"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="42"/>
-      <c r="C119" s="42"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="42"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
+      <c r="B119" s="43"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="43"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="42"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="42"/>
-      <c r="H120" s="42"/>
+      <c r="B120" s="43"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="42"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42"/>
-      <c r="F121" s="42"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="42"/>
-      <c r="C123" s="42"/>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="42"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="42"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="42"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="43"/>
+      <c r="F124" s="43"/>
+      <c r="G124" s="43"/>
+      <c r="H124" s="43"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="42"/>
-      <c r="C125" s="42"/>
-      <c r="D125" s="42"/>
-      <c r="E125" s="42"/>
-      <c r="F125" s="42"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="42"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="42"/>
-      <c r="E126" s="42"/>
-      <c r="F126" s="42"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42"/>
-      <c r="F127" s="42"/>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="42"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42"/>
-      <c r="F128" s="42"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="42"/>
-      <c r="C129" s="42"/>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42"/>
-      <c r="F129" s="42"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="43"/>
+      <c r="G129" s="43"/>
+      <c r="H129" s="43"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="42"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="42"/>
-      <c r="E130" s="42"/>
-      <c r="F130" s="42"/>
-      <c r="G130" s="42"/>
-      <c r="H130" s="42"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="42"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42"/>
-      <c r="F131" s="42"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42"/>
-      <c r="F132" s="42"/>
-      <c r="G132" s="42"/>
-      <c r="H132" s="42"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="42"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42"/>
-      <c r="F133" s="42"/>
-      <c r="G133" s="42"/>
-      <c r="H133" s="42"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="42"/>
-      <c r="E134" s="42"/>
-      <c r="F134" s="42"/>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="43"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="43"/>
+      <c r="H134" s="43"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="42"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42"/>
-      <c r="F135" s="42"/>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="42"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42"/>
-      <c r="F136" s="42"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="42"/>
-      <c r="C137" s="42"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C79"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C91" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C93" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C92" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C94" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -63831,207 +64857,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="B5" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="49" t="s">
+      <c r="D5" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="49" t="s">
+      <c r="E5" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
+      <c r="F5" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="B6" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="D6" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="E6" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="F6" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="G6" s="51" t="s">
         <v>137</v>
+      </c>
+      <c r="H6" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="50" t="s">
+      <c r="B7" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="D7" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="51" t="s">
-        <v>34</v>
+      <c r="F7" s="53" t="s">
+        <v>144</v>
       </c>
-      <c r="I7" s="53" t="s">
-        <v>144</v>
+      <c r="G7" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="50" t="s">
+      <c r="B8" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="D8" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="F8" s="52" t="s">
         <v>151</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="C9" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="E9" s="54" t="s">
         <v>157</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="51" t="s">
-        <v>158</v>
+      <c r="B10" s="53" t="s">
+        <v>160</v>
       </c>
-      <c r="C10" s="51" t="s">
-        <v>159</v>
+      <c r="C10" s="53" t="s">
+        <v>161</v>
       </c>
-      <c r="I10" s="53" t="s">
-        <v>160</v>
+      <c r="I10" s="55" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="51" t="s">
-        <v>161</v>
+      <c r="B11" s="53" t="s">
+        <v>163</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>162</v>
+      <c r="C11" s="53" t="s">
+        <v>164</v>
       </c>
-      <c r="I11" s="54" t="s">
-        <v>163</v>
+      <c r="I11" s="56" t="s">
+        <v>165</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="51" t="s">
-        <v>164</v>
+      <c r="B12" s="53" t="s">
+        <v>166</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>165</v>
+      <c r="C12" s="53" t="s">
+        <v>167</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>166</v>
+      <c r="I12" s="56" t="s">
+        <v>168</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="51" t="s">
-        <v>167</v>
+      <c r="B13" s="53" t="s">
+        <v>169</v>
       </c>
-      <c r="I13" s="54" t="s">
-        <v>168</v>
+      <c r="I13" s="56" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="51" t="s">
-        <v>169</v>
+      <c r="B14" s="53" t="s">
+        <v>171</v>
       </c>
-      <c r="I14" s="54" t="s">
-        <v>170</v>
+      <c r="I14" s="56" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="51" t="s">
-        <v>171</v>
+      <c r="B18" s="53" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="50" t="s">
-        <v>123</v>
+      <c r="B19" s="52" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52" t="s">
-        <v>172</v>
+      <c r="B20" s="54" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -165,12 +165,6 @@
     <t>catalogo_productos</t>
   </si>
   <si>
-    <t>Matriz de conocimientos</t>
-  </si>
-  <si>
-    <t>matriz_conocimientos</t>
-  </si>
-  <si>
     <t>Cambios</t>
   </si>
   <si>
@@ -246,7 +240,7 @@
     <t>Reporte de monitoreo</t>
   </si>
   <si>
-    <t>Reporte_monitoreo_aammdd</t>
+    <t>Reporte_monitoreo_aaaa</t>
   </si>
   <si>
     <t>Minuta de monitoreo</t>
@@ -394,6 +388,15 @@
   </si>
   <si>
     <t>Muestra las compras solicitadas por el area de ventas</t>
+  </si>
+  <si>
+    <t>Matriz de conocimientos</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1MNfNP4Nf97BaMXH8HU4OVYLH-gKaGnq1NrkLBo0uYsE/edit?usp=drive_web</t>
+  </si>
+  <si>
+    <t>Muestra las habilidades de cada integrante de la empresa y que puede desempeñar cada uno</t>
   </si>
   <si>
     <t>Artefactos</t>
@@ -851,7 +854,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,6 +1059,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1158,10 +1165,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:138"/>
+  <dimension ref="1:137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -30043,1058 +30050,2077 @@
       </c>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="16" t="s">
+    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10"/>
+      <c r="B31" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+      <c r="AD31" s="0"/>
+      <c r="AE31" s="0"/>
+      <c r="AF31" s="0"/>
+      <c r="AG31" s="0"/>
+      <c r="AH31" s="0"/>
+      <c r="AI31" s="0"/>
+      <c r="AJ31" s="0"/>
+      <c r="AK31" s="0"/>
+      <c r="AL31" s="0"/>
+      <c r="AM31" s="0"/>
+      <c r="AN31" s="0"/>
+      <c r="AO31" s="0"/>
+      <c r="AP31" s="0"/>
+      <c r="AQ31" s="0"/>
+      <c r="AR31" s="0"/>
+      <c r="AS31" s="0"/>
+      <c r="AT31" s="0"/>
+      <c r="AU31" s="0"/>
+      <c r="AV31" s="0"/>
+      <c r="AW31" s="0"/>
+      <c r="AX31" s="0"/>
+      <c r="AY31" s="0"/>
+      <c r="AZ31" s="0"/>
+      <c r="BA31" s="0"/>
+      <c r="BB31" s="0"/>
+      <c r="BC31" s="0"/>
+      <c r="BD31" s="0"/>
+      <c r="BE31" s="0"/>
+      <c r="BF31" s="0"/>
+      <c r="BG31" s="0"/>
+      <c r="BH31" s="0"/>
+      <c r="BI31" s="0"/>
+      <c r="BJ31" s="0"/>
+      <c r="BK31" s="0"/>
+      <c r="BL31" s="0"/>
+      <c r="BM31" s="0"/>
+      <c r="BN31" s="0"/>
+      <c r="BO31" s="0"/>
+      <c r="BP31" s="0"/>
+      <c r="BQ31" s="0"/>
+      <c r="BR31" s="0"/>
+      <c r="BS31" s="0"/>
+      <c r="BT31" s="0"/>
+      <c r="BU31" s="0"/>
+      <c r="BV31" s="0"/>
+      <c r="BW31" s="0"/>
+      <c r="BX31" s="0"/>
+      <c r="BY31" s="0"/>
+      <c r="BZ31" s="0"/>
+      <c r="CA31" s="0"/>
+      <c r="CB31" s="0"/>
+      <c r="CC31" s="0"/>
+      <c r="CD31" s="0"/>
+      <c r="CE31" s="0"/>
+      <c r="CF31" s="0"/>
+      <c r="CG31" s="0"/>
+      <c r="CH31" s="0"/>
+      <c r="CI31" s="0"/>
+      <c r="CJ31" s="0"/>
+      <c r="CK31" s="0"/>
+      <c r="CL31" s="0"/>
+      <c r="CM31" s="0"/>
+      <c r="CN31" s="0"/>
+      <c r="CO31" s="0"/>
+      <c r="CP31" s="0"/>
+      <c r="CQ31" s="0"/>
+      <c r="CR31" s="0"/>
+      <c r="CS31" s="0"/>
+      <c r="CT31" s="0"/>
+      <c r="CU31" s="0"/>
+      <c r="CV31" s="0"/>
+      <c r="CW31" s="0"/>
+      <c r="CX31" s="0"/>
+      <c r="CY31" s="0"/>
+      <c r="CZ31" s="0"/>
+      <c r="DA31" s="0"/>
+      <c r="DB31" s="0"/>
+      <c r="DC31" s="0"/>
+      <c r="DD31" s="0"/>
+      <c r="DE31" s="0"/>
+      <c r="DF31" s="0"/>
+      <c r="DG31" s="0"/>
+      <c r="DH31" s="0"/>
+      <c r="DI31" s="0"/>
+      <c r="DJ31" s="0"/>
+      <c r="DK31" s="0"/>
+      <c r="DL31" s="0"/>
+      <c r="DM31" s="0"/>
+      <c r="DN31" s="0"/>
+      <c r="DO31" s="0"/>
+      <c r="DP31" s="0"/>
+      <c r="DQ31" s="0"/>
+      <c r="DR31" s="0"/>
+      <c r="DS31" s="0"/>
+      <c r="DT31" s="0"/>
+      <c r="DU31" s="0"/>
+      <c r="DV31" s="0"/>
+      <c r="DW31" s="0"/>
+      <c r="DX31" s="0"/>
+      <c r="DY31" s="0"/>
+      <c r="DZ31" s="0"/>
+      <c r="EA31" s="0"/>
+      <c r="EB31" s="0"/>
+      <c r="EC31" s="0"/>
+      <c r="ED31" s="0"/>
+      <c r="EE31" s="0"/>
+      <c r="EF31" s="0"/>
+      <c r="EG31" s="0"/>
+      <c r="EH31" s="0"/>
+      <c r="EI31" s="0"/>
+      <c r="EJ31" s="0"/>
+      <c r="EK31" s="0"/>
+      <c r="EL31" s="0"/>
+      <c r="EM31" s="0"/>
+      <c r="EN31" s="0"/>
+      <c r="EO31" s="0"/>
+      <c r="EP31" s="0"/>
+      <c r="EQ31" s="0"/>
+      <c r="ER31" s="0"/>
+      <c r="ES31" s="0"/>
+      <c r="ET31" s="0"/>
+      <c r="EU31" s="0"/>
+      <c r="EV31" s="0"/>
+      <c r="EW31" s="0"/>
+      <c r="EX31" s="0"/>
+      <c r="EY31" s="0"/>
+      <c r="EZ31" s="0"/>
+      <c r="FA31" s="0"/>
+      <c r="FB31" s="0"/>
+      <c r="FC31" s="0"/>
+      <c r="FD31" s="0"/>
+      <c r="FE31" s="0"/>
+      <c r="FF31" s="0"/>
+      <c r="FG31" s="0"/>
+      <c r="FH31" s="0"/>
+      <c r="FI31" s="0"/>
+      <c r="FJ31" s="0"/>
+      <c r="FK31" s="0"/>
+      <c r="FL31" s="0"/>
+      <c r="FM31" s="0"/>
+      <c r="FN31" s="0"/>
+      <c r="FO31" s="0"/>
+      <c r="FP31" s="0"/>
+      <c r="FQ31" s="0"/>
+      <c r="FR31" s="0"/>
+      <c r="FS31" s="0"/>
+      <c r="FT31" s="0"/>
+      <c r="FU31" s="0"/>
+      <c r="FV31" s="0"/>
+      <c r="FW31" s="0"/>
+      <c r="FX31" s="0"/>
+      <c r="FY31" s="0"/>
+      <c r="FZ31" s="0"/>
+      <c r="GA31" s="0"/>
+      <c r="GB31" s="0"/>
+      <c r="GC31" s="0"/>
+      <c r="GD31" s="0"/>
+      <c r="GE31" s="0"/>
+      <c r="GF31" s="0"/>
+      <c r="GG31" s="0"/>
+      <c r="GH31" s="0"/>
+      <c r="GI31" s="0"/>
+      <c r="GJ31" s="0"/>
+      <c r="GK31" s="0"/>
+      <c r="GL31" s="0"/>
+      <c r="GM31" s="0"/>
+      <c r="GN31" s="0"/>
+      <c r="GO31" s="0"/>
+      <c r="GP31" s="0"/>
+      <c r="GQ31" s="0"/>
+      <c r="GR31" s="0"/>
+      <c r="GS31" s="0"/>
+      <c r="GT31" s="0"/>
+      <c r="GU31" s="0"/>
+      <c r="GV31" s="0"/>
+      <c r="GW31" s="0"/>
+      <c r="GX31" s="0"/>
+      <c r="GY31" s="0"/>
+      <c r="GZ31" s="0"/>
+      <c r="HA31" s="0"/>
+      <c r="HB31" s="0"/>
+      <c r="HC31" s="0"/>
+      <c r="HD31" s="0"/>
+      <c r="HE31" s="0"/>
+      <c r="HF31" s="0"/>
+      <c r="HG31" s="0"/>
+      <c r="HH31" s="0"/>
+      <c r="HI31" s="0"/>
+      <c r="HJ31" s="0"/>
+      <c r="HK31" s="0"/>
+      <c r="HL31" s="0"/>
+      <c r="HM31" s="0"/>
+      <c r="HN31" s="0"/>
+      <c r="HO31" s="0"/>
+      <c r="HP31" s="0"/>
+      <c r="HQ31" s="0"/>
+      <c r="HR31" s="0"/>
+      <c r="HS31" s="0"/>
+      <c r="HT31" s="0"/>
+      <c r="HU31" s="0"/>
+      <c r="HV31" s="0"/>
+      <c r="HW31" s="0"/>
+      <c r="HX31" s="0"/>
+      <c r="HY31" s="0"/>
+      <c r="HZ31" s="0"/>
+      <c r="IA31" s="0"/>
+      <c r="IB31" s="0"/>
+      <c r="IC31" s="0"/>
+      <c r="ID31" s="0"/>
+      <c r="IE31" s="0"/>
+      <c r="IF31" s="0"/>
+      <c r="IG31" s="0"/>
+      <c r="IH31" s="0"/>
+      <c r="II31" s="0"/>
+      <c r="IJ31" s="0"/>
+      <c r="IK31" s="0"/>
+      <c r="IL31" s="0"/>
+      <c r="IM31" s="0"/>
+      <c r="IN31" s="0"/>
+      <c r="IO31" s="0"/>
+      <c r="IP31" s="0"/>
+      <c r="IQ31" s="0"/>
+      <c r="IR31" s="0"/>
+      <c r="IS31" s="0"/>
+      <c r="IT31" s="0"/>
+      <c r="IU31" s="0"/>
+      <c r="IV31" s="0"/>
+      <c r="IW31" s="0"/>
+      <c r="IX31" s="0"/>
+      <c r="IY31" s="0"/>
+      <c r="IZ31" s="0"/>
+      <c r="JA31" s="0"/>
+      <c r="JB31" s="0"/>
+      <c r="JC31" s="0"/>
+      <c r="JD31" s="0"/>
+      <c r="JE31" s="0"/>
+      <c r="JF31" s="0"/>
+      <c r="JG31" s="0"/>
+      <c r="JH31" s="0"/>
+      <c r="JI31" s="0"/>
+      <c r="JJ31" s="0"/>
+      <c r="JK31" s="0"/>
+      <c r="JL31" s="0"/>
+      <c r="JM31" s="0"/>
+      <c r="JN31" s="0"/>
+      <c r="JO31" s="0"/>
+      <c r="JP31" s="0"/>
+      <c r="JQ31" s="0"/>
+      <c r="JR31" s="0"/>
+      <c r="JS31" s="0"/>
+      <c r="JT31" s="0"/>
+      <c r="JU31" s="0"/>
+      <c r="JV31" s="0"/>
+      <c r="JW31" s="0"/>
+      <c r="JX31" s="0"/>
+      <c r="JY31" s="0"/>
+      <c r="JZ31" s="0"/>
+      <c r="KA31" s="0"/>
+      <c r="KB31" s="0"/>
+      <c r="KC31" s="0"/>
+      <c r="KD31" s="0"/>
+      <c r="KE31" s="0"/>
+      <c r="KF31" s="0"/>
+      <c r="KG31" s="0"/>
+      <c r="KH31" s="0"/>
+      <c r="KI31" s="0"/>
+      <c r="KJ31" s="0"/>
+      <c r="KK31" s="0"/>
+      <c r="KL31" s="0"/>
+      <c r="KM31" s="0"/>
+      <c r="KN31" s="0"/>
+      <c r="KO31" s="0"/>
+      <c r="KP31" s="0"/>
+      <c r="KQ31" s="0"/>
+      <c r="KR31" s="0"/>
+      <c r="KS31" s="0"/>
+      <c r="KT31" s="0"/>
+      <c r="KU31" s="0"/>
+      <c r="KV31" s="0"/>
+      <c r="KW31" s="0"/>
+      <c r="KX31" s="0"/>
+      <c r="KY31" s="0"/>
+      <c r="KZ31" s="0"/>
+      <c r="LA31" s="0"/>
+      <c r="LB31" s="0"/>
+      <c r="LC31" s="0"/>
+      <c r="LD31" s="0"/>
+      <c r="LE31" s="0"/>
+      <c r="LF31" s="0"/>
+      <c r="LG31" s="0"/>
+      <c r="LH31" s="0"/>
+      <c r="LI31" s="0"/>
+      <c r="LJ31" s="0"/>
+      <c r="LK31" s="0"/>
+      <c r="LL31" s="0"/>
+      <c r="LM31" s="0"/>
+      <c r="LN31" s="0"/>
+      <c r="LO31" s="0"/>
+      <c r="LP31" s="0"/>
+      <c r="LQ31" s="0"/>
+      <c r="LR31" s="0"/>
+      <c r="LS31" s="0"/>
+      <c r="LT31" s="0"/>
+      <c r="LU31" s="0"/>
+      <c r="LV31" s="0"/>
+      <c r="LW31" s="0"/>
+      <c r="LX31" s="0"/>
+      <c r="LY31" s="0"/>
+      <c r="LZ31" s="0"/>
+      <c r="MA31" s="0"/>
+      <c r="MB31" s="0"/>
+      <c r="MC31" s="0"/>
+      <c r="MD31" s="0"/>
+      <c r="ME31" s="0"/>
+      <c r="MF31" s="0"/>
+      <c r="MG31" s="0"/>
+      <c r="MH31" s="0"/>
+      <c r="MI31" s="0"/>
+      <c r="MJ31" s="0"/>
+      <c r="MK31" s="0"/>
+      <c r="ML31" s="0"/>
+      <c r="MM31" s="0"/>
+      <c r="MN31" s="0"/>
+      <c r="MO31" s="0"/>
+      <c r="MP31" s="0"/>
+      <c r="MQ31" s="0"/>
+      <c r="MR31" s="0"/>
+      <c r="MS31" s="0"/>
+      <c r="MT31" s="0"/>
+      <c r="MU31" s="0"/>
+      <c r="MV31" s="0"/>
+      <c r="MW31" s="0"/>
+      <c r="MX31" s="0"/>
+      <c r="MY31" s="0"/>
+      <c r="MZ31" s="0"/>
+      <c r="NA31" s="0"/>
+      <c r="NB31" s="0"/>
+      <c r="NC31" s="0"/>
+      <c r="ND31" s="0"/>
+      <c r="NE31" s="0"/>
+      <c r="NF31" s="0"/>
+      <c r="NG31" s="0"/>
+      <c r="NH31" s="0"/>
+      <c r="NI31" s="0"/>
+      <c r="NJ31" s="0"/>
+      <c r="NK31" s="0"/>
+      <c r="NL31" s="0"/>
+      <c r="NM31" s="0"/>
+      <c r="NN31" s="0"/>
+      <c r="NO31" s="0"/>
+      <c r="NP31" s="0"/>
+      <c r="NQ31" s="0"/>
+      <c r="NR31" s="0"/>
+      <c r="NS31" s="0"/>
+      <c r="NT31" s="0"/>
+      <c r="NU31" s="0"/>
+      <c r="NV31" s="0"/>
+      <c r="NW31" s="0"/>
+      <c r="NX31" s="0"/>
+      <c r="NY31" s="0"/>
+      <c r="NZ31" s="0"/>
+      <c r="OA31" s="0"/>
+      <c r="OB31" s="0"/>
+      <c r="OC31" s="0"/>
+      <c r="OD31" s="0"/>
+      <c r="OE31" s="0"/>
+      <c r="OF31" s="0"/>
+      <c r="OG31" s="0"/>
+      <c r="OH31" s="0"/>
+      <c r="OI31" s="0"/>
+      <c r="OJ31" s="0"/>
+      <c r="OK31" s="0"/>
+      <c r="OL31" s="0"/>
+      <c r="OM31" s="0"/>
+      <c r="ON31" s="0"/>
+      <c r="OO31" s="0"/>
+      <c r="OP31" s="0"/>
+      <c r="OQ31" s="0"/>
+      <c r="OR31" s="0"/>
+      <c r="OS31" s="0"/>
+      <c r="OT31" s="0"/>
+      <c r="OU31" s="0"/>
+      <c r="OV31" s="0"/>
+      <c r="OW31" s="0"/>
+      <c r="OX31" s="0"/>
+      <c r="OY31" s="0"/>
+      <c r="OZ31" s="0"/>
+      <c r="PA31" s="0"/>
+      <c r="PB31" s="0"/>
+      <c r="PC31" s="0"/>
+      <c r="PD31" s="0"/>
+      <c r="PE31" s="0"/>
+      <c r="PF31" s="0"/>
+      <c r="PG31" s="0"/>
+      <c r="PH31" s="0"/>
+      <c r="PI31" s="0"/>
+      <c r="PJ31" s="0"/>
+      <c r="PK31" s="0"/>
+      <c r="PL31" s="0"/>
+      <c r="PM31" s="0"/>
+      <c r="PN31" s="0"/>
+      <c r="PO31" s="0"/>
+      <c r="PP31" s="0"/>
+      <c r="PQ31" s="0"/>
+      <c r="PR31" s="0"/>
+      <c r="PS31" s="0"/>
+      <c r="PT31" s="0"/>
+      <c r="PU31" s="0"/>
+      <c r="PV31" s="0"/>
+      <c r="PW31" s="0"/>
+      <c r="PX31" s="0"/>
+      <c r="PY31" s="0"/>
+      <c r="PZ31" s="0"/>
+      <c r="QA31" s="0"/>
+      <c r="QB31" s="0"/>
+      <c r="QC31" s="0"/>
+      <c r="QD31" s="0"/>
+      <c r="QE31" s="0"/>
+      <c r="QF31" s="0"/>
+      <c r="QG31" s="0"/>
+      <c r="QH31" s="0"/>
+      <c r="QI31" s="0"/>
+      <c r="QJ31" s="0"/>
+      <c r="QK31" s="0"/>
+      <c r="QL31" s="0"/>
+      <c r="QM31" s="0"/>
+      <c r="QN31" s="0"/>
+      <c r="QO31" s="0"/>
+      <c r="QP31" s="0"/>
+      <c r="QQ31" s="0"/>
+      <c r="QR31" s="0"/>
+      <c r="QS31" s="0"/>
+      <c r="QT31" s="0"/>
+      <c r="QU31" s="0"/>
+      <c r="QV31" s="0"/>
+      <c r="QW31" s="0"/>
+      <c r="QX31" s="0"/>
+      <c r="QY31" s="0"/>
+      <c r="QZ31" s="0"/>
+      <c r="RA31" s="0"/>
+      <c r="RB31" s="0"/>
+      <c r="RC31" s="0"/>
+      <c r="RD31" s="0"/>
+      <c r="RE31" s="0"/>
+      <c r="RF31" s="0"/>
+      <c r="RG31" s="0"/>
+      <c r="RH31" s="0"/>
+      <c r="RI31" s="0"/>
+      <c r="RJ31" s="0"/>
+      <c r="RK31" s="0"/>
+      <c r="RL31" s="0"/>
+      <c r="RM31" s="0"/>
+      <c r="RN31" s="0"/>
+      <c r="RO31" s="0"/>
+      <c r="RP31" s="0"/>
+      <c r="RQ31" s="0"/>
+      <c r="RR31" s="0"/>
+      <c r="RS31" s="0"/>
+      <c r="RT31" s="0"/>
+      <c r="RU31" s="0"/>
+      <c r="RV31" s="0"/>
+      <c r="RW31" s="0"/>
+      <c r="RX31" s="0"/>
+      <c r="RY31" s="0"/>
+      <c r="RZ31" s="0"/>
+      <c r="SA31" s="0"/>
+      <c r="SB31" s="0"/>
+      <c r="SC31" s="0"/>
+      <c r="SD31" s="0"/>
+      <c r="SE31" s="0"/>
+      <c r="SF31" s="0"/>
+      <c r="SG31" s="0"/>
+      <c r="SH31" s="0"/>
+      <c r="SI31" s="0"/>
+      <c r="SJ31" s="0"/>
+      <c r="SK31" s="0"/>
+      <c r="SL31" s="0"/>
+      <c r="SM31" s="0"/>
+      <c r="SN31" s="0"/>
+      <c r="SO31" s="0"/>
+      <c r="SP31" s="0"/>
+      <c r="SQ31" s="0"/>
+      <c r="SR31" s="0"/>
+      <c r="SS31" s="0"/>
+      <c r="ST31" s="0"/>
+      <c r="SU31" s="0"/>
+      <c r="SV31" s="0"/>
+      <c r="SW31" s="0"/>
+      <c r="SX31" s="0"/>
+      <c r="SY31" s="0"/>
+      <c r="SZ31" s="0"/>
+      <c r="TA31" s="0"/>
+      <c r="TB31" s="0"/>
+      <c r="TC31" s="0"/>
+      <c r="TD31" s="0"/>
+      <c r="TE31" s="0"/>
+      <c r="TF31" s="0"/>
+      <c r="TG31" s="0"/>
+      <c r="TH31" s="0"/>
+      <c r="TI31" s="0"/>
+      <c r="TJ31" s="0"/>
+      <c r="TK31" s="0"/>
+      <c r="TL31" s="0"/>
+      <c r="TM31" s="0"/>
+      <c r="TN31" s="0"/>
+      <c r="TO31" s="0"/>
+      <c r="TP31" s="0"/>
+      <c r="TQ31" s="0"/>
+      <c r="TR31" s="0"/>
+      <c r="TS31" s="0"/>
+      <c r="TT31" s="0"/>
+      <c r="TU31" s="0"/>
+      <c r="TV31" s="0"/>
+      <c r="TW31" s="0"/>
+      <c r="TX31" s="0"/>
+      <c r="TY31" s="0"/>
+      <c r="TZ31" s="0"/>
+      <c r="UA31" s="0"/>
+      <c r="UB31" s="0"/>
+      <c r="UC31" s="0"/>
+      <c r="UD31" s="0"/>
+      <c r="UE31" s="0"/>
+      <c r="UF31" s="0"/>
+      <c r="UG31" s="0"/>
+      <c r="UH31" s="0"/>
+      <c r="UI31" s="0"/>
+      <c r="UJ31" s="0"/>
+      <c r="UK31" s="0"/>
+      <c r="UL31" s="0"/>
+      <c r="UM31" s="0"/>
+      <c r="UN31" s="0"/>
+      <c r="UO31" s="0"/>
+      <c r="UP31" s="0"/>
+      <c r="UQ31" s="0"/>
+      <c r="UR31" s="0"/>
+      <c r="US31" s="0"/>
+      <c r="UT31" s="0"/>
+      <c r="UU31" s="0"/>
+      <c r="UV31" s="0"/>
+      <c r="UW31" s="0"/>
+      <c r="UX31" s="0"/>
+      <c r="UY31" s="0"/>
+      <c r="UZ31" s="0"/>
+      <c r="VA31" s="0"/>
+      <c r="VB31" s="0"/>
+      <c r="VC31" s="0"/>
+      <c r="VD31" s="0"/>
+      <c r="VE31" s="0"/>
+      <c r="VF31" s="0"/>
+      <c r="VG31" s="0"/>
+      <c r="VH31" s="0"/>
+      <c r="VI31" s="0"/>
+      <c r="VJ31" s="0"/>
+      <c r="VK31" s="0"/>
+      <c r="VL31" s="0"/>
+      <c r="VM31" s="0"/>
+      <c r="VN31" s="0"/>
+      <c r="VO31" s="0"/>
+      <c r="VP31" s="0"/>
+      <c r="VQ31" s="0"/>
+      <c r="VR31" s="0"/>
+      <c r="VS31" s="0"/>
+      <c r="VT31" s="0"/>
+      <c r="VU31" s="0"/>
+      <c r="VV31" s="0"/>
+      <c r="VW31" s="0"/>
+      <c r="VX31" s="0"/>
+      <c r="VY31" s="0"/>
+      <c r="VZ31" s="0"/>
+      <c r="WA31" s="0"/>
+      <c r="WB31" s="0"/>
+      <c r="WC31" s="0"/>
+      <c r="WD31" s="0"/>
+      <c r="WE31" s="0"/>
+      <c r="WF31" s="0"/>
+      <c r="WG31" s="0"/>
+      <c r="WH31" s="0"/>
+      <c r="WI31" s="0"/>
+      <c r="WJ31" s="0"/>
+      <c r="WK31" s="0"/>
+      <c r="WL31" s="0"/>
+      <c r="WM31" s="0"/>
+      <c r="WN31" s="0"/>
+      <c r="WO31" s="0"/>
+      <c r="WP31" s="0"/>
+      <c r="WQ31" s="0"/>
+      <c r="WR31" s="0"/>
+      <c r="WS31" s="0"/>
+      <c r="WT31" s="0"/>
+      <c r="WU31" s="0"/>
+      <c r="WV31" s="0"/>
+      <c r="WW31" s="0"/>
+      <c r="WX31" s="0"/>
+      <c r="WY31" s="0"/>
+      <c r="WZ31" s="0"/>
+      <c r="XA31" s="0"/>
+      <c r="XB31" s="0"/>
+      <c r="XC31" s="0"/>
+      <c r="XD31" s="0"/>
+      <c r="XE31" s="0"/>
+      <c r="XF31" s="0"/>
+      <c r="XG31" s="0"/>
+      <c r="XH31" s="0"/>
+      <c r="XI31" s="0"/>
+      <c r="XJ31" s="0"/>
+      <c r="XK31" s="0"/>
+      <c r="XL31" s="0"/>
+      <c r="XM31" s="0"/>
+      <c r="XN31" s="0"/>
+      <c r="XO31" s="0"/>
+      <c r="XP31" s="0"/>
+      <c r="XQ31" s="0"/>
+      <c r="XR31" s="0"/>
+      <c r="XS31" s="0"/>
+      <c r="XT31" s="0"/>
+      <c r="XU31" s="0"/>
+      <c r="XV31" s="0"/>
+      <c r="XW31" s="0"/>
+      <c r="XX31" s="0"/>
+      <c r="XY31" s="0"/>
+      <c r="XZ31" s="0"/>
+      <c r="YA31" s="0"/>
+      <c r="YB31" s="0"/>
+      <c r="YC31" s="0"/>
+      <c r="YD31" s="0"/>
+      <c r="YE31" s="0"/>
+      <c r="YF31" s="0"/>
+      <c r="YG31" s="0"/>
+      <c r="YH31" s="0"/>
+      <c r="YI31" s="0"/>
+      <c r="YJ31" s="0"/>
+      <c r="YK31" s="0"/>
+      <c r="YL31" s="0"/>
+      <c r="YM31" s="0"/>
+      <c r="YN31" s="0"/>
+      <c r="YO31" s="0"/>
+      <c r="YP31" s="0"/>
+      <c r="YQ31" s="0"/>
+      <c r="YR31" s="0"/>
+      <c r="YS31" s="0"/>
+      <c r="YT31" s="0"/>
+      <c r="YU31" s="0"/>
+      <c r="YV31" s="0"/>
+      <c r="YW31" s="0"/>
+      <c r="YX31" s="0"/>
+      <c r="YY31" s="0"/>
+      <c r="YZ31" s="0"/>
+      <c r="ZA31" s="0"/>
+      <c r="ZB31" s="0"/>
+      <c r="ZC31" s="0"/>
+      <c r="ZD31" s="0"/>
+      <c r="ZE31" s="0"/>
+      <c r="ZF31" s="0"/>
+      <c r="ZG31" s="0"/>
+      <c r="ZH31" s="0"/>
+      <c r="ZI31" s="0"/>
+      <c r="ZJ31" s="0"/>
+      <c r="ZK31" s="0"/>
+      <c r="ZL31" s="0"/>
+      <c r="ZM31" s="0"/>
+      <c r="ZN31" s="0"/>
+      <c r="ZO31" s="0"/>
+      <c r="ZP31" s="0"/>
+      <c r="ZQ31" s="0"/>
+      <c r="ZR31" s="0"/>
+      <c r="ZS31" s="0"/>
+      <c r="ZT31" s="0"/>
+      <c r="ZU31" s="0"/>
+      <c r="ZV31" s="0"/>
+      <c r="ZW31" s="0"/>
+      <c r="ZX31" s="0"/>
+      <c r="ZY31" s="0"/>
+      <c r="ZZ31" s="0"/>
+      <c r="AAA31" s="0"/>
+      <c r="AAB31" s="0"/>
+      <c r="AAC31" s="0"/>
+      <c r="AAD31" s="0"/>
+      <c r="AAE31" s="0"/>
+      <c r="AAF31" s="0"/>
+      <c r="AAG31" s="0"/>
+      <c r="AAH31" s="0"/>
+      <c r="AAI31" s="0"/>
+      <c r="AAJ31" s="0"/>
+      <c r="AAK31" s="0"/>
+      <c r="AAL31" s="0"/>
+      <c r="AAM31" s="0"/>
+      <c r="AAN31" s="0"/>
+      <c r="AAO31" s="0"/>
+      <c r="AAP31" s="0"/>
+      <c r="AAQ31" s="0"/>
+      <c r="AAR31" s="0"/>
+      <c r="AAS31" s="0"/>
+      <c r="AAT31" s="0"/>
+      <c r="AAU31" s="0"/>
+      <c r="AAV31" s="0"/>
+      <c r="AAW31" s="0"/>
+      <c r="AAX31" s="0"/>
+      <c r="AAY31" s="0"/>
+      <c r="AAZ31" s="0"/>
+      <c r="ABA31" s="0"/>
+      <c r="ABB31" s="0"/>
+      <c r="ABC31" s="0"/>
+      <c r="ABD31" s="0"/>
+      <c r="ABE31" s="0"/>
+      <c r="ABF31" s="0"/>
+      <c r="ABG31" s="0"/>
+      <c r="ABH31" s="0"/>
+      <c r="ABI31" s="0"/>
+      <c r="ABJ31" s="0"/>
+      <c r="ABK31" s="0"/>
+      <c r="ABL31" s="0"/>
+      <c r="ABM31" s="0"/>
+      <c r="ABN31" s="0"/>
+      <c r="ABO31" s="0"/>
+      <c r="ABP31" s="0"/>
+      <c r="ABQ31" s="0"/>
+      <c r="ABR31" s="0"/>
+      <c r="ABS31" s="0"/>
+      <c r="ABT31" s="0"/>
+      <c r="ABU31" s="0"/>
+      <c r="ABV31" s="0"/>
+      <c r="ABW31" s="0"/>
+      <c r="ABX31" s="0"/>
+      <c r="ABY31" s="0"/>
+      <c r="ABZ31" s="0"/>
+      <c r="ACA31" s="0"/>
+      <c r="ACB31" s="0"/>
+      <c r="ACC31" s="0"/>
+      <c r="ACD31" s="0"/>
+      <c r="ACE31" s="0"/>
+      <c r="ACF31" s="0"/>
+      <c r="ACG31" s="0"/>
+      <c r="ACH31" s="0"/>
+      <c r="ACI31" s="0"/>
+      <c r="ACJ31" s="0"/>
+      <c r="ACK31" s="0"/>
+      <c r="ACL31" s="0"/>
+      <c r="ACM31" s="0"/>
+      <c r="ACN31" s="0"/>
+      <c r="ACO31" s="0"/>
+      <c r="ACP31" s="0"/>
+      <c r="ACQ31" s="0"/>
+      <c r="ACR31" s="0"/>
+      <c r="ACS31" s="0"/>
+      <c r="ACT31" s="0"/>
+      <c r="ACU31" s="0"/>
+      <c r="ACV31" s="0"/>
+      <c r="ACW31" s="0"/>
+      <c r="ACX31" s="0"/>
+      <c r="ACY31" s="0"/>
+      <c r="ACZ31" s="0"/>
+      <c r="ADA31" s="0"/>
+      <c r="ADB31" s="0"/>
+      <c r="ADC31" s="0"/>
+      <c r="ADD31" s="0"/>
+      <c r="ADE31" s="0"/>
+      <c r="ADF31" s="0"/>
+      <c r="ADG31" s="0"/>
+      <c r="ADH31" s="0"/>
+      <c r="ADI31" s="0"/>
+      <c r="ADJ31" s="0"/>
+      <c r="ADK31" s="0"/>
+      <c r="ADL31" s="0"/>
+      <c r="ADM31" s="0"/>
+      <c r="ADN31" s="0"/>
+      <c r="ADO31" s="0"/>
+      <c r="ADP31" s="0"/>
+      <c r="ADQ31" s="0"/>
+      <c r="ADR31" s="0"/>
+      <c r="ADS31" s="0"/>
+      <c r="ADT31" s="0"/>
+      <c r="ADU31" s="0"/>
+      <c r="ADV31" s="0"/>
+      <c r="ADW31" s="0"/>
+      <c r="ADX31" s="0"/>
+      <c r="ADY31" s="0"/>
+      <c r="ADZ31" s="0"/>
+      <c r="AEA31" s="0"/>
+      <c r="AEB31" s="0"/>
+      <c r="AEC31" s="0"/>
+      <c r="AED31" s="0"/>
+      <c r="AEE31" s="0"/>
+      <c r="AEF31" s="0"/>
+      <c r="AEG31" s="0"/>
+      <c r="AEH31" s="0"/>
+      <c r="AEI31" s="0"/>
+      <c r="AEJ31" s="0"/>
+      <c r="AEK31" s="0"/>
+      <c r="AEL31" s="0"/>
+      <c r="AEM31" s="0"/>
+      <c r="AEN31" s="0"/>
+      <c r="AEO31" s="0"/>
+      <c r="AEP31" s="0"/>
+      <c r="AEQ31" s="0"/>
+      <c r="AER31" s="0"/>
+      <c r="AES31" s="0"/>
+      <c r="AET31" s="0"/>
+      <c r="AEU31" s="0"/>
+      <c r="AEV31" s="0"/>
+      <c r="AEW31" s="0"/>
+      <c r="AEX31" s="0"/>
+      <c r="AEY31" s="0"/>
+      <c r="AEZ31" s="0"/>
+      <c r="AFA31" s="0"/>
+      <c r="AFB31" s="0"/>
+      <c r="AFC31" s="0"/>
+      <c r="AFD31" s="0"/>
+      <c r="AFE31" s="0"/>
+      <c r="AFF31" s="0"/>
+      <c r="AFG31" s="0"/>
+      <c r="AFH31" s="0"/>
+      <c r="AFI31" s="0"/>
+      <c r="AFJ31" s="0"/>
+      <c r="AFK31" s="0"/>
+      <c r="AFL31" s="0"/>
+      <c r="AFM31" s="0"/>
+      <c r="AFN31" s="0"/>
+      <c r="AFO31" s="0"/>
+      <c r="AFP31" s="0"/>
+      <c r="AFQ31" s="0"/>
+      <c r="AFR31" s="0"/>
+      <c r="AFS31" s="0"/>
+      <c r="AFT31" s="0"/>
+      <c r="AFU31" s="0"/>
+      <c r="AFV31" s="0"/>
+      <c r="AFW31" s="0"/>
+      <c r="AFX31" s="0"/>
+      <c r="AFY31" s="0"/>
+      <c r="AFZ31" s="0"/>
+      <c r="AGA31" s="0"/>
+      <c r="AGB31" s="0"/>
+      <c r="AGC31" s="0"/>
+      <c r="AGD31" s="0"/>
+      <c r="AGE31" s="0"/>
+      <c r="AGF31" s="0"/>
+      <c r="AGG31" s="0"/>
+      <c r="AGH31" s="0"/>
+      <c r="AGI31" s="0"/>
+      <c r="AGJ31" s="0"/>
+      <c r="AGK31" s="0"/>
+      <c r="AGL31" s="0"/>
+      <c r="AGM31" s="0"/>
+      <c r="AGN31" s="0"/>
+      <c r="AGO31" s="0"/>
+      <c r="AGP31" s="0"/>
+      <c r="AGQ31" s="0"/>
+      <c r="AGR31" s="0"/>
+      <c r="AGS31" s="0"/>
+      <c r="AGT31" s="0"/>
+      <c r="AGU31" s="0"/>
+      <c r="AGV31" s="0"/>
+      <c r="AGW31" s="0"/>
+      <c r="AGX31" s="0"/>
+      <c r="AGY31" s="0"/>
+      <c r="AGZ31" s="0"/>
+      <c r="AHA31" s="0"/>
+      <c r="AHB31" s="0"/>
+      <c r="AHC31" s="0"/>
+      <c r="AHD31" s="0"/>
+      <c r="AHE31" s="0"/>
+      <c r="AHF31" s="0"/>
+      <c r="AHG31" s="0"/>
+      <c r="AHH31" s="0"/>
+      <c r="AHI31" s="0"/>
+      <c r="AHJ31" s="0"/>
+      <c r="AHK31" s="0"/>
+      <c r="AHL31" s="0"/>
+      <c r="AHM31" s="0"/>
+      <c r="AHN31" s="0"/>
+      <c r="AHO31" s="0"/>
+      <c r="AHP31" s="0"/>
+      <c r="AHQ31" s="0"/>
+      <c r="AHR31" s="0"/>
+      <c r="AHS31" s="0"/>
+      <c r="AHT31" s="0"/>
+      <c r="AHU31" s="0"/>
+      <c r="AHV31" s="0"/>
+      <c r="AHW31" s="0"/>
+      <c r="AHX31" s="0"/>
+      <c r="AHY31" s="0"/>
+      <c r="AHZ31" s="0"/>
+      <c r="AIA31" s="0"/>
+      <c r="AIB31" s="0"/>
+      <c r="AIC31" s="0"/>
+      <c r="AID31" s="0"/>
+      <c r="AIE31" s="0"/>
+      <c r="AIF31" s="0"/>
+      <c r="AIG31" s="0"/>
+      <c r="AIH31" s="0"/>
+      <c r="AII31" s="0"/>
+      <c r="AIJ31" s="0"/>
+      <c r="AIK31" s="0"/>
+      <c r="AIL31" s="0"/>
+      <c r="AIM31" s="0"/>
+      <c r="AIN31" s="0"/>
+      <c r="AIO31" s="0"/>
+      <c r="AIP31" s="0"/>
+      <c r="AIQ31" s="0"/>
+      <c r="AIR31" s="0"/>
+      <c r="AIS31" s="0"/>
+      <c r="AIT31" s="0"/>
+      <c r="AIU31" s="0"/>
+      <c r="AIV31" s="0"/>
+      <c r="AIW31" s="0"/>
+      <c r="AIX31" s="0"/>
+      <c r="AIY31" s="0"/>
+      <c r="AIZ31" s="0"/>
+      <c r="AJA31" s="0"/>
+      <c r="AJB31" s="0"/>
+      <c r="AJC31" s="0"/>
+      <c r="AJD31" s="0"/>
+      <c r="AJE31" s="0"/>
+      <c r="AJF31" s="0"/>
+      <c r="AJG31" s="0"/>
+      <c r="AJH31" s="0"/>
+      <c r="AJI31" s="0"/>
+      <c r="AJJ31" s="0"/>
+      <c r="AJK31" s="0"/>
+      <c r="AJL31" s="0"/>
+      <c r="AJM31" s="0"/>
+      <c r="AJN31" s="0"/>
+      <c r="AJO31" s="0"/>
+      <c r="AJP31" s="0"/>
+      <c r="AJQ31" s="0"/>
+      <c r="AJR31" s="0"/>
+      <c r="AJS31" s="0"/>
+      <c r="AJT31" s="0"/>
+      <c r="AJU31" s="0"/>
+      <c r="AJV31" s="0"/>
+      <c r="AJW31" s="0"/>
+      <c r="AJX31" s="0"/>
+      <c r="AJY31" s="0"/>
+      <c r="AJZ31" s="0"/>
+      <c r="AKA31" s="0"/>
+      <c r="AKB31" s="0"/>
+      <c r="AKC31" s="0"/>
+      <c r="AKD31" s="0"/>
+      <c r="AKE31" s="0"/>
+      <c r="AKF31" s="0"/>
+      <c r="AKG31" s="0"/>
+      <c r="AKH31" s="0"/>
+      <c r="AKI31" s="0"/>
+      <c r="AKJ31" s="0"/>
+      <c r="AKK31" s="0"/>
+      <c r="AKL31" s="0"/>
+      <c r="AKM31" s="0"/>
+      <c r="AKN31" s="0"/>
+      <c r="AKO31" s="0"/>
+      <c r="AKP31" s="0"/>
+      <c r="AKQ31" s="0"/>
+      <c r="AKR31" s="0"/>
+      <c r="AKS31" s="0"/>
+      <c r="AKT31" s="0"/>
+      <c r="AKU31" s="0"/>
+      <c r="AKV31" s="0"/>
+      <c r="AKW31" s="0"/>
+      <c r="AKX31" s="0"/>
+      <c r="AKY31" s="0"/>
+      <c r="AKZ31" s="0"/>
+      <c r="ALA31" s="0"/>
+      <c r="ALB31" s="0"/>
+      <c r="ALC31" s="0"/>
+      <c r="ALD31" s="0"/>
+      <c r="ALE31" s="0"/>
+      <c r="ALF31" s="0"/>
+      <c r="ALG31" s="0"/>
+      <c r="ALH31" s="0"/>
+      <c r="ALI31" s="0"/>
+      <c r="ALJ31" s="0"/>
+      <c r="ALK31" s="0"/>
+      <c r="ALL31" s="0"/>
+      <c r="ALM31" s="0"/>
+      <c r="ALN31" s="0"/>
+      <c r="ALO31" s="0"/>
+      <c r="ALP31" s="0"/>
+      <c r="ALQ31" s="0"/>
+      <c r="ALR31" s="0"/>
+      <c r="ALS31" s="0"/>
+      <c r="ALT31" s="0"/>
+      <c r="ALU31" s="0"/>
+      <c r="ALV31" s="0"/>
+      <c r="ALW31" s="0"/>
+      <c r="ALX31" s="0"/>
+      <c r="ALY31" s="0"/>
+      <c r="ALZ31" s="0"/>
+      <c r="AMA31" s="0"/>
+      <c r="AMB31" s="0"/>
+      <c r="AMC31" s="0"/>
+      <c r="AMD31" s="0"/>
+      <c r="AME31" s="0"/>
+      <c r="AMF31" s="0"/>
+      <c r="AMG31" s="0"/>
+      <c r="AMH31" s="0"/>
+      <c r="AMI31" s="0"/>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="0"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="0"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0"/>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
-      <c r="AB32" s="0"/>
-      <c r="AC32" s="0"/>
-      <c r="AD32" s="0"/>
-      <c r="AE32" s="0"/>
-      <c r="AF32" s="0"/>
-      <c r="AG32" s="0"/>
-      <c r="AH32" s="0"/>
-      <c r="AI32" s="0"/>
-      <c r="AJ32" s="0"/>
-      <c r="AK32" s="0"/>
-      <c r="AL32" s="0"/>
-      <c r="AM32" s="0"/>
-      <c r="AN32" s="0"/>
-      <c r="AO32" s="0"/>
-      <c r="AP32" s="0"/>
-      <c r="AQ32" s="0"/>
-      <c r="AR32" s="0"/>
-      <c r="AS32" s="0"/>
-      <c r="AT32" s="0"/>
-      <c r="AU32" s="0"/>
-      <c r="AV32" s="0"/>
-      <c r="AW32" s="0"/>
-      <c r="AX32" s="0"/>
-      <c r="AY32" s="0"/>
-      <c r="AZ32" s="0"/>
-      <c r="BA32" s="0"/>
-      <c r="BB32" s="0"/>
-      <c r="BC32" s="0"/>
-      <c r="BD32" s="0"/>
-      <c r="BE32" s="0"/>
-      <c r="BF32" s="0"/>
-      <c r="BG32" s="0"/>
-      <c r="BH32" s="0"/>
-      <c r="BI32" s="0"/>
-      <c r="BJ32" s="0"/>
-      <c r="BK32" s="0"/>
-      <c r="BL32" s="0"/>
-      <c r="BM32" s="0"/>
-      <c r="BN32" s="0"/>
-      <c r="BO32" s="0"/>
-      <c r="BP32" s="0"/>
-      <c r="BQ32" s="0"/>
-      <c r="BR32" s="0"/>
-      <c r="BS32" s="0"/>
-      <c r="BT32" s="0"/>
-      <c r="BU32" s="0"/>
-      <c r="BV32" s="0"/>
-      <c r="BW32" s="0"/>
-      <c r="BX32" s="0"/>
-      <c r="BY32" s="0"/>
-      <c r="BZ32" s="0"/>
-      <c r="CA32" s="0"/>
-      <c r="CB32" s="0"/>
-      <c r="CC32" s="0"/>
-      <c r="CD32" s="0"/>
-      <c r="CE32" s="0"/>
-      <c r="CF32" s="0"/>
-      <c r="CG32" s="0"/>
-      <c r="CH32" s="0"/>
-      <c r="CI32" s="0"/>
-      <c r="CJ32" s="0"/>
-      <c r="CK32" s="0"/>
-      <c r="CL32" s="0"/>
-      <c r="CM32" s="0"/>
-      <c r="CN32" s="0"/>
-      <c r="CO32" s="0"/>
-      <c r="CP32" s="0"/>
-      <c r="CQ32" s="0"/>
-      <c r="CR32" s="0"/>
-      <c r="CS32" s="0"/>
-      <c r="CT32" s="0"/>
-      <c r="CU32" s="0"/>
-      <c r="CV32" s="0"/>
-      <c r="CW32" s="0"/>
-      <c r="CX32" s="0"/>
-      <c r="CY32" s="0"/>
-      <c r="CZ32" s="0"/>
-      <c r="DA32" s="0"/>
-      <c r="DB32" s="0"/>
-      <c r="DC32" s="0"/>
-      <c r="DD32" s="0"/>
-      <c r="DE32" s="0"/>
-      <c r="DF32" s="0"/>
-      <c r="DG32" s="0"/>
-      <c r="DH32" s="0"/>
-      <c r="DI32" s="0"/>
-      <c r="DJ32" s="0"/>
-      <c r="DK32" s="0"/>
-      <c r="DL32" s="0"/>
-      <c r="DM32" s="0"/>
-      <c r="DN32" s="0"/>
-      <c r="DO32" s="0"/>
-      <c r="DP32" s="0"/>
-      <c r="DQ32" s="0"/>
-      <c r="DR32" s="0"/>
-      <c r="DS32" s="0"/>
-      <c r="DT32" s="0"/>
-      <c r="DU32" s="0"/>
-      <c r="DV32" s="0"/>
-      <c r="DW32" s="0"/>
-      <c r="DX32" s="0"/>
-      <c r="DY32" s="0"/>
-      <c r="DZ32" s="0"/>
-      <c r="EA32" s="0"/>
-      <c r="EB32" s="0"/>
-      <c r="EC32" s="0"/>
-      <c r="ED32" s="0"/>
-      <c r="EE32" s="0"/>
-      <c r="EF32" s="0"/>
-      <c r="EG32" s="0"/>
-      <c r="EH32" s="0"/>
-      <c r="EI32" s="0"/>
-      <c r="EJ32" s="0"/>
-      <c r="EK32" s="0"/>
-      <c r="EL32" s="0"/>
-      <c r="EM32" s="0"/>
-      <c r="EN32" s="0"/>
-      <c r="EO32" s="0"/>
-      <c r="EP32" s="0"/>
-      <c r="EQ32" s="0"/>
-      <c r="ER32" s="0"/>
-      <c r="ES32" s="0"/>
-      <c r="ET32" s="0"/>
-      <c r="EU32" s="0"/>
-      <c r="EV32" s="0"/>
-      <c r="EW32" s="0"/>
-      <c r="EX32" s="0"/>
-      <c r="EY32" s="0"/>
-      <c r="EZ32" s="0"/>
-      <c r="FA32" s="0"/>
-      <c r="FB32" s="0"/>
-      <c r="FC32" s="0"/>
-      <c r="FD32" s="0"/>
-      <c r="FE32" s="0"/>
-      <c r="FF32" s="0"/>
-      <c r="FG32" s="0"/>
-      <c r="FH32" s="0"/>
-      <c r="FI32" s="0"/>
-      <c r="FJ32" s="0"/>
-      <c r="FK32" s="0"/>
-      <c r="FL32" s="0"/>
-      <c r="FM32" s="0"/>
-      <c r="FN32" s="0"/>
-      <c r="FO32" s="0"/>
-      <c r="FP32" s="0"/>
-      <c r="FQ32" s="0"/>
-      <c r="FR32" s="0"/>
-      <c r="FS32" s="0"/>
-      <c r="FT32" s="0"/>
-      <c r="FU32" s="0"/>
-      <c r="FV32" s="0"/>
-      <c r="FW32" s="0"/>
-      <c r="FX32" s="0"/>
-      <c r="FY32" s="0"/>
-      <c r="FZ32" s="0"/>
-      <c r="GA32" s="0"/>
-      <c r="GB32" s="0"/>
-      <c r="GC32" s="0"/>
-      <c r="GD32" s="0"/>
-      <c r="GE32" s="0"/>
-      <c r="GF32" s="0"/>
-      <c r="GG32" s="0"/>
-      <c r="GH32" s="0"/>
-      <c r="GI32" s="0"/>
-      <c r="GJ32" s="0"/>
-      <c r="GK32" s="0"/>
-      <c r="GL32" s="0"/>
-      <c r="GM32" s="0"/>
-      <c r="GN32" s="0"/>
-      <c r="GO32" s="0"/>
-      <c r="GP32" s="0"/>
-      <c r="GQ32" s="0"/>
-      <c r="GR32" s="0"/>
-      <c r="GS32" s="0"/>
-      <c r="GT32" s="0"/>
-      <c r="GU32" s="0"/>
-      <c r="GV32" s="0"/>
-      <c r="GW32" s="0"/>
-      <c r="GX32" s="0"/>
-      <c r="GY32" s="0"/>
-      <c r="GZ32" s="0"/>
-      <c r="HA32" s="0"/>
-      <c r="HB32" s="0"/>
-      <c r="HC32" s="0"/>
-      <c r="HD32" s="0"/>
-      <c r="HE32" s="0"/>
-      <c r="HF32" s="0"/>
-      <c r="HG32" s="0"/>
-      <c r="HH32" s="0"/>
-      <c r="HI32" s="0"/>
-      <c r="HJ32" s="0"/>
-      <c r="HK32" s="0"/>
-      <c r="HL32" s="0"/>
-      <c r="HM32" s="0"/>
-      <c r="HN32" s="0"/>
-      <c r="HO32" s="0"/>
-      <c r="HP32" s="0"/>
-      <c r="HQ32" s="0"/>
-      <c r="HR32" s="0"/>
-      <c r="HS32" s="0"/>
-      <c r="HT32" s="0"/>
-      <c r="HU32" s="0"/>
-      <c r="HV32" s="0"/>
-      <c r="HW32" s="0"/>
-      <c r="HX32" s="0"/>
-      <c r="HY32" s="0"/>
-      <c r="HZ32" s="0"/>
-      <c r="IA32" s="0"/>
-      <c r="IB32" s="0"/>
-      <c r="IC32" s="0"/>
-      <c r="ID32" s="0"/>
-      <c r="IE32" s="0"/>
-      <c r="IF32" s="0"/>
-      <c r="IG32" s="0"/>
-      <c r="IH32" s="0"/>
-      <c r="II32" s="0"/>
-      <c r="IJ32" s="0"/>
-      <c r="IK32" s="0"/>
-      <c r="IL32" s="0"/>
-      <c r="IM32" s="0"/>
-      <c r="IN32" s="0"/>
-      <c r="IO32" s="0"/>
-      <c r="IP32" s="0"/>
-      <c r="IQ32" s="0"/>
-      <c r="IR32" s="0"/>
-      <c r="IS32" s="0"/>
-      <c r="IT32" s="0"/>
-      <c r="IU32" s="0"/>
-      <c r="IV32" s="0"/>
-      <c r="IW32" s="0"/>
-      <c r="IX32" s="0"/>
-      <c r="IY32" s="0"/>
-      <c r="IZ32" s="0"/>
-      <c r="JA32" s="0"/>
-      <c r="JB32" s="0"/>
-      <c r="JC32" s="0"/>
-      <c r="JD32" s="0"/>
-      <c r="JE32" s="0"/>
-      <c r="JF32" s="0"/>
-      <c r="JG32" s="0"/>
-      <c r="JH32" s="0"/>
-      <c r="JI32" s="0"/>
-      <c r="JJ32" s="0"/>
-      <c r="JK32" s="0"/>
-      <c r="JL32" s="0"/>
-      <c r="JM32" s="0"/>
-      <c r="JN32" s="0"/>
-      <c r="JO32" s="0"/>
-      <c r="JP32" s="0"/>
-      <c r="JQ32" s="0"/>
-      <c r="JR32" s="0"/>
-      <c r="JS32" s="0"/>
-      <c r="JT32" s="0"/>
-      <c r="JU32" s="0"/>
-      <c r="JV32" s="0"/>
-      <c r="JW32" s="0"/>
-      <c r="JX32" s="0"/>
-      <c r="JY32" s="0"/>
-      <c r="JZ32" s="0"/>
-      <c r="KA32" s="0"/>
-      <c r="KB32" s="0"/>
-      <c r="KC32" s="0"/>
-      <c r="KD32" s="0"/>
-      <c r="KE32" s="0"/>
-      <c r="KF32" s="0"/>
-      <c r="KG32" s="0"/>
-      <c r="KH32" s="0"/>
-      <c r="KI32" s="0"/>
-      <c r="KJ32" s="0"/>
-      <c r="KK32" s="0"/>
-      <c r="KL32" s="0"/>
-      <c r="KM32" s="0"/>
-      <c r="KN32" s="0"/>
-      <c r="KO32" s="0"/>
-      <c r="KP32" s="0"/>
-      <c r="KQ32" s="0"/>
-      <c r="KR32" s="0"/>
-      <c r="KS32" s="0"/>
-      <c r="KT32" s="0"/>
-      <c r="KU32" s="0"/>
-      <c r="KV32" s="0"/>
-      <c r="KW32" s="0"/>
-      <c r="KX32" s="0"/>
-      <c r="KY32" s="0"/>
-      <c r="KZ32" s="0"/>
-      <c r="LA32" s="0"/>
-      <c r="LB32" s="0"/>
-      <c r="LC32" s="0"/>
-      <c r="LD32" s="0"/>
-      <c r="LE32" s="0"/>
-      <c r="LF32" s="0"/>
-      <c r="LG32" s="0"/>
-      <c r="LH32" s="0"/>
-      <c r="LI32" s="0"/>
-      <c r="LJ32" s="0"/>
-      <c r="LK32" s="0"/>
-      <c r="LL32" s="0"/>
-      <c r="LM32" s="0"/>
-      <c r="LN32" s="0"/>
-      <c r="LO32" s="0"/>
-      <c r="LP32" s="0"/>
-      <c r="LQ32" s="0"/>
-      <c r="LR32" s="0"/>
-      <c r="LS32" s="0"/>
-      <c r="LT32" s="0"/>
-      <c r="LU32" s="0"/>
-      <c r="LV32" s="0"/>
-      <c r="LW32" s="0"/>
-      <c r="LX32" s="0"/>
-      <c r="LY32" s="0"/>
-      <c r="LZ32" s="0"/>
-      <c r="MA32" s="0"/>
-      <c r="MB32" s="0"/>
-      <c r="MC32" s="0"/>
-      <c r="MD32" s="0"/>
-      <c r="ME32" s="0"/>
-      <c r="MF32" s="0"/>
-      <c r="MG32" s="0"/>
-      <c r="MH32" s="0"/>
-      <c r="MI32" s="0"/>
-      <c r="MJ32" s="0"/>
-      <c r="MK32" s="0"/>
-      <c r="ML32" s="0"/>
-      <c r="MM32" s="0"/>
-      <c r="MN32" s="0"/>
-      <c r="MO32" s="0"/>
-      <c r="MP32" s="0"/>
-      <c r="MQ32" s="0"/>
-      <c r="MR32" s="0"/>
-      <c r="MS32" s="0"/>
-      <c r="MT32" s="0"/>
-      <c r="MU32" s="0"/>
-      <c r="MV32" s="0"/>
-      <c r="MW32" s="0"/>
-      <c r="MX32" s="0"/>
-      <c r="MY32" s="0"/>
-      <c r="MZ32" s="0"/>
-      <c r="NA32" s="0"/>
-      <c r="NB32" s="0"/>
-      <c r="NC32" s="0"/>
-      <c r="ND32" s="0"/>
-      <c r="NE32" s="0"/>
-      <c r="NF32" s="0"/>
-      <c r="NG32" s="0"/>
-      <c r="NH32" s="0"/>
-      <c r="NI32" s="0"/>
-      <c r="NJ32" s="0"/>
-      <c r="NK32" s="0"/>
-      <c r="NL32" s="0"/>
-      <c r="NM32" s="0"/>
-      <c r="NN32" s="0"/>
-      <c r="NO32" s="0"/>
-      <c r="NP32" s="0"/>
-      <c r="NQ32" s="0"/>
-      <c r="NR32" s="0"/>
-      <c r="NS32" s="0"/>
-      <c r="NT32" s="0"/>
-      <c r="NU32" s="0"/>
-      <c r="NV32" s="0"/>
-      <c r="NW32" s="0"/>
-      <c r="NX32" s="0"/>
-      <c r="NY32" s="0"/>
-      <c r="NZ32" s="0"/>
-      <c r="OA32" s="0"/>
-      <c r="OB32" s="0"/>
-      <c r="OC32" s="0"/>
-      <c r="OD32" s="0"/>
-      <c r="OE32" s="0"/>
-      <c r="OF32" s="0"/>
-      <c r="OG32" s="0"/>
-      <c r="OH32" s="0"/>
-      <c r="OI32" s="0"/>
-      <c r="OJ32" s="0"/>
-      <c r="OK32" s="0"/>
-      <c r="OL32" s="0"/>
-      <c r="OM32" s="0"/>
-      <c r="ON32" s="0"/>
-      <c r="OO32" s="0"/>
-      <c r="OP32" s="0"/>
-      <c r="OQ32" s="0"/>
-      <c r="OR32" s="0"/>
-      <c r="OS32" s="0"/>
-      <c r="OT32" s="0"/>
-      <c r="OU32" s="0"/>
-      <c r="OV32" s="0"/>
-      <c r="OW32" s="0"/>
-      <c r="OX32" s="0"/>
-      <c r="OY32" s="0"/>
-      <c r="OZ32" s="0"/>
-      <c r="PA32" s="0"/>
-      <c r="PB32" s="0"/>
-      <c r="PC32" s="0"/>
-      <c r="PD32" s="0"/>
-      <c r="PE32" s="0"/>
-      <c r="PF32" s="0"/>
-      <c r="PG32" s="0"/>
-      <c r="PH32" s="0"/>
-      <c r="PI32" s="0"/>
-      <c r="PJ32" s="0"/>
-      <c r="PK32" s="0"/>
-      <c r="PL32" s="0"/>
-      <c r="PM32" s="0"/>
-      <c r="PN32" s="0"/>
-      <c r="PO32" s="0"/>
-      <c r="PP32" s="0"/>
-      <c r="PQ32" s="0"/>
-      <c r="PR32" s="0"/>
-      <c r="PS32" s="0"/>
-      <c r="PT32" s="0"/>
-      <c r="PU32" s="0"/>
-      <c r="PV32" s="0"/>
-      <c r="PW32" s="0"/>
-      <c r="PX32" s="0"/>
-      <c r="PY32" s="0"/>
-      <c r="PZ32" s="0"/>
-      <c r="QA32" s="0"/>
-      <c r="QB32" s="0"/>
-      <c r="QC32" s="0"/>
-      <c r="QD32" s="0"/>
-      <c r="QE32" s="0"/>
-      <c r="QF32" s="0"/>
-      <c r="QG32" s="0"/>
-      <c r="QH32" s="0"/>
-      <c r="QI32" s="0"/>
-      <c r="QJ32" s="0"/>
-      <c r="QK32" s="0"/>
-      <c r="QL32" s="0"/>
-      <c r="QM32" s="0"/>
-      <c r="QN32" s="0"/>
-      <c r="QO32" s="0"/>
-      <c r="QP32" s="0"/>
-      <c r="QQ32" s="0"/>
-      <c r="QR32" s="0"/>
-      <c r="QS32" s="0"/>
-      <c r="QT32" s="0"/>
-      <c r="QU32" s="0"/>
-      <c r="QV32" s="0"/>
-      <c r="QW32" s="0"/>
-      <c r="QX32" s="0"/>
-      <c r="QY32" s="0"/>
-      <c r="QZ32" s="0"/>
-      <c r="RA32" s="0"/>
-      <c r="RB32" s="0"/>
-      <c r="RC32" s="0"/>
-      <c r="RD32" s="0"/>
-      <c r="RE32" s="0"/>
-      <c r="RF32" s="0"/>
-      <c r="RG32" s="0"/>
-      <c r="RH32" s="0"/>
-      <c r="RI32" s="0"/>
-      <c r="RJ32" s="0"/>
-      <c r="RK32" s="0"/>
-      <c r="RL32" s="0"/>
-      <c r="RM32" s="0"/>
-      <c r="RN32" s="0"/>
-      <c r="RO32" s="0"/>
-      <c r="RP32" s="0"/>
-      <c r="RQ32" s="0"/>
-      <c r="RR32" s="0"/>
-      <c r="RS32" s="0"/>
-      <c r="RT32" s="0"/>
-      <c r="RU32" s="0"/>
-      <c r="RV32" s="0"/>
-      <c r="RW32" s="0"/>
-      <c r="RX32" s="0"/>
-      <c r="RY32" s="0"/>
-      <c r="RZ32" s="0"/>
-      <c r="SA32" s="0"/>
-      <c r="SB32" s="0"/>
-      <c r="SC32" s="0"/>
-      <c r="SD32" s="0"/>
-      <c r="SE32" s="0"/>
-      <c r="SF32" s="0"/>
-      <c r="SG32" s="0"/>
-      <c r="SH32" s="0"/>
-      <c r="SI32" s="0"/>
-      <c r="SJ32" s="0"/>
-      <c r="SK32" s="0"/>
-      <c r="SL32" s="0"/>
-      <c r="SM32" s="0"/>
-      <c r="SN32" s="0"/>
-      <c r="SO32" s="0"/>
-      <c r="SP32" s="0"/>
-      <c r="SQ32" s="0"/>
-      <c r="SR32" s="0"/>
-      <c r="SS32" s="0"/>
-      <c r="ST32" s="0"/>
-      <c r="SU32" s="0"/>
-      <c r="SV32" s="0"/>
-      <c r="SW32" s="0"/>
-      <c r="SX32" s="0"/>
-      <c r="SY32" s="0"/>
-      <c r="SZ32" s="0"/>
-      <c r="TA32" s="0"/>
-      <c r="TB32" s="0"/>
-      <c r="TC32" s="0"/>
-      <c r="TD32" s="0"/>
-      <c r="TE32" s="0"/>
-      <c r="TF32" s="0"/>
-      <c r="TG32" s="0"/>
-      <c r="TH32" s="0"/>
-      <c r="TI32" s="0"/>
-      <c r="TJ32" s="0"/>
-      <c r="TK32" s="0"/>
-      <c r="TL32" s="0"/>
-      <c r="TM32" s="0"/>
-      <c r="TN32" s="0"/>
-      <c r="TO32" s="0"/>
-      <c r="TP32" s="0"/>
-      <c r="TQ32" s="0"/>
-      <c r="TR32" s="0"/>
-      <c r="TS32" s="0"/>
-      <c r="TT32" s="0"/>
-      <c r="TU32" s="0"/>
-      <c r="TV32" s="0"/>
-      <c r="TW32" s="0"/>
-      <c r="TX32" s="0"/>
-      <c r="TY32" s="0"/>
-      <c r="TZ32" s="0"/>
-      <c r="UA32" s="0"/>
-      <c r="UB32" s="0"/>
-      <c r="UC32" s="0"/>
-      <c r="UD32" s="0"/>
-      <c r="UE32" s="0"/>
-      <c r="UF32" s="0"/>
-      <c r="UG32" s="0"/>
-      <c r="UH32" s="0"/>
-      <c r="UI32" s="0"/>
-      <c r="UJ32" s="0"/>
-      <c r="UK32" s="0"/>
-      <c r="UL32" s="0"/>
-      <c r="UM32" s="0"/>
-      <c r="UN32" s="0"/>
-      <c r="UO32" s="0"/>
-      <c r="UP32" s="0"/>
-      <c r="UQ32" s="0"/>
-      <c r="UR32" s="0"/>
-      <c r="US32" s="0"/>
-      <c r="UT32" s="0"/>
-      <c r="UU32" s="0"/>
-      <c r="UV32" s="0"/>
-      <c r="UW32" s="0"/>
-      <c r="UX32" s="0"/>
-      <c r="UY32" s="0"/>
-      <c r="UZ32" s="0"/>
-      <c r="VA32" s="0"/>
-      <c r="VB32" s="0"/>
-      <c r="VC32" s="0"/>
-      <c r="VD32" s="0"/>
-      <c r="VE32" s="0"/>
-      <c r="VF32" s="0"/>
-      <c r="VG32" s="0"/>
-      <c r="VH32" s="0"/>
-      <c r="VI32" s="0"/>
-      <c r="VJ32" s="0"/>
-      <c r="VK32" s="0"/>
-      <c r="VL32" s="0"/>
-      <c r="VM32" s="0"/>
-      <c r="VN32" s="0"/>
-      <c r="VO32" s="0"/>
-      <c r="VP32" s="0"/>
-      <c r="VQ32" s="0"/>
-      <c r="VR32" s="0"/>
-      <c r="VS32" s="0"/>
-      <c r="VT32" s="0"/>
-      <c r="VU32" s="0"/>
-      <c r="VV32" s="0"/>
-      <c r="VW32" s="0"/>
-      <c r="VX32" s="0"/>
-      <c r="VY32" s="0"/>
-      <c r="VZ32" s="0"/>
-      <c r="WA32" s="0"/>
-      <c r="WB32" s="0"/>
-      <c r="WC32" s="0"/>
-      <c r="WD32" s="0"/>
-      <c r="WE32" s="0"/>
-      <c r="WF32" s="0"/>
-      <c r="WG32" s="0"/>
-      <c r="WH32" s="0"/>
-      <c r="WI32" s="0"/>
-      <c r="WJ32" s="0"/>
-      <c r="WK32" s="0"/>
-      <c r="WL32" s="0"/>
-      <c r="WM32" s="0"/>
-      <c r="WN32" s="0"/>
-      <c r="WO32" s="0"/>
-      <c r="WP32" s="0"/>
-      <c r="WQ32" s="0"/>
-      <c r="WR32" s="0"/>
-      <c r="WS32" s="0"/>
-      <c r="WT32" s="0"/>
-      <c r="WU32" s="0"/>
-      <c r="WV32" s="0"/>
-      <c r="WW32" s="0"/>
-      <c r="WX32" s="0"/>
-      <c r="WY32" s="0"/>
-      <c r="WZ32" s="0"/>
-      <c r="XA32" s="0"/>
-      <c r="XB32" s="0"/>
-      <c r="XC32" s="0"/>
-      <c r="XD32" s="0"/>
-      <c r="XE32" s="0"/>
-      <c r="XF32" s="0"/>
-      <c r="XG32" s="0"/>
-      <c r="XH32" s="0"/>
-      <c r="XI32" s="0"/>
-      <c r="XJ32" s="0"/>
-      <c r="XK32" s="0"/>
-      <c r="XL32" s="0"/>
-      <c r="XM32" s="0"/>
-      <c r="XN32" s="0"/>
-      <c r="XO32" s="0"/>
-      <c r="XP32" s="0"/>
-      <c r="XQ32" s="0"/>
-      <c r="XR32" s="0"/>
-      <c r="XS32" s="0"/>
-      <c r="XT32" s="0"/>
-      <c r="XU32" s="0"/>
-      <c r="XV32" s="0"/>
-      <c r="XW32" s="0"/>
-      <c r="XX32" s="0"/>
-      <c r="XY32" s="0"/>
-      <c r="XZ32" s="0"/>
-      <c r="YA32" s="0"/>
-      <c r="YB32" s="0"/>
-      <c r="YC32" s="0"/>
-      <c r="YD32" s="0"/>
-      <c r="YE32" s="0"/>
-      <c r="YF32" s="0"/>
-      <c r="YG32" s="0"/>
-      <c r="YH32" s="0"/>
-      <c r="YI32" s="0"/>
-      <c r="YJ32" s="0"/>
-      <c r="YK32" s="0"/>
-      <c r="YL32" s="0"/>
-      <c r="YM32" s="0"/>
-      <c r="YN32" s="0"/>
-      <c r="YO32" s="0"/>
-      <c r="YP32" s="0"/>
-      <c r="YQ32" s="0"/>
-      <c r="YR32" s="0"/>
-      <c r="YS32" s="0"/>
-      <c r="YT32" s="0"/>
-      <c r="YU32" s="0"/>
-      <c r="YV32" s="0"/>
-      <c r="YW32" s="0"/>
-      <c r="YX32" s="0"/>
-      <c r="YY32" s="0"/>
-      <c r="YZ32" s="0"/>
-      <c r="ZA32" s="0"/>
-      <c r="ZB32" s="0"/>
-      <c r="ZC32" s="0"/>
-      <c r="ZD32" s="0"/>
-      <c r="ZE32" s="0"/>
-      <c r="ZF32" s="0"/>
-      <c r="ZG32" s="0"/>
-      <c r="ZH32" s="0"/>
-      <c r="ZI32" s="0"/>
-      <c r="ZJ32" s="0"/>
-      <c r="ZK32" s="0"/>
-      <c r="ZL32" s="0"/>
-      <c r="ZM32" s="0"/>
-      <c r="ZN32" s="0"/>
-      <c r="ZO32" s="0"/>
-      <c r="ZP32" s="0"/>
-      <c r="ZQ32" s="0"/>
-      <c r="ZR32" s="0"/>
-      <c r="ZS32" s="0"/>
-      <c r="ZT32" s="0"/>
-      <c r="ZU32" s="0"/>
-      <c r="ZV32" s="0"/>
-      <c r="ZW32" s="0"/>
-      <c r="ZX32" s="0"/>
-      <c r="ZY32" s="0"/>
-      <c r="ZZ32" s="0"/>
-      <c r="AAA32" s="0"/>
-      <c r="AAB32" s="0"/>
-      <c r="AAC32" s="0"/>
-      <c r="AAD32" s="0"/>
-      <c r="AAE32" s="0"/>
-      <c r="AAF32" s="0"/>
-      <c r="AAG32" s="0"/>
-      <c r="AAH32" s="0"/>
-      <c r="AAI32" s="0"/>
-      <c r="AAJ32" s="0"/>
-      <c r="AAK32" s="0"/>
-      <c r="AAL32" s="0"/>
-      <c r="AAM32" s="0"/>
-      <c r="AAN32" s="0"/>
-      <c r="AAO32" s="0"/>
-      <c r="AAP32" s="0"/>
-      <c r="AAQ32" s="0"/>
-      <c r="AAR32" s="0"/>
-      <c r="AAS32" s="0"/>
-      <c r="AAT32" s="0"/>
-      <c r="AAU32" s="0"/>
-      <c r="AAV32" s="0"/>
-      <c r="AAW32" s="0"/>
-      <c r="AAX32" s="0"/>
-      <c r="AAY32" s="0"/>
-      <c r="AAZ32" s="0"/>
-      <c r="ABA32" s="0"/>
-      <c r="ABB32" s="0"/>
-      <c r="ABC32" s="0"/>
-      <c r="ABD32" s="0"/>
-      <c r="ABE32" s="0"/>
-      <c r="ABF32" s="0"/>
-      <c r="ABG32" s="0"/>
-      <c r="ABH32" s="0"/>
-      <c r="ABI32" s="0"/>
-      <c r="ABJ32" s="0"/>
-      <c r="ABK32" s="0"/>
-      <c r="ABL32" s="0"/>
-      <c r="ABM32" s="0"/>
-      <c r="ABN32" s="0"/>
-      <c r="ABO32" s="0"/>
-      <c r="ABP32" s="0"/>
-      <c r="ABQ32" s="0"/>
-      <c r="ABR32" s="0"/>
-      <c r="ABS32" s="0"/>
-      <c r="ABT32" s="0"/>
-      <c r="ABU32" s="0"/>
-      <c r="ABV32" s="0"/>
-      <c r="ABW32" s="0"/>
-      <c r="ABX32" s="0"/>
-      <c r="ABY32" s="0"/>
-      <c r="ABZ32" s="0"/>
-      <c r="ACA32" s="0"/>
-      <c r="ACB32" s="0"/>
-      <c r="ACC32" s="0"/>
-      <c r="ACD32" s="0"/>
-      <c r="ACE32" s="0"/>
-      <c r="ACF32" s="0"/>
-      <c r="ACG32" s="0"/>
-      <c r="ACH32" s="0"/>
-      <c r="ACI32" s="0"/>
-      <c r="ACJ32" s="0"/>
-      <c r="ACK32" s="0"/>
-      <c r="ACL32" s="0"/>
-      <c r="ACM32" s="0"/>
-      <c r="ACN32" s="0"/>
-      <c r="ACO32" s="0"/>
-      <c r="ACP32" s="0"/>
-      <c r="ACQ32" s="0"/>
-      <c r="ACR32" s="0"/>
-      <c r="ACS32" s="0"/>
-      <c r="ACT32" s="0"/>
-      <c r="ACU32" s="0"/>
-      <c r="ACV32" s="0"/>
-      <c r="ACW32" s="0"/>
-      <c r="ACX32" s="0"/>
-      <c r="ACY32" s="0"/>
-      <c r="ACZ32" s="0"/>
-      <c r="ADA32" s="0"/>
-      <c r="ADB32" s="0"/>
-      <c r="ADC32" s="0"/>
-      <c r="ADD32" s="0"/>
-      <c r="ADE32" s="0"/>
-      <c r="ADF32" s="0"/>
-      <c r="ADG32" s="0"/>
-      <c r="ADH32" s="0"/>
-      <c r="ADI32" s="0"/>
-      <c r="ADJ32" s="0"/>
-      <c r="ADK32" s="0"/>
-      <c r="ADL32" s="0"/>
-      <c r="ADM32" s="0"/>
-      <c r="ADN32" s="0"/>
-      <c r="ADO32" s="0"/>
-      <c r="ADP32" s="0"/>
-      <c r="ADQ32" s="0"/>
-      <c r="ADR32" s="0"/>
-      <c r="ADS32" s="0"/>
-      <c r="ADT32" s="0"/>
-      <c r="ADU32" s="0"/>
-      <c r="ADV32" s="0"/>
-      <c r="ADW32" s="0"/>
-      <c r="ADX32" s="0"/>
-      <c r="ADY32" s="0"/>
-      <c r="ADZ32" s="0"/>
-      <c r="AEA32" s="0"/>
-      <c r="AEB32" s="0"/>
-      <c r="AEC32" s="0"/>
-      <c r="AED32" s="0"/>
-      <c r="AEE32" s="0"/>
-      <c r="AEF32" s="0"/>
-      <c r="AEG32" s="0"/>
-      <c r="AEH32" s="0"/>
-      <c r="AEI32" s="0"/>
-      <c r="AEJ32" s="0"/>
-      <c r="AEK32" s="0"/>
-      <c r="AEL32" s="0"/>
-      <c r="AEM32" s="0"/>
-      <c r="AEN32" s="0"/>
-      <c r="AEO32" s="0"/>
-      <c r="AEP32" s="0"/>
-      <c r="AEQ32" s="0"/>
-      <c r="AER32" s="0"/>
-      <c r="AES32" s="0"/>
-      <c r="AET32" s="0"/>
-      <c r="AEU32" s="0"/>
-      <c r="AEV32" s="0"/>
-      <c r="AEW32" s="0"/>
-      <c r="AEX32" s="0"/>
-      <c r="AEY32" s="0"/>
-      <c r="AEZ32" s="0"/>
-      <c r="AFA32" s="0"/>
-      <c r="AFB32" s="0"/>
-      <c r="AFC32" s="0"/>
-      <c r="AFD32" s="0"/>
-      <c r="AFE32" s="0"/>
-      <c r="AFF32" s="0"/>
-      <c r="AFG32" s="0"/>
-      <c r="AFH32" s="0"/>
-      <c r="AFI32" s="0"/>
-      <c r="AFJ32" s="0"/>
-      <c r="AFK32" s="0"/>
-      <c r="AFL32" s="0"/>
-      <c r="AFM32" s="0"/>
-      <c r="AFN32" s="0"/>
-      <c r="AFO32" s="0"/>
-      <c r="AFP32" s="0"/>
-      <c r="AFQ32" s="0"/>
-      <c r="AFR32" s="0"/>
-      <c r="AFS32" s="0"/>
-      <c r="AFT32" s="0"/>
-      <c r="AFU32" s="0"/>
-      <c r="AFV32" s="0"/>
-      <c r="AFW32" s="0"/>
-      <c r="AFX32" s="0"/>
-      <c r="AFY32" s="0"/>
-      <c r="AFZ32" s="0"/>
-      <c r="AGA32" s="0"/>
-      <c r="AGB32" s="0"/>
-      <c r="AGC32" s="0"/>
-      <c r="AGD32" s="0"/>
-      <c r="AGE32" s="0"/>
-      <c r="AGF32" s="0"/>
-      <c r="AGG32" s="0"/>
-      <c r="AGH32" s="0"/>
-      <c r="AGI32" s="0"/>
-      <c r="AGJ32" s="0"/>
-      <c r="AGK32" s="0"/>
-      <c r="AGL32" s="0"/>
-      <c r="AGM32" s="0"/>
-      <c r="AGN32" s="0"/>
-      <c r="AGO32" s="0"/>
-      <c r="AGP32" s="0"/>
-      <c r="AGQ32" s="0"/>
-      <c r="AGR32" s="0"/>
-      <c r="AGS32" s="0"/>
-      <c r="AGT32" s="0"/>
-      <c r="AGU32" s="0"/>
-      <c r="AGV32" s="0"/>
-      <c r="AGW32" s="0"/>
-      <c r="AGX32" s="0"/>
-      <c r="AGY32" s="0"/>
-      <c r="AGZ32" s="0"/>
-      <c r="AHA32" s="0"/>
-      <c r="AHB32" s="0"/>
-      <c r="AHC32" s="0"/>
-      <c r="AHD32" s="0"/>
-      <c r="AHE32" s="0"/>
-      <c r="AHF32" s="0"/>
-      <c r="AHG32" s="0"/>
-      <c r="AHH32" s="0"/>
-      <c r="AHI32" s="0"/>
-      <c r="AHJ32" s="0"/>
-      <c r="AHK32" s="0"/>
-      <c r="AHL32" s="0"/>
-      <c r="AHM32" s="0"/>
-      <c r="AHN32" s="0"/>
-      <c r="AHO32" s="0"/>
-      <c r="AHP32" s="0"/>
-      <c r="AHQ32" s="0"/>
-      <c r="AHR32" s="0"/>
-      <c r="AHS32" s="0"/>
-      <c r="AHT32" s="0"/>
-      <c r="AHU32" s="0"/>
-      <c r="AHV32" s="0"/>
-      <c r="AHW32" s="0"/>
-      <c r="AHX32" s="0"/>
-      <c r="AHY32" s="0"/>
-      <c r="AHZ32" s="0"/>
-      <c r="AIA32" s="0"/>
-      <c r="AIB32" s="0"/>
-      <c r="AIC32" s="0"/>
-      <c r="AID32" s="0"/>
-      <c r="AIE32" s="0"/>
-      <c r="AIF32" s="0"/>
-      <c r="AIG32" s="0"/>
-      <c r="AIH32" s="0"/>
-      <c r="AII32" s="0"/>
-      <c r="AIJ32" s="0"/>
-      <c r="AIK32" s="0"/>
-      <c r="AIL32" s="0"/>
-      <c r="AIM32" s="0"/>
-      <c r="AIN32" s="0"/>
-      <c r="AIO32" s="0"/>
-      <c r="AIP32" s="0"/>
-      <c r="AIQ32" s="0"/>
-      <c r="AIR32" s="0"/>
-      <c r="AIS32" s="0"/>
-      <c r="AIT32" s="0"/>
-      <c r="AIU32" s="0"/>
-      <c r="AIV32" s="0"/>
-      <c r="AIW32" s="0"/>
-      <c r="AIX32" s="0"/>
-      <c r="AIY32" s="0"/>
-      <c r="AIZ32" s="0"/>
-      <c r="AJA32" s="0"/>
-      <c r="AJB32" s="0"/>
-      <c r="AJC32" s="0"/>
-      <c r="AJD32" s="0"/>
-      <c r="AJE32" s="0"/>
-      <c r="AJF32" s="0"/>
-      <c r="AJG32" s="0"/>
-      <c r="AJH32" s="0"/>
-      <c r="AJI32" s="0"/>
-      <c r="AJJ32" s="0"/>
-      <c r="AJK32" s="0"/>
-      <c r="AJL32" s="0"/>
-      <c r="AJM32" s="0"/>
-      <c r="AJN32" s="0"/>
-      <c r="AJO32" s="0"/>
-      <c r="AJP32" s="0"/>
-      <c r="AJQ32" s="0"/>
-      <c r="AJR32" s="0"/>
-      <c r="AJS32" s="0"/>
-      <c r="AJT32" s="0"/>
-      <c r="AJU32" s="0"/>
-      <c r="AJV32" s="0"/>
-      <c r="AJW32" s="0"/>
-      <c r="AJX32" s="0"/>
-      <c r="AJY32" s="0"/>
-      <c r="AJZ32" s="0"/>
-      <c r="AKA32" s="0"/>
-      <c r="AKB32" s="0"/>
-      <c r="AKC32" s="0"/>
-      <c r="AKD32" s="0"/>
-      <c r="AKE32" s="0"/>
-      <c r="AKF32" s="0"/>
-      <c r="AKG32" s="0"/>
-      <c r="AKH32" s="0"/>
-      <c r="AKI32" s="0"/>
-      <c r="AKJ32" s="0"/>
-      <c r="AKK32" s="0"/>
-      <c r="AKL32" s="0"/>
-      <c r="AKM32" s="0"/>
-      <c r="AKN32" s="0"/>
-      <c r="AKO32" s="0"/>
-      <c r="AKP32" s="0"/>
-      <c r="AKQ32" s="0"/>
-      <c r="AKR32" s="0"/>
-      <c r="AKS32" s="0"/>
-      <c r="AKT32" s="0"/>
-      <c r="AKU32" s="0"/>
-      <c r="AKV32" s="0"/>
-      <c r="AKW32" s="0"/>
-      <c r="AKX32" s="0"/>
-      <c r="AKY32" s="0"/>
-      <c r="AKZ32" s="0"/>
-      <c r="ALA32" s="0"/>
-      <c r="ALB32" s="0"/>
-      <c r="ALC32" s="0"/>
-      <c r="ALD32" s="0"/>
-      <c r="ALE32" s="0"/>
-      <c r="ALF32" s="0"/>
-      <c r="ALG32" s="0"/>
-      <c r="ALH32" s="0"/>
-      <c r="ALI32" s="0"/>
-      <c r="ALJ32" s="0"/>
-      <c r="ALK32" s="0"/>
-      <c r="ALL32" s="0"/>
-      <c r="ALM32" s="0"/>
-      <c r="ALN32" s="0"/>
-      <c r="ALO32" s="0"/>
-      <c r="ALP32" s="0"/>
-      <c r="ALQ32" s="0"/>
-      <c r="ALR32" s="0"/>
-      <c r="ALS32" s="0"/>
-      <c r="ALT32" s="0"/>
-      <c r="ALU32" s="0"/>
-      <c r="ALV32" s="0"/>
-      <c r="ALW32" s="0"/>
-      <c r="ALX32" s="0"/>
-      <c r="ALY32" s="0"/>
-      <c r="ALZ32" s="0"/>
-      <c r="AMA32" s="0"/>
-      <c r="AMB32" s="0"/>
-      <c r="AMC32" s="0"/>
-      <c r="AMD32" s="0"/>
-      <c r="AME32" s="0"/>
-      <c r="AMF32" s="0"/>
-      <c r="AMG32" s="0"/>
-      <c r="AMH32" s="0"/>
-      <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
+      <c r="D32" s="21"/>
     </row>
-    <row r="33" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16" t="s">
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="21"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+      <c r="AX33" s="0"/>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+      <c r="BI33" s="0"/>
+      <c r="BJ33" s="0"/>
+      <c r="BK33" s="0"/>
+      <c r="BL33" s="0"/>
+      <c r="BM33" s="0"/>
+      <c r="BN33" s="0"/>
+      <c r="BO33" s="0"/>
+      <c r="BP33" s="0"/>
+      <c r="BQ33" s="0"/>
+      <c r="BR33" s="0"/>
+      <c r="BS33" s="0"/>
+      <c r="BT33" s="0"/>
+      <c r="BU33" s="0"/>
+      <c r="BV33" s="0"/>
+      <c r="BW33" s="0"/>
+      <c r="BX33" s="0"/>
+      <c r="BY33" s="0"/>
+      <c r="BZ33" s="0"/>
+      <c r="CA33" s="0"/>
+      <c r="CB33" s="0"/>
+      <c r="CC33" s="0"/>
+      <c r="CD33" s="0"/>
+      <c r="CE33" s="0"/>
+      <c r="CF33" s="0"/>
+      <c r="CG33" s="0"/>
+      <c r="CH33" s="0"/>
+      <c r="CI33" s="0"/>
+      <c r="CJ33" s="0"/>
+      <c r="CK33" s="0"/>
+      <c r="CL33" s="0"/>
+      <c r="CM33" s="0"/>
+      <c r="CN33" s="0"/>
+      <c r="CO33" s="0"/>
+      <c r="CP33" s="0"/>
+      <c r="CQ33" s="0"/>
+      <c r="CR33" s="0"/>
+      <c r="CS33" s="0"/>
+      <c r="CT33" s="0"/>
+      <c r="CU33" s="0"/>
+      <c r="CV33" s="0"/>
+      <c r="CW33" s="0"/>
+      <c r="CX33" s="0"/>
+      <c r="CY33" s="0"/>
+      <c r="CZ33" s="0"/>
+      <c r="DA33" s="0"/>
+      <c r="DB33" s="0"/>
+      <c r="DC33" s="0"/>
+      <c r="DD33" s="0"/>
+      <c r="DE33" s="0"/>
+      <c r="DF33" s="0"/>
+      <c r="DG33" s="0"/>
+      <c r="DH33" s="0"/>
+      <c r="DI33" s="0"/>
+      <c r="DJ33" s="0"/>
+      <c r="DK33" s="0"/>
+      <c r="DL33" s="0"/>
+      <c r="DM33" s="0"/>
+      <c r="DN33" s="0"/>
+      <c r="DO33" s="0"/>
+      <c r="DP33" s="0"/>
+      <c r="DQ33" s="0"/>
+      <c r="DR33" s="0"/>
+      <c r="DS33" s="0"/>
+      <c r="DT33" s="0"/>
+      <c r="DU33" s="0"/>
+      <c r="DV33" s="0"/>
+      <c r="DW33" s="0"/>
+      <c r="DX33" s="0"/>
+      <c r="DY33" s="0"/>
+      <c r="DZ33" s="0"/>
+      <c r="EA33" s="0"/>
+      <c r="EB33" s="0"/>
+      <c r="EC33" s="0"/>
+      <c r="ED33" s="0"/>
+      <c r="EE33" s="0"/>
+      <c r="EF33" s="0"/>
+      <c r="EG33" s="0"/>
+      <c r="EH33" s="0"/>
+      <c r="EI33" s="0"/>
+      <c r="EJ33" s="0"/>
+      <c r="EK33" s="0"/>
+      <c r="EL33" s="0"/>
+      <c r="EM33" s="0"/>
+      <c r="EN33" s="0"/>
+      <c r="EO33" s="0"/>
+      <c r="EP33" s="0"/>
+      <c r="EQ33" s="0"/>
+      <c r="ER33" s="0"/>
+      <c r="ES33" s="0"/>
+      <c r="ET33" s="0"/>
+      <c r="EU33" s="0"/>
+      <c r="EV33" s="0"/>
+      <c r="EW33" s="0"/>
+      <c r="EX33" s="0"/>
+      <c r="EY33" s="0"/>
+      <c r="EZ33" s="0"/>
+      <c r="FA33" s="0"/>
+      <c r="FB33" s="0"/>
+      <c r="FC33" s="0"/>
+      <c r="FD33" s="0"/>
+      <c r="FE33" s="0"/>
+      <c r="FF33" s="0"/>
+      <c r="FG33" s="0"/>
+      <c r="FH33" s="0"/>
+      <c r="FI33" s="0"/>
+      <c r="FJ33" s="0"/>
+      <c r="FK33" s="0"/>
+      <c r="FL33" s="0"/>
+      <c r="FM33" s="0"/>
+      <c r="FN33" s="0"/>
+      <c r="FO33" s="0"/>
+      <c r="FP33" s="0"/>
+      <c r="FQ33" s="0"/>
+      <c r="FR33" s="0"/>
+      <c r="FS33" s="0"/>
+      <c r="FT33" s="0"/>
+      <c r="FU33" s="0"/>
+      <c r="FV33" s="0"/>
+      <c r="FW33" s="0"/>
+      <c r="FX33" s="0"/>
+      <c r="FY33" s="0"/>
+      <c r="FZ33" s="0"/>
+      <c r="GA33" s="0"/>
+      <c r="GB33" s="0"/>
+      <c r="GC33" s="0"/>
+      <c r="GD33" s="0"/>
+      <c r="GE33" s="0"/>
+      <c r="GF33" s="0"/>
+      <c r="GG33" s="0"/>
+      <c r="GH33" s="0"/>
+      <c r="GI33" s="0"/>
+      <c r="GJ33" s="0"/>
+      <c r="GK33" s="0"/>
+      <c r="GL33" s="0"/>
+      <c r="GM33" s="0"/>
+      <c r="GN33" s="0"/>
+      <c r="GO33" s="0"/>
+      <c r="GP33" s="0"/>
+      <c r="GQ33" s="0"/>
+      <c r="GR33" s="0"/>
+      <c r="GS33" s="0"/>
+      <c r="GT33" s="0"/>
+      <c r="GU33" s="0"/>
+      <c r="GV33" s="0"/>
+      <c r="GW33" s="0"/>
+      <c r="GX33" s="0"/>
+      <c r="GY33" s="0"/>
+      <c r="GZ33" s="0"/>
+      <c r="HA33" s="0"/>
+      <c r="HB33" s="0"/>
+      <c r="HC33" s="0"/>
+      <c r="HD33" s="0"/>
+      <c r="HE33" s="0"/>
+      <c r="HF33" s="0"/>
+      <c r="HG33" s="0"/>
+      <c r="HH33" s="0"/>
+      <c r="HI33" s="0"/>
+      <c r="HJ33" s="0"/>
+      <c r="HK33" s="0"/>
+      <c r="HL33" s="0"/>
+      <c r="HM33" s="0"/>
+      <c r="HN33" s="0"/>
+      <c r="HO33" s="0"/>
+      <c r="HP33" s="0"/>
+      <c r="HQ33" s="0"/>
+      <c r="HR33" s="0"/>
+      <c r="HS33" s="0"/>
+      <c r="HT33" s="0"/>
+      <c r="HU33" s="0"/>
+      <c r="HV33" s="0"/>
+      <c r="HW33" s="0"/>
+      <c r="HX33" s="0"/>
+      <c r="HY33" s="0"/>
+      <c r="HZ33" s="0"/>
+      <c r="IA33" s="0"/>
+      <c r="IB33" s="0"/>
+      <c r="IC33" s="0"/>
+      <c r="ID33" s="0"/>
+      <c r="IE33" s="0"/>
+      <c r="IF33" s="0"/>
+      <c r="IG33" s="0"/>
+      <c r="IH33" s="0"/>
+      <c r="II33" s="0"/>
+      <c r="IJ33" s="0"/>
+      <c r="IK33" s="0"/>
+      <c r="IL33" s="0"/>
+      <c r="IM33" s="0"/>
+      <c r="IN33" s="0"/>
+      <c r="IO33" s="0"/>
+      <c r="IP33" s="0"/>
+      <c r="IQ33" s="0"/>
+      <c r="IR33" s="0"/>
+      <c r="IS33" s="0"/>
+      <c r="IT33" s="0"/>
+      <c r="IU33" s="0"/>
+      <c r="IV33" s="0"/>
+      <c r="IW33" s="0"/>
+      <c r="IX33" s="0"/>
+      <c r="IY33" s="0"/>
+      <c r="IZ33" s="0"/>
+      <c r="JA33" s="0"/>
+      <c r="JB33" s="0"/>
+      <c r="JC33" s="0"/>
+      <c r="JD33" s="0"/>
+      <c r="JE33" s="0"/>
+      <c r="JF33" s="0"/>
+      <c r="JG33" s="0"/>
+      <c r="JH33" s="0"/>
+      <c r="JI33" s="0"/>
+      <c r="JJ33" s="0"/>
+      <c r="JK33" s="0"/>
+      <c r="JL33" s="0"/>
+      <c r="JM33" s="0"/>
+      <c r="JN33" s="0"/>
+      <c r="JO33" s="0"/>
+      <c r="JP33" s="0"/>
+      <c r="JQ33" s="0"/>
+      <c r="JR33" s="0"/>
+      <c r="JS33" s="0"/>
+      <c r="JT33" s="0"/>
+      <c r="JU33" s="0"/>
+      <c r="JV33" s="0"/>
+      <c r="JW33" s="0"/>
+      <c r="JX33" s="0"/>
+      <c r="JY33" s="0"/>
+      <c r="JZ33" s="0"/>
+      <c r="KA33" s="0"/>
+      <c r="KB33" s="0"/>
+      <c r="KC33" s="0"/>
+      <c r="KD33" s="0"/>
+      <c r="KE33" s="0"/>
+      <c r="KF33" s="0"/>
+      <c r="KG33" s="0"/>
+      <c r="KH33" s="0"/>
+      <c r="KI33" s="0"/>
+      <c r="KJ33" s="0"/>
+      <c r="KK33" s="0"/>
+      <c r="KL33" s="0"/>
+      <c r="KM33" s="0"/>
+      <c r="KN33" s="0"/>
+      <c r="KO33" s="0"/>
+      <c r="KP33" s="0"/>
+      <c r="KQ33" s="0"/>
+      <c r="KR33" s="0"/>
+      <c r="KS33" s="0"/>
+      <c r="KT33" s="0"/>
+      <c r="KU33" s="0"/>
+      <c r="KV33" s="0"/>
+      <c r="KW33" s="0"/>
+      <c r="KX33" s="0"/>
+      <c r="KY33" s="0"/>
+      <c r="KZ33" s="0"/>
+      <c r="LA33" s="0"/>
+      <c r="LB33" s="0"/>
+      <c r="LC33" s="0"/>
+      <c r="LD33" s="0"/>
+      <c r="LE33" s="0"/>
+      <c r="LF33" s="0"/>
+      <c r="LG33" s="0"/>
+      <c r="LH33" s="0"/>
+      <c r="LI33" s="0"/>
+      <c r="LJ33" s="0"/>
+      <c r="LK33" s="0"/>
+      <c r="LL33" s="0"/>
+      <c r="LM33" s="0"/>
+      <c r="LN33" s="0"/>
+      <c r="LO33" s="0"/>
+      <c r="LP33" s="0"/>
+      <c r="LQ33" s="0"/>
+      <c r="LR33" s="0"/>
+      <c r="LS33" s="0"/>
+      <c r="LT33" s="0"/>
+      <c r="LU33" s="0"/>
+      <c r="LV33" s="0"/>
+      <c r="LW33" s="0"/>
+      <c r="LX33" s="0"/>
+      <c r="LY33" s="0"/>
+      <c r="LZ33" s="0"/>
+      <c r="MA33" s="0"/>
+      <c r="MB33" s="0"/>
+      <c r="MC33" s="0"/>
+      <c r="MD33" s="0"/>
+      <c r="ME33" s="0"/>
+      <c r="MF33" s="0"/>
+      <c r="MG33" s="0"/>
+      <c r="MH33" s="0"/>
+      <c r="MI33" s="0"/>
+      <c r="MJ33" s="0"/>
+      <c r="MK33" s="0"/>
+      <c r="ML33" s="0"/>
+      <c r="MM33" s="0"/>
+      <c r="MN33" s="0"/>
+      <c r="MO33" s="0"/>
+      <c r="MP33" s="0"/>
+      <c r="MQ33" s="0"/>
+      <c r="MR33" s="0"/>
+      <c r="MS33" s="0"/>
+      <c r="MT33" s="0"/>
+      <c r="MU33" s="0"/>
+      <c r="MV33" s="0"/>
+      <c r="MW33" s="0"/>
+      <c r="MX33" s="0"/>
+      <c r="MY33" s="0"/>
+      <c r="MZ33" s="0"/>
+      <c r="NA33" s="0"/>
+      <c r="NB33" s="0"/>
+      <c r="NC33" s="0"/>
+      <c r="ND33" s="0"/>
+      <c r="NE33" s="0"/>
+      <c r="NF33" s="0"/>
+      <c r="NG33" s="0"/>
+      <c r="NH33" s="0"/>
+      <c r="NI33" s="0"/>
+      <c r="NJ33" s="0"/>
+      <c r="NK33" s="0"/>
+      <c r="NL33" s="0"/>
+      <c r="NM33" s="0"/>
+      <c r="NN33" s="0"/>
+      <c r="NO33" s="0"/>
+      <c r="NP33" s="0"/>
+      <c r="NQ33" s="0"/>
+      <c r="NR33" s="0"/>
+      <c r="NS33" s="0"/>
+      <c r="NT33" s="0"/>
+      <c r="NU33" s="0"/>
+      <c r="NV33" s="0"/>
+      <c r="NW33" s="0"/>
+      <c r="NX33" s="0"/>
+      <c r="NY33" s="0"/>
+      <c r="NZ33" s="0"/>
+      <c r="OA33" s="0"/>
+      <c r="OB33" s="0"/>
+      <c r="OC33" s="0"/>
+      <c r="OD33" s="0"/>
+      <c r="OE33" s="0"/>
+      <c r="OF33" s="0"/>
+      <c r="OG33" s="0"/>
+      <c r="OH33" s="0"/>
+      <c r="OI33" s="0"/>
+      <c r="OJ33" s="0"/>
+      <c r="OK33" s="0"/>
+      <c r="OL33" s="0"/>
+      <c r="OM33" s="0"/>
+      <c r="ON33" s="0"/>
+      <c r="OO33" s="0"/>
+      <c r="OP33" s="0"/>
+      <c r="OQ33" s="0"/>
+      <c r="OR33" s="0"/>
+      <c r="OS33" s="0"/>
+      <c r="OT33" s="0"/>
+      <c r="OU33" s="0"/>
+      <c r="OV33" s="0"/>
+      <c r="OW33" s="0"/>
+      <c r="OX33" s="0"/>
+      <c r="OY33" s="0"/>
+      <c r="OZ33" s="0"/>
+      <c r="PA33" s="0"/>
+      <c r="PB33" s="0"/>
+      <c r="PC33" s="0"/>
+      <c r="PD33" s="0"/>
+      <c r="PE33" s="0"/>
+      <c r="PF33" s="0"/>
+      <c r="PG33" s="0"/>
+      <c r="PH33" s="0"/>
+      <c r="PI33" s="0"/>
+      <c r="PJ33" s="0"/>
+      <c r="PK33" s="0"/>
+      <c r="PL33" s="0"/>
+      <c r="PM33" s="0"/>
+      <c r="PN33" s="0"/>
+      <c r="PO33" s="0"/>
+      <c r="PP33" s="0"/>
+      <c r="PQ33" s="0"/>
+      <c r="PR33" s="0"/>
+      <c r="PS33" s="0"/>
+      <c r="PT33" s="0"/>
+      <c r="PU33" s="0"/>
+      <c r="PV33" s="0"/>
+      <c r="PW33" s="0"/>
+      <c r="PX33" s="0"/>
+      <c r="PY33" s="0"/>
+      <c r="PZ33" s="0"/>
+      <c r="QA33" s="0"/>
+      <c r="QB33" s="0"/>
+      <c r="QC33" s="0"/>
+      <c r="QD33" s="0"/>
+      <c r="QE33" s="0"/>
+      <c r="QF33" s="0"/>
+      <c r="QG33" s="0"/>
+      <c r="QH33" s="0"/>
+      <c r="QI33" s="0"/>
+      <c r="QJ33" s="0"/>
+      <c r="QK33" s="0"/>
+      <c r="QL33" s="0"/>
+      <c r="QM33" s="0"/>
+      <c r="QN33" s="0"/>
+      <c r="QO33" s="0"/>
+      <c r="QP33" s="0"/>
+      <c r="QQ33" s="0"/>
+      <c r="QR33" s="0"/>
+      <c r="QS33" s="0"/>
+      <c r="QT33" s="0"/>
+      <c r="QU33" s="0"/>
+      <c r="QV33" s="0"/>
+      <c r="QW33" s="0"/>
+      <c r="QX33" s="0"/>
+      <c r="QY33" s="0"/>
+      <c r="QZ33" s="0"/>
+      <c r="RA33" s="0"/>
+      <c r="RB33" s="0"/>
+      <c r="RC33" s="0"/>
+      <c r="RD33" s="0"/>
+      <c r="RE33" s="0"/>
+      <c r="RF33" s="0"/>
+      <c r="RG33" s="0"/>
+      <c r="RH33" s="0"/>
+      <c r="RI33" s="0"/>
+      <c r="RJ33" s="0"/>
+      <c r="RK33" s="0"/>
+      <c r="RL33" s="0"/>
+      <c r="RM33" s="0"/>
+      <c r="RN33" s="0"/>
+      <c r="RO33" s="0"/>
+      <c r="RP33" s="0"/>
+      <c r="RQ33" s="0"/>
+      <c r="RR33" s="0"/>
+      <c r="RS33" s="0"/>
+      <c r="RT33" s="0"/>
+      <c r="RU33" s="0"/>
+      <c r="RV33" s="0"/>
+      <c r="RW33" s="0"/>
+      <c r="RX33" s="0"/>
+      <c r="RY33" s="0"/>
+      <c r="RZ33" s="0"/>
+      <c r="SA33" s="0"/>
+      <c r="SB33" s="0"/>
+      <c r="SC33" s="0"/>
+      <c r="SD33" s="0"/>
+      <c r="SE33" s="0"/>
+      <c r="SF33" s="0"/>
+      <c r="SG33" s="0"/>
+      <c r="SH33" s="0"/>
+      <c r="SI33" s="0"/>
+      <c r="SJ33" s="0"/>
+      <c r="SK33" s="0"/>
+      <c r="SL33" s="0"/>
+      <c r="SM33" s="0"/>
+      <c r="SN33" s="0"/>
+      <c r="SO33" s="0"/>
+      <c r="SP33" s="0"/>
+      <c r="SQ33" s="0"/>
+      <c r="SR33" s="0"/>
+      <c r="SS33" s="0"/>
+      <c r="ST33" s="0"/>
+      <c r="SU33" s="0"/>
+      <c r="SV33" s="0"/>
+      <c r="SW33" s="0"/>
+      <c r="SX33" s="0"/>
+      <c r="SY33" s="0"/>
+      <c r="SZ33" s="0"/>
+      <c r="TA33" s="0"/>
+      <c r="TB33" s="0"/>
+      <c r="TC33" s="0"/>
+      <c r="TD33" s="0"/>
+      <c r="TE33" s="0"/>
+      <c r="TF33" s="0"/>
+      <c r="TG33" s="0"/>
+      <c r="TH33" s="0"/>
+      <c r="TI33" s="0"/>
+      <c r="TJ33" s="0"/>
+      <c r="TK33" s="0"/>
+      <c r="TL33" s="0"/>
+      <c r="TM33" s="0"/>
+      <c r="TN33" s="0"/>
+      <c r="TO33" s="0"/>
+      <c r="TP33" s="0"/>
+      <c r="TQ33" s="0"/>
+      <c r="TR33" s="0"/>
+      <c r="TS33" s="0"/>
+      <c r="TT33" s="0"/>
+      <c r="TU33" s="0"/>
+      <c r="TV33" s="0"/>
+      <c r="TW33" s="0"/>
+      <c r="TX33" s="0"/>
+      <c r="TY33" s="0"/>
+      <c r="TZ33" s="0"/>
+      <c r="UA33" s="0"/>
+      <c r="UB33" s="0"/>
+      <c r="UC33" s="0"/>
+      <c r="UD33" s="0"/>
+      <c r="UE33" s="0"/>
+      <c r="UF33" s="0"/>
+      <c r="UG33" s="0"/>
+      <c r="UH33" s="0"/>
+      <c r="UI33" s="0"/>
+      <c r="UJ33" s="0"/>
+      <c r="UK33" s="0"/>
+      <c r="UL33" s="0"/>
+      <c r="UM33" s="0"/>
+      <c r="UN33" s="0"/>
+      <c r="UO33" s="0"/>
+      <c r="UP33" s="0"/>
+      <c r="UQ33" s="0"/>
+      <c r="UR33" s="0"/>
+      <c r="US33" s="0"/>
+      <c r="UT33" s="0"/>
+      <c r="UU33" s="0"/>
+      <c r="UV33" s="0"/>
+      <c r="UW33" s="0"/>
+      <c r="UX33" s="0"/>
+      <c r="UY33" s="0"/>
+      <c r="UZ33" s="0"/>
+      <c r="VA33" s="0"/>
+      <c r="VB33" s="0"/>
+      <c r="VC33" s="0"/>
+      <c r="VD33" s="0"/>
+      <c r="VE33" s="0"/>
+      <c r="VF33" s="0"/>
+      <c r="VG33" s="0"/>
+      <c r="VH33" s="0"/>
+      <c r="VI33" s="0"/>
+      <c r="VJ33" s="0"/>
+      <c r="VK33" s="0"/>
+      <c r="VL33" s="0"/>
+      <c r="VM33" s="0"/>
+      <c r="VN33" s="0"/>
+      <c r="VO33" s="0"/>
+      <c r="VP33" s="0"/>
+      <c r="VQ33" s="0"/>
+      <c r="VR33" s="0"/>
+      <c r="VS33" s="0"/>
+      <c r="VT33" s="0"/>
+      <c r="VU33" s="0"/>
+      <c r="VV33" s="0"/>
+      <c r="VW33" s="0"/>
+      <c r="VX33" s="0"/>
+      <c r="VY33" s="0"/>
+      <c r="VZ33" s="0"/>
+      <c r="WA33" s="0"/>
+      <c r="WB33" s="0"/>
+      <c r="WC33" s="0"/>
+      <c r="WD33" s="0"/>
+      <c r="WE33" s="0"/>
+      <c r="WF33" s="0"/>
+      <c r="WG33" s="0"/>
+      <c r="WH33" s="0"/>
+      <c r="WI33" s="0"/>
+      <c r="WJ33" s="0"/>
+      <c r="WK33" s="0"/>
+      <c r="WL33" s="0"/>
+      <c r="WM33" s="0"/>
+      <c r="WN33" s="0"/>
+      <c r="WO33" s="0"/>
+      <c r="WP33" s="0"/>
+      <c r="WQ33" s="0"/>
+      <c r="WR33" s="0"/>
+      <c r="WS33" s="0"/>
+      <c r="WT33" s="0"/>
+      <c r="WU33" s="0"/>
+      <c r="WV33" s="0"/>
+      <c r="WW33" s="0"/>
+      <c r="WX33" s="0"/>
+      <c r="WY33" s="0"/>
+      <c r="WZ33" s="0"/>
+      <c r="XA33" s="0"/>
+      <c r="XB33" s="0"/>
+      <c r="XC33" s="0"/>
+      <c r="XD33" s="0"/>
+      <c r="XE33" s="0"/>
+      <c r="XF33" s="0"/>
+      <c r="XG33" s="0"/>
+      <c r="XH33" s="0"/>
+      <c r="XI33" s="0"/>
+      <c r="XJ33" s="0"/>
+      <c r="XK33" s="0"/>
+      <c r="XL33" s="0"/>
+      <c r="XM33" s="0"/>
+      <c r="XN33" s="0"/>
+      <c r="XO33" s="0"/>
+      <c r="XP33" s="0"/>
+      <c r="XQ33" s="0"/>
+      <c r="XR33" s="0"/>
+      <c r="XS33" s="0"/>
+      <c r="XT33" s="0"/>
+      <c r="XU33" s="0"/>
+      <c r="XV33" s="0"/>
+      <c r="XW33" s="0"/>
+      <c r="XX33" s="0"/>
+      <c r="XY33" s="0"/>
+      <c r="XZ33" s="0"/>
+      <c r="YA33" s="0"/>
+      <c r="YB33" s="0"/>
+      <c r="YC33" s="0"/>
+      <c r="YD33" s="0"/>
+      <c r="YE33" s="0"/>
+      <c r="YF33" s="0"/>
+      <c r="YG33" s="0"/>
+      <c r="YH33" s="0"/>
+      <c r="YI33" s="0"/>
+      <c r="YJ33" s="0"/>
+      <c r="YK33" s="0"/>
+      <c r="YL33" s="0"/>
+      <c r="YM33" s="0"/>
+      <c r="YN33" s="0"/>
+      <c r="YO33" s="0"/>
+      <c r="YP33" s="0"/>
+      <c r="YQ33" s="0"/>
+      <c r="YR33" s="0"/>
+      <c r="YS33" s="0"/>
+      <c r="YT33" s="0"/>
+      <c r="YU33" s="0"/>
+      <c r="YV33" s="0"/>
+      <c r="YW33" s="0"/>
+      <c r="YX33" s="0"/>
+      <c r="YY33" s="0"/>
+      <c r="YZ33" s="0"/>
+      <c r="ZA33" s="0"/>
+      <c r="ZB33" s="0"/>
+      <c r="ZC33" s="0"/>
+      <c r="ZD33" s="0"/>
+      <c r="ZE33" s="0"/>
+      <c r="ZF33" s="0"/>
+      <c r="ZG33" s="0"/>
+      <c r="ZH33" s="0"/>
+      <c r="ZI33" s="0"/>
+      <c r="ZJ33" s="0"/>
+      <c r="ZK33" s="0"/>
+      <c r="ZL33" s="0"/>
+      <c r="ZM33" s="0"/>
+      <c r="ZN33" s="0"/>
+      <c r="ZO33" s="0"/>
+      <c r="ZP33" s="0"/>
+      <c r="ZQ33" s="0"/>
+      <c r="ZR33" s="0"/>
+      <c r="ZS33" s="0"/>
+      <c r="ZT33" s="0"/>
+      <c r="ZU33" s="0"/>
+      <c r="ZV33" s="0"/>
+      <c r="ZW33" s="0"/>
+      <c r="ZX33" s="0"/>
+      <c r="ZY33" s="0"/>
+      <c r="ZZ33" s="0"/>
+      <c r="AAA33" s="0"/>
+      <c r="AAB33" s="0"/>
+      <c r="AAC33" s="0"/>
+      <c r="AAD33" s="0"/>
+      <c r="AAE33" s="0"/>
+      <c r="AAF33" s="0"/>
+      <c r="AAG33" s="0"/>
+      <c r="AAH33" s="0"/>
+      <c r="AAI33" s="0"/>
+      <c r="AAJ33" s="0"/>
+      <c r="AAK33" s="0"/>
+      <c r="AAL33" s="0"/>
+      <c r="AAM33" s="0"/>
+      <c r="AAN33" s="0"/>
+      <c r="AAO33" s="0"/>
+      <c r="AAP33" s="0"/>
+      <c r="AAQ33" s="0"/>
+      <c r="AAR33" s="0"/>
+      <c r="AAS33" s="0"/>
+      <c r="AAT33" s="0"/>
+      <c r="AAU33" s="0"/>
+      <c r="AAV33" s="0"/>
+      <c r="AAW33" s="0"/>
+      <c r="AAX33" s="0"/>
+      <c r="AAY33" s="0"/>
+      <c r="AAZ33" s="0"/>
+      <c r="ABA33" s="0"/>
+      <c r="ABB33" s="0"/>
+      <c r="ABC33" s="0"/>
+      <c r="ABD33" s="0"/>
+      <c r="ABE33" s="0"/>
+      <c r="ABF33" s="0"/>
+      <c r="ABG33" s="0"/>
+      <c r="ABH33" s="0"/>
+      <c r="ABI33" s="0"/>
+      <c r="ABJ33" s="0"/>
+      <c r="ABK33" s="0"/>
+      <c r="ABL33" s="0"/>
+      <c r="ABM33" s="0"/>
+      <c r="ABN33" s="0"/>
+      <c r="ABO33" s="0"/>
+      <c r="ABP33" s="0"/>
+      <c r="ABQ33" s="0"/>
+      <c r="ABR33" s="0"/>
+      <c r="ABS33" s="0"/>
+      <c r="ABT33" s="0"/>
+      <c r="ABU33" s="0"/>
+      <c r="ABV33" s="0"/>
+      <c r="ABW33" s="0"/>
+      <c r="ABX33" s="0"/>
+      <c r="ABY33" s="0"/>
+      <c r="ABZ33" s="0"/>
+      <c r="ACA33" s="0"/>
+      <c r="ACB33" s="0"/>
+      <c r="ACC33" s="0"/>
+      <c r="ACD33" s="0"/>
+      <c r="ACE33" s="0"/>
+      <c r="ACF33" s="0"/>
+      <c r="ACG33" s="0"/>
+      <c r="ACH33" s="0"/>
+      <c r="ACI33" s="0"/>
+      <c r="ACJ33" s="0"/>
+      <c r="ACK33" s="0"/>
+      <c r="ACL33" s="0"/>
+      <c r="ACM33" s="0"/>
+      <c r="ACN33" s="0"/>
+      <c r="ACO33" s="0"/>
+      <c r="ACP33" s="0"/>
+      <c r="ACQ33" s="0"/>
+      <c r="ACR33" s="0"/>
+      <c r="ACS33" s="0"/>
+      <c r="ACT33" s="0"/>
+      <c r="ACU33" s="0"/>
+      <c r="ACV33" s="0"/>
+      <c r="ACW33" s="0"/>
+      <c r="ACX33" s="0"/>
+      <c r="ACY33" s="0"/>
+      <c r="ACZ33" s="0"/>
+      <c r="ADA33" s="0"/>
+      <c r="ADB33" s="0"/>
+      <c r="ADC33" s="0"/>
+      <c r="ADD33" s="0"/>
+      <c r="ADE33" s="0"/>
+      <c r="ADF33" s="0"/>
+      <c r="ADG33" s="0"/>
+      <c r="ADH33" s="0"/>
+      <c r="ADI33" s="0"/>
+      <c r="ADJ33" s="0"/>
+      <c r="ADK33" s="0"/>
+      <c r="ADL33" s="0"/>
+      <c r="ADM33" s="0"/>
+      <c r="ADN33" s="0"/>
+      <c r="ADO33" s="0"/>
+      <c r="ADP33" s="0"/>
+      <c r="ADQ33" s="0"/>
+      <c r="ADR33" s="0"/>
+      <c r="ADS33" s="0"/>
+      <c r="ADT33" s="0"/>
+      <c r="ADU33" s="0"/>
+      <c r="ADV33" s="0"/>
+      <c r="ADW33" s="0"/>
+      <c r="ADX33" s="0"/>
+      <c r="ADY33" s="0"/>
+      <c r="ADZ33" s="0"/>
+      <c r="AEA33" s="0"/>
+      <c r="AEB33" s="0"/>
+      <c r="AEC33" s="0"/>
+      <c r="AED33" s="0"/>
+      <c r="AEE33" s="0"/>
+      <c r="AEF33" s="0"/>
+      <c r="AEG33" s="0"/>
+      <c r="AEH33" s="0"/>
+      <c r="AEI33" s="0"/>
+      <c r="AEJ33" s="0"/>
+      <c r="AEK33" s="0"/>
+      <c r="AEL33" s="0"/>
+      <c r="AEM33" s="0"/>
+      <c r="AEN33" s="0"/>
+      <c r="AEO33" s="0"/>
+      <c r="AEP33" s="0"/>
+      <c r="AEQ33" s="0"/>
+      <c r="AER33" s="0"/>
+      <c r="AES33" s="0"/>
+      <c r="AET33" s="0"/>
+      <c r="AEU33" s="0"/>
+      <c r="AEV33" s="0"/>
+      <c r="AEW33" s="0"/>
+      <c r="AEX33" s="0"/>
+      <c r="AEY33" s="0"/>
+      <c r="AEZ33" s="0"/>
+      <c r="AFA33" s="0"/>
+      <c r="AFB33" s="0"/>
+      <c r="AFC33" s="0"/>
+      <c r="AFD33" s="0"/>
+      <c r="AFE33" s="0"/>
+      <c r="AFF33" s="0"/>
+      <c r="AFG33" s="0"/>
+      <c r="AFH33" s="0"/>
+      <c r="AFI33" s="0"/>
+      <c r="AFJ33" s="0"/>
+      <c r="AFK33" s="0"/>
+      <c r="AFL33" s="0"/>
+      <c r="AFM33" s="0"/>
+      <c r="AFN33" s="0"/>
+      <c r="AFO33" s="0"/>
+      <c r="AFP33" s="0"/>
+      <c r="AFQ33" s="0"/>
+      <c r="AFR33" s="0"/>
+      <c r="AFS33" s="0"/>
+      <c r="AFT33" s="0"/>
+      <c r="AFU33" s="0"/>
+      <c r="AFV33" s="0"/>
+      <c r="AFW33" s="0"/>
+      <c r="AFX33" s="0"/>
+      <c r="AFY33" s="0"/>
+      <c r="AFZ33" s="0"/>
+      <c r="AGA33" s="0"/>
+      <c r="AGB33" s="0"/>
+      <c r="AGC33" s="0"/>
+      <c r="AGD33" s="0"/>
+      <c r="AGE33" s="0"/>
+      <c r="AGF33" s="0"/>
+      <c r="AGG33" s="0"/>
+      <c r="AGH33" s="0"/>
+      <c r="AGI33" s="0"/>
+      <c r="AGJ33" s="0"/>
+      <c r="AGK33" s="0"/>
+      <c r="AGL33" s="0"/>
+      <c r="AGM33" s="0"/>
+      <c r="AGN33" s="0"/>
+      <c r="AGO33" s="0"/>
+      <c r="AGP33" s="0"/>
+      <c r="AGQ33" s="0"/>
+      <c r="AGR33" s="0"/>
+      <c r="AGS33" s="0"/>
+      <c r="AGT33" s="0"/>
+      <c r="AGU33" s="0"/>
+      <c r="AGV33" s="0"/>
+      <c r="AGW33" s="0"/>
+      <c r="AGX33" s="0"/>
+      <c r="AGY33" s="0"/>
+      <c r="AGZ33" s="0"/>
+      <c r="AHA33" s="0"/>
+      <c r="AHB33" s="0"/>
+      <c r="AHC33" s="0"/>
+      <c r="AHD33" s="0"/>
+      <c r="AHE33" s="0"/>
+      <c r="AHF33" s="0"/>
+      <c r="AHG33" s="0"/>
+      <c r="AHH33" s="0"/>
+      <c r="AHI33" s="0"/>
+      <c r="AHJ33" s="0"/>
+      <c r="AHK33" s="0"/>
+      <c r="AHL33" s="0"/>
+      <c r="AHM33" s="0"/>
+      <c r="AHN33" s="0"/>
+      <c r="AHO33" s="0"/>
+      <c r="AHP33" s="0"/>
+      <c r="AHQ33" s="0"/>
+      <c r="AHR33" s="0"/>
+      <c r="AHS33" s="0"/>
+      <c r="AHT33" s="0"/>
+      <c r="AHU33" s="0"/>
+      <c r="AHV33" s="0"/>
+      <c r="AHW33" s="0"/>
+      <c r="AHX33" s="0"/>
+      <c r="AHY33" s="0"/>
+      <c r="AHZ33" s="0"/>
+      <c r="AIA33" s="0"/>
+      <c r="AIB33" s="0"/>
+      <c r="AIC33" s="0"/>
+      <c r="AID33" s="0"/>
+      <c r="AIE33" s="0"/>
+      <c r="AIF33" s="0"/>
+      <c r="AIG33" s="0"/>
+      <c r="AIH33" s="0"/>
+      <c r="AII33" s="0"/>
+      <c r="AIJ33" s="0"/>
+      <c r="AIK33" s="0"/>
+      <c r="AIL33" s="0"/>
+      <c r="AIM33" s="0"/>
+      <c r="AIN33" s="0"/>
+      <c r="AIO33" s="0"/>
+      <c r="AIP33" s="0"/>
+      <c r="AIQ33" s="0"/>
+      <c r="AIR33" s="0"/>
+      <c r="AIS33" s="0"/>
+      <c r="AIT33" s="0"/>
+      <c r="AIU33" s="0"/>
+      <c r="AIV33" s="0"/>
+      <c r="AIW33" s="0"/>
+      <c r="AIX33" s="0"/>
+      <c r="AIY33" s="0"/>
+      <c r="AIZ33" s="0"/>
+      <c r="AJA33" s="0"/>
+      <c r="AJB33" s="0"/>
+      <c r="AJC33" s="0"/>
+      <c r="AJD33" s="0"/>
+      <c r="AJE33" s="0"/>
+      <c r="AJF33" s="0"/>
+      <c r="AJG33" s="0"/>
+      <c r="AJH33" s="0"/>
+      <c r="AJI33" s="0"/>
+      <c r="AJJ33" s="0"/>
+      <c r="AJK33" s="0"/>
+      <c r="AJL33" s="0"/>
+      <c r="AJM33" s="0"/>
+      <c r="AJN33" s="0"/>
+      <c r="AJO33" s="0"/>
+      <c r="AJP33" s="0"/>
+      <c r="AJQ33" s="0"/>
+      <c r="AJR33" s="0"/>
+      <c r="AJS33" s="0"/>
+      <c r="AJT33" s="0"/>
+      <c r="AJU33" s="0"/>
+      <c r="AJV33" s="0"/>
+      <c r="AJW33" s="0"/>
+      <c r="AJX33" s="0"/>
+      <c r="AJY33" s="0"/>
+      <c r="AJZ33" s="0"/>
+      <c r="AKA33" s="0"/>
+      <c r="AKB33" s="0"/>
+      <c r="AKC33" s="0"/>
+      <c r="AKD33" s="0"/>
+      <c r="AKE33" s="0"/>
+      <c r="AKF33" s="0"/>
+      <c r="AKG33" s="0"/>
+      <c r="AKH33" s="0"/>
+      <c r="AKI33" s="0"/>
+      <c r="AKJ33" s="0"/>
+      <c r="AKK33" s="0"/>
+      <c r="AKL33" s="0"/>
+      <c r="AKM33" s="0"/>
+      <c r="AKN33" s="0"/>
+      <c r="AKO33" s="0"/>
+      <c r="AKP33" s="0"/>
+      <c r="AKQ33" s="0"/>
+      <c r="AKR33" s="0"/>
+      <c r="AKS33" s="0"/>
+      <c r="AKT33" s="0"/>
+      <c r="AKU33" s="0"/>
+      <c r="AKV33" s="0"/>
+      <c r="AKW33" s="0"/>
+      <c r="AKX33" s="0"/>
+      <c r="AKY33" s="0"/>
+      <c r="AKZ33" s="0"/>
+      <c r="ALA33" s="0"/>
+      <c r="ALB33" s="0"/>
+      <c r="ALC33" s="0"/>
+      <c r="ALD33" s="0"/>
+      <c r="ALE33" s="0"/>
+      <c r="ALF33" s="0"/>
+      <c r="ALG33" s="0"/>
+      <c r="ALH33" s="0"/>
+      <c r="ALI33" s="0"/>
+      <c r="ALJ33" s="0"/>
+      <c r="ALK33" s="0"/>
+      <c r="ALL33" s="0"/>
+      <c r="ALM33" s="0"/>
+      <c r="ALN33" s="0"/>
+      <c r="ALO33" s="0"/>
+      <c r="ALP33" s="0"/>
+      <c r="ALQ33" s="0"/>
+      <c r="ALR33" s="0"/>
+      <c r="ALS33" s="0"/>
+      <c r="ALT33" s="0"/>
+      <c r="ALU33" s="0"/>
+      <c r="ALV33" s="0"/>
+      <c r="ALW33" s="0"/>
+      <c r="ALX33" s="0"/>
+      <c r="ALY33" s="0"/>
+      <c r="ALZ33" s="0"/>
+      <c r="AMA33" s="0"/>
+      <c r="AMB33" s="0"/>
+      <c r="AMC33" s="0"/>
+      <c r="AMD33" s="0"/>
+      <c r="AME33" s="0"/>
+      <c r="AMF33" s="0"/>
+      <c r="AMG33" s="0"/>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
-      <c r="B34" s="11" t="s">
-        <v>52</v>
+      <c r="B34" s="17" t="s">
+        <v>51</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
@@ -32119,10 +33145,10 @@
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="17" t="s">
-        <v>53</v>
+      <c r="B35" s="22" t="s">
+        <v>9</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -33147,10 +34173,12 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="22" t="s">
-        <v>9</v>
+      <c r="B36" s="23" t="s">
+        <v>52</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
@@ -34175,12 +35203,10 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="B37" s="23" t="s">
-        <v>54</v>
+      <c r="B37" s="22" t="s">
+        <v>47</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>55</v>
-      </c>
+      <c r="C37" s="22"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
@@ -35205,10 +36231,12 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
-      <c r="B38" s="22" t="s">
-        <v>49</v>
+      <c r="B38" s="23" t="s">
+        <v>54</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
       <c r="F38" s="0"/>
@@ -36233,12 +37261,10 @@
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>57</v>
-      </c>
+      <c r="C39" s="22"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
@@ -37263,10 +38289,12 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="22"/>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
       <c r="F40" s="0"/>
@@ -38291,12 +39319,10 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="C41" s="22"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -39321,10 +40347,12 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="22"/>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
       <c r="F42" s="0"/>
@@ -40349,12 +41377,10 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="23" t="s">
-        <v>62</v>
+      <c r="B43" s="22" t="s">
+        <v>12</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>63</v>
-      </c>
+      <c r="C43" s="22"/>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
@@ -41377,13 +42403,15 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="B44" s="22" t="s">
-        <v>12</v>
+      <c r="B44" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="0"/>
+      <c r="C44" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="24"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -42408,10 +43436,10 @@
     <row r="45" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
       <c r="B45" s="15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="0"/>
@@ -43435,13 +44463,13 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
       <c r="B46" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="0"/>
@@ -44465,15 +45493,15 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
       <c r="B47" s="15" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
-      <c r="D47" s="24"/>
+      <c r="D47" s="0"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -45496,12 +46524,12 @@
       <c r="AMJ47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="0"/>
@@ -46527,12 +47555,10 @@
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10"/>
-      <c r="B49" s="15" t="s">
-        <v>65</v>
+      <c r="B49" s="22" t="s">
+        <v>23</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="C49" s="22"/>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
@@ -47557,10 +48583,12 @@
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10"/>
-      <c r="B50" s="22" t="s">
-        <v>23</v>
+      <c r="B50" s="25" t="s">
+        <v>66</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
       <c r="F50" s="0"/>
@@ -48585,10 +49613,10 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D51" s="0"/>
@@ -49616,10 +50644,10 @@
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
       <c r="B52" s="16" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -50646,7 +51674,7 @@
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
       <c r="B53" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>72</v>
@@ -51674,7 +52702,7 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
+      <c r="A54" s="0"/>
       <c r="B54" s="16" t="s">
         <v>73</v>
       </c>
@@ -52703,14 +53731,12 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="C55" s="22"/>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
@@ -53735,10 +54761,10 @@
     </row>
     <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="B56" s="22" t="s">
-        <v>77</v>
+      <c r="B56" s="14" t="s">
+        <v>76</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -54761,12 +55787,12 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="B57" s="14" t="s">
-        <v>78</v>
+      <c r="B57" s="26" t="s">
+        <v>77</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -55789,12 +56815,14 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="B58" s="26" t="s">
-        <v>79</v>
+      <c r="B58" s="15" t="s">
+        <v>78</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
@@ -56817,10 +57845,10 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
       <c r="B59" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>80</v>
@@ -57847,14 +58875,12 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="15" t="s">
-        <v>81</v>
+    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10"/>
+      <c r="B60" s="26" t="s">
+        <v>6</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>82</v>
-      </c>
+      <c r="C60" s="26"/>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
       <c r="F60" s="0"/>
@@ -58877,12 +59903,14 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10"/>
-      <c r="B61" s="26" t="s">
-        <v>6</v>
+      <c r="B61" s="15" t="s">
+        <v>81</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
@@ -59905,13 +60933,13 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="10"/>
       <c r="B62" s="15" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
@@ -60937,12 +61965,10 @@
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
-      <c r="B63" s="15" t="s">
-        <v>7</v>
+      <c r="B63" s="26" t="s">
+        <v>84</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="C63" s="26"/>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
@@ -61967,10 +62993,12 @@
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10"/>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="26"/>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
@@ -62993,1133 +64021,113 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
+    <row r="65" s="20" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-      <c r="L65" s="0"/>
-      <c r="M65" s="0"/>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0"/>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0"/>
-      <c r="R65" s="0"/>
-      <c r="S65" s="0"/>
-      <c r="T65" s="0"/>
-      <c r="U65" s="0"/>
-      <c r="V65" s="0"/>
-      <c r="W65" s="0"/>
-      <c r="X65" s="0"/>
-      <c r="Y65" s="0"/>
-      <c r="Z65" s="0"/>
-      <c r="AA65" s="0"/>
-      <c r="AB65" s="0"/>
-      <c r="AC65" s="0"/>
-      <c r="AD65" s="0"/>
-      <c r="AE65" s="0"/>
-      <c r="AF65" s="0"/>
-      <c r="AG65" s="0"/>
-      <c r="AH65" s="0"/>
-      <c r="AI65" s="0"/>
-      <c r="AJ65" s="0"/>
-      <c r="AK65" s="0"/>
-      <c r="AL65" s="0"/>
-      <c r="AM65" s="0"/>
-      <c r="AN65" s="0"/>
-      <c r="AO65" s="0"/>
-      <c r="AP65" s="0"/>
-      <c r="AQ65" s="0"/>
-      <c r="AR65" s="0"/>
-      <c r="AS65" s="0"/>
-      <c r="AT65" s="0"/>
-      <c r="AU65" s="0"/>
-      <c r="AV65" s="0"/>
-      <c r="AW65" s="0"/>
-      <c r="AX65" s="0"/>
-      <c r="AY65" s="0"/>
-      <c r="AZ65" s="0"/>
-      <c r="BA65" s="0"/>
-      <c r="BB65" s="0"/>
-      <c r="BC65" s="0"/>
-      <c r="BD65" s="0"/>
-      <c r="BE65" s="0"/>
-      <c r="BF65" s="0"/>
-      <c r="BG65" s="0"/>
-      <c r="BH65" s="0"/>
-      <c r="BI65" s="0"/>
-      <c r="BJ65" s="0"/>
-      <c r="BK65" s="0"/>
-      <c r="BL65" s="0"/>
-      <c r="BM65" s="0"/>
-      <c r="BN65" s="0"/>
-      <c r="BO65" s="0"/>
-      <c r="BP65" s="0"/>
-      <c r="BQ65" s="0"/>
-      <c r="BR65" s="0"/>
-      <c r="BS65" s="0"/>
-      <c r="BT65" s="0"/>
-      <c r="BU65" s="0"/>
-      <c r="BV65" s="0"/>
-      <c r="BW65" s="0"/>
-      <c r="BX65" s="0"/>
-      <c r="BY65" s="0"/>
-      <c r="BZ65" s="0"/>
-      <c r="CA65" s="0"/>
-      <c r="CB65" s="0"/>
-      <c r="CC65" s="0"/>
-      <c r="CD65" s="0"/>
-      <c r="CE65" s="0"/>
-      <c r="CF65" s="0"/>
-      <c r="CG65" s="0"/>
-      <c r="CH65" s="0"/>
-      <c r="CI65" s="0"/>
-      <c r="CJ65" s="0"/>
-      <c r="CK65" s="0"/>
-      <c r="CL65" s="0"/>
-      <c r="CM65" s="0"/>
-      <c r="CN65" s="0"/>
-      <c r="CO65" s="0"/>
-      <c r="CP65" s="0"/>
-      <c r="CQ65" s="0"/>
-      <c r="CR65" s="0"/>
-      <c r="CS65" s="0"/>
-      <c r="CT65" s="0"/>
-      <c r="CU65" s="0"/>
-      <c r="CV65" s="0"/>
-      <c r="CW65" s="0"/>
-      <c r="CX65" s="0"/>
-      <c r="CY65" s="0"/>
-      <c r="CZ65" s="0"/>
-      <c r="DA65" s="0"/>
-      <c r="DB65" s="0"/>
-      <c r="DC65" s="0"/>
-      <c r="DD65" s="0"/>
-      <c r="DE65" s="0"/>
-      <c r="DF65" s="0"/>
-      <c r="DG65" s="0"/>
-      <c r="DH65" s="0"/>
-      <c r="DI65" s="0"/>
-      <c r="DJ65" s="0"/>
-      <c r="DK65" s="0"/>
-      <c r="DL65" s="0"/>
-      <c r="DM65" s="0"/>
-      <c r="DN65" s="0"/>
-      <c r="DO65" s="0"/>
-      <c r="DP65" s="0"/>
-      <c r="DQ65" s="0"/>
-      <c r="DR65" s="0"/>
-      <c r="DS65" s="0"/>
-      <c r="DT65" s="0"/>
-      <c r="DU65" s="0"/>
-      <c r="DV65" s="0"/>
-      <c r="DW65" s="0"/>
-      <c r="DX65" s="0"/>
-      <c r="DY65" s="0"/>
-      <c r="DZ65" s="0"/>
-      <c r="EA65" s="0"/>
-      <c r="EB65" s="0"/>
-      <c r="EC65" s="0"/>
-      <c r="ED65" s="0"/>
-      <c r="EE65" s="0"/>
-      <c r="EF65" s="0"/>
-      <c r="EG65" s="0"/>
-      <c r="EH65" s="0"/>
-      <c r="EI65" s="0"/>
-      <c r="EJ65" s="0"/>
-      <c r="EK65" s="0"/>
-      <c r="EL65" s="0"/>
-      <c r="EM65" s="0"/>
-      <c r="EN65" s="0"/>
-      <c r="EO65" s="0"/>
-      <c r="EP65" s="0"/>
-      <c r="EQ65" s="0"/>
-      <c r="ER65" s="0"/>
-      <c r="ES65" s="0"/>
-      <c r="ET65" s="0"/>
-      <c r="EU65" s="0"/>
-      <c r="EV65" s="0"/>
-      <c r="EW65" s="0"/>
-      <c r="EX65" s="0"/>
-      <c r="EY65" s="0"/>
-      <c r="EZ65" s="0"/>
-      <c r="FA65" s="0"/>
-      <c r="FB65" s="0"/>
-      <c r="FC65" s="0"/>
-      <c r="FD65" s="0"/>
-      <c r="FE65" s="0"/>
-      <c r="FF65" s="0"/>
-      <c r="FG65" s="0"/>
-      <c r="FH65" s="0"/>
-      <c r="FI65" s="0"/>
-      <c r="FJ65" s="0"/>
-      <c r="FK65" s="0"/>
-      <c r="FL65" s="0"/>
-      <c r="FM65" s="0"/>
-      <c r="FN65" s="0"/>
-      <c r="FO65" s="0"/>
-      <c r="FP65" s="0"/>
-      <c r="FQ65" s="0"/>
-      <c r="FR65" s="0"/>
-      <c r="FS65" s="0"/>
-      <c r="FT65" s="0"/>
-      <c r="FU65" s="0"/>
-      <c r="FV65" s="0"/>
-      <c r="FW65" s="0"/>
-      <c r="FX65" s="0"/>
-      <c r="FY65" s="0"/>
-      <c r="FZ65" s="0"/>
-      <c r="GA65" s="0"/>
-      <c r="GB65" s="0"/>
-      <c r="GC65" s="0"/>
-      <c r="GD65" s="0"/>
-      <c r="GE65" s="0"/>
-      <c r="GF65" s="0"/>
-      <c r="GG65" s="0"/>
-      <c r="GH65" s="0"/>
-      <c r="GI65" s="0"/>
-      <c r="GJ65" s="0"/>
-      <c r="GK65" s="0"/>
-      <c r="GL65" s="0"/>
-      <c r="GM65" s="0"/>
-      <c r="GN65" s="0"/>
-      <c r="GO65" s="0"/>
-      <c r="GP65" s="0"/>
-      <c r="GQ65" s="0"/>
-      <c r="GR65" s="0"/>
-      <c r="GS65" s="0"/>
-      <c r="GT65" s="0"/>
-      <c r="GU65" s="0"/>
-      <c r="GV65" s="0"/>
-      <c r="GW65" s="0"/>
-      <c r="GX65" s="0"/>
-      <c r="GY65" s="0"/>
-      <c r="GZ65" s="0"/>
-      <c r="HA65" s="0"/>
-      <c r="HB65" s="0"/>
-      <c r="HC65" s="0"/>
-      <c r="HD65" s="0"/>
-      <c r="HE65" s="0"/>
-      <c r="HF65" s="0"/>
-      <c r="HG65" s="0"/>
-      <c r="HH65" s="0"/>
-      <c r="HI65" s="0"/>
-      <c r="HJ65" s="0"/>
-      <c r="HK65" s="0"/>
-      <c r="HL65" s="0"/>
-      <c r="HM65" s="0"/>
-      <c r="HN65" s="0"/>
-      <c r="HO65" s="0"/>
-      <c r="HP65" s="0"/>
-      <c r="HQ65" s="0"/>
-      <c r="HR65" s="0"/>
-      <c r="HS65" s="0"/>
-      <c r="HT65" s="0"/>
-      <c r="HU65" s="0"/>
-      <c r="HV65" s="0"/>
-      <c r="HW65" s="0"/>
-      <c r="HX65" s="0"/>
-      <c r="HY65" s="0"/>
-      <c r="HZ65" s="0"/>
-      <c r="IA65" s="0"/>
-      <c r="IB65" s="0"/>
-      <c r="IC65" s="0"/>
-      <c r="ID65" s="0"/>
-      <c r="IE65" s="0"/>
-      <c r="IF65" s="0"/>
-      <c r="IG65" s="0"/>
-      <c r="IH65" s="0"/>
-      <c r="II65" s="0"/>
-      <c r="IJ65" s="0"/>
-      <c r="IK65" s="0"/>
-      <c r="IL65" s="0"/>
-      <c r="IM65" s="0"/>
-      <c r="IN65" s="0"/>
-      <c r="IO65" s="0"/>
-      <c r="IP65" s="0"/>
-      <c r="IQ65" s="0"/>
-      <c r="IR65" s="0"/>
-      <c r="IS65" s="0"/>
-      <c r="IT65" s="0"/>
-      <c r="IU65" s="0"/>
-      <c r="IV65" s="0"/>
-      <c r="IW65" s="0"/>
-      <c r="IX65" s="0"/>
-      <c r="IY65" s="0"/>
-      <c r="IZ65" s="0"/>
-      <c r="JA65" s="0"/>
-      <c r="JB65" s="0"/>
-      <c r="JC65" s="0"/>
-      <c r="JD65" s="0"/>
-      <c r="JE65" s="0"/>
-      <c r="JF65" s="0"/>
-      <c r="JG65" s="0"/>
-      <c r="JH65" s="0"/>
-      <c r="JI65" s="0"/>
-      <c r="JJ65" s="0"/>
-      <c r="JK65" s="0"/>
-      <c r="JL65" s="0"/>
-      <c r="JM65" s="0"/>
-      <c r="JN65" s="0"/>
-      <c r="JO65" s="0"/>
-      <c r="JP65" s="0"/>
-      <c r="JQ65" s="0"/>
-      <c r="JR65" s="0"/>
-      <c r="JS65" s="0"/>
-      <c r="JT65" s="0"/>
-      <c r="JU65" s="0"/>
-      <c r="JV65" s="0"/>
-      <c r="JW65" s="0"/>
-      <c r="JX65" s="0"/>
-      <c r="JY65" s="0"/>
-      <c r="JZ65" s="0"/>
-      <c r="KA65" s="0"/>
-      <c r="KB65" s="0"/>
-      <c r="KC65" s="0"/>
-      <c r="KD65" s="0"/>
-      <c r="KE65" s="0"/>
-      <c r="KF65" s="0"/>
-      <c r="KG65" s="0"/>
-      <c r="KH65" s="0"/>
-      <c r="KI65" s="0"/>
-      <c r="KJ65" s="0"/>
-      <c r="KK65" s="0"/>
-      <c r="KL65" s="0"/>
-      <c r="KM65" s="0"/>
-      <c r="KN65" s="0"/>
-      <c r="KO65" s="0"/>
-      <c r="KP65" s="0"/>
-      <c r="KQ65" s="0"/>
-      <c r="KR65" s="0"/>
-      <c r="KS65" s="0"/>
-      <c r="KT65" s="0"/>
-      <c r="KU65" s="0"/>
-      <c r="KV65" s="0"/>
-      <c r="KW65" s="0"/>
-      <c r="KX65" s="0"/>
-      <c r="KY65" s="0"/>
-      <c r="KZ65" s="0"/>
-      <c r="LA65" s="0"/>
-      <c r="LB65" s="0"/>
-      <c r="LC65" s="0"/>
-      <c r="LD65" s="0"/>
-      <c r="LE65" s="0"/>
-      <c r="LF65" s="0"/>
-      <c r="LG65" s="0"/>
-      <c r="LH65" s="0"/>
-      <c r="LI65" s="0"/>
-      <c r="LJ65" s="0"/>
-      <c r="LK65" s="0"/>
-      <c r="LL65" s="0"/>
-      <c r="LM65" s="0"/>
-      <c r="LN65" s="0"/>
-      <c r="LO65" s="0"/>
-      <c r="LP65" s="0"/>
-      <c r="LQ65" s="0"/>
-      <c r="LR65" s="0"/>
-      <c r="LS65" s="0"/>
-      <c r="LT65" s="0"/>
-      <c r="LU65" s="0"/>
-      <c r="LV65" s="0"/>
-      <c r="LW65" s="0"/>
-      <c r="LX65" s="0"/>
-      <c r="LY65" s="0"/>
-      <c r="LZ65" s="0"/>
-      <c r="MA65" s="0"/>
-      <c r="MB65" s="0"/>
-      <c r="MC65" s="0"/>
-      <c r="MD65" s="0"/>
-      <c r="ME65" s="0"/>
-      <c r="MF65" s="0"/>
-      <c r="MG65" s="0"/>
-      <c r="MH65" s="0"/>
-      <c r="MI65" s="0"/>
-      <c r="MJ65" s="0"/>
-      <c r="MK65" s="0"/>
-      <c r="ML65" s="0"/>
-      <c r="MM65" s="0"/>
-      <c r="MN65" s="0"/>
-      <c r="MO65" s="0"/>
-      <c r="MP65" s="0"/>
-      <c r="MQ65" s="0"/>
-      <c r="MR65" s="0"/>
-      <c r="MS65" s="0"/>
-      <c r="MT65" s="0"/>
-      <c r="MU65" s="0"/>
-      <c r="MV65" s="0"/>
-      <c r="MW65" s="0"/>
-      <c r="MX65" s="0"/>
-      <c r="MY65" s="0"/>
-      <c r="MZ65" s="0"/>
-      <c r="NA65" s="0"/>
-      <c r="NB65" s="0"/>
-      <c r="NC65" s="0"/>
-      <c r="ND65" s="0"/>
-      <c r="NE65" s="0"/>
-      <c r="NF65" s="0"/>
-      <c r="NG65" s="0"/>
-      <c r="NH65" s="0"/>
-      <c r="NI65" s="0"/>
-      <c r="NJ65" s="0"/>
-      <c r="NK65" s="0"/>
-      <c r="NL65" s="0"/>
-      <c r="NM65" s="0"/>
-      <c r="NN65" s="0"/>
-      <c r="NO65" s="0"/>
-      <c r="NP65" s="0"/>
-      <c r="NQ65" s="0"/>
-      <c r="NR65" s="0"/>
-      <c r="NS65" s="0"/>
-      <c r="NT65" s="0"/>
-      <c r="NU65" s="0"/>
-      <c r="NV65" s="0"/>
-      <c r="NW65" s="0"/>
-      <c r="NX65" s="0"/>
-      <c r="NY65" s="0"/>
-      <c r="NZ65" s="0"/>
-      <c r="OA65" s="0"/>
-      <c r="OB65" s="0"/>
-      <c r="OC65" s="0"/>
-      <c r="OD65" s="0"/>
-      <c r="OE65" s="0"/>
-      <c r="OF65" s="0"/>
-      <c r="OG65" s="0"/>
-      <c r="OH65" s="0"/>
-      <c r="OI65" s="0"/>
-      <c r="OJ65" s="0"/>
-      <c r="OK65" s="0"/>
-      <c r="OL65" s="0"/>
-      <c r="OM65" s="0"/>
-      <c r="ON65" s="0"/>
-      <c r="OO65" s="0"/>
-      <c r="OP65" s="0"/>
-      <c r="OQ65" s="0"/>
-      <c r="OR65" s="0"/>
-      <c r="OS65" s="0"/>
-      <c r="OT65" s="0"/>
-      <c r="OU65" s="0"/>
-      <c r="OV65" s="0"/>
-      <c r="OW65" s="0"/>
-      <c r="OX65" s="0"/>
-      <c r="OY65" s="0"/>
-      <c r="OZ65" s="0"/>
-      <c r="PA65" s="0"/>
-      <c r="PB65" s="0"/>
-      <c r="PC65" s="0"/>
-      <c r="PD65" s="0"/>
-      <c r="PE65" s="0"/>
-      <c r="PF65" s="0"/>
-      <c r="PG65" s="0"/>
-      <c r="PH65" s="0"/>
-      <c r="PI65" s="0"/>
-      <c r="PJ65" s="0"/>
-      <c r="PK65" s="0"/>
-      <c r="PL65" s="0"/>
-      <c r="PM65" s="0"/>
-      <c r="PN65" s="0"/>
-      <c r="PO65" s="0"/>
-      <c r="PP65" s="0"/>
-      <c r="PQ65" s="0"/>
-      <c r="PR65" s="0"/>
-      <c r="PS65" s="0"/>
-      <c r="PT65" s="0"/>
-      <c r="PU65" s="0"/>
-      <c r="PV65" s="0"/>
-      <c r="PW65" s="0"/>
-      <c r="PX65" s="0"/>
-      <c r="PY65" s="0"/>
-      <c r="PZ65" s="0"/>
-      <c r="QA65" s="0"/>
-      <c r="QB65" s="0"/>
-      <c r="QC65" s="0"/>
-      <c r="QD65" s="0"/>
-      <c r="QE65" s="0"/>
-      <c r="QF65" s="0"/>
-      <c r="QG65" s="0"/>
-      <c r="QH65" s="0"/>
-      <c r="QI65" s="0"/>
-      <c r="QJ65" s="0"/>
-      <c r="QK65" s="0"/>
-      <c r="QL65" s="0"/>
-      <c r="QM65" s="0"/>
-      <c r="QN65" s="0"/>
-      <c r="QO65" s="0"/>
-      <c r="QP65" s="0"/>
-      <c r="QQ65" s="0"/>
-      <c r="QR65" s="0"/>
-      <c r="QS65" s="0"/>
-      <c r="QT65" s="0"/>
-      <c r="QU65" s="0"/>
-      <c r="QV65" s="0"/>
-      <c r="QW65" s="0"/>
-      <c r="QX65" s="0"/>
-      <c r="QY65" s="0"/>
-      <c r="QZ65" s="0"/>
-      <c r="RA65" s="0"/>
-      <c r="RB65" s="0"/>
-      <c r="RC65" s="0"/>
-      <c r="RD65" s="0"/>
-      <c r="RE65" s="0"/>
-      <c r="RF65" s="0"/>
-      <c r="RG65" s="0"/>
-      <c r="RH65" s="0"/>
-      <c r="RI65" s="0"/>
-      <c r="RJ65" s="0"/>
-      <c r="RK65" s="0"/>
-      <c r="RL65" s="0"/>
-      <c r="RM65" s="0"/>
-      <c r="RN65" s="0"/>
-      <c r="RO65" s="0"/>
-      <c r="RP65" s="0"/>
-      <c r="RQ65" s="0"/>
-      <c r="RR65" s="0"/>
-      <c r="RS65" s="0"/>
-      <c r="RT65" s="0"/>
-      <c r="RU65" s="0"/>
-      <c r="RV65" s="0"/>
-      <c r="RW65" s="0"/>
-      <c r="RX65" s="0"/>
-      <c r="RY65" s="0"/>
-      <c r="RZ65" s="0"/>
-      <c r="SA65" s="0"/>
-      <c r="SB65" s="0"/>
-      <c r="SC65" s="0"/>
-      <c r="SD65" s="0"/>
-      <c r="SE65" s="0"/>
-      <c r="SF65" s="0"/>
-      <c r="SG65" s="0"/>
-      <c r="SH65" s="0"/>
-      <c r="SI65" s="0"/>
-      <c r="SJ65" s="0"/>
-      <c r="SK65" s="0"/>
-      <c r="SL65" s="0"/>
-      <c r="SM65" s="0"/>
-      <c r="SN65" s="0"/>
-      <c r="SO65" s="0"/>
-      <c r="SP65" s="0"/>
-      <c r="SQ65" s="0"/>
-      <c r="SR65" s="0"/>
-      <c r="SS65" s="0"/>
-      <c r="ST65" s="0"/>
-      <c r="SU65" s="0"/>
-      <c r="SV65" s="0"/>
-      <c r="SW65" s="0"/>
-      <c r="SX65" s="0"/>
-      <c r="SY65" s="0"/>
-      <c r="SZ65" s="0"/>
-      <c r="TA65" s="0"/>
-      <c r="TB65" s="0"/>
-      <c r="TC65" s="0"/>
-      <c r="TD65" s="0"/>
-      <c r="TE65" s="0"/>
-      <c r="TF65" s="0"/>
-      <c r="TG65" s="0"/>
-      <c r="TH65" s="0"/>
-      <c r="TI65" s="0"/>
-      <c r="TJ65" s="0"/>
-      <c r="TK65" s="0"/>
-      <c r="TL65" s="0"/>
-      <c r="TM65" s="0"/>
-      <c r="TN65" s="0"/>
-      <c r="TO65" s="0"/>
-      <c r="TP65" s="0"/>
-      <c r="TQ65" s="0"/>
-      <c r="TR65" s="0"/>
-      <c r="TS65" s="0"/>
-      <c r="TT65" s="0"/>
-      <c r="TU65" s="0"/>
-      <c r="TV65" s="0"/>
-      <c r="TW65" s="0"/>
-      <c r="TX65" s="0"/>
-      <c r="TY65" s="0"/>
-      <c r="TZ65" s="0"/>
-      <c r="UA65" s="0"/>
-      <c r="UB65" s="0"/>
-      <c r="UC65" s="0"/>
-      <c r="UD65" s="0"/>
-      <c r="UE65" s="0"/>
-      <c r="UF65" s="0"/>
-      <c r="UG65" s="0"/>
-      <c r="UH65" s="0"/>
-      <c r="UI65" s="0"/>
-      <c r="UJ65" s="0"/>
-      <c r="UK65" s="0"/>
-      <c r="UL65" s="0"/>
-      <c r="UM65" s="0"/>
-      <c r="UN65" s="0"/>
-      <c r="UO65" s="0"/>
-      <c r="UP65" s="0"/>
-      <c r="UQ65" s="0"/>
-      <c r="UR65" s="0"/>
-      <c r="US65" s="0"/>
-      <c r="UT65" s="0"/>
-      <c r="UU65" s="0"/>
-      <c r="UV65" s="0"/>
-      <c r="UW65" s="0"/>
-      <c r="UX65" s="0"/>
-      <c r="UY65" s="0"/>
-      <c r="UZ65" s="0"/>
-      <c r="VA65" s="0"/>
-      <c r="VB65" s="0"/>
-      <c r="VC65" s="0"/>
-      <c r="VD65" s="0"/>
-      <c r="VE65" s="0"/>
-      <c r="VF65" s="0"/>
-      <c r="VG65" s="0"/>
-      <c r="VH65" s="0"/>
-      <c r="VI65" s="0"/>
-      <c r="VJ65" s="0"/>
-      <c r="VK65" s="0"/>
-      <c r="VL65" s="0"/>
-      <c r="VM65" s="0"/>
-      <c r="VN65" s="0"/>
-      <c r="VO65" s="0"/>
-      <c r="VP65" s="0"/>
-      <c r="VQ65" s="0"/>
-      <c r="VR65" s="0"/>
-      <c r="VS65" s="0"/>
-      <c r="VT65" s="0"/>
-      <c r="VU65" s="0"/>
-      <c r="VV65" s="0"/>
-      <c r="VW65" s="0"/>
-      <c r="VX65" s="0"/>
-      <c r="VY65" s="0"/>
-      <c r="VZ65" s="0"/>
-      <c r="WA65" s="0"/>
-      <c r="WB65" s="0"/>
-      <c r="WC65" s="0"/>
-      <c r="WD65" s="0"/>
-      <c r="WE65" s="0"/>
-      <c r="WF65" s="0"/>
-      <c r="WG65" s="0"/>
-      <c r="WH65" s="0"/>
-      <c r="WI65" s="0"/>
-      <c r="WJ65" s="0"/>
-      <c r="WK65" s="0"/>
-      <c r="WL65" s="0"/>
-      <c r="WM65" s="0"/>
-      <c r="WN65" s="0"/>
-      <c r="WO65" s="0"/>
-      <c r="WP65" s="0"/>
-      <c r="WQ65" s="0"/>
-      <c r="WR65" s="0"/>
-      <c r="WS65" s="0"/>
-      <c r="WT65" s="0"/>
-      <c r="WU65" s="0"/>
-      <c r="WV65" s="0"/>
-      <c r="WW65" s="0"/>
-      <c r="WX65" s="0"/>
-      <c r="WY65" s="0"/>
-      <c r="WZ65" s="0"/>
-      <c r="XA65" s="0"/>
-      <c r="XB65" s="0"/>
-      <c r="XC65" s="0"/>
-      <c r="XD65" s="0"/>
-      <c r="XE65" s="0"/>
-      <c r="XF65" s="0"/>
-      <c r="XG65" s="0"/>
-      <c r="XH65" s="0"/>
-      <c r="XI65" s="0"/>
-      <c r="XJ65" s="0"/>
-      <c r="XK65" s="0"/>
-      <c r="XL65" s="0"/>
-      <c r="XM65" s="0"/>
-      <c r="XN65" s="0"/>
-      <c r="XO65" s="0"/>
-      <c r="XP65" s="0"/>
-      <c r="XQ65" s="0"/>
-      <c r="XR65" s="0"/>
-      <c r="XS65" s="0"/>
-      <c r="XT65" s="0"/>
-      <c r="XU65" s="0"/>
-      <c r="XV65" s="0"/>
-      <c r="XW65" s="0"/>
-      <c r="XX65" s="0"/>
-      <c r="XY65" s="0"/>
-      <c r="XZ65" s="0"/>
-      <c r="YA65" s="0"/>
-      <c r="YB65" s="0"/>
-      <c r="YC65" s="0"/>
-      <c r="YD65" s="0"/>
-      <c r="YE65" s="0"/>
-      <c r="YF65" s="0"/>
-      <c r="YG65" s="0"/>
-      <c r="YH65" s="0"/>
-      <c r="YI65" s="0"/>
-      <c r="YJ65" s="0"/>
-      <c r="YK65" s="0"/>
-      <c r="YL65" s="0"/>
-      <c r="YM65" s="0"/>
-      <c r="YN65" s="0"/>
-      <c r="YO65" s="0"/>
-      <c r="YP65" s="0"/>
-      <c r="YQ65" s="0"/>
-      <c r="YR65" s="0"/>
-      <c r="YS65" s="0"/>
-      <c r="YT65" s="0"/>
-      <c r="YU65" s="0"/>
-      <c r="YV65" s="0"/>
-      <c r="YW65" s="0"/>
-      <c r="YX65" s="0"/>
-      <c r="YY65" s="0"/>
-      <c r="YZ65" s="0"/>
-      <c r="ZA65" s="0"/>
-      <c r="ZB65" s="0"/>
-      <c r="ZC65" s="0"/>
-      <c r="ZD65" s="0"/>
-      <c r="ZE65" s="0"/>
-      <c r="ZF65" s="0"/>
-      <c r="ZG65" s="0"/>
-      <c r="ZH65" s="0"/>
-      <c r="ZI65" s="0"/>
-      <c r="ZJ65" s="0"/>
-      <c r="ZK65" s="0"/>
-      <c r="ZL65" s="0"/>
-      <c r="ZM65" s="0"/>
-      <c r="ZN65" s="0"/>
-      <c r="ZO65" s="0"/>
-      <c r="ZP65" s="0"/>
-      <c r="ZQ65" s="0"/>
-      <c r="ZR65" s="0"/>
-      <c r="ZS65" s="0"/>
-      <c r="ZT65" s="0"/>
-      <c r="ZU65" s="0"/>
-      <c r="ZV65" s="0"/>
-      <c r="ZW65" s="0"/>
-      <c r="ZX65" s="0"/>
-      <c r="ZY65" s="0"/>
-      <c r="ZZ65" s="0"/>
-      <c r="AAA65" s="0"/>
-      <c r="AAB65" s="0"/>
-      <c r="AAC65" s="0"/>
-      <c r="AAD65" s="0"/>
-      <c r="AAE65" s="0"/>
-      <c r="AAF65" s="0"/>
-      <c r="AAG65" s="0"/>
-      <c r="AAH65" s="0"/>
-      <c r="AAI65" s="0"/>
-      <c r="AAJ65" s="0"/>
-      <c r="AAK65" s="0"/>
-      <c r="AAL65" s="0"/>
-      <c r="AAM65" s="0"/>
-      <c r="AAN65" s="0"/>
-      <c r="AAO65" s="0"/>
-      <c r="AAP65" s="0"/>
-      <c r="AAQ65" s="0"/>
-      <c r="AAR65" s="0"/>
-      <c r="AAS65" s="0"/>
-      <c r="AAT65" s="0"/>
-      <c r="AAU65" s="0"/>
-      <c r="AAV65" s="0"/>
-      <c r="AAW65" s="0"/>
-      <c r="AAX65" s="0"/>
-      <c r="AAY65" s="0"/>
-      <c r="AAZ65" s="0"/>
-      <c r="ABA65" s="0"/>
-      <c r="ABB65" s="0"/>
-      <c r="ABC65" s="0"/>
-      <c r="ABD65" s="0"/>
-      <c r="ABE65" s="0"/>
-      <c r="ABF65" s="0"/>
-      <c r="ABG65" s="0"/>
-      <c r="ABH65" s="0"/>
-      <c r="ABI65" s="0"/>
-      <c r="ABJ65" s="0"/>
-      <c r="ABK65" s="0"/>
-      <c r="ABL65" s="0"/>
-      <c r="ABM65" s="0"/>
-      <c r="ABN65" s="0"/>
-      <c r="ABO65" s="0"/>
-      <c r="ABP65" s="0"/>
-      <c r="ABQ65" s="0"/>
-      <c r="ABR65" s="0"/>
-      <c r="ABS65" s="0"/>
-      <c r="ABT65" s="0"/>
-      <c r="ABU65" s="0"/>
-      <c r="ABV65" s="0"/>
-      <c r="ABW65" s="0"/>
-      <c r="ABX65" s="0"/>
-      <c r="ABY65" s="0"/>
-      <c r="ABZ65" s="0"/>
-      <c r="ACA65" s="0"/>
-      <c r="ACB65" s="0"/>
-      <c r="ACC65" s="0"/>
-      <c r="ACD65" s="0"/>
-      <c r="ACE65" s="0"/>
-      <c r="ACF65" s="0"/>
-      <c r="ACG65" s="0"/>
-      <c r="ACH65" s="0"/>
-      <c r="ACI65" s="0"/>
-      <c r="ACJ65" s="0"/>
-      <c r="ACK65" s="0"/>
-      <c r="ACL65" s="0"/>
-      <c r="ACM65" s="0"/>
-      <c r="ACN65" s="0"/>
-      <c r="ACO65" s="0"/>
-      <c r="ACP65" s="0"/>
-      <c r="ACQ65" s="0"/>
-      <c r="ACR65" s="0"/>
-      <c r="ACS65" s="0"/>
-      <c r="ACT65" s="0"/>
-      <c r="ACU65" s="0"/>
-      <c r="ACV65" s="0"/>
-      <c r="ACW65" s="0"/>
-      <c r="ACX65" s="0"/>
-      <c r="ACY65" s="0"/>
-      <c r="ACZ65" s="0"/>
-      <c r="ADA65" s="0"/>
-      <c r="ADB65" s="0"/>
-      <c r="ADC65" s="0"/>
-      <c r="ADD65" s="0"/>
-      <c r="ADE65" s="0"/>
-      <c r="ADF65" s="0"/>
-      <c r="ADG65" s="0"/>
-      <c r="ADH65" s="0"/>
-      <c r="ADI65" s="0"/>
-      <c r="ADJ65" s="0"/>
-      <c r="ADK65" s="0"/>
-      <c r="ADL65" s="0"/>
-      <c r="ADM65" s="0"/>
-      <c r="ADN65" s="0"/>
-      <c r="ADO65" s="0"/>
-      <c r="ADP65" s="0"/>
-      <c r="ADQ65" s="0"/>
-      <c r="ADR65" s="0"/>
-      <c r="ADS65" s="0"/>
-      <c r="ADT65" s="0"/>
-      <c r="ADU65" s="0"/>
-      <c r="ADV65" s="0"/>
-      <c r="ADW65" s="0"/>
-      <c r="ADX65" s="0"/>
-      <c r="ADY65" s="0"/>
-      <c r="ADZ65" s="0"/>
-      <c r="AEA65" s="0"/>
-      <c r="AEB65" s="0"/>
-      <c r="AEC65" s="0"/>
-      <c r="AED65" s="0"/>
-      <c r="AEE65" s="0"/>
-      <c r="AEF65" s="0"/>
-      <c r="AEG65" s="0"/>
-      <c r="AEH65" s="0"/>
-      <c r="AEI65" s="0"/>
-      <c r="AEJ65" s="0"/>
-      <c r="AEK65" s="0"/>
-      <c r="AEL65" s="0"/>
-      <c r="AEM65" s="0"/>
-      <c r="AEN65" s="0"/>
-      <c r="AEO65" s="0"/>
-      <c r="AEP65" s="0"/>
-      <c r="AEQ65" s="0"/>
-      <c r="AER65" s="0"/>
-      <c r="AES65" s="0"/>
-      <c r="AET65" s="0"/>
-      <c r="AEU65" s="0"/>
-      <c r="AEV65" s="0"/>
-      <c r="AEW65" s="0"/>
-      <c r="AEX65" s="0"/>
-      <c r="AEY65" s="0"/>
-      <c r="AEZ65" s="0"/>
-      <c r="AFA65" s="0"/>
-      <c r="AFB65" s="0"/>
-      <c r="AFC65" s="0"/>
-      <c r="AFD65" s="0"/>
-      <c r="AFE65" s="0"/>
-      <c r="AFF65" s="0"/>
-      <c r="AFG65" s="0"/>
-      <c r="AFH65" s="0"/>
-      <c r="AFI65" s="0"/>
-      <c r="AFJ65" s="0"/>
-      <c r="AFK65" s="0"/>
-      <c r="AFL65" s="0"/>
-      <c r="AFM65" s="0"/>
-      <c r="AFN65" s="0"/>
-      <c r="AFO65" s="0"/>
-      <c r="AFP65" s="0"/>
-      <c r="AFQ65" s="0"/>
-      <c r="AFR65" s="0"/>
-      <c r="AFS65" s="0"/>
-      <c r="AFT65" s="0"/>
-      <c r="AFU65" s="0"/>
-      <c r="AFV65" s="0"/>
-      <c r="AFW65" s="0"/>
-      <c r="AFX65" s="0"/>
-      <c r="AFY65" s="0"/>
-      <c r="AFZ65" s="0"/>
-      <c r="AGA65" s="0"/>
-      <c r="AGB65" s="0"/>
-      <c r="AGC65" s="0"/>
-      <c r="AGD65" s="0"/>
-      <c r="AGE65" s="0"/>
-      <c r="AGF65" s="0"/>
-      <c r="AGG65" s="0"/>
-      <c r="AGH65" s="0"/>
-      <c r="AGI65" s="0"/>
-      <c r="AGJ65" s="0"/>
-      <c r="AGK65" s="0"/>
-      <c r="AGL65" s="0"/>
-      <c r="AGM65" s="0"/>
-      <c r="AGN65" s="0"/>
-      <c r="AGO65" s="0"/>
-      <c r="AGP65" s="0"/>
-      <c r="AGQ65" s="0"/>
-      <c r="AGR65" s="0"/>
-      <c r="AGS65" s="0"/>
-      <c r="AGT65" s="0"/>
-      <c r="AGU65" s="0"/>
-      <c r="AGV65" s="0"/>
-      <c r="AGW65" s="0"/>
-      <c r="AGX65" s="0"/>
-      <c r="AGY65" s="0"/>
-      <c r="AGZ65" s="0"/>
-      <c r="AHA65" s="0"/>
-      <c r="AHB65" s="0"/>
-      <c r="AHC65" s="0"/>
-      <c r="AHD65" s="0"/>
-      <c r="AHE65" s="0"/>
-      <c r="AHF65" s="0"/>
-      <c r="AHG65" s="0"/>
-      <c r="AHH65" s="0"/>
-      <c r="AHI65" s="0"/>
-      <c r="AHJ65" s="0"/>
-      <c r="AHK65" s="0"/>
-      <c r="AHL65" s="0"/>
-      <c r="AHM65" s="0"/>
-      <c r="AHN65" s="0"/>
-      <c r="AHO65" s="0"/>
-      <c r="AHP65" s="0"/>
-      <c r="AHQ65" s="0"/>
-      <c r="AHR65" s="0"/>
-      <c r="AHS65" s="0"/>
-      <c r="AHT65" s="0"/>
-      <c r="AHU65" s="0"/>
-      <c r="AHV65" s="0"/>
-      <c r="AHW65" s="0"/>
-      <c r="AHX65" s="0"/>
-      <c r="AHY65" s="0"/>
-      <c r="AHZ65" s="0"/>
-      <c r="AIA65" s="0"/>
-      <c r="AIB65" s="0"/>
-      <c r="AIC65" s="0"/>
-      <c r="AID65" s="0"/>
-      <c r="AIE65" s="0"/>
-      <c r="AIF65" s="0"/>
-      <c r="AIG65" s="0"/>
-      <c r="AIH65" s="0"/>
-      <c r="AII65" s="0"/>
-      <c r="AIJ65" s="0"/>
-      <c r="AIK65" s="0"/>
-      <c r="AIL65" s="0"/>
-      <c r="AIM65" s="0"/>
-      <c r="AIN65" s="0"/>
-      <c r="AIO65" s="0"/>
-      <c r="AIP65" s="0"/>
-      <c r="AIQ65" s="0"/>
-      <c r="AIR65" s="0"/>
-      <c r="AIS65" s="0"/>
-      <c r="AIT65" s="0"/>
-      <c r="AIU65" s="0"/>
-      <c r="AIV65" s="0"/>
-      <c r="AIW65" s="0"/>
-      <c r="AIX65" s="0"/>
-      <c r="AIY65" s="0"/>
-      <c r="AIZ65" s="0"/>
-      <c r="AJA65" s="0"/>
-      <c r="AJB65" s="0"/>
-      <c r="AJC65" s="0"/>
-      <c r="AJD65" s="0"/>
-      <c r="AJE65" s="0"/>
-      <c r="AJF65" s="0"/>
-      <c r="AJG65" s="0"/>
-      <c r="AJH65" s="0"/>
-      <c r="AJI65" s="0"/>
-      <c r="AJJ65" s="0"/>
-      <c r="AJK65" s="0"/>
-      <c r="AJL65" s="0"/>
-      <c r="AJM65" s="0"/>
-      <c r="AJN65" s="0"/>
-      <c r="AJO65" s="0"/>
-      <c r="AJP65" s="0"/>
-      <c r="AJQ65" s="0"/>
-      <c r="AJR65" s="0"/>
-      <c r="AJS65" s="0"/>
-      <c r="AJT65" s="0"/>
-      <c r="AJU65" s="0"/>
-      <c r="AJV65" s="0"/>
-      <c r="AJW65" s="0"/>
-      <c r="AJX65" s="0"/>
-      <c r="AJY65" s="0"/>
-      <c r="AJZ65" s="0"/>
-      <c r="AKA65" s="0"/>
-      <c r="AKB65" s="0"/>
-      <c r="AKC65" s="0"/>
-      <c r="AKD65" s="0"/>
-      <c r="AKE65" s="0"/>
-      <c r="AKF65" s="0"/>
-      <c r="AKG65" s="0"/>
-      <c r="AKH65" s="0"/>
-      <c r="AKI65" s="0"/>
-      <c r="AKJ65" s="0"/>
-      <c r="AKK65" s="0"/>
-      <c r="AKL65" s="0"/>
-      <c r="AKM65" s="0"/>
-      <c r="AKN65" s="0"/>
-      <c r="AKO65" s="0"/>
-      <c r="AKP65" s="0"/>
-      <c r="AKQ65" s="0"/>
-      <c r="AKR65" s="0"/>
-      <c r="AKS65" s="0"/>
-      <c r="AKT65" s="0"/>
-      <c r="AKU65" s="0"/>
-      <c r="AKV65" s="0"/>
-      <c r="AKW65" s="0"/>
-      <c r="AKX65" s="0"/>
-      <c r="AKY65" s="0"/>
-      <c r="AKZ65" s="0"/>
-      <c r="ALA65" s="0"/>
-      <c r="ALB65" s="0"/>
-      <c r="ALC65" s="0"/>
-      <c r="ALD65" s="0"/>
-      <c r="ALE65" s="0"/>
-      <c r="ALF65" s="0"/>
-      <c r="ALG65" s="0"/>
-      <c r="ALH65" s="0"/>
-      <c r="ALI65" s="0"/>
-      <c r="ALJ65" s="0"/>
-      <c r="ALK65" s="0"/>
-      <c r="ALL65" s="0"/>
-      <c r="ALM65" s="0"/>
-      <c r="ALN65" s="0"/>
-      <c r="ALO65" s="0"/>
-      <c r="ALP65" s="0"/>
-      <c r="ALQ65" s="0"/>
-      <c r="ALR65" s="0"/>
-      <c r="ALS65" s="0"/>
-      <c r="ALT65" s="0"/>
-      <c r="ALU65" s="0"/>
-      <c r="ALV65" s="0"/>
-      <c r="ALW65" s="0"/>
-      <c r="ALX65" s="0"/>
-      <c r="ALY65" s="0"/>
-      <c r="ALZ65" s="0"/>
-      <c r="AMA65" s="0"/>
-      <c r="AMB65" s="0"/>
-      <c r="AMC65" s="0"/>
-      <c r="AMD65" s="0"/>
-      <c r="AME65" s="0"/>
-      <c r="AMF65" s="0"/>
-      <c r="AMG65" s="0"/>
-      <c r="AMH65" s="0"/>
-      <c r="AMI65" s="0"/>
-      <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="20" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>90</v>
-      </c>
+    <row r="66" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="B67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="9"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="9" t="s">
-        <v>61</v>
+      <c r="B68" s="28" t="s">
+        <v>89</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="28" t="s">
-        <v>91</v>
+      <c r="B69" s="29" t="s">
+        <v>59</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>92</v>
-      </c>
+      <c r="C69" s="29"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="29" t="s">
-        <v>61</v>
+      <c r="B70" s="30" t="s">
+        <v>91</v>
       </c>
-      <c r="C70" s="29"/>
+      <c r="C70" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>94</v>
-      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
+      <c r="B72" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="32"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="32" t="s">
-        <v>95</v>
+      <c r="B73" s="33" t="s">
+        <v>94</v>
       </c>
-      <c r="C73" s="32"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="B74" s="33" t="s">
-        <v>96</v>
-      </c>
+      <c r="B74" s="33"/>
       <c r="C74" s="33"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
@@ -64127,43 +64135,43 @@
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="9"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="9" t="s">
-        <v>5</v>
+      <c r="B77" s="34" t="s">
+        <v>95</v>
       </c>
-      <c r="C77" s="9"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="34" t="s">
-        <v>97</v>
-      </c>
+      <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
@@ -64171,42 +64179,44 @@
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="35"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="35"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37"/>
+    <row r="80" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="3" t="s">
-        <v>98</v>
+      <c r="B81" s="18" t="s">
+        <v>97</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
       <c r="B82" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="0"/>
@@ -64215,22 +64225,22 @@
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="18"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
+      <c r="B84" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="9"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
@@ -64239,34 +64249,36 @@
     </row>
     <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="9" t="s">
-        <v>101</v>
+      <c r="B85" s="39" t="s">
+        <v>100</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="39"/>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="39"/>
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="40" t="s">
+      <c r="C87" s="41" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="0"/>
@@ -64275,7 +64287,7 @@
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
       <c r="B88" s="41" t="s">
         <v>105</v>
@@ -64289,103 +64301,104 @@
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
-      <c r="B89" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" s="0"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="42"/>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="42"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>109</v>
+      </c>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="43"/>
-      <c r="B91" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="44" t="s">
+    <row r="91" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0"/>
+      <c r="B91" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="D91" s="45" t="s">
+      <c r="C91" s="47" t="s">
         <v>111</v>
+      </c>
+      <c r="D91" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0"/>
       <c r="B92" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D92" s="48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0"/>
+    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="35"/>
       <c r="B93" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="35"/>
-      <c r="B94" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C94" s="47" t="s">
+    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="49" t="s">
         <v>119</v>
       </c>
+      <c r="C94" s="50" t="s">
+        <v>120</v>
+      </c>
       <c r="D94" s="48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E94" s="0"/>
       <c r="F94" s="0"/>
       <c r="G94" s="0"/>
       <c r="H94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="C95" s="50" t="s">
+    <row r="95" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="C95" s="51" t="s">
         <v>123</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="E95" s="0"/>
       <c r="F95" s="0"/>
@@ -64404,11 +64417,11 @@
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="43"/>
@@ -64764,15 +64777,6 @@
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -64787,36 +64791,36 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C79"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C78"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C92" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C94" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C91" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C93" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -64857,207 +64861,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="D5" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="51" t="s">
+      <c r="E5" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="F5" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="51" t="s">
-        <v>130</v>
+      <c r="I5" s="52" t="s">
+        <v>131</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="A6" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="D6" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="E6" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="F6" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="52" t="s">
         <v>139</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="G7" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="55" t="s">
-        <v>146</v>
+      <c r="I7" s="56" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="C8" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="D8" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="H8" s="54" t="s">
         <v>153</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="F9" s="53" t="s">
         <v>159</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>162</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="C11" s="54" t="s">
         <v>165</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>166</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>168</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>169</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="53" t="s">
-        <v>169</v>
+      <c r="B13" s="54" t="s">
+        <v>170</v>
       </c>
-      <c r="I13" s="56" t="s">
-        <v>170</v>
+      <c r="I13" s="57" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="53" t="s">
-        <v>171</v>
+      <c r="B14" s="54" t="s">
+        <v>172</v>
       </c>
-      <c r="I14" s="56" t="s">
-        <v>172</v>
+      <c r="I14" s="57" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="53" t="s">
-        <v>173</v>
+      <c r="B18" s="54" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52" t="s">
-        <v>125</v>
+      <c r="B19" s="53" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="54" t="s">
-        <v>174</v>
+      <c r="B20" s="55" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="175">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Se omite la integración de un mecanismo de respaldos ya que la herramienta bitrix24 genera respaldos por parte de los creadores de forma diaria en cualquiera de sus planes (gratuito y de pago). En caso de requerir una reposición de la base de datos en bitrix24 será necesario ingresar a http://bitrix.es/soporte/helpdesk/index2.php?show_wizard=Y y generar un ticket para reposicion de la base de datos agregando la fecha a la cual se desea dicha actualización, el repositorio de git se encuentra ubicada en la nube por lo que se omite el respaldo del mismo.</t>
   </si>
   <si>
-    <t>Sistema SOS, se respaldara la base de datos al finalizar cada mes, los archivos de respaldo se deberán almacenar en raíz de carpeta repositorio/backup con el nombre aaaamm.sql (Responsable de ejecución Jovanny Zepeda).</t>
-  </si>
-  <si>
     <t>Control de accesos a Bitrix</t>
   </si>
   <si>
@@ -366,7 +363,7 @@
     <t>Ciclo de vida</t>
   </si>
   <si>
-    <t>sosciclo.esy.es</t>
+    <t>http://procesos.selvv.com/</t>
   </si>
   <si>
     <t>Contiene información detallada del ciclo de vida de la empresa</t>
@@ -1165,10 +1162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:137"/>
+  <dimension ref="1:136"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -64213,22 +64210,22 @@
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="B82" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="18"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
+      <c r="B83" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="9"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
@@ -64237,35 +64234,37 @@
     </row>
     <row r="84" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="39"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="C85" s="39"/>
+      <c r="C85" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="40" t="s">
-        <v>101</v>
+      <c r="B86" s="41" t="s">
+        <v>102</v>
       </c>
-      <c r="C86" s="40" t="s">
-        <v>102</v>
+      <c r="C86" s="41" t="s">
+        <v>103</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
@@ -64273,13 +64272,13 @@
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
       <c r="B87" s="41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D87" s="0"/>
       <c r="E87" s="0"/>
@@ -64287,119 +64286,114 @@
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="B88" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C88" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" s="0"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="0"/>
       <c r="F88" s="0"/>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="42"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>108</v>
+      </c>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="43"/>
-      <c r="B90" s="44" t="s">
-        <v>107</v>
+    <row r="90" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="46" t="s">
+        <v>109</v>
       </c>
-      <c r="C90" s="44" t="s">
-        <v>108</v>
+      <c r="C90" s="47" t="s">
+        <v>110</v>
       </c>
-      <c r="D90" s="45" t="s">
-        <v>109</v>
+      <c r="D90" s="48" t="s">
+        <v>111</v>
       </c>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0"/>
       <c r="B91" s="46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D91" s="48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0"/>
+    <row r="92" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="35"/>
       <c r="B92" s="46" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D92" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="35"/>
-      <c r="B93" s="46" t="s">
-        <v>116</v>
+    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="49" t="s">
+        <v>118</v>
       </c>
-      <c r="C93" s="47" t="s">
-        <v>117</v>
+      <c r="C93" s="50" t="s">
+        <v>119</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="49" t="s">
-        <v>119</v>
+    <row r="94" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="43" t="s">
+        <v>121</v>
       </c>
-      <c r="C94" s="50" t="s">
-        <v>120</v>
+      <c r="C94" s="51" t="s">
+        <v>122</v>
       </c>
-      <c r="D94" s="48" t="s">
-        <v>121</v>
+      <c r="D94" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="E94" s="0"/>
       <c r="F94" s="0"/>
       <c r="G94" s="0"/>
       <c r="H94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>124</v>
-      </c>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="0"/>
       <c r="E95" s="0"/>
       <c r="F95" s="0"/>
       <c r="G95" s="0"/>
@@ -64408,11 +64402,11 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="43"/>
@@ -64768,18 +64762,9 @@
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
@@ -64814,13 +64799,12 @@
     <mergeCell ref="B77:C78"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C91" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C93" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C90" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C92" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -64861,36 +64845,36 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="E5" s="52" t="s">
         <v>128</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>129</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
@@ -64898,122 +64882,122 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="C6" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="D6" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="E6" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="G6" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="H6" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="I6" s="52" t="s">
         <v>139</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="G7" s="54" t="s">
         <v>145</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>146</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="E8" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="F8" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="H8" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="I8" s="56" t="s">
         <v>153</v>
-      </c>
-      <c r="I8" s="56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="E9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="F9" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="I9" s="56" t="s">
         <v>159</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="I10" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="I10" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="I11" s="57" t="s">
         <v>165</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>166</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
@@ -65021,13 +65005,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="I12" s="57" t="s">
         <v>168</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>169</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
@@ -65035,33 +65019,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="177">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>No_conformidades</t>
+  </si>
+  <si>
+    <t>Filosofía</t>
+  </si>
+  <si>
+    <t>Filosofía SOS Software – aaaa</t>
   </si>
   <si>
     <t>Plan de métricas anual</t>
@@ -1162,10 +1168,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:136"/>
+  <dimension ref="1:137"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -49610,10 +49616,10 @@
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10"/>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="25" t="s">
         <v>69</v>
       </c>
       <c r="D51" s="0"/>
@@ -50641,10 +50647,10 @@
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10"/>
       <c r="B52" s="16" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -51671,7 +51677,7 @@
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10"/>
       <c r="B53" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>72</v>
@@ -52699,7 +52705,7 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="16" t="s">
         <v>73</v>
       </c>
@@ -53728,12 +53734,14 @@
       <c r="AMI54" s="0"/>
       <c r="AMJ54" s="0"/>
     </row>
-    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="0"/>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
       <c r="F55" s="0"/>
@@ -54758,10 +54766,10 @@
     </row>
     <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="0"/>
-      <c r="B56" s="14" t="s">
-        <v>76</v>
+      <c r="B56" s="22" t="s">
+        <v>77</v>
       </c>
-      <c r="C56" s="14"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -55784,12 +55792,12 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="B57" s="26" t="s">
-        <v>77</v>
+      <c r="B57" s="14" t="s">
+        <v>78</v>
       </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -56812,14 +56820,12 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="B58" s="15" t="s">
-        <v>78</v>
+      <c r="B58" s="26" t="s">
+        <v>79</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>78</v>
-      </c>
+      <c r="C58" s="26"/>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
@@ -57842,10 +57848,10 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
       <c r="B59" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>80</v>
@@ -58872,12 +58878,14 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10"/>
-      <c r="B60" s="26" t="s">
-        <v>6</v>
+    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="15" t="s">
+        <v>81</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
       <c r="F60" s="0"/>
@@ -59900,14 +59908,12 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="10"/>
-      <c r="B61" s="15" t="s">
-        <v>81</v>
+      <c r="B61" s="26" t="s">
+        <v>6</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="C61" s="26"/>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
@@ -60930,13 +60936,13 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10"/>
       <c r="B62" s="15" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
@@ -61962,10 +61968,12 @@
     </row>
     <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="10"/>
-      <c r="B63" s="26" t="s">
-        <v>84</v>
+      <c r="B63" s="15" t="s">
+        <v>7</v>
       </c>
-      <c r="C63" s="26"/>
+      <c r="C63" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
@@ -62990,12 +62998,10 @@
     </row>
     <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="10"/>
-      <c r="B64" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="16" t="s">
+      <c r="B64" s="26" t="s">
         <v>86</v>
       </c>
+      <c r="C64" s="26"/>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
@@ -64018,113 +64024,1133 @@
       <c r="AMI64" s="0"/>
       <c r="AMJ64" s="0"/>
     </row>
-    <row r="65" s="20" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10"/>
       <c r="B65" s="16" t="s">
         <v>87</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>88</v>
       </c>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="0"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
+      <c r="R65" s="0"/>
+      <c r="S65" s="0"/>
+      <c r="T65" s="0"/>
+      <c r="U65" s="0"/>
+      <c r="V65" s="0"/>
+      <c r="W65" s="0"/>
+      <c r="X65" s="0"/>
+      <c r="Y65" s="0"/>
+      <c r="Z65" s="0"/>
+      <c r="AA65" s="0"/>
+      <c r="AB65" s="0"/>
+      <c r="AC65" s="0"/>
+      <c r="AD65" s="0"/>
+      <c r="AE65" s="0"/>
+      <c r="AF65" s="0"/>
+      <c r="AG65" s="0"/>
+      <c r="AH65" s="0"/>
+      <c r="AI65" s="0"/>
+      <c r="AJ65" s="0"/>
+      <c r="AK65" s="0"/>
+      <c r="AL65" s="0"/>
+      <c r="AM65" s="0"/>
+      <c r="AN65" s="0"/>
+      <c r="AO65" s="0"/>
+      <c r="AP65" s="0"/>
+      <c r="AQ65" s="0"/>
+      <c r="AR65" s="0"/>
+      <c r="AS65" s="0"/>
+      <c r="AT65" s="0"/>
+      <c r="AU65" s="0"/>
+      <c r="AV65" s="0"/>
+      <c r="AW65" s="0"/>
+      <c r="AX65" s="0"/>
+      <c r="AY65" s="0"/>
+      <c r="AZ65" s="0"/>
+      <c r="BA65" s="0"/>
+      <c r="BB65" s="0"/>
+      <c r="BC65" s="0"/>
+      <c r="BD65" s="0"/>
+      <c r="BE65" s="0"/>
+      <c r="BF65" s="0"/>
+      <c r="BG65" s="0"/>
+      <c r="BH65" s="0"/>
+      <c r="BI65" s="0"/>
+      <c r="BJ65" s="0"/>
+      <c r="BK65" s="0"/>
+      <c r="BL65" s="0"/>
+      <c r="BM65" s="0"/>
+      <c r="BN65" s="0"/>
+      <c r="BO65" s="0"/>
+      <c r="BP65" s="0"/>
+      <c r="BQ65" s="0"/>
+      <c r="BR65" s="0"/>
+      <c r="BS65" s="0"/>
+      <c r="BT65" s="0"/>
+      <c r="BU65" s="0"/>
+      <c r="BV65" s="0"/>
+      <c r="BW65" s="0"/>
+      <c r="BX65" s="0"/>
+      <c r="BY65" s="0"/>
+      <c r="BZ65" s="0"/>
+      <c r="CA65" s="0"/>
+      <c r="CB65" s="0"/>
+      <c r="CC65" s="0"/>
+      <c r="CD65" s="0"/>
+      <c r="CE65" s="0"/>
+      <c r="CF65" s="0"/>
+      <c r="CG65" s="0"/>
+      <c r="CH65" s="0"/>
+      <c r="CI65" s="0"/>
+      <c r="CJ65" s="0"/>
+      <c r="CK65" s="0"/>
+      <c r="CL65" s="0"/>
+      <c r="CM65" s="0"/>
+      <c r="CN65" s="0"/>
+      <c r="CO65" s="0"/>
+      <c r="CP65" s="0"/>
+      <c r="CQ65" s="0"/>
+      <c r="CR65" s="0"/>
+      <c r="CS65" s="0"/>
+      <c r="CT65" s="0"/>
+      <c r="CU65" s="0"/>
+      <c r="CV65" s="0"/>
+      <c r="CW65" s="0"/>
+      <c r="CX65" s="0"/>
+      <c r="CY65" s="0"/>
+      <c r="CZ65" s="0"/>
+      <c r="DA65" s="0"/>
+      <c r="DB65" s="0"/>
+      <c r="DC65" s="0"/>
+      <c r="DD65" s="0"/>
+      <c r="DE65" s="0"/>
+      <c r="DF65" s="0"/>
+      <c r="DG65" s="0"/>
+      <c r="DH65" s="0"/>
+      <c r="DI65" s="0"/>
+      <c r="DJ65" s="0"/>
+      <c r="DK65" s="0"/>
+      <c r="DL65" s="0"/>
+      <c r="DM65" s="0"/>
+      <c r="DN65" s="0"/>
+      <c r="DO65" s="0"/>
+      <c r="DP65" s="0"/>
+      <c r="DQ65" s="0"/>
+      <c r="DR65" s="0"/>
+      <c r="DS65" s="0"/>
+      <c r="DT65" s="0"/>
+      <c r="DU65" s="0"/>
+      <c r="DV65" s="0"/>
+      <c r="DW65" s="0"/>
+      <c r="DX65" s="0"/>
+      <c r="DY65" s="0"/>
+      <c r="DZ65" s="0"/>
+      <c r="EA65" s="0"/>
+      <c r="EB65" s="0"/>
+      <c r="EC65" s="0"/>
+      <c r="ED65" s="0"/>
+      <c r="EE65" s="0"/>
+      <c r="EF65" s="0"/>
+      <c r="EG65" s="0"/>
+      <c r="EH65" s="0"/>
+      <c r="EI65" s="0"/>
+      <c r="EJ65" s="0"/>
+      <c r="EK65" s="0"/>
+      <c r="EL65" s="0"/>
+      <c r="EM65" s="0"/>
+      <c r="EN65" s="0"/>
+      <c r="EO65" s="0"/>
+      <c r="EP65" s="0"/>
+      <c r="EQ65" s="0"/>
+      <c r="ER65" s="0"/>
+      <c r="ES65" s="0"/>
+      <c r="ET65" s="0"/>
+      <c r="EU65" s="0"/>
+      <c r="EV65" s="0"/>
+      <c r="EW65" s="0"/>
+      <c r="EX65" s="0"/>
+      <c r="EY65" s="0"/>
+      <c r="EZ65" s="0"/>
+      <c r="FA65" s="0"/>
+      <c r="FB65" s="0"/>
+      <c r="FC65" s="0"/>
+      <c r="FD65" s="0"/>
+      <c r="FE65" s="0"/>
+      <c r="FF65" s="0"/>
+      <c r="FG65" s="0"/>
+      <c r="FH65" s="0"/>
+      <c r="FI65" s="0"/>
+      <c r="FJ65" s="0"/>
+      <c r="FK65" s="0"/>
+      <c r="FL65" s="0"/>
+      <c r="FM65" s="0"/>
+      <c r="FN65" s="0"/>
+      <c r="FO65" s="0"/>
+      <c r="FP65" s="0"/>
+      <c r="FQ65" s="0"/>
+      <c r="FR65" s="0"/>
+      <c r="FS65" s="0"/>
+      <c r="FT65" s="0"/>
+      <c r="FU65" s="0"/>
+      <c r="FV65" s="0"/>
+      <c r="FW65" s="0"/>
+      <c r="FX65" s="0"/>
+      <c r="FY65" s="0"/>
+      <c r="FZ65" s="0"/>
+      <c r="GA65" s="0"/>
+      <c r="GB65" s="0"/>
+      <c r="GC65" s="0"/>
+      <c r="GD65" s="0"/>
+      <c r="GE65" s="0"/>
+      <c r="GF65" s="0"/>
+      <c r="GG65" s="0"/>
+      <c r="GH65" s="0"/>
+      <c r="GI65" s="0"/>
+      <c r="GJ65" s="0"/>
+      <c r="GK65" s="0"/>
+      <c r="GL65" s="0"/>
+      <c r="GM65" s="0"/>
+      <c r="GN65" s="0"/>
+      <c r="GO65" s="0"/>
+      <c r="GP65" s="0"/>
+      <c r="GQ65" s="0"/>
+      <c r="GR65" s="0"/>
+      <c r="GS65" s="0"/>
+      <c r="GT65" s="0"/>
+      <c r="GU65" s="0"/>
+      <c r="GV65" s="0"/>
+      <c r="GW65" s="0"/>
+      <c r="GX65" s="0"/>
+      <c r="GY65" s="0"/>
+      <c r="GZ65" s="0"/>
+      <c r="HA65" s="0"/>
+      <c r="HB65" s="0"/>
+      <c r="HC65" s="0"/>
+      <c r="HD65" s="0"/>
+      <c r="HE65" s="0"/>
+      <c r="HF65" s="0"/>
+      <c r="HG65" s="0"/>
+      <c r="HH65" s="0"/>
+      <c r="HI65" s="0"/>
+      <c r="HJ65" s="0"/>
+      <c r="HK65" s="0"/>
+      <c r="HL65" s="0"/>
+      <c r="HM65" s="0"/>
+      <c r="HN65" s="0"/>
+      <c r="HO65" s="0"/>
+      <c r="HP65" s="0"/>
+      <c r="HQ65" s="0"/>
+      <c r="HR65" s="0"/>
+      <c r="HS65" s="0"/>
+      <c r="HT65" s="0"/>
+      <c r="HU65" s="0"/>
+      <c r="HV65" s="0"/>
+      <c r="HW65" s="0"/>
+      <c r="HX65" s="0"/>
+      <c r="HY65" s="0"/>
+      <c r="HZ65" s="0"/>
+      <c r="IA65" s="0"/>
+      <c r="IB65" s="0"/>
+      <c r="IC65" s="0"/>
+      <c r="ID65" s="0"/>
+      <c r="IE65" s="0"/>
+      <c r="IF65" s="0"/>
+      <c r="IG65" s="0"/>
+      <c r="IH65" s="0"/>
+      <c r="II65" s="0"/>
+      <c r="IJ65" s="0"/>
+      <c r="IK65" s="0"/>
+      <c r="IL65" s="0"/>
+      <c r="IM65" s="0"/>
+      <c r="IN65" s="0"/>
+      <c r="IO65" s="0"/>
+      <c r="IP65" s="0"/>
+      <c r="IQ65" s="0"/>
+      <c r="IR65" s="0"/>
+      <c r="IS65" s="0"/>
+      <c r="IT65" s="0"/>
+      <c r="IU65" s="0"/>
+      <c r="IV65" s="0"/>
+      <c r="IW65" s="0"/>
+      <c r="IX65" s="0"/>
+      <c r="IY65" s="0"/>
+      <c r="IZ65" s="0"/>
+      <c r="JA65" s="0"/>
+      <c r="JB65" s="0"/>
+      <c r="JC65" s="0"/>
+      <c r="JD65" s="0"/>
+      <c r="JE65" s="0"/>
+      <c r="JF65" s="0"/>
+      <c r="JG65" s="0"/>
+      <c r="JH65" s="0"/>
+      <c r="JI65" s="0"/>
+      <c r="JJ65" s="0"/>
+      <c r="JK65" s="0"/>
+      <c r="JL65" s="0"/>
+      <c r="JM65" s="0"/>
+      <c r="JN65" s="0"/>
+      <c r="JO65" s="0"/>
+      <c r="JP65" s="0"/>
+      <c r="JQ65" s="0"/>
+      <c r="JR65" s="0"/>
+      <c r="JS65" s="0"/>
+      <c r="JT65" s="0"/>
+      <c r="JU65" s="0"/>
+      <c r="JV65" s="0"/>
+      <c r="JW65" s="0"/>
+      <c r="JX65" s="0"/>
+      <c r="JY65" s="0"/>
+      <c r="JZ65" s="0"/>
+      <c r="KA65" s="0"/>
+      <c r="KB65" s="0"/>
+      <c r="KC65" s="0"/>
+      <c r="KD65" s="0"/>
+      <c r="KE65" s="0"/>
+      <c r="KF65" s="0"/>
+      <c r="KG65" s="0"/>
+      <c r="KH65" s="0"/>
+      <c r="KI65" s="0"/>
+      <c r="KJ65" s="0"/>
+      <c r="KK65" s="0"/>
+      <c r="KL65" s="0"/>
+      <c r="KM65" s="0"/>
+      <c r="KN65" s="0"/>
+      <c r="KO65" s="0"/>
+      <c r="KP65" s="0"/>
+      <c r="KQ65" s="0"/>
+      <c r="KR65" s="0"/>
+      <c r="KS65" s="0"/>
+      <c r="KT65" s="0"/>
+      <c r="KU65" s="0"/>
+      <c r="KV65" s="0"/>
+      <c r="KW65" s="0"/>
+      <c r="KX65" s="0"/>
+      <c r="KY65" s="0"/>
+      <c r="KZ65" s="0"/>
+      <c r="LA65" s="0"/>
+      <c r="LB65" s="0"/>
+      <c r="LC65" s="0"/>
+      <c r="LD65" s="0"/>
+      <c r="LE65" s="0"/>
+      <c r="LF65" s="0"/>
+      <c r="LG65" s="0"/>
+      <c r="LH65" s="0"/>
+      <c r="LI65" s="0"/>
+      <c r="LJ65" s="0"/>
+      <c r="LK65" s="0"/>
+      <c r="LL65" s="0"/>
+      <c r="LM65" s="0"/>
+      <c r="LN65" s="0"/>
+      <c r="LO65" s="0"/>
+      <c r="LP65" s="0"/>
+      <c r="LQ65" s="0"/>
+      <c r="LR65" s="0"/>
+      <c r="LS65" s="0"/>
+      <c r="LT65" s="0"/>
+      <c r="LU65" s="0"/>
+      <c r="LV65" s="0"/>
+      <c r="LW65" s="0"/>
+      <c r="LX65" s="0"/>
+      <c r="LY65" s="0"/>
+      <c r="LZ65" s="0"/>
+      <c r="MA65" s="0"/>
+      <c r="MB65" s="0"/>
+      <c r="MC65" s="0"/>
+      <c r="MD65" s="0"/>
+      <c r="ME65" s="0"/>
+      <c r="MF65" s="0"/>
+      <c r="MG65" s="0"/>
+      <c r="MH65" s="0"/>
+      <c r="MI65" s="0"/>
+      <c r="MJ65" s="0"/>
+      <c r="MK65" s="0"/>
+      <c r="ML65" s="0"/>
+      <c r="MM65" s="0"/>
+      <c r="MN65" s="0"/>
+      <c r="MO65" s="0"/>
+      <c r="MP65" s="0"/>
+      <c r="MQ65" s="0"/>
+      <c r="MR65" s="0"/>
+      <c r="MS65" s="0"/>
+      <c r="MT65" s="0"/>
+      <c r="MU65" s="0"/>
+      <c r="MV65" s="0"/>
+      <c r="MW65" s="0"/>
+      <c r="MX65" s="0"/>
+      <c r="MY65" s="0"/>
+      <c r="MZ65" s="0"/>
+      <c r="NA65" s="0"/>
+      <c r="NB65" s="0"/>
+      <c r="NC65" s="0"/>
+      <c r="ND65" s="0"/>
+      <c r="NE65" s="0"/>
+      <c r="NF65" s="0"/>
+      <c r="NG65" s="0"/>
+      <c r="NH65" s="0"/>
+      <c r="NI65" s="0"/>
+      <c r="NJ65" s="0"/>
+      <c r="NK65" s="0"/>
+      <c r="NL65" s="0"/>
+      <c r="NM65" s="0"/>
+      <c r="NN65" s="0"/>
+      <c r="NO65" s="0"/>
+      <c r="NP65" s="0"/>
+      <c r="NQ65" s="0"/>
+      <c r="NR65" s="0"/>
+      <c r="NS65" s="0"/>
+      <c r="NT65" s="0"/>
+      <c r="NU65" s="0"/>
+      <c r="NV65" s="0"/>
+      <c r="NW65" s="0"/>
+      <c r="NX65" s="0"/>
+      <c r="NY65" s="0"/>
+      <c r="NZ65" s="0"/>
+      <c r="OA65" s="0"/>
+      <c r="OB65" s="0"/>
+      <c r="OC65" s="0"/>
+      <c r="OD65" s="0"/>
+      <c r="OE65" s="0"/>
+      <c r="OF65" s="0"/>
+      <c r="OG65" s="0"/>
+      <c r="OH65" s="0"/>
+      <c r="OI65" s="0"/>
+      <c r="OJ65" s="0"/>
+      <c r="OK65" s="0"/>
+      <c r="OL65" s="0"/>
+      <c r="OM65" s="0"/>
+      <c r="ON65" s="0"/>
+      <c r="OO65" s="0"/>
+      <c r="OP65" s="0"/>
+      <c r="OQ65" s="0"/>
+      <c r="OR65" s="0"/>
+      <c r="OS65" s="0"/>
+      <c r="OT65" s="0"/>
+      <c r="OU65" s="0"/>
+      <c r="OV65" s="0"/>
+      <c r="OW65" s="0"/>
+      <c r="OX65" s="0"/>
+      <c r="OY65" s="0"/>
+      <c r="OZ65" s="0"/>
+      <c r="PA65" s="0"/>
+      <c r="PB65" s="0"/>
+      <c r="PC65" s="0"/>
+      <c r="PD65" s="0"/>
+      <c r="PE65" s="0"/>
+      <c r="PF65" s="0"/>
+      <c r="PG65" s="0"/>
+      <c r="PH65" s="0"/>
+      <c r="PI65" s="0"/>
+      <c r="PJ65" s="0"/>
+      <c r="PK65" s="0"/>
+      <c r="PL65" s="0"/>
+      <c r="PM65" s="0"/>
+      <c r="PN65" s="0"/>
+      <c r="PO65" s="0"/>
+      <c r="PP65" s="0"/>
+      <c r="PQ65" s="0"/>
+      <c r="PR65" s="0"/>
+      <c r="PS65" s="0"/>
+      <c r="PT65" s="0"/>
+      <c r="PU65" s="0"/>
+      <c r="PV65" s="0"/>
+      <c r="PW65" s="0"/>
+      <c r="PX65" s="0"/>
+      <c r="PY65" s="0"/>
+      <c r="PZ65" s="0"/>
+      <c r="QA65" s="0"/>
+      <c r="QB65" s="0"/>
+      <c r="QC65" s="0"/>
+      <c r="QD65" s="0"/>
+      <c r="QE65" s="0"/>
+      <c r="QF65" s="0"/>
+      <c r="QG65" s="0"/>
+      <c r="QH65" s="0"/>
+      <c r="QI65" s="0"/>
+      <c r="QJ65" s="0"/>
+      <c r="QK65" s="0"/>
+      <c r="QL65" s="0"/>
+      <c r="QM65" s="0"/>
+      <c r="QN65" s="0"/>
+      <c r="QO65" s="0"/>
+      <c r="QP65" s="0"/>
+      <c r="QQ65" s="0"/>
+      <c r="QR65" s="0"/>
+      <c r="QS65" s="0"/>
+      <c r="QT65" s="0"/>
+      <c r="QU65" s="0"/>
+      <c r="QV65" s="0"/>
+      <c r="QW65" s="0"/>
+      <c r="QX65" s="0"/>
+      <c r="QY65" s="0"/>
+      <c r="QZ65" s="0"/>
+      <c r="RA65" s="0"/>
+      <c r="RB65" s="0"/>
+      <c r="RC65" s="0"/>
+      <c r="RD65" s="0"/>
+      <c r="RE65" s="0"/>
+      <c r="RF65" s="0"/>
+      <c r="RG65" s="0"/>
+      <c r="RH65" s="0"/>
+      <c r="RI65" s="0"/>
+      <c r="RJ65" s="0"/>
+      <c r="RK65" s="0"/>
+      <c r="RL65" s="0"/>
+      <c r="RM65" s="0"/>
+      <c r="RN65" s="0"/>
+      <c r="RO65" s="0"/>
+      <c r="RP65" s="0"/>
+      <c r="RQ65" s="0"/>
+      <c r="RR65" s="0"/>
+      <c r="RS65" s="0"/>
+      <c r="RT65" s="0"/>
+      <c r="RU65" s="0"/>
+      <c r="RV65" s="0"/>
+      <c r="RW65" s="0"/>
+      <c r="RX65" s="0"/>
+      <c r="RY65" s="0"/>
+      <c r="RZ65" s="0"/>
+      <c r="SA65" s="0"/>
+      <c r="SB65" s="0"/>
+      <c r="SC65" s="0"/>
+      <c r="SD65" s="0"/>
+      <c r="SE65" s="0"/>
+      <c r="SF65" s="0"/>
+      <c r="SG65" s="0"/>
+      <c r="SH65" s="0"/>
+      <c r="SI65" s="0"/>
+      <c r="SJ65" s="0"/>
+      <c r="SK65" s="0"/>
+      <c r="SL65" s="0"/>
+      <c r="SM65" s="0"/>
+      <c r="SN65" s="0"/>
+      <c r="SO65" s="0"/>
+      <c r="SP65" s="0"/>
+      <c r="SQ65" s="0"/>
+      <c r="SR65" s="0"/>
+      <c r="SS65" s="0"/>
+      <c r="ST65" s="0"/>
+      <c r="SU65" s="0"/>
+      <c r="SV65" s="0"/>
+      <c r="SW65" s="0"/>
+      <c r="SX65" s="0"/>
+      <c r="SY65" s="0"/>
+      <c r="SZ65" s="0"/>
+      <c r="TA65" s="0"/>
+      <c r="TB65" s="0"/>
+      <c r="TC65" s="0"/>
+      <c r="TD65" s="0"/>
+      <c r="TE65" s="0"/>
+      <c r="TF65" s="0"/>
+      <c r="TG65" s="0"/>
+      <c r="TH65" s="0"/>
+      <c r="TI65" s="0"/>
+      <c r="TJ65" s="0"/>
+      <c r="TK65" s="0"/>
+      <c r="TL65" s="0"/>
+      <c r="TM65" s="0"/>
+      <c r="TN65" s="0"/>
+      <c r="TO65" s="0"/>
+      <c r="TP65" s="0"/>
+      <c r="TQ65" s="0"/>
+      <c r="TR65" s="0"/>
+      <c r="TS65" s="0"/>
+      <c r="TT65" s="0"/>
+      <c r="TU65" s="0"/>
+      <c r="TV65" s="0"/>
+      <c r="TW65" s="0"/>
+      <c r="TX65" s="0"/>
+      <c r="TY65" s="0"/>
+      <c r="TZ65" s="0"/>
+      <c r="UA65" s="0"/>
+      <c r="UB65" s="0"/>
+      <c r="UC65" s="0"/>
+      <c r="UD65" s="0"/>
+      <c r="UE65" s="0"/>
+      <c r="UF65" s="0"/>
+      <c r="UG65" s="0"/>
+      <c r="UH65" s="0"/>
+      <c r="UI65" s="0"/>
+      <c r="UJ65" s="0"/>
+      <c r="UK65" s="0"/>
+      <c r="UL65" s="0"/>
+      <c r="UM65" s="0"/>
+      <c r="UN65" s="0"/>
+      <c r="UO65" s="0"/>
+      <c r="UP65" s="0"/>
+      <c r="UQ65" s="0"/>
+      <c r="UR65" s="0"/>
+      <c r="US65" s="0"/>
+      <c r="UT65" s="0"/>
+      <c r="UU65" s="0"/>
+      <c r="UV65" s="0"/>
+      <c r="UW65" s="0"/>
+      <c r="UX65" s="0"/>
+      <c r="UY65" s="0"/>
+      <c r="UZ65" s="0"/>
+      <c r="VA65" s="0"/>
+      <c r="VB65" s="0"/>
+      <c r="VC65" s="0"/>
+      <c r="VD65" s="0"/>
+      <c r="VE65" s="0"/>
+      <c r="VF65" s="0"/>
+      <c r="VG65" s="0"/>
+      <c r="VH65" s="0"/>
+      <c r="VI65" s="0"/>
+      <c r="VJ65" s="0"/>
+      <c r="VK65" s="0"/>
+      <c r="VL65" s="0"/>
+      <c r="VM65" s="0"/>
+      <c r="VN65" s="0"/>
+      <c r="VO65" s="0"/>
+      <c r="VP65" s="0"/>
+      <c r="VQ65" s="0"/>
+      <c r="VR65" s="0"/>
+      <c r="VS65" s="0"/>
+      <c r="VT65" s="0"/>
+      <c r="VU65" s="0"/>
+      <c r="VV65" s="0"/>
+      <c r="VW65" s="0"/>
+      <c r="VX65" s="0"/>
+      <c r="VY65" s="0"/>
+      <c r="VZ65" s="0"/>
+      <c r="WA65" s="0"/>
+      <c r="WB65" s="0"/>
+      <c r="WC65" s="0"/>
+      <c r="WD65" s="0"/>
+      <c r="WE65" s="0"/>
+      <c r="WF65" s="0"/>
+      <c r="WG65" s="0"/>
+      <c r="WH65" s="0"/>
+      <c r="WI65" s="0"/>
+      <c r="WJ65" s="0"/>
+      <c r="WK65" s="0"/>
+      <c r="WL65" s="0"/>
+      <c r="WM65" s="0"/>
+      <c r="WN65" s="0"/>
+      <c r="WO65" s="0"/>
+      <c r="WP65" s="0"/>
+      <c r="WQ65" s="0"/>
+      <c r="WR65" s="0"/>
+      <c r="WS65" s="0"/>
+      <c r="WT65" s="0"/>
+      <c r="WU65" s="0"/>
+      <c r="WV65" s="0"/>
+      <c r="WW65" s="0"/>
+      <c r="WX65" s="0"/>
+      <c r="WY65" s="0"/>
+      <c r="WZ65" s="0"/>
+      <c r="XA65" s="0"/>
+      <c r="XB65" s="0"/>
+      <c r="XC65" s="0"/>
+      <c r="XD65" s="0"/>
+      <c r="XE65" s="0"/>
+      <c r="XF65" s="0"/>
+      <c r="XG65" s="0"/>
+      <c r="XH65" s="0"/>
+      <c r="XI65" s="0"/>
+      <c r="XJ65" s="0"/>
+      <c r="XK65" s="0"/>
+      <c r="XL65" s="0"/>
+      <c r="XM65" s="0"/>
+      <c r="XN65" s="0"/>
+      <c r="XO65" s="0"/>
+      <c r="XP65" s="0"/>
+      <c r="XQ65" s="0"/>
+      <c r="XR65" s="0"/>
+      <c r="XS65" s="0"/>
+      <c r="XT65" s="0"/>
+      <c r="XU65" s="0"/>
+      <c r="XV65" s="0"/>
+      <c r="XW65" s="0"/>
+      <c r="XX65" s="0"/>
+      <c r="XY65" s="0"/>
+      <c r="XZ65" s="0"/>
+      <c r="YA65" s="0"/>
+      <c r="YB65" s="0"/>
+      <c r="YC65" s="0"/>
+      <c r="YD65" s="0"/>
+      <c r="YE65" s="0"/>
+      <c r="YF65" s="0"/>
+      <c r="YG65" s="0"/>
+      <c r="YH65" s="0"/>
+      <c r="YI65" s="0"/>
+      <c r="YJ65" s="0"/>
+      <c r="YK65" s="0"/>
+      <c r="YL65" s="0"/>
+      <c r="YM65" s="0"/>
+      <c r="YN65" s="0"/>
+      <c r="YO65" s="0"/>
+      <c r="YP65" s="0"/>
+      <c r="YQ65" s="0"/>
+      <c r="YR65" s="0"/>
+      <c r="YS65" s="0"/>
+      <c r="YT65" s="0"/>
+      <c r="YU65" s="0"/>
+      <c r="YV65" s="0"/>
+      <c r="YW65" s="0"/>
+      <c r="YX65" s="0"/>
+      <c r="YY65" s="0"/>
+      <c r="YZ65" s="0"/>
+      <c r="ZA65" s="0"/>
+      <c r="ZB65" s="0"/>
+      <c r="ZC65" s="0"/>
+      <c r="ZD65" s="0"/>
+      <c r="ZE65" s="0"/>
+      <c r="ZF65" s="0"/>
+      <c r="ZG65" s="0"/>
+      <c r="ZH65" s="0"/>
+      <c r="ZI65" s="0"/>
+      <c r="ZJ65" s="0"/>
+      <c r="ZK65" s="0"/>
+      <c r="ZL65" s="0"/>
+      <c r="ZM65" s="0"/>
+      <c r="ZN65" s="0"/>
+      <c r="ZO65" s="0"/>
+      <c r="ZP65" s="0"/>
+      <c r="ZQ65" s="0"/>
+      <c r="ZR65" s="0"/>
+      <c r="ZS65" s="0"/>
+      <c r="ZT65" s="0"/>
+      <c r="ZU65" s="0"/>
+      <c r="ZV65" s="0"/>
+      <c r="ZW65" s="0"/>
+      <c r="ZX65" s="0"/>
+      <c r="ZY65" s="0"/>
+      <c r="ZZ65" s="0"/>
+      <c r="AAA65" s="0"/>
+      <c r="AAB65" s="0"/>
+      <c r="AAC65" s="0"/>
+      <c r="AAD65" s="0"/>
+      <c r="AAE65" s="0"/>
+      <c r="AAF65" s="0"/>
+      <c r="AAG65" s="0"/>
+      <c r="AAH65" s="0"/>
+      <c r="AAI65" s="0"/>
+      <c r="AAJ65" s="0"/>
+      <c r="AAK65" s="0"/>
+      <c r="AAL65" s="0"/>
+      <c r="AAM65" s="0"/>
+      <c r="AAN65" s="0"/>
+      <c r="AAO65" s="0"/>
+      <c r="AAP65" s="0"/>
+      <c r="AAQ65" s="0"/>
+      <c r="AAR65" s="0"/>
+      <c r="AAS65" s="0"/>
+      <c r="AAT65" s="0"/>
+      <c r="AAU65" s="0"/>
+      <c r="AAV65" s="0"/>
+      <c r="AAW65" s="0"/>
+      <c r="AAX65" s="0"/>
+      <c r="AAY65" s="0"/>
+      <c r="AAZ65" s="0"/>
+      <c r="ABA65" s="0"/>
+      <c r="ABB65" s="0"/>
+      <c r="ABC65" s="0"/>
+      <c r="ABD65" s="0"/>
+      <c r="ABE65" s="0"/>
+      <c r="ABF65" s="0"/>
+      <c r="ABG65" s="0"/>
+      <c r="ABH65" s="0"/>
+      <c r="ABI65" s="0"/>
+      <c r="ABJ65" s="0"/>
+      <c r="ABK65" s="0"/>
+      <c r="ABL65" s="0"/>
+      <c r="ABM65" s="0"/>
+      <c r="ABN65" s="0"/>
+      <c r="ABO65" s="0"/>
+      <c r="ABP65" s="0"/>
+      <c r="ABQ65" s="0"/>
+      <c r="ABR65" s="0"/>
+      <c r="ABS65" s="0"/>
+      <c r="ABT65" s="0"/>
+      <c r="ABU65" s="0"/>
+      <c r="ABV65" s="0"/>
+      <c r="ABW65" s="0"/>
+      <c r="ABX65" s="0"/>
+      <c r="ABY65" s="0"/>
+      <c r="ABZ65" s="0"/>
+      <c r="ACA65" s="0"/>
+      <c r="ACB65" s="0"/>
+      <c r="ACC65" s="0"/>
+      <c r="ACD65" s="0"/>
+      <c r="ACE65" s="0"/>
+      <c r="ACF65" s="0"/>
+      <c r="ACG65" s="0"/>
+      <c r="ACH65" s="0"/>
+      <c r="ACI65" s="0"/>
+      <c r="ACJ65" s="0"/>
+      <c r="ACK65" s="0"/>
+      <c r="ACL65" s="0"/>
+      <c r="ACM65" s="0"/>
+      <c r="ACN65" s="0"/>
+      <c r="ACO65" s="0"/>
+      <c r="ACP65" s="0"/>
+      <c r="ACQ65" s="0"/>
+      <c r="ACR65" s="0"/>
+      <c r="ACS65" s="0"/>
+      <c r="ACT65" s="0"/>
+      <c r="ACU65" s="0"/>
+      <c r="ACV65" s="0"/>
+      <c r="ACW65" s="0"/>
+      <c r="ACX65" s="0"/>
+      <c r="ACY65" s="0"/>
+      <c r="ACZ65" s="0"/>
+      <c r="ADA65" s="0"/>
+      <c r="ADB65" s="0"/>
+      <c r="ADC65" s="0"/>
+      <c r="ADD65" s="0"/>
+      <c r="ADE65" s="0"/>
+      <c r="ADF65" s="0"/>
+      <c r="ADG65" s="0"/>
+      <c r="ADH65" s="0"/>
+      <c r="ADI65" s="0"/>
+      <c r="ADJ65" s="0"/>
+      <c r="ADK65" s="0"/>
+      <c r="ADL65" s="0"/>
+      <c r="ADM65" s="0"/>
+      <c r="ADN65" s="0"/>
+      <c r="ADO65" s="0"/>
+      <c r="ADP65" s="0"/>
+      <c r="ADQ65" s="0"/>
+      <c r="ADR65" s="0"/>
+      <c r="ADS65" s="0"/>
+      <c r="ADT65" s="0"/>
+      <c r="ADU65" s="0"/>
+      <c r="ADV65" s="0"/>
+      <c r="ADW65" s="0"/>
+      <c r="ADX65" s="0"/>
+      <c r="ADY65" s="0"/>
+      <c r="ADZ65" s="0"/>
+      <c r="AEA65" s="0"/>
+      <c r="AEB65" s="0"/>
+      <c r="AEC65" s="0"/>
+      <c r="AED65" s="0"/>
+      <c r="AEE65" s="0"/>
+      <c r="AEF65" s="0"/>
+      <c r="AEG65" s="0"/>
+      <c r="AEH65" s="0"/>
+      <c r="AEI65" s="0"/>
+      <c r="AEJ65" s="0"/>
+      <c r="AEK65" s="0"/>
+      <c r="AEL65" s="0"/>
+      <c r="AEM65" s="0"/>
+      <c r="AEN65" s="0"/>
+      <c r="AEO65" s="0"/>
+      <c r="AEP65" s="0"/>
+      <c r="AEQ65" s="0"/>
+      <c r="AER65" s="0"/>
+      <c r="AES65" s="0"/>
+      <c r="AET65" s="0"/>
+      <c r="AEU65" s="0"/>
+      <c r="AEV65" s="0"/>
+      <c r="AEW65" s="0"/>
+      <c r="AEX65" s="0"/>
+      <c r="AEY65" s="0"/>
+      <c r="AEZ65" s="0"/>
+      <c r="AFA65" s="0"/>
+      <c r="AFB65" s="0"/>
+      <c r="AFC65" s="0"/>
+      <c r="AFD65" s="0"/>
+      <c r="AFE65" s="0"/>
+      <c r="AFF65" s="0"/>
+      <c r="AFG65" s="0"/>
+      <c r="AFH65" s="0"/>
+      <c r="AFI65" s="0"/>
+      <c r="AFJ65" s="0"/>
+      <c r="AFK65" s="0"/>
+      <c r="AFL65" s="0"/>
+      <c r="AFM65" s="0"/>
+      <c r="AFN65" s="0"/>
+      <c r="AFO65" s="0"/>
+      <c r="AFP65" s="0"/>
+      <c r="AFQ65" s="0"/>
+      <c r="AFR65" s="0"/>
+      <c r="AFS65" s="0"/>
+      <c r="AFT65" s="0"/>
+      <c r="AFU65" s="0"/>
+      <c r="AFV65" s="0"/>
+      <c r="AFW65" s="0"/>
+      <c r="AFX65" s="0"/>
+      <c r="AFY65" s="0"/>
+      <c r="AFZ65" s="0"/>
+      <c r="AGA65" s="0"/>
+      <c r="AGB65" s="0"/>
+      <c r="AGC65" s="0"/>
+      <c r="AGD65" s="0"/>
+      <c r="AGE65" s="0"/>
+      <c r="AGF65" s="0"/>
+      <c r="AGG65" s="0"/>
+      <c r="AGH65" s="0"/>
+      <c r="AGI65" s="0"/>
+      <c r="AGJ65" s="0"/>
+      <c r="AGK65" s="0"/>
+      <c r="AGL65" s="0"/>
+      <c r="AGM65" s="0"/>
+      <c r="AGN65" s="0"/>
+      <c r="AGO65" s="0"/>
+      <c r="AGP65" s="0"/>
+      <c r="AGQ65" s="0"/>
+      <c r="AGR65" s="0"/>
+      <c r="AGS65" s="0"/>
+      <c r="AGT65" s="0"/>
+      <c r="AGU65" s="0"/>
+      <c r="AGV65" s="0"/>
+      <c r="AGW65" s="0"/>
+      <c r="AGX65" s="0"/>
+      <c r="AGY65" s="0"/>
+      <c r="AGZ65" s="0"/>
+      <c r="AHA65" s="0"/>
+      <c r="AHB65" s="0"/>
+      <c r="AHC65" s="0"/>
+      <c r="AHD65" s="0"/>
+      <c r="AHE65" s="0"/>
+      <c r="AHF65" s="0"/>
+      <c r="AHG65" s="0"/>
+      <c r="AHH65" s="0"/>
+      <c r="AHI65" s="0"/>
+      <c r="AHJ65" s="0"/>
+      <c r="AHK65" s="0"/>
+      <c r="AHL65" s="0"/>
+      <c r="AHM65" s="0"/>
+      <c r="AHN65" s="0"/>
+      <c r="AHO65" s="0"/>
+      <c r="AHP65" s="0"/>
+      <c r="AHQ65" s="0"/>
+      <c r="AHR65" s="0"/>
+      <c r="AHS65" s="0"/>
+      <c r="AHT65" s="0"/>
+      <c r="AHU65" s="0"/>
+      <c r="AHV65" s="0"/>
+      <c r="AHW65" s="0"/>
+      <c r="AHX65" s="0"/>
+      <c r="AHY65" s="0"/>
+      <c r="AHZ65" s="0"/>
+      <c r="AIA65" s="0"/>
+      <c r="AIB65" s="0"/>
+      <c r="AIC65" s="0"/>
+      <c r="AID65" s="0"/>
+      <c r="AIE65" s="0"/>
+      <c r="AIF65" s="0"/>
+      <c r="AIG65" s="0"/>
+      <c r="AIH65" s="0"/>
+      <c r="AII65" s="0"/>
+      <c r="AIJ65" s="0"/>
+      <c r="AIK65" s="0"/>
+      <c r="AIL65" s="0"/>
+      <c r="AIM65" s="0"/>
+      <c r="AIN65" s="0"/>
+      <c r="AIO65" s="0"/>
+      <c r="AIP65" s="0"/>
+      <c r="AIQ65" s="0"/>
+      <c r="AIR65" s="0"/>
+      <c r="AIS65" s="0"/>
+      <c r="AIT65" s="0"/>
+      <c r="AIU65" s="0"/>
+      <c r="AIV65" s="0"/>
+      <c r="AIW65" s="0"/>
+      <c r="AIX65" s="0"/>
+      <c r="AIY65" s="0"/>
+      <c r="AIZ65" s="0"/>
+      <c r="AJA65" s="0"/>
+      <c r="AJB65" s="0"/>
+      <c r="AJC65" s="0"/>
+      <c r="AJD65" s="0"/>
+      <c r="AJE65" s="0"/>
+      <c r="AJF65" s="0"/>
+      <c r="AJG65" s="0"/>
+      <c r="AJH65" s="0"/>
+      <c r="AJI65" s="0"/>
+      <c r="AJJ65" s="0"/>
+      <c r="AJK65" s="0"/>
+      <c r="AJL65" s="0"/>
+      <c r="AJM65" s="0"/>
+      <c r="AJN65" s="0"/>
+      <c r="AJO65" s="0"/>
+      <c r="AJP65" s="0"/>
+      <c r="AJQ65" s="0"/>
+      <c r="AJR65" s="0"/>
+      <c r="AJS65" s="0"/>
+      <c r="AJT65" s="0"/>
+      <c r="AJU65" s="0"/>
+      <c r="AJV65" s="0"/>
+      <c r="AJW65" s="0"/>
+      <c r="AJX65" s="0"/>
+      <c r="AJY65" s="0"/>
+      <c r="AJZ65" s="0"/>
+      <c r="AKA65" s="0"/>
+      <c r="AKB65" s="0"/>
+      <c r="AKC65" s="0"/>
+      <c r="AKD65" s="0"/>
+      <c r="AKE65" s="0"/>
+      <c r="AKF65" s="0"/>
+      <c r="AKG65" s="0"/>
+      <c r="AKH65" s="0"/>
+      <c r="AKI65" s="0"/>
+      <c r="AKJ65" s="0"/>
+      <c r="AKK65" s="0"/>
+      <c r="AKL65" s="0"/>
+      <c r="AKM65" s="0"/>
+      <c r="AKN65" s="0"/>
+      <c r="AKO65" s="0"/>
+      <c r="AKP65" s="0"/>
+      <c r="AKQ65" s="0"/>
+      <c r="AKR65" s="0"/>
+      <c r="AKS65" s="0"/>
+      <c r="AKT65" s="0"/>
+      <c r="AKU65" s="0"/>
+      <c r="AKV65" s="0"/>
+      <c r="AKW65" s="0"/>
+      <c r="AKX65" s="0"/>
+      <c r="AKY65" s="0"/>
+      <c r="AKZ65" s="0"/>
+      <c r="ALA65" s="0"/>
+      <c r="ALB65" s="0"/>
+      <c r="ALC65" s="0"/>
+      <c r="ALD65" s="0"/>
+      <c r="ALE65" s="0"/>
+      <c r="ALF65" s="0"/>
+      <c r="ALG65" s="0"/>
+      <c r="ALH65" s="0"/>
+      <c r="ALI65" s="0"/>
+      <c r="ALJ65" s="0"/>
+      <c r="ALK65" s="0"/>
+      <c r="ALL65" s="0"/>
+      <c r="ALM65" s="0"/>
+      <c r="ALN65" s="0"/>
+      <c r="ALO65" s="0"/>
+      <c r="ALP65" s="0"/>
+      <c r="ALQ65" s="0"/>
+      <c r="ALR65" s="0"/>
+      <c r="ALS65" s="0"/>
+      <c r="ALT65" s="0"/>
+      <c r="ALU65" s="0"/>
+      <c r="ALV65" s="0"/>
+      <c r="ALW65" s="0"/>
+      <c r="ALX65" s="0"/>
+      <c r="ALY65" s="0"/>
+      <c r="ALZ65" s="0"/>
+      <c r="AMA65" s="0"/>
+      <c r="AMB65" s="0"/>
+      <c r="AMC65" s="0"/>
+      <c r="AMD65" s="0"/>
+      <c r="AME65" s="0"/>
+      <c r="AMF65" s="0"/>
+      <c r="AMG65" s="0"/>
+      <c r="AMH65" s="0"/>
+      <c r="AMI65" s="0"/>
+      <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
+    <row r="66" s="20" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B66" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="0"/>
-      <c r="B67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="9"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="0"/>
-      <c r="B68" s="28" t="s">
-        <v>89</v>
+      <c r="B68" s="9" t="s">
+        <v>59</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>90</v>
-      </c>
+      <c r="C68" s="9"/>
       <c r="D68" s="0"/>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
       <c r="G68" s="0"/>
       <c r="H68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="0"/>
-      <c r="B69" s="29" t="s">
-        <v>59</v>
+      <c r="B69" s="28" t="s">
+        <v>91</v>
       </c>
-      <c r="C69" s="29"/>
+      <c r="C69" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="30" t="s">
-        <v>91</v>
+      <c r="B70" s="29" t="s">
+        <v>59</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>92</v>
-      </c>
+      <c r="C70" s="29"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
+      <c r="B71" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="32"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
       <c r="F72" s="0"/>
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
-      <c r="B73" s="33" t="s">
-        <v>94</v>
+      <c r="B73" s="32" t="s">
+        <v>95</v>
       </c>
-      <c r="C73" s="33"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="B74" s="33"/>
+      <c r="B74" s="33" t="s">
+        <v>96</v>
+      </c>
       <c r="C74" s="33"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
@@ -64132,43 +65158,43 @@
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="B76" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="9"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="34" t="s">
-        <v>95</v>
+      <c r="B77" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="C77" s="34"/>
+      <c r="C77" s="9"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="34"/>
+      <c r="B78" s="34" t="s">
+        <v>97</v>
+      </c>
       <c r="C78" s="34"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
@@ -64176,56 +65202,54 @@
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="35"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="37"/>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="3"/>
+    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="35"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="18" t="s">
-        <v>97</v>
+      <c r="B81" s="3" t="s">
+        <v>98</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="C81" s="3"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="0"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
+      <c r="B82" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="18"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="9"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
@@ -64234,36 +65258,34 @@
     </row>
     <row r="84" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="39" t="s">
-        <v>99</v>
+      <c r="B84" s="9" t="s">
+        <v>100</v>
       </c>
-      <c r="C84" s="39"/>
+      <c r="C84" s="9"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="40" t="s">
+      <c r="B85" s="39" t="s">
         <v>101</v>
       </c>
+      <c r="C85" s="39"/>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="40" t="s">
         <v>103</v>
       </c>
       <c r="D86" s="0"/>
@@ -64272,7 +65294,7 @@
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
       <c r="B87" s="41" t="s">
         <v>104</v>
@@ -64286,114 +65308,119 @@
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="42"/>
+      <c r="B88" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="0"/>
       <c r="E88" s="0"/>
       <c r="F88" s="0"/>
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="43"/>
-      <c r="B89" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C89" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>108</v>
-      </c>
+      <c r="A89" s="0"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="42"/>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
-      <c r="B90" s="46" t="s">
+    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="43"/>
+      <c r="B90" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C90" s="47" t="s">
+      <c r="D90" s="45" t="s">
         <v>110</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>111</v>
       </c>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0"/>
       <c r="B91" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="D91" s="48" t="s">
         <v>113</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>114</v>
       </c>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="35"/>
+    <row r="92" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0"/>
       <c r="B92" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C92" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="47" t="s">
+      <c r="D92" s="48" t="s">
         <v>116</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>117</v>
       </c>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="49" t="s">
+    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="35"/>
+      <c r="B93" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="D93" s="48" t="s">
         <v>119</v>
-      </c>
-      <c r="D93" s="48" t="s">
-        <v>120</v>
       </c>
       <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="43" t="s">
+    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="D94" s="48" t="s">
         <v>122</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>123</v>
       </c>
       <c r="E94" s="0"/>
       <c r="F94" s="0"/>
       <c r="G94" s="0"/>
       <c r="H94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="0"/>
+    <row r="95" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="E95" s="0"/>
       <c r="F95" s="0"/>
       <c r="G95" s="0"/>
@@ -64402,11 +65429,11 @@
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="43"/>
@@ -64762,6 +65789,15 @@
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -64785,26 +65821,26 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C78"/>
-    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C79"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C90" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C92" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C91" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C93" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -64845,36 +65881,36 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
@@ -64882,122 +65918,122 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="54" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="56" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I8" s="56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D9" s="53" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F9" s="53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I9" s="56" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
@@ -65005,13 +66041,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="54" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I12" s="57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
@@ -65019,33 +66055,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I13" s="57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I14" s="57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="55" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -22,12 +22,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="178">
   <si>
     <t>Plan de Administración de Configuración</t>
   </si>
   <si>
     <t>Para la correcta identificacion de un archivo se toma la siguiente base , carpeta origen/Carpeta/subcarpeta/ archivo. Ejemplo : Origen/Organización/Planeación/PTL_Plan_proyecto</t>
+  </si>
+  <si>
+    <t>Archivos adicionales de importancia para la empresa y que no estén contemplados en el plan de configuración se deberán almacenar en la carpeta Documentos Adicionales</t>
   </si>
   <si>
     <t>Items de Configuración (Árbol maestro)</t>
@@ -792,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -805,6 +808,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -857,7 +867,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -886,7 +896,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,7 +984,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -974,7 +992,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1168,10 +1186,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:137"/>
+  <dimension ref="1:139"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2256,2067 +2274,23 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+    <row r="3" s="4" customFormat="true" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
-      <c r="V3" s="0"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0"/>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0"/>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0"/>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0"/>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0"/>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0"/>
-      <c r="AT3" s="0"/>
-      <c r="AU3" s="0"/>
-      <c r="AV3" s="0"/>
-      <c r="AW3" s="0"/>
-      <c r="AX3" s="0"/>
-      <c r="AY3" s="0"/>
-      <c r="AZ3" s="0"/>
-      <c r="BA3" s="0"/>
-      <c r="BB3" s="0"/>
-      <c r="BC3" s="0"/>
-      <c r="BD3" s="0"/>
-      <c r="BE3" s="0"/>
-      <c r="BF3" s="0"/>
-      <c r="BG3" s="0"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
-      <c r="BJ3" s="0"/>
-      <c r="BK3" s="0"/>
-      <c r="BL3" s="0"/>
-      <c r="BM3" s="0"/>
-      <c r="BN3" s="0"/>
-      <c r="BO3" s="0"/>
-      <c r="BP3" s="0"/>
-      <c r="BQ3" s="0"/>
-      <c r="BR3" s="0"/>
-      <c r="BS3" s="0"/>
-      <c r="BT3" s="0"/>
-      <c r="BU3" s="0"/>
-      <c r="BV3" s="0"/>
-      <c r="BW3" s="0"/>
-      <c r="BX3" s="0"/>
-      <c r="BY3" s="0"/>
-      <c r="BZ3" s="0"/>
-      <c r="CA3" s="0"/>
-      <c r="CB3" s="0"/>
-      <c r="CC3" s="0"/>
-      <c r="CD3" s="0"/>
-      <c r="CE3" s="0"/>
-      <c r="CF3" s="0"/>
-      <c r="CG3" s="0"/>
-      <c r="CH3" s="0"/>
-      <c r="CI3" s="0"/>
-      <c r="CJ3" s="0"/>
-      <c r="CK3" s="0"/>
-      <c r="CL3" s="0"/>
-      <c r="CM3" s="0"/>
-      <c r="CN3" s="0"/>
-      <c r="CO3" s="0"/>
-      <c r="CP3" s="0"/>
-      <c r="CQ3" s="0"/>
-      <c r="CR3" s="0"/>
-      <c r="CS3" s="0"/>
-      <c r="CT3" s="0"/>
-      <c r="CU3" s="0"/>
-      <c r="CV3" s="0"/>
-      <c r="CW3" s="0"/>
-      <c r="CX3" s="0"/>
-      <c r="CY3" s="0"/>
-      <c r="CZ3" s="0"/>
-      <c r="DA3" s="0"/>
-      <c r="DB3" s="0"/>
-      <c r="DC3" s="0"/>
-      <c r="DD3" s="0"/>
-      <c r="DE3" s="0"/>
-      <c r="DF3" s="0"/>
-      <c r="DG3" s="0"/>
-      <c r="DH3" s="0"/>
-      <c r="DI3" s="0"/>
-      <c r="DJ3" s="0"/>
-      <c r="DK3" s="0"/>
-      <c r="DL3" s="0"/>
-      <c r="DM3" s="0"/>
-      <c r="DN3" s="0"/>
-      <c r="DO3" s="0"/>
-      <c r="DP3" s="0"/>
-      <c r="DQ3" s="0"/>
-      <c r="DR3" s="0"/>
-      <c r="DS3" s="0"/>
-      <c r="DT3" s="0"/>
-      <c r="DU3" s="0"/>
-      <c r="DV3" s="0"/>
-      <c r="DW3" s="0"/>
-      <c r="DX3" s="0"/>
-      <c r="DY3" s="0"/>
-      <c r="DZ3" s="0"/>
-      <c r="EA3" s="0"/>
-      <c r="EB3" s="0"/>
-      <c r="EC3" s="0"/>
-      <c r="ED3" s="0"/>
-      <c r="EE3" s="0"/>
-      <c r="EF3" s="0"/>
-      <c r="EG3" s="0"/>
-      <c r="EH3" s="0"/>
-      <c r="EI3" s="0"/>
-      <c r="EJ3" s="0"/>
-      <c r="EK3" s="0"/>
-      <c r="EL3" s="0"/>
-      <c r="EM3" s="0"/>
-      <c r="EN3" s="0"/>
-      <c r="EO3" s="0"/>
-      <c r="EP3" s="0"/>
-      <c r="EQ3" s="0"/>
-      <c r="ER3" s="0"/>
-      <c r="ES3" s="0"/>
-      <c r="ET3" s="0"/>
-      <c r="EU3" s="0"/>
-      <c r="EV3" s="0"/>
-      <c r="EW3" s="0"/>
-      <c r="EX3" s="0"/>
-      <c r="EY3" s="0"/>
-      <c r="EZ3" s="0"/>
-      <c r="FA3" s="0"/>
-      <c r="FB3" s="0"/>
-      <c r="FC3" s="0"/>
-      <c r="FD3" s="0"/>
-      <c r="FE3" s="0"/>
-      <c r="FF3" s="0"/>
-      <c r="FG3" s="0"/>
-      <c r="FH3" s="0"/>
-      <c r="FI3" s="0"/>
-      <c r="FJ3" s="0"/>
-      <c r="FK3" s="0"/>
-      <c r="FL3" s="0"/>
-      <c r="FM3" s="0"/>
-      <c r="FN3" s="0"/>
-      <c r="FO3" s="0"/>
-      <c r="FP3" s="0"/>
-      <c r="FQ3" s="0"/>
-      <c r="FR3" s="0"/>
-      <c r="FS3" s="0"/>
-      <c r="FT3" s="0"/>
-      <c r="FU3" s="0"/>
-      <c r="FV3" s="0"/>
-      <c r="FW3" s="0"/>
-      <c r="FX3" s="0"/>
-      <c r="FY3" s="0"/>
-      <c r="FZ3" s="0"/>
-      <c r="GA3" s="0"/>
-      <c r="GB3" s="0"/>
-      <c r="GC3" s="0"/>
-      <c r="GD3" s="0"/>
-      <c r="GE3" s="0"/>
-      <c r="GF3" s="0"/>
-      <c r="GG3" s="0"/>
-      <c r="GH3" s="0"/>
-      <c r="GI3" s="0"/>
-      <c r="GJ3" s="0"/>
-      <c r="GK3" s="0"/>
-      <c r="GL3" s="0"/>
-      <c r="GM3" s="0"/>
-      <c r="GN3" s="0"/>
-      <c r="GO3" s="0"/>
-      <c r="GP3" s="0"/>
-      <c r="GQ3" s="0"/>
-      <c r="GR3" s="0"/>
-      <c r="GS3" s="0"/>
-      <c r="GT3" s="0"/>
-      <c r="GU3" s="0"/>
-      <c r="GV3" s="0"/>
-      <c r="GW3" s="0"/>
-      <c r="GX3" s="0"/>
-      <c r="GY3" s="0"/>
-      <c r="GZ3" s="0"/>
-      <c r="HA3" s="0"/>
-      <c r="HB3" s="0"/>
-      <c r="HC3" s="0"/>
-      <c r="HD3" s="0"/>
-      <c r="HE3" s="0"/>
-      <c r="HF3" s="0"/>
-      <c r="HG3" s="0"/>
-      <c r="HH3" s="0"/>
-      <c r="HI3" s="0"/>
-      <c r="HJ3" s="0"/>
-      <c r="HK3" s="0"/>
-      <c r="HL3" s="0"/>
-      <c r="HM3" s="0"/>
-      <c r="HN3" s="0"/>
-      <c r="HO3" s="0"/>
-      <c r="HP3" s="0"/>
-      <c r="HQ3" s="0"/>
-      <c r="HR3" s="0"/>
-      <c r="HS3" s="0"/>
-      <c r="HT3" s="0"/>
-      <c r="HU3" s="0"/>
-      <c r="HV3" s="0"/>
-      <c r="HW3" s="0"/>
-      <c r="HX3" s="0"/>
-      <c r="HY3" s="0"/>
-      <c r="HZ3" s="0"/>
-      <c r="IA3" s="0"/>
-      <c r="IB3" s="0"/>
-      <c r="IC3" s="0"/>
-      <c r="ID3" s="0"/>
-      <c r="IE3" s="0"/>
-      <c r="IF3" s="0"/>
-      <c r="IG3" s="0"/>
-      <c r="IH3" s="0"/>
-      <c r="II3" s="0"/>
-      <c r="IJ3" s="0"/>
-      <c r="IK3" s="0"/>
-      <c r="IL3" s="0"/>
-      <c r="IM3" s="0"/>
-      <c r="IN3" s="0"/>
-      <c r="IO3" s="0"/>
-      <c r="IP3" s="0"/>
-      <c r="IQ3" s="0"/>
-      <c r="IR3" s="0"/>
-      <c r="IS3" s="0"/>
-      <c r="IT3" s="0"/>
-      <c r="IU3" s="0"/>
-      <c r="IV3" s="0"/>
-      <c r="IW3" s="0"/>
-      <c r="IX3" s="0"/>
-      <c r="IY3" s="0"/>
-      <c r="IZ3" s="0"/>
-      <c r="JA3" s="0"/>
-      <c r="JB3" s="0"/>
-      <c r="JC3" s="0"/>
-      <c r="JD3" s="0"/>
-      <c r="JE3" s="0"/>
-      <c r="JF3" s="0"/>
-      <c r="JG3" s="0"/>
-      <c r="JH3" s="0"/>
-      <c r="JI3" s="0"/>
-      <c r="JJ3" s="0"/>
-      <c r="JK3" s="0"/>
-      <c r="JL3" s="0"/>
-      <c r="JM3" s="0"/>
-      <c r="JN3" s="0"/>
-      <c r="JO3" s="0"/>
-      <c r="JP3" s="0"/>
-      <c r="JQ3" s="0"/>
-      <c r="JR3" s="0"/>
-      <c r="JS3" s="0"/>
-      <c r="JT3" s="0"/>
-      <c r="JU3" s="0"/>
-      <c r="JV3" s="0"/>
-      <c r="JW3" s="0"/>
-      <c r="JX3" s="0"/>
-      <c r="JY3" s="0"/>
-      <c r="JZ3" s="0"/>
-      <c r="KA3" s="0"/>
-      <c r="KB3" s="0"/>
-      <c r="KC3" s="0"/>
-      <c r="KD3" s="0"/>
-      <c r="KE3" s="0"/>
-      <c r="KF3" s="0"/>
-      <c r="KG3" s="0"/>
-      <c r="KH3" s="0"/>
-      <c r="KI3" s="0"/>
-      <c r="KJ3" s="0"/>
-      <c r="KK3" s="0"/>
-      <c r="KL3" s="0"/>
-      <c r="KM3" s="0"/>
-      <c r="KN3" s="0"/>
-      <c r="KO3" s="0"/>
-      <c r="KP3" s="0"/>
-      <c r="KQ3" s="0"/>
-      <c r="KR3" s="0"/>
-      <c r="KS3" s="0"/>
-      <c r="KT3" s="0"/>
-      <c r="KU3" s="0"/>
-      <c r="KV3" s="0"/>
-      <c r="KW3" s="0"/>
-      <c r="KX3" s="0"/>
-      <c r="KY3" s="0"/>
-      <c r="KZ3" s="0"/>
-      <c r="LA3" s="0"/>
-      <c r="LB3" s="0"/>
-      <c r="LC3" s="0"/>
-      <c r="LD3" s="0"/>
-      <c r="LE3" s="0"/>
-      <c r="LF3" s="0"/>
-      <c r="LG3" s="0"/>
-      <c r="LH3" s="0"/>
-      <c r="LI3" s="0"/>
-      <c r="LJ3" s="0"/>
-      <c r="LK3" s="0"/>
-      <c r="LL3" s="0"/>
-      <c r="LM3" s="0"/>
-      <c r="LN3" s="0"/>
-      <c r="LO3" s="0"/>
-      <c r="LP3" s="0"/>
-      <c r="LQ3" s="0"/>
-      <c r="LR3" s="0"/>
-      <c r="LS3" s="0"/>
-      <c r="LT3" s="0"/>
-      <c r="LU3" s="0"/>
-      <c r="LV3" s="0"/>
-      <c r="LW3" s="0"/>
-      <c r="LX3" s="0"/>
-      <c r="LY3" s="0"/>
-      <c r="LZ3" s="0"/>
-      <c r="MA3" s="0"/>
-      <c r="MB3" s="0"/>
-      <c r="MC3" s="0"/>
-      <c r="MD3" s="0"/>
-      <c r="ME3" s="0"/>
-      <c r="MF3" s="0"/>
-      <c r="MG3" s="0"/>
-      <c r="MH3" s="0"/>
-      <c r="MI3" s="0"/>
-      <c r="MJ3" s="0"/>
-      <c r="MK3" s="0"/>
-      <c r="ML3" s="0"/>
-      <c r="MM3" s="0"/>
-      <c r="MN3" s="0"/>
-      <c r="MO3" s="0"/>
-      <c r="MP3" s="0"/>
-      <c r="MQ3" s="0"/>
-      <c r="MR3" s="0"/>
-      <c r="MS3" s="0"/>
-      <c r="MT3" s="0"/>
-      <c r="MU3" s="0"/>
-      <c r="MV3" s="0"/>
-      <c r="MW3" s="0"/>
-      <c r="MX3" s="0"/>
-      <c r="MY3" s="0"/>
-      <c r="MZ3" s="0"/>
-      <c r="NA3" s="0"/>
-      <c r="NB3" s="0"/>
-      <c r="NC3" s="0"/>
-      <c r="ND3" s="0"/>
-      <c r="NE3" s="0"/>
-      <c r="NF3" s="0"/>
-      <c r="NG3" s="0"/>
-      <c r="NH3" s="0"/>
-      <c r="NI3" s="0"/>
-      <c r="NJ3" s="0"/>
-      <c r="NK3" s="0"/>
-      <c r="NL3" s="0"/>
-      <c r="NM3" s="0"/>
-      <c r="NN3" s="0"/>
-      <c r="NO3" s="0"/>
-      <c r="NP3" s="0"/>
-      <c r="NQ3" s="0"/>
-      <c r="NR3" s="0"/>
-      <c r="NS3" s="0"/>
-      <c r="NT3" s="0"/>
-      <c r="NU3" s="0"/>
-      <c r="NV3" s="0"/>
-      <c r="NW3" s="0"/>
-      <c r="NX3" s="0"/>
-      <c r="NY3" s="0"/>
-      <c r="NZ3" s="0"/>
-      <c r="OA3" s="0"/>
-      <c r="OB3" s="0"/>
-      <c r="OC3" s="0"/>
-      <c r="OD3" s="0"/>
-      <c r="OE3" s="0"/>
-      <c r="OF3" s="0"/>
-      <c r="OG3" s="0"/>
-      <c r="OH3" s="0"/>
-      <c r="OI3" s="0"/>
-      <c r="OJ3" s="0"/>
-      <c r="OK3" s="0"/>
-      <c r="OL3" s="0"/>
-      <c r="OM3" s="0"/>
-      <c r="ON3" s="0"/>
-      <c r="OO3" s="0"/>
-      <c r="OP3" s="0"/>
-      <c r="OQ3" s="0"/>
-      <c r="OR3" s="0"/>
-      <c r="OS3" s="0"/>
-      <c r="OT3" s="0"/>
-      <c r="OU3" s="0"/>
-      <c r="OV3" s="0"/>
-      <c r="OW3" s="0"/>
-      <c r="OX3" s="0"/>
-      <c r="OY3" s="0"/>
-      <c r="OZ3" s="0"/>
-      <c r="PA3" s="0"/>
-      <c r="PB3" s="0"/>
-      <c r="PC3" s="0"/>
-      <c r="PD3" s="0"/>
-      <c r="PE3" s="0"/>
-      <c r="PF3" s="0"/>
-      <c r="PG3" s="0"/>
-      <c r="PH3" s="0"/>
-      <c r="PI3" s="0"/>
-      <c r="PJ3" s="0"/>
-      <c r="PK3" s="0"/>
-      <c r="PL3" s="0"/>
-      <c r="PM3" s="0"/>
-      <c r="PN3" s="0"/>
-      <c r="PO3" s="0"/>
-      <c r="PP3" s="0"/>
-      <c r="PQ3" s="0"/>
-      <c r="PR3" s="0"/>
-      <c r="PS3" s="0"/>
-      <c r="PT3" s="0"/>
-      <c r="PU3" s="0"/>
-      <c r="PV3" s="0"/>
-      <c r="PW3" s="0"/>
-      <c r="PX3" s="0"/>
-      <c r="PY3" s="0"/>
-      <c r="PZ3" s="0"/>
-      <c r="QA3" s="0"/>
-      <c r="QB3" s="0"/>
-      <c r="QC3" s="0"/>
-      <c r="QD3" s="0"/>
-      <c r="QE3" s="0"/>
-      <c r="QF3" s="0"/>
-      <c r="QG3" s="0"/>
-      <c r="QH3" s="0"/>
-      <c r="QI3" s="0"/>
-      <c r="QJ3" s="0"/>
-      <c r="QK3" s="0"/>
-      <c r="QL3" s="0"/>
-      <c r="QM3" s="0"/>
-      <c r="QN3" s="0"/>
-      <c r="QO3" s="0"/>
-      <c r="QP3" s="0"/>
-      <c r="QQ3" s="0"/>
-      <c r="QR3" s="0"/>
-      <c r="QS3" s="0"/>
-      <c r="QT3" s="0"/>
-      <c r="QU3" s="0"/>
-      <c r="QV3" s="0"/>
-      <c r="QW3" s="0"/>
-      <c r="QX3" s="0"/>
-      <c r="QY3" s="0"/>
-      <c r="QZ3" s="0"/>
-      <c r="RA3" s="0"/>
-      <c r="RB3" s="0"/>
-      <c r="RC3" s="0"/>
-      <c r="RD3" s="0"/>
-      <c r="RE3" s="0"/>
-      <c r="RF3" s="0"/>
-      <c r="RG3" s="0"/>
-      <c r="RH3" s="0"/>
-      <c r="RI3" s="0"/>
-      <c r="RJ3" s="0"/>
-      <c r="RK3" s="0"/>
-      <c r="RL3" s="0"/>
-      <c r="RM3" s="0"/>
-      <c r="RN3" s="0"/>
-      <c r="RO3" s="0"/>
-      <c r="RP3" s="0"/>
-      <c r="RQ3" s="0"/>
-      <c r="RR3" s="0"/>
-      <c r="RS3" s="0"/>
-      <c r="RT3" s="0"/>
-      <c r="RU3" s="0"/>
-      <c r="RV3" s="0"/>
-      <c r="RW3" s="0"/>
-      <c r="RX3" s="0"/>
-      <c r="RY3" s="0"/>
-      <c r="RZ3" s="0"/>
-      <c r="SA3" s="0"/>
-      <c r="SB3" s="0"/>
-      <c r="SC3" s="0"/>
-      <c r="SD3" s="0"/>
-      <c r="SE3" s="0"/>
-      <c r="SF3" s="0"/>
-      <c r="SG3" s="0"/>
-      <c r="SH3" s="0"/>
-      <c r="SI3" s="0"/>
-      <c r="SJ3" s="0"/>
-      <c r="SK3" s="0"/>
-      <c r="SL3" s="0"/>
-      <c r="SM3" s="0"/>
-      <c r="SN3" s="0"/>
-      <c r="SO3" s="0"/>
-      <c r="SP3" s="0"/>
-      <c r="SQ3" s="0"/>
-      <c r="SR3" s="0"/>
-      <c r="SS3" s="0"/>
-      <c r="ST3" s="0"/>
-      <c r="SU3" s="0"/>
-      <c r="SV3" s="0"/>
-      <c r="SW3" s="0"/>
-      <c r="SX3" s="0"/>
-      <c r="SY3" s="0"/>
-      <c r="SZ3" s="0"/>
-      <c r="TA3" s="0"/>
-      <c r="TB3" s="0"/>
-      <c r="TC3" s="0"/>
-      <c r="TD3" s="0"/>
-      <c r="TE3" s="0"/>
-      <c r="TF3" s="0"/>
-      <c r="TG3" s="0"/>
-      <c r="TH3" s="0"/>
-      <c r="TI3" s="0"/>
-      <c r="TJ3" s="0"/>
-      <c r="TK3" s="0"/>
-      <c r="TL3" s="0"/>
-      <c r="TM3" s="0"/>
-      <c r="TN3" s="0"/>
-      <c r="TO3" s="0"/>
-      <c r="TP3" s="0"/>
-      <c r="TQ3" s="0"/>
-      <c r="TR3" s="0"/>
-      <c r="TS3" s="0"/>
-      <c r="TT3" s="0"/>
-      <c r="TU3" s="0"/>
-      <c r="TV3" s="0"/>
-      <c r="TW3" s="0"/>
-      <c r="TX3" s="0"/>
-      <c r="TY3" s="0"/>
-      <c r="TZ3" s="0"/>
-      <c r="UA3" s="0"/>
-      <c r="UB3" s="0"/>
-      <c r="UC3" s="0"/>
-      <c r="UD3" s="0"/>
-      <c r="UE3" s="0"/>
-      <c r="UF3" s="0"/>
-      <c r="UG3" s="0"/>
-      <c r="UH3" s="0"/>
-      <c r="UI3" s="0"/>
-      <c r="UJ3" s="0"/>
-      <c r="UK3" s="0"/>
-      <c r="UL3" s="0"/>
-      <c r="UM3" s="0"/>
-      <c r="UN3" s="0"/>
-      <c r="UO3" s="0"/>
-      <c r="UP3" s="0"/>
-      <c r="UQ3" s="0"/>
-      <c r="UR3" s="0"/>
-      <c r="US3" s="0"/>
-      <c r="UT3" s="0"/>
-      <c r="UU3" s="0"/>
-      <c r="UV3" s="0"/>
-      <c r="UW3" s="0"/>
-      <c r="UX3" s="0"/>
-      <c r="UY3" s="0"/>
-      <c r="UZ3" s="0"/>
-      <c r="VA3" s="0"/>
-      <c r="VB3" s="0"/>
-      <c r="VC3" s="0"/>
-      <c r="VD3" s="0"/>
-      <c r="VE3" s="0"/>
-      <c r="VF3" s="0"/>
-      <c r="VG3" s="0"/>
-      <c r="VH3" s="0"/>
-      <c r="VI3" s="0"/>
-      <c r="VJ3" s="0"/>
-      <c r="VK3" s="0"/>
-      <c r="VL3" s="0"/>
-      <c r="VM3" s="0"/>
-      <c r="VN3" s="0"/>
-      <c r="VO3" s="0"/>
-      <c r="VP3" s="0"/>
-      <c r="VQ3" s="0"/>
-      <c r="VR3" s="0"/>
-      <c r="VS3" s="0"/>
-      <c r="VT3" s="0"/>
-      <c r="VU3" s="0"/>
-      <c r="VV3" s="0"/>
-      <c r="VW3" s="0"/>
-      <c r="VX3" s="0"/>
-      <c r="VY3" s="0"/>
-      <c r="VZ3" s="0"/>
-      <c r="WA3" s="0"/>
-      <c r="WB3" s="0"/>
-      <c r="WC3" s="0"/>
-      <c r="WD3" s="0"/>
-      <c r="WE3" s="0"/>
-      <c r="WF3" s="0"/>
-      <c r="WG3" s="0"/>
-      <c r="WH3" s="0"/>
-      <c r="WI3" s="0"/>
-      <c r="WJ3" s="0"/>
-      <c r="WK3" s="0"/>
-      <c r="WL3" s="0"/>
-      <c r="WM3" s="0"/>
-      <c r="WN3" s="0"/>
-      <c r="WO3" s="0"/>
-      <c r="WP3" s="0"/>
-      <c r="WQ3" s="0"/>
-      <c r="WR3" s="0"/>
-      <c r="WS3" s="0"/>
-      <c r="WT3" s="0"/>
-      <c r="WU3" s="0"/>
-      <c r="WV3" s="0"/>
-      <c r="WW3" s="0"/>
-      <c r="WX3" s="0"/>
-      <c r="WY3" s="0"/>
-      <c r="WZ3" s="0"/>
-      <c r="XA3" s="0"/>
-      <c r="XB3" s="0"/>
-      <c r="XC3" s="0"/>
-      <c r="XD3" s="0"/>
-      <c r="XE3" s="0"/>
-      <c r="XF3" s="0"/>
-      <c r="XG3" s="0"/>
-      <c r="XH3" s="0"/>
-      <c r="XI3" s="0"/>
-      <c r="XJ3" s="0"/>
-      <c r="XK3" s="0"/>
-      <c r="XL3" s="0"/>
-      <c r="XM3" s="0"/>
-      <c r="XN3" s="0"/>
-      <c r="XO3" s="0"/>
-      <c r="XP3" s="0"/>
-      <c r="XQ3" s="0"/>
-      <c r="XR3" s="0"/>
-      <c r="XS3" s="0"/>
-      <c r="XT3" s="0"/>
-      <c r="XU3" s="0"/>
-      <c r="XV3" s="0"/>
-      <c r="XW3" s="0"/>
-      <c r="XX3" s="0"/>
-      <c r="XY3" s="0"/>
-      <c r="XZ3" s="0"/>
-      <c r="YA3" s="0"/>
-      <c r="YB3" s="0"/>
-      <c r="YC3" s="0"/>
-      <c r="YD3" s="0"/>
-      <c r="YE3" s="0"/>
-      <c r="YF3" s="0"/>
-      <c r="YG3" s="0"/>
-      <c r="YH3" s="0"/>
-      <c r="YI3" s="0"/>
-      <c r="YJ3" s="0"/>
-      <c r="YK3" s="0"/>
-      <c r="YL3" s="0"/>
-      <c r="YM3" s="0"/>
-      <c r="YN3" s="0"/>
-      <c r="YO3" s="0"/>
-      <c r="YP3" s="0"/>
-      <c r="YQ3" s="0"/>
-      <c r="YR3" s="0"/>
-      <c r="YS3" s="0"/>
-      <c r="YT3" s="0"/>
-      <c r="YU3" s="0"/>
-      <c r="YV3" s="0"/>
-      <c r="YW3" s="0"/>
-      <c r="YX3" s="0"/>
-      <c r="YY3" s="0"/>
-      <c r="YZ3" s="0"/>
-      <c r="ZA3" s="0"/>
-      <c r="ZB3" s="0"/>
-      <c r="ZC3" s="0"/>
-      <c r="ZD3" s="0"/>
-      <c r="ZE3" s="0"/>
-      <c r="ZF3" s="0"/>
-      <c r="ZG3" s="0"/>
-      <c r="ZH3" s="0"/>
-      <c r="ZI3" s="0"/>
-      <c r="ZJ3" s="0"/>
-      <c r="ZK3" s="0"/>
-      <c r="ZL3" s="0"/>
-      <c r="ZM3" s="0"/>
-      <c r="ZN3" s="0"/>
-      <c r="ZO3" s="0"/>
-      <c r="ZP3" s="0"/>
-      <c r="ZQ3" s="0"/>
-      <c r="ZR3" s="0"/>
-      <c r="ZS3" s="0"/>
-      <c r="ZT3" s="0"/>
-      <c r="ZU3" s="0"/>
-      <c r="ZV3" s="0"/>
-      <c r="ZW3" s="0"/>
-      <c r="ZX3" s="0"/>
-      <c r="ZY3" s="0"/>
-      <c r="ZZ3" s="0"/>
-      <c r="AAA3" s="0"/>
-      <c r="AAB3" s="0"/>
-      <c r="AAC3" s="0"/>
-      <c r="AAD3" s="0"/>
-      <c r="AAE3" s="0"/>
-      <c r="AAF3" s="0"/>
-      <c r="AAG3" s="0"/>
-      <c r="AAH3" s="0"/>
-      <c r="AAI3" s="0"/>
-      <c r="AAJ3" s="0"/>
-      <c r="AAK3" s="0"/>
-      <c r="AAL3" s="0"/>
-      <c r="AAM3" s="0"/>
-      <c r="AAN3" s="0"/>
-      <c r="AAO3" s="0"/>
-      <c r="AAP3" s="0"/>
-      <c r="AAQ3" s="0"/>
-      <c r="AAR3" s="0"/>
-      <c r="AAS3" s="0"/>
-      <c r="AAT3" s="0"/>
-      <c r="AAU3" s="0"/>
-      <c r="AAV3" s="0"/>
-      <c r="AAW3" s="0"/>
-      <c r="AAX3" s="0"/>
-      <c r="AAY3" s="0"/>
-      <c r="AAZ3" s="0"/>
-      <c r="ABA3" s="0"/>
-      <c r="ABB3" s="0"/>
-      <c r="ABC3" s="0"/>
-      <c r="ABD3" s="0"/>
-      <c r="ABE3" s="0"/>
-      <c r="ABF3" s="0"/>
-      <c r="ABG3" s="0"/>
-      <c r="ABH3" s="0"/>
-      <c r="ABI3" s="0"/>
-      <c r="ABJ3" s="0"/>
-      <c r="ABK3" s="0"/>
-      <c r="ABL3" s="0"/>
-      <c r="ABM3" s="0"/>
-      <c r="ABN3" s="0"/>
-      <c r="ABO3" s="0"/>
-      <c r="ABP3" s="0"/>
-      <c r="ABQ3" s="0"/>
-      <c r="ABR3" s="0"/>
-      <c r="ABS3" s="0"/>
-      <c r="ABT3" s="0"/>
-      <c r="ABU3" s="0"/>
-      <c r="ABV3" s="0"/>
-      <c r="ABW3" s="0"/>
-      <c r="ABX3" s="0"/>
-      <c r="ABY3" s="0"/>
-      <c r="ABZ3" s="0"/>
-      <c r="ACA3" s="0"/>
-      <c r="ACB3" s="0"/>
-      <c r="ACC3" s="0"/>
-      <c r="ACD3" s="0"/>
-      <c r="ACE3" s="0"/>
-      <c r="ACF3" s="0"/>
-      <c r="ACG3" s="0"/>
-      <c r="ACH3" s="0"/>
-      <c r="ACI3" s="0"/>
-      <c r="ACJ3" s="0"/>
-      <c r="ACK3" s="0"/>
-      <c r="ACL3" s="0"/>
-      <c r="ACM3" s="0"/>
-      <c r="ACN3" s="0"/>
-      <c r="ACO3" s="0"/>
-      <c r="ACP3" s="0"/>
-      <c r="ACQ3" s="0"/>
-      <c r="ACR3" s="0"/>
-      <c r="ACS3" s="0"/>
-      <c r="ACT3" s="0"/>
-      <c r="ACU3" s="0"/>
-      <c r="ACV3" s="0"/>
-      <c r="ACW3" s="0"/>
-      <c r="ACX3" s="0"/>
-      <c r="ACY3" s="0"/>
-      <c r="ACZ3" s="0"/>
-      <c r="ADA3" s="0"/>
-      <c r="ADB3" s="0"/>
-      <c r="ADC3" s="0"/>
-      <c r="ADD3" s="0"/>
-      <c r="ADE3" s="0"/>
-      <c r="ADF3" s="0"/>
-      <c r="ADG3" s="0"/>
-      <c r="ADH3" s="0"/>
-      <c r="ADI3" s="0"/>
-      <c r="ADJ3" s="0"/>
-      <c r="ADK3" s="0"/>
-      <c r="ADL3" s="0"/>
-      <c r="ADM3" s="0"/>
-      <c r="ADN3" s="0"/>
-      <c r="ADO3" s="0"/>
-      <c r="ADP3" s="0"/>
-      <c r="ADQ3" s="0"/>
-      <c r="ADR3" s="0"/>
-      <c r="ADS3" s="0"/>
-      <c r="ADT3" s="0"/>
-      <c r="ADU3" s="0"/>
-      <c r="ADV3" s="0"/>
-      <c r="ADW3" s="0"/>
-      <c r="ADX3" s="0"/>
-      <c r="ADY3" s="0"/>
-      <c r="ADZ3" s="0"/>
-      <c r="AEA3" s="0"/>
-      <c r="AEB3" s="0"/>
-      <c r="AEC3" s="0"/>
-      <c r="AED3" s="0"/>
-      <c r="AEE3" s="0"/>
-      <c r="AEF3" s="0"/>
-      <c r="AEG3" s="0"/>
-      <c r="AEH3" s="0"/>
-      <c r="AEI3" s="0"/>
-      <c r="AEJ3" s="0"/>
-      <c r="AEK3" s="0"/>
-      <c r="AEL3" s="0"/>
-      <c r="AEM3" s="0"/>
-      <c r="AEN3" s="0"/>
-      <c r="AEO3" s="0"/>
-      <c r="AEP3" s="0"/>
-      <c r="AEQ3" s="0"/>
-      <c r="AER3" s="0"/>
-      <c r="AES3" s="0"/>
-      <c r="AET3" s="0"/>
-      <c r="AEU3" s="0"/>
-      <c r="AEV3" s="0"/>
-      <c r="AEW3" s="0"/>
-      <c r="AEX3" s="0"/>
-      <c r="AEY3" s="0"/>
-      <c r="AEZ3" s="0"/>
-      <c r="AFA3" s="0"/>
-      <c r="AFB3" s="0"/>
-      <c r="AFC3" s="0"/>
-      <c r="AFD3" s="0"/>
-      <c r="AFE3" s="0"/>
-      <c r="AFF3" s="0"/>
-      <c r="AFG3" s="0"/>
-      <c r="AFH3" s="0"/>
-      <c r="AFI3" s="0"/>
-      <c r="AFJ3" s="0"/>
-      <c r="AFK3" s="0"/>
-      <c r="AFL3" s="0"/>
-      <c r="AFM3" s="0"/>
-      <c r="AFN3" s="0"/>
-      <c r="AFO3" s="0"/>
-      <c r="AFP3" s="0"/>
-      <c r="AFQ3" s="0"/>
-      <c r="AFR3" s="0"/>
-      <c r="AFS3" s="0"/>
-      <c r="AFT3" s="0"/>
-      <c r="AFU3" s="0"/>
-      <c r="AFV3" s="0"/>
-      <c r="AFW3" s="0"/>
-      <c r="AFX3" s="0"/>
-      <c r="AFY3" s="0"/>
-      <c r="AFZ3" s="0"/>
-      <c r="AGA3" s="0"/>
-      <c r="AGB3" s="0"/>
-      <c r="AGC3" s="0"/>
-      <c r="AGD3" s="0"/>
-      <c r="AGE3" s="0"/>
-      <c r="AGF3" s="0"/>
-      <c r="AGG3" s="0"/>
-      <c r="AGH3" s="0"/>
-      <c r="AGI3" s="0"/>
-      <c r="AGJ3" s="0"/>
-      <c r="AGK3" s="0"/>
-      <c r="AGL3" s="0"/>
-      <c r="AGM3" s="0"/>
-      <c r="AGN3" s="0"/>
-      <c r="AGO3" s="0"/>
-      <c r="AGP3" s="0"/>
-      <c r="AGQ3" s="0"/>
-      <c r="AGR3" s="0"/>
-      <c r="AGS3" s="0"/>
-      <c r="AGT3" s="0"/>
-      <c r="AGU3" s="0"/>
-      <c r="AGV3" s="0"/>
-      <c r="AGW3" s="0"/>
-      <c r="AGX3" s="0"/>
-      <c r="AGY3" s="0"/>
-      <c r="AGZ3" s="0"/>
-      <c r="AHA3" s="0"/>
-      <c r="AHB3" s="0"/>
-      <c r="AHC3" s="0"/>
-      <c r="AHD3" s="0"/>
-      <c r="AHE3" s="0"/>
-      <c r="AHF3" s="0"/>
-      <c r="AHG3" s="0"/>
-      <c r="AHH3" s="0"/>
-      <c r="AHI3" s="0"/>
-      <c r="AHJ3" s="0"/>
-      <c r="AHK3" s="0"/>
-      <c r="AHL3" s="0"/>
-      <c r="AHM3" s="0"/>
-      <c r="AHN3" s="0"/>
-      <c r="AHO3" s="0"/>
-      <c r="AHP3" s="0"/>
-      <c r="AHQ3" s="0"/>
-      <c r="AHR3" s="0"/>
-      <c r="AHS3" s="0"/>
-      <c r="AHT3" s="0"/>
-      <c r="AHU3" s="0"/>
-      <c r="AHV3" s="0"/>
-      <c r="AHW3" s="0"/>
-      <c r="AHX3" s="0"/>
-      <c r="AHY3" s="0"/>
-      <c r="AHZ3" s="0"/>
-      <c r="AIA3" s="0"/>
-      <c r="AIB3" s="0"/>
-      <c r="AIC3" s="0"/>
-      <c r="AID3" s="0"/>
-      <c r="AIE3" s="0"/>
-      <c r="AIF3" s="0"/>
-      <c r="AIG3" s="0"/>
-      <c r="AIH3" s="0"/>
-      <c r="AII3" s="0"/>
-      <c r="AIJ3" s="0"/>
-      <c r="AIK3" s="0"/>
-      <c r="AIL3" s="0"/>
-      <c r="AIM3" s="0"/>
-      <c r="AIN3" s="0"/>
-      <c r="AIO3" s="0"/>
-      <c r="AIP3" s="0"/>
-      <c r="AIQ3" s="0"/>
-      <c r="AIR3" s="0"/>
-      <c r="AIS3" s="0"/>
-      <c r="AIT3" s="0"/>
-      <c r="AIU3" s="0"/>
-      <c r="AIV3" s="0"/>
-      <c r="AIW3" s="0"/>
-      <c r="AIX3" s="0"/>
-      <c r="AIY3" s="0"/>
-      <c r="AIZ3" s="0"/>
-      <c r="AJA3" s="0"/>
-      <c r="AJB3" s="0"/>
-      <c r="AJC3" s="0"/>
-      <c r="AJD3" s="0"/>
-      <c r="AJE3" s="0"/>
-      <c r="AJF3" s="0"/>
-      <c r="AJG3" s="0"/>
-      <c r="AJH3" s="0"/>
-      <c r="AJI3" s="0"/>
-      <c r="AJJ3" s="0"/>
-      <c r="AJK3" s="0"/>
-      <c r="AJL3" s="0"/>
-      <c r="AJM3" s="0"/>
-      <c r="AJN3" s="0"/>
-      <c r="AJO3" s="0"/>
-      <c r="AJP3" s="0"/>
-      <c r="AJQ3" s="0"/>
-      <c r="AJR3" s="0"/>
-      <c r="AJS3" s="0"/>
-      <c r="AJT3" s="0"/>
-      <c r="AJU3" s="0"/>
-      <c r="AJV3" s="0"/>
-      <c r="AJW3" s="0"/>
-      <c r="AJX3" s="0"/>
-      <c r="AJY3" s="0"/>
-      <c r="AJZ3" s="0"/>
-      <c r="AKA3" s="0"/>
-      <c r="AKB3" s="0"/>
-      <c r="AKC3" s="0"/>
-      <c r="AKD3" s="0"/>
-      <c r="AKE3" s="0"/>
-      <c r="AKF3" s="0"/>
-      <c r="AKG3" s="0"/>
-      <c r="AKH3" s="0"/>
-      <c r="AKI3" s="0"/>
-      <c r="AKJ3" s="0"/>
-      <c r="AKK3" s="0"/>
-      <c r="AKL3" s="0"/>
-      <c r="AKM3" s="0"/>
-      <c r="AKN3" s="0"/>
-      <c r="AKO3" s="0"/>
-      <c r="AKP3" s="0"/>
-      <c r="AKQ3" s="0"/>
-      <c r="AKR3" s="0"/>
-      <c r="AKS3" s="0"/>
-      <c r="AKT3" s="0"/>
-      <c r="AKU3" s="0"/>
-      <c r="AKV3" s="0"/>
-      <c r="AKW3" s="0"/>
-      <c r="AKX3" s="0"/>
-      <c r="AKY3" s="0"/>
-      <c r="AKZ3" s="0"/>
-      <c r="ALA3" s="0"/>
-      <c r="ALB3" s="0"/>
-      <c r="ALC3" s="0"/>
-      <c r="ALD3" s="0"/>
-      <c r="ALE3" s="0"/>
-      <c r="ALF3" s="0"/>
-      <c r="ALG3" s="0"/>
-      <c r="ALH3" s="0"/>
-      <c r="ALI3" s="0"/>
-      <c r="ALJ3" s="0"/>
-      <c r="ALK3" s="0"/>
-      <c r="ALL3" s="0"/>
-      <c r="ALM3" s="0"/>
-      <c r="ALN3" s="0"/>
-      <c r="ALO3" s="0"/>
-      <c r="ALP3" s="0"/>
-      <c r="ALQ3" s="0"/>
-      <c r="ALR3" s="0"/>
-      <c r="ALS3" s="0"/>
-      <c r="ALT3" s="0"/>
-      <c r="ALU3" s="0"/>
-      <c r="ALV3" s="0"/>
-      <c r="ALW3" s="0"/>
-      <c r="ALX3" s="0"/>
-      <c r="ALY3" s="0"/>
-      <c r="ALZ3" s="0"/>
-      <c r="AMA3" s="0"/>
-      <c r="AMB3" s="0"/>
-      <c r="AMC3" s="0"/>
-      <c r="AMD3" s="0"/>
-      <c r="AME3" s="0"/>
-      <c r="AMF3" s="0"/>
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" s="4" customFormat="true" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="0"/>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="0"/>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0"/>
-      <c r="AM4" s="0"/>
-      <c r="AN4" s="0"/>
-      <c r="AO4" s="0"/>
-      <c r="AP4" s="0"/>
-      <c r="AQ4" s="0"/>
-      <c r="AR4" s="0"/>
-      <c r="AS4" s="0"/>
-      <c r="AT4" s="0"/>
-      <c r="AU4" s="0"/>
-      <c r="AV4" s="0"/>
-      <c r="AW4" s="0"/>
-      <c r="AX4" s="0"/>
-      <c r="AY4" s="0"/>
-      <c r="AZ4" s="0"/>
-      <c r="BA4" s="0"/>
-      <c r="BB4" s="0"/>
-      <c r="BC4" s="0"/>
-      <c r="BD4" s="0"/>
-      <c r="BE4" s="0"/>
-      <c r="BF4" s="0"/>
-      <c r="BG4" s="0"/>
-      <c r="BH4" s="0"/>
-      <c r="BI4" s="0"/>
-      <c r="BJ4" s="0"/>
-      <c r="BK4" s="0"/>
-      <c r="BL4" s="0"/>
-      <c r="BM4" s="0"/>
-      <c r="BN4" s="0"/>
-      <c r="BO4" s="0"/>
-      <c r="BP4" s="0"/>
-      <c r="BQ4" s="0"/>
-      <c r="BR4" s="0"/>
-      <c r="BS4" s="0"/>
-      <c r="BT4" s="0"/>
-      <c r="BU4" s="0"/>
-      <c r="BV4" s="0"/>
-      <c r="BW4" s="0"/>
-      <c r="BX4" s="0"/>
-      <c r="BY4" s="0"/>
-      <c r="BZ4" s="0"/>
-      <c r="CA4" s="0"/>
-      <c r="CB4" s="0"/>
-      <c r="CC4" s="0"/>
-      <c r="CD4" s="0"/>
-      <c r="CE4" s="0"/>
-      <c r="CF4" s="0"/>
-      <c r="CG4" s="0"/>
-      <c r="CH4" s="0"/>
-      <c r="CI4" s="0"/>
-      <c r="CJ4" s="0"/>
-      <c r="CK4" s="0"/>
-      <c r="CL4" s="0"/>
-      <c r="CM4" s="0"/>
-      <c r="CN4" s="0"/>
-      <c r="CO4" s="0"/>
-      <c r="CP4" s="0"/>
-      <c r="CQ4" s="0"/>
-      <c r="CR4" s="0"/>
-      <c r="CS4" s="0"/>
-      <c r="CT4" s="0"/>
-      <c r="CU4" s="0"/>
-      <c r="CV4" s="0"/>
-      <c r="CW4" s="0"/>
-      <c r="CX4" s="0"/>
-      <c r="CY4" s="0"/>
-      <c r="CZ4" s="0"/>
-      <c r="DA4" s="0"/>
-      <c r="DB4" s="0"/>
-      <c r="DC4" s="0"/>
-      <c r="DD4" s="0"/>
-      <c r="DE4" s="0"/>
-      <c r="DF4" s="0"/>
-      <c r="DG4" s="0"/>
-      <c r="DH4" s="0"/>
-      <c r="DI4" s="0"/>
-      <c r="DJ4" s="0"/>
-      <c r="DK4" s="0"/>
-      <c r="DL4" s="0"/>
-      <c r="DM4" s="0"/>
-      <c r="DN4" s="0"/>
-      <c r="DO4" s="0"/>
-      <c r="DP4" s="0"/>
-      <c r="DQ4" s="0"/>
-      <c r="DR4" s="0"/>
-      <c r="DS4" s="0"/>
-      <c r="DT4" s="0"/>
-      <c r="DU4" s="0"/>
-      <c r="DV4" s="0"/>
-      <c r="DW4" s="0"/>
-      <c r="DX4" s="0"/>
-      <c r="DY4" s="0"/>
-      <c r="DZ4" s="0"/>
-      <c r="EA4" s="0"/>
-      <c r="EB4" s="0"/>
-      <c r="EC4" s="0"/>
-      <c r="ED4" s="0"/>
-      <c r="EE4" s="0"/>
-      <c r="EF4" s="0"/>
-      <c r="EG4" s="0"/>
-      <c r="EH4" s="0"/>
-      <c r="EI4" s="0"/>
-      <c r="EJ4" s="0"/>
-      <c r="EK4" s="0"/>
-      <c r="EL4" s="0"/>
-      <c r="EM4" s="0"/>
-      <c r="EN4" s="0"/>
-      <c r="EO4" s="0"/>
-      <c r="EP4" s="0"/>
-      <c r="EQ4" s="0"/>
-      <c r="ER4" s="0"/>
-      <c r="ES4" s="0"/>
-      <c r="ET4" s="0"/>
-      <c r="EU4" s="0"/>
-      <c r="EV4" s="0"/>
-      <c r="EW4" s="0"/>
-      <c r="EX4" s="0"/>
-      <c r="EY4" s="0"/>
-      <c r="EZ4" s="0"/>
-      <c r="FA4" s="0"/>
-      <c r="FB4" s="0"/>
-      <c r="FC4" s="0"/>
-      <c r="FD4" s="0"/>
-      <c r="FE4" s="0"/>
-      <c r="FF4" s="0"/>
-      <c r="FG4" s="0"/>
-      <c r="FH4" s="0"/>
-      <c r="FI4" s="0"/>
-      <c r="FJ4" s="0"/>
-      <c r="FK4" s="0"/>
-      <c r="FL4" s="0"/>
-      <c r="FM4" s="0"/>
-      <c r="FN4" s="0"/>
-      <c r="FO4" s="0"/>
-      <c r="FP4" s="0"/>
-      <c r="FQ4" s="0"/>
-      <c r="FR4" s="0"/>
-      <c r="FS4" s="0"/>
-      <c r="FT4" s="0"/>
-      <c r="FU4" s="0"/>
-      <c r="FV4" s="0"/>
-      <c r="FW4" s="0"/>
-      <c r="FX4" s="0"/>
-      <c r="FY4" s="0"/>
-      <c r="FZ4" s="0"/>
-      <c r="GA4" s="0"/>
-      <c r="GB4" s="0"/>
-      <c r="GC4" s="0"/>
-      <c r="GD4" s="0"/>
-      <c r="GE4" s="0"/>
-      <c r="GF4" s="0"/>
-      <c r="GG4" s="0"/>
-      <c r="GH4" s="0"/>
-      <c r="GI4" s="0"/>
-      <c r="GJ4" s="0"/>
-      <c r="GK4" s="0"/>
-      <c r="GL4" s="0"/>
-      <c r="GM4" s="0"/>
-      <c r="GN4" s="0"/>
-      <c r="GO4" s="0"/>
-      <c r="GP4" s="0"/>
-      <c r="GQ4" s="0"/>
-      <c r="GR4" s="0"/>
-      <c r="GS4" s="0"/>
-      <c r="GT4" s="0"/>
-      <c r="GU4" s="0"/>
-      <c r="GV4" s="0"/>
-      <c r="GW4" s="0"/>
-      <c r="GX4" s="0"/>
-      <c r="GY4" s="0"/>
-      <c r="GZ4" s="0"/>
-      <c r="HA4" s="0"/>
-      <c r="HB4" s="0"/>
-      <c r="HC4" s="0"/>
-      <c r="HD4" s="0"/>
-      <c r="HE4" s="0"/>
-      <c r="HF4" s="0"/>
-      <c r="HG4" s="0"/>
-      <c r="HH4" s="0"/>
-      <c r="HI4" s="0"/>
-      <c r="HJ4" s="0"/>
-      <c r="HK4" s="0"/>
-      <c r="HL4" s="0"/>
-      <c r="HM4" s="0"/>
-      <c r="HN4" s="0"/>
-      <c r="HO4" s="0"/>
-      <c r="HP4" s="0"/>
-      <c r="HQ4" s="0"/>
-      <c r="HR4" s="0"/>
-      <c r="HS4" s="0"/>
-      <c r="HT4" s="0"/>
-      <c r="HU4" s="0"/>
-      <c r="HV4" s="0"/>
-      <c r="HW4" s="0"/>
-      <c r="HX4" s="0"/>
-      <c r="HY4" s="0"/>
-      <c r="HZ4" s="0"/>
-      <c r="IA4" s="0"/>
-      <c r="IB4" s="0"/>
-      <c r="IC4" s="0"/>
-      <c r="ID4" s="0"/>
-      <c r="IE4" s="0"/>
-      <c r="IF4" s="0"/>
-      <c r="IG4" s="0"/>
-      <c r="IH4" s="0"/>
-      <c r="II4" s="0"/>
-      <c r="IJ4" s="0"/>
-      <c r="IK4" s="0"/>
-      <c r="IL4" s="0"/>
-      <c r="IM4" s="0"/>
-      <c r="IN4" s="0"/>
-      <c r="IO4" s="0"/>
-      <c r="IP4" s="0"/>
-      <c r="IQ4" s="0"/>
-      <c r="IR4" s="0"/>
-      <c r="IS4" s="0"/>
-      <c r="IT4" s="0"/>
-      <c r="IU4" s="0"/>
-      <c r="IV4" s="0"/>
-      <c r="IW4" s="0"/>
-      <c r="IX4" s="0"/>
-      <c r="IY4" s="0"/>
-      <c r="IZ4" s="0"/>
-      <c r="JA4" s="0"/>
-      <c r="JB4" s="0"/>
-      <c r="JC4" s="0"/>
-      <c r="JD4" s="0"/>
-      <c r="JE4" s="0"/>
-      <c r="JF4" s="0"/>
-      <c r="JG4" s="0"/>
-      <c r="JH4" s="0"/>
-      <c r="JI4" s="0"/>
-      <c r="JJ4" s="0"/>
-      <c r="JK4" s="0"/>
-      <c r="JL4" s="0"/>
-      <c r="JM4" s="0"/>
-      <c r="JN4" s="0"/>
-      <c r="JO4" s="0"/>
-      <c r="JP4" s="0"/>
-      <c r="JQ4" s="0"/>
-      <c r="JR4" s="0"/>
-      <c r="JS4" s="0"/>
-      <c r="JT4" s="0"/>
-      <c r="JU4" s="0"/>
-      <c r="JV4" s="0"/>
-      <c r="JW4" s="0"/>
-      <c r="JX4" s="0"/>
-      <c r="JY4" s="0"/>
-      <c r="JZ4" s="0"/>
-      <c r="KA4" s="0"/>
-      <c r="KB4" s="0"/>
-      <c r="KC4" s="0"/>
-      <c r="KD4" s="0"/>
-      <c r="KE4" s="0"/>
-      <c r="KF4" s="0"/>
-      <c r="KG4" s="0"/>
-      <c r="KH4" s="0"/>
-      <c r="KI4" s="0"/>
-      <c r="KJ4" s="0"/>
-      <c r="KK4" s="0"/>
-      <c r="KL4" s="0"/>
-      <c r="KM4" s="0"/>
-      <c r="KN4" s="0"/>
-      <c r="KO4" s="0"/>
-      <c r="KP4" s="0"/>
-      <c r="KQ4" s="0"/>
-      <c r="KR4" s="0"/>
-      <c r="KS4" s="0"/>
-      <c r="KT4" s="0"/>
-      <c r="KU4" s="0"/>
-      <c r="KV4" s="0"/>
-      <c r="KW4" s="0"/>
-      <c r="KX4" s="0"/>
-      <c r="KY4" s="0"/>
-      <c r="KZ4" s="0"/>
-      <c r="LA4" s="0"/>
-      <c r="LB4" s="0"/>
-      <c r="LC4" s="0"/>
-      <c r="LD4" s="0"/>
-      <c r="LE4" s="0"/>
-      <c r="LF4" s="0"/>
-      <c r="LG4" s="0"/>
-      <c r="LH4" s="0"/>
-      <c r="LI4" s="0"/>
-      <c r="LJ4" s="0"/>
-      <c r="LK4" s="0"/>
-      <c r="LL4" s="0"/>
-      <c r="LM4" s="0"/>
-      <c r="LN4" s="0"/>
-      <c r="LO4" s="0"/>
-      <c r="LP4" s="0"/>
-      <c r="LQ4" s="0"/>
-      <c r="LR4" s="0"/>
-      <c r="LS4" s="0"/>
-      <c r="LT4" s="0"/>
-      <c r="LU4" s="0"/>
-      <c r="LV4" s="0"/>
-      <c r="LW4" s="0"/>
-      <c r="LX4" s="0"/>
-      <c r="LY4" s="0"/>
-      <c r="LZ4" s="0"/>
-      <c r="MA4" s="0"/>
-      <c r="MB4" s="0"/>
-      <c r="MC4" s="0"/>
-      <c r="MD4" s="0"/>
-      <c r="ME4" s="0"/>
-      <c r="MF4" s="0"/>
-      <c r="MG4" s="0"/>
-      <c r="MH4" s="0"/>
-      <c r="MI4" s="0"/>
-      <c r="MJ4" s="0"/>
-      <c r="MK4" s="0"/>
-      <c r="ML4" s="0"/>
-      <c r="MM4" s="0"/>
-      <c r="MN4" s="0"/>
-      <c r="MO4" s="0"/>
-      <c r="MP4" s="0"/>
-      <c r="MQ4" s="0"/>
-      <c r="MR4" s="0"/>
-      <c r="MS4" s="0"/>
-      <c r="MT4" s="0"/>
-      <c r="MU4" s="0"/>
-      <c r="MV4" s="0"/>
-      <c r="MW4" s="0"/>
-      <c r="MX4" s="0"/>
-      <c r="MY4" s="0"/>
-      <c r="MZ4" s="0"/>
-      <c r="NA4" s="0"/>
-      <c r="NB4" s="0"/>
-      <c r="NC4" s="0"/>
-      <c r="ND4" s="0"/>
-      <c r="NE4" s="0"/>
-      <c r="NF4" s="0"/>
-      <c r="NG4" s="0"/>
-      <c r="NH4" s="0"/>
-      <c r="NI4" s="0"/>
-      <c r="NJ4" s="0"/>
-      <c r="NK4" s="0"/>
-      <c r="NL4" s="0"/>
-      <c r="NM4" s="0"/>
-      <c r="NN4" s="0"/>
-      <c r="NO4" s="0"/>
-      <c r="NP4" s="0"/>
-      <c r="NQ4" s="0"/>
-      <c r="NR4" s="0"/>
-      <c r="NS4" s="0"/>
-      <c r="NT4" s="0"/>
-      <c r="NU4" s="0"/>
-      <c r="NV4" s="0"/>
-      <c r="NW4" s="0"/>
-      <c r="NX4" s="0"/>
-      <c r="NY4" s="0"/>
-      <c r="NZ4" s="0"/>
-      <c r="OA4" s="0"/>
-      <c r="OB4" s="0"/>
-      <c r="OC4" s="0"/>
-      <c r="OD4" s="0"/>
-      <c r="OE4" s="0"/>
-      <c r="OF4" s="0"/>
-      <c r="OG4" s="0"/>
-      <c r="OH4" s="0"/>
-      <c r="OI4" s="0"/>
-      <c r="OJ4" s="0"/>
-      <c r="OK4" s="0"/>
-      <c r="OL4" s="0"/>
-      <c r="OM4" s="0"/>
-      <c r="ON4" s="0"/>
-      <c r="OO4" s="0"/>
-      <c r="OP4" s="0"/>
-      <c r="OQ4" s="0"/>
-      <c r="OR4" s="0"/>
-      <c r="OS4" s="0"/>
-      <c r="OT4" s="0"/>
-      <c r="OU4" s="0"/>
-      <c r="OV4" s="0"/>
-      <c r="OW4" s="0"/>
-      <c r="OX4" s="0"/>
-      <c r="OY4" s="0"/>
-      <c r="OZ4" s="0"/>
-      <c r="PA4" s="0"/>
-      <c r="PB4" s="0"/>
-      <c r="PC4" s="0"/>
-      <c r="PD4" s="0"/>
-      <c r="PE4" s="0"/>
-      <c r="PF4" s="0"/>
-      <c r="PG4" s="0"/>
-      <c r="PH4" s="0"/>
-      <c r="PI4" s="0"/>
-      <c r="PJ4" s="0"/>
-      <c r="PK4" s="0"/>
-      <c r="PL4" s="0"/>
-      <c r="PM4" s="0"/>
-      <c r="PN4" s="0"/>
-      <c r="PO4" s="0"/>
-      <c r="PP4" s="0"/>
-      <c r="PQ4" s="0"/>
-      <c r="PR4" s="0"/>
-      <c r="PS4" s="0"/>
-      <c r="PT4" s="0"/>
-      <c r="PU4" s="0"/>
-      <c r="PV4" s="0"/>
-      <c r="PW4" s="0"/>
-      <c r="PX4" s="0"/>
-      <c r="PY4" s="0"/>
-      <c r="PZ4" s="0"/>
-      <c r="QA4" s="0"/>
-      <c r="QB4" s="0"/>
-      <c r="QC4" s="0"/>
-      <c r="QD4" s="0"/>
-      <c r="QE4" s="0"/>
-      <c r="QF4" s="0"/>
-      <c r="QG4" s="0"/>
-      <c r="QH4" s="0"/>
-      <c r="QI4" s="0"/>
-      <c r="QJ4" s="0"/>
-      <c r="QK4" s="0"/>
-      <c r="QL4" s="0"/>
-      <c r="QM4" s="0"/>
-      <c r="QN4" s="0"/>
-      <c r="QO4" s="0"/>
-      <c r="QP4" s="0"/>
-      <c r="QQ4" s="0"/>
-      <c r="QR4" s="0"/>
-      <c r="QS4" s="0"/>
-      <c r="QT4" s="0"/>
-      <c r="QU4" s="0"/>
-      <c r="QV4" s="0"/>
-      <c r="QW4" s="0"/>
-      <c r="QX4" s="0"/>
-      <c r="QY4" s="0"/>
-      <c r="QZ4" s="0"/>
-      <c r="RA4" s="0"/>
-      <c r="RB4" s="0"/>
-      <c r="RC4" s="0"/>
-      <c r="RD4" s="0"/>
-      <c r="RE4" s="0"/>
-      <c r="RF4" s="0"/>
-      <c r="RG4" s="0"/>
-      <c r="RH4" s="0"/>
-      <c r="RI4" s="0"/>
-      <c r="RJ4" s="0"/>
-      <c r="RK4" s="0"/>
-      <c r="RL4" s="0"/>
-      <c r="RM4" s="0"/>
-      <c r="RN4" s="0"/>
-      <c r="RO4" s="0"/>
-      <c r="RP4" s="0"/>
-      <c r="RQ4" s="0"/>
-      <c r="RR4" s="0"/>
-      <c r="RS4" s="0"/>
-      <c r="RT4" s="0"/>
-      <c r="RU4" s="0"/>
-      <c r="RV4" s="0"/>
-      <c r="RW4" s="0"/>
-      <c r="RX4" s="0"/>
-      <c r="RY4" s="0"/>
-      <c r="RZ4" s="0"/>
-      <c r="SA4" s="0"/>
-      <c r="SB4" s="0"/>
-      <c r="SC4" s="0"/>
-      <c r="SD4" s="0"/>
-      <c r="SE4" s="0"/>
-      <c r="SF4" s="0"/>
-      <c r="SG4" s="0"/>
-      <c r="SH4" s="0"/>
-      <c r="SI4" s="0"/>
-      <c r="SJ4" s="0"/>
-      <c r="SK4" s="0"/>
-      <c r="SL4" s="0"/>
-      <c r="SM4" s="0"/>
-      <c r="SN4" s="0"/>
-      <c r="SO4" s="0"/>
-      <c r="SP4" s="0"/>
-      <c r="SQ4" s="0"/>
-      <c r="SR4" s="0"/>
-      <c r="SS4" s="0"/>
-      <c r="ST4" s="0"/>
-      <c r="SU4" s="0"/>
-      <c r="SV4" s="0"/>
-      <c r="SW4" s="0"/>
-      <c r="SX4" s="0"/>
-      <c r="SY4" s="0"/>
-      <c r="SZ4" s="0"/>
-      <c r="TA4" s="0"/>
-      <c r="TB4" s="0"/>
-      <c r="TC4" s="0"/>
-      <c r="TD4" s="0"/>
-      <c r="TE4" s="0"/>
-      <c r="TF4" s="0"/>
-      <c r="TG4" s="0"/>
-      <c r="TH4" s="0"/>
-      <c r="TI4" s="0"/>
-      <c r="TJ4" s="0"/>
-      <c r="TK4" s="0"/>
-      <c r="TL4" s="0"/>
-      <c r="TM4" s="0"/>
-      <c r="TN4" s="0"/>
-      <c r="TO4" s="0"/>
-      <c r="TP4" s="0"/>
-      <c r="TQ4" s="0"/>
-      <c r="TR4" s="0"/>
-      <c r="TS4" s="0"/>
-      <c r="TT4" s="0"/>
-      <c r="TU4" s="0"/>
-      <c r="TV4" s="0"/>
-      <c r="TW4" s="0"/>
-      <c r="TX4" s="0"/>
-      <c r="TY4" s="0"/>
-      <c r="TZ4" s="0"/>
-      <c r="UA4" s="0"/>
-      <c r="UB4" s="0"/>
-      <c r="UC4" s="0"/>
-      <c r="UD4" s="0"/>
-      <c r="UE4" s="0"/>
-      <c r="UF4" s="0"/>
-      <c r="UG4" s="0"/>
-      <c r="UH4" s="0"/>
-      <c r="UI4" s="0"/>
-      <c r="UJ4" s="0"/>
-      <c r="UK4" s="0"/>
-      <c r="UL4" s="0"/>
-      <c r="UM4" s="0"/>
-      <c r="UN4" s="0"/>
-      <c r="UO4" s="0"/>
-      <c r="UP4" s="0"/>
-      <c r="UQ4" s="0"/>
-      <c r="UR4" s="0"/>
-      <c r="US4" s="0"/>
-      <c r="UT4" s="0"/>
-      <c r="UU4" s="0"/>
-      <c r="UV4" s="0"/>
-      <c r="UW4" s="0"/>
-      <c r="UX4" s="0"/>
-      <c r="UY4" s="0"/>
-      <c r="UZ4" s="0"/>
-      <c r="VA4" s="0"/>
-      <c r="VB4" s="0"/>
-      <c r="VC4" s="0"/>
-      <c r="VD4" s="0"/>
-      <c r="VE4" s="0"/>
-      <c r="VF4" s="0"/>
-      <c r="VG4" s="0"/>
-      <c r="VH4" s="0"/>
-      <c r="VI4" s="0"/>
-      <c r="VJ4" s="0"/>
-      <c r="VK4" s="0"/>
-      <c r="VL4" s="0"/>
-      <c r="VM4" s="0"/>
-      <c r="VN4" s="0"/>
-      <c r="VO4" s="0"/>
-      <c r="VP4" s="0"/>
-      <c r="VQ4" s="0"/>
-      <c r="VR4" s="0"/>
-      <c r="VS4" s="0"/>
-      <c r="VT4" s="0"/>
-      <c r="VU4" s="0"/>
-      <c r="VV4" s="0"/>
-      <c r="VW4" s="0"/>
-      <c r="VX4" s="0"/>
-      <c r="VY4" s="0"/>
-      <c r="VZ4" s="0"/>
-      <c r="WA4" s="0"/>
-      <c r="WB4" s="0"/>
-      <c r="WC4" s="0"/>
-      <c r="WD4" s="0"/>
-      <c r="WE4" s="0"/>
-      <c r="WF4" s="0"/>
-      <c r="WG4" s="0"/>
-      <c r="WH4" s="0"/>
-      <c r="WI4" s="0"/>
-      <c r="WJ4" s="0"/>
-      <c r="WK4" s="0"/>
-      <c r="WL4" s="0"/>
-      <c r="WM4" s="0"/>
-      <c r="WN4" s="0"/>
-      <c r="WO4" s="0"/>
-      <c r="WP4" s="0"/>
-      <c r="WQ4" s="0"/>
-      <c r="WR4" s="0"/>
-      <c r="WS4" s="0"/>
-      <c r="WT4" s="0"/>
-      <c r="WU4" s="0"/>
-      <c r="WV4" s="0"/>
-      <c r="WW4" s="0"/>
-      <c r="WX4" s="0"/>
-      <c r="WY4" s="0"/>
-      <c r="WZ4" s="0"/>
-      <c r="XA4" s="0"/>
-      <c r="XB4" s="0"/>
-      <c r="XC4" s="0"/>
-      <c r="XD4" s="0"/>
-      <c r="XE4" s="0"/>
-      <c r="XF4" s="0"/>
-      <c r="XG4" s="0"/>
-      <c r="XH4" s="0"/>
-      <c r="XI4" s="0"/>
-      <c r="XJ4" s="0"/>
-      <c r="XK4" s="0"/>
-      <c r="XL4" s="0"/>
-      <c r="XM4" s="0"/>
-      <c r="XN4" s="0"/>
-      <c r="XO4" s="0"/>
-      <c r="XP4" s="0"/>
-      <c r="XQ4" s="0"/>
-      <c r="XR4" s="0"/>
-      <c r="XS4" s="0"/>
-      <c r="XT4" s="0"/>
-      <c r="XU4" s="0"/>
-      <c r="XV4" s="0"/>
-      <c r="XW4" s="0"/>
-      <c r="XX4" s="0"/>
-      <c r="XY4" s="0"/>
-      <c r="XZ4" s="0"/>
-      <c r="YA4" s="0"/>
-      <c r="YB4" s="0"/>
-      <c r="YC4" s="0"/>
-      <c r="YD4" s="0"/>
-      <c r="YE4" s="0"/>
-      <c r="YF4" s="0"/>
-      <c r="YG4" s="0"/>
-      <c r="YH4" s="0"/>
-      <c r="YI4" s="0"/>
-      <c r="YJ4" s="0"/>
-      <c r="YK4" s="0"/>
-      <c r="YL4" s="0"/>
-      <c r="YM4" s="0"/>
-      <c r="YN4" s="0"/>
-      <c r="YO4" s="0"/>
-      <c r="YP4" s="0"/>
-      <c r="YQ4" s="0"/>
-      <c r="YR4" s="0"/>
-      <c r="YS4" s="0"/>
-      <c r="YT4" s="0"/>
-      <c r="YU4" s="0"/>
-      <c r="YV4" s="0"/>
-      <c r="YW4" s="0"/>
-      <c r="YX4" s="0"/>
-      <c r="YY4" s="0"/>
-      <c r="YZ4" s="0"/>
-      <c r="ZA4" s="0"/>
-      <c r="ZB4" s="0"/>
-      <c r="ZC4" s="0"/>
-      <c r="ZD4" s="0"/>
-      <c r="ZE4" s="0"/>
-      <c r="ZF4" s="0"/>
-      <c r="ZG4" s="0"/>
-      <c r="ZH4" s="0"/>
-      <c r="ZI4" s="0"/>
-      <c r="ZJ4" s="0"/>
-      <c r="ZK4" s="0"/>
-      <c r="ZL4" s="0"/>
-      <c r="ZM4" s="0"/>
-      <c r="ZN4" s="0"/>
-      <c r="ZO4" s="0"/>
-      <c r="ZP4" s="0"/>
-      <c r="ZQ4" s="0"/>
-      <c r="ZR4" s="0"/>
-      <c r="ZS4" s="0"/>
-      <c r="ZT4" s="0"/>
-      <c r="ZU4" s="0"/>
-      <c r="ZV4" s="0"/>
-      <c r="ZW4" s="0"/>
-      <c r="ZX4" s="0"/>
-      <c r="ZY4" s="0"/>
-      <c r="ZZ4" s="0"/>
-      <c r="AAA4" s="0"/>
-      <c r="AAB4" s="0"/>
-      <c r="AAC4" s="0"/>
-      <c r="AAD4" s="0"/>
-      <c r="AAE4" s="0"/>
-      <c r="AAF4" s="0"/>
-      <c r="AAG4" s="0"/>
-      <c r="AAH4" s="0"/>
-      <c r="AAI4" s="0"/>
-      <c r="AAJ4" s="0"/>
-      <c r="AAK4" s="0"/>
-      <c r="AAL4" s="0"/>
-      <c r="AAM4" s="0"/>
-      <c r="AAN4" s="0"/>
-      <c r="AAO4" s="0"/>
-      <c r="AAP4" s="0"/>
-      <c r="AAQ4" s="0"/>
-      <c r="AAR4" s="0"/>
-      <c r="AAS4" s="0"/>
-      <c r="AAT4" s="0"/>
-      <c r="AAU4" s="0"/>
-      <c r="AAV4" s="0"/>
-      <c r="AAW4" s="0"/>
-      <c r="AAX4" s="0"/>
-      <c r="AAY4" s="0"/>
-      <c r="AAZ4" s="0"/>
-      <c r="ABA4" s="0"/>
-      <c r="ABB4" s="0"/>
-      <c r="ABC4" s="0"/>
-      <c r="ABD4" s="0"/>
-      <c r="ABE4" s="0"/>
-      <c r="ABF4" s="0"/>
-      <c r="ABG4" s="0"/>
-      <c r="ABH4" s="0"/>
-      <c r="ABI4" s="0"/>
-      <c r="ABJ4" s="0"/>
-      <c r="ABK4" s="0"/>
-      <c r="ABL4" s="0"/>
-      <c r="ABM4" s="0"/>
-      <c r="ABN4" s="0"/>
-      <c r="ABO4" s="0"/>
-      <c r="ABP4" s="0"/>
-      <c r="ABQ4" s="0"/>
-      <c r="ABR4" s="0"/>
-      <c r="ABS4" s="0"/>
-      <c r="ABT4" s="0"/>
-      <c r="ABU4" s="0"/>
-      <c r="ABV4" s="0"/>
-      <c r="ABW4" s="0"/>
-      <c r="ABX4" s="0"/>
-      <c r="ABY4" s="0"/>
-      <c r="ABZ4" s="0"/>
-      <c r="ACA4" s="0"/>
-      <c r="ACB4" s="0"/>
-      <c r="ACC4" s="0"/>
-      <c r="ACD4" s="0"/>
-      <c r="ACE4" s="0"/>
-      <c r="ACF4" s="0"/>
-      <c r="ACG4" s="0"/>
-      <c r="ACH4" s="0"/>
-      <c r="ACI4" s="0"/>
-      <c r="ACJ4" s="0"/>
-      <c r="ACK4" s="0"/>
-      <c r="ACL4" s="0"/>
-      <c r="ACM4" s="0"/>
-      <c r="ACN4" s="0"/>
-      <c r="ACO4" s="0"/>
-      <c r="ACP4" s="0"/>
-      <c r="ACQ4" s="0"/>
-      <c r="ACR4" s="0"/>
-      <c r="ACS4" s="0"/>
-      <c r="ACT4" s="0"/>
-      <c r="ACU4" s="0"/>
-      <c r="ACV4" s="0"/>
-      <c r="ACW4" s="0"/>
-      <c r="ACX4" s="0"/>
-      <c r="ACY4" s="0"/>
-      <c r="ACZ4" s="0"/>
-      <c r="ADA4" s="0"/>
-      <c r="ADB4" s="0"/>
-      <c r="ADC4" s="0"/>
-      <c r="ADD4" s="0"/>
-      <c r="ADE4" s="0"/>
-      <c r="ADF4" s="0"/>
-      <c r="ADG4" s="0"/>
-      <c r="ADH4" s="0"/>
-      <c r="ADI4" s="0"/>
-      <c r="ADJ4" s="0"/>
-      <c r="ADK4" s="0"/>
-      <c r="ADL4" s="0"/>
-      <c r="ADM4" s="0"/>
-      <c r="ADN4" s="0"/>
-      <c r="ADO4" s="0"/>
-      <c r="ADP4" s="0"/>
-      <c r="ADQ4" s="0"/>
-      <c r="ADR4" s="0"/>
-      <c r="ADS4" s="0"/>
-      <c r="ADT4" s="0"/>
-      <c r="ADU4" s="0"/>
-      <c r="ADV4" s="0"/>
-      <c r="ADW4" s="0"/>
-      <c r="ADX4" s="0"/>
-      <c r="ADY4" s="0"/>
-      <c r="ADZ4" s="0"/>
-      <c r="AEA4" s="0"/>
-      <c r="AEB4" s="0"/>
-      <c r="AEC4" s="0"/>
-      <c r="AED4" s="0"/>
-      <c r="AEE4" s="0"/>
-      <c r="AEF4" s="0"/>
-      <c r="AEG4" s="0"/>
-      <c r="AEH4" s="0"/>
-      <c r="AEI4" s="0"/>
-      <c r="AEJ4" s="0"/>
-      <c r="AEK4" s="0"/>
-      <c r="AEL4" s="0"/>
-      <c r="AEM4" s="0"/>
-      <c r="AEN4" s="0"/>
-      <c r="AEO4" s="0"/>
-      <c r="AEP4" s="0"/>
-      <c r="AEQ4" s="0"/>
-      <c r="AER4" s="0"/>
-      <c r="AES4" s="0"/>
-      <c r="AET4" s="0"/>
-      <c r="AEU4" s="0"/>
-      <c r="AEV4" s="0"/>
-      <c r="AEW4" s="0"/>
-      <c r="AEX4" s="0"/>
-      <c r="AEY4" s="0"/>
-      <c r="AEZ4" s="0"/>
-      <c r="AFA4" s="0"/>
-      <c r="AFB4" s="0"/>
-      <c r="AFC4" s="0"/>
-      <c r="AFD4" s="0"/>
-      <c r="AFE4" s="0"/>
-      <c r="AFF4" s="0"/>
-      <c r="AFG4" s="0"/>
-      <c r="AFH4" s="0"/>
-      <c r="AFI4" s="0"/>
-      <c r="AFJ4" s="0"/>
-      <c r="AFK4" s="0"/>
-      <c r="AFL4" s="0"/>
-      <c r="AFM4" s="0"/>
-      <c r="AFN4" s="0"/>
-      <c r="AFO4" s="0"/>
-      <c r="AFP4" s="0"/>
-      <c r="AFQ4" s="0"/>
-      <c r="AFR4" s="0"/>
-      <c r="AFS4" s="0"/>
-      <c r="AFT4" s="0"/>
-      <c r="AFU4" s="0"/>
-      <c r="AFV4" s="0"/>
-      <c r="AFW4" s="0"/>
-      <c r="AFX4" s="0"/>
-      <c r="AFY4" s="0"/>
-      <c r="AFZ4" s="0"/>
-      <c r="AGA4" s="0"/>
-      <c r="AGB4" s="0"/>
-      <c r="AGC4" s="0"/>
-      <c r="AGD4" s="0"/>
-      <c r="AGE4" s="0"/>
-      <c r="AGF4" s="0"/>
-      <c r="AGG4" s="0"/>
-      <c r="AGH4" s="0"/>
-      <c r="AGI4" s="0"/>
-      <c r="AGJ4" s="0"/>
-      <c r="AGK4" s="0"/>
-      <c r="AGL4" s="0"/>
-      <c r="AGM4" s="0"/>
-      <c r="AGN4" s="0"/>
-      <c r="AGO4" s="0"/>
-      <c r="AGP4" s="0"/>
-      <c r="AGQ4" s="0"/>
-      <c r="AGR4" s="0"/>
-      <c r="AGS4" s="0"/>
-      <c r="AGT4" s="0"/>
-      <c r="AGU4" s="0"/>
-      <c r="AGV4" s="0"/>
-      <c r="AGW4" s="0"/>
-      <c r="AGX4" s="0"/>
-      <c r="AGY4" s="0"/>
-      <c r="AGZ4" s="0"/>
-      <c r="AHA4" s="0"/>
-      <c r="AHB4" s="0"/>
-      <c r="AHC4" s="0"/>
-      <c r="AHD4" s="0"/>
-      <c r="AHE4" s="0"/>
-      <c r="AHF4" s="0"/>
-      <c r="AHG4" s="0"/>
-      <c r="AHH4" s="0"/>
-      <c r="AHI4" s="0"/>
-      <c r="AHJ4" s="0"/>
-      <c r="AHK4" s="0"/>
-      <c r="AHL4" s="0"/>
-      <c r="AHM4" s="0"/>
-      <c r="AHN4" s="0"/>
-      <c r="AHO4" s="0"/>
-      <c r="AHP4" s="0"/>
-      <c r="AHQ4" s="0"/>
-      <c r="AHR4" s="0"/>
-      <c r="AHS4" s="0"/>
-      <c r="AHT4" s="0"/>
-      <c r="AHU4" s="0"/>
-      <c r="AHV4" s="0"/>
-      <c r="AHW4" s="0"/>
-      <c r="AHX4" s="0"/>
-      <c r="AHY4" s="0"/>
-      <c r="AHZ4" s="0"/>
-      <c r="AIA4" s="0"/>
-      <c r="AIB4" s="0"/>
-      <c r="AIC4" s="0"/>
-      <c r="AID4" s="0"/>
-      <c r="AIE4" s="0"/>
-      <c r="AIF4" s="0"/>
-      <c r="AIG4" s="0"/>
-      <c r="AIH4" s="0"/>
-      <c r="AII4" s="0"/>
-      <c r="AIJ4" s="0"/>
-      <c r="AIK4" s="0"/>
-      <c r="AIL4" s="0"/>
-      <c r="AIM4" s="0"/>
-      <c r="AIN4" s="0"/>
-      <c r="AIO4" s="0"/>
-      <c r="AIP4" s="0"/>
-      <c r="AIQ4" s="0"/>
-      <c r="AIR4" s="0"/>
-      <c r="AIS4" s="0"/>
-      <c r="AIT4" s="0"/>
-      <c r="AIU4" s="0"/>
-      <c r="AIV4" s="0"/>
-      <c r="AIW4" s="0"/>
-      <c r="AIX4" s="0"/>
-      <c r="AIY4" s="0"/>
-      <c r="AIZ4" s="0"/>
-      <c r="AJA4" s="0"/>
-      <c r="AJB4" s="0"/>
-      <c r="AJC4" s="0"/>
-      <c r="AJD4" s="0"/>
-      <c r="AJE4" s="0"/>
-      <c r="AJF4" s="0"/>
-      <c r="AJG4" s="0"/>
-      <c r="AJH4" s="0"/>
-      <c r="AJI4" s="0"/>
-      <c r="AJJ4" s="0"/>
-      <c r="AJK4" s="0"/>
-      <c r="AJL4" s="0"/>
-      <c r="AJM4" s="0"/>
-      <c r="AJN4" s="0"/>
-      <c r="AJO4" s="0"/>
-      <c r="AJP4" s="0"/>
-      <c r="AJQ4" s="0"/>
-      <c r="AJR4" s="0"/>
-      <c r="AJS4" s="0"/>
-      <c r="AJT4" s="0"/>
-      <c r="AJU4" s="0"/>
-      <c r="AJV4" s="0"/>
-      <c r="AJW4" s="0"/>
-      <c r="AJX4" s="0"/>
-      <c r="AJY4" s="0"/>
-      <c r="AJZ4" s="0"/>
-      <c r="AKA4" s="0"/>
-      <c r="AKB4" s="0"/>
-      <c r="AKC4" s="0"/>
-      <c r="AKD4" s="0"/>
-      <c r="AKE4" s="0"/>
-      <c r="AKF4" s="0"/>
-      <c r="AKG4" s="0"/>
-      <c r="AKH4" s="0"/>
-      <c r="AKI4" s="0"/>
-      <c r="AKJ4" s="0"/>
-      <c r="AKK4" s="0"/>
-      <c r="AKL4" s="0"/>
-      <c r="AKM4" s="0"/>
-      <c r="AKN4" s="0"/>
-      <c r="AKO4" s="0"/>
-      <c r="AKP4" s="0"/>
-      <c r="AKQ4" s="0"/>
-      <c r="AKR4" s="0"/>
-      <c r="AKS4" s="0"/>
-      <c r="AKT4" s="0"/>
-      <c r="AKU4" s="0"/>
-      <c r="AKV4" s="0"/>
-      <c r="AKW4" s="0"/>
-      <c r="AKX4" s="0"/>
-      <c r="AKY4" s="0"/>
-      <c r="AKZ4" s="0"/>
-      <c r="ALA4" s="0"/>
-      <c r="ALB4" s="0"/>
-      <c r="ALC4" s="0"/>
-      <c r="ALD4" s="0"/>
-      <c r="ALE4" s="0"/>
-      <c r="ALF4" s="0"/>
-      <c r="ALG4" s="0"/>
-      <c r="ALH4" s="0"/>
-      <c r="ALI4" s="0"/>
-      <c r="ALJ4" s="0"/>
-      <c r="ALK4" s="0"/>
-      <c r="ALL4" s="0"/>
-      <c r="ALM4" s="0"/>
-      <c r="ALN4" s="0"/>
-      <c r="ALO4" s="0"/>
-      <c r="ALP4" s="0"/>
-      <c r="ALQ4" s="0"/>
-      <c r="ALR4" s="0"/>
-      <c r="ALS4" s="0"/>
-      <c r="ALT4" s="0"/>
-      <c r="ALU4" s="0"/>
-      <c r="ALV4" s="0"/>
-      <c r="ALW4" s="0"/>
-      <c r="ALX4" s="0"/>
-      <c r="ALY4" s="0"/>
-      <c r="ALZ4" s="0"/>
-      <c r="AMA4" s="0"/>
-      <c r="AMB4" s="0"/>
-      <c r="AMC4" s="0"/>
-      <c r="AMD4" s="0"/>
-      <c r="AME4" s="0"/>
-      <c r="AMF4" s="0"/>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="0"/>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -5338,14 +3312,12 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="46.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
-      <c r="B6" s="12" t="s">
-        <v>4</v>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
@@ -6368,12 +4340,12 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
+    <row r="7" customFormat="false" ht="35.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
       <c r="F7" s="0"/>
@@ -7396,13 +5368,13 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13" t="s">
-        <v>7</v>
+    <row r="8" customFormat="false" ht="46.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -8426,10 +6398,10 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
+    <row r="9" customFormat="false" ht="23.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
       <c r="B9" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="0"/>
@@ -9454,13 +7426,13 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
+    <row r="10" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
       <c r="B10" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>11</v>
+      <c r="C10" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -10485,11 +8457,11 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="17" t="s">
-        <v>12</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="16" t="s">
+        <v>10</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -11512,13 +9484,13 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16" t="s">
-        <v>13</v>
+    <row r="12" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17" t="s">
+        <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>14</v>
+      <c r="C12" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -12542,14 +10514,12 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="15" t="s">
-        <v>15</v>
+    <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19" t="s">
+        <v>13</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="19"/>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
@@ -13573,12 +11543,12 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>18</v>
+      <c r="C14" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0"/>
@@ -14602,13 +12572,13 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="15" t="s">
-        <v>19</v>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
@@ -15632,13 +13602,13 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="15" t="s">
-        <v>21</v>
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
@@ -16662,12 +14632,14 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
+    <row r="17" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
       <c r="B17" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -17690,13 +15662,13 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="16" t="s">
-        <v>24</v>
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
+      <c r="C18" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0"/>
@@ -18720,14 +16692,12 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="16" t="s">
-        <v>26</v>
+    <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="19" t="s">
+        <v>24</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -19751,12 +17721,12 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="16" t="s">
-        <v>28</v>
+      <c r="A20" s="12"/>
+      <c r="B20" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>29</v>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
@@ -20781,12 +18751,12 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="16" t="s">
-        <v>30</v>
+      <c r="A21" s="12"/>
+      <c r="B21" s="18" t="s">
+        <v>27</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>31</v>
+      <c r="C21" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
@@ -21811,12 +19781,12 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16" t="s">
-        <v>32</v>
+      <c r="A22" s="12"/>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>33</v>
+      <c r="C22" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
@@ -22840,13 +20810,13 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16" t="s">
-        <v>34</v>
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+      <c r="B23" s="18" t="s">
+        <v>31</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>35</v>
+      <c r="C23" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0"/>
@@ -23870,12 +21840,14 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="17" t="s">
-        <v>36</v>
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
+      <c r="B24" s="18" t="s">
+        <v>33</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
@@ -24899,12 +22871,12 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16" t="s">
-        <v>37</v>
+      <c r="A25" s="12"/>
+      <c r="B25" s="18" t="s">
+        <v>35</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>38</v>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
@@ -25929,9 +23901,9 @@
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="0"/>
@@ -26956,13 +24928,13 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="16" t="s">
-        <v>40</v>
+    <row r="27" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="B27" s="18" t="s">
+        <v>38</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>41</v>
+      <c r="C27" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
@@ -27986,14 +25958,12 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="16" t="s">
-        <v>42</v>
+    <row r="28" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+      <c r="B28" s="21" t="s">
+        <v>40</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>43</v>
-      </c>
+      <c r="C28" s="21"/>
       <c r="D28" s="0"/>
       <c r="E28" s="0"/>
       <c r="F28" s="0"/>
@@ -29016,12 +26986,14 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="17" t="s">
-        <v>44</v>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
+      <c r="B29" s="18" t="s">
+        <v>41</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
       <c r="F29" s="0"/>
@@ -30044,21 +28016,1042 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="s">
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12"/>
+      <c r="B30" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
+      <c r="AE30" s="0"/>
+      <c r="AF30" s="0"/>
+      <c r="AG30" s="0"/>
+      <c r="AH30" s="0"/>
+      <c r="AI30" s="0"/>
+      <c r="AJ30" s="0"/>
+      <c r="AK30" s="0"/>
+      <c r="AL30" s="0"/>
+      <c r="AM30" s="0"/>
+      <c r="AN30" s="0"/>
+      <c r="AO30" s="0"/>
+      <c r="AP30" s="0"/>
+      <c r="AQ30" s="0"/>
+      <c r="AR30" s="0"/>
+      <c r="AS30" s="0"/>
+      <c r="AT30" s="0"/>
+      <c r="AU30" s="0"/>
+      <c r="AV30" s="0"/>
+      <c r="AW30" s="0"/>
+      <c r="AX30" s="0"/>
+      <c r="AY30" s="0"/>
+      <c r="AZ30" s="0"/>
+      <c r="BA30" s="0"/>
+      <c r="BB30" s="0"/>
+      <c r="BC30" s="0"/>
+      <c r="BD30" s="0"/>
+      <c r="BE30" s="0"/>
+      <c r="BF30" s="0"/>
+      <c r="BG30" s="0"/>
+      <c r="BH30" s="0"/>
+      <c r="BI30" s="0"/>
+      <c r="BJ30" s="0"/>
+      <c r="BK30" s="0"/>
+      <c r="BL30" s="0"/>
+      <c r="BM30" s="0"/>
+      <c r="BN30" s="0"/>
+      <c r="BO30" s="0"/>
+      <c r="BP30" s="0"/>
+      <c r="BQ30" s="0"/>
+      <c r="BR30" s="0"/>
+      <c r="BS30" s="0"/>
+      <c r="BT30" s="0"/>
+      <c r="BU30" s="0"/>
+      <c r="BV30" s="0"/>
+      <c r="BW30" s="0"/>
+      <c r="BX30" s="0"/>
+      <c r="BY30" s="0"/>
+      <c r="BZ30" s="0"/>
+      <c r="CA30" s="0"/>
+      <c r="CB30" s="0"/>
+      <c r="CC30" s="0"/>
+      <c r="CD30" s="0"/>
+      <c r="CE30" s="0"/>
+      <c r="CF30" s="0"/>
+      <c r="CG30" s="0"/>
+      <c r="CH30" s="0"/>
+      <c r="CI30" s="0"/>
+      <c r="CJ30" s="0"/>
+      <c r="CK30" s="0"/>
+      <c r="CL30" s="0"/>
+      <c r="CM30" s="0"/>
+      <c r="CN30" s="0"/>
+      <c r="CO30" s="0"/>
+      <c r="CP30" s="0"/>
+      <c r="CQ30" s="0"/>
+      <c r="CR30" s="0"/>
+      <c r="CS30" s="0"/>
+      <c r="CT30" s="0"/>
+      <c r="CU30" s="0"/>
+      <c r="CV30" s="0"/>
+      <c r="CW30" s="0"/>
+      <c r="CX30" s="0"/>
+      <c r="CY30" s="0"/>
+      <c r="CZ30" s="0"/>
+      <c r="DA30" s="0"/>
+      <c r="DB30" s="0"/>
+      <c r="DC30" s="0"/>
+      <c r="DD30" s="0"/>
+      <c r="DE30" s="0"/>
+      <c r="DF30" s="0"/>
+      <c r="DG30" s="0"/>
+      <c r="DH30" s="0"/>
+      <c r="DI30" s="0"/>
+      <c r="DJ30" s="0"/>
+      <c r="DK30" s="0"/>
+      <c r="DL30" s="0"/>
+      <c r="DM30" s="0"/>
+      <c r="DN30" s="0"/>
+      <c r="DO30" s="0"/>
+      <c r="DP30" s="0"/>
+      <c r="DQ30" s="0"/>
+      <c r="DR30" s="0"/>
+      <c r="DS30" s="0"/>
+      <c r="DT30" s="0"/>
+      <c r="DU30" s="0"/>
+      <c r="DV30" s="0"/>
+      <c r="DW30" s="0"/>
+      <c r="DX30" s="0"/>
+      <c r="DY30" s="0"/>
+      <c r="DZ30" s="0"/>
+      <c r="EA30" s="0"/>
+      <c r="EB30" s="0"/>
+      <c r="EC30" s="0"/>
+      <c r="ED30" s="0"/>
+      <c r="EE30" s="0"/>
+      <c r="EF30" s="0"/>
+      <c r="EG30" s="0"/>
+      <c r="EH30" s="0"/>
+      <c r="EI30" s="0"/>
+      <c r="EJ30" s="0"/>
+      <c r="EK30" s="0"/>
+      <c r="EL30" s="0"/>
+      <c r="EM30" s="0"/>
+      <c r="EN30" s="0"/>
+      <c r="EO30" s="0"/>
+      <c r="EP30" s="0"/>
+      <c r="EQ30" s="0"/>
+      <c r="ER30" s="0"/>
+      <c r="ES30" s="0"/>
+      <c r="ET30" s="0"/>
+      <c r="EU30" s="0"/>
+      <c r="EV30" s="0"/>
+      <c r="EW30" s="0"/>
+      <c r="EX30" s="0"/>
+      <c r="EY30" s="0"/>
+      <c r="EZ30" s="0"/>
+      <c r="FA30" s="0"/>
+      <c r="FB30" s="0"/>
+      <c r="FC30" s="0"/>
+      <c r="FD30" s="0"/>
+      <c r="FE30" s="0"/>
+      <c r="FF30" s="0"/>
+      <c r="FG30" s="0"/>
+      <c r="FH30" s="0"/>
+      <c r="FI30" s="0"/>
+      <c r="FJ30" s="0"/>
+      <c r="FK30" s="0"/>
+      <c r="FL30" s="0"/>
+      <c r="FM30" s="0"/>
+      <c r="FN30" s="0"/>
+      <c r="FO30" s="0"/>
+      <c r="FP30" s="0"/>
+      <c r="FQ30" s="0"/>
+      <c r="FR30" s="0"/>
+      <c r="FS30" s="0"/>
+      <c r="FT30" s="0"/>
+      <c r="FU30" s="0"/>
+      <c r="FV30" s="0"/>
+      <c r="FW30" s="0"/>
+      <c r="FX30" s="0"/>
+      <c r="FY30" s="0"/>
+      <c r="FZ30" s="0"/>
+      <c r="GA30" s="0"/>
+      <c r="GB30" s="0"/>
+      <c r="GC30" s="0"/>
+      <c r="GD30" s="0"/>
+      <c r="GE30" s="0"/>
+      <c r="GF30" s="0"/>
+      <c r="GG30" s="0"/>
+      <c r="GH30" s="0"/>
+      <c r="GI30" s="0"/>
+      <c r="GJ30" s="0"/>
+      <c r="GK30" s="0"/>
+      <c r="GL30" s="0"/>
+      <c r="GM30" s="0"/>
+      <c r="GN30" s="0"/>
+      <c r="GO30" s="0"/>
+      <c r="GP30" s="0"/>
+      <c r="GQ30" s="0"/>
+      <c r="GR30" s="0"/>
+      <c r="GS30" s="0"/>
+      <c r="GT30" s="0"/>
+      <c r="GU30" s="0"/>
+      <c r="GV30" s="0"/>
+      <c r="GW30" s="0"/>
+      <c r="GX30" s="0"/>
+      <c r="GY30" s="0"/>
+      <c r="GZ30" s="0"/>
+      <c r="HA30" s="0"/>
+      <c r="HB30" s="0"/>
+      <c r="HC30" s="0"/>
+      <c r="HD30" s="0"/>
+      <c r="HE30" s="0"/>
+      <c r="HF30" s="0"/>
+      <c r="HG30" s="0"/>
+      <c r="HH30" s="0"/>
+      <c r="HI30" s="0"/>
+      <c r="HJ30" s="0"/>
+      <c r="HK30" s="0"/>
+      <c r="HL30" s="0"/>
+      <c r="HM30" s="0"/>
+      <c r="HN30" s="0"/>
+      <c r="HO30" s="0"/>
+      <c r="HP30" s="0"/>
+      <c r="HQ30" s="0"/>
+      <c r="HR30" s="0"/>
+      <c r="HS30" s="0"/>
+      <c r="HT30" s="0"/>
+      <c r="HU30" s="0"/>
+      <c r="HV30" s="0"/>
+      <c r="HW30" s="0"/>
+      <c r="HX30" s="0"/>
+      <c r="HY30" s="0"/>
+      <c r="HZ30" s="0"/>
+      <c r="IA30" s="0"/>
+      <c r="IB30" s="0"/>
+      <c r="IC30" s="0"/>
+      <c r="ID30" s="0"/>
+      <c r="IE30" s="0"/>
+      <c r="IF30" s="0"/>
+      <c r="IG30" s="0"/>
+      <c r="IH30" s="0"/>
+      <c r="II30" s="0"/>
+      <c r="IJ30" s="0"/>
+      <c r="IK30" s="0"/>
+      <c r="IL30" s="0"/>
+      <c r="IM30" s="0"/>
+      <c r="IN30" s="0"/>
+      <c r="IO30" s="0"/>
+      <c r="IP30" s="0"/>
+      <c r="IQ30" s="0"/>
+      <c r="IR30" s="0"/>
+      <c r="IS30" s="0"/>
+      <c r="IT30" s="0"/>
+      <c r="IU30" s="0"/>
+      <c r="IV30" s="0"/>
+      <c r="IW30" s="0"/>
+      <c r="IX30" s="0"/>
+      <c r="IY30" s="0"/>
+      <c r="IZ30" s="0"/>
+      <c r="JA30" s="0"/>
+      <c r="JB30" s="0"/>
+      <c r="JC30" s="0"/>
+      <c r="JD30" s="0"/>
+      <c r="JE30" s="0"/>
+      <c r="JF30" s="0"/>
+      <c r="JG30" s="0"/>
+      <c r="JH30" s="0"/>
+      <c r="JI30" s="0"/>
+      <c r="JJ30" s="0"/>
+      <c r="JK30" s="0"/>
+      <c r="JL30" s="0"/>
+      <c r="JM30" s="0"/>
+      <c r="JN30" s="0"/>
+      <c r="JO30" s="0"/>
+      <c r="JP30" s="0"/>
+      <c r="JQ30" s="0"/>
+      <c r="JR30" s="0"/>
+      <c r="JS30" s="0"/>
+      <c r="JT30" s="0"/>
+      <c r="JU30" s="0"/>
+      <c r="JV30" s="0"/>
+      <c r="JW30" s="0"/>
+      <c r="JX30" s="0"/>
+      <c r="JY30" s="0"/>
+      <c r="JZ30" s="0"/>
+      <c r="KA30" s="0"/>
+      <c r="KB30" s="0"/>
+      <c r="KC30" s="0"/>
+      <c r="KD30" s="0"/>
+      <c r="KE30" s="0"/>
+      <c r="KF30" s="0"/>
+      <c r="KG30" s="0"/>
+      <c r="KH30" s="0"/>
+      <c r="KI30" s="0"/>
+      <c r="KJ30" s="0"/>
+      <c r="KK30" s="0"/>
+      <c r="KL30" s="0"/>
+      <c r="KM30" s="0"/>
+      <c r="KN30" s="0"/>
+      <c r="KO30" s="0"/>
+      <c r="KP30" s="0"/>
+      <c r="KQ30" s="0"/>
+      <c r="KR30" s="0"/>
+      <c r="KS30" s="0"/>
+      <c r="KT30" s="0"/>
+      <c r="KU30" s="0"/>
+      <c r="KV30" s="0"/>
+      <c r="KW30" s="0"/>
+      <c r="KX30" s="0"/>
+      <c r="KY30" s="0"/>
+      <c r="KZ30" s="0"/>
+      <c r="LA30" s="0"/>
+      <c r="LB30" s="0"/>
+      <c r="LC30" s="0"/>
+      <c r="LD30" s="0"/>
+      <c r="LE30" s="0"/>
+      <c r="LF30" s="0"/>
+      <c r="LG30" s="0"/>
+      <c r="LH30" s="0"/>
+      <c r="LI30" s="0"/>
+      <c r="LJ30" s="0"/>
+      <c r="LK30" s="0"/>
+      <c r="LL30" s="0"/>
+      <c r="LM30" s="0"/>
+      <c r="LN30" s="0"/>
+      <c r="LO30" s="0"/>
+      <c r="LP30" s="0"/>
+      <c r="LQ30" s="0"/>
+      <c r="LR30" s="0"/>
+      <c r="LS30" s="0"/>
+      <c r="LT30" s="0"/>
+      <c r="LU30" s="0"/>
+      <c r="LV30" s="0"/>
+      <c r="LW30" s="0"/>
+      <c r="LX30" s="0"/>
+      <c r="LY30" s="0"/>
+      <c r="LZ30" s="0"/>
+      <c r="MA30" s="0"/>
+      <c r="MB30" s="0"/>
+      <c r="MC30" s="0"/>
+      <c r="MD30" s="0"/>
+      <c r="ME30" s="0"/>
+      <c r="MF30" s="0"/>
+      <c r="MG30" s="0"/>
+      <c r="MH30" s="0"/>
+      <c r="MI30" s="0"/>
+      <c r="MJ30" s="0"/>
+      <c r="MK30" s="0"/>
+      <c r="ML30" s="0"/>
+      <c r="MM30" s="0"/>
+      <c r="MN30" s="0"/>
+      <c r="MO30" s="0"/>
+      <c r="MP30" s="0"/>
+      <c r="MQ30" s="0"/>
+      <c r="MR30" s="0"/>
+      <c r="MS30" s="0"/>
+      <c r="MT30" s="0"/>
+      <c r="MU30" s="0"/>
+      <c r="MV30" s="0"/>
+      <c r="MW30" s="0"/>
+      <c r="MX30" s="0"/>
+      <c r="MY30" s="0"/>
+      <c r="MZ30" s="0"/>
+      <c r="NA30" s="0"/>
+      <c r="NB30" s="0"/>
+      <c r="NC30" s="0"/>
+      <c r="ND30" s="0"/>
+      <c r="NE30" s="0"/>
+      <c r="NF30" s="0"/>
+      <c r="NG30" s="0"/>
+      <c r="NH30" s="0"/>
+      <c r="NI30" s="0"/>
+      <c r="NJ30" s="0"/>
+      <c r="NK30" s="0"/>
+      <c r="NL30" s="0"/>
+      <c r="NM30" s="0"/>
+      <c r="NN30" s="0"/>
+      <c r="NO30" s="0"/>
+      <c r="NP30" s="0"/>
+      <c r="NQ30" s="0"/>
+      <c r="NR30" s="0"/>
+      <c r="NS30" s="0"/>
+      <c r="NT30" s="0"/>
+      <c r="NU30" s="0"/>
+      <c r="NV30" s="0"/>
+      <c r="NW30" s="0"/>
+      <c r="NX30" s="0"/>
+      <c r="NY30" s="0"/>
+      <c r="NZ30" s="0"/>
+      <c r="OA30" s="0"/>
+      <c r="OB30" s="0"/>
+      <c r="OC30" s="0"/>
+      <c r="OD30" s="0"/>
+      <c r="OE30" s="0"/>
+      <c r="OF30" s="0"/>
+      <c r="OG30" s="0"/>
+      <c r="OH30" s="0"/>
+      <c r="OI30" s="0"/>
+      <c r="OJ30" s="0"/>
+      <c r="OK30" s="0"/>
+      <c r="OL30" s="0"/>
+      <c r="OM30" s="0"/>
+      <c r="ON30" s="0"/>
+      <c r="OO30" s="0"/>
+      <c r="OP30" s="0"/>
+      <c r="OQ30" s="0"/>
+      <c r="OR30" s="0"/>
+      <c r="OS30" s="0"/>
+      <c r="OT30" s="0"/>
+      <c r="OU30" s="0"/>
+      <c r="OV30" s="0"/>
+      <c r="OW30" s="0"/>
+      <c r="OX30" s="0"/>
+      <c r="OY30" s="0"/>
+      <c r="OZ30" s="0"/>
+      <c r="PA30" s="0"/>
+      <c r="PB30" s="0"/>
+      <c r="PC30" s="0"/>
+      <c r="PD30" s="0"/>
+      <c r="PE30" s="0"/>
+      <c r="PF30" s="0"/>
+      <c r="PG30" s="0"/>
+      <c r="PH30" s="0"/>
+      <c r="PI30" s="0"/>
+      <c r="PJ30" s="0"/>
+      <c r="PK30" s="0"/>
+      <c r="PL30" s="0"/>
+      <c r="PM30" s="0"/>
+      <c r="PN30" s="0"/>
+      <c r="PO30" s="0"/>
+      <c r="PP30" s="0"/>
+      <c r="PQ30" s="0"/>
+      <c r="PR30" s="0"/>
+      <c r="PS30" s="0"/>
+      <c r="PT30" s="0"/>
+      <c r="PU30" s="0"/>
+      <c r="PV30" s="0"/>
+      <c r="PW30" s="0"/>
+      <c r="PX30" s="0"/>
+      <c r="PY30" s="0"/>
+      <c r="PZ30" s="0"/>
+      <c r="QA30" s="0"/>
+      <c r="QB30" s="0"/>
+      <c r="QC30" s="0"/>
+      <c r="QD30" s="0"/>
+      <c r="QE30" s="0"/>
+      <c r="QF30" s="0"/>
+      <c r="QG30" s="0"/>
+      <c r="QH30" s="0"/>
+      <c r="QI30" s="0"/>
+      <c r="QJ30" s="0"/>
+      <c r="QK30" s="0"/>
+      <c r="QL30" s="0"/>
+      <c r="QM30" s="0"/>
+      <c r="QN30" s="0"/>
+      <c r="QO30" s="0"/>
+      <c r="QP30" s="0"/>
+      <c r="QQ30" s="0"/>
+      <c r="QR30" s="0"/>
+      <c r="QS30" s="0"/>
+      <c r="QT30" s="0"/>
+      <c r="QU30" s="0"/>
+      <c r="QV30" s="0"/>
+      <c r="QW30" s="0"/>
+      <c r="QX30" s="0"/>
+      <c r="QY30" s="0"/>
+      <c r="QZ30" s="0"/>
+      <c r="RA30" s="0"/>
+      <c r="RB30" s="0"/>
+      <c r="RC30" s="0"/>
+      <c r="RD30" s="0"/>
+      <c r="RE30" s="0"/>
+      <c r="RF30" s="0"/>
+      <c r="RG30" s="0"/>
+      <c r="RH30" s="0"/>
+      <c r="RI30" s="0"/>
+      <c r="RJ30" s="0"/>
+      <c r="RK30" s="0"/>
+      <c r="RL30" s="0"/>
+      <c r="RM30" s="0"/>
+      <c r="RN30" s="0"/>
+      <c r="RO30" s="0"/>
+      <c r="RP30" s="0"/>
+      <c r="RQ30" s="0"/>
+      <c r="RR30" s="0"/>
+      <c r="RS30" s="0"/>
+      <c r="RT30" s="0"/>
+      <c r="RU30" s="0"/>
+      <c r="RV30" s="0"/>
+      <c r="RW30" s="0"/>
+      <c r="RX30" s="0"/>
+      <c r="RY30" s="0"/>
+      <c r="RZ30" s="0"/>
+      <c r="SA30" s="0"/>
+      <c r="SB30" s="0"/>
+      <c r="SC30" s="0"/>
+      <c r="SD30" s="0"/>
+      <c r="SE30" s="0"/>
+      <c r="SF30" s="0"/>
+      <c r="SG30" s="0"/>
+      <c r="SH30" s="0"/>
+      <c r="SI30" s="0"/>
+      <c r="SJ30" s="0"/>
+      <c r="SK30" s="0"/>
+      <c r="SL30" s="0"/>
+      <c r="SM30" s="0"/>
+      <c r="SN30" s="0"/>
+      <c r="SO30" s="0"/>
+      <c r="SP30" s="0"/>
+      <c r="SQ30" s="0"/>
+      <c r="SR30" s="0"/>
+      <c r="SS30" s="0"/>
+      <c r="ST30" s="0"/>
+      <c r="SU30" s="0"/>
+      <c r="SV30" s="0"/>
+      <c r="SW30" s="0"/>
+      <c r="SX30" s="0"/>
+      <c r="SY30" s="0"/>
+      <c r="SZ30" s="0"/>
+      <c r="TA30" s="0"/>
+      <c r="TB30" s="0"/>
+      <c r="TC30" s="0"/>
+      <c r="TD30" s="0"/>
+      <c r="TE30" s="0"/>
+      <c r="TF30" s="0"/>
+      <c r="TG30" s="0"/>
+      <c r="TH30" s="0"/>
+      <c r="TI30" s="0"/>
+      <c r="TJ30" s="0"/>
+      <c r="TK30" s="0"/>
+      <c r="TL30" s="0"/>
+      <c r="TM30" s="0"/>
+      <c r="TN30" s="0"/>
+      <c r="TO30" s="0"/>
+      <c r="TP30" s="0"/>
+      <c r="TQ30" s="0"/>
+      <c r="TR30" s="0"/>
+      <c r="TS30" s="0"/>
+      <c r="TT30" s="0"/>
+      <c r="TU30" s="0"/>
+      <c r="TV30" s="0"/>
+      <c r="TW30" s="0"/>
+      <c r="TX30" s="0"/>
+      <c r="TY30" s="0"/>
+      <c r="TZ30" s="0"/>
+      <c r="UA30" s="0"/>
+      <c r="UB30" s="0"/>
+      <c r="UC30" s="0"/>
+      <c r="UD30" s="0"/>
+      <c r="UE30" s="0"/>
+      <c r="UF30" s="0"/>
+      <c r="UG30" s="0"/>
+      <c r="UH30" s="0"/>
+      <c r="UI30" s="0"/>
+      <c r="UJ30" s="0"/>
+      <c r="UK30" s="0"/>
+      <c r="UL30" s="0"/>
+      <c r="UM30" s="0"/>
+      <c r="UN30" s="0"/>
+      <c r="UO30" s="0"/>
+      <c r="UP30" s="0"/>
+      <c r="UQ30" s="0"/>
+      <c r="UR30" s="0"/>
+      <c r="US30" s="0"/>
+      <c r="UT30" s="0"/>
+      <c r="UU30" s="0"/>
+      <c r="UV30" s="0"/>
+      <c r="UW30" s="0"/>
+      <c r="UX30" s="0"/>
+      <c r="UY30" s="0"/>
+      <c r="UZ30" s="0"/>
+      <c r="VA30" s="0"/>
+      <c r="VB30" s="0"/>
+      <c r="VC30" s="0"/>
+      <c r="VD30" s="0"/>
+      <c r="VE30" s="0"/>
+      <c r="VF30" s="0"/>
+      <c r="VG30" s="0"/>
+      <c r="VH30" s="0"/>
+      <c r="VI30" s="0"/>
+      <c r="VJ30" s="0"/>
+      <c r="VK30" s="0"/>
+      <c r="VL30" s="0"/>
+      <c r="VM30" s="0"/>
+      <c r="VN30" s="0"/>
+      <c r="VO30" s="0"/>
+      <c r="VP30" s="0"/>
+      <c r="VQ30" s="0"/>
+      <c r="VR30" s="0"/>
+      <c r="VS30" s="0"/>
+      <c r="VT30" s="0"/>
+      <c r="VU30" s="0"/>
+      <c r="VV30" s="0"/>
+      <c r="VW30" s="0"/>
+      <c r="VX30" s="0"/>
+      <c r="VY30" s="0"/>
+      <c r="VZ30" s="0"/>
+      <c r="WA30" s="0"/>
+      <c r="WB30" s="0"/>
+      <c r="WC30" s="0"/>
+      <c r="WD30" s="0"/>
+      <c r="WE30" s="0"/>
+      <c r="WF30" s="0"/>
+      <c r="WG30" s="0"/>
+      <c r="WH30" s="0"/>
+      <c r="WI30" s="0"/>
+      <c r="WJ30" s="0"/>
+      <c r="WK30" s="0"/>
+      <c r="WL30" s="0"/>
+      <c r="WM30" s="0"/>
+      <c r="WN30" s="0"/>
+      <c r="WO30" s="0"/>
+      <c r="WP30" s="0"/>
+      <c r="WQ30" s="0"/>
+      <c r="WR30" s="0"/>
+      <c r="WS30" s="0"/>
+      <c r="WT30" s="0"/>
+      <c r="WU30" s="0"/>
+      <c r="WV30" s="0"/>
+      <c r="WW30" s="0"/>
+      <c r="WX30" s="0"/>
+      <c r="WY30" s="0"/>
+      <c r="WZ30" s="0"/>
+      <c r="XA30" s="0"/>
+      <c r="XB30" s="0"/>
+      <c r="XC30" s="0"/>
+      <c r="XD30" s="0"/>
+      <c r="XE30" s="0"/>
+      <c r="XF30" s="0"/>
+      <c r="XG30" s="0"/>
+      <c r="XH30" s="0"/>
+      <c r="XI30" s="0"/>
+      <c r="XJ30" s="0"/>
+      <c r="XK30" s="0"/>
+      <c r="XL30" s="0"/>
+      <c r="XM30" s="0"/>
+      <c r="XN30" s="0"/>
+      <c r="XO30" s="0"/>
+      <c r="XP30" s="0"/>
+      <c r="XQ30" s="0"/>
+      <c r="XR30" s="0"/>
+      <c r="XS30" s="0"/>
+      <c r="XT30" s="0"/>
+      <c r="XU30" s="0"/>
+      <c r="XV30" s="0"/>
+      <c r="XW30" s="0"/>
+      <c r="XX30" s="0"/>
+      <c r="XY30" s="0"/>
+      <c r="XZ30" s="0"/>
+      <c r="YA30" s="0"/>
+      <c r="YB30" s="0"/>
+      <c r="YC30" s="0"/>
+      <c r="YD30" s="0"/>
+      <c r="YE30" s="0"/>
+      <c r="YF30" s="0"/>
+      <c r="YG30" s="0"/>
+      <c r="YH30" s="0"/>
+      <c r="YI30" s="0"/>
+      <c r="YJ30" s="0"/>
+      <c r="YK30" s="0"/>
+      <c r="YL30" s="0"/>
+      <c r="YM30" s="0"/>
+      <c r="YN30" s="0"/>
+      <c r="YO30" s="0"/>
+      <c r="YP30" s="0"/>
+      <c r="YQ30" s="0"/>
+      <c r="YR30" s="0"/>
+      <c r="YS30" s="0"/>
+      <c r="YT30" s="0"/>
+      <c r="YU30" s="0"/>
+      <c r="YV30" s="0"/>
+      <c r="YW30" s="0"/>
+      <c r="YX30" s="0"/>
+      <c r="YY30" s="0"/>
+      <c r="YZ30" s="0"/>
+      <c r="ZA30" s="0"/>
+      <c r="ZB30" s="0"/>
+      <c r="ZC30" s="0"/>
+      <c r="ZD30" s="0"/>
+      <c r="ZE30" s="0"/>
+      <c r="ZF30" s="0"/>
+      <c r="ZG30" s="0"/>
+      <c r="ZH30" s="0"/>
+      <c r="ZI30" s="0"/>
+      <c r="ZJ30" s="0"/>
+      <c r="ZK30" s="0"/>
+      <c r="ZL30" s="0"/>
+      <c r="ZM30" s="0"/>
+      <c r="ZN30" s="0"/>
+      <c r="ZO30" s="0"/>
+      <c r="ZP30" s="0"/>
+      <c r="ZQ30" s="0"/>
+      <c r="ZR30" s="0"/>
+      <c r="ZS30" s="0"/>
+      <c r="ZT30" s="0"/>
+      <c r="ZU30" s="0"/>
+      <c r="ZV30" s="0"/>
+      <c r="ZW30" s="0"/>
+      <c r="ZX30" s="0"/>
+      <c r="ZY30" s="0"/>
+      <c r="ZZ30" s="0"/>
+      <c r="AAA30" s="0"/>
+      <c r="AAB30" s="0"/>
+      <c r="AAC30" s="0"/>
+      <c r="AAD30" s="0"/>
+      <c r="AAE30" s="0"/>
+      <c r="AAF30" s="0"/>
+      <c r="AAG30" s="0"/>
+      <c r="AAH30" s="0"/>
+      <c r="AAI30" s="0"/>
+      <c r="AAJ30" s="0"/>
+      <c r="AAK30" s="0"/>
+      <c r="AAL30" s="0"/>
+      <c r="AAM30" s="0"/>
+      <c r="AAN30" s="0"/>
+      <c r="AAO30" s="0"/>
+      <c r="AAP30" s="0"/>
+      <c r="AAQ30" s="0"/>
+      <c r="AAR30" s="0"/>
+      <c r="AAS30" s="0"/>
+      <c r="AAT30" s="0"/>
+      <c r="AAU30" s="0"/>
+      <c r="AAV30" s="0"/>
+      <c r="AAW30" s="0"/>
+      <c r="AAX30" s="0"/>
+      <c r="AAY30" s="0"/>
+      <c r="AAZ30" s="0"/>
+      <c r="ABA30" s="0"/>
+      <c r="ABB30" s="0"/>
+      <c r="ABC30" s="0"/>
+      <c r="ABD30" s="0"/>
+      <c r="ABE30" s="0"/>
+      <c r="ABF30" s="0"/>
+      <c r="ABG30" s="0"/>
+      <c r="ABH30" s="0"/>
+      <c r="ABI30" s="0"/>
+      <c r="ABJ30" s="0"/>
+      <c r="ABK30" s="0"/>
+      <c r="ABL30" s="0"/>
+      <c r="ABM30" s="0"/>
+      <c r="ABN30" s="0"/>
+      <c r="ABO30" s="0"/>
+      <c r="ABP30" s="0"/>
+      <c r="ABQ30" s="0"/>
+      <c r="ABR30" s="0"/>
+      <c r="ABS30" s="0"/>
+      <c r="ABT30" s="0"/>
+      <c r="ABU30" s="0"/>
+      <c r="ABV30" s="0"/>
+      <c r="ABW30" s="0"/>
+      <c r="ABX30" s="0"/>
+      <c r="ABY30" s="0"/>
+      <c r="ABZ30" s="0"/>
+      <c r="ACA30" s="0"/>
+      <c r="ACB30" s="0"/>
+      <c r="ACC30" s="0"/>
+      <c r="ACD30" s="0"/>
+      <c r="ACE30" s="0"/>
+      <c r="ACF30" s="0"/>
+      <c r="ACG30" s="0"/>
+      <c r="ACH30" s="0"/>
+      <c r="ACI30" s="0"/>
+      <c r="ACJ30" s="0"/>
+      <c r="ACK30" s="0"/>
+      <c r="ACL30" s="0"/>
+      <c r="ACM30" s="0"/>
+      <c r="ACN30" s="0"/>
+      <c r="ACO30" s="0"/>
+      <c r="ACP30" s="0"/>
+      <c r="ACQ30" s="0"/>
+      <c r="ACR30" s="0"/>
+      <c r="ACS30" s="0"/>
+      <c r="ACT30" s="0"/>
+      <c r="ACU30" s="0"/>
+      <c r="ACV30" s="0"/>
+      <c r="ACW30" s="0"/>
+      <c r="ACX30" s="0"/>
+      <c r="ACY30" s="0"/>
+      <c r="ACZ30" s="0"/>
+      <c r="ADA30" s="0"/>
+      <c r="ADB30" s="0"/>
+      <c r="ADC30" s="0"/>
+      <c r="ADD30" s="0"/>
+      <c r="ADE30" s="0"/>
+      <c r="ADF30" s="0"/>
+      <c r="ADG30" s="0"/>
+      <c r="ADH30" s="0"/>
+      <c r="ADI30" s="0"/>
+      <c r="ADJ30" s="0"/>
+      <c r="ADK30" s="0"/>
+      <c r="ADL30" s="0"/>
+      <c r="ADM30" s="0"/>
+      <c r="ADN30" s="0"/>
+      <c r="ADO30" s="0"/>
+      <c r="ADP30" s="0"/>
+      <c r="ADQ30" s="0"/>
+      <c r="ADR30" s="0"/>
+      <c r="ADS30" s="0"/>
+      <c r="ADT30" s="0"/>
+      <c r="ADU30" s="0"/>
+      <c r="ADV30" s="0"/>
+      <c r="ADW30" s="0"/>
+      <c r="ADX30" s="0"/>
+      <c r="ADY30" s="0"/>
+      <c r="ADZ30" s="0"/>
+      <c r="AEA30" s="0"/>
+      <c r="AEB30" s="0"/>
+      <c r="AEC30" s="0"/>
+      <c r="AED30" s="0"/>
+      <c r="AEE30" s="0"/>
+      <c r="AEF30" s="0"/>
+      <c r="AEG30" s="0"/>
+      <c r="AEH30" s="0"/>
+      <c r="AEI30" s="0"/>
+      <c r="AEJ30" s="0"/>
+      <c r="AEK30" s="0"/>
+      <c r="AEL30" s="0"/>
+      <c r="AEM30" s="0"/>
+      <c r="AEN30" s="0"/>
+      <c r="AEO30" s="0"/>
+      <c r="AEP30" s="0"/>
+      <c r="AEQ30" s="0"/>
+      <c r="AER30" s="0"/>
+      <c r="AES30" s="0"/>
+      <c r="AET30" s="0"/>
+      <c r="AEU30" s="0"/>
+      <c r="AEV30" s="0"/>
+      <c r="AEW30" s="0"/>
+      <c r="AEX30" s="0"/>
+      <c r="AEY30" s="0"/>
+      <c r="AEZ30" s="0"/>
+      <c r="AFA30" s="0"/>
+      <c r="AFB30" s="0"/>
+      <c r="AFC30" s="0"/>
+      <c r="AFD30" s="0"/>
+      <c r="AFE30" s="0"/>
+      <c r="AFF30" s="0"/>
+      <c r="AFG30" s="0"/>
+      <c r="AFH30" s="0"/>
+      <c r="AFI30" s="0"/>
+      <c r="AFJ30" s="0"/>
+      <c r="AFK30" s="0"/>
+      <c r="AFL30" s="0"/>
+      <c r="AFM30" s="0"/>
+      <c r="AFN30" s="0"/>
+      <c r="AFO30" s="0"/>
+      <c r="AFP30" s="0"/>
+      <c r="AFQ30" s="0"/>
+      <c r="AFR30" s="0"/>
+      <c r="AFS30" s="0"/>
+      <c r="AFT30" s="0"/>
+      <c r="AFU30" s="0"/>
+      <c r="AFV30" s="0"/>
+      <c r="AFW30" s="0"/>
+      <c r="AFX30" s="0"/>
+      <c r="AFY30" s="0"/>
+      <c r="AFZ30" s="0"/>
+      <c r="AGA30" s="0"/>
+      <c r="AGB30" s="0"/>
+      <c r="AGC30" s="0"/>
+      <c r="AGD30" s="0"/>
+      <c r="AGE30" s="0"/>
+      <c r="AGF30" s="0"/>
+      <c r="AGG30" s="0"/>
+      <c r="AGH30" s="0"/>
+      <c r="AGI30" s="0"/>
+      <c r="AGJ30" s="0"/>
+      <c r="AGK30" s="0"/>
+      <c r="AGL30" s="0"/>
+      <c r="AGM30" s="0"/>
+      <c r="AGN30" s="0"/>
+      <c r="AGO30" s="0"/>
+      <c r="AGP30" s="0"/>
+      <c r="AGQ30" s="0"/>
+      <c r="AGR30" s="0"/>
+      <c r="AGS30" s="0"/>
+      <c r="AGT30" s="0"/>
+      <c r="AGU30" s="0"/>
+      <c r="AGV30" s="0"/>
+      <c r="AGW30" s="0"/>
+      <c r="AGX30" s="0"/>
+      <c r="AGY30" s="0"/>
+      <c r="AGZ30" s="0"/>
+      <c r="AHA30" s="0"/>
+      <c r="AHB30" s="0"/>
+      <c r="AHC30" s="0"/>
+      <c r="AHD30" s="0"/>
+      <c r="AHE30" s="0"/>
+      <c r="AHF30" s="0"/>
+      <c r="AHG30" s="0"/>
+      <c r="AHH30" s="0"/>
+      <c r="AHI30" s="0"/>
+      <c r="AHJ30" s="0"/>
+      <c r="AHK30" s="0"/>
+      <c r="AHL30" s="0"/>
+      <c r="AHM30" s="0"/>
+      <c r="AHN30" s="0"/>
+      <c r="AHO30" s="0"/>
+      <c r="AHP30" s="0"/>
+      <c r="AHQ30" s="0"/>
+      <c r="AHR30" s="0"/>
+      <c r="AHS30" s="0"/>
+      <c r="AHT30" s="0"/>
+      <c r="AHU30" s="0"/>
+      <c r="AHV30" s="0"/>
+      <c r="AHW30" s="0"/>
+      <c r="AHX30" s="0"/>
+      <c r="AHY30" s="0"/>
+      <c r="AHZ30" s="0"/>
+      <c r="AIA30" s="0"/>
+      <c r="AIB30" s="0"/>
+      <c r="AIC30" s="0"/>
+      <c r="AID30" s="0"/>
+      <c r="AIE30" s="0"/>
+      <c r="AIF30" s="0"/>
+      <c r="AIG30" s="0"/>
+      <c r="AIH30" s="0"/>
+      <c r="AII30" s="0"/>
+      <c r="AIJ30" s="0"/>
+      <c r="AIK30" s="0"/>
+      <c r="AIL30" s="0"/>
+      <c r="AIM30" s="0"/>
+      <c r="AIN30" s="0"/>
+      <c r="AIO30" s="0"/>
+      <c r="AIP30" s="0"/>
+      <c r="AIQ30" s="0"/>
+      <c r="AIR30" s="0"/>
+      <c r="AIS30" s="0"/>
+      <c r="AIT30" s="0"/>
+      <c r="AIU30" s="0"/>
+      <c r="AIV30" s="0"/>
+      <c r="AIW30" s="0"/>
+      <c r="AIX30" s="0"/>
+      <c r="AIY30" s="0"/>
+      <c r="AIZ30" s="0"/>
+      <c r="AJA30" s="0"/>
+      <c r="AJB30" s="0"/>
+      <c r="AJC30" s="0"/>
+      <c r="AJD30" s="0"/>
+      <c r="AJE30" s="0"/>
+      <c r="AJF30" s="0"/>
+      <c r="AJG30" s="0"/>
+      <c r="AJH30" s="0"/>
+      <c r="AJI30" s="0"/>
+      <c r="AJJ30" s="0"/>
+      <c r="AJK30" s="0"/>
+      <c r="AJL30" s="0"/>
+      <c r="AJM30" s="0"/>
+      <c r="AJN30" s="0"/>
+      <c r="AJO30" s="0"/>
+      <c r="AJP30" s="0"/>
+      <c r="AJQ30" s="0"/>
+      <c r="AJR30" s="0"/>
+      <c r="AJS30" s="0"/>
+      <c r="AJT30" s="0"/>
+      <c r="AJU30" s="0"/>
+      <c r="AJV30" s="0"/>
+      <c r="AJW30" s="0"/>
+      <c r="AJX30" s="0"/>
+      <c r="AJY30" s="0"/>
+      <c r="AJZ30" s="0"/>
+      <c r="AKA30" s="0"/>
+      <c r="AKB30" s="0"/>
+      <c r="AKC30" s="0"/>
+      <c r="AKD30" s="0"/>
+      <c r="AKE30" s="0"/>
+      <c r="AKF30" s="0"/>
+      <c r="AKG30" s="0"/>
+      <c r="AKH30" s="0"/>
+      <c r="AKI30" s="0"/>
+      <c r="AKJ30" s="0"/>
+      <c r="AKK30" s="0"/>
+      <c r="AKL30" s="0"/>
+      <c r="AKM30" s="0"/>
+      <c r="AKN30" s="0"/>
+      <c r="AKO30" s="0"/>
+      <c r="AKP30" s="0"/>
+      <c r="AKQ30" s="0"/>
+      <c r="AKR30" s="0"/>
+      <c r="AKS30" s="0"/>
+      <c r="AKT30" s="0"/>
+      <c r="AKU30" s="0"/>
+      <c r="AKV30" s="0"/>
+      <c r="AKW30" s="0"/>
+      <c r="AKX30" s="0"/>
+      <c r="AKY30" s="0"/>
+      <c r="AKZ30" s="0"/>
+      <c r="ALA30" s="0"/>
+      <c r="ALB30" s="0"/>
+      <c r="ALC30" s="0"/>
+      <c r="ALD30" s="0"/>
+      <c r="ALE30" s="0"/>
+      <c r="ALF30" s="0"/>
+      <c r="ALG30" s="0"/>
+      <c r="ALH30" s="0"/>
+      <c r="ALI30" s="0"/>
+      <c r="ALJ30" s="0"/>
+      <c r="ALK30" s="0"/>
+      <c r="ALL30" s="0"/>
+      <c r="ALM30" s="0"/>
+      <c r="ALN30" s="0"/>
+      <c r="ALO30" s="0"/>
+      <c r="ALP30" s="0"/>
+      <c r="ALQ30" s="0"/>
+      <c r="ALR30" s="0"/>
+      <c r="ALS30" s="0"/>
+      <c r="ALT30" s="0"/>
+      <c r="ALU30" s="0"/>
+      <c r="ALV30" s="0"/>
+      <c r="ALW30" s="0"/>
+      <c r="ALX30" s="0"/>
+      <c r="ALY30" s="0"/>
+      <c r="ALZ30" s="0"/>
+      <c r="AMA30" s="0"/>
+      <c r="AMB30" s="0"/>
+      <c r="AMC30" s="0"/>
+      <c r="AMD30" s="0"/>
+      <c r="AME30" s="0"/>
+      <c r="AMF30" s="0"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12"/>
+      <c r="B31" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
       <c r="F31" s="0"/>
@@ -31081,21 +30074,21 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="20" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16" t="s">
+    <row r="32" s="22" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12"/>
+      <c r="B33" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="0"/>
       <c r="E33" s="0"/>
       <c r="F33" s="0"/>
@@ -32118,1040 +31111,21 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="17" t="s">
-        <v>51</v>
+    <row r="34" s="22" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="18" t="s">
+        <v>49</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="0"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="0"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0"/>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
-      <c r="AB34" s="0"/>
-      <c r="AC34" s="0"/>
-      <c r="AD34" s="0"/>
-      <c r="AE34" s="0"/>
-      <c r="AF34" s="0"/>
-      <c r="AG34" s="0"/>
-      <c r="AH34" s="0"/>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
-      <c r="AK34" s="0"/>
-      <c r="AL34" s="0"/>
-      <c r="AM34" s="0"/>
-      <c r="AN34" s="0"/>
-      <c r="AO34" s="0"/>
-      <c r="AP34" s="0"/>
-      <c r="AQ34" s="0"/>
-      <c r="AR34" s="0"/>
-      <c r="AS34" s="0"/>
-      <c r="AT34" s="0"/>
-      <c r="AU34" s="0"/>
-      <c r="AV34" s="0"/>
-      <c r="AW34" s="0"/>
-      <c r="AX34" s="0"/>
-      <c r="AY34" s="0"/>
-      <c r="AZ34" s="0"/>
-      <c r="BA34" s="0"/>
-      <c r="BB34" s="0"/>
-      <c r="BC34" s="0"/>
-      <c r="BD34" s="0"/>
-      <c r="BE34" s="0"/>
-      <c r="BF34" s="0"/>
-      <c r="BG34" s="0"/>
-      <c r="BH34" s="0"/>
-      <c r="BI34" s="0"/>
-      <c r="BJ34" s="0"/>
-      <c r="BK34" s="0"/>
-      <c r="BL34" s="0"/>
-      <c r="BM34" s="0"/>
-      <c r="BN34" s="0"/>
-      <c r="BO34" s="0"/>
-      <c r="BP34" s="0"/>
-      <c r="BQ34" s="0"/>
-      <c r="BR34" s="0"/>
-      <c r="BS34" s="0"/>
-      <c r="BT34" s="0"/>
-      <c r="BU34" s="0"/>
-      <c r="BV34" s="0"/>
-      <c r="BW34" s="0"/>
-      <c r="BX34" s="0"/>
-      <c r="BY34" s="0"/>
-      <c r="BZ34" s="0"/>
-      <c r="CA34" s="0"/>
-      <c r="CB34" s="0"/>
-      <c r="CC34" s="0"/>
-      <c r="CD34" s="0"/>
-      <c r="CE34" s="0"/>
-      <c r="CF34" s="0"/>
-      <c r="CG34" s="0"/>
-      <c r="CH34" s="0"/>
-      <c r="CI34" s="0"/>
-      <c r="CJ34" s="0"/>
-      <c r="CK34" s="0"/>
-      <c r="CL34" s="0"/>
-      <c r="CM34" s="0"/>
-      <c r="CN34" s="0"/>
-      <c r="CO34" s="0"/>
-      <c r="CP34" s="0"/>
-      <c r="CQ34" s="0"/>
-      <c r="CR34" s="0"/>
-      <c r="CS34" s="0"/>
-      <c r="CT34" s="0"/>
-      <c r="CU34" s="0"/>
-      <c r="CV34" s="0"/>
-      <c r="CW34" s="0"/>
-      <c r="CX34" s="0"/>
-      <c r="CY34" s="0"/>
-      <c r="CZ34" s="0"/>
-      <c r="DA34" s="0"/>
-      <c r="DB34" s="0"/>
-      <c r="DC34" s="0"/>
-      <c r="DD34" s="0"/>
-      <c r="DE34" s="0"/>
-      <c r="DF34" s="0"/>
-      <c r="DG34" s="0"/>
-      <c r="DH34" s="0"/>
-      <c r="DI34" s="0"/>
-      <c r="DJ34" s="0"/>
-      <c r="DK34" s="0"/>
-      <c r="DL34" s="0"/>
-      <c r="DM34" s="0"/>
-      <c r="DN34" s="0"/>
-      <c r="DO34" s="0"/>
-      <c r="DP34" s="0"/>
-      <c r="DQ34" s="0"/>
-      <c r="DR34" s="0"/>
-      <c r="DS34" s="0"/>
-      <c r="DT34" s="0"/>
-      <c r="DU34" s="0"/>
-      <c r="DV34" s="0"/>
-      <c r="DW34" s="0"/>
-      <c r="DX34" s="0"/>
-      <c r="DY34" s="0"/>
-      <c r="DZ34" s="0"/>
-      <c r="EA34" s="0"/>
-      <c r="EB34" s="0"/>
-      <c r="EC34" s="0"/>
-      <c r="ED34" s="0"/>
-      <c r="EE34" s="0"/>
-      <c r="EF34" s="0"/>
-      <c r="EG34" s="0"/>
-      <c r="EH34" s="0"/>
-      <c r="EI34" s="0"/>
-      <c r="EJ34" s="0"/>
-      <c r="EK34" s="0"/>
-      <c r="EL34" s="0"/>
-      <c r="EM34" s="0"/>
-      <c r="EN34" s="0"/>
-      <c r="EO34" s="0"/>
-      <c r="EP34" s="0"/>
-      <c r="EQ34" s="0"/>
-      <c r="ER34" s="0"/>
-      <c r="ES34" s="0"/>
-      <c r="ET34" s="0"/>
-      <c r="EU34" s="0"/>
-      <c r="EV34" s="0"/>
-      <c r="EW34" s="0"/>
-      <c r="EX34" s="0"/>
-      <c r="EY34" s="0"/>
-      <c r="EZ34" s="0"/>
-      <c r="FA34" s="0"/>
-      <c r="FB34" s="0"/>
-      <c r="FC34" s="0"/>
-      <c r="FD34" s="0"/>
-      <c r="FE34" s="0"/>
-      <c r="FF34" s="0"/>
-      <c r="FG34" s="0"/>
-      <c r="FH34" s="0"/>
-      <c r="FI34" s="0"/>
-      <c r="FJ34" s="0"/>
-      <c r="FK34" s="0"/>
-      <c r="FL34" s="0"/>
-      <c r="FM34" s="0"/>
-      <c r="FN34" s="0"/>
-      <c r="FO34" s="0"/>
-      <c r="FP34" s="0"/>
-      <c r="FQ34" s="0"/>
-      <c r="FR34" s="0"/>
-      <c r="FS34" s="0"/>
-      <c r="FT34" s="0"/>
-      <c r="FU34" s="0"/>
-      <c r="FV34" s="0"/>
-      <c r="FW34" s="0"/>
-      <c r="FX34" s="0"/>
-      <c r="FY34" s="0"/>
-      <c r="FZ34" s="0"/>
-      <c r="GA34" s="0"/>
-      <c r="GB34" s="0"/>
-      <c r="GC34" s="0"/>
-      <c r="GD34" s="0"/>
-      <c r="GE34" s="0"/>
-      <c r="GF34" s="0"/>
-      <c r="GG34" s="0"/>
-      <c r="GH34" s="0"/>
-      <c r="GI34" s="0"/>
-      <c r="GJ34" s="0"/>
-      <c r="GK34" s="0"/>
-      <c r="GL34" s="0"/>
-      <c r="GM34" s="0"/>
-      <c r="GN34" s="0"/>
-      <c r="GO34" s="0"/>
-      <c r="GP34" s="0"/>
-      <c r="GQ34" s="0"/>
-      <c r="GR34" s="0"/>
-      <c r="GS34" s="0"/>
-      <c r="GT34" s="0"/>
-      <c r="GU34" s="0"/>
-      <c r="GV34" s="0"/>
-      <c r="GW34" s="0"/>
-      <c r="GX34" s="0"/>
-      <c r="GY34" s="0"/>
-      <c r="GZ34" s="0"/>
-      <c r="HA34" s="0"/>
-      <c r="HB34" s="0"/>
-      <c r="HC34" s="0"/>
-      <c r="HD34" s="0"/>
-      <c r="HE34" s="0"/>
-      <c r="HF34" s="0"/>
-      <c r="HG34" s="0"/>
-      <c r="HH34" s="0"/>
-      <c r="HI34" s="0"/>
-      <c r="HJ34" s="0"/>
-      <c r="HK34" s="0"/>
-      <c r="HL34" s="0"/>
-      <c r="HM34" s="0"/>
-      <c r="HN34" s="0"/>
-      <c r="HO34" s="0"/>
-      <c r="HP34" s="0"/>
-      <c r="HQ34" s="0"/>
-      <c r="HR34" s="0"/>
-      <c r="HS34" s="0"/>
-      <c r="HT34" s="0"/>
-      <c r="HU34" s="0"/>
-      <c r="HV34" s="0"/>
-      <c r="HW34" s="0"/>
-      <c r="HX34" s="0"/>
-      <c r="HY34" s="0"/>
-      <c r="HZ34" s="0"/>
-      <c r="IA34" s="0"/>
-      <c r="IB34" s="0"/>
-      <c r="IC34" s="0"/>
-      <c r="ID34" s="0"/>
-      <c r="IE34" s="0"/>
-      <c r="IF34" s="0"/>
-      <c r="IG34" s="0"/>
-      <c r="IH34" s="0"/>
-      <c r="II34" s="0"/>
-      <c r="IJ34" s="0"/>
-      <c r="IK34" s="0"/>
-      <c r="IL34" s="0"/>
-      <c r="IM34" s="0"/>
-      <c r="IN34" s="0"/>
-      <c r="IO34" s="0"/>
-      <c r="IP34" s="0"/>
-      <c r="IQ34" s="0"/>
-      <c r="IR34" s="0"/>
-      <c r="IS34" s="0"/>
-      <c r="IT34" s="0"/>
-      <c r="IU34" s="0"/>
-      <c r="IV34" s="0"/>
-      <c r="IW34" s="0"/>
-      <c r="IX34" s="0"/>
-      <c r="IY34" s="0"/>
-      <c r="IZ34" s="0"/>
-      <c r="JA34" s="0"/>
-      <c r="JB34" s="0"/>
-      <c r="JC34" s="0"/>
-      <c r="JD34" s="0"/>
-      <c r="JE34" s="0"/>
-      <c r="JF34" s="0"/>
-      <c r="JG34" s="0"/>
-      <c r="JH34" s="0"/>
-      <c r="JI34" s="0"/>
-      <c r="JJ34" s="0"/>
-      <c r="JK34" s="0"/>
-      <c r="JL34" s="0"/>
-      <c r="JM34" s="0"/>
-      <c r="JN34" s="0"/>
-      <c r="JO34" s="0"/>
-      <c r="JP34" s="0"/>
-      <c r="JQ34" s="0"/>
-      <c r="JR34" s="0"/>
-      <c r="JS34" s="0"/>
-      <c r="JT34" s="0"/>
-      <c r="JU34" s="0"/>
-      <c r="JV34" s="0"/>
-      <c r="JW34" s="0"/>
-      <c r="JX34" s="0"/>
-      <c r="JY34" s="0"/>
-      <c r="JZ34" s="0"/>
-      <c r="KA34" s="0"/>
-      <c r="KB34" s="0"/>
-      <c r="KC34" s="0"/>
-      <c r="KD34" s="0"/>
-      <c r="KE34" s="0"/>
-      <c r="KF34" s="0"/>
-      <c r="KG34" s="0"/>
-      <c r="KH34" s="0"/>
-      <c r="KI34" s="0"/>
-      <c r="KJ34" s="0"/>
-      <c r="KK34" s="0"/>
-      <c r="KL34" s="0"/>
-      <c r="KM34" s="0"/>
-      <c r="KN34" s="0"/>
-      <c r="KO34" s="0"/>
-      <c r="KP34" s="0"/>
-      <c r="KQ34" s="0"/>
-      <c r="KR34" s="0"/>
-      <c r="KS34" s="0"/>
-      <c r="KT34" s="0"/>
-      <c r="KU34" s="0"/>
-      <c r="KV34" s="0"/>
-      <c r="KW34" s="0"/>
-      <c r="KX34" s="0"/>
-      <c r="KY34" s="0"/>
-      <c r="KZ34" s="0"/>
-      <c r="LA34" s="0"/>
-      <c r="LB34" s="0"/>
-      <c r="LC34" s="0"/>
-      <c r="LD34" s="0"/>
-      <c r="LE34" s="0"/>
-      <c r="LF34" s="0"/>
-      <c r="LG34" s="0"/>
-      <c r="LH34" s="0"/>
-      <c r="LI34" s="0"/>
-      <c r="LJ34" s="0"/>
-      <c r="LK34" s="0"/>
-      <c r="LL34" s="0"/>
-      <c r="LM34" s="0"/>
-      <c r="LN34" s="0"/>
-      <c r="LO34" s="0"/>
-      <c r="LP34" s="0"/>
-      <c r="LQ34" s="0"/>
-      <c r="LR34" s="0"/>
-      <c r="LS34" s="0"/>
-      <c r="LT34" s="0"/>
-      <c r="LU34" s="0"/>
-      <c r="LV34" s="0"/>
-      <c r="LW34" s="0"/>
-      <c r="LX34" s="0"/>
-      <c r="LY34" s="0"/>
-      <c r="LZ34" s="0"/>
-      <c r="MA34" s="0"/>
-      <c r="MB34" s="0"/>
-      <c r="MC34" s="0"/>
-      <c r="MD34" s="0"/>
-      <c r="ME34" s="0"/>
-      <c r="MF34" s="0"/>
-      <c r="MG34" s="0"/>
-      <c r="MH34" s="0"/>
-      <c r="MI34" s="0"/>
-      <c r="MJ34" s="0"/>
-      <c r="MK34" s="0"/>
-      <c r="ML34" s="0"/>
-      <c r="MM34" s="0"/>
-      <c r="MN34" s="0"/>
-      <c r="MO34" s="0"/>
-      <c r="MP34" s="0"/>
-      <c r="MQ34" s="0"/>
-      <c r="MR34" s="0"/>
-      <c r="MS34" s="0"/>
-      <c r="MT34" s="0"/>
-      <c r="MU34" s="0"/>
-      <c r="MV34" s="0"/>
-      <c r="MW34" s="0"/>
-      <c r="MX34" s="0"/>
-      <c r="MY34" s="0"/>
-      <c r="MZ34" s="0"/>
-      <c r="NA34" s="0"/>
-      <c r="NB34" s="0"/>
-      <c r="NC34" s="0"/>
-      <c r="ND34" s="0"/>
-      <c r="NE34" s="0"/>
-      <c r="NF34" s="0"/>
-      <c r="NG34" s="0"/>
-      <c r="NH34" s="0"/>
-      <c r="NI34" s="0"/>
-      <c r="NJ34" s="0"/>
-      <c r="NK34" s="0"/>
-      <c r="NL34" s="0"/>
-      <c r="NM34" s="0"/>
-      <c r="NN34" s="0"/>
-      <c r="NO34" s="0"/>
-      <c r="NP34" s="0"/>
-      <c r="NQ34" s="0"/>
-      <c r="NR34" s="0"/>
-      <c r="NS34" s="0"/>
-      <c r="NT34" s="0"/>
-      <c r="NU34" s="0"/>
-      <c r="NV34" s="0"/>
-      <c r="NW34" s="0"/>
-      <c r="NX34" s="0"/>
-      <c r="NY34" s="0"/>
-      <c r="NZ34" s="0"/>
-      <c r="OA34" s="0"/>
-      <c r="OB34" s="0"/>
-      <c r="OC34" s="0"/>
-      <c r="OD34" s="0"/>
-      <c r="OE34" s="0"/>
-      <c r="OF34" s="0"/>
-      <c r="OG34" s="0"/>
-      <c r="OH34" s="0"/>
-      <c r="OI34" s="0"/>
-      <c r="OJ34" s="0"/>
-      <c r="OK34" s="0"/>
-      <c r="OL34" s="0"/>
-      <c r="OM34" s="0"/>
-      <c r="ON34" s="0"/>
-      <c r="OO34" s="0"/>
-      <c r="OP34" s="0"/>
-      <c r="OQ34" s="0"/>
-      <c r="OR34" s="0"/>
-      <c r="OS34" s="0"/>
-      <c r="OT34" s="0"/>
-      <c r="OU34" s="0"/>
-      <c r="OV34" s="0"/>
-      <c r="OW34" s="0"/>
-      <c r="OX34" s="0"/>
-      <c r="OY34" s="0"/>
-      <c r="OZ34" s="0"/>
-      <c r="PA34" s="0"/>
-      <c r="PB34" s="0"/>
-      <c r="PC34" s="0"/>
-      <c r="PD34" s="0"/>
-      <c r="PE34" s="0"/>
-      <c r="PF34" s="0"/>
-      <c r="PG34" s="0"/>
-      <c r="PH34" s="0"/>
-      <c r="PI34" s="0"/>
-      <c r="PJ34" s="0"/>
-      <c r="PK34" s="0"/>
-      <c r="PL34" s="0"/>
-      <c r="PM34" s="0"/>
-      <c r="PN34" s="0"/>
-      <c r="PO34" s="0"/>
-      <c r="PP34" s="0"/>
-      <c r="PQ34" s="0"/>
-      <c r="PR34" s="0"/>
-      <c r="PS34" s="0"/>
-      <c r="PT34" s="0"/>
-      <c r="PU34" s="0"/>
-      <c r="PV34" s="0"/>
-      <c r="PW34" s="0"/>
-      <c r="PX34" s="0"/>
-      <c r="PY34" s="0"/>
-      <c r="PZ34" s="0"/>
-      <c r="QA34" s="0"/>
-      <c r="QB34" s="0"/>
-      <c r="QC34" s="0"/>
-      <c r="QD34" s="0"/>
-      <c r="QE34" s="0"/>
-      <c r="QF34" s="0"/>
-      <c r="QG34" s="0"/>
-      <c r="QH34" s="0"/>
-      <c r="QI34" s="0"/>
-      <c r="QJ34" s="0"/>
-      <c r="QK34" s="0"/>
-      <c r="QL34" s="0"/>
-      <c r="QM34" s="0"/>
-      <c r="QN34" s="0"/>
-      <c r="QO34" s="0"/>
-      <c r="QP34" s="0"/>
-      <c r="QQ34" s="0"/>
-      <c r="QR34" s="0"/>
-      <c r="QS34" s="0"/>
-      <c r="QT34" s="0"/>
-      <c r="QU34" s="0"/>
-      <c r="QV34" s="0"/>
-      <c r="QW34" s="0"/>
-      <c r="QX34" s="0"/>
-      <c r="QY34" s="0"/>
-      <c r="QZ34" s="0"/>
-      <c r="RA34" s="0"/>
-      <c r="RB34" s="0"/>
-      <c r="RC34" s="0"/>
-      <c r="RD34" s="0"/>
-      <c r="RE34" s="0"/>
-      <c r="RF34" s="0"/>
-      <c r="RG34" s="0"/>
-      <c r="RH34" s="0"/>
-      <c r="RI34" s="0"/>
-      <c r="RJ34" s="0"/>
-      <c r="RK34" s="0"/>
-      <c r="RL34" s="0"/>
-      <c r="RM34" s="0"/>
-      <c r="RN34" s="0"/>
-      <c r="RO34" s="0"/>
-      <c r="RP34" s="0"/>
-      <c r="RQ34" s="0"/>
-      <c r="RR34" s="0"/>
-      <c r="RS34" s="0"/>
-      <c r="RT34" s="0"/>
-      <c r="RU34" s="0"/>
-      <c r="RV34" s="0"/>
-      <c r="RW34" s="0"/>
-      <c r="RX34" s="0"/>
-      <c r="RY34" s="0"/>
-      <c r="RZ34" s="0"/>
-      <c r="SA34" s="0"/>
-      <c r="SB34" s="0"/>
-      <c r="SC34" s="0"/>
-      <c r="SD34" s="0"/>
-      <c r="SE34" s="0"/>
-      <c r="SF34" s="0"/>
-      <c r="SG34" s="0"/>
-      <c r="SH34" s="0"/>
-      <c r="SI34" s="0"/>
-      <c r="SJ34" s="0"/>
-      <c r="SK34" s="0"/>
-      <c r="SL34" s="0"/>
-      <c r="SM34" s="0"/>
-      <c r="SN34" s="0"/>
-      <c r="SO34" s="0"/>
-      <c r="SP34" s="0"/>
-      <c r="SQ34" s="0"/>
-      <c r="SR34" s="0"/>
-      <c r="SS34" s="0"/>
-      <c r="ST34" s="0"/>
-      <c r="SU34" s="0"/>
-      <c r="SV34" s="0"/>
-      <c r="SW34" s="0"/>
-      <c r="SX34" s="0"/>
-      <c r="SY34" s="0"/>
-      <c r="SZ34" s="0"/>
-      <c r="TA34" s="0"/>
-      <c r="TB34" s="0"/>
-      <c r="TC34" s="0"/>
-      <c r="TD34" s="0"/>
-      <c r="TE34" s="0"/>
-      <c r="TF34" s="0"/>
-      <c r="TG34" s="0"/>
-      <c r="TH34" s="0"/>
-      <c r="TI34" s="0"/>
-      <c r="TJ34" s="0"/>
-      <c r="TK34" s="0"/>
-      <c r="TL34" s="0"/>
-      <c r="TM34" s="0"/>
-      <c r="TN34" s="0"/>
-      <c r="TO34" s="0"/>
-      <c r="TP34" s="0"/>
-      <c r="TQ34" s="0"/>
-      <c r="TR34" s="0"/>
-      <c r="TS34" s="0"/>
-      <c r="TT34" s="0"/>
-      <c r="TU34" s="0"/>
-      <c r="TV34" s="0"/>
-      <c r="TW34" s="0"/>
-      <c r="TX34" s="0"/>
-      <c r="TY34" s="0"/>
-      <c r="TZ34" s="0"/>
-      <c r="UA34" s="0"/>
-      <c r="UB34" s="0"/>
-      <c r="UC34" s="0"/>
-      <c r="UD34" s="0"/>
-      <c r="UE34" s="0"/>
-      <c r="UF34" s="0"/>
-      <c r="UG34" s="0"/>
-      <c r="UH34" s="0"/>
-      <c r="UI34" s="0"/>
-      <c r="UJ34" s="0"/>
-      <c r="UK34" s="0"/>
-      <c r="UL34" s="0"/>
-      <c r="UM34" s="0"/>
-      <c r="UN34" s="0"/>
-      <c r="UO34" s="0"/>
-      <c r="UP34" s="0"/>
-      <c r="UQ34" s="0"/>
-      <c r="UR34" s="0"/>
-      <c r="US34" s="0"/>
-      <c r="UT34" s="0"/>
-      <c r="UU34" s="0"/>
-      <c r="UV34" s="0"/>
-      <c r="UW34" s="0"/>
-      <c r="UX34" s="0"/>
-      <c r="UY34" s="0"/>
-      <c r="UZ34" s="0"/>
-      <c r="VA34" s="0"/>
-      <c r="VB34" s="0"/>
-      <c r="VC34" s="0"/>
-      <c r="VD34" s="0"/>
-      <c r="VE34" s="0"/>
-      <c r="VF34" s="0"/>
-      <c r="VG34" s="0"/>
-      <c r="VH34" s="0"/>
-      <c r="VI34" s="0"/>
-      <c r="VJ34" s="0"/>
-      <c r="VK34" s="0"/>
-      <c r="VL34" s="0"/>
-      <c r="VM34" s="0"/>
-      <c r="VN34" s="0"/>
-      <c r="VO34" s="0"/>
-      <c r="VP34" s="0"/>
-      <c r="VQ34" s="0"/>
-      <c r="VR34" s="0"/>
-      <c r="VS34" s="0"/>
-      <c r="VT34" s="0"/>
-      <c r="VU34" s="0"/>
-      <c r="VV34" s="0"/>
-      <c r="VW34" s="0"/>
-      <c r="VX34" s="0"/>
-      <c r="VY34" s="0"/>
-      <c r="VZ34" s="0"/>
-      <c r="WA34" s="0"/>
-      <c r="WB34" s="0"/>
-      <c r="WC34" s="0"/>
-      <c r="WD34" s="0"/>
-      <c r="WE34" s="0"/>
-      <c r="WF34" s="0"/>
-      <c r="WG34" s="0"/>
-      <c r="WH34" s="0"/>
-      <c r="WI34" s="0"/>
-      <c r="WJ34" s="0"/>
-      <c r="WK34" s="0"/>
-      <c r="WL34" s="0"/>
-      <c r="WM34" s="0"/>
-      <c r="WN34" s="0"/>
-      <c r="WO34" s="0"/>
-      <c r="WP34" s="0"/>
-      <c r="WQ34" s="0"/>
-      <c r="WR34" s="0"/>
-      <c r="WS34" s="0"/>
-      <c r="WT34" s="0"/>
-      <c r="WU34" s="0"/>
-      <c r="WV34" s="0"/>
-      <c r="WW34" s="0"/>
-      <c r="WX34" s="0"/>
-      <c r="WY34" s="0"/>
-      <c r="WZ34" s="0"/>
-      <c r="XA34" s="0"/>
-      <c r="XB34" s="0"/>
-      <c r="XC34" s="0"/>
-      <c r="XD34" s="0"/>
-      <c r="XE34" s="0"/>
-      <c r="XF34" s="0"/>
-      <c r="XG34" s="0"/>
-      <c r="XH34" s="0"/>
-      <c r="XI34" s="0"/>
-      <c r="XJ34" s="0"/>
-      <c r="XK34" s="0"/>
-      <c r="XL34" s="0"/>
-      <c r="XM34" s="0"/>
-      <c r="XN34" s="0"/>
-      <c r="XO34" s="0"/>
-      <c r="XP34" s="0"/>
-      <c r="XQ34" s="0"/>
-      <c r="XR34" s="0"/>
-      <c r="XS34" s="0"/>
-      <c r="XT34" s="0"/>
-      <c r="XU34" s="0"/>
-      <c r="XV34" s="0"/>
-      <c r="XW34" s="0"/>
-      <c r="XX34" s="0"/>
-      <c r="XY34" s="0"/>
-      <c r="XZ34" s="0"/>
-      <c r="YA34" s="0"/>
-      <c r="YB34" s="0"/>
-      <c r="YC34" s="0"/>
-      <c r="YD34" s="0"/>
-      <c r="YE34" s="0"/>
-      <c r="YF34" s="0"/>
-      <c r="YG34" s="0"/>
-      <c r="YH34" s="0"/>
-      <c r="YI34" s="0"/>
-      <c r="YJ34" s="0"/>
-      <c r="YK34" s="0"/>
-      <c r="YL34" s="0"/>
-      <c r="YM34" s="0"/>
-      <c r="YN34" s="0"/>
-      <c r="YO34" s="0"/>
-      <c r="YP34" s="0"/>
-      <c r="YQ34" s="0"/>
-      <c r="YR34" s="0"/>
-      <c r="YS34" s="0"/>
-      <c r="YT34" s="0"/>
-      <c r="YU34" s="0"/>
-      <c r="YV34" s="0"/>
-      <c r="YW34" s="0"/>
-      <c r="YX34" s="0"/>
-      <c r="YY34" s="0"/>
-      <c r="YZ34" s="0"/>
-      <c r="ZA34" s="0"/>
-      <c r="ZB34" s="0"/>
-      <c r="ZC34" s="0"/>
-      <c r="ZD34" s="0"/>
-      <c r="ZE34" s="0"/>
-      <c r="ZF34" s="0"/>
-      <c r="ZG34" s="0"/>
-      <c r="ZH34" s="0"/>
-      <c r="ZI34" s="0"/>
-      <c r="ZJ34" s="0"/>
-      <c r="ZK34" s="0"/>
-      <c r="ZL34" s="0"/>
-      <c r="ZM34" s="0"/>
-      <c r="ZN34" s="0"/>
-      <c r="ZO34" s="0"/>
-      <c r="ZP34" s="0"/>
-      <c r="ZQ34" s="0"/>
-      <c r="ZR34" s="0"/>
-      <c r="ZS34" s="0"/>
-      <c r="ZT34" s="0"/>
-      <c r="ZU34" s="0"/>
-      <c r="ZV34" s="0"/>
-      <c r="ZW34" s="0"/>
-      <c r="ZX34" s="0"/>
-      <c r="ZY34" s="0"/>
-      <c r="ZZ34" s="0"/>
-      <c r="AAA34" s="0"/>
-      <c r="AAB34" s="0"/>
-      <c r="AAC34" s="0"/>
-      <c r="AAD34" s="0"/>
-      <c r="AAE34" s="0"/>
-      <c r="AAF34" s="0"/>
-      <c r="AAG34" s="0"/>
-      <c r="AAH34" s="0"/>
-      <c r="AAI34" s="0"/>
-      <c r="AAJ34" s="0"/>
-      <c r="AAK34" s="0"/>
-      <c r="AAL34" s="0"/>
-      <c r="AAM34" s="0"/>
-      <c r="AAN34" s="0"/>
-      <c r="AAO34" s="0"/>
-      <c r="AAP34" s="0"/>
-      <c r="AAQ34" s="0"/>
-      <c r="AAR34" s="0"/>
-      <c r="AAS34" s="0"/>
-      <c r="AAT34" s="0"/>
-      <c r="AAU34" s="0"/>
-      <c r="AAV34" s="0"/>
-      <c r="AAW34" s="0"/>
-      <c r="AAX34" s="0"/>
-      <c r="AAY34" s="0"/>
-      <c r="AAZ34" s="0"/>
-      <c r="ABA34" s="0"/>
-      <c r="ABB34" s="0"/>
-      <c r="ABC34" s="0"/>
-      <c r="ABD34" s="0"/>
-      <c r="ABE34" s="0"/>
-      <c r="ABF34" s="0"/>
-      <c r="ABG34" s="0"/>
-      <c r="ABH34" s="0"/>
-      <c r="ABI34" s="0"/>
-      <c r="ABJ34" s="0"/>
-      <c r="ABK34" s="0"/>
-      <c r="ABL34" s="0"/>
-      <c r="ABM34" s="0"/>
-      <c r="ABN34" s="0"/>
-      <c r="ABO34" s="0"/>
-      <c r="ABP34" s="0"/>
-      <c r="ABQ34" s="0"/>
-      <c r="ABR34" s="0"/>
-      <c r="ABS34" s="0"/>
-      <c r="ABT34" s="0"/>
-      <c r="ABU34" s="0"/>
-      <c r="ABV34" s="0"/>
-      <c r="ABW34" s="0"/>
-      <c r="ABX34" s="0"/>
-      <c r="ABY34" s="0"/>
-      <c r="ABZ34" s="0"/>
-      <c r="ACA34" s="0"/>
-      <c r="ACB34" s="0"/>
-      <c r="ACC34" s="0"/>
-      <c r="ACD34" s="0"/>
-      <c r="ACE34" s="0"/>
-      <c r="ACF34" s="0"/>
-      <c r="ACG34" s="0"/>
-      <c r="ACH34" s="0"/>
-      <c r="ACI34" s="0"/>
-      <c r="ACJ34" s="0"/>
-      <c r="ACK34" s="0"/>
-      <c r="ACL34" s="0"/>
-      <c r="ACM34" s="0"/>
-      <c r="ACN34" s="0"/>
-      <c r="ACO34" s="0"/>
-      <c r="ACP34" s="0"/>
-      <c r="ACQ34" s="0"/>
-      <c r="ACR34" s="0"/>
-      <c r="ACS34" s="0"/>
-      <c r="ACT34" s="0"/>
-      <c r="ACU34" s="0"/>
-      <c r="ACV34" s="0"/>
-      <c r="ACW34" s="0"/>
-      <c r="ACX34" s="0"/>
-      <c r="ACY34" s="0"/>
-      <c r="ACZ34" s="0"/>
-      <c r="ADA34" s="0"/>
-      <c r="ADB34" s="0"/>
-      <c r="ADC34" s="0"/>
-      <c r="ADD34" s="0"/>
-      <c r="ADE34" s="0"/>
-      <c r="ADF34" s="0"/>
-      <c r="ADG34" s="0"/>
-      <c r="ADH34" s="0"/>
-      <c r="ADI34" s="0"/>
-      <c r="ADJ34" s="0"/>
-      <c r="ADK34" s="0"/>
-      <c r="ADL34" s="0"/>
-      <c r="ADM34" s="0"/>
-      <c r="ADN34" s="0"/>
-      <c r="ADO34" s="0"/>
-      <c r="ADP34" s="0"/>
-      <c r="ADQ34" s="0"/>
-      <c r="ADR34" s="0"/>
-      <c r="ADS34" s="0"/>
-      <c r="ADT34" s="0"/>
-      <c r="ADU34" s="0"/>
-      <c r="ADV34" s="0"/>
-      <c r="ADW34" s="0"/>
-      <c r="ADX34" s="0"/>
-      <c r="ADY34" s="0"/>
-      <c r="ADZ34" s="0"/>
-      <c r="AEA34" s="0"/>
-      <c r="AEB34" s="0"/>
-      <c r="AEC34" s="0"/>
-      <c r="AED34" s="0"/>
-      <c r="AEE34" s="0"/>
-      <c r="AEF34" s="0"/>
-      <c r="AEG34" s="0"/>
-      <c r="AEH34" s="0"/>
-      <c r="AEI34" s="0"/>
-      <c r="AEJ34" s="0"/>
-      <c r="AEK34" s="0"/>
-      <c r="AEL34" s="0"/>
-      <c r="AEM34" s="0"/>
-      <c r="AEN34" s="0"/>
-      <c r="AEO34" s="0"/>
-      <c r="AEP34" s="0"/>
-      <c r="AEQ34" s="0"/>
-      <c r="AER34" s="0"/>
-      <c r="AES34" s="0"/>
-      <c r="AET34" s="0"/>
-      <c r="AEU34" s="0"/>
-      <c r="AEV34" s="0"/>
-      <c r="AEW34" s="0"/>
-      <c r="AEX34" s="0"/>
-      <c r="AEY34" s="0"/>
-      <c r="AEZ34" s="0"/>
-      <c r="AFA34" s="0"/>
-      <c r="AFB34" s="0"/>
-      <c r="AFC34" s="0"/>
-      <c r="AFD34" s="0"/>
-      <c r="AFE34" s="0"/>
-      <c r="AFF34" s="0"/>
-      <c r="AFG34" s="0"/>
-      <c r="AFH34" s="0"/>
-      <c r="AFI34" s="0"/>
-      <c r="AFJ34" s="0"/>
-      <c r="AFK34" s="0"/>
-      <c r="AFL34" s="0"/>
-      <c r="AFM34" s="0"/>
-      <c r="AFN34" s="0"/>
-      <c r="AFO34" s="0"/>
-      <c r="AFP34" s="0"/>
-      <c r="AFQ34" s="0"/>
-      <c r="AFR34" s="0"/>
-      <c r="AFS34" s="0"/>
-      <c r="AFT34" s="0"/>
-      <c r="AFU34" s="0"/>
-      <c r="AFV34" s="0"/>
-      <c r="AFW34" s="0"/>
-      <c r="AFX34" s="0"/>
-      <c r="AFY34" s="0"/>
-      <c r="AFZ34" s="0"/>
-      <c r="AGA34" s="0"/>
-      <c r="AGB34" s="0"/>
-      <c r="AGC34" s="0"/>
-      <c r="AGD34" s="0"/>
-      <c r="AGE34" s="0"/>
-      <c r="AGF34" s="0"/>
-      <c r="AGG34" s="0"/>
-      <c r="AGH34" s="0"/>
-      <c r="AGI34" s="0"/>
-      <c r="AGJ34" s="0"/>
-      <c r="AGK34" s="0"/>
-      <c r="AGL34" s="0"/>
-      <c r="AGM34" s="0"/>
-      <c r="AGN34" s="0"/>
-      <c r="AGO34" s="0"/>
-      <c r="AGP34" s="0"/>
-      <c r="AGQ34" s="0"/>
-      <c r="AGR34" s="0"/>
-      <c r="AGS34" s="0"/>
-      <c r="AGT34" s="0"/>
-      <c r="AGU34" s="0"/>
-      <c r="AGV34" s="0"/>
-      <c r="AGW34" s="0"/>
-      <c r="AGX34" s="0"/>
-      <c r="AGY34" s="0"/>
-      <c r="AGZ34" s="0"/>
-      <c r="AHA34" s="0"/>
-      <c r="AHB34" s="0"/>
-      <c r="AHC34" s="0"/>
-      <c r="AHD34" s="0"/>
-      <c r="AHE34" s="0"/>
-      <c r="AHF34" s="0"/>
-      <c r="AHG34" s="0"/>
-      <c r="AHH34" s="0"/>
-      <c r="AHI34" s="0"/>
-      <c r="AHJ34" s="0"/>
-      <c r="AHK34" s="0"/>
-      <c r="AHL34" s="0"/>
-      <c r="AHM34" s="0"/>
-      <c r="AHN34" s="0"/>
-      <c r="AHO34" s="0"/>
-      <c r="AHP34" s="0"/>
-      <c r="AHQ34" s="0"/>
-      <c r="AHR34" s="0"/>
-      <c r="AHS34" s="0"/>
-      <c r="AHT34" s="0"/>
-      <c r="AHU34" s="0"/>
-      <c r="AHV34" s="0"/>
-      <c r="AHW34" s="0"/>
-      <c r="AHX34" s="0"/>
-      <c r="AHY34" s="0"/>
-      <c r="AHZ34" s="0"/>
-      <c r="AIA34" s="0"/>
-      <c r="AIB34" s="0"/>
-      <c r="AIC34" s="0"/>
-      <c r="AID34" s="0"/>
-      <c r="AIE34" s="0"/>
-      <c r="AIF34" s="0"/>
-      <c r="AIG34" s="0"/>
-      <c r="AIH34" s="0"/>
-      <c r="AII34" s="0"/>
-      <c r="AIJ34" s="0"/>
-      <c r="AIK34" s="0"/>
-      <c r="AIL34" s="0"/>
-      <c r="AIM34" s="0"/>
-      <c r="AIN34" s="0"/>
-      <c r="AIO34" s="0"/>
-      <c r="AIP34" s="0"/>
-      <c r="AIQ34" s="0"/>
-      <c r="AIR34" s="0"/>
-      <c r="AIS34" s="0"/>
-      <c r="AIT34" s="0"/>
-      <c r="AIU34" s="0"/>
-      <c r="AIV34" s="0"/>
-      <c r="AIW34" s="0"/>
-      <c r="AIX34" s="0"/>
-      <c r="AIY34" s="0"/>
-      <c r="AIZ34" s="0"/>
-      <c r="AJA34" s="0"/>
-      <c r="AJB34" s="0"/>
-      <c r="AJC34" s="0"/>
-      <c r="AJD34" s="0"/>
-      <c r="AJE34" s="0"/>
-      <c r="AJF34" s="0"/>
-      <c r="AJG34" s="0"/>
-      <c r="AJH34" s="0"/>
-      <c r="AJI34" s="0"/>
-      <c r="AJJ34" s="0"/>
-      <c r="AJK34" s="0"/>
-      <c r="AJL34" s="0"/>
-      <c r="AJM34" s="0"/>
-      <c r="AJN34" s="0"/>
-      <c r="AJO34" s="0"/>
-      <c r="AJP34" s="0"/>
-      <c r="AJQ34" s="0"/>
-      <c r="AJR34" s="0"/>
-      <c r="AJS34" s="0"/>
-      <c r="AJT34" s="0"/>
-      <c r="AJU34" s="0"/>
-      <c r="AJV34" s="0"/>
-      <c r="AJW34" s="0"/>
-      <c r="AJX34" s="0"/>
-      <c r="AJY34" s="0"/>
-      <c r="AJZ34" s="0"/>
-      <c r="AKA34" s="0"/>
-      <c r="AKB34" s="0"/>
-      <c r="AKC34" s="0"/>
-      <c r="AKD34" s="0"/>
-      <c r="AKE34" s="0"/>
-      <c r="AKF34" s="0"/>
-      <c r="AKG34" s="0"/>
-      <c r="AKH34" s="0"/>
-      <c r="AKI34" s="0"/>
-      <c r="AKJ34" s="0"/>
-      <c r="AKK34" s="0"/>
-      <c r="AKL34" s="0"/>
-      <c r="AKM34" s="0"/>
-      <c r="AKN34" s="0"/>
-      <c r="AKO34" s="0"/>
-      <c r="AKP34" s="0"/>
-      <c r="AKQ34" s="0"/>
-      <c r="AKR34" s="0"/>
-      <c r="AKS34" s="0"/>
-      <c r="AKT34" s="0"/>
-      <c r="AKU34" s="0"/>
-      <c r="AKV34" s="0"/>
-      <c r="AKW34" s="0"/>
-      <c r="AKX34" s="0"/>
-      <c r="AKY34" s="0"/>
-      <c r="AKZ34" s="0"/>
-      <c r="ALA34" s="0"/>
-      <c r="ALB34" s="0"/>
-      <c r="ALC34" s="0"/>
-      <c r="ALD34" s="0"/>
-      <c r="ALE34" s="0"/>
-      <c r="ALF34" s="0"/>
-      <c r="ALG34" s="0"/>
-      <c r="ALH34" s="0"/>
-      <c r="ALI34" s="0"/>
-      <c r="ALJ34" s="0"/>
-      <c r="ALK34" s="0"/>
-      <c r="ALL34" s="0"/>
-      <c r="ALM34" s="0"/>
-      <c r="ALN34" s="0"/>
-      <c r="ALO34" s="0"/>
-      <c r="ALP34" s="0"/>
-      <c r="ALQ34" s="0"/>
-      <c r="ALR34" s="0"/>
-      <c r="ALS34" s="0"/>
-      <c r="ALT34" s="0"/>
-      <c r="ALU34" s="0"/>
-      <c r="ALV34" s="0"/>
-      <c r="ALW34" s="0"/>
-      <c r="ALX34" s="0"/>
-      <c r="ALY34" s="0"/>
-      <c r="ALZ34" s="0"/>
-      <c r="AMA34" s="0"/>
-      <c r="AMB34" s="0"/>
-      <c r="AMC34" s="0"/>
-      <c r="AMD34" s="0"/>
-      <c r="AME34" s="0"/>
-      <c r="AMF34" s="0"/>
-      <c r="AMG34" s="0"/>
-      <c r="AMH34" s="0"/>
-      <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
+      <c r="C34" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
-      <c r="B35" s="22" t="s">
-        <v>9</v>
+      <c r="B35" s="13" t="s">
+        <v>51</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
@@ -34176,12 +32150,10 @@
     </row>
     <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>53</v>
-      </c>
+      <c r="C36" s="19"/>
       <c r="D36" s="0"/>
       <c r="E36" s="0"/>
       <c r="F36" s="0"/>
@@ -35206,10 +33178,10 @@
     </row>
     <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0"/>
-      <c r="B37" s="22" t="s">
-        <v>47</v>
+      <c r="B37" s="24" t="s">
+        <v>10</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="24"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
       <c r="F37" s="0"/>
@@ -36234,11 +34206,11 @@
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0"/>
@@ -37264,10 +35236,10 @@
     </row>
     <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
-      <c r="B39" s="22" t="s">
-        <v>56</v>
+      <c r="B39" s="24" t="s">
+        <v>48</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="0"/>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
@@ -38292,11 +36264,11 @@
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0"/>
-      <c r="B40" s="23" t="s">
-        <v>57</v>
+      <c r="B40" s="25" t="s">
+        <v>55</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>58</v>
+      <c r="C40" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="0"/>
@@ -39322,10 +37294,10 @@
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
-      <c r="B41" s="22" t="s">
-        <v>59</v>
+      <c r="B41" s="24" t="s">
+        <v>57</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="0"/>
       <c r="E41" s="0"/>
       <c r="F41" s="0"/>
@@ -40350,11 +38322,11 @@
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0"/>
-      <c r="B42" s="23" t="s">
-        <v>60</v>
+      <c r="B42" s="25" t="s">
+        <v>58</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>61</v>
+      <c r="C42" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="0"/>
@@ -41380,10 +39352,10 @@
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="22" t="s">
-        <v>12</v>
+      <c r="B43" s="24" t="s">
+        <v>60</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="24"/>
       <c r="D43" s="0"/>
       <c r="E43" s="0"/>
       <c r="F43" s="0"/>
@@ -42406,15 +40378,15 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
-      <c r="B44" s="15" t="s">
-        <v>13</v>
+      <c r="B44" s="25" t="s">
+        <v>61</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="24"/>
+      <c r="D44" s="0"/>
       <c r="E44" s="0"/>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
@@ -43436,15 +41408,13 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0"/>
-      <c r="B45" s="15" t="s">
-        <v>19</v>
+      <c r="B45" s="24" t="s">
+        <v>13</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="0"/>
       <c r="E45" s="0"/>
       <c r="F45" s="0"/>
       <c r="G45" s="0"/>
@@ -44466,15 +42436,15 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0"/>
-      <c r="B46" s="15" t="s">
-        <v>21</v>
+      <c r="B46" s="17" t="s">
+        <v>14</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>22</v>
+      <c r="C46" s="20" t="s">
+        <v>63</v>
       </c>
-      <c r="D46" s="24"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="0"/>
       <c r="F46" s="0"/>
       <c r="G46" s="0"/>
@@ -45496,15 +43466,15 @@
       <c r="AMI46" s="0"/>
       <c r="AMJ46" s="0"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="41.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0"/>
-      <c r="B47" s="15" t="s">
-        <v>63</v>
+      <c r="B47" s="17" t="s">
+        <v>20</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>64</v>
+      <c r="C47" s="20" t="s">
+        <v>21</v>
       </c>
-      <c r="D47" s="0"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="0"/>
       <c r="F47" s="0"/>
       <c r="G47" s="0"/>
@@ -46526,15 +44496,15 @@
       <c r="AMI47" s="0"/>
       <c r="AMJ47" s="0"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="15" t="s">
-        <v>63</v>
+    <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="17" t="s">
+        <v>22</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>65</v>
+      <c r="C48" s="20" t="s">
+        <v>23</v>
       </c>
-      <c r="D48" s="0"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="0"/>
       <c r="F48" s="0"/>
       <c r="G48" s="0"/>
@@ -47557,11 +45527,13 @@
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="22" t="s">
-        <v>23</v>
+      <c r="A49" s="0"/>
+      <c r="B49" s="17" t="s">
+        <v>64</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="D49" s="0"/>
       <c r="E49" s="0"/>
       <c r="F49" s="0"/>
@@ -48585,12 +46557,12 @@
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>66</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="0"/>
@@ -49615,13 +47587,11 @@
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="25" t="s">
-        <v>68</v>
+      <c r="A51" s="12"/>
+      <c r="B51" s="24" t="s">
+        <v>24</v>
       </c>
-      <c r="C51" s="25" t="s">
-        <v>69</v>
-      </c>
+      <c r="C51" s="24"/>
       <c r="D51" s="0"/>
       <c r="E51" s="0"/>
       <c r="F51" s="0"/>
@@ -50645,12 +48615,12 @@
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="16" t="s">
-        <v>70</v>
+      <c r="A52" s="12"/>
+      <c r="B52" s="27" t="s">
+        <v>67</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>71</v>
+      <c r="C52" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -51675,12 +49645,12 @@
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="16" t="s">
-        <v>24</v>
+      <c r="A53" s="12"/>
+      <c r="B53" s="27" t="s">
+        <v>69</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>72</v>
+      <c r="C53" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
@@ -52705,12 +50675,12 @@
       <c r="AMJ53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="16" t="s">
-        <v>73</v>
+      <c r="A54" s="12"/>
+      <c r="B54" s="18" t="s">
+        <v>71</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>74</v>
+      <c r="C54" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="0"/>
@@ -53735,12 +51705,12 @@
       <c r="AMJ54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="16" t="s">
-        <v>75</v>
+      <c r="A55" s="12"/>
+      <c r="B55" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>76</v>
+      <c r="C55" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0"/>
@@ -54764,12 +52734,14 @@
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0"/>
-      <c r="B56" s="22" t="s">
-        <v>77</v>
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12"/>
+      <c r="B56" s="18" t="s">
+        <v>74</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="D56" s="0"/>
       <c r="E56" s="0"/>
       <c r="F56" s="0"/>
@@ -55792,12 +53764,14 @@
       <c r="AMI56" s="0"/>
       <c r="AMJ56" s="0"/>
     </row>
-    <row r="57" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
-      <c r="B57" s="14" t="s">
-        <v>78</v>
+      <c r="B57" s="18" t="s">
+        <v>76</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="18" t="s">
+        <v>77</v>
+      </c>
       <c r="D57" s="0"/>
       <c r="E57" s="0"/>
       <c r="F57" s="0"/>
@@ -56820,12 +54794,12 @@
       <c r="AMI57" s="0"/>
       <c r="AMJ57" s="0"/>
     </row>
-    <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0"/>
-      <c r="B58" s="26" t="s">
-        <v>79</v>
+      <c r="B58" s="24" t="s">
+        <v>78</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="0"/>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
@@ -57848,14 +55822,12 @@
       <c r="AMI58" s="0"/>
       <c r="AMJ58" s="0"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0"/>
-      <c r="B59" s="15" t="s">
-        <v>80</v>
+      <c r="B59" s="16" t="s">
+        <v>79</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>80</v>
-      </c>
+      <c r="C59" s="16"/>
       <c r="D59" s="0"/>
       <c r="E59" s="0"/>
       <c r="F59" s="0"/>
@@ -58878,14 +56850,12 @@
       <c r="AMI59" s="0"/>
       <c r="AMJ59" s="0"/>
     </row>
-    <row r="60" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="0"/>
-      <c r="B60" s="15" t="s">
-        <v>81</v>
+      <c r="B60" s="28" t="s">
+        <v>80</v>
       </c>
-      <c r="C60" s="18" t="s">
-        <v>82</v>
-      </c>
+      <c r="C60" s="28"/>
       <c r="D60" s="0"/>
       <c r="E60" s="0"/>
       <c r="F60" s="0"/>
@@ -59908,12 +57878,14 @@
       <c r="AMI60" s="0"/>
       <c r="AMJ60" s="0"/>
     </row>
-    <row r="61" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="10"/>
-      <c r="B61" s="26" t="s">
-        <v>6</v>
+    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0"/>
+      <c r="B61" s="17" t="s">
+        <v>81</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0"/>
       <c r="F61" s="0"/>
@@ -60936,13 +58908,13 @@
       <c r="AMI61" s="0"/>
       <c r="AMJ61" s="0"/>
     </row>
-    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="10"/>
-      <c r="B62" s="15" t="s">
+    <row r="62" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0"/>
+      <c r="B62" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="0"/>
@@ -61966,14 +59938,12 @@
       <c r="AMI62" s="0"/>
       <c r="AMJ62" s="0"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="10"/>
-      <c r="B63" s="15" t="s">
+    <row r="63" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12"/>
+      <c r="B63" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>85</v>
-      </c>
+      <c r="C63" s="28"/>
       <c r="D63" s="0"/>
       <c r="E63" s="0"/>
       <c r="F63" s="0"/>
@@ -62996,12 +60966,14 @@
       <c r="AMI63" s="0"/>
       <c r="AMJ63" s="0"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="10"/>
-      <c r="B64" s="26" t="s">
-        <v>86</v>
+    <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12"/>
+      <c r="B64" s="17" t="s">
+        <v>84</v>
       </c>
-      <c r="C64" s="26"/>
+      <c r="C64" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="D64" s="0"/>
       <c r="E64" s="0"/>
       <c r="F64" s="0"/>
@@ -64025,12 +61997,12 @@
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="10"/>
-      <c r="B65" s="16" t="s">
-        <v>87</v>
+      <c r="A65" s="12"/>
+      <c r="B65" s="17" t="s">
+        <v>8</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>88</v>
+      <c r="C65" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="0"/>
@@ -65054,69 +63026,2101 @@
       <c r="AMI65" s="0"/>
       <c r="AMJ65" s="0"/>
     </row>
-    <row r="66" s="20" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="16" t="s">
+    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12"/>
+      <c r="B66" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
+      <c r="N66" s="0"/>
+      <c r="O66" s="0"/>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
+      <c r="R66" s="0"/>
+      <c r="S66" s="0"/>
+      <c r="T66" s="0"/>
+      <c r="U66" s="0"/>
+      <c r="V66" s="0"/>
+      <c r="W66" s="0"/>
+      <c r="X66" s="0"/>
+      <c r="Y66" s="0"/>
+      <c r="Z66" s="0"/>
+      <c r="AA66" s="0"/>
+      <c r="AB66" s="0"/>
+      <c r="AC66" s="0"/>
+      <c r="AD66" s="0"/>
+      <c r="AE66" s="0"/>
+      <c r="AF66" s="0"/>
+      <c r="AG66" s="0"/>
+      <c r="AH66" s="0"/>
+      <c r="AI66" s="0"/>
+      <c r="AJ66" s="0"/>
+      <c r="AK66" s="0"/>
+      <c r="AL66" s="0"/>
+      <c r="AM66" s="0"/>
+      <c r="AN66" s="0"/>
+      <c r="AO66" s="0"/>
+      <c r="AP66" s="0"/>
+      <c r="AQ66" s="0"/>
+      <c r="AR66" s="0"/>
+      <c r="AS66" s="0"/>
+      <c r="AT66" s="0"/>
+      <c r="AU66" s="0"/>
+      <c r="AV66" s="0"/>
+      <c r="AW66" s="0"/>
+      <c r="AX66" s="0"/>
+      <c r="AY66" s="0"/>
+      <c r="AZ66" s="0"/>
+      <c r="BA66" s="0"/>
+      <c r="BB66" s="0"/>
+      <c r="BC66" s="0"/>
+      <c r="BD66" s="0"/>
+      <c r="BE66" s="0"/>
+      <c r="BF66" s="0"/>
+      <c r="BG66" s="0"/>
+      <c r="BH66" s="0"/>
+      <c r="BI66" s="0"/>
+      <c r="BJ66" s="0"/>
+      <c r="BK66" s="0"/>
+      <c r="BL66" s="0"/>
+      <c r="BM66" s="0"/>
+      <c r="BN66" s="0"/>
+      <c r="BO66" s="0"/>
+      <c r="BP66" s="0"/>
+      <c r="BQ66" s="0"/>
+      <c r="BR66" s="0"/>
+      <c r="BS66" s="0"/>
+      <c r="BT66" s="0"/>
+      <c r="BU66" s="0"/>
+      <c r="BV66" s="0"/>
+      <c r="BW66" s="0"/>
+      <c r="BX66" s="0"/>
+      <c r="BY66" s="0"/>
+      <c r="BZ66" s="0"/>
+      <c r="CA66" s="0"/>
+      <c r="CB66" s="0"/>
+      <c r="CC66" s="0"/>
+      <c r="CD66" s="0"/>
+      <c r="CE66" s="0"/>
+      <c r="CF66" s="0"/>
+      <c r="CG66" s="0"/>
+      <c r="CH66" s="0"/>
+      <c r="CI66" s="0"/>
+      <c r="CJ66" s="0"/>
+      <c r="CK66" s="0"/>
+      <c r="CL66" s="0"/>
+      <c r="CM66" s="0"/>
+      <c r="CN66" s="0"/>
+      <c r="CO66" s="0"/>
+      <c r="CP66" s="0"/>
+      <c r="CQ66" s="0"/>
+      <c r="CR66" s="0"/>
+      <c r="CS66" s="0"/>
+      <c r="CT66" s="0"/>
+      <c r="CU66" s="0"/>
+      <c r="CV66" s="0"/>
+      <c r="CW66" s="0"/>
+      <c r="CX66" s="0"/>
+      <c r="CY66" s="0"/>
+      <c r="CZ66" s="0"/>
+      <c r="DA66" s="0"/>
+      <c r="DB66" s="0"/>
+      <c r="DC66" s="0"/>
+      <c r="DD66" s="0"/>
+      <c r="DE66" s="0"/>
+      <c r="DF66" s="0"/>
+      <c r="DG66" s="0"/>
+      <c r="DH66" s="0"/>
+      <c r="DI66" s="0"/>
+      <c r="DJ66" s="0"/>
+      <c r="DK66" s="0"/>
+      <c r="DL66" s="0"/>
+      <c r="DM66" s="0"/>
+      <c r="DN66" s="0"/>
+      <c r="DO66" s="0"/>
+      <c r="DP66" s="0"/>
+      <c r="DQ66" s="0"/>
+      <c r="DR66" s="0"/>
+      <c r="DS66" s="0"/>
+      <c r="DT66" s="0"/>
+      <c r="DU66" s="0"/>
+      <c r="DV66" s="0"/>
+      <c r="DW66" s="0"/>
+      <c r="DX66" s="0"/>
+      <c r="DY66" s="0"/>
+      <c r="DZ66" s="0"/>
+      <c r="EA66" s="0"/>
+      <c r="EB66" s="0"/>
+      <c r="EC66" s="0"/>
+      <c r="ED66" s="0"/>
+      <c r="EE66" s="0"/>
+      <c r="EF66" s="0"/>
+      <c r="EG66" s="0"/>
+      <c r="EH66" s="0"/>
+      <c r="EI66" s="0"/>
+      <c r="EJ66" s="0"/>
+      <c r="EK66" s="0"/>
+      <c r="EL66" s="0"/>
+      <c r="EM66" s="0"/>
+      <c r="EN66" s="0"/>
+      <c r="EO66" s="0"/>
+      <c r="EP66" s="0"/>
+      <c r="EQ66" s="0"/>
+      <c r="ER66" s="0"/>
+      <c r="ES66" s="0"/>
+      <c r="ET66" s="0"/>
+      <c r="EU66" s="0"/>
+      <c r="EV66" s="0"/>
+      <c r="EW66" s="0"/>
+      <c r="EX66" s="0"/>
+      <c r="EY66" s="0"/>
+      <c r="EZ66" s="0"/>
+      <c r="FA66" s="0"/>
+      <c r="FB66" s="0"/>
+      <c r="FC66" s="0"/>
+      <c r="FD66" s="0"/>
+      <c r="FE66" s="0"/>
+      <c r="FF66" s="0"/>
+      <c r="FG66" s="0"/>
+      <c r="FH66" s="0"/>
+      <c r="FI66" s="0"/>
+      <c r="FJ66" s="0"/>
+      <c r="FK66" s="0"/>
+      <c r="FL66" s="0"/>
+      <c r="FM66" s="0"/>
+      <c r="FN66" s="0"/>
+      <c r="FO66" s="0"/>
+      <c r="FP66" s="0"/>
+      <c r="FQ66" s="0"/>
+      <c r="FR66" s="0"/>
+      <c r="FS66" s="0"/>
+      <c r="FT66" s="0"/>
+      <c r="FU66" s="0"/>
+      <c r="FV66" s="0"/>
+      <c r="FW66" s="0"/>
+      <c r="FX66" s="0"/>
+      <c r="FY66" s="0"/>
+      <c r="FZ66" s="0"/>
+      <c r="GA66" s="0"/>
+      <c r="GB66" s="0"/>
+      <c r="GC66" s="0"/>
+      <c r="GD66" s="0"/>
+      <c r="GE66" s="0"/>
+      <c r="GF66" s="0"/>
+      <c r="GG66" s="0"/>
+      <c r="GH66" s="0"/>
+      <c r="GI66" s="0"/>
+      <c r="GJ66" s="0"/>
+      <c r="GK66" s="0"/>
+      <c r="GL66" s="0"/>
+      <c r="GM66" s="0"/>
+      <c r="GN66" s="0"/>
+      <c r="GO66" s="0"/>
+      <c r="GP66" s="0"/>
+      <c r="GQ66" s="0"/>
+      <c r="GR66" s="0"/>
+      <c r="GS66" s="0"/>
+      <c r="GT66" s="0"/>
+      <c r="GU66" s="0"/>
+      <c r="GV66" s="0"/>
+      <c r="GW66" s="0"/>
+      <c r="GX66" s="0"/>
+      <c r="GY66" s="0"/>
+      <c r="GZ66" s="0"/>
+      <c r="HA66" s="0"/>
+      <c r="HB66" s="0"/>
+      <c r="HC66" s="0"/>
+      <c r="HD66" s="0"/>
+      <c r="HE66" s="0"/>
+      <c r="HF66" s="0"/>
+      <c r="HG66" s="0"/>
+      <c r="HH66" s="0"/>
+      <c r="HI66" s="0"/>
+      <c r="HJ66" s="0"/>
+      <c r="HK66" s="0"/>
+      <c r="HL66" s="0"/>
+      <c r="HM66" s="0"/>
+      <c r="HN66" s="0"/>
+      <c r="HO66" s="0"/>
+      <c r="HP66" s="0"/>
+      <c r="HQ66" s="0"/>
+      <c r="HR66" s="0"/>
+      <c r="HS66" s="0"/>
+      <c r="HT66" s="0"/>
+      <c r="HU66" s="0"/>
+      <c r="HV66" s="0"/>
+      <c r="HW66" s="0"/>
+      <c r="HX66" s="0"/>
+      <c r="HY66" s="0"/>
+      <c r="HZ66" s="0"/>
+      <c r="IA66" s="0"/>
+      <c r="IB66" s="0"/>
+      <c r="IC66" s="0"/>
+      <c r="ID66" s="0"/>
+      <c r="IE66" s="0"/>
+      <c r="IF66" s="0"/>
+      <c r="IG66" s="0"/>
+      <c r="IH66" s="0"/>
+      <c r="II66" s="0"/>
+      <c r="IJ66" s="0"/>
+      <c r="IK66" s="0"/>
+      <c r="IL66" s="0"/>
+      <c r="IM66" s="0"/>
+      <c r="IN66" s="0"/>
+      <c r="IO66" s="0"/>
+      <c r="IP66" s="0"/>
+      <c r="IQ66" s="0"/>
+      <c r="IR66" s="0"/>
+      <c r="IS66" s="0"/>
+      <c r="IT66" s="0"/>
+      <c r="IU66" s="0"/>
+      <c r="IV66" s="0"/>
+      <c r="IW66" s="0"/>
+      <c r="IX66" s="0"/>
+      <c r="IY66" s="0"/>
+      <c r="IZ66" s="0"/>
+      <c r="JA66" s="0"/>
+      <c r="JB66" s="0"/>
+      <c r="JC66" s="0"/>
+      <c r="JD66" s="0"/>
+      <c r="JE66" s="0"/>
+      <c r="JF66" s="0"/>
+      <c r="JG66" s="0"/>
+      <c r="JH66" s="0"/>
+      <c r="JI66" s="0"/>
+      <c r="JJ66" s="0"/>
+      <c r="JK66" s="0"/>
+      <c r="JL66" s="0"/>
+      <c r="JM66" s="0"/>
+      <c r="JN66" s="0"/>
+      <c r="JO66" s="0"/>
+      <c r="JP66" s="0"/>
+      <c r="JQ66" s="0"/>
+      <c r="JR66" s="0"/>
+      <c r="JS66" s="0"/>
+      <c r="JT66" s="0"/>
+      <c r="JU66" s="0"/>
+      <c r="JV66" s="0"/>
+      <c r="JW66" s="0"/>
+      <c r="JX66" s="0"/>
+      <c r="JY66" s="0"/>
+      <c r="JZ66" s="0"/>
+      <c r="KA66" s="0"/>
+      <c r="KB66" s="0"/>
+      <c r="KC66" s="0"/>
+      <c r="KD66" s="0"/>
+      <c r="KE66" s="0"/>
+      <c r="KF66" s="0"/>
+      <c r="KG66" s="0"/>
+      <c r="KH66" s="0"/>
+      <c r="KI66" s="0"/>
+      <c r="KJ66" s="0"/>
+      <c r="KK66" s="0"/>
+      <c r="KL66" s="0"/>
+      <c r="KM66" s="0"/>
+      <c r="KN66" s="0"/>
+      <c r="KO66" s="0"/>
+      <c r="KP66" s="0"/>
+      <c r="KQ66" s="0"/>
+      <c r="KR66" s="0"/>
+      <c r="KS66" s="0"/>
+      <c r="KT66" s="0"/>
+      <c r="KU66" s="0"/>
+      <c r="KV66" s="0"/>
+      <c r="KW66" s="0"/>
+      <c r="KX66" s="0"/>
+      <c r="KY66" s="0"/>
+      <c r="KZ66" s="0"/>
+      <c r="LA66" s="0"/>
+      <c r="LB66" s="0"/>
+      <c r="LC66" s="0"/>
+      <c r="LD66" s="0"/>
+      <c r="LE66" s="0"/>
+      <c r="LF66" s="0"/>
+      <c r="LG66" s="0"/>
+      <c r="LH66" s="0"/>
+      <c r="LI66" s="0"/>
+      <c r="LJ66" s="0"/>
+      <c r="LK66" s="0"/>
+      <c r="LL66" s="0"/>
+      <c r="LM66" s="0"/>
+      <c r="LN66" s="0"/>
+      <c r="LO66" s="0"/>
+      <c r="LP66" s="0"/>
+      <c r="LQ66" s="0"/>
+      <c r="LR66" s="0"/>
+      <c r="LS66" s="0"/>
+      <c r="LT66" s="0"/>
+      <c r="LU66" s="0"/>
+      <c r="LV66" s="0"/>
+      <c r="LW66" s="0"/>
+      <c r="LX66" s="0"/>
+      <c r="LY66" s="0"/>
+      <c r="LZ66" s="0"/>
+      <c r="MA66" s="0"/>
+      <c r="MB66" s="0"/>
+      <c r="MC66" s="0"/>
+      <c r="MD66" s="0"/>
+      <c r="ME66" s="0"/>
+      <c r="MF66" s="0"/>
+      <c r="MG66" s="0"/>
+      <c r="MH66" s="0"/>
+      <c r="MI66" s="0"/>
+      <c r="MJ66" s="0"/>
+      <c r="MK66" s="0"/>
+      <c r="ML66" s="0"/>
+      <c r="MM66" s="0"/>
+      <c r="MN66" s="0"/>
+      <c r="MO66" s="0"/>
+      <c r="MP66" s="0"/>
+      <c r="MQ66" s="0"/>
+      <c r="MR66" s="0"/>
+      <c r="MS66" s="0"/>
+      <c r="MT66" s="0"/>
+      <c r="MU66" s="0"/>
+      <c r="MV66" s="0"/>
+      <c r="MW66" s="0"/>
+      <c r="MX66" s="0"/>
+      <c r="MY66" s="0"/>
+      <c r="MZ66" s="0"/>
+      <c r="NA66" s="0"/>
+      <c r="NB66" s="0"/>
+      <c r="NC66" s="0"/>
+      <c r="ND66" s="0"/>
+      <c r="NE66" s="0"/>
+      <c r="NF66" s="0"/>
+      <c r="NG66" s="0"/>
+      <c r="NH66" s="0"/>
+      <c r="NI66" s="0"/>
+      <c r="NJ66" s="0"/>
+      <c r="NK66" s="0"/>
+      <c r="NL66" s="0"/>
+      <c r="NM66" s="0"/>
+      <c r="NN66" s="0"/>
+      <c r="NO66" s="0"/>
+      <c r="NP66" s="0"/>
+      <c r="NQ66" s="0"/>
+      <c r="NR66" s="0"/>
+      <c r="NS66" s="0"/>
+      <c r="NT66" s="0"/>
+      <c r="NU66" s="0"/>
+      <c r="NV66" s="0"/>
+      <c r="NW66" s="0"/>
+      <c r="NX66" s="0"/>
+      <c r="NY66" s="0"/>
+      <c r="NZ66" s="0"/>
+      <c r="OA66" s="0"/>
+      <c r="OB66" s="0"/>
+      <c r="OC66" s="0"/>
+      <c r="OD66" s="0"/>
+      <c r="OE66" s="0"/>
+      <c r="OF66" s="0"/>
+      <c r="OG66" s="0"/>
+      <c r="OH66" s="0"/>
+      <c r="OI66" s="0"/>
+      <c r="OJ66" s="0"/>
+      <c r="OK66" s="0"/>
+      <c r="OL66" s="0"/>
+      <c r="OM66" s="0"/>
+      <c r="ON66" s="0"/>
+      <c r="OO66" s="0"/>
+      <c r="OP66" s="0"/>
+      <c r="OQ66" s="0"/>
+      <c r="OR66" s="0"/>
+      <c r="OS66" s="0"/>
+      <c r="OT66" s="0"/>
+      <c r="OU66" s="0"/>
+      <c r="OV66" s="0"/>
+      <c r="OW66" s="0"/>
+      <c r="OX66" s="0"/>
+      <c r="OY66" s="0"/>
+      <c r="OZ66" s="0"/>
+      <c r="PA66" s="0"/>
+      <c r="PB66" s="0"/>
+      <c r="PC66" s="0"/>
+      <c r="PD66" s="0"/>
+      <c r="PE66" s="0"/>
+      <c r="PF66" s="0"/>
+      <c r="PG66" s="0"/>
+      <c r="PH66" s="0"/>
+      <c r="PI66" s="0"/>
+      <c r="PJ66" s="0"/>
+      <c r="PK66" s="0"/>
+      <c r="PL66" s="0"/>
+      <c r="PM66" s="0"/>
+      <c r="PN66" s="0"/>
+      <c r="PO66" s="0"/>
+      <c r="PP66" s="0"/>
+      <c r="PQ66" s="0"/>
+      <c r="PR66" s="0"/>
+      <c r="PS66" s="0"/>
+      <c r="PT66" s="0"/>
+      <c r="PU66" s="0"/>
+      <c r="PV66" s="0"/>
+      <c r="PW66" s="0"/>
+      <c r="PX66" s="0"/>
+      <c r="PY66" s="0"/>
+      <c r="PZ66" s="0"/>
+      <c r="QA66" s="0"/>
+      <c r="QB66" s="0"/>
+      <c r="QC66" s="0"/>
+      <c r="QD66" s="0"/>
+      <c r="QE66" s="0"/>
+      <c r="QF66" s="0"/>
+      <c r="QG66" s="0"/>
+      <c r="QH66" s="0"/>
+      <c r="QI66" s="0"/>
+      <c r="QJ66" s="0"/>
+      <c r="QK66" s="0"/>
+      <c r="QL66" s="0"/>
+      <c r="QM66" s="0"/>
+      <c r="QN66" s="0"/>
+      <c r="QO66" s="0"/>
+      <c r="QP66" s="0"/>
+      <c r="QQ66" s="0"/>
+      <c r="QR66" s="0"/>
+      <c r="QS66" s="0"/>
+      <c r="QT66" s="0"/>
+      <c r="QU66" s="0"/>
+      <c r="QV66" s="0"/>
+      <c r="QW66" s="0"/>
+      <c r="QX66" s="0"/>
+      <c r="QY66" s="0"/>
+      <c r="QZ66" s="0"/>
+      <c r="RA66" s="0"/>
+      <c r="RB66" s="0"/>
+      <c r="RC66" s="0"/>
+      <c r="RD66" s="0"/>
+      <c r="RE66" s="0"/>
+      <c r="RF66" s="0"/>
+      <c r="RG66" s="0"/>
+      <c r="RH66" s="0"/>
+      <c r="RI66" s="0"/>
+      <c r="RJ66" s="0"/>
+      <c r="RK66" s="0"/>
+      <c r="RL66" s="0"/>
+      <c r="RM66" s="0"/>
+      <c r="RN66" s="0"/>
+      <c r="RO66" s="0"/>
+      <c r="RP66" s="0"/>
+      <c r="RQ66" s="0"/>
+      <c r="RR66" s="0"/>
+      <c r="RS66" s="0"/>
+      <c r="RT66" s="0"/>
+      <c r="RU66" s="0"/>
+      <c r="RV66" s="0"/>
+      <c r="RW66" s="0"/>
+      <c r="RX66" s="0"/>
+      <c r="RY66" s="0"/>
+      <c r="RZ66" s="0"/>
+      <c r="SA66" s="0"/>
+      <c r="SB66" s="0"/>
+      <c r="SC66" s="0"/>
+      <c r="SD66" s="0"/>
+      <c r="SE66" s="0"/>
+      <c r="SF66" s="0"/>
+      <c r="SG66" s="0"/>
+      <c r="SH66" s="0"/>
+      <c r="SI66" s="0"/>
+      <c r="SJ66" s="0"/>
+      <c r="SK66" s="0"/>
+      <c r="SL66" s="0"/>
+      <c r="SM66" s="0"/>
+      <c r="SN66" s="0"/>
+      <c r="SO66" s="0"/>
+      <c r="SP66" s="0"/>
+      <c r="SQ66" s="0"/>
+      <c r="SR66" s="0"/>
+      <c r="SS66" s="0"/>
+      <c r="ST66" s="0"/>
+      <c r="SU66" s="0"/>
+      <c r="SV66" s="0"/>
+      <c r="SW66" s="0"/>
+      <c r="SX66" s="0"/>
+      <c r="SY66" s="0"/>
+      <c r="SZ66" s="0"/>
+      <c r="TA66" s="0"/>
+      <c r="TB66" s="0"/>
+      <c r="TC66" s="0"/>
+      <c r="TD66" s="0"/>
+      <c r="TE66" s="0"/>
+      <c r="TF66" s="0"/>
+      <c r="TG66" s="0"/>
+      <c r="TH66" s="0"/>
+      <c r="TI66" s="0"/>
+      <c r="TJ66" s="0"/>
+      <c r="TK66" s="0"/>
+      <c r="TL66" s="0"/>
+      <c r="TM66" s="0"/>
+      <c r="TN66" s="0"/>
+      <c r="TO66" s="0"/>
+      <c r="TP66" s="0"/>
+      <c r="TQ66" s="0"/>
+      <c r="TR66" s="0"/>
+      <c r="TS66" s="0"/>
+      <c r="TT66" s="0"/>
+      <c r="TU66" s="0"/>
+      <c r="TV66" s="0"/>
+      <c r="TW66" s="0"/>
+      <c r="TX66" s="0"/>
+      <c r="TY66" s="0"/>
+      <c r="TZ66" s="0"/>
+      <c r="UA66" s="0"/>
+      <c r="UB66" s="0"/>
+      <c r="UC66" s="0"/>
+      <c r="UD66" s="0"/>
+      <c r="UE66" s="0"/>
+      <c r="UF66" s="0"/>
+      <c r="UG66" s="0"/>
+      <c r="UH66" s="0"/>
+      <c r="UI66" s="0"/>
+      <c r="UJ66" s="0"/>
+      <c r="UK66" s="0"/>
+      <c r="UL66" s="0"/>
+      <c r="UM66" s="0"/>
+      <c r="UN66" s="0"/>
+      <c r="UO66" s="0"/>
+      <c r="UP66" s="0"/>
+      <c r="UQ66" s="0"/>
+      <c r="UR66" s="0"/>
+      <c r="US66" s="0"/>
+      <c r="UT66" s="0"/>
+      <c r="UU66" s="0"/>
+      <c r="UV66" s="0"/>
+      <c r="UW66" s="0"/>
+      <c r="UX66" s="0"/>
+      <c r="UY66" s="0"/>
+      <c r="UZ66" s="0"/>
+      <c r="VA66" s="0"/>
+      <c r="VB66" s="0"/>
+      <c r="VC66" s="0"/>
+      <c r="VD66" s="0"/>
+      <c r="VE66" s="0"/>
+      <c r="VF66" s="0"/>
+      <c r="VG66" s="0"/>
+      <c r="VH66" s="0"/>
+      <c r="VI66" s="0"/>
+      <c r="VJ66" s="0"/>
+      <c r="VK66" s="0"/>
+      <c r="VL66" s="0"/>
+      <c r="VM66" s="0"/>
+      <c r="VN66" s="0"/>
+      <c r="VO66" s="0"/>
+      <c r="VP66" s="0"/>
+      <c r="VQ66" s="0"/>
+      <c r="VR66" s="0"/>
+      <c r="VS66" s="0"/>
+      <c r="VT66" s="0"/>
+      <c r="VU66" s="0"/>
+      <c r="VV66" s="0"/>
+      <c r="VW66" s="0"/>
+      <c r="VX66" s="0"/>
+      <c r="VY66" s="0"/>
+      <c r="VZ66" s="0"/>
+      <c r="WA66" s="0"/>
+      <c r="WB66" s="0"/>
+      <c r="WC66" s="0"/>
+      <c r="WD66" s="0"/>
+      <c r="WE66" s="0"/>
+      <c r="WF66" s="0"/>
+      <c r="WG66" s="0"/>
+      <c r="WH66" s="0"/>
+      <c r="WI66" s="0"/>
+      <c r="WJ66" s="0"/>
+      <c r="WK66" s="0"/>
+      <c r="WL66" s="0"/>
+      <c r="WM66" s="0"/>
+      <c r="WN66" s="0"/>
+      <c r="WO66" s="0"/>
+      <c r="WP66" s="0"/>
+      <c r="WQ66" s="0"/>
+      <c r="WR66" s="0"/>
+      <c r="WS66" s="0"/>
+      <c r="WT66" s="0"/>
+      <c r="WU66" s="0"/>
+      <c r="WV66" s="0"/>
+      <c r="WW66" s="0"/>
+      <c r="WX66" s="0"/>
+      <c r="WY66" s="0"/>
+      <c r="WZ66" s="0"/>
+      <c r="XA66" s="0"/>
+      <c r="XB66" s="0"/>
+      <c r="XC66" s="0"/>
+      <c r="XD66" s="0"/>
+      <c r="XE66" s="0"/>
+      <c r="XF66" s="0"/>
+      <c r="XG66" s="0"/>
+      <c r="XH66" s="0"/>
+      <c r="XI66" s="0"/>
+      <c r="XJ66" s="0"/>
+      <c r="XK66" s="0"/>
+      <c r="XL66" s="0"/>
+      <c r="XM66" s="0"/>
+      <c r="XN66" s="0"/>
+      <c r="XO66" s="0"/>
+      <c r="XP66" s="0"/>
+      <c r="XQ66" s="0"/>
+      <c r="XR66" s="0"/>
+      <c r="XS66" s="0"/>
+      <c r="XT66" s="0"/>
+      <c r="XU66" s="0"/>
+      <c r="XV66" s="0"/>
+      <c r="XW66" s="0"/>
+      <c r="XX66" s="0"/>
+      <c r="XY66" s="0"/>
+      <c r="XZ66" s="0"/>
+      <c r="YA66" s="0"/>
+      <c r="YB66" s="0"/>
+      <c r="YC66" s="0"/>
+      <c r="YD66" s="0"/>
+      <c r="YE66" s="0"/>
+      <c r="YF66" s="0"/>
+      <c r="YG66" s="0"/>
+      <c r="YH66" s="0"/>
+      <c r="YI66" s="0"/>
+      <c r="YJ66" s="0"/>
+      <c r="YK66" s="0"/>
+      <c r="YL66" s="0"/>
+      <c r="YM66" s="0"/>
+      <c r="YN66" s="0"/>
+      <c r="YO66" s="0"/>
+      <c r="YP66" s="0"/>
+      <c r="YQ66" s="0"/>
+      <c r="YR66" s="0"/>
+      <c r="YS66" s="0"/>
+      <c r="YT66" s="0"/>
+      <c r="YU66" s="0"/>
+      <c r="YV66" s="0"/>
+      <c r="YW66" s="0"/>
+      <c r="YX66" s="0"/>
+      <c r="YY66" s="0"/>
+      <c r="YZ66" s="0"/>
+      <c r="ZA66" s="0"/>
+      <c r="ZB66" s="0"/>
+      <c r="ZC66" s="0"/>
+      <c r="ZD66" s="0"/>
+      <c r="ZE66" s="0"/>
+      <c r="ZF66" s="0"/>
+      <c r="ZG66" s="0"/>
+      <c r="ZH66" s="0"/>
+      <c r="ZI66" s="0"/>
+      <c r="ZJ66" s="0"/>
+      <c r="ZK66" s="0"/>
+      <c r="ZL66" s="0"/>
+      <c r="ZM66" s="0"/>
+      <c r="ZN66" s="0"/>
+      <c r="ZO66" s="0"/>
+      <c r="ZP66" s="0"/>
+      <c r="ZQ66" s="0"/>
+      <c r="ZR66" s="0"/>
+      <c r="ZS66" s="0"/>
+      <c r="ZT66" s="0"/>
+      <c r="ZU66" s="0"/>
+      <c r="ZV66" s="0"/>
+      <c r="ZW66" s="0"/>
+      <c r="ZX66" s="0"/>
+      <c r="ZY66" s="0"/>
+      <c r="ZZ66" s="0"/>
+      <c r="AAA66" s="0"/>
+      <c r="AAB66" s="0"/>
+      <c r="AAC66" s="0"/>
+      <c r="AAD66" s="0"/>
+      <c r="AAE66" s="0"/>
+      <c r="AAF66" s="0"/>
+      <c r="AAG66" s="0"/>
+      <c r="AAH66" s="0"/>
+      <c r="AAI66" s="0"/>
+      <c r="AAJ66" s="0"/>
+      <c r="AAK66" s="0"/>
+      <c r="AAL66" s="0"/>
+      <c r="AAM66" s="0"/>
+      <c r="AAN66" s="0"/>
+      <c r="AAO66" s="0"/>
+      <c r="AAP66" s="0"/>
+      <c r="AAQ66" s="0"/>
+      <c r="AAR66" s="0"/>
+      <c r="AAS66" s="0"/>
+      <c r="AAT66" s="0"/>
+      <c r="AAU66" s="0"/>
+      <c r="AAV66" s="0"/>
+      <c r="AAW66" s="0"/>
+      <c r="AAX66" s="0"/>
+      <c r="AAY66" s="0"/>
+      <c r="AAZ66" s="0"/>
+      <c r="ABA66" s="0"/>
+      <c r="ABB66" s="0"/>
+      <c r="ABC66" s="0"/>
+      <c r="ABD66" s="0"/>
+      <c r="ABE66" s="0"/>
+      <c r="ABF66" s="0"/>
+      <c r="ABG66" s="0"/>
+      <c r="ABH66" s="0"/>
+      <c r="ABI66" s="0"/>
+      <c r="ABJ66" s="0"/>
+      <c r="ABK66" s="0"/>
+      <c r="ABL66" s="0"/>
+      <c r="ABM66" s="0"/>
+      <c r="ABN66" s="0"/>
+      <c r="ABO66" s="0"/>
+      <c r="ABP66" s="0"/>
+      <c r="ABQ66" s="0"/>
+      <c r="ABR66" s="0"/>
+      <c r="ABS66" s="0"/>
+      <c r="ABT66" s="0"/>
+      <c r="ABU66" s="0"/>
+      <c r="ABV66" s="0"/>
+      <c r="ABW66" s="0"/>
+      <c r="ABX66" s="0"/>
+      <c r="ABY66" s="0"/>
+      <c r="ABZ66" s="0"/>
+      <c r="ACA66" s="0"/>
+      <c r="ACB66" s="0"/>
+      <c r="ACC66" s="0"/>
+      <c r="ACD66" s="0"/>
+      <c r="ACE66" s="0"/>
+      <c r="ACF66" s="0"/>
+      <c r="ACG66" s="0"/>
+      <c r="ACH66" s="0"/>
+      <c r="ACI66" s="0"/>
+      <c r="ACJ66" s="0"/>
+      <c r="ACK66" s="0"/>
+      <c r="ACL66" s="0"/>
+      <c r="ACM66" s="0"/>
+      <c r="ACN66" s="0"/>
+      <c r="ACO66" s="0"/>
+      <c r="ACP66" s="0"/>
+      <c r="ACQ66" s="0"/>
+      <c r="ACR66" s="0"/>
+      <c r="ACS66" s="0"/>
+      <c r="ACT66" s="0"/>
+      <c r="ACU66" s="0"/>
+      <c r="ACV66" s="0"/>
+      <c r="ACW66" s="0"/>
+      <c r="ACX66" s="0"/>
+      <c r="ACY66" s="0"/>
+      <c r="ACZ66" s="0"/>
+      <c r="ADA66" s="0"/>
+      <c r="ADB66" s="0"/>
+      <c r="ADC66" s="0"/>
+      <c r="ADD66" s="0"/>
+      <c r="ADE66" s="0"/>
+      <c r="ADF66" s="0"/>
+      <c r="ADG66" s="0"/>
+      <c r="ADH66" s="0"/>
+      <c r="ADI66" s="0"/>
+      <c r="ADJ66" s="0"/>
+      <c r="ADK66" s="0"/>
+      <c r="ADL66" s="0"/>
+      <c r="ADM66" s="0"/>
+      <c r="ADN66" s="0"/>
+      <c r="ADO66" s="0"/>
+      <c r="ADP66" s="0"/>
+      <c r="ADQ66" s="0"/>
+      <c r="ADR66" s="0"/>
+      <c r="ADS66" s="0"/>
+      <c r="ADT66" s="0"/>
+      <c r="ADU66" s="0"/>
+      <c r="ADV66" s="0"/>
+      <c r="ADW66" s="0"/>
+      <c r="ADX66" s="0"/>
+      <c r="ADY66" s="0"/>
+      <c r="ADZ66" s="0"/>
+      <c r="AEA66" s="0"/>
+      <c r="AEB66" s="0"/>
+      <c r="AEC66" s="0"/>
+      <c r="AED66" s="0"/>
+      <c r="AEE66" s="0"/>
+      <c r="AEF66" s="0"/>
+      <c r="AEG66" s="0"/>
+      <c r="AEH66" s="0"/>
+      <c r="AEI66" s="0"/>
+      <c r="AEJ66" s="0"/>
+      <c r="AEK66" s="0"/>
+      <c r="AEL66" s="0"/>
+      <c r="AEM66" s="0"/>
+      <c r="AEN66" s="0"/>
+      <c r="AEO66" s="0"/>
+      <c r="AEP66" s="0"/>
+      <c r="AEQ66" s="0"/>
+      <c r="AER66" s="0"/>
+      <c r="AES66" s="0"/>
+      <c r="AET66" s="0"/>
+      <c r="AEU66" s="0"/>
+      <c r="AEV66" s="0"/>
+      <c r="AEW66" s="0"/>
+      <c r="AEX66" s="0"/>
+      <c r="AEY66" s="0"/>
+      <c r="AEZ66" s="0"/>
+      <c r="AFA66" s="0"/>
+      <c r="AFB66" s="0"/>
+      <c r="AFC66" s="0"/>
+      <c r="AFD66" s="0"/>
+      <c r="AFE66" s="0"/>
+      <c r="AFF66" s="0"/>
+      <c r="AFG66" s="0"/>
+      <c r="AFH66" s="0"/>
+      <c r="AFI66" s="0"/>
+      <c r="AFJ66" s="0"/>
+      <c r="AFK66" s="0"/>
+      <c r="AFL66" s="0"/>
+      <c r="AFM66" s="0"/>
+      <c r="AFN66" s="0"/>
+      <c r="AFO66" s="0"/>
+      <c r="AFP66" s="0"/>
+      <c r="AFQ66" s="0"/>
+      <c r="AFR66" s="0"/>
+      <c r="AFS66" s="0"/>
+      <c r="AFT66" s="0"/>
+      <c r="AFU66" s="0"/>
+      <c r="AFV66" s="0"/>
+      <c r="AFW66" s="0"/>
+      <c r="AFX66" s="0"/>
+      <c r="AFY66" s="0"/>
+      <c r="AFZ66" s="0"/>
+      <c r="AGA66" s="0"/>
+      <c r="AGB66" s="0"/>
+      <c r="AGC66" s="0"/>
+      <c r="AGD66" s="0"/>
+      <c r="AGE66" s="0"/>
+      <c r="AGF66" s="0"/>
+      <c r="AGG66" s="0"/>
+      <c r="AGH66" s="0"/>
+      <c r="AGI66" s="0"/>
+      <c r="AGJ66" s="0"/>
+      <c r="AGK66" s="0"/>
+      <c r="AGL66" s="0"/>
+      <c r="AGM66" s="0"/>
+      <c r="AGN66" s="0"/>
+      <c r="AGO66" s="0"/>
+      <c r="AGP66" s="0"/>
+      <c r="AGQ66" s="0"/>
+      <c r="AGR66" s="0"/>
+      <c r="AGS66" s="0"/>
+      <c r="AGT66" s="0"/>
+      <c r="AGU66" s="0"/>
+      <c r="AGV66" s="0"/>
+      <c r="AGW66" s="0"/>
+      <c r="AGX66" s="0"/>
+      <c r="AGY66" s="0"/>
+      <c r="AGZ66" s="0"/>
+      <c r="AHA66" s="0"/>
+      <c r="AHB66" s="0"/>
+      <c r="AHC66" s="0"/>
+      <c r="AHD66" s="0"/>
+      <c r="AHE66" s="0"/>
+      <c r="AHF66" s="0"/>
+      <c r="AHG66" s="0"/>
+      <c r="AHH66" s="0"/>
+      <c r="AHI66" s="0"/>
+      <c r="AHJ66" s="0"/>
+      <c r="AHK66" s="0"/>
+      <c r="AHL66" s="0"/>
+      <c r="AHM66" s="0"/>
+      <c r="AHN66" s="0"/>
+      <c r="AHO66" s="0"/>
+      <c r="AHP66" s="0"/>
+      <c r="AHQ66" s="0"/>
+      <c r="AHR66" s="0"/>
+      <c r="AHS66" s="0"/>
+      <c r="AHT66" s="0"/>
+      <c r="AHU66" s="0"/>
+      <c r="AHV66" s="0"/>
+      <c r="AHW66" s="0"/>
+      <c r="AHX66" s="0"/>
+      <c r="AHY66" s="0"/>
+      <c r="AHZ66" s="0"/>
+      <c r="AIA66" s="0"/>
+      <c r="AIB66" s="0"/>
+      <c r="AIC66" s="0"/>
+      <c r="AID66" s="0"/>
+      <c r="AIE66" s="0"/>
+      <c r="AIF66" s="0"/>
+      <c r="AIG66" s="0"/>
+      <c r="AIH66" s="0"/>
+      <c r="AII66" s="0"/>
+      <c r="AIJ66" s="0"/>
+      <c r="AIK66" s="0"/>
+      <c r="AIL66" s="0"/>
+      <c r="AIM66" s="0"/>
+      <c r="AIN66" s="0"/>
+      <c r="AIO66" s="0"/>
+      <c r="AIP66" s="0"/>
+      <c r="AIQ66" s="0"/>
+      <c r="AIR66" s="0"/>
+      <c r="AIS66" s="0"/>
+      <c r="AIT66" s="0"/>
+      <c r="AIU66" s="0"/>
+      <c r="AIV66" s="0"/>
+      <c r="AIW66" s="0"/>
+      <c r="AIX66" s="0"/>
+      <c r="AIY66" s="0"/>
+      <c r="AIZ66" s="0"/>
+      <c r="AJA66" s="0"/>
+      <c r="AJB66" s="0"/>
+      <c r="AJC66" s="0"/>
+      <c r="AJD66" s="0"/>
+      <c r="AJE66" s="0"/>
+      <c r="AJF66" s="0"/>
+      <c r="AJG66" s="0"/>
+      <c r="AJH66" s="0"/>
+      <c r="AJI66" s="0"/>
+      <c r="AJJ66" s="0"/>
+      <c r="AJK66" s="0"/>
+      <c r="AJL66" s="0"/>
+      <c r="AJM66" s="0"/>
+      <c r="AJN66" s="0"/>
+      <c r="AJO66" s="0"/>
+      <c r="AJP66" s="0"/>
+      <c r="AJQ66" s="0"/>
+      <c r="AJR66" s="0"/>
+      <c r="AJS66" s="0"/>
+      <c r="AJT66" s="0"/>
+      <c r="AJU66" s="0"/>
+      <c r="AJV66" s="0"/>
+      <c r="AJW66" s="0"/>
+      <c r="AJX66" s="0"/>
+      <c r="AJY66" s="0"/>
+      <c r="AJZ66" s="0"/>
+      <c r="AKA66" s="0"/>
+      <c r="AKB66" s="0"/>
+      <c r="AKC66" s="0"/>
+      <c r="AKD66" s="0"/>
+      <c r="AKE66" s="0"/>
+      <c r="AKF66" s="0"/>
+      <c r="AKG66" s="0"/>
+      <c r="AKH66" s="0"/>
+      <c r="AKI66" s="0"/>
+      <c r="AKJ66" s="0"/>
+      <c r="AKK66" s="0"/>
+      <c r="AKL66" s="0"/>
+      <c r="AKM66" s="0"/>
+      <c r="AKN66" s="0"/>
+      <c r="AKO66" s="0"/>
+      <c r="AKP66" s="0"/>
+      <c r="AKQ66" s="0"/>
+      <c r="AKR66" s="0"/>
+      <c r="AKS66" s="0"/>
+      <c r="AKT66" s="0"/>
+      <c r="AKU66" s="0"/>
+      <c r="AKV66" s="0"/>
+      <c r="AKW66" s="0"/>
+      <c r="AKX66" s="0"/>
+      <c r="AKY66" s="0"/>
+      <c r="AKZ66" s="0"/>
+      <c r="ALA66" s="0"/>
+      <c r="ALB66" s="0"/>
+      <c r="ALC66" s="0"/>
+      <c r="ALD66" s="0"/>
+      <c r="ALE66" s="0"/>
+      <c r="ALF66" s="0"/>
+      <c r="ALG66" s="0"/>
+      <c r="ALH66" s="0"/>
+      <c r="ALI66" s="0"/>
+      <c r="ALJ66" s="0"/>
+      <c r="ALK66" s="0"/>
+      <c r="ALL66" s="0"/>
+      <c r="ALM66" s="0"/>
+      <c r="ALN66" s="0"/>
+      <c r="ALO66" s="0"/>
+      <c r="ALP66" s="0"/>
+      <c r="ALQ66" s="0"/>
+      <c r="ALR66" s="0"/>
+      <c r="ALS66" s="0"/>
+      <c r="ALT66" s="0"/>
+      <c r="ALU66" s="0"/>
+      <c r="ALV66" s="0"/>
+      <c r="ALW66" s="0"/>
+      <c r="ALX66" s="0"/>
+      <c r="ALY66" s="0"/>
+      <c r="ALZ66" s="0"/>
+      <c r="AMA66" s="0"/>
+      <c r="AMB66" s="0"/>
+      <c r="AMC66" s="0"/>
+      <c r="AMD66" s="0"/>
+      <c r="AME66" s="0"/>
+      <c r="AMF66" s="0"/>
+      <c r="AMG66" s="0"/>
+      <c r="AMH66" s="0"/>
+      <c r="AMI66" s="0"/>
+      <c r="AMJ66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12"/>
+      <c r="B67" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
       <c r="D67" s="0"/>
       <c r="E67" s="0"/>
       <c r="F67" s="0"/>
       <c r="G67" s="0"/>
       <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0"/>
+      <c r="U67" s="0"/>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0"/>
+      <c r="X67" s="0"/>
+      <c r="Y67" s="0"/>
+      <c r="Z67" s="0"/>
+      <c r="AA67" s="0"/>
+      <c r="AB67" s="0"/>
+      <c r="AC67" s="0"/>
+      <c r="AD67" s="0"/>
+      <c r="AE67" s="0"/>
+      <c r="AF67" s="0"/>
+      <c r="AG67" s="0"/>
+      <c r="AH67" s="0"/>
+      <c r="AI67" s="0"/>
+      <c r="AJ67" s="0"/>
+      <c r="AK67" s="0"/>
+      <c r="AL67" s="0"/>
+      <c r="AM67" s="0"/>
+      <c r="AN67" s="0"/>
+      <c r="AO67" s="0"/>
+      <c r="AP67" s="0"/>
+      <c r="AQ67" s="0"/>
+      <c r="AR67" s="0"/>
+      <c r="AS67" s="0"/>
+      <c r="AT67" s="0"/>
+      <c r="AU67" s="0"/>
+      <c r="AV67" s="0"/>
+      <c r="AW67" s="0"/>
+      <c r="AX67" s="0"/>
+      <c r="AY67" s="0"/>
+      <c r="AZ67" s="0"/>
+      <c r="BA67" s="0"/>
+      <c r="BB67" s="0"/>
+      <c r="BC67" s="0"/>
+      <c r="BD67" s="0"/>
+      <c r="BE67" s="0"/>
+      <c r="BF67" s="0"/>
+      <c r="BG67" s="0"/>
+      <c r="BH67" s="0"/>
+      <c r="BI67" s="0"/>
+      <c r="BJ67" s="0"/>
+      <c r="BK67" s="0"/>
+      <c r="BL67" s="0"/>
+      <c r="BM67" s="0"/>
+      <c r="BN67" s="0"/>
+      <c r="BO67" s="0"/>
+      <c r="BP67" s="0"/>
+      <c r="BQ67" s="0"/>
+      <c r="BR67" s="0"/>
+      <c r="BS67" s="0"/>
+      <c r="BT67" s="0"/>
+      <c r="BU67" s="0"/>
+      <c r="BV67" s="0"/>
+      <c r="BW67" s="0"/>
+      <c r="BX67" s="0"/>
+      <c r="BY67" s="0"/>
+      <c r="BZ67" s="0"/>
+      <c r="CA67" s="0"/>
+      <c r="CB67" s="0"/>
+      <c r="CC67" s="0"/>
+      <c r="CD67" s="0"/>
+      <c r="CE67" s="0"/>
+      <c r="CF67" s="0"/>
+      <c r="CG67" s="0"/>
+      <c r="CH67" s="0"/>
+      <c r="CI67" s="0"/>
+      <c r="CJ67" s="0"/>
+      <c r="CK67" s="0"/>
+      <c r="CL67" s="0"/>
+      <c r="CM67" s="0"/>
+      <c r="CN67" s="0"/>
+      <c r="CO67" s="0"/>
+      <c r="CP67" s="0"/>
+      <c r="CQ67" s="0"/>
+      <c r="CR67" s="0"/>
+      <c r="CS67" s="0"/>
+      <c r="CT67" s="0"/>
+      <c r="CU67" s="0"/>
+      <c r="CV67" s="0"/>
+      <c r="CW67" s="0"/>
+      <c r="CX67" s="0"/>
+      <c r="CY67" s="0"/>
+      <c r="CZ67" s="0"/>
+      <c r="DA67" s="0"/>
+      <c r="DB67" s="0"/>
+      <c r="DC67" s="0"/>
+      <c r="DD67" s="0"/>
+      <c r="DE67" s="0"/>
+      <c r="DF67" s="0"/>
+      <c r="DG67" s="0"/>
+      <c r="DH67" s="0"/>
+      <c r="DI67" s="0"/>
+      <c r="DJ67" s="0"/>
+      <c r="DK67" s="0"/>
+      <c r="DL67" s="0"/>
+      <c r="DM67" s="0"/>
+      <c r="DN67" s="0"/>
+      <c r="DO67" s="0"/>
+      <c r="DP67" s="0"/>
+      <c r="DQ67" s="0"/>
+      <c r="DR67" s="0"/>
+      <c r="DS67" s="0"/>
+      <c r="DT67" s="0"/>
+      <c r="DU67" s="0"/>
+      <c r="DV67" s="0"/>
+      <c r="DW67" s="0"/>
+      <c r="DX67" s="0"/>
+      <c r="DY67" s="0"/>
+      <c r="DZ67" s="0"/>
+      <c r="EA67" s="0"/>
+      <c r="EB67" s="0"/>
+      <c r="EC67" s="0"/>
+      <c r="ED67" s="0"/>
+      <c r="EE67" s="0"/>
+      <c r="EF67" s="0"/>
+      <c r="EG67" s="0"/>
+      <c r="EH67" s="0"/>
+      <c r="EI67" s="0"/>
+      <c r="EJ67" s="0"/>
+      <c r="EK67" s="0"/>
+      <c r="EL67" s="0"/>
+      <c r="EM67" s="0"/>
+      <c r="EN67" s="0"/>
+      <c r="EO67" s="0"/>
+      <c r="EP67" s="0"/>
+      <c r="EQ67" s="0"/>
+      <c r="ER67" s="0"/>
+      <c r="ES67" s="0"/>
+      <c r="ET67" s="0"/>
+      <c r="EU67" s="0"/>
+      <c r="EV67" s="0"/>
+      <c r="EW67" s="0"/>
+      <c r="EX67" s="0"/>
+      <c r="EY67" s="0"/>
+      <c r="EZ67" s="0"/>
+      <c r="FA67" s="0"/>
+      <c r="FB67" s="0"/>
+      <c r="FC67" s="0"/>
+      <c r="FD67" s="0"/>
+      <c r="FE67" s="0"/>
+      <c r="FF67" s="0"/>
+      <c r="FG67" s="0"/>
+      <c r="FH67" s="0"/>
+      <c r="FI67" s="0"/>
+      <c r="FJ67" s="0"/>
+      <c r="FK67" s="0"/>
+      <c r="FL67" s="0"/>
+      <c r="FM67" s="0"/>
+      <c r="FN67" s="0"/>
+      <c r="FO67" s="0"/>
+      <c r="FP67" s="0"/>
+      <c r="FQ67" s="0"/>
+      <c r="FR67" s="0"/>
+      <c r="FS67" s="0"/>
+      <c r="FT67" s="0"/>
+      <c r="FU67" s="0"/>
+      <c r="FV67" s="0"/>
+      <c r="FW67" s="0"/>
+      <c r="FX67" s="0"/>
+      <c r="FY67" s="0"/>
+      <c r="FZ67" s="0"/>
+      <c r="GA67" s="0"/>
+      <c r="GB67" s="0"/>
+      <c r="GC67" s="0"/>
+      <c r="GD67" s="0"/>
+      <c r="GE67" s="0"/>
+      <c r="GF67" s="0"/>
+      <c r="GG67" s="0"/>
+      <c r="GH67" s="0"/>
+      <c r="GI67" s="0"/>
+      <c r="GJ67" s="0"/>
+      <c r="GK67" s="0"/>
+      <c r="GL67" s="0"/>
+      <c r="GM67" s="0"/>
+      <c r="GN67" s="0"/>
+      <c r="GO67" s="0"/>
+      <c r="GP67" s="0"/>
+      <c r="GQ67" s="0"/>
+      <c r="GR67" s="0"/>
+      <c r="GS67" s="0"/>
+      <c r="GT67" s="0"/>
+      <c r="GU67" s="0"/>
+      <c r="GV67" s="0"/>
+      <c r="GW67" s="0"/>
+      <c r="GX67" s="0"/>
+      <c r="GY67" s="0"/>
+      <c r="GZ67" s="0"/>
+      <c r="HA67" s="0"/>
+      <c r="HB67" s="0"/>
+      <c r="HC67" s="0"/>
+      <c r="HD67" s="0"/>
+      <c r="HE67" s="0"/>
+      <c r="HF67" s="0"/>
+      <c r="HG67" s="0"/>
+      <c r="HH67" s="0"/>
+      <c r="HI67" s="0"/>
+      <c r="HJ67" s="0"/>
+      <c r="HK67" s="0"/>
+      <c r="HL67" s="0"/>
+      <c r="HM67" s="0"/>
+      <c r="HN67" s="0"/>
+      <c r="HO67" s="0"/>
+      <c r="HP67" s="0"/>
+      <c r="HQ67" s="0"/>
+      <c r="HR67" s="0"/>
+      <c r="HS67" s="0"/>
+      <c r="HT67" s="0"/>
+      <c r="HU67" s="0"/>
+      <c r="HV67" s="0"/>
+      <c r="HW67" s="0"/>
+      <c r="HX67" s="0"/>
+      <c r="HY67" s="0"/>
+      <c r="HZ67" s="0"/>
+      <c r="IA67" s="0"/>
+      <c r="IB67" s="0"/>
+      <c r="IC67" s="0"/>
+      <c r="ID67" s="0"/>
+      <c r="IE67" s="0"/>
+      <c r="IF67" s="0"/>
+      <c r="IG67" s="0"/>
+      <c r="IH67" s="0"/>
+      <c r="II67" s="0"/>
+      <c r="IJ67" s="0"/>
+      <c r="IK67" s="0"/>
+      <c r="IL67" s="0"/>
+      <c r="IM67" s="0"/>
+      <c r="IN67" s="0"/>
+      <c r="IO67" s="0"/>
+      <c r="IP67" s="0"/>
+      <c r="IQ67" s="0"/>
+      <c r="IR67" s="0"/>
+      <c r="IS67" s="0"/>
+      <c r="IT67" s="0"/>
+      <c r="IU67" s="0"/>
+      <c r="IV67" s="0"/>
+      <c r="IW67" s="0"/>
+      <c r="IX67" s="0"/>
+      <c r="IY67" s="0"/>
+      <c r="IZ67" s="0"/>
+      <c r="JA67" s="0"/>
+      <c r="JB67" s="0"/>
+      <c r="JC67" s="0"/>
+      <c r="JD67" s="0"/>
+      <c r="JE67" s="0"/>
+      <c r="JF67" s="0"/>
+      <c r="JG67" s="0"/>
+      <c r="JH67" s="0"/>
+      <c r="JI67" s="0"/>
+      <c r="JJ67" s="0"/>
+      <c r="JK67" s="0"/>
+      <c r="JL67" s="0"/>
+      <c r="JM67" s="0"/>
+      <c r="JN67" s="0"/>
+      <c r="JO67" s="0"/>
+      <c r="JP67" s="0"/>
+      <c r="JQ67" s="0"/>
+      <c r="JR67" s="0"/>
+      <c r="JS67" s="0"/>
+      <c r="JT67" s="0"/>
+      <c r="JU67" s="0"/>
+      <c r="JV67" s="0"/>
+      <c r="JW67" s="0"/>
+      <c r="JX67" s="0"/>
+      <c r="JY67" s="0"/>
+      <c r="JZ67" s="0"/>
+      <c r="KA67" s="0"/>
+      <c r="KB67" s="0"/>
+      <c r="KC67" s="0"/>
+      <c r="KD67" s="0"/>
+      <c r="KE67" s="0"/>
+      <c r="KF67" s="0"/>
+      <c r="KG67" s="0"/>
+      <c r="KH67" s="0"/>
+      <c r="KI67" s="0"/>
+      <c r="KJ67" s="0"/>
+      <c r="KK67" s="0"/>
+      <c r="KL67" s="0"/>
+      <c r="KM67" s="0"/>
+      <c r="KN67" s="0"/>
+      <c r="KO67" s="0"/>
+      <c r="KP67" s="0"/>
+      <c r="KQ67" s="0"/>
+      <c r="KR67" s="0"/>
+      <c r="KS67" s="0"/>
+      <c r="KT67" s="0"/>
+      <c r="KU67" s="0"/>
+      <c r="KV67" s="0"/>
+      <c r="KW67" s="0"/>
+      <c r="KX67" s="0"/>
+      <c r="KY67" s="0"/>
+      <c r="KZ67" s="0"/>
+      <c r="LA67" s="0"/>
+      <c r="LB67" s="0"/>
+      <c r="LC67" s="0"/>
+      <c r="LD67" s="0"/>
+      <c r="LE67" s="0"/>
+      <c r="LF67" s="0"/>
+      <c r="LG67" s="0"/>
+      <c r="LH67" s="0"/>
+      <c r="LI67" s="0"/>
+      <c r="LJ67" s="0"/>
+      <c r="LK67" s="0"/>
+      <c r="LL67" s="0"/>
+      <c r="LM67" s="0"/>
+      <c r="LN67" s="0"/>
+      <c r="LO67" s="0"/>
+      <c r="LP67" s="0"/>
+      <c r="LQ67" s="0"/>
+      <c r="LR67" s="0"/>
+      <c r="LS67" s="0"/>
+      <c r="LT67" s="0"/>
+      <c r="LU67" s="0"/>
+      <c r="LV67" s="0"/>
+      <c r="LW67" s="0"/>
+      <c r="LX67" s="0"/>
+      <c r="LY67" s="0"/>
+      <c r="LZ67" s="0"/>
+      <c r="MA67" s="0"/>
+      <c r="MB67" s="0"/>
+      <c r="MC67" s="0"/>
+      <c r="MD67" s="0"/>
+      <c r="ME67" s="0"/>
+      <c r="MF67" s="0"/>
+      <c r="MG67" s="0"/>
+      <c r="MH67" s="0"/>
+      <c r="MI67" s="0"/>
+      <c r="MJ67" s="0"/>
+      <c r="MK67" s="0"/>
+      <c r="ML67" s="0"/>
+      <c r="MM67" s="0"/>
+      <c r="MN67" s="0"/>
+      <c r="MO67" s="0"/>
+      <c r="MP67" s="0"/>
+      <c r="MQ67" s="0"/>
+      <c r="MR67" s="0"/>
+      <c r="MS67" s="0"/>
+      <c r="MT67" s="0"/>
+      <c r="MU67" s="0"/>
+      <c r="MV67" s="0"/>
+      <c r="MW67" s="0"/>
+      <c r="MX67" s="0"/>
+      <c r="MY67" s="0"/>
+      <c r="MZ67" s="0"/>
+      <c r="NA67" s="0"/>
+      <c r="NB67" s="0"/>
+      <c r="NC67" s="0"/>
+      <c r="ND67" s="0"/>
+      <c r="NE67" s="0"/>
+      <c r="NF67" s="0"/>
+      <c r="NG67" s="0"/>
+      <c r="NH67" s="0"/>
+      <c r="NI67" s="0"/>
+      <c r="NJ67" s="0"/>
+      <c r="NK67" s="0"/>
+      <c r="NL67" s="0"/>
+      <c r="NM67" s="0"/>
+      <c r="NN67" s="0"/>
+      <c r="NO67" s="0"/>
+      <c r="NP67" s="0"/>
+      <c r="NQ67" s="0"/>
+      <c r="NR67" s="0"/>
+      <c r="NS67" s="0"/>
+      <c r="NT67" s="0"/>
+      <c r="NU67" s="0"/>
+      <c r="NV67" s="0"/>
+      <c r="NW67" s="0"/>
+      <c r="NX67" s="0"/>
+      <c r="NY67" s="0"/>
+      <c r="NZ67" s="0"/>
+      <c r="OA67" s="0"/>
+      <c r="OB67" s="0"/>
+      <c r="OC67" s="0"/>
+      <c r="OD67" s="0"/>
+      <c r="OE67" s="0"/>
+      <c r="OF67" s="0"/>
+      <c r="OG67" s="0"/>
+      <c r="OH67" s="0"/>
+      <c r="OI67" s="0"/>
+      <c r="OJ67" s="0"/>
+      <c r="OK67" s="0"/>
+      <c r="OL67" s="0"/>
+      <c r="OM67" s="0"/>
+      <c r="ON67" s="0"/>
+      <c r="OO67" s="0"/>
+      <c r="OP67" s="0"/>
+      <c r="OQ67" s="0"/>
+      <c r="OR67" s="0"/>
+      <c r="OS67" s="0"/>
+      <c r="OT67" s="0"/>
+      <c r="OU67" s="0"/>
+      <c r="OV67" s="0"/>
+      <c r="OW67" s="0"/>
+      <c r="OX67" s="0"/>
+      <c r="OY67" s="0"/>
+      <c r="OZ67" s="0"/>
+      <c r="PA67" s="0"/>
+      <c r="PB67" s="0"/>
+      <c r="PC67" s="0"/>
+      <c r="PD67" s="0"/>
+      <c r="PE67" s="0"/>
+      <c r="PF67" s="0"/>
+      <c r="PG67" s="0"/>
+      <c r="PH67" s="0"/>
+      <c r="PI67" s="0"/>
+      <c r="PJ67" s="0"/>
+      <c r="PK67" s="0"/>
+      <c r="PL67" s="0"/>
+      <c r="PM67" s="0"/>
+      <c r="PN67" s="0"/>
+      <c r="PO67" s="0"/>
+      <c r="PP67" s="0"/>
+      <c r="PQ67" s="0"/>
+      <c r="PR67" s="0"/>
+      <c r="PS67" s="0"/>
+      <c r="PT67" s="0"/>
+      <c r="PU67" s="0"/>
+      <c r="PV67" s="0"/>
+      <c r="PW67" s="0"/>
+      <c r="PX67" s="0"/>
+      <c r="PY67" s="0"/>
+      <c r="PZ67" s="0"/>
+      <c r="QA67" s="0"/>
+      <c r="QB67" s="0"/>
+      <c r="QC67" s="0"/>
+      <c r="QD67" s="0"/>
+      <c r="QE67" s="0"/>
+      <c r="QF67" s="0"/>
+      <c r="QG67" s="0"/>
+      <c r="QH67" s="0"/>
+      <c r="QI67" s="0"/>
+      <c r="QJ67" s="0"/>
+      <c r="QK67" s="0"/>
+      <c r="QL67" s="0"/>
+      <c r="QM67" s="0"/>
+      <c r="QN67" s="0"/>
+      <c r="QO67" s="0"/>
+      <c r="QP67" s="0"/>
+      <c r="QQ67" s="0"/>
+      <c r="QR67" s="0"/>
+      <c r="QS67" s="0"/>
+      <c r="QT67" s="0"/>
+      <c r="QU67" s="0"/>
+      <c r="QV67" s="0"/>
+      <c r="QW67" s="0"/>
+      <c r="QX67" s="0"/>
+      <c r="QY67" s="0"/>
+      <c r="QZ67" s="0"/>
+      <c r="RA67" s="0"/>
+      <c r="RB67" s="0"/>
+      <c r="RC67" s="0"/>
+      <c r="RD67" s="0"/>
+      <c r="RE67" s="0"/>
+      <c r="RF67" s="0"/>
+      <c r="RG67" s="0"/>
+      <c r="RH67" s="0"/>
+      <c r="RI67" s="0"/>
+      <c r="RJ67" s="0"/>
+      <c r="RK67" s="0"/>
+      <c r="RL67" s="0"/>
+      <c r="RM67" s="0"/>
+      <c r="RN67" s="0"/>
+      <c r="RO67" s="0"/>
+      <c r="RP67" s="0"/>
+      <c r="RQ67" s="0"/>
+      <c r="RR67" s="0"/>
+      <c r="RS67" s="0"/>
+      <c r="RT67" s="0"/>
+      <c r="RU67" s="0"/>
+      <c r="RV67" s="0"/>
+      <c r="RW67" s="0"/>
+      <c r="RX67" s="0"/>
+      <c r="RY67" s="0"/>
+      <c r="RZ67" s="0"/>
+      <c r="SA67" s="0"/>
+      <c r="SB67" s="0"/>
+      <c r="SC67" s="0"/>
+      <c r="SD67" s="0"/>
+      <c r="SE67" s="0"/>
+      <c r="SF67" s="0"/>
+      <c r="SG67" s="0"/>
+      <c r="SH67" s="0"/>
+      <c r="SI67" s="0"/>
+      <c r="SJ67" s="0"/>
+      <c r="SK67" s="0"/>
+      <c r="SL67" s="0"/>
+      <c r="SM67" s="0"/>
+      <c r="SN67" s="0"/>
+      <c r="SO67" s="0"/>
+      <c r="SP67" s="0"/>
+      <c r="SQ67" s="0"/>
+      <c r="SR67" s="0"/>
+      <c r="SS67" s="0"/>
+      <c r="ST67" s="0"/>
+      <c r="SU67" s="0"/>
+      <c r="SV67" s="0"/>
+      <c r="SW67" s="0"/>
+      <c r="SX67" s="0"/>
+      <c r="SY67" s="0"/>
+      <c r="SZ67" s="0"/>
+      <c r="TA67" s="0"/>
+      <c r="TB67" s="0"/>
+      <c r="TC67" s="0"/>
+      <c r="TD67" s="0"/>
+      <c r="TE67" s="0"/>
+      <c r="TF67" s="0"/>
+      <c r="TG67" s="0"/>
+      <c r="TH67" s="0"/>
+      <c r="TI67" s="0"/>
+      <c r="TJ67" s="0"/>
+      <c r="TK67" s="0"/>
+      <c r="TL67" s="0"/>
+      <c r="TM67" s="0"/>
+      <c r="TN67" s="0"/>
+      <c r="TO67" s="0"/>
+      <c r="TP67" s="0"/>
+      <c r="TQ67" s="0"/>
+      <c r="TR67" s="0"/>
+      <c r="TS67" s="0"/>
+      <c r="TT67" s="0"/>
+      <c r="TU67" s="0"/>
+      <c r="TV67" s="0"/>
+      <c r="TW67" s="0"/>
+      <c r="TX67" s="0"/>
+      <c r="TY67" s="0"/>
+      <c r="TZ67" s="0"/>
+      <c r="UA67" s="0"/>
+      <c r="UB67" s="0"/>
+      <c r="UC67" s="0"/>
+      <c r="UD67" s="0"/>
+      <c r="UE67" s="0"/>
+      <c r="UF67" s="0"/>
+      <c r="UG67" s="0"/>
+      <c r="UH67" s="0"/>
+      <c r="UI67" s="0"/>
+      <c r="UJ67" s="0"/>
+      <c r="UK67" s="0"/>
+      <c r="UL67" s="0"/>
+      <c r="UM67" s="0"/>
+      <c r="UN67" s="0"/>
+      <c r="UO67" s="0"/>
+      <c r="UP67" s="0"/>
+      <c r="UQ67" s="0"/>
+      <c r="UR67" s="0"/>
+      <c r="US67" s="0"/>
+      <c r="UT67" s="0"/>
+      <c r="UU67" s="0"/>
+      <c r="UV67" s="0"/>
+      <c r="UW67" s="0"/>
+      <c r="UX67" s="0"/>
+      <c r="UY67" s="0"/>
+      <c r="UZ67" s="0"/>
+      <c r="VA67" s="0"/>
+      <c r="VB67" s="0"/>
+      <c r="VC67" s="0"/>
+      <c r="VD67" s="0"/>
+      <c r="VE67" s="0"/>
+      <c r="VF67" s="0"/>
+      <c r="VG67" s="0"/>
+      <c r="VH67" s="0"/>
+      <c r="VI67" s="0"/>
+      <c r="VJ67" s="0"/>
+      <c r="VK67" s="0"/>
+      <c r="VL67" s="0"/>
+      <c r="VM67" s="0"/>
+      <c r="VN67" s="0"/>
+      <c r="VO67" s="0"/>
+      <c r="VP67" s="0"/>
+      <c r="VQ67" s="0"/>
+      <c r="VR67" s="0"/>
+      <c r="VS67" s="0"/>
+      <c r="VT67" s="0"/>
+      <c r="VU67" s="0"/>
+      <c r="VV67" s="0"/>
+      <c r="VW67" s="0"/>
+      <c r="VX67" s="0"/>
+      <c r="VY67" s="0"/>
+      <c r="VZ67" s="0"/>
+      <c r="WA67" s="0"/>
+      <c r="WB67" s="0"/>
+      <c r="WC67" s="0"/>
+      <c r="WD67" s="0"/>
+      <c r="WE67" s="0"/>
+      <c r="WF67" s="0"/>
+      <c r="WG67" s="0"/>
+      <c r="WH67" s="0"/>
+      <c r="WI67" s="0"/>
+      <c r="WJ67" s="0"/>
+      <c r="WK67" s="0"/>
+      <c r="WL67" s="0"/>
+      <c r="WM67" s="0"/>
+      <c r="WN67" s="0"/>
+      <c r="WO67" s="0"/>
+      <c r="WP67" s="0"/>
+      <c r="WQ67" s="0"/>
+      <c r="WR67" s="0"/>
+      <c r="WS67" s="0"/>
+      <c r="WT67" s="0"/>
+      <c r="WU67" s="0"/>
+      <c r="WV67" s="0"/>
+      <c r="WW67" s="0"/>
+      <c r="WX67" s="0"/>
+      <c r="WY67" s="0"/>
+      <c r="WZ67" s="0"/>
+      <c r="XA67" s="0"/>
+      <c r="XB67" s="0"/>
+      <c r="XC67" s="0"/>
+      <c r="XD67" s="0"/>
+      <c r="XE67" s="0"/>
+      <c r="XF67" s="0"/>
+      <c r="XG67" s="0"/>
+      <c r="XH67" s="0"/>
+      <c r="XI67" s="0"/>
+      <c r="XJ67" s="0"/>
+      <c r="XK67" s="0"/>
+      <c r="XL67" s="0"/>
+      <c r="XM67" s="0"/>
+      <c r="XN67" s="0"/>
+      <c r="XO67" s="0"/>
+      <c r="XP67" s="0"/>
+      <c r="XQ67" s="0"/>
+      <c r="XR67" s="0"/>
+      <c r="XS67" s="0"/>
+      <c r="XT67" s="0"/>
+      <c r="XU67" s="0"/>
+      <c r="XV67" s="0"/>
+      <c r="XW67" s="0"/>
+      <c r="XX67" s="0"/>
+      <c r="XY67" s="0"/>
+      <c r="XZ67" s="0"/>
+      <c r="YA67" s="0"/>
+      <c r="YB67" s="0"/>
+      <c r="YC67" s="0"/>
+      <c r="YD67" s="0"/>
+      <c r="YE67" s="0"/>
+      <c r="YF67" s="0"/>
+      <c r="YG67" s="0"/>
+      <c r="YH67" s="0"/>
+      <c r="YI67" s="0"/>
+      <c r="YJ67" s="0"/>
+      <c r="YK67" s="0"/>
+      <c r="YL67" s="0"/>
+      <c r="YM67" s="0"/>
+      <c r="YN67" s="0"/>
+      <c r="YO67" s="0"/>
+      <c r="YP67" s="0"/>
+      <c r="YQ67" s="0"/>
+      <c r="YR67" s="0"/>
+      <c r="YS67" s="0"/>
+      <c r="YT67" s="0"/>
+      <c r="YU67" s="0"/>
+      <c r="YV67" s="0"/>
+      <c r="YW67" s="0"/>
+      <c r="YX67" s="0"/>
+      <c r="YY67" s="0"/>
+      <c r="YZ67" s="0"/>
+      <c r="ZA67" s="0"/>
+      <c r="ZB67" s="0"/>
+      <c r="ZC67" s="0"/>
+      <c r="ZD67" s="0"/>
+      <c r="ZE67" s="0"/>
+      <c r="ZF67" s="0"/>
+      <c r="ZG67" s="0"/>
+      <c r="ZH67" s="0"/>
+      <c r="ZI67" s="0"/>
+      <c r="ZJ67" s="0"/>
+      <c r="ZK67" s="0"/>
+      <c r="ZL67" s="0"/>
+      <c r="ZM67" s="0"/>
+      <c r="ZN67" s="0"/>
+      <c r="ZO67" s="0"/>
+      <c r="ZP67" s="0"/>
+      <c r="ZQ67" s="0"/>
+      <c r="ZR67" s="0"/>
+      <c r="ZS67" s="0"/>
+      <c r="ZT67" s="0"/>
+      <c r="ZU67" s="0"/>
+      <c r="ZV67" s="0"/>
+      <c r="ZW67" s="0"/>
+      <c r="ZX67" s="0"/>
+      <c r="ZY67" s="0"/>
+      <c r="ZZ67" s="0"/>
+      <c r="AAA67" s="0"/>
+      <c r="AAB67" s="0"/>
+      <c r="AAC67" s="0"/>
+      <c r="AAD67" s="0"/>
+      <c r="AAE67" s="0"/>
+      <c r="AAF67" s="0"/>
+      <c r="AAG67" s="0"/>
+      <c r="AAH67" s="0"/>
+      <c r="AAI67" s="0"/>
+      <c r="AAJ67" s="0"/>
+      <c r="AAK67" s="0"/>
+      <c r="AAL67" s="0"/>
+      <c r="AAM67" s="0"/>
+      <c r="AAN67" s="0"/>
+      <c r="AAO67" s="0"/>
+      <c r="AAP67" s="0"/>
+      <c r="AAQ67" s="0"/>
+      <c r="AAR67" s="0"/>
+      <c r="AAS67" s="0"/>
+      <c r="AAT67" s="0"/>
+      <c r="AAU67" s="0"/>
+      <c r="AAV67" s="0"/>
+      <c r="AAW67" s="0"/>
+      <c r="AAX67" s="0"/>
+      <c r="AAY67" s="0"/>
+      <c r="AAZ67" s="0"/>
+      <c r="ABA67" s="0"/>
+      <c r="ABB67" s="0"/>
+      <c r="ABC67" s="0"/>
+      <c r="ABD67" s="0"/>
+      <c r="ABE67" s="0"/>
+      <c r="ABF67" s="0"/>
+      <c r="ABG67" s="0"/>
+      <c r="ABH67" s="0"/>
+      <c r="ABI67" s="0"/>
+      <c r="ABJ67" s="0"/>
+      <c r="ABK67" s="0"/>
+      <c r="ABL67" s="0"/>
+      <c r="ABM67" s="0"/>
+      <c r="ABN67" s="0"/>
+      <c r="ABO67" s="0"/>
+      <c r="ABP67" s="0"/>
+      <c r="ABQ67" s="0"/>
+      <c r="ABR67" s="0"/>
+      <c r="ABS67" s="0"/>
+      <c r="ABT67" s="0"/>
+      <c r="ABU67" s="0"/>
+      <c r="ABV67" s="0"/>
+      <c r="ABW67" s="0"/>
+      <c r="ABX67" s="0"/>
+      <c r="ABY67" s="0"/>
+      <c r="ABZ67" s="0"/>
+      <c r="ACA67" s="0"/>
+      <c r="ACB67" s="0"/>
+      <c r="ACC67" s="0"/>
+      <c r="ACD67" s="0"/>
+      <c r="ACE67" s="0"/>
+      <c r="ACF67" s="0"/>
+      <c r="ACG67" s="0"/>
+      <c r="ACH67" s="0"/>
+      <c r="ACI67" s="0"/>
+      <c r="ACJ67" s="0"/>
+      <c r="ACK67" s="0"/>
+      <c r="ACL67" s="0"/>
+      <c r="ACM67" s="0"/>
+      <c r="ACN67" s="0"/>
+      <c r="ACO67" s="0"/>
+      <c r="ACP67" s="0"/>
+      <c r="ACQ67" s="0"/>
+      <c r="ACR67" s="0"/>
+      <c r="ACS67" s="0"/>
+      <c r="ACT67" s="0"/>
+      <c r="ACU67" s="0"/>
+      <c r="ACV67" s="0"/>
+      <c r="ACW67" s="0"/>
+      <c r="ACX67" s="0"/>
+      <c r="ACY67" s="0"/>
+      <c r="ACZ67" s="0"/>
+      <c r="ADA67" s="0"/>
+      <c r="ADB67" s="0"/>
+      <c r="ADC67" s="0"/>
+      <c r="ADD67" s="0"/>
+      <c r="ADE67" s="0"/>
+      <c r="ADF67" s="0"/>
+      <c r="ADG67" s="0"/>
+      <c r="ADH67" s="0"/>
+      <c r="ADI67" s="0"/>
+      <c r="ADJ67" s="0"/>
+      <c r="ADK67" s="0"/>
+      <c r="ADL67" s="0"/>
+      <c r="ADM67" s="0"/>
+      <c r="ADN67" s="0"/>
+      <c r="ADO67" s="0"/>
+      <c r="ADP67" s="0"/>
+      <c r="ADQ67" s="0"/>
+      <c r="ADR67" s="0"/>
+      <c r="ADS67" s="0"/>
+      <c r="ADT67" s="0"/>
+      <c r="ADU67" s="0"/>
+      <c r="ADV67" s="0"/>
+      <c r="ADW67" s="0"/>
+      <c r="ADX67" s="0"/>
+      <c r="ADY67" s="0"/>
+      <c r="ADZ67" s="0"/>
+      <c r="AEA67" s="0"/>
+      <c r="AEB67" s="0"/>
+      <c r="AEC67" s="0"/>
+      <c r="AED67" s="0"/>
+      <c r="AEE67" s="0"/>
+      <c r="AEF67" s="0"/>
+      <c r="AEG67" s="0"/>
+      <c r="AEH67" s="0"/>
+      <c r="AEI67" s="0"/>
+      <c r="AEJ67" s="0"/>
+      <c r="AEK67" s="0"/>
+      <c r="AEL67" s="0"/>
+      <c r="AEM67" s="0"/>
+      <c r="AEN67" s="0"/>
+      <c r="AEO67" s="0"/>
+      <c r="AEP67" s="0"/>
+      <c r="AEQ67" s="0"/>
+      <c r="AER67" s="0"/>
+      <c r="AES67" s="0"/>
+      <c r="AET67" s="0"/>
+      <c r="AEU67" s="0"/>
+      <c r="AEV67" s="0"/>
+      <c r="AEW67" s="0"/>
+      <c r="AEX67" s="0"/>
+      <c r="AEY67" s="0"/>
+      <c r="AEZ67" s="0"/>
+      <c r="AFA67" s="0"/>
+      <c r="AFB67" s="0"/>
+      <c r="AFC67" s="0"/>
+      <c r="AFD67" s="0"/>
+      <c r="AFE67" s="0"/>
+      <c r="AFF67" s="0"/>
+      <c r="AFG67" s="0"/>
+      <c r="AFH67" s="0"/>
+      <c r="AFI67" s="0"/>
+      <c r="AFJ67" s="0"/>
+      <c r="AFK67" s="0"/>
+      <c r="AFL67" s="0"/>
+      <c r="AFM67" s="0"/>
+      <c r="AFN67" s="0"/>
+      <c r="AFO67" s="0"/>
+      <c r="AFP67" s="0"/>
+      <c r="AFQ67" s="0"/>
+      <c r="AFR67" s="0"/>
+      <c r="AFS67" s="0"/>
+      <c r="AFT67" s="0"/>
+      <c r="AFU67" s="0"/>
+      <c r="AFV67" s="0"/>
+      <c r="AFW67" s="0"/>
+      <c r="AFX67" s="0"/>
+      <c r="AFY67" s="0"/>
+      <c r="AFZ67" s="0"/>
+      <c r="AGA67" s="0"/>
+      <c r="AGB67" s="0"/>
+      <c r="AGC67" s="0"/>
+      <c r="AGD67" s="0"/>
+      <c r="AGE67" s="0"/>
+      <c r="AGF67" s="0"/>
+      <c r="AGG67" s="0"/>
+      <c r="AGH67" s="0"/>
+      <c r="AGI67" s="0"/>
+      <c r="AGJ67" s="0"/>
+      <c r="AGK67" s="0"/>
+      <c r="AGL67" s="0"/>
+      <c r="AGM67" s="0"/>
+      <c r="AGN67" s="0"/>
+      <c r="AGO67" s="0"/>
+      <c r="AGP67" s="0"/>
+      <c r="AGQ67" s="0"/>
+      <c r="AGR67" s="0"/>
+      <c r="AGS67" s="0"/>
+      <c r="AGT67" s="0"/>
+      <c r="AGU67" s="0"/>
+      <c r="AGV67" s="0"/>
+      <c r="AGW67" s="0"/>
+      <c r="AGX67" s="0"/>
+      <c r="AGY67" s="0"/>
+      <c r="AGZ67" s="0"/>
+      <c r="AHA67" s="0"/>
+      <c r="AHB67" s="0"/>
+      <c r="AHC67" s="0"/>
+      <c r="AHD67" s="0"/>
+      <c r="AHE67" s="0"/>
+      <c r="AHF67" s="0"/>
+      <c r="AHG67" s="0"/>
+      <c r="AHH67" s="0"/>
+      <c r="AHI67" s="0"/>
+      <c r="AHJ67" s="0"/>
+      <c r="AHK67" s="0"/>
+      <c r="AHL67" s="0"/>
+      <c r="AHM67" s="0"/>
+      <c r="AHN67" s="0"/>
+      <c r="AHO67" s="0"/>
+      <c r="AHP67" s="0"/>
+      <c r="AHQ67" s="0"/>
+      <c r="AHR67" s="0"/>
+      <c r="AHS67" s="0"/>
+      <c r="AHT67" s="0"/>
+      <c r="AHU67" s="0"/>
+      <c r="AHV67" s="0"/>
+      <c r="AHW67" s="0"/>
+      <c r="AHX67" s="0"/>
+      <c r="AHY67" s="0"/>
+      <c r="AHZ67" s="0"/>
+      <c r="AIA67" s="0"/>
+      <c r="AIB67" s="0"/>
+      <c r="AIC67" s="0"/>
+      <c r="AID67" s="0"/>
+      <c r="AIE67" s="0"/>
+      <c r="AIF67" s="0"/>
+      <c r="AIG67" s="0"/>
+      <c r="AIH67" s="0"/>
+      <c r="AII67" s="0"/>
+      <c r="AIJ67" s="0"/>
+      <c r="AIK67" s="0"/>
+      <c r="AIL67" s="0"/>
+      <c r="AIM67" s="0"/>
+      <c r="AIN67" s="0"/>
+      <c r="AIO67" s="0"/>
+      <c r="AIP67" s="0"/>
+      <c r="AIQ67" s="0"/>
+      <c r="AIR67" s="0"/>
+      <c r="AIS67" s="0"/>
+      <c r="AIT67" s="0"/>
+      <c r="AIU67" s="0"/>
+      <c r="AIV67" s="0"/>
+      <c r="AIW67" s="0"/>
+      <c r="AIX67" s="0"/>
+      <c r="AIY67" s="0"/>
+      <c r="AIZ67" s="0"/>
+      <c r="AJA67" s="0"/>
+      <c r="AJB67" s="0"/>
+      <c r="AJC67" s="0"/>
+      <c r="AJD67" s="0"/>
+      <c r="AJE67" s="0"/>
+      <c r="AJF67" s="0"/>
+      <c r="AJG67" s="0"/>
+      <c r="AJH67" s="0"/>
+      <c r="AJI67" s="0"/>
+      <c r="AJJ67" s="0"/>
+      <c r="AJK67" s="0"/>
+      <c r="AJL67" s="0"/>
+      <c r="AJM67" s="0"/>
+      <c r="AJN67" s="0"/>
+      <c r="AJO67" s="0"/>
+      <c r="AJP67" s="0"/>
+      <c r="AJQ67" s="0"/>
+      <c r="AJR67" s="0"/>
+      <c r="AJS67" s="0"/>
+      <c r="AJT67" s="0"/>
+      <c r="AJU67" s="0"/>
+      <c r="AJV67" s="0"/>
+      <c r="AJW67" s="0"/>
+      <c r="AJX67" s="0"/>
+      <c r="AJY67" s="0"/>
+      <c r="AJZ67" s="0"/>
+      <c r="AKA67" s="0"/>
+      <c r="AKB67" s="0"/>
+      <c r="AKC67" s="0"/>
+      <c r="AKD67" s="0"/>
+      <c r="AKE67" s="0"/>
+      <c r="AKF67" s="0"/>
+      <c r="AKG67" s="0"/>
+      <c r="AKH67" s="0"/>
+      <c r="AKI67" s="0"/>
+      <c r="AKJ67" s="0"/>
+      <c r="AKK67" s="0"/>
+      <c r="AKL67" s="0"/>
+      <c r="AKM67" s="0"/>
+      <c r="AKN67" s="0"/>
+      <c r="AKO67" s="0"/>
+      <c r="AKP67" s="0"/>
+      <c r="AKQ67" s="0"/>
+      <c r="AKR67" s="0"/>
+      <c r="AKS67" s="0"/>
+      <c r="AKT67" s="0"/>
+      <c r="AKU67" s="0"/>
+      <c r="AKV67" s="0"/>
+      <c r="AKW67" s="0"/>
+      <c r="AKX67" s="0"/>
+      <c r="AKY67" s="0"/>
+      <c r="AKZ67" s="0"/>
+      <c r="ALA67" s="0"/>
+      <c r="ALB67" s="0"/>
+      <c r="ALC67" s="0"/>
+      <c r="ALD67" s="0"/>
+      <c r="ALE67" s="0"/>
+      <c r="ALF67" s="0"/>
+      <c r="ALG67" s="0"/>
+      <c r="ALH67" s="0"/>
+      <c r="ALI67" s="0"/>
+      <c r="ALJ67" s="0"/>
+      <c r="ALK67" s="0"/>
+      <c r="ALL67" s="0"/>
+      <c r="ALM67" s="0"/>
+      <c r="ALN67" s="0"/>
+      <c r="ALO67" s="0"/>
+      <c r="ALP67" s="0"/>
+      <c r="ALQ67" s="0"/>
+      <c r="ALR67" s="0"/>
+      <c r="ALS67" s="0"/>
+      <c r="ALT67" s="0"/>
+      <c r="ALU67" s="0"/>
+      <c r="ALV67" s="0"/>
+      <c r="ALW67" s="0"/>
+      <c r="ALX67" s="0"/>
+      <c r="ALY67" s="0"/>
+      <c r="ALZ67" s="0"/>
+      <c r="AMA67" s="0"/>
+      <c r="AMB67" s="0"/>
+      <c r="AMC67" s="0"/>
+      <c r="AMD67" s="0"/>
+      <c r="AME67" s="0"/>
+      <c r="AMF67" s="0"/>
+      <c r="AMG67" s="0"/>
+      <c r="AMH67" s="0"/>
+      <c r="AMI67" s="0"/>
+      <c r="AMJ67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
-      <c r="B68" s="9" t="s">
-        <v>59</v>
+    <row r="68" s="22" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B68" s="18" t="s">
+        <v>90</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
-      <c r="H68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
-      <c r="B69" s="28" t="s">
+      <c r="C68" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>92</v>
-      </c>
+    </row>
+    <row r="69" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
       <c r="D69" s="0"/>
       <c r="E69" s="0"/>
       <c r="F69" s="0"/>
       <c r="G69" s="0"/>
       <c r="H69" s="0"/>
     </row>
-    <row r="70" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="0"/>
-      <c r="B70" s="29" t="s">
-        <v>59</v>
+      <c r="B70" s="11" t="s">
+        <v>60</v>
       </c>
-      <c r="C70" s="29"/>
+      <c r="C70" s="11"/>
       <c r="D70" s="0"/>
       <c r="E70" s="0"/>
       <c r="F70" s="0"/>
       <c r="G70" s="0"/>
       <c r="H70" s="0"/>
     </row>
-    <row r="71" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="0"/>
       <c r="B71" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="0"/>
@@ -65124,9 +65128,11 @@
       <c r="G71" s="0"/>
       <c r="H71" s="0"/>
     </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0"/>
-      <c r="B72" s="31"/>
+      <c r="B72" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="C72" s="31"/>
       <c r="D72" s="0"/>
       <c r="E72" s="0"/>
@@ -65134,23 +65140,23 @@
       <c r="G72" s="0"/>
       <c r="H72" s="0"/>
     </row>
-    <row r="73" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="0"/>
       <c r="B73" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="32"/>
       <c r="D73" s="0"/>
       <c r="E73" s="0"/>
       <c r="F73" s="0"/>
       <c r="G73" s="0"/>
       <c r="H73" s="0"/>
     </row>
-    <row r="74" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="0"/>
-      <c r="B74" s="33" t="s">
-        <v>96</v>
-      </c>
+      <c r="B74" s="33"/>
       <c r="C74" s="33"/>
       <c r="D74" s="0"/>
       <c r="E74" s="0"/>
@@ -65158,163 +65164,159 @@
       <c r="G74" s="0"/>
       <c r="H74" s="0"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="0"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
+      <c r="B75" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="34"/>
       <c r="D75" s="0"/>
       <c r="E75" s="0"/>
       <c r="F75" s="0"/>
       <c r="G75" s="0"/>
       <c r="H75" s="0"/>
     </row>
-    <row r="76" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="0"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
+      <c r="B76" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="35"/>
       <c r="D76" s="0"/>
       <c r="E76" s="0"/>
       <c r="F76" s="0"/>
       <c r="G76" s="0"/>
       <c r="H76" s="0"/>
     </row>
-    <row r="77" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="0"/>
-      <c r="B77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="9"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="0"/>
       <c r="E77" s="0"/>
       <c r="F77" s="0"/>
       <c r="G77" s="0"/>
       <c r="H77" s="0"/>
     </row>
-    <row r="78" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="0"/>
-      <c r="B78" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C78" s="34"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="0"/>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
       <c r="H78" s="0"/>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
+      <c r="B79" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="11"/>
       <c r="D79" s="0"/>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
       <c r="H79" s="0"/>
     </row>
-    <row r="80" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="35"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="37"/>
+    <row r="80" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0"/>
+      <c r="B80" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="36"/>
       <c r="D80" s="0"/>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
       <c r="H80" s="0"/>
     </row>
-    <row r="81" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="0"/>
-      <c r="B81" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="3"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
       <c r="D81" s="0"/>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
       <c r="H81" s="0"/>
     </row>
-    <row r="82" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0"/>
-      <c r="B82" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="18"/>
+    <row r="82" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="39"/>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
       <c r="H82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="0"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
+      <c r="B83" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="3"/>
       <c r="D83" s="0"/>
       <c r="E83" s="0"/>
       <c r="F83" s="0"/>
       <c r="G83" s="0"/>
       <c r="H83" s="0"/>
     </row>
-    <row r="84" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="148.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="0"/>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="0"/>
       <c r="E84" s="0"/>
       <c r="F84" s="0"/>
       <c r="G84" s="0"/>
       <c r="H84" s="0"/>
     </row>
-    <row r="85" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
-      <c r="B85" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" s="39"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="40"/>
       <c r="D85" s="0"/>
       <c r="E85" s="0"/>
       <c r="F85" s="0"/>
       <c r="G85" s="0"/>
       <c r="H85" s="0"/>
     </row>
-    <row r="86" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
-      <c r="B86" s="40" t="s">
-        <v>102</v>
+      <c r="B86" s="11" t="s">
+        <v>101</v>
       </c>
-      <c r="C86" s="40" t="s">
-        <v>103</v>
-      </c>
+      <c r="C86" s="11"/>
       <c r="D86" s="0"/>
       <c r="E86" s="0"/>
       <c r="F86" s="0"/>
       <c r="G86" s="0"/>
       <c r="H86" s="0"/>
     </row>
-    <row r="87" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="0"/>
       <c r="B87" s="41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
-      <c r="C87" s="41" t="s">
-        <v>105</v>
-      </c>
+      <c r="C87" s="41"/>
       <c r="D87" s="0"/>
       <c r="E87" s="0"/>
       <c r="F87" s="0"/>
       <c r="G87" s="0"/>
       <c r="H87" s="0"/>
     </row>
-    <row r="88" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="B88" s="41" t="s">
-        <v>106</v>
+      <c r="B88" s="42" t="s">
+        <v>103</v>
       </c>
-      <c r="C88" s="41" t="s">
-        <v>107</v>
+      <c r="C88" s="42" t="s">
+        <v>104</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="0"/>
@@ -65322,525 +65324,554 @@
       <c r="G88" s="0"/>
       <c r="H88" s="0"/>
     </row>
-    <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="88.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="42"/>
+      <c r="B89" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" s="0"/>
       <c r="E89" s="0"/>
       <c r="F89" s="0"/>
       <c r="G89" s="0"/>
       <c r="H89" s="0"/>
     </row>
-    <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="43"/>
-      <c r="B90" s="44" t="s">
+    <row r="90" customFormat="false" ht="99.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0"/>
+      <c r="B90" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D90" s="45" t="s">
-        <v>110</v>
-      </c>
+      <c r="D90" s="0"/>
       <c r="E90" s="0"/>
       <c r="F90" s="0"/>
       <c r="G90" s="0"/>
       <c r="H90" s="0"/>
     </row>
-    <row r="91" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0"/>
-      <c r="B91" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" s="48" t="s">
-        <v>113</v>
-      </c>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="0"/>
       <c r="F91" s="0"/>
       <c r="G91" s="0"/>
       <c r="H91" s="0"/>
     </row>
-    <row r="92" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0"/>
+    <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="45"/>
       <c r="B92" s="46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
-      <c r="C92" s="47" t="s">
-        <v>115</v>
+      <c r="C92" s="46" t="s">
+        <v>110</v>
       </c>
-      <c r="D92" s="48" t="s">
-        <v>116</v>
+      <c r="D92" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E92" s="0"/>
       <c r="F92" s="0"/>
       <c r="G92" s="0"/>
       <c r="H92" s="0"/>
     </row>
-    <row r="93" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="35"/>
-      <c r="B93" s="46" t="s">
-        <v>117</v>
+    <row r="93" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0"/>
+      <c r="B93" s="48" t="s">
+        <v>112</v>
       </c>
-      <c r="C93" s="47" t="s">
-        <v>118</v>
+      <c r="C93" s="49" t="s">
+        <v>113</v>
       </c>
-      <c r="D93" s="48" t="s">
-        <v>119</v>
+      <c r="D93" s="50" t="s">
+        <v>114</v>
       </c>
       <c r="E93" s="0"/>
       <c r="F93" s="0"/>
       <c r="G93" s="0"/>
       <c r="H93" s="0"/>
     </row>
-    <row r="94" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="49" t="s">
-        <v>120</v>
+    <row r="94" customFormat="false" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0"/>
+      <c r="B94" s="48" t="s">
+        <v>115</v>
       </c>
-      <c r="C94" s="50" t="s">
-        <v>121</v>
+      <c r="C94" s="49" t="s">
+        <v>116</v>
       </c>
-      <c r="D94" s="48" t="s">
-        <v>122</v>
+      <c r="D94" s="50" t="s">
+        <v>117</v>
       </c>
       <c r="E94" s="0"/>
       <c r="F94" s="0"/>
       <c r="G94" s="0"/>
       <c r="H94" s="0"/>
     </row>
-    <row r="95" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="43" t="s">
-        <v>123</v>
+    <row r="95" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="37"/>
+      <c r="B95" s="48" t="s">
+        <v>118</v>
       </c>
-      <c r="C95" s="51" t="s">
-        <v>124</v>
+      <c r="C95" s="49" t="s">
+        <v>119</v>
       </c>
-      <c r="D95" s="24" t="s">
-        <v>125</v>
+      <c r="D95" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="E95" s="0"/>
       <c r="F95" s="0"/>
       <c r="G95" s="0"/>
       <c r="H95" s="0"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="0"/>
+    <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>123</v>
+      </c>
       <c r="E96" s="0"/>
       <c r="F96" s="0"/>
       <c r="G96" s="0"/>
       <c r="H96" s="0"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
+    <row r="97" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
+      <c r="B98" s="45"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
+      <c r="B99" s="45"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
+      <c r="B100" s="45"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="45"/>
+      <c r="H100" s="45"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="43"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="43"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="43"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="43"/>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
+      <c r="B114" s="45"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="43"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="43"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="43"/>
-      <c r="H117" s="43"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="43"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="43"/>
-      <c r="H118" s="43"/>
+      <c r="B118" s="45"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="43"/>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
+      <c r="B121" s="45"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="45"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="45"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
-      <c r="H134" s="43"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="43"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="45"/>
+      <c r="H135" s="45"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
+      <c r="B136" s="45"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C79"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C77"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C81"/>
+    <mergeCell ref="B83:C83"/>
     <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C91" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
-    <hyperlink ref="C93" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
+    <hyperlink ref="C93" r:id="rId1" display="https://github.com/Ricardo5/SOSQTP"/>
+    <hyperlink ref="C95" r:id="rId2" display="https://contpaqi911.bitrix24.com/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -65881,207 +65912,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="B5" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="D5" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="52" t="s">
+      <c r="E5" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="52" t="s">
-        <v>36</v>
+      <c r="F5" s="54" t="s">
+        <v>48</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="G5" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="H5" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="D6" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="F6" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="G6" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="H6" s="54" t="s">
         <v>141</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="54" t="s">
-        <v>37</v>
+      <c r="G7" s="56" t="s">
+        <v>148</v>
       </c>
-      <c r="I7" s="56" t="s">
-        <v>148</v>
+      <c r="H7" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="58" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="F8" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="H8" s="56" t="s">
         <v>155</v>
+      </c>
+      <c r="I8" s="58" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="F9" s="55" t="s">
         <v>161</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="C10" s="56" t="s">
         <v>164</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>167</v>
+      </c>
+      <c r="I11" s="59" t="s">
+        <v>168</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="56" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>170</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>171</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="54" t="s">
-        <v>171</v>
+      <c r="B13" s="56" t="s">
+        <v>172</v>
       </c>
-      <c r="I13" s="57" t="s">
-        <v>172</v>
+      <c r="I13" s="59" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="54" t="s">
-        <v>173</v>
+      <c r="B14" s="56" t="s">
+        <v>174</v>
       </c>
-      <c r="I14" s="57" t="s">
-        <v>174</v>
+      <c r="I14" s="59" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="54" t="s">
-        <v>175</v>
+      <c r="B18" s="56" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="53" t="s">
-        <v>127</v>
+      <c r="B19" s="55" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="55" t="s">
-        <v>176</v>
+      <c r="B20" s="57" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -51,7 +51,7 @@
     <t>Carta de aceptación</t>
   </si>
   <si>
-    <t>PTL_carta_aceptacion</t>
+    <t>PTL_carta_agradecimiento</t>
   </si>
   <si>
     <t>Planeación</t>
@@ -282,7 +282,7 @@
     <t>Encuesta_satisfacción</t>
   </si>
   <si>
-    <t>Carta aceptación</t>
+    <t>Carta_agradecimiento</t>
   </si>
   <si>
     <t>Compras</t>
@@ -1188,8 +1188,8 @@
   </sheetPr>
   <dimension ref="1:139"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2274,17 +2274,2059 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
+      <c r="AQ3" s="0"/>
+      <c r="AR3" s="0"/>
+      <c r="AS3" s="0"/>
+      <c r="AT3" s="0"/>
+      <c r="AU3" s="0"/>
+      <c r="AV3" s="0"/>
+      <c r="AW3" s="0"/>
+      <c r="AX3" s="0"/>
+      <c r="AY3" s="0"/>
+      <c r="AZ3" s="0"/>
+      <c r="BA3" s="0"/>
+      <c r="BB3" s="0"/>
+      <c r="BC3" s="0"/>
+      <c r="BD3" s="0"/>
+      <c r="BE3" s="0"/>
+      <c r="BF3" s="0"/>
+      <c r="BG3" s="0"/>
+      <c r="BH3" s="0"/>
+      <c r="BI3" s="0"/>
+      <c r="BJ3" s="0"/>
+      <c r="BK3" s="0"/>
+      <c r="BL3" s="0"/>
+      <c r="BM3" s="0"/>
+      <c r="BN3" s="0"/>
+      <c r="BO3" s="0"/>
+      <c r="BP3" s="0"/>
+      <c r="BQ3" s="0"/>
+      <c r="BR3" s="0"/>
+      <c r="BS3" s="0"/>
+      <c r="BT3" s="0"/>
+      <c r="BU3" s="0"/>
+      <c r="BV3" s="0"/>
+      <c r="BW3" s="0"/>
+      <c r="BX3" s="0"/>
+      <c r="BY3" s="0"/>
+      <c r="BZ3" s="0"/>
+      <c r="CA3" s="0"/>
+      <c r="CB3" s="0"/>
+      <c r="CC3" s="0"/>
+      <c r="CD3" s="0"/>
+      <c r="CE3" s="0"/>
+      <c r="CF3" s="0"/>
+      <c r="CG3" s="0"/>
+      <c r="CH3" s="0"/>
+      <c r="CI3" s="0"/>
+      <c r="CJ3" s="0"/>
+      <c r="CK3" s="0"/>
+      <c r="CL3" s="0"/>
+      <c r="CM3" s="0"/>
+      <c r="CN3" s="0"/>
+      <c r="CO3" s="0"/>
+      <c r="CP3" s="0"/>
+      <c r="CQ3" s="0"/>
+      <c r="CR3" s="0"/>
+      <c r="CS3" s="0"/>
+      <c r="CT3" s="0"/>
+      <c r="CU3" s="0"/>
+      <c r="CV3" s="0"/>
+      <c r="CW3" s="0"/>
+      <c r="CX3" s="0"/>
+      <c r="CY3" s="0"/>
+      <c r="CZ3" s="0"/>
+      <c r="DA3" s="0"/>
+      <c r="DB3" s="0"/>
+      <c r="DC3" s="0"/>
+      <c r="DD3" s="0"/>
+      <c r="DE3" s="0"/>
+      <c r="DF3" s="0"/>
+      <c r="DG3" s="0"/>
+      <c r="DH3" s="0"/>
+      <c r="DI3" s="0"/>
+      <c r="DJ3" s="0"/>
+      <c r="DK3" s="0"/>
+      <c r="DL3" s="0"/>
+      <c r="DM3" s="0"/>
+      <c r="DN3" s="0"/>
+      <c r="DO3" s="0"/>
+      <c r="DP3" s="0"/>
+      <c r="DQ3" s="0"/>
+      <c r="DR3" s="0"/>
+      <c r="DS3" s="0"/>
+      <c r="DT3" s="0"/>
+      <c r="DU3" s="0"/>
+      <c r="DV3" s="0"/>
+      <c r="DW3" s="0"/>
+      <c r="DX3" s="0"/>
+      <c r="DY3" s="0"/>
+      <c r="DZ3" s="0"/>
+      <c r="EA3" s="0"/>
+      <c r="EB3" s="0"/>
+      <c r="EC3" s="0"/>
+      <c r="ED3" s="0"/>
+      <c r="EE3" s="0"/>
+      <c r="EF3" s="0"/>
+      <c r="EG3" s="0"/>
+      <c r="EH3" s="0"/>
+      <c r="EI3" s="0"/>
+      <c r="EJ3" s="0"/>
+      <c r="EK3" s="0"/>
+      <c r="EL3" s="0"/>
+      <c r="EM3" s="0"/>
+      <c r="EN3" s="0"/>
+      <c r="EO3" s="0"/>
+      <c r="EP3" s="0"/>
+      <c r="EQ3" s="0"/>
+      <c r="ER3" s="0"/>
+      <c r="ES3" s="0"/>
+      <c r="ET3" s="0"/>
+      <c r="EU3" s="0"/>
+      <c r="EV3" s="0"/>
+      <c r="EW3" s="0"/>
+      <c r="EX3" s="0"/>
+      <c r="EY3" s="0"/>
+      <c r="EZ3" s="0"/>
+      <c r="FA3" s="0"/>
+      <c r="FB3" s="0"/>
+      <c r="FC3" s="0"/>
+      <c r="FD3" s="0"/>
+      <c r="FE3" s="0"/>
+      <c r="FF3" s="0"/>
+      <c r="FG3" s="0"/>
+      <c r="FH3" s="0"/>
+      <c r="FI3" s="0"/>
+      <c r="FJ3" s="0"/>
+      <c r="FK3" s="0"/>
+      <c r="FL3" s="0"/>
+      <c r="FM3" s="0"/>
+      <c r="FN3" s="0"/>
+      <c r="FO3" s="0"/>
+      <c r="FP3" s="0"/>
+      <c r="FQ3" s="0"/>
+      <c r="FR3" s="0"/>
+      <c r="FS3" s="0"/>
+      <c r="FT3" s="0"/>
+      <c r="FU3" s="0"/>
+      <c r="FV3" s="0"/>
+      <c r="FW3" s="0"/>
+      <c r="FX3" s="0"/>
+      <c r="FY3" s="0"/>
+      <c r="FZ3" s="0"/>
+      <c r="GA3" s="0"/>
+      <c r="GB3" s="0"/>
+      <c r="GC3" s="0"/>
+      <c r="GD3" s="0"/>
+      <c r="GE3" s="0"/>
+      <c r="GF3" s="0"/>
+      <c r="GG3" s="0"/>
+      <c r="GH3" s="0"/>
+      <c r="GI3" s="0"/>
+      <c r="GJ3" s="0"/>
+      <c r="GK3" s="0"/>
+      <c r="GL3" s="0"/>
+      <c r="GM3" s="0"/>
+      <c r="GN3" s="0"/>
+      <c r="GO3" s="0"/>
+      <c r="GP3" s="0"/>
+      <c r="GQ3" s="0"/>
+      <c r="GR3" s="0"/>
+      <c r="GS3" s="0"/>
+      <c r="GT3" s="0"/>
+      <c r="GU3" s="0"/>
+      <c r="GV3" s="0"/>
+      <c r="GW3" s="0"/>
+      <c r="GX3" s="0"/>
+      <c r="GY3" s="0"/>
+      <c r="GZ3" s="0"/>
+      <c r="HA3" s="0"/>
+      <c r="HB3" s="0"/>
+      <c r="HC3" s="0"/>
+      <c r="HD3" s="0"/>
+      <c r="HE3" s="0"/>
+      <c r="HF3" s="0"/>
+      <c r="HG3" s="0"/>
+      <c r="HH3" s="0"/>
+      <c r="HI3" s="0"/>
+      <c r="HJ3" s="0"/>
+      <c r="HK3" s="0"/>
+      <c r="HL3" s="0"/>
+      <c r="HM3" s="0"/>
+      <c r="HN3" s="0"/>
+      <c r="HO3" s="0"/>
+      <c r="HP3" s="0"/>
+      <c r="HQ3" s="0"/>
+      <c r="HR3" s="0"/>
+      <c r="HS3" s="0"/>
+      <c r="HT3" s="0"/>
+      <c r="HU3" s="0"/>
+      <c r="HV3" s="0"/>
+      <c r="HW3" s="0"/>
+      <c r="HX3" s="0"/>
+      <c r="HY3" s="0"/>
+      <c r="HZ3" s="0"/>
+      <c r="IA3" s="0"/>
+      <c r="IB3" s="0"/>
+      <c r="IC3" s="0"/>
+      <c r="ID3" s="0"/>
+      <c r="IE3" s="0"/>
+      <c r="IF3" s="0"/>
+      <c r="IG3" s="0"/>
+      <c r="IH3" s="0"/>
+      <c r="II3" s="0"/>
+      <c r="IJ3" s="0"/>
+      <c r="IK3" s="0"/>
+      <c r="IL3" s="0"/>
+      <c r="IM3" s="0"/>
+      <c r="IN3" s="0"/>
+      <c r="IO3" s="0"/>
+      <c r="IP3" s="0"/>
+      <c r="IQ3" s="0"/>
+      <c r="IR3" s="0"/>
+      <c r="IS3" s="0"/>
+      <c r="IT3" s="0"/>
+      <c r="IU3" s="0"/>
+      <c r="IV3" s="0"/>
+      <c r="IW3" s="0"/>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="79.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="6"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>

--- a/Organización/Configuración/Plan_Configuración.xlsx
+++ b/Organización/Configuración/Plan_Configuración.xlsx
@@ -48,7 +48,7 @@
     <t>Cierre</t>
   </si>
   <si>
-    <t>Carta de aceptación</t>
+    <t>Carta de agradecimiento</t>
   </si>
   <si>
     <t>PTL_carta_agradecimiento</t>
